--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="143">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>['30', '35', '90+7']</t>
+  </si>
+  <si>
+    <t>['3', '49', '74']</t>
   </si>
   <si>
     <t>['39', '90+2']</t>
@@ -801,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP42"/>
+  <dimension ref="A1:BP43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1060,7 +1063,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1266,7 +1269,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1678,7 +1681,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1884,7 +1887,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2502,7 +2505,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2914,7 +2917,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3120,7 +3123,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -3407,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3532,7 +3535,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3738,7 +3741,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -3944,7 +3947,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4022,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ16">
         <v>2</v>
@@ -4150,7 +4153,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4356,7 +4359,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4562,7 +4565,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -4974,7 +4977,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5386,7 +5389,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5592,7 +5595,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -5876,7 +5879,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ25">
         <v>0.5</v>
@@ -6004,7 +6007,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6210,7 +6213,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6416,7 +6419,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6622,7 +6625,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6906,7 +6909,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ30">
         <v>2</v>
@@ -7240,7 +7243,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7321,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>0.59</v>
@@ -7652,7 +7655,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -7858,7 +7861,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8064,7 +8067,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q36">
         <v>2.54</v>
@@ -8270,7 +8273,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q37">
         <v>1.55</v>
@@ -8476,7 +8479,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -9094,7 +9097,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q41">
         <v>2.14</v>
@@ -9300,7 +9303,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9457,6 +9460,212 @@
       </c>
       <c r="BP42">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7294995</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45416.54166666666</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H43" t="s">
+        <v>75</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43" t="s">
+        <v>114</v>
+      </c>
+      <c r="P43" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q43">
+        <v>2.1</v>
+      </c>
+      <c r="R43">
+        <v>2.4</v>
+      </c>
+      <c r="S43">
+        <v>5.5</v>
+      </c>
+      <c r="T43">
+        <v>1.3</v>
+      </c>
+      <c r="U43">
+        <v>3.4</v>
+      </c>
+      <c r="V43">
+        <v>2.5</v>
+      </c>
+      <c r="W43">
+        <v>1.5</v>
+      </c>
+      <c r="X43">
+        <v>6</v>
+      </c>
+      <c r="Y43">
+        <v>1.13</v>
+      </c>
+      <c r="Z43">
+        <v>1.53</v>
+      </c>
+      <c r="AA43">
+        <v>4</v>
+      </c>
+      <c r="AB43">
+        <v>5.2</v>
+      </c>
+      <c r="AC43">
+        <v>1.04</v>
+      </c>
+      <c r="AD43">
+        <v>10.5</v>
+      </c>
+      <c r="AE43">
+        <v>1.16</v>
+      </c>
+      <c r="AF43">
+        <v>4.33</v>
+      </c>
+      <c r="AG43">
+        <v>1.68</v>
+      </c>
+      <c r="AH43">
+        <v>2.2</v>
+      </c>
+      <c r="AI43">
+        <v>1.75</v>
+      </c>
+      <c r="AJ43">
+        <v>2</v>
+      </c>
+      <c r="AK43">
+        <v>1.12</v>
+      </c>
+      <c r="AL43">
+        <v>1.2</v>
+      </c>
+      <c r="AM43">
+        <v>2.68</v>
+      </c>
+      <c r="AN43">
+        <v>2</v>
+      </c>
+      <c r="AO43">
+        <v>1.5</v>
+      </c>
+      <c r="AP43">
+        <v>2.25</v>
+      </c>
+      <c r="AQ43">
+        <v>1</v>
+      </c>
+      <c r="AR43">
+        <v>1.98</v>
+      </c>
+      <c r="AS43">
+        <v>1.23</v>
+      </c>
+      <c r="AT43">
+        <v>3.21</v>
+      </c>
+      <c r="AU43">
+        <v>-1</v>
+      </c>
+      <c r="AV43">
+        <v>-1</v>
+      </c>
+      <c r="AW43">
+        <v>-1</v>
+      </c>
+      <c r="AX43">
+        <v>-1</v>
+      </c>
+      <c r="AY43">
+        <v>-1</v>
+      </c>
+      <c r="AZ43">
+        <v>-1</v>
+      </c>
+      <c r="BA43">
+        <v>-1</v>
+      </c>
+      <c r="BB43">
+        <v>-1</v>
+      </c>
+      <c r="BC43">
+        <v>-1</v>
+      </c>
+      <c r="BD43">
+        <v>1.64</v>
+      </c>
+      <c r="BE43">
+        <v>8</v>
+      </c>
+      <c r="BF43">
+        <v>2.75</v>
+      </c>
+      <c r="BG43">
+        <v>1.1</v>
+      </c>
+      <c r="BH43">
+        <v>5.4</v>
+      </c>
+      <c r="BI43">
+        <v>1.23</v>
+      </c>
+      <c r="BJ43">
+        <v>3.56</v>
+      </c>
+      <c r="BK43">
+        <v>1.44</v>
+      </c>
+      <c r="BL43">
+        <v>2.58</v>
+      </c>
+      <c r="BM43">
+        <v>1.76</v>
+      </c>
+      <c r="BN43">
+        <v>2</v>
+      </c>
+      <c r="BO43">
+        <v>2.19</v>
+      </c>
+      <c r="BP43">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -9602,31 +9602,31 @@
         <v>3.21</v>
       </c>
       <c r="AU43">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV43">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW43">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX43">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY43">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="AZ43">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA43">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BB43">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC43">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD43">
         <v>1.64</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="150">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,21 @@
     <t>['3', '49', '74']</t>
   </si>
   <si>
+    <t>['65', '78', '90+6']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['52', '90+6']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -443,6 +458,12 @@
   </si>
   <si>
     <t>['25', '86', '90+4']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['79', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -804,7 +825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP43"/>
+  <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1063,7 +1084,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1141,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ2">
         <v>2</v>
@@ -1269,7 +1290,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1556,7 +1577,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1681,7 +1702,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1887,7 +1908,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2377,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>1.33</v>
@@ -2505,7 +2526,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2586,7 +2607,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2789,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ10">
         <v>0.5</v>
@@ -2917,7 +2938,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -2995,10 +3016,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3123,7 +3144,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -3204,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="AQ12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3535,7 +3556,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3613,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
         <v>2</v>
@@ -3741,7 +3762,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -3822,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3947,7 +3968,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4028,7 +4049,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4153,7 +4174,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4359,7 +4380,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4437,7 +4458,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>1.67</v>
@@ -4565,7 +4586,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -4977,7 +4998,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5055,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ21">
         <v>0.33</v>
@@ -5264,7 +5285,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR22">
         <v>1.3</v>
@@ -5389,7 +5410,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5595,7 +5616,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -5676,7 +5697,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>2.18</v>
@@ -5882,7 +5903,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ25">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR25">
         <v>2.34</v>
@@ -6007,7 +6028,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6213,7 +6234,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6294,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR27">
         <v>1.08</v>
@@ -6419,7 +6440,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6497,10 +6518,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -6625,7 +6646,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6703,10 +6724,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR29">
         <v>1.39</v>
@@ -7115,10 +7136,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR31">
         <v>1.22</v>
@@ -7243,7 +7264,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7527,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ33">
         <v>0</v>
@@ -7655,7 +7676,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -7733,10 +7754,10 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR34">
         <v>1.56</v>
@@ -7861,7 +7882,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8067,7 +8088,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q36">
         <v>2.54</v>
@@ -8273,7 +8294,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q37">
         <v>1.55</v>
@@ -8479,7 +8500,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -9097,7 +9118,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q41">
         <v>2.14</v>
@@ -9178,7 +9199,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ41">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR41">
         <v>1.56</v>
@@ -9303,7 +9324,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9381,7 +9402,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ42">
         <v>0.5</v>
@@ -9666,6 +9687,1448 @@
       </c>
       <c r="BP43">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7295001</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45417.5</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>85</v>
+      </c>
+      <c r="H44" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>4</v>
+      </c>
+      <c r="O44" t="s">
+        <v>115</v>
+      </c>
+      <c r="P44" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q44">
+        <v>4.5</v>
+      </c>
+      <c r="R44">
+        <v>2.38</v>
+      </c>
+      <c r="S44">
+        <v>2.1</v>
+      </c>
+      <c r="T44">
+        <v>1.28</v>
+      </c>
+      <c r="U44">
+        <v>3.4</v>
+      </c>
+      <c r="V44">
+        <v>2.25</v>
+      </c>
+      <c r="W44">
+        <v>1.57</v>
+      </c>
+      <c r="X44">
+        <v>4.9</v>
+      </c>
+      <c r="Y44">
+        <v>1.14</v>
+      </c>
+      <c r="Z44">
+        <v>4.45</v>
+      </c>
+      <c r="AA44">
+        <v>3.9</v>
+      </c>
+      <c r="AB44">
+        <v>1.67</v>
+      </c>
+      <c r="AC44">
+        <v>1.03</v>
+      </c>
+      <c r="AD44">
+        <v>11</v>
+      </c>
+      <c r="AE44">
+        <v>1.18</v>
+      </c>
+      <c r="AF44">
+        <v>4.75</v>
+      </c>
+      <c r="AG44">
+        <v>1.57</v>
+      </c>
+      <c r="AH44">
+        <v>2.25</v>
+      </c>
+      <c r="AI44">
+        <v>1.55</v>
+      </c>
+      <c r="AJ44">
+        <v>2.25</v>
+      </c>
+      <c r="AK44">
+        <v>2.15</v>
+      </c>
+      <c r="AL44">
+        <v>1.18</v>
+      </c>
+      <c r="AM44">
+        <v>1.18</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>2</v>
+      </c>
+      <c r="AP44">
+        <v>1.5</v>
+      </c>
+      <c r="AQ44">
+        <v>1.33</v>
+      </c>
+      <c r="AR44">
+        <v>1.32</v>
+      </c>
+      <c r="AS44">
+        <v>1.27</v>
+      </c>
+      <c r="AT44">
+        <v>2.59</v>
+      </c>
+      <c r="AU44">
+        <v>6</v>
+      </c>
+      <c r="AV44">
+        <v>4</v>
+      </c>
+      <c r="AW44">
+        <v>11</v>
+      </c>
+      <c r="AX44">
+        <v>7</v>
+      </c>
+      <c r="AY44">
+        <v>17</v>
+      </c>
+      <c r="AZ44">
+        <v>11</v>
+      </c>
+      <c r="BA44">
+        <v>8</v>
+      </c>
+      <c r="BB44">
+        <v>6</v>
+      </c>
+      <c r="BC44">
+        <v>14</v>
+      </c>
+      <c r="BD44">
+        <v>2.43</v>
+      </c>
+      <c r="BE44">
+        <v>7.5</v>
+      </c>
+      <c r="BF44">
+        <v>1.79</v>
+      </c>
+      <c r="BG44">
+        <v>1.15</v>
+      </c>
+      <c r="BH44">
+        <v>4.45</v>
+      </c>
+      <c r="BI44">
+        <v>1.27</v>
+      </c>
+      <c r="BJ44">
+        <v>3.55</v>
+      </c>
+      <c r="BK44">
+        <v>1.46</v>
+      </c>
+      <c r="BL44">
+        <v>2.52</v>
+      </c>
+      <c r="BM44">
+        <v>1.8</v>
+      </c>
+      <c r="BN44">
+        <v>1.9</v>
+      </c>
+      <c r="BO44">
+        <v>2.3</v>
+      </c>
+      <c r="BP44">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7295000</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45417.5</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>78</v>
+      </c>
+      <c r="H45" t="s">
+        <v>81</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
+        <v>116</v>
+      </c>
+      <c r="P45" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q45">
+        <v>1.73</v>
+      </c>
+      <c r="R45">
+        <v>2.63</v>
+      </c>
+      <c r="S45">
+        <v>8</v>
+      </c>
+      <c r="T45">
+        <v>1.29</v>
+      </c>
+      <c r="U45">
+        <v>3.5</v>
+      </c>
+      <c r="V45">
+        <v>2.25</v>
+      </c>
+      <c r="W45">
+        <v>1.57</v>
+      </c>
+      <c r="X45">
+        <v>5.5</v>
+      </c>
+      <c r="Y45">
+        <v>1.14</v>
+      </c>
+      <c r="Z45">
+        <v>1.27</v>
+      </c>
+      <c r="AA45">
+        <v>5.6</v>
+      </c>
+      <c r="AB45">
+        <v>8.9</v>
+      </c>
+      <c r="AC45">
+        <v>1.03</v>
+      </c>
+      <c r="AD45">
+        <v>19.25</v>
+      </c>
+      <c r="AE45">
+        <v>1.18</v>
+      </c>
+      <c r="AF45">
+        <v>4.85</v>
+      </c>
+      <c r="AG45">
+        <v>1.55</v>
+      </c>
+      <c r="AH45">
+        <v>2.3</v>
+      </c>
+      <c r="AI45">
+        <v>1.95</v>
+      </c>
+      <c r="AJ45">
+        <v>1.8</v>
+      </c>
+      <c r="AK45">
+        <v>1.08</v>
+      </c>
+      <c r="AL45">
+        <v>1.15</v>
+      </c>
+      <c r="AM45">
+        <v>3.5</v>
+      </c>
+      <c r="AN45">
+        <v>2</v>
+      </c>
+      <c r="AO45">
+        <v>2</v>
+      </c>
+      <c r="AP45">
+        <v>2.33</v>
+      </c>
+      <c r="AQ45">
+        <v>1.5</v>
+      </c>
+      <c r="AR45">
+        <v>1.4</v>
+      </c>
+      <c r="AS45">
+        <v>1.34</v>
+      </c>
+      <c r="AT45">
+        <v>2.74</v>
+      </c>
+      <c r="AU45">
+        <v>6</v>
+      </c>
+      <c r="AV45">
+        <v>6</v>
+      </c>
+      <c r="AW45">
+        <v>6</v>
+      </c>
+      <c r="AX45">
+        <v>4</v>
+      </c>
+      <c r="AY45">
+        <v>12</v>
+      </c>
+      <c r="AZ45">
+        <v>10</v>
+      </c>
+      <c r="BA45">
+        <v>11</v>
+      </c>
+      <c r="BB45">
+        <v>4</v>
+      </c>
+      <c r="BC45">
+        <v>15</v>
+      </c>
+      <c r="BD45">
+        <v>1.66</v>
+      </c>
+      <c r="BE45">
+        <v>7.5</v>
+      </c>
+      <c r="BF45">
+        <v>2.75</v>
+      </c>
+      <c r="BG45">
+        <v>1.2</v>
+      </c>
+      <c r="BH45">
+        <v>4.25</v>
+      </c>
+      <c r="BI45">
+        <v>1.38</v>
+      </c>
+      <c r="BJ45">
+        <v>2.8</v>
+      </c>
+      <c r="BK45">
+        <v>1.67</v>
+      </c>
+      <c r="BL45">
+        <v>2.07</v>
+      </c>
+      <c r="BM45">
+        <v>2.12</v>
+      </c>
+      <c r="BN45">
+        <v>1.64</v>
+      </c>
+      <c r="BO45">
+        <v>2.77</v>
+      </c>
+      <c r="BP45">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7294997</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45417.5</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H46" t="s">
+        <v>83</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46" t="s">
+        <v>117</v>
+      </c>
+      <c r="P46" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q46">
+        <v>2.75</v>
+      </c>
+      <c r="R46">
+        <v>2.2</v>
+      </c>
+      <c r="S46">
+        <v>3.75</v>
+      </c>
+      <c r="T46">
+        <v>1.36</v>
+      </c>
+      <c r="U46">
+        <v>3</v>
+      </c>
+      <c r="V46">
+        <v>2.75</v>
+      </c>
+      <c r="W46">
+        <v>1.4</v>
+      </c>
+      <c r="X46">
+        <v>8</v>
+      </c>
+      <c r="Y46">
+        <v>1.08</v>
+      </c>
+      <c r="Z46">
+        <v>2.02</v>
+      </c>
+      <c r="AA46">
+        <v>3.55</v>
+      </c>
+      <c r="AB46">
+        <v>3.3</v>
+      </c>
+      <c r="AC46">
+        <v>1.05</v>
+      </c>
+      <c r="AD46">
+        <v>12</v>
+      </c>
+      <c r="AE46">
+        <v>1.27</v>
+      </c>
+      <c r="AF46">
+        <v>3.78</v>
+      </c>
+      <c r="AG46">
+        <v>1.87</v>
+      </c>
+      <c r="AH46">
+        <v>1.83</v>
+      </c>
+      <c r="AI46">
+        <v>1.7</v>
+      </c>
+      <c r="AJ46">
+        <v>2.05</v>
+      </c>
+      <c r="AK46">
+        <v>1.28</v>
+      </c>
+      <c r="AL46">
+        <v>1.25</v>
+      </c>
+      <c r="AM46">
+        <v>1.75</v>
+      </c>
+      <c r="AN46">
+        <v>2</v>
+      </c>
+      <c r="AO46">
+        <v>0.5</v>
+      </c>
+      <c r="AP46">
+        <v>1.67</v>
+      </c>
+      <c r="AQ46">
+        <v>0.6</v>
+      </c>
+      <c r="AR46">
+        <v>1.51</v>
+      </c>
+      <c r="AS46">
+        <v>1.12</v>
+      </c>
+      <c r="AT46">
+        <v>2.63</v>
+      </c>
+      <c r="AU46">
+        <v>3</v>
+      </c>
+      <c r="AV46">
+        <v>6</v>
+      </c>
+      <c r="AW46">
+        <v>6</v>
+      </c>
+      <c r="AX46">
+        <v>3</v>
+      </c>
+      <c r="AY46">
+        <v>9</v>
+      </c>
+      <c r="AZ46">
+        <v>9</v>
+      </c>
+      <c r="BA46">
+        <v>6</v>
+      </c>
+      <c r="BB46">
+        <v>8</v>
+      </c>
+      <c r="BC46">
+        <v>14</v>
+      </c>
+      <c r="BD46">
+        <v>2.17</v>
+      </c>
+      <c r="BE46">
+        <v>8</v>
+      </c>
+      <c r="BF46">
+        <v>1.95</v>
+      </c>
+      <c r="BG46">
+        <v>1.09</v>
+      </c>
+      <c r="BH46">
+        <v>6.7</v>
+      </c>
+      <c r="BI46">
+        <v>1.14</v>
+      </c>
+      <c r="BJ46">
+        <v>4.6</v>
+      </c>
+      <c r="BK46">
+        <v>1.3</v>
+      </c>
+      <c r="BL46">
+        <v>3.3</v>
+      </c>
+      <c r="BM46">
+        <v>1.53</v>
+      </c>
+      <c r="BN46">
+        <v>2.33</v>
+      </c>
+      <c r="BO46">
+        <v>1.85</v>
+      </c>
+      <c r="BP46">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7294998</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45417.5</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>82</v>
+      </c>
+      <c r="H47" t="s">
+        <v>74</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47" t="s">
+        <v>118</v>
+      </c>
+      <c r="P47" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q47">
+        <v>2.8</v>
+      </c>
+      <c r="R47">
+        <v>2.35</v>
+      </c>
+      <c r="S47">
+        <v>3.4</v>
+      </c>
+      <c r="T47">
+        <v>1.3</v>
+      </c>
+      <c r="U47">
+        <v>3.4</v>
+      </c>
+      <c r="V47">
+        <v>2.3</v>
+      </c>
+      <c r="W47">
+        <v>1.57</v>
+      </c>
+      <c r="X47">
+        <v>5</v>
+      </c>
+      <c r="Y47">
+        <v>1.14</v>
+      </c>
+      <c r="Z47">
+        <v>2.2</v>
+      </c>
+      <c r="AA47">
+        <v>3.6</v>
+      </c>
+      <c r="AB47">
+        <v>2.86</v>
+      </c>
+      <c r="AC47">
+        <v>1.03</v>
+      </c>
+      <c r="AD47">
+        <v>11</v>
+      </c>
+      <c r="AE47">
+        <v>1.17</v>
+      </c>
+      <c r="AF47">
+        <v>4.5</v>
+      </c>
+      <c r="AG47">
+        <v>1.6</v>
+      </c>
+      <c r="AH47">
+        <v>2.2</v>
+      </c>
+      <c r="AI47">
+        <v>1.5</v>
+      </c>
+      <c r="AJ47">
+        <v>2.5</v>
+      </c>
+      <c r="AK47">
+        <v>1.4</v>
+      </c>
+      <c r="AL47">
+        <v>1.25</v>
+      </c>
+      <c r="AM47">
+        <v>1.65</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>3</v>
+      </c>
+      <c r="AP47">
+        <v>1</v>
+      </c>
+      <c r="AQ47">
+        <v>2</v>
+      </c>
+      <c r="AR47">
+        <v>1.46</v>
+      </c>
+      <c r="AS47">
+        <v>1.38</v>
+      </c>
+      <c r="AT47">
+        <v>2.84</v>
+      </c>
+      <c r="AU47">
+        <v>7</v>
+      </c>
+      <c r="AV47">
+        <v>4</v>
+      </c>
+      <c r="AW47">
+        <v>5</v>
+      </c>
+      <c r="AX47">
+        <v>4</v>
+      </c>
+      <c r="AY47">
+        <v>12</v>
+      </c>
+      <c r="AZ47">
+        <v>8</v>
+      </c>
+      <c r="BA47">
+        <v>10</v>
+      </c>
+      <c r="BB47">
+        <v>5</v>
+      </c>
+      <c r="BC47">
+        <v>15</v>
+      </c>
+      <c r="BD47">
+        <v>1.72</v>
+      </c>
+      <c r="BE47">
+        <v>7.5</v>
+      </c>
+      <c r="BF47">
+        <v>2.6</v>
+      </c>
+      <c r="BG47">
+        <v>1.1</v>
+      </c>
+      <c r="BH47">
+        <v>5.45</v>
+      </c>
+      <c r="BI47">
+        <v>1.29</v>
+      </c>
+      <c r="BJ47">
+        <v>3.45</v>
+      </c>
+      <c r="BK47">
+        <v>1.48</v>
+      </c>
+      <c r="BL47">
+        <v>2.47</v>
+      </c>
+      <c r="BM47">
+        <v>1.85</v>
+      </c>
+      <c r="BN47">
+        <v>1.85</v>
+      </c>
+      <c r="BO47">
+        <v>2.35</v>
+      </c>
+      <c r="BP47">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7294996</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45417.5</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>80</v>
+      </c>
+      <c r="H48" t="s">
+        <v>77</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48" t="s">
+        <v>87</v>
+      </c>
+      <c r="P48" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q48">
+        <v>2.75</v>
+      </c>
+      <c r="R48">
+        <v>2.2</v>
+      </c>
+      <c r="S48">
+        <v>3.75</v>
+      </c>
+      <c r="T48">
+        <v>1.4</v>
+      </c>
+      <c r="U48">
+        <v>2.75</v>
+      </c>
+      <c r="V48">
+        <v>2.75</v>
+      </c>
+      <c r="W48">
+        <v>1.4</v>
+      </c>
+      <c r="X48">
+        <v>8</v>
+      </c>
+      <c r="Y48">
+        <v>1.08</v>
+      </c>
+      <c r="Z48">
+        <v>2.12</v>
+      </c>
+      <c r="AA48">
+        <v>3.5</v>
+      </c>
+      <c r="AB48">
+        <v>3.1</v>
+      </c>
+      <c r="AC48">
+        <v>1.05</v>
+      </c>
+      <c r="AD48">
+        <v>12</v>
+      </c>
+      <c r="AE48">
+        <v>1.3</v>
+      </c>
+      <c r="AF48">
+        <v>3.6</v>
+      </c>
+      <c r="AG48">
+        <v>1.91</v>
+      </c>
+      <c r="AH48">
+        <v>1.8</v>
+      </c>
+      <c r="AI48">
+        <v>1.75</v>
+      </c>
+      <c r="AJ48">
+        <v>2</v>
+      </c>
+      <c r="AK48">
+        <v>1.33</v>
+      </c>
+      <c r="AL48">
+        <v>1.25</v>
+      </c>
+      <c r="AM48">
+        <v>1.75</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>2</v>
+      </c>
+      <c r="AP48">
+        <v>0</v>
+      </c>
+      <c r="AQ48">
+        <v>2.33</v>
+      </c>
+      <c r="AR48">
+        <v>1.38</v>
+      </c>
+      <c r="AS48">
+        <v>1.27</v>
+      </c>
+      <c r="AT48">
+        <v>2.65</v>
+      </c>
+      <c r="AU48">
+        <v>3</v>
+      </c>
+      <c r="AV48">
+        <v>3</v>
+      </c>
+      <c r="AW48">
+        <v>6</v>
+      </c>
+      <c r="AX48">
+        <v>3</v>
+      </c>
+      <c r="AY48">
+        <v>9</v>
+      </c>
+      <c r="AZ48">
+        <v>6</v>
+      </c>
+      <c r="BA48">
+        <v>6</v>
+      </c>
+      <c r="BB48">
+        <v>1</v>
+      </c>
+      <c r="BC48">
+        <v>7</v>
+      </c>
+      <c r="BD48">
+        <v>1.88</v>
+      </c>
+      <c r="BE48">
+        <v>7.5</v>
+      </c>
+      <c r="BF48">
+        <v>2.3</v>
+      </c>
+      <c r="BG48">
+        <v>1.14</v>
+      </c>
+      <c r="BH48">
+        <v>4.65</v>
+      </c>
+      <c r="BI48">
+        <v>1.29</v>
+      </c>
+      <c r="BJ48">
+        <v>3.45</v>
+      </c>
+      <c r="BK48">
+        <v>1.48</v>
+      </c>
+      <c r="BL48">
+        <v>2.47</v>
+      </c>
+      <c r="BM48">
+        <v>1.85</v>
+      </c>
+      <c r="BN48">
+        <v>1.85</v>
+      </c>
+      <c r="BO48">
+        <v>2.35</v>
+      </c>
+      <c r="BP48">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7294999</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45417.5</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H49" t="s">
+        <v>71</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
+        <v>87</v>
+      </c>
+      <c r="P49" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q49">
+        <v>3.2</v>
+      </c>
+      <c r="R49">
+        <v>2.2</v>
+      </c>
+      <c r="S49">
+        <v>3.2</v>
+      </c>
+      <c r="T49">
+        <v>1.36</v>
+      </c>
+      <c r="U49">
+        <v>3</v>
+      </c>
+      <c r="V49">
+        <v>2.75</v>
+      </c>
+      <c r="W49">
+        <v>1.4</v>
+      </c>
+      <c r="X49">
+        <v>7</v>
+      </c>
+      <c r="Y49">
+        <v>1.1</v>
+      </c>
+      <c r="Z49">
+        <v>2.39</v>
+      </c>
+      <c r="AA49">
+        <v>3.45</v>
+      </c>
+      <c r="AB49">
+        <v>2.68</v>
+      </c>
+      <c r="AC49">
+        <v>1.04</v>
+      </c>
+      <c r="AD49">
+        <v>12</v>
+      </c>
+      <c r="AE49">
+        <v>1.28</v>
+      </c>
+      <c r="AF49">
+        <v>3.75</v>
+      </c>
+      <c r="AG49">
+        <v>1.87</v>
+      </c>
+      <c r="AH49">
+        <v>1.83</v>
+      </c>
+      <c r="AI49">
+        <v>1.67</v>
+      </c>
+      <c r="AJ49">
+        <v>2.1</v>
+      </c>
+      <c r="AK49">
+        <v>1.5</v>
+      </c>
+      <c r="AL49">
+        <v>1.3</v>
+      </c>
+      <c r="AM49">
+        <v>1.5</v>
+      </c>
+      <c r="AN49">
+        <v>0.67</v>
+      </c>
+      <c r="AO49">
+        <v>2</v>
+      </c>
+      <c r="AP49">
+        <v>0.5</v>
+      </c>
+      <c r="AQ49">
+        <v>2.33</v>
+      </c>
+      <c r="AR49">
+        <v>1.24</v>
+      </c>
+      <c r="AS49">
+        <v>0.99</v>
+      </c>
+      <c r="AT49">
+        <v>2.23</v>
+      </c>
+      <c r="AU49">
+        <v>2</v>
+      </c>
+      <c r="AV49">
+        <v>5</v>
+      </c>
+      <c r="AW49">
+        <v>7</v>
+      </c>
+      <c r="AX49">
+        <v>6</v>
+      </c>
+      <c r="AY49">
+        <v>9</v>
+      </c>
+      <c r="AZ49">
+        <v>11</v>
+      </c>
+      <c r="BA49">
+        <v>1</v>
+      </c>
+      <c r="BB49">
+        <v>5</v>
+      </c>
+      <c r="BC49">
+        <v>6</v>
+      </c>
+      <c r="BD49">
+        <v>1.89</v>
+      </c>
+      <c r="BE49">
+        <v>7.5</v>
+      </c>
+      <c r="BF49">
+        <v>2.3</v>
+      </c>
+      <c r="BG49">
+        <v>1.2</v>
+      </c>
+      <c r="BH49">
+        <v>4.25</v>
+      </c>
+      <c r="BI49">
+        <v>1.33</v>
+      </c>
+      <c r="BJ49">
+        <v>3.05</v>
+      </c>
+      <c r="BK49">
+        <v>1.62</v>
+      </c>
+      <c r="BL49">
+        <v>2.15</v>
+      </c>
+      <c r="BM49">
+        <v>2.07</v>
+      </c>
+      <c r="BN49">
+        <v>1.67</v>
+      </c>
+      <c r="BO49">
+        <v>2.75</v>
+      </c>
+      <c r="BP49">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7295002</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45417.59375</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" t="s">
+        <v>73</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>119</v>
+      </c>
+      <c r="P50" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q50">
+        <v>2.15</v>
+      </c>
+      <c r="R50">
+        <v>2.3</v>
+      </c>
+      <c r="S50">
+        <v>4.5</v>
+      </c>
+      <c r="T50">
+        <v>1.28</v>
+      </c>
+      <c r="U50">
+        <v>3.3</v>
+      </c>
+      <c r="V50">
+        <v>2.25</v>
+      </c>
+      <c r="W50">
+        <v>1.55</v>
+      </c>
+      <c r="X50">
+        <v>5</v>
+      </c>
+      <c r="Y50">
+        <v>1.13</v>
+      </c>
+      <c r="Z50">
+        <v>1.7</v>
+      </c>
+      <c r="AA50">
+        <v>3.85</v>
+      </c>
+      <c r="AB50">
+        <v>4.3</v>
+      </c>
+      <c r="AC50">
+        <v>1.03</v>
+      </c>
+      <c r="AD50">
+        <v>12</v>
+      </c>
+      <c r="AE50">
+        <v>1.14</v>
+      </c>
+      <c r="AF50">
+        <v>4.7</v>
+      </c>
+      <c r="AG50">
+        <v>1.55</v>
+      </c>
+      <c r="AH50">
+        <v>2.3</v>
+      </c>
+      <c r="AI50">
+        <v>1.55</v>
+      </c>
+      <c r="AJ50">
+        <v>2.25</v>
+      </c>
+      <c r="AK50">
+        <v>1.18</v>
+      </c>
+      <c r="AL50">
+        <v>1.2</v>
+      </c>
+      <c r="AM50">
+        <v>2.15</v>
+      </c>
+      <c r="AN50">
+        <v>1.67</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>2</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+      <c r="AR50">
+        <v>1.33</v>
+      </c>
+      <c r="AS50">
+        <v>1.16</v>
+      </c>
+      <c r="AT50">
+        <v>2.49</v>
+      </c>
+      <c r="AU50">
+        <v>6</v>
+      </c>
+      <c r="AV50">
+        <v>5</v>
+      </c>
+      <c r="AW50">
+        <v>8</v>
+      </c>
+      <c r="AX50">
+        <v>3</v>
+      </c>
+      <c r="AY50">
+        <v>14</v>
+      </c>
+      <c r="AZ50">
+        <v>8</v>
+      </c>
+      <c r="BA50">
+        <v>11</v>
+      </c>
+      <c r="BB50">
+        <v>4</v>
+      </c>
+      <c r="BC50">
+        <v>15</v>
+      </c>
+      <c r="BD50">
+        <v>1.49</v>
+      </c>
+      <c r="BE50">
+        <v>7.5</v>
+      </c>
+      <c r="BF50">
+        <v>3.3</v>
+      </c>
+      <c r="BG50">
+        <v>1.25</v>
+      </c>
+      <c r="BH50">
+        <v>3.7</v>
+      </c>
+      <c r="BI50">
+        <v>1.45</v>
+      </c>
+      <c r="BJ50">
+        <v>2.55</v>
+      </c>
+      <c r="BK50">
+        <v>1.8</v>
+      </c>
+      <c r="BL50">
+        <v>1.9</v>
+      </c>
+      <c r="BM50">
+        <v>2.32</v>
+      </c>
+      <c r="BN50">
+        <v>1.54</v>
+      </c>
+      <c r="BO50">
+        <v>3.1</v>
+      </c>
+      <c r="BP50">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -11065,13 +11065,13 @@
         <v>2.49</v>
       </c>
       <c r="AU50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV50">
         <v>5</v>
       </c>
       <c r="AW50">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX50">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="152">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -376,6 +376,9 @@
     <t>['52', '90+6']</t>
   </si>
   <si>
+    <t>['33', '79']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -464,6 +467,9 @@
   </si>
   <si>
     <t>['79', '90+3']</t>
+  </si>
+  <si>
+    <t>['59', '76']</t>
   </si>
 </sst>
 </file>
@@ -825,7 +831,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP50"/>
+  <dimension ref="A1:BP51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1084,7 +1090,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1290,7 +1296,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1574,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -1702,7 +1708,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1908,7 +1914,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2526,7 +2532,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2938,7 +2944,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3144,7 +3150,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -3556,7 +3562,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3762,7 +3768,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -3968,7 +3974,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4174,7 +4180,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4380,7 +4386,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4586,7 +4592,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -4870,7 +4876,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>1.33</v>
@@ -4998,7 +5004,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5410,7 +5416,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5616,7 +5622,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6028,7 +6034,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6106,7 +6112,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
         <v>2</v>
@@ -6234,7 +6240,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6440,7 +6446,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6646,7 +6652,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -7264,7 +7270,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7676,7 +7682,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -7882,7 +7888,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8088,7 +8094,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q36">
         <v>2.54</v>
@@ -8294,7 +8300,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q37">
         <v>1.55</v>
@@ -8372,7 +8378,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>2</v>
@@ -8500,7 +8506,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -9118,7 +9124,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q41">
         <v>2.14</v>
@@ -9324,7 +9330,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9736,7 +9742,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q44">
         <v>4.5</v>
@@ -10766,7 +10772,7 @@
         <v>87</v>
       </c>
       <c r="P49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11129,6 +11135,212 @@
       </c>
       <c r="BP50">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7295003</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45423.54166666666</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51" t="s">
+        <v>75</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>4</v>
+      </c>
+      <c r="O51" t="s">
+        <v>120</v>
+      </c>
+      <c r="P51" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q51">
+        <v>2.01</v>
+      </c>
+      <c r="R51">
+        <v>2.47</v>
+      </c>
+      <c r="S51">
+        <v>5.25</v>
+      </c>
+      <c r="T51">
+        <v>1.29</v>
+      </c>
+      <c r="U51">
+        <v>3.5</v>
+      </c>
+      <c r="V51">
+        <v>2.25</v>
+      </c>
+      <c r="W51">
+        <v>1.57</v>
+      </c>
+      <c r="X51">
+        <v>5.5</v>
+      </c>
+      <c r="Y51">
+        <v>1.14</v>
+      </c>
+      <c r="Z51">
+        <v>1.49</v>
+      </c>
+      <c r="AA51">
+        <v>4.3</v>
+      </c>
+      <c r="AB51">
+        <v>5.45</v>
+      </c>
+      <c r="AC51">
+        <v>1.02</v>
+      </c>
+      <c r="AD51">
+        <v>19</v>
+      </c>
+      <c r="AE51">
+        <v>1.19</v>
+      </c>
+      <c r="AF51">
+        <v>4.75</v>
+      </c>
+      <c r="AG51">
+        <v>1.53</v>
+      </c>
+      <c r="AH51">
+        <v>2.29</v>
+      </c>
+      <c r="AI51">
+        <v>1.67</v>
+      </c>
+      <c r="AJ51">
+        <v>2.1</v>
+      </c>
+      <c r="AK51">
+        <v>1.13</v>
+      </c>
+      <c r="AL51">
+        <v>1.18</v>
+      </c>
+      <c r="AM51">
+        <v>2.4</v>
+      </c>
+      <c r="AN51">
+        <v>2.25</v>
+      </c>
+      <c r="AO51">
+        <v>1</v>
+      </c>
+      <c r="AP51">
+        <v>2</v>
+      </c>
+      <c r="AQ51">
+        <v>1</v>
+      </c>
+      <c r="AR51">
+        <v>1.86</v>
+      </c>
+      <c r="AS51">
+        <v>1.12</v>
+      </c>
+      <c r="AT51">
+        <v>2.98</v>
+      </c>
+      <c r="AU51">
+        <v>4</v>
+      </c>
+      <c r="AV51">
+        <v>4</v>
+      </c>
+      <c r="AW51">
+        <v>6</v>
+      </c>
+      <c r="AX51">
+        <v>6</v>
+      </c>
+      <c r="AY51">
+        <v>10</v>
+      </c>
+      <c r="AZ51">
+        <v>10</v>
+      </c>
+      <c r="BA51">
+        <v>3</v>
+      </c>
+      <c r="BB51">
+        <v>5</v>
+      </c>
+      <c r="BC51">
+        <v>8</v>
+      </c>
+      <c r="BD51">
+        <v>1.44</v>
+      </c>
+      <c r="BE51">
+        <v>9</v>
+      </c>
+      <c r="BF51">
+        <v>3.25</v>
+      </c>
+      <c r="BG51">
+        <v>1.15</v>
+      </c>
+      <c r="BH51">
+        <v>4.55</v>
+      </c>
+      <c r="BI51">
+        <v>1.28</v>
+      </c>
+      <c r="BJ51">
+        <v>3.35</v>
+      </c>
+      <c r="BK51">
+        <v>1.51</v>
+      </c>
+      <c r="BL51">
+        <v>2.37</v>
+      </c>
+      <c r="BM51">
+        <v>1.9</v>
+      </c>
+      <c r="BN51">
+        <v>1.8</v>
+      </c>
+      <c r="BO51">
+        <v>2.45</v>
+      </c>
+      <c r="BP51">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="162">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,6 +379,21 @@
     <t>['33', '79']</t>
   </si>
   <si>
+    <t>['44', '84']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['4', '74']</t>
+  </si>
+  <si>
+    <t>['2', '60', '73', '75']</t>
+  </si>
+  <si>
+    <t>['49', '51', '70', '74']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -470,6 +485,21 @@
   </si>
   <si>
     <t>['59', '76']</t>
+  </si>
+  <si>
+    <t>['37', '66', '89', '90+3']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['3', '7', '33', '45']</t>
+  </si>
+  <si>
+    <t>['59', '61']</t>
+  </si>
+  <si>
+    <t>['59', '68']</t>
   </si>
 </sst>
 </file>
@@ -831,7 +861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP51"/>
+  <dimension ref="A1:BP58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1090,7 +1120,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1171,7 +1201,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1296,7 +1326,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1708,7 +1738,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1786,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ5">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1914,7 +1944,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -1992,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ6">
         <v>1.33</v>
@@ -2407,7 +2437,7 @@
         <v>2</v>
       </c>
       <c r="AQ8">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2532,7 +2562,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2610,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ9">
         <v>0.6</v>
@@ -2819,7 +2849,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ10">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2944,7 +2974,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3022,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ11">
         <v>2.33</v>
@@ -3150,7 +3180,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -3434,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3562,7 +3592,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3643,7 +3673,7 @@
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3768,7 +3798,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -3846,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ15">
         <v>1.33</v>
@@ -3974,7 +4004,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4055,7 +4085,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ16">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4180,7 +4210,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4261,7 +4291,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0.83</v>
@@ -4386,7 +4416,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4467,7 +4497,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>1.5</v>
@@ -4592,7 +4622,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -4670,10 +4700,10 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR19">
         <v>1.53</v>
@@ -5004,7 +5034,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5416,7 +5446,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5494,7 +5524,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ23">
         <v>3</v>
@@ -5622,7 +5652,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -5700,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ24">
         <v>1.5</v>
@@ -6034,7 +6064,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6115,7 +6145,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>2.06</v>
@@ -6240,7 +6270,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6318,7 +6348,7 @@
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ27">
         <v>1.5</v>
@@ -6446,7 +6476,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6524,7 +6554,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>2</v>
@@ -6652,7 +6682,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6939,7 +6969,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR30">
         <v>2.08</v>
@@ -7145,7 +7175,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR31">
         <v>1.22</v>
@@ -7270,7 +7300,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7554,7 +7584,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ33">
         <v>0</v>
@@ -7682,7 +7712,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -7888,7 +7918,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8094,7 +8124,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q36">
         <v>2.54</v>
@@ -8172,7 +8202,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
         <v>1.33</v>
@@ -8300,7 +8330,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q37">
         <v>1.55</v>
@@ -8381,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR37">
         <v>2.03</v>
@@ -8506,7 +8536,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -8584,10 +8614,10 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>1.7</v>
@@ -8790,10 +8820,10 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ39">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR39">
         <v>2.11</v>
@@ -9124,7 +9154,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q41">
         <v>2.14</v>
@@ -9202,7 +9232,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ41">
         <v>0.6</v>
@@ -9330,7 +9360,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9411,7 +9441,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ42">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR42">
         <v>1.44</v>
@@ -9742,7 +9772,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q44">
         <v>4.5</v>
@@ -9820,7 +9850,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>1.33</v>
@@ -10232,7 +10262,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ46">
         <v>0.6</v>
@@ -10772,7 +10802,7 @@
         <v>87</v>
       </c>
       <c r="P49" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -10853,7 +10883,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ49">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR49">
         <v>1.24</v>
@@ -11184,7 +11214,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11341,6 +11371,1448 @@
       </c>
       <c r="BP51">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7295004</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45424.39583333334</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>79</v>
+      </c>
+      <c r="H52" t="s">
+        <v>78</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>4</v>
+      </c>
+      <c r="N52">
+        <v>6</v>
+      </c>
+      <c r="O52" t="s">
+        <v>121</v>
+      </c>
+      <c r="P52" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q52">
+        <v>5.15</v>
+      </c>
+      <c r="R52">
+        <v>2.46</v>
+      </c>
+      <c r="S52">
+        <v>2.03</v>
+      </c>
+      <c r="T52">
+        <v>1.28</v>
+      </c>
+      <c r="U52">
+        <v>3.48</v>
+      </c>
+      <c r="V52">
+        <v>2.3</v>
+      </c>
+      <c r="W52">
+        <v>1.58</v>
+      </c>
+      <c r="X52">
+        <v>5.2</v>
+      </c>
+      <c r="Y52">
+        <v>1.14</v>
+      </c>
+      <c r="Z52">
+        <v>4.6</v>
+      </c>
+      <c r="AA52">
+        <v>4.6</v>
+      </c>
+      <c r="AB52">
+        <v>1.53</v>
+      </c>
+      <c r="AC52">
+        <v>1.02</v>
+      </c>
+      <c r="AD52">
+        <v>19</v>
+      </c>
+      <c r="AE52">
+        <v>1.14</v>
+      </c>
+      <c r="AF52">
+        <v>4.65</v>
+      </c>
+      <c r="AG52">
+        <v>1.55</v>
+      </c>
+      <c r="AH52">
+        <v>2.2</v>
+      </c>
+      <c r="AI52">
+        <v>1.67</v>
+      </c>
+      <c r="AJ52">
+        <v>2.1</v>
+      </c>
+      <c r="AK52">
+        <v>2.4</v>
+      </c>
+      <c r="AL52">
+        <v>1.17</v>
+      </c>
+      <c r="AM52">
+        <v>1.14</v>
+      </c>
+      <c r="AN52">
+        <v>1.67</v>
+      </c>
+      <c r="AO52">
+        <v>3</v>
+      </c>
+      <c r="AP52">
+        <v>1.25</v>
+      </c>
+      <c r="AQ52">
+        <v>3</v>
+      </c>
+      <c r="AR52">
+        <v>1.4</v>
+      </c>
+      <c r="AS52">
+        <v>1.54</v>
+      </c>
+      <c r="AT52">
+        <v>2.94</v>
+      </c>
+      <c r="AU52">
+        <v>7</v>
+      </c>
+      <c r="AV52">
+        <v>11</v>
+      </c>
+      <c r="AW52">
+        <v>6</v>
+      </c>
+      <c r="AX52">
+        <v>8</v>
+      </c>
+      <c r="AY52">
+        <v>13</v>
+      </c>
+      <c r="AZ52">
+        <v>19</v>
+      </c>
+      <c r="BA52">
+        <v>5</v>
+      </c>
+      <c r="BB52">
+        <v>8</v>
+      </c>
+      <c r="BC52">
+        <v>13</v>
+      </c>
+      <c r="BD52">
+        <v>3.75</v>
+      </c>
+      <c r="BE52">
+        <v>10</v>
+      </c>
+      <c r="BF52">
+        <v>1.33</v>
+      </c>
+      <c r="BG52">
+        <v>1.13</v>
+      </c>
+      <c r="BH52">
+        <v>4.75</v>
+      </c>
+      <c r="BI52">
+        <v>1.28</v>
+      </c>
+      <c r="BJ52">
+        <v>3.2</v>
+      </c>
+      <c r="BK52">
+        <v>1.48</v>
+      </c>
+      <c r="BL52">
+        <v>2.47</v>
+      </c>
+      <c r="BM52">
+        <v>1.85</v>
+      </c>
+      <c r="BN52">
+        <v>1.85</v>
+      </c>
+      <c r="BO52">
+        <v>2.35</v>
+      </c>
+      <c r="BP52">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7295005</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45424.5</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>81</v>
+      </c>
+      <c r="H53" t="s">
+        <v>76</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53" t="s">
+        <v>87</v>
+      </c>
+      <c r="P53" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q53">
+        <v>3.35</v>
+      </c>
+      <c r="R53">
+        <v>2.31</v>
+      </c>
+      <c r="S53">
+        <v>2.77</v>
+      </c>
+      <c r="T53">
+        <v>1.3</v>
+      </c>
+      <c r="U53">
+        <v>3.34</v>
+      </c>
+      <c r="V53">
+        <v>2.39</v>
+      </c>
+      <c r="W53">
+        <v>1.54</v>
+      </c>
+      <c r="X53">
+        <v>5.5</v>
+      </c>
+      <c r="Y53">
+        <v>1.13</v>
+      </c>
+      <c r="Z53">
+        <v>2.5</v>
+      </c>
+      <c r="AA53">
+        <v>3.54</v>
+      </c>
+      <c r="AB53">
+        <v>2.69</v>
+      </c>
+      <c r="AC53">
+        <v>1.04</v>
+      </c>
+      <c r="AD53">
+        <v>10</v>
+      </c>
+      <c r="AE53">
+        <v>1.22</v>
+      </c>
+      <c r="AF53">
+        <v>4.2</v>
+      </c>
+      <c r="AG53">
+        <v>1.69</v>
+      </c>
+      <c r="AH53">
+        <v>2.18</v>
+      </c>
+      <c r="AI53">
+        <v>1.55</v>
+      </c>
+      <c r="AJ53">
+        <v>2.45</v>
+      </c>
+      <c r="AK53">
+        <v>1.54</v>
+      </c>
+      <c r="AL53">
+        <v>1.24</v>
+      </c>
+      <c r="AM53">
+        <v>1.37</v>
+      </c>
+      <c r="AN53">
+        <v>2</v>
+      </c>
+      <c r="AO53">
+        <v>0.5</v>
+      </c>
+      <c r="AP53">
+        <v>1.33</v>
+      </c>
+      <c r="AQ53">
+        <v>1.33</v>
+      </c>
+      <c r="AR53">
+        <v>1.7</v>
+      </c>
+      <c r="AS53">
+        <v>1.66</v>
+      </c>
+      <c r="AT53">
+        <v>3.36</v>
+      </c>
+      <c r="AU53">
+        <v>4</v>
+      </c>
+      <c r="AV53">
+        <v>4</v>
+      </c>
+      <c r="AW53">
+        <v>9</v>
+      </c>
+      <c r="AX53">
+        <v>3</v>
+      </c>
+      <c r="AY53">
+        <v>13</v>
+      </c>
+      <c r="AZ53">
+        <v>7</v>
+      </c>
+      <c r="BA53">
+        <v>8</v>
+      </c>
+      <c r="BB53">
+        <v>3</v>
+      </c>
+      <c r="BC53">
+        <v>11</v>
+      </c>
+      <c r="BD53">
+        <v>2.25</v>
+      </c>
+      <c r="BE53">
+        <v>8.5</v>
+      </c>
+      <c r="BF53">
+        <v>1.8</v>
+      </c>
+      <c r="BG53">
+        <v>1.11</v>
+      </c>
+      <c r="BH53">
+        <v>5.2</v>
+      </c>
+      <c r="BI53">
+        <v>1.25</v>
+      </c>
+      <c r="BJ53">
+        <v>3.42</v>
+      </c>
+      <c r="BK53">
+        <v>1.46</v>
+      </c>
+      <c r="BL53">
+        <v>2.52</v>
+      </c>
+      <c r="BM53">
+        <v>1.77</v>
+      </c>
+      <c r="BN53">
+        <v>1.95</v>
+      </c>
+      <c r="BO53">
+        <v>2.3</v>
+      </c>
+      <c r="BP53">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7295006</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45424.5</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54" t="s">
+        <v>71</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>4</v>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>4</v>
+      </c>
+      <c r="N54">
+        <v>5</v>
+      </c>
+      <c r="O54" t="s">
+        <v>122</v>
+      </c>
+      <c r="P54" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q54">
+        <v>3.12</v>
+      </c>
+      <c r="R54">
+        <v>2.1</v>
+      </c>
+      <c r="S54">
+        <v>3.38</v>
+      </c>
+      <c r="T54">
+        <v>1.42</v>
+      </c>
+      <c r="U54">
+        <v>2.62</v>
+      </c>
+      <c r="V54">
+        <v>3</v>
+      </c>
+      <c r="W54">
+        <v>1.33</v>
+      </c>
+      <c r="X54">
+        <v>7.5</v>
+      </c>
+      <c r="Y54">
+        <v>1.07</v>
+      </c>
+      <c r="Z54">
+        <v>3.09</v>
+      </c>
+      <c r="AA54">
+        <v>3.19</v>
+      </c>
+      <c r="AB54">
+        <v>2.41</v>
+      </c>
+      <c r="AC54">
+        <v>1.06</v>
+      </c>
+      <c r="AD54">
+        <v>8.5</v>
+      </c>
+      <c r="AE54">
+        <v>1.33</v>
+      </c>
+      <c r="AF54">
+        <v>3.25</v>
+      </c>
+      <c r="AG54">
+        <v>2</v>
+      </c>
+      <c r="AH54">
+        <v>1.81</v>
+      </c>
+      <c r="AI54">
+        <v>1.8</v>
+      </c>
+      <c r="AJ54">
+        <v>2</v>
+      </c>
+      <c r="AK54">
+        <v>1.48</v>
+      </c>
+      <c r="AL54">
+        <v>1.25</v>
+      </c>
+      <c r="AM54">
+        <v>1.48</v>
+      </c>
+      <c r="AN54">
+        <v>0.67</v>
+      </c>
+      <c r="AO54">
+        <v>2.33</v>
+      </c>
+      <c r="AP54">
+        <v>0.5</v>
+      </c>
+      <c r="AQ54">
+        <v>2.5</v>
+      </c>
+      <c r="AR54">
+        <v>1.82</v>
+      </c>
+      <c r="AS54">
+        <v>1.13</v>
+      </c>
+      <c r="AT54">
+        <v>2.95</v>
+      </c>
+      <c r="AU54">
+        <v>4</v>
+      </c>
+      <c r="AV54">
+        <v>6</v>
+      </c>
+      <c r="AW54">
+        <v>4</v>
+      </c>
+      <c r="AX54">
+        <v>3</v>
+      </c>
+      <c r="AY54">
+        <v>8</v>
+      </c>
+      <c r="AZ54">
+        <v>9</v>
+      </c>
+      <c r="BA54">
+        <v>6</v>
+      </c>
+      <c r="BB54">
+        <v>3</v>
+      </c>
+      <c r="BC54">
+        <v>9</v>
+      </c>
+      <c r="BD54">
+        <v>1.73</v>
+      </c>
+      <c r="BE54">
+        <v>8</v>
+      </c>
+      <c r="BF54">
+        <v>2.4</v>
+      </c>
+      <c r="BG54">
+        <v>1.16</v>
+      </c>
+      <c r="BH54">
+        <v>4.33</v>
+      </c>
+      <c r="BI54">
+        <v>1.32</v>
+      </c>
+      <c r="BJ54">
+        <v>3.1</v>
+      </c>
+      <c r="BK54">
+        <v>1.56</v>
+      </c>
+      <c r="BL54">
+        <v>2.27</v>
+      </c>
+      <c r="BM54">
+        <v>1.99</v>
+      </c>
+      <c r="BN54">
+        <v>1.73</v>
+      </c>
+      <c r="BO54">
+        <v>2.6</v>
+      </c>
+      <c r="BP54">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7295007</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45424.5</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>83</v>
+      </c>
+      <c r="H55" t="s">
+        <v>80</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55">
+        <v>4</v>
+      </c>
+      <c r="O55" t="s">
+        <v>123</v>
+      </c>
+      <c r="P55" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q55">
+        <v>2.7</v>
+      </c>
+      <c r="R55">
+        <v>2.2</v>
+      </c>
+      <c r="S55">
+        <v>4</v>
+      </c>
+      <c r="T55">
+        <v>1.4</v>
+      </c>
+      <c r="U55">
+        <v>2.95</v>
+      </c>
+      <c r="V55">
+        <v>2.9</v>
+      </c>
+      <c r="W55">
+        <v>1.4</v>
+      </c>
+      <c r="X55">
+        <v>7.5</v>
+      </c>
+      <c r="Y55">
+        <v>1.08</v>
+      </c>
+      <c r="Z55">
+        <v>2.08</v>
+      </c>
+      <c r="AA55">
+        <v>3.44</v>
+      </c>
+      <c r="AB55">
+        <v>3.54</v>
+      </c>
+      <c r="AC55">
+        <v>1.05</v>
+      </c>
+      <c r="AD55">
+        <v>12</v>
+      </c>
+      <c r="AE55">
+        <v>1.32</v>
+      </c>
+      <c r="AF55">
+        <v>3.4</v>
+      </c>
+      <c r="AG55">
+        <v>1.93</v>
+      </c>
+      <c r="AH55">
+        <v>1.87</v>
+      </c>
+      <c r="AI55">
+        <v>1.78</v>
+      </c>
+      <c r="AJ55">
+        <v>2</v>
+      </c>
+      <c r="AK55">
+        <v>1.3</v>
+      </c>
+      <c r="AL55">
+        <v>1.25</v>
+      </c>
+      <c r="AM55">
+        <v>1.83</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>2</v>
+      </c>
+      <c r="AP55">
+        <v>0.33</v>
+      </c>
+      <c r="AQ55">
+        <v>1.75</v>
+      </c>
+      <c r="AR55">
+        <v>1.29</v>
+      </c>
+      <c r="AS55">
+        <v>1.15</v>
+      </c>
+      <c r="AT55">
+        <v>2.44</v>
+      </c>
+      <c r="AU55">
+        <v>4</v>
+      </c>
+      <c r="AV55">
+        <v>5</v>
+      </c>
+      <c r="AW55">
+        <v>3</v>
+      </c>
+      <c r="AX55">
+        <v>5</v>
+      </c>
+      <c r="AY55">
+        <v>7</v>
+      </c>
+      <c r="AZ55">
+        <v>10</v>
+      </c>
+      <c r="BA55">
+        <v>2</v>
+      </c>
+      <c r="BB55">
+        <v>3</v>
+      </c>
+      <c r="BC55">
+        <v>5</v>
+      </c>
+      <c r="BD55">
+        <v>1.73</v>
+      </c>
+      <c r="BE55">
+        <v>8.5</v>
+      </c>
+      <c r="BF55">
+        <v>2.4</v>
+      </c>
+      <c r="BG55">
+        <v>1.09</v>
+      </c>
+      <c r="BH55">
+        <v>5.6</v>
+      </c>
+      <c r="BI55">
+        <v>1.22</v>
+      </c>
+      <c r="BJ55">
+        <v>3.65</v>
+      </c>
+      <c r="BK55">
+        <v>1.44</v>
+      </c>
+      <c r="BL55">
+        <v>2.6</v>
+      </c>
+      <c r="BM55">
+        <v>1.73</v>
+      </c>
+      <c r="BN55">
+        <v>2</v>
+      </c>
+      <c r="BO55">
+        <v>2.2</v>
+      </c>
+      <c r="BP55">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7295008</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45424.5</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" t="s">
+        <v>82</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>4</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>5</v>
+      </c>
+      <c r="O56" t="s">
+        <v>124</v>
+      </c>
+      <c r="P56" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q56">
+        <v>3.1</v>
+      </c>
+      <c r="R56">
+        <v>2.3</v>
+      </c>
+      <c r="S56">
+        <v>3.1</v>
+      </c>
+      <c r="T56">
+        <v>1.33</v>
+      </c>
+      <c r="U56">
+        <v>3.4</v>
+      </c>
+      <c r="V56">
+        <v>2.5</v>
+      </c>
+      <c r="W56">
+        <v>1.52</v>
+      </c>
+      <c r="X56">
+        <v>6</v>
+      </c>
+      <c r="Y56">
+        <v>1.12</v>
+      </c>
+      <c r="Z56">
+        <v>2.5</v>
+      </c>
+      <c r="AA56">
+        <v>3.5</v>
+      </c>
+      <c r="AB56">
+        <v>2.5</v>
+      </c>
+      <c r="AC56">
+        <v>1.03</v>
+      </c>
+      <c r="AD56">
+        <v>15</v>
+      </c>
+      <c r="AE56">
+        <v>1.22</v>
+      </c>
+      <c r="AF56">
+        <v>4.33</v>
+      </c>
+      <c r="AG56">
+        <v>1.57</v>
+      </c>
+      <c r="AH56">
+        <v>2.25</v>
+      </c>
+      <c r="AI56">
+        <v>1.55</v>
+      </c>
+      <c r="AJ56">
+        <v>2.4</v>
+      </c>
+      <c r="AK56">
+        <v>1.52</v>
+      </c>
+      <c r="AL56">
+        <v>1.24</v>
+      </c>
+      <c r="AM56">
+        <v>1.53</v>
+      </c>
+      <c r="AN56">
+        <v>1.5</v>
+      </c>
+      <c r="AO56">
+        <v>1.33</v>
+      </c>
+      <c r="AP56">
+        <v>2</v>
+      </c>
+      <c r="AQ56">
+        <v>1</v>
+      </c>
+      <c r="AR56">
+        <v>1.62</v>
+      </c>
+      <c r="AS56">
+        <v>1.19</v>
+      </c>
+      <c r="AT56">
+        <v>2.81</v>
+      </c>
+      <c r="AU56">
+        <v>5</v>
+      </c>
+      <c r="AV56">
+        <v>5</v>
+      </c>
+      <c r="AW56">
+        <v>7</v>
+      </c>
+      <c r="AX56">
+        <v>2</v>
+      </c>
+      <c r="AY56">
+        <v>12</v>
+      </c>
+      <c r="AZ56">
+        <v>7</v>
+      </c>
+      <c r="BA56">
+        <v>6</v>
+      </c>
+      <c r="BB56">
+        <v>1</v>
+      </c>
+      <c r="BC56">
+        <v>7</v>
+      </c>
+      <c r="BD56">
+        <v>2.05</v>
+      </c>
+      <c r="BE56">
+        <v>8.5</v>
+      </c>
+      <c r="BF56">
+        <v>2</v>
+      </c>
+      <c r="BG56">
+        <v>1.12</v>
+      </c>
+      <c r="BH56">
+        <v>5.05</v>
+      </c>
+      <c r="BI56">
+        <v>1.26</v>
+      </c>
+      <c r="BJ56">
+        <v>3.34</v>
+      </c>
+      <c r="BK56">
+        <v>1.46</v>
+      </c>
+      <c r="BL56">
+        <v>2.52</v>
+      </c>
+      <c r="BM56">
+        <v>1.85</v>
+      </c>
+      <c r="BN56">
+        <v>1.85</v>
+      </c>
+      <c r="BO56">
+        <v>2.33</v>
+      </c>
+      <c r="BP56">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7295010</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45424.5</v>
+      </c>
+      <c r="F57">
+        <v>7</v>
+      </c>
+      <c r="G57" t="s">
+        <v>73</v>
+      </c>
+      <c r="H57" t="s">
+        <v>70</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>4</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>4</v>
+      </c>
+      <c r="O57" t="s">
+        <v>125</v>
+      </c>
+      <c r="P57" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q57">
+        <v>2.25</v>
+      </c>
+      <c r="R57">
+        <v>2.35</v>
+      </c>
+      <c r="S57">
+        <v>4.75</v>
+      </c>
+      <c r="T57">
+        <v>1.35</v>
+      </c>
+      <c r="U57">
+        <v>3.3</v>
+      </c>
+      <c r="V57">
+        <v>2.65</v>
+      </c>
+      <c r="W57">
+        <v>1.47</v>
+      </c>
+      <c r="X57">
+        <v>6.5</v>
+      </c>
+      <c r="Y57">
+        <v>1.1</v>
+      </c>
+      <c r="Z57">
+        <v>1.76</v>
+      </c>
+      <c r="AA57">
+        <v>3.84</v>
+      </c>
+      <c r="AB57">
+        <v>4.44</v>
+      </c>
+      <c r="AC57">
+        <v>1.03</v>
+      </c>
+      <c r="AD57">
+        <v>15</v>
+      </c>
+      <c r="AE57">
+        <v>1.26</v>
+      </c>
+      <c r="AF57">
+        <v>4</v>
+      </c>
+      <c r="AG57">
+        <v>1.83</v>
+      </c>
+      <c r="AH57">
+        <v>1.98</v>
+      </c>
+      <c r="AI57">
+        <v>1.75</v>
+      </c>
+      <c r="AJ57">
+        <v>2.05</v>
+      </c>
+      <c r="AK57">
+        <v>1.2</v>
+      </c>
+      <c r="AL57">
+        <v>1.2</v>
+      </c>
+      <c r="AM57">
+        <v>2.2</v>
+      </c>
+      <c r="AN57">
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <v>2</v>
+      </c>
+      <c r="AP57">
+        <v>0.75</v>
+      </c>
+      <c r="AQ57">
+        <v>1.5</v>
+      </c>
+      <c r="AR57">
+        <v>1.51</v>
+      </c>
+      <c r="AS57">
+        <v>1.05</v>
+      </c>
+      <c r="AT57">
+        <v>2.56</v>
+      </c>
+      <c r="AU57">
+        <v>7</v>
+      </c>
+      <c r="AV57">
+        <v>2</v>
+      </c>
+      <c r="AW57">
+        <v>5</v>
+      </c>
+      <c r="AX57">
+        <v>3</v>
+      </c>
+      <c r="AY57">
+        <v>12</v>
+      </c>
+      <c r="AZ57">
+        <v>5</v>
+      </c>
+      <c r="BA57">
+        <v>3</v>
+      </c>
+      <c r="BB57">
+        <v>2</v>
+      </c>
+      <c r="BC57">
+        <v>5</v>
+      </c>
+      <c r="BD57">
+        <v>1.5</v>
+      </c>
+      <c r="BE57">
+        <v>8.5</v>
+      </c>
+      <c r="BF57">
+        <v>3</v>
+      </c>
+      <c r="BG57">
+        <v>1.21</v>
+      </c>
+      <c r="BH57">
+        <v>3.74</v>
+      </c>
+      <c r="BI57">
+        <v>1.34</v>
+      </c>
+      <c r="BJ57">
+        <v>3</v>
+      </c>
+      <c r="BK57">
+        <v>1.7</v>
+      </c>
+      <c r="BL57">
+        <v>2.05</v>
+      </c>
+      <c r="BM57">
+        <v>2.05</v>
+      </c>
+      <c r="BN57">
+        <v>1.7</v>
+      </c>
+      <c r="BO57">
+        <v>2.7</v>
+      </c>
+      <c r="BP57">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7295017</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45424.59375</v>
+      </c>
+      <c r="F58">
+        <v>7</v>
+      </c>
+      <c r="G58" t="s">
+        <v>74</v>
+      </c>
+      <c r="H58" t="s">
+        <v>84</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58" t="s">
+        <v>87</v>
+      </c>
+      <c r="P58" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q58">
+        <v>3.75</v>
+      </c>
+      <c r="R58">
+        <v>2.25</v>
+      </c>
+      <c r="S58">
+        <v>2.75</v>
+      </c>
+      <c r="T58">
+        <v>1.36</v>
+      </c>
+      <c r="U58">
+        <v>3.25</v>
+      </c>
+      <c r="V58">
+        <v>2.6</v>
+      </c>
+      <c r="W58">
+        <v>1.48</v>
+      </c>
+      <c r="X58">
+        <v>6.5</v>
+      </c>
+      <c r="Y58">
+        <v>1.11</v>
+      </c>
+      <c r="Z58">
+        <v>2.98</v>
+      </c>
+      <c r="AA58">
+        <v>3.64</v>
+      </c>
+      <c r="AB58">
+        <v>2.26</v>
+      </c>
+      <c r="AC58">
+        <v>1.03</v>
+      </c>
+      <c r="AD58">
+        <v>13</v>
+      </c>
+      <c r="AE58">
+        <v>1.25</v>
+      </c>
+      <c r="AF58">
+        <v>4</v>
+      </c>
+      <c r="AG58">
+        <v>1.74</v>
+      </c>
+      <c r="AH58">
+        <v>2.1</v>
+      </c>
+      <c r="AI58">
+        <v>1.63</v>
+      </c>
+      <c r="AJ58">
+        <v>2.25</v>
+      </c>
+      <c r="AK58">
+        <v>1.75</v>
+      </c>
+      <c r="AL58">
+        <v>1.24</v>
+      </c>
+      <c r="AM58">
+        <v>1.35</v>
+      </c>
+      <c r="AN58">
+        <v>0.33</v>
+      </c>
+      <c r="AO58">
+        <v>1.67</v>
+      </c>
+      <c r="AP58">
+        <v>0.25</v>
+      </c>
+      <c r="AQ58">
+        <v>2</v>
+      </c>
+      <c r="AR58">
+        <v>1.38</v>
+      </c>
+      <c r="AS58">
+        <v>1.74</v>
+      </c>
+      <c r="AT58">
+        <v>3.12</v>
+      </c>
+      <c r="AU58">
+        <v>0</v>
+      </c>
+      <c r="AV58">
+        <v>5</v>
+      </c>
+      <c r="AW58">
+        <v>5</v>
+      </c>
+      <c r="AX58">
+        <v>9</v>
+      </c>
+      <c r="AY58">
+        <v>5</v>
+      </c>
+      <c r="AZ58">
+        <v>14</v>
+      </c>
+      <c r="BA58">
+        <v>8</v>
+      </c>
+      <c r="BB58">
+        <v>4</v>
+      </c>
+      <c r="BC58">
+        <v>12</v>
+      </c>
+      <c r="BD58">
+        <v>2.5</v>
+      </c>
+      <c r="BE58">
+        <v>8.5</v>
+      </c>
+      <c r="BF58">
+        <v>1.67</v>
+      </c>
+      <c r="BG58">
+        <v>1.09</v>
+      </c>
+      <c r="BH58">
+        <v>5.6</v>
+      </c>
+      <c r="BI58">
+        <v>1.22</v>
+      </c>
+      <c r="BJ58">
+        <v>3.65</v>
+      </c>
+      <c r="BK58">
+        <v>1.47</v>
+      </c>
+      <c r="BL58">
+        <v>2.5</v>
+      </c>
+      <c r="BM58">
+        <v>1.85</v>
+      </c>
+      <c r="BN58">
+        <v>1.85</v>
+      </c>
+      <c r="BO58">
+        <v>2.35</v>
+      </c>
+      <c r="BP58">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -12752,19 +12752,19 @@
         <v>0</v>
       </c>
       <c r="AV58">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW58">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX58">
         <v>9</v>
       </c>
       <c r="AY58">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ58">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA58">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="172">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -394,6 +394,24 @@
     <t>['49', '51', '70', '74']</t>
   </si>
   <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['19', '21', '63', '74']</t>
+  </si>
+  <si>
+    <t>['4', '14', '41', '66']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['51', '61']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -406,9 +424,6 @@
     <t>['13', '49', '66']</t>
   </si>
   <si>
-    <t>['12']</t>
-  </si>
-  <si>
     <t>['45+3']</t>
   </si>
   <si>
@@ -500,6 +515,21 @@
   </si>
   <si>
     <t>['59', '68']</t>
+  </si>
+  <si>
+    <t>['17', '33', '73', '81']</t>
+  </si>
+  <si>
+    <t>['38', '47', '62']</t>
+  </si>
+  <si>
+    <t>['5', '8', '38', '90+1']</t>
+  </si>
+  <si>
+    <t>['4', '18', '24', '28', '39', '76', '87']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
   </si>
 </sst>
 </file>
@@ -861,7 +891,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP58"/>
+  <dimension ref="A1:BP66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1120,7 +1150,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1198,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ2">
         <v>1.75</v>
@@ -1326,7 +1356,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1404,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
         <v>3</v>
@@ -1613,7 +1643,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1738,7 +1768,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1944,7 +1974,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2025,7 +2055,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ6">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2228,10 +2258,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2434,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2562,7 +2592,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2643,7 +2673,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ9">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2846,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ10">
         <v>1.33</v>
@@ -2974,7 +3004,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3055,7 +3085,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ11">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3180,7 +3210,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -3258,10 +3288,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3592,7 +3622,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3670,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
@@ -3798,7 +3828,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -3879,7 +3909,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4004,7 +4034,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4082,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ16">
         <v>2.5</v>
@@ -4210,7 +4240,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4288,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4416,7 +4446,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4494,7 +4524,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -4622,7 +4652,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -4909,7 +4939,7 @@
         <v>2</v>
       </c>
       <c r="AQ20">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>2.32</v>
@@ -5034,7 +5064,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5112,10 +5142,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ21">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR21">
         <v>1.91</v>
@@ -5318,10 +5348,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>1.3</v>
@@ -5446,7 +5476,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5652,7 +5682,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -5733,7 +5763,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR24">
         <v>2.18</v>
@@ -5936,10 +5966,10 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ25">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>2.34</v>
@@ -6064,7 +6094,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6270,7 +6300,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6351,7 +6381,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR27">
         <v>1.08</v>
@@ -6476,7 +6506,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6557,7 +6587,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -6682,7 +6712,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6760,10 +6790,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ29">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR29">
         <v>1.39</v>
@@ -6966,7 +6996,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ30">
         <v>1.5</v>
@@ -7172,7 +7202,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ31">
         <v>2.5</v>
@@ -7300,7 +7330,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7378,7 +7408,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -7712,7 +7742,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -7790,10 +7820,10 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR34">
         <v>1.56</v>
@@ -7918,7 +7948,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -7996,7 +8026,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
         <v>3</v>
@@ -8124,7 +8154,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q36">
         <v>2.54</v>
@@ -8205,7 +8235,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ36">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.19</v>
@@ -8330,7 +8360,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q37">
         <v>1.55</v>
@@ -8536,7 +8566,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -9026,10 +9056,10 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ40">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR40">
         <v>1.33</v>
@@ -9154,7 +9184,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q41">
         <v>2.14</v>
@@ -9235,7 +9265,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ41">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.56</v>
@@ -9360,7 +9390,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9438,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ42">
         <v>1.33</v>
@@ -9644,7 +9674,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -9772,7 +9802,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q44">
         <v>4.5</v>
@@ -9853,7 +9883,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR44">
         <v>1.32</v>
@@ -10056,10 +10086,10 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR45">
         <v>1.4</v>
@@ -10265,7 +10295,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ46">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.51</v>
@@ -10468,10 +10498,10 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ47">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR47">
         <v>1.46</v>
@@ -10674,10 +10704,10 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ48">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR48">
         <v>1.38</v>
@@ -10802,7 +10832,7 @@
         <v>87</v>
       </c>
       <c r="P49" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -10880,7 +10910,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ49">
         <v>2.5</v>
@@ -11086,7 +11116,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ50">
         <v>0</v>
@@ -11214,7 +11244,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11420,7 +11450,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -11626,7 +11656,7 @@
         <v>87</v>
       </c>
       <c r="P53" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q53">
         <v>3.35</v>
@@ -11832,7 +11862,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12038,7 +12068,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12244,7 +12274,7 @@
         <v>124</v>
       </c>
       <c r="P56" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -12656,7 +12686,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -12813,6 +12843,1654 @@
       </c>
       <c r="BP58">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7295024</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45428.54166666666</v>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+      <c r="G59" t="s">
+        <v>70</v>
+      </c>
+      <c r="H59" t="s">
+        <v>72</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>4</v>
+      </c>
+      <c r="N59">
+        <v>4</v>
+      </c>
+      <c r="O59" t="s">
+        <v>87</v>
+      </c>
+      <c r="P59" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q59">
+        <v>5.44</v>
+      </c>
+      <c r="R59">
+        <v>2.55</v>
+      </c>
+      <c r="S59">
+        <v>2.12</v>
+      </c>
+      <c r="T59">
+        <v>1.3</v>
+      </c>
+      <c r="U59">
+        <v>3.2</v>
+      </c>
+      <c r="V59">
+        <v>2.46</v>
+      </c>
+      <c r="W59">
+        <v>1.56</v>
+      </c>
+      <c r="X59">
+        <v>5</v>
+      </c>
+      <c r="Y59">
+        <v>1.13</v>
+      </c>
+      <c r="Z59">
+        <v>4.98</v>
+      </c>
+      <c r="AA59">
+        <v>4.23</v>
+      </c>
+      <c r="AB59">
+        <v>1.64</v>
+      </c>
+      <c r="AC59">
+        <v>1.04</v>
+      </c>
+      <c r="AD59">
+        <v>10</v>
+      </c>
+      <c r="AE59">
+        <v>1.2</v>
+      </c>
+      <c r="AF59">
+        <v>4.33</v>
+      </c>
+      <c r="AG59">
+        <v>1.61</v>
+      </c>
+      <c r="AH59">
+        <v>2.15</v>
+      </c>
+      <c r="AI59">
+        <v>1.62</v>
+      </c>
+      <c r="AJ59">
+        <v>2.1</v>
+      </c>
+      <c r="AK59">
+        <v>2.35</v>
+      </c>
+      <c r="AL59">
+        <v>1.18</v>
+      </c>
+      <c r="AM59">
+        <v>1.14</v>
+      </c>
+      <c r="AN59">
+        <v>0.5</v>
+      </c>
+      <c r="AO59">
+        <v>1.33</v>
+      </c>
+      <c r="AP59">
+        <v>0.4</v>
+      </c>
+      <c r="AQ59">
+        <v>1.75</v>
+      </c>
+      <c r="AR59">
+        <v>1.19</v>
+      </c>
+      <c r="AS59">
+        <v>1.28</v>
+      </c>
+      <c r="AT59">
+        <v>2.47</v>
+      </c>
+      <c r="AU59">
+        <v>2</v>
+      </c>
+      <c r="AV59">
+        <v>10</v>
+      </c>
+      <c r="AW59">
+        <v>3</v>
+      </c>
+      <c r="AX59">
+        <v>8</v>
+      </c>
+      <c r="AY59">
+        <v>5</v>
+      </c>
+      <c r="AZ59">
+        <v>18</v>
+      </c>
+      <c r="BA59">
+        <v>1</v>
+      </c>
+      <c r="BB59">
+        <v>11</v>
+      </c>
+      <c r="BC59">
+        <v>12</v>
+      </c>
+      <c r="BD59">
+        <v>3.25</v>
+      </c>
+      <c r="BE59">
+        <v>9</v>
+      </c>
+      <c r="BF59">
+        <v>1.4</v>
+      </c>
+      <c r="BG59">
+        <v>1.17</v>
+      </c>
+      <c r="BH59">
+        <v>4.8</v>
+      </c>
+      <c r="BI59">
+        <v>1.3</v>
+      </c>
+      <c r="BJ59">
+        <v>3.25</v>
+      </c>
+      <c r="BK59">
+        <v>1.48</v>
+      </c>
+      <c r="BL59">
+        <v>2.47</v>
+      </c>
+      <c r="BM59">
+        <v>1.9</v>
+      </c>
+      <c r="BN59">
+        <v>1.8</v>
+      </c>
+      <c r="BO59">
+        <v>2.35</v>
+      </c>
+      <c r="BP59">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7295025</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45428.54166666666</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>75</v>
+      </c>
+      <c r="H60" t="s">
+        <v>77</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>3</v>
+      </c>
+      <c r="N60">
+        <v>4</v>
+      </c>
+      <c r="O60" t="s">
+        <v>126</v>
+      </c>
+      <c r="P60" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q60">
+        <v>2.25</v>
+      </c>
+      <c r="R60">
+        <v>2.45</v>
+      </c>
+      <c r="S60">
+        <v>5.18</v>
+      </c>
+      <c r="T60">
+        <v>1.35</v>
+      </c>
+      <c r="U60">
+        <v>3.33</v>
+      </c>
+      <c r="V60">
+        <v>2.64</v>
+      </c>
+      <c r="W60">
+        <v>1.5</v>
+      </c>
+      <c r="X60">
+        <v>6.15</v>
+      </c>
+      <c r="Y60">
+        <v>1.1</v>
+      </c>
+      <c r="Z60">
+        <v>1.78</v>
+      </c>
+      <c r="AA60">
+        <v>3.91</v>
+      </c>
+      <c r="AB60">
+        <v>4.33</v>
+      </c>
+      <c r="AC60">
+        <v>1.02</v>
+      </c>
+      <c r="AD60">
+        <v>10.5</v>
+      </c>
+      <c r="AE60">
+        <v>1.21</v>
+      </c>
+      <c r="AF60">
+        <v>3.75</v>
+      </c>
+      <c r="AG60">
+        <v>1.73</v>
+      </c>
+      <c r="AH60">
+        <v>2</v>
+      </c>
+      <c r="AI60">
+        <v>1.76</v>
+      </c>
+      <c r="AJ60">
+        <v>2.1</v>
+      </c>
+      <c r="AK60">
+        <v>1.22</v>
+      </c>
+      <c r="AL60">
+        <v>1.26</v>
+      </c>
+      <c r="AM60">
+        <v>2.19</v>
+      </c>
+      <c r="AN60">
+        <v>2</v>
+      </c>
+      <c r="AO60">
+        <v>2.33</v>
+      </c>
+      <c r="AP60">
+        <v>1.5</v>
+      </c>
+      <c r="AQ60">
+        <v>2.5</v>
+      </c>
+      <c r="AR60">
+        <v>1.09</v>
+      </c>
+      <c r="AS60">
+        <v>1.1</v>
+      </c>
+      <c r="AT60">
+        <v>2.19</v>
+      </c>
+      <c r="AU60">
+        <v>5</v>
+      </c>
+      <c r="AV60">
+        <v>4</v>
+      </c>
+      <c r="AW60">
+        <v>3</v>
+      </c>
+      <c r="AX60">
+        <v>3</v>
+      </c>
+      <c r="AY60">
+        <v>8</v>
+      </c>
+      <c r="AZ60">
+        <v>7</v>
+      </c>
+      <c r="BA60">
+        <v>2</v>
+      </c>
+      <c r="BB60">
+        <v>3</v>
+      </c>
+      <c r="BC60">
+        <v>5</v>
+      </c>
+      <c r="BD60">
+        <v>1.57</v>
+      </c>
+      <c r="BE60">
+        <v>8.5</v>
+      </c>
+      <c r="BF60">
+        <v>2.75</v>
+      </c>
+      <c r="BG60">
+        <v>1.21</v>
+      </c>
+      <c r="BH60">
+        <v>4.2</v>
+      </c>
+      <c r="BI60">
+        <v>1.37</v>
+      </c>
+      <c r="BJ60">
+        <v>2.85</v>
+      </c>
+      <c r="BK60">
+        <v>1.67</v>
+      </c>
+      <c r="BL60">
+        <v>2.07</v>
+      </c>
+      <c r="BM60">
+        <v>2.05</v>
+      </c>
+      <c r="BN60">
+        <v>1.7</v>
+      </c>
+      <c r="BO60">
+        <v>2.77</v>
+      </c>
+      <c r="BP60">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7295022</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45428.54166666666</v>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>78</v>
+      </c>
+      <c r="H61" t="s">
+        <v>73</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <v>4</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>4</v>
+      </c>
+      <c r="O61" t="s">
+        <v>127</v>
+      </c>
+      <c r="P61" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q61">
+        <v>1.64</v>
+      </c>
+      <c r="R61">
+        <v>3.02</v>
+      </c>
+      <c r="S61">
+        <v>8.67</v>
+      </c>
+      <c r="T61">
+        <v>1.22</v>
+      </c>
+      <c r="U61">
+        <v>3.8</v>
+      </c>
+      <c r="V61">
+        <v>2.16</v>
+      </c>
+      <c r="W61">
+        <v>1.71</v>
+      </c>
+      <c r="X61">
+        <v>4.3</v>
+      </c>
+      <c r="Y61">
+        <v>1.18</v>
+      </c>
+      <c r="Z61">
+        <v>1.34</v>
+      </c>
+      <c r="AA61">
+        <v>5.48</v>
+      </c>
+      <c r="AB61">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AC61">
+        <v>1.02</v>
+      </c>
+      <c r="AD61">
+        <v>26.5</v>
+      </c>
+      <c r="AE61">
+        <v>1.12</v>
+      </c>
+      <c r="AF61">
+        <v>5.75</v>
+      </c>
+      <c r="AG61">
+        <v>1.44</v>
+      </c>
+      <c r="AH61">
+        <v>2.6</v>
+      </c>
+      <c r="AI61">
+        <v>1.8</v>
+      </c>
+      <c r="AJ61">
+        <v>1.85</v>
+      </c>
+      <c r="AK61">
+        <v>1.07</v>
+      </c>
+      <c r="AL61">
+        <v>1.14</v>
+      </c>
+      <c r="AM61">
+        <v>3.91</v>
+      </c>
+      <c r="AN61">
+        <v>2.33</v>
+      </c>
+      <c r="AO61">
+        <v>0</v>
+      </c>
+      <c r="AP61">
+        <v>2.5</v>
+      </c>
+      <c r="AQ61">
+        <v>0</v>
+      </c>
+      <c r="AR61">
+        <v>1.51</v>
+      </c>
+      <c r="AS61">
+        <v>1.12</v>
+      </c>
+      <c r="AT61">
+        <v>2.63</v>
+      </c>
+      <c r="AU61">
+        <v>8</v>
+      </c>
+      <c r="AV61">
+        <v>3</v>
+      </c>
+      <c r="AW61">
+        <v>2</v>
+      </c>
+      <c r="AX61">
+        <v>5</v>
+      </c>
+      <c r="AY61">
+        <v>10</v>
+      </c>
+      <c r="AZ61">
+        <v>8</v>
+      </c>
+      <c r="BA61">
+        <v>4</v>
+      </c>
+      <c r="BB61">
+        <v>7</v>
+      </c>
+      <c r="BC61">
+        <v>11</v>
+      </c>
+      <c r="BD61">
+        <v>1.14</v>
+      </c>
+      <c r="BE61">
+        <v>12</v>
+      </c>
+      <c r="BF61">
+        <v>6</v>
+      </c>
+      <c r="BG61">
+        <v>1.18</v>
+      </c>
+      <c r="BH61">
+        <v>4.6</v>
+      </c>
+      <c r="BI61">
+        <v>1.32</v>
+      </c>
+      <c r="BJ61">
+        <v>3.1</v>
+      </c>
+      <c r="BK61">
+        <v>1.59</v>
+      </c>
+      <c r="BL61">
+        <v>2.22</v>
+      </c>
+      <c r="BM61">
+        <v>1.95</v>
+      </c>
+      <c r="BN61">
+        <v>1.77</v>
+      </c>
+      <c r="BO61">
+        <v>2.55</v>
+      </c>
+      <c r="BP61">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7295023</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45428.54166666666</v>
+      </c>
+      <c r="F62">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>71</v>
+      </c>
+      <c r="H62" t="s">
+        <v>81</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>4</v>
+      </c>
+      <c r="L62">
+        <v>4</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>5</v>
+      </c>
+      <c r="O62" t="s">
+        <v>128</v>
+      </c>
+      <c r="P62" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q62">
+        <v>2.7</v>
+      </c>
+      <c r="R62">
+        <v>2.1</v>
+      </c>
+      <c r="S62">
+        <v>3.7</v>
+      </c>
+      <c r="T62">
+        <v>1.38</v>
+      </c>
+      <c r="U62">
+        <v>2.8</v>
+      </c>
+      <c r="V62">
+        <v>2.75</v>
+      </c>
+      <c r="W62">
+        <v>1.4</v>
+      </c>
+      <c r="X62">
+        <v>6.7</v>
+      </c>
+      <c r="Y62">
+        <v>1.09</v>
+      </c>
+      <c r="Z62">
+        <v>2.03</v>
+      </c>
+      <c r="AA62">
+        <v>3.63</v>
+      </c>
+      <c r="AB62">
+        <v>3.58</v>
+      </c>
+      <c r="AC62">
+        <v>1.05</v>
+      </c>
+      <c r="AD62">
+        <v>9</v>
+      </c>
+      <c r="AE62">
+        <v>1.3</v>
+      </c>
+      <c r="AF62">
+        <v>3.45</v>
+      </c>
+      <c r="AG62">
+        <v>1.8</v>
+      </c>
+      <c r="AH62">
+        <v>1.91</v>
+      </c>
+      <c r="AI62">
+        <v>1.7</v>
+      </c>
+      <c r="AJ62">
+        <v>2</v>
+      </c>
+      <c r="AK62">
+        <v>1.3</v>
+      </c>
+      <c r="AL62">
+        <v>1.25</v>
+      </c>
+      <c r="AM62">
+        <v>1.73</v>
+      </c>
+      <c r="AN62">
+        <v>1.33</v>
+      </c>
+      <c r="AO62">
+        <v>1.5</v>
+      </c>
+      <c r="AP62">
+        <v>1.75</v>
+      </c>
+      <c r="AQ62">
+        <v>1.2</v>
+      </c>
+      <c r="AR62">
+        <v>1.32</v>
+      </c>
+      <c r="AS62">
+        <v>1.33</v>
+      </c>
+      <c r="AT62">
+        <v>2.65</v>
+      </c>
+      <c r="AU62">
+        <v>6</v>
+      </c>
+      <c r="AV62">
+        <v>3</v>
+      </c>
+      <c r="AW62">
+        <v>4</v>
+      </c>
+      <c r="AX62">
+        <v>8</v>
+      </c>
+      <c r="AY62">
+        <v>10</v>
+      </c>
+      <c r="AZ62">
+        <v>11</v>
+      </c>
+      <c r="BA62">
+        <v>8</v>
+      </c>
+      <c r="BB62">
+        <v>2</v>
+      </c>
+      <c r="BC62">
+        <v>10</v>
+      </c>
+      <c r="BD62">
+        <v>1.73</v>
+      </c>
+      <c r="BE62">
+        <v>8.5</v>
+      </c>
+      <c r="BF62">
+        <v>2.4</v>
+      </c>
+      <c r="BG62">
+        <v>1.18</v>
+      </c>
+      <c r="BH62">
+        <v>4.6</v>
+      </c>
+      <c r="BI62">
+        <v>1.29</v>
+      </c>
+      <c r="BJ62">
+        <v>3.3</v>
+      </c>
+      <c r="BK62">
+        <v>1.51</v>
+      </c>
+      <c r="BL62">
+        <v>2.37</v>
+      </c>
+      <c r="BM62">
+        <v>1.95</v>
+      </c>
+      <c r="BN62">
+        <v>1.77</v>
+      </c>
+      <c r="BO62">
+        <v>2.45</v>
+      </c>
+      <c r="BP62">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7295021</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45428.54166666666</v>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>76</v>
+      </c>
+      <c r="H63" t="s">
+        <v>74</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>3</v>
+      </c>
+      <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>4</v>
+      </c>
+      <c r="N63">
+        <v>5</v>
+      </c>
+      <c r="O63" t="s">
+        <v>118</v>
+      </c>
+      <c r="P63" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q63">
+        <v>2.15</v>
+      </c>
+      <c r="R63">
+        <v>2.45</v>
+      </c>
+      <c r="S63">
+        <v>3.9</v>
+      </c>
+      <c r="T63">
+        <v>1.27</v>
+      </c>
+      <c r="U63">
+        <v>3.4</v>
+      </c>
+      <c r="V63">
+        <v>2.15</v>
+      </c>
+      <c r="W63">
+        <v>1.62</v>
+      </c>
+      <c r="X63">
+        <v>4.8</v>
+      </c>
+      <c r="Y63">
+        <v>1.15</v>
+      </c>
+      <c r="Z63">
+        <v>1.76</v>
+      </c>
+      <c r="AA63">
+        <v>4.18</v>
+      </c>
+      <c r="AB63">
+        <v>4.18</v>
+      </c>
+      <c r="AC63">
+        <v>1.02</v>
+      </c>
+      <c r="AD63">
+        <v>10</v>
+      </c>
+      <c r="AE63">
+        <v>1.17</v>
+      </c>
+      <c r="AF63">
+        <v>5.33</v>
+      </c>
+      <c r="AG63">
+        <v>1.57</v>
+      </c>
+      <c r="AH63">
+        <v>2.4</v>
+      </c>
+      <c r="AI63">
+        <v>1.5</v>
+      </c>
+      <c r="AJ63">
+        <v>2.4</v>
+      </c>
+      <c r="AK63">
+        <v>1.16</v>
+      </c>
+      <c r="AL63">
+        <v>1.22</v>
+      </c>
+      <c r="AM63">
+        <v>2.05</v>
+      </c>
+      <c r="AN63">
+        <v>2</v>
+      </c>
+      <c r="AO63">
+        <v>2</v>
+      </c>
+      <c r="AP63">
+        <v>1.6</v>
+      </c>
+      <c r="AQ63">
+        <v>2.25</v>
+      </c>
+      <c r="AR63">
+        <v>1.46</v>
+      </c>
+      <c r="AS63">
+        <v>1.38</v>
+      </c>
+      <c r="AT63">
+        <v>2.84</v>
+      </c>
+      <c r="AU63">
+        <v>4</v>
+      </c>
+      <c r="AV63">
+        <v>8</v>
+      </c>
+      <c r="AW63">
+        <v>7</v>
+      </c>
+      <c r="AX63">
+        <v>4</v>
+      </c>
+      <c r="AY63">
+        <v>11</v>
+      </c>
+      <c r="AZ63">
+        <v>12</v>
+      </c>
+      <c r="BA63">
+        <v>9</v>
+      </c>
+      <c r="BB63">
+        <v>5</v>
+      </c>
+      <c r="BC63">
+        <v>14</v>
+      </c>
+      <c r="BD63">
+        <v>1.44</v>
+      </c>
+      <c r="BE63">
+        <v>9</v>
+      </c>
+      <c r="BF63">
+        <v>3.2</v>
+      </c>
+      <c r="BG63">
+        <v>1.1</v>
+      </c>
+      <c r="BH63">
+        <v>5.4</v>
+      </c>
+      <c r="BI63">
+        <v>1.26</v>
+      </c>
+      <c r="BJ63">
+        <v>3.65</v>
+      </c>
+      <c r="BK63">
+        <v>1.44</v>
+      </c>
+      <c r="BL63">
+        <v>2.6</v>
+      </c>
+      <c r="BM63">
+        <v>1.77</v>
+      </c>
+      <c r="BN63">
+        <v>1.95</v>
+      </c>
+      <c r="BO63">
+        <v>2.27</v>
+      </c>
+      <c r="BP63">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7295020</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45428.54166666666</v>
+      </c>
+      <c r="F64">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>82</v>
+      </c>
+      <c r="H64" t="s">
+        <v>83</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>5</v>
+      </c>
+      <c r="K64">
+        <v>5</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>7</v>
+      </c>
+      <c r="N64">
+        <v>8</v>
+      </c>
+      <c r="O64" t="s">
+        <v>129</v>
+      </c>
+      <c r="P64" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q64">
+        <v>2.31</v>
+      </c>
+      <c r="R64">
+        <v>2.52</v>
+      </c>
+      <c r="S64">
+        <v>4.62</v>
+      </c>
+      <c r="T64">
+        <v>1.28</v>
+      </c>
+      <c r="U64">
+        <v>3.75</v>
+      </c>
+      <c r="V64">
+        <v>2.44</v>
+      </c>
+      <c r="W64">
+        <v>1.58</v>
+      </c>
+      <c r="X64">
+        <v>5.5</v>
+      </c>
+      <c r="Y64">
+        <v>1.14</v>
+      </c>
+      <c r="Z64">
+        <v>1.75</v>
+      </c>
+      <c r="AA64">
+        <v>4.08</v>
+      </c>
+      <c r="AB64">
+        <v>4.33</v>
+      </c>
+      <c r="AC64">
+        <v>1.02</v>
+      </c>
+      <c r="AD64">
+        <v>19</v>
+      </c>
+      <c r="AE64">
+        <v>1.2</v>
+      </c>
+      <c r="AF64">
+        <v>4.5</v>
+      </c>
+      <c r="AG64">
+        <v>1.6</v>
+      </c>
+      <c r="AH64">
+        <v>2.2</v>
+      </c>
+      <c r="AI64">
+        <v>1.62</v>
+      </c>
+      <c r="AJ64">
+        <v>2.25</v>
+      </c>
+      <c r="AK64">
+        <v>1.24</v>
+      </c>
+      <c r="AL64">
+        <v>1.19</v>
+      </c>
+      <c r="AM64">
+        <v>2.15</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
+        <v>0.6</v>
+      </c>
+      <c r="AP64">
+        <v>0.75</v>
+      </c>
+      <c r="AQ64">
+        <v>1</v>
+      </c>
+      <c r="AR64">
+        <v>1.5</v>
+      </c>
+      <c r="AS64">
+        <v>1.19</v>
+      </c>
+      <c r="AT64">
+        <v>2.69</v>
+      </c>
+      <c r="AU64">
+        <v>4</v>
+      </c>
+      <c r="AV64">
+        <v>9</v>
+      </c>
+      <c r="AW64">
+        <v>11</v>
+      </c>
+      <c r="AX64">
+        <v>4</v>
+      </c>
+      <c r="AY64">
+        <v>15</v>
+      </c>
+      <c r="AZ64">
+        <v>13</v>
+      </c>
+      <c r="BA64">
+        <v>10</v>
+      </c>
+      <c r="BB64">
+        <v>2</v>
+      </c>
+      <c r="BC64">
+        <v>12</v>
+      </c>
+      <c r="BD64">
+        <v>1.44</v>
+      </c>
+      <c r="BE64">
+        <v>9.5</v>
+      </c>
+      <c r="BF64">
+        <v>3.1</v>
+      </c>
+      <c r="BG64">
+        <v>1.09</v>
+      </c>
+      <c r="BH64">
+        <v>6.4</v>
+      </c>
+      <c r="BI64">
+        <v>1.22</v>
+      </c>
+      <c r="BJ64">
+        <v>4</v>
+      </c>
+      <c r="BK64">
+        <v>1.37</v>
+      </c>
+      <c r="BL64">
+        <v>2.85</v>
+      </c>
+      <c r="BM64">
+        <v>1.7</v>
+      </c>
+      <c r="BN64">
+        <v>2.05</v>
+      </c>
+      <c r="BO64">
+        <v>2.07</v>
+      </c>
+      <c r="BP64">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7295019</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45428.54166666666</v>
+      </c>
+      <c r="F65">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s">
+        <v>80</v>
+      </c>
+      <c r="H65" t="s">
+        <v>79</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>130</v>
+      </c>
+      <c r="P65" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q65">
+        <v>2.4</v>
+      </c>
+      <c r="R65">
+        <v>2.1</v>
+      </c>
+      <c r="S65">
+        <v>4.33</v>
+      </c>
+      <c r="T65">
+        <v>1.38</v>
+      </c>
+      <c r="U65">
+        <v>2.8</v>
+      </c>
+      <c r="V65">
+        <v>2.75</v>
+      </c>
+      <c r="W65">
+        <v>1.4</v>
+      </c>
+      <c r="X65">
+        <v>6.8</v>
+      </c>
+      <c r="Y65">
+        <v>1.08</v>
+      </c>
+      <c r="Z65">
+        <v>1.9</v>
+      </c>
+      <c r="AA65">
+        <v>3.71</v>
+      </c>
+      <c r="AB65">
+        <v>3.97</v>
+      </c>
+      <c r="AC65">
+        <v>1.05</v>
+      </c>
+      <c r="AD65">
+        <v>9.5</v>
+      </c>
+      <c r="AE65">
+        <v>1.28</v>
+      </c>
+      <c r="AF65">
+        <v>3.5</v>
+      </c>
+      <c r="AG65">
+        <v>1.83</v>
+      </c>
+      <c r="AH65">
+        <v>1.85</v>
+      </c>
+      <c r="AI65">
+        <v>1.73</v>
+      </c>
+      <c r="AJ65">
+        <v>1.95</v>
+      </c>
+      <c r="AK65">
+        <v>1.25</v>
+      </c>
+      <c r="AL65">
+        <v>1.25</v>
+      </c>
+      <c r="AM65">
+        <v>1.85</v>
+      </c>
+      <c r="AN65">
+        <v>0</v>
+      </c>
+      <c r="AO65">
+        <v>1.33</v>
+      </c>
+      <c r="AP65">
+        <v>0.75</v>
+      </c>
+      <c r="AQ65">
+        <v>1</v>
+      </c>
+      <c r="AR65">
+        <v>1.33</v>
+      </c>
+      <c r="AS65">
+        <v>1.08</v>
+      </c>
+      <c r="AT65">
+        <v>2.41</v>
+      </c>
+      <c r="AU65">
+        <v>7</v>
+      </c>
+      <c r="AV65">
+        <v>3</v>
+      </c>
+      <c r="AW65">
+        <v>9</v>
+      </c>
+      <c r="AX65">
+        <v>2</v>
+      </c>
+      <c r="AY65">
+        <v>16</v>
+      </c>
+      <c r="AZ65">
+        <v>5</v>
+      </c>
+      <c r="BA65">
+        <v>7</v>
+      </c>
+      <c r="BB65">
+        <v>2</v>
+      </c>
+      <c r="BC65">
+        <v>9</v>
+      </c>
+      <c r="BD65">
+        <v>1.5</v>
+      </c>
+      <c r="BE65">
+        <v>9</v>
+      </c>
+      <c r="BF65">
+        <v>2.88</v>
+      </c>
+      <c r="BG65">
+        <v>1.1</v>
+      </c>
+      <c r="BH65">
+        <v>5.35</v>
+      </c>
+      <c r="BI65">
+        <v>1.24</v>
+      </c>
+      <c r="BJ65">
+        <v>3.8</v>
+      </c>
+      <c r="BK65">
+        <v>1.4</v>
+      </c>
+      <c r="BL65">
+        <v>2.75</v>
+      </c>
+      <c r="BM65">
+        <v>1.77</v>
+      </c>
+      <c r="BN65">
+        <v>1.95</v>
+      </c>
+      <c r="BO65">
+        <v>2.17</v>
+      </c>
+      <c r="BP65">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7295018</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45428.54166666666</v>
+      </c>
+      <c r="F66">
+        <v>8</v>
+      </c>
+      <c r="G66" t="s">
+        <v>84</v>
+      </c>
+      <c r="H66" t="s">
+        <v>85</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66" t="s">
+        <v>131</v>
+      </c>
+      <c r="P66" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q66">
+        <v>1.67</v>
+      </c>
+      <c r="R66">
+        <v>2.75</v>
+      </c>
+      <c r="S66">
+        <v>6</v>
+      </c>
+      <c r="T66">
+        <v>1.25</v>
+      </c>
+      <c r="U66">
+        <v>3.6</v>
+      </c>
+      <c r="V66">
+        <v>2.1</v>
+      </c>
+      <c r="W66">
+        <v>1.65</v>
+      </c>
+      <c r="X66">
+        <v>4.4</v>
+      </c>
+      <c r="Y66">
+        <v>1.17</v>
+      </c>
+      <c r="Z66">
+        <v>1.34</v>
+      </c>
+      <c r="AA66">
+        <v>5.48</v>
+      </c>
+      <c r="AB66">
+        <v>8.35</v>
+      </c>
+      <c r="AC66">
+        <v>1.02</v>
+      </c>
+      <c r="AD66">
+        <v>25</v>
+      </c>
+      <c r="AE66">
+        <v>1.1</v>
+      </c>
+      <c r="AF66">
+        <v>5.7</v>
+      </c>
+      <c r="AG66">
+        <v>1.44</v>
+      </c>
+      <c r="AH66">
+        <v>2.6</v>
+      </c>
+      <c r="AI66">
+        <v>1.7</v>
+      </c>
+      <c r="AJ66">
+        <v>2</v>
+      </c>
+      <c r="AK66">
+        <v>1.01</v>
+      </c>
+      <c r="AL66">
+        <v>1.13</v>
+      </c>
+      <c r="AM66">
+        <v>3.4</v>
+      </c>
+      <c r="AN66">
+        <v>2.25</v>
+      </c>
+      <c r="AO66">
+        <v>0.33</v>
+      </c>
+      <c r="AP66">
+        <v>2.4</v>
+      </c>
+      <c r="AQ66">
+        <v>0.25</v>
+      </c>
+      <c r="AR66">
+        <v>2.1</v>
+      </c>
+      <c r="AS66">
+        <v>1.38</v>
+      </c>
+      <c r="AT66">
+        <v>3.48</v>
+      </c>
+      <c r="AU66">
+        <v>7</v>
+      </c>
+      <c r="AV66">
+        <v>6</v>
+      </c>
+      <c r="AW66">
+        <v>5</v>
+      </c>
+      <c r="AX66">
+        <v>3</v>
+      </c>
+      <c r="AY66">
+        <v>12</v>
+      </c>
+      <c r="AZ66">
+        <v>9</v>
+      </c>
+      <c r="BA66">
+        <v>6</v>
+      </c>
+      <c r="BB66">
+        <v>3</v>
+      </c>
+      <c r="BC66">
+        <v>9</v>
+      </c>
+      <c r="BD66">
+        <v>1.11</v>
+      </c>
+      <c r="BE66">
+        <v>13</v>
+      </c>
+      <c r="BF66">
+        <v>7.5</v>
+      </c>
+      <c r="BG66">
+        <v>1.1</v>
+      </c>
+      <c r="BH66">
+        <v>6.2</v>
+      </c>
+      <c r="BI66">
+        <v>1.24</v>
+      </c>
+      <c r="BJ66">
+        <v>3.8</v>
+      </c>
+      <c r="BK66">
+        <v>1.43</v>
+      </c>
+      <c r="BL66">
+        <v>2.62</v>
+      </c>
+      <c r="BM66">
+        <v>1.73</v>
+      </c>
+      <c r="BN66">
+        <v>2</v>
+      </c>
+      <c r="BO66">
+        <v>2.15</v>
+      </c>
+      <c r="BP66">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="180">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -412,6 +412,18 @@
     <t>['51', '61']</t>
   </si>
   <si>
+    <t>['5', '52']</t>
+  </si>
+  <si>
+    <t>['45+1', '53']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['23', '61']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -530,6 +542,18 @@
   </si>
   <si>
     <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['13', '79']</t>
+  </si>
+  <si>
+    <t>['6', '54', '70']</t>
+  </si>
+  <si>
+    <t>['41', '90', '90+4']</t>
+  </si>
+  <si>
+    <t>['10', '35', '51', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -891,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP66"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1150,7 +1174,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1231,7 +1255,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ2">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1356,7 +1380,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1437,7 +1461,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1640,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ4">
         <v>1.2</v>
@@ -1768,7 +1792,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1849,7 +1873,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1974,7 +1998,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2052,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2467,7 +2491,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2670,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2879,7 +2903,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3004,7 +3028,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3082,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ11">
         <v>2.5</v>
@@ -3210,7 +3234,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -3494,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3622,7 +3646,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3703,7 +3727,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3828,7 +3852,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -3906,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>1.75</v>
@@ -4034,7 +4058,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4115,7 +4139,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ16">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4240,7 +4264,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4321,7 +4345,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR17">
         <v>0.83</v>
@@ -4446,7 +4470,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4527,7 +4551,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR18">
         <v>1.5</v>
@@ -4652,7 +4676,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -4733,7 +4757,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ19">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR19">
         <v>1.53</v>
@@ -4936,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5064,7 +5088,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5476,7 +5500,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5554,10 +5578,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ23">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR23">
         <v>2.02</v>
@@ -5682,7 +5706,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -5760,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ24">
         <v>1.2</v>
@@ -6094,7 +6118,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6172,10 +6196,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR26">
         <v>2.06</v>
@@ -6300,7 +6324,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6378,7 +6402,7 @@
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
         <v>1.2</v>
@@ -6506,7 +6530,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6584,7 +6608,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>2.25</v>
@@ -6712,7 +6736,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6999,7 +7023,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR30">
         <v>2.08</v>
@@ -7205,7 +7229,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ31">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR31">
         <v>1.22</v>
@@ -7330,7 +7354,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7614,7 +7638,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ33">
         <v>0</v>
@@ -7742,7 +7766,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -7948,7 +7972,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8029,7 +8053,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR35">
         <v>1.13</v>
@@ -8154,7 +8178,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q36">
         <v>2.54</v>
@@ -8232,7 +8256,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8360,7 +8384,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q37">
         <v>1.55</v>
@@ -8438,10 +8462,10 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ37">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR37">
         <v>2.03</v>
@@ -8566,7 +8590,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -8647,7 +8671,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR38">
         <v>1.7</v>
@@ -8850,10 +8874,10 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR39">
         <v>2.11</v>
@@ -9184,7 +9208,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q41">
         <v>2.14</v>
@@ -9262,7 +9286,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9390,7 +9414,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9471,7 +9495,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR42">
         <v>1.44</v>
@@ -9802,7 +9826,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q44">
         <v>4.5</v>
@@ -9880,7 +9904,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ44">
         <v>1.75</v>
@@ -10292,7 +10316,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10832,7 +10856,7 @@
         <v>87</v>
       </c>
       <c r="P49" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -10913,7 +10937,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ49">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR49">
         <v>1.24</v>
@@ -11244,7 +11268,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11322,7 +11346,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -11450,7 +11474,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -11528,10 +11552,10 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ52">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR52">
         <v>1.4</v>
@@ -11656,7 +11680,7 @@
         <v>87</v>
       </c>
       <c r="P53" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q53">
         <v>3.35</v>
@@ -11734,10 +11758,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ53">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR53">
         <v>1.7</v>
@@ -11862,7 +11886,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -11940,10 +11964,10 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ54">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR54">
         <v>1.82</v>
@@ -12068,7 +12092,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12146,10 +12170,10 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR55">
         <v>1.29</v>
@@ -12274,7 +12298,7 @@
         <v>124</v>
       </c>
       <c r="P56" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -12352,10 +12376,10 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR56">
         <v>1.62</v>
@@ -12561,7 +12585,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ57">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR57">
         <v>1.51</v>
@@ -12686,7 +12710,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -12764,10 +12788,10 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ58">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR58">
         <v>1.38</v>
@@ -12892,7 +12916,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13098,7 +13122,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13716,7 +13740,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -13922,7 +13946,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14334,7 +14358,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -14491,6 +14515,1448 @@
       </c>
       <c r="BP66">
         <v>1.62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7295026</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45432.5</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>79</v>
+      </c>
+      <c r="H67" t="s">
+        <v>84</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <v>4</v>
+      </c>
+      <c r="O67" t="s">
+        <v>132</v>
+      </c>
+      <c r="P67" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q67">
+        <v>4.33</v>
+      </c>
+      <c r="R67">
+        <v>2.2</v>
+      </c>
+      <c r="S67">
+        <v>2.5</v>
+      </c>
+      <c r="T67">
+        <v>1.36</v>
+      </c>
+      <c r="U67">
+        <v>3</v>
+      </c>
+      <c r="V67">
+        <v>2.63</v>
+      </c>
+      <c r="W67">
+        <v>1.44</v>
+      </c>
+      <c r="X67">
+        <v>7</v>
+      </c>
+      <c r="Y67">
+        <v>1.1</v>
+      </c>
+      <c r="Z67">
+        <v>3.8</v>
+      </c>
+      <c r="AA67">
+        <v>3.5</v>
+      </c>
+      <c r="AB67">
+        <v>1.91</v>
+      </c>
+      <c r="AC67">
+        <v>1.02</v>
+      </c>
+      <c r="AD67">
+        <v>10.5</v>
+      </c>
+      <c r="AE67">
+        <v>1.19</v>
+      </c>
+      <c r="AF67">
+        <v>3.92</v>
+      </c>
+      <c r="AG67">
+        <v>1.74</v>
+      </c>
+      <c r="AH67">
+        <v>1.94</v>
+      </c>
+      <c r="AI67">
+        <v>1.7</v>
+      </c>
+      <c r="AJ67">
+        <v>2.05</v>
+      </c>
+      <c r="AK67">
+        <v>2.24</v>
+      </c>
+      <c r="AL67">
+        <v>1.26</v>
+      </c>
+      <c r="AM67">
+        <v>1.2</v>
+      </c>
+      <c r="AN67">
+        <v>1.25</v>
+      </c>
+      <c r="AO67">
+        <v>2</v>
+      </c>
+      <c r="AP67">
+        <v>1.2</v>
+      </c>
+      <c r="AQ67">
+        <v>1.8</v>
+      </c>
+      <c r="AR67">
+        <v>1.44</v>
+      </c>
+      <c r="AS67">
+        <v>1.79</v>
+      </c>
+      <c r="AT67">
+        <v>3.23</v>
+      </c>
+      <c r="AU67">
+        <v>5</v>
+      </c>
+      <c r="AV67">
+        <v>4</v>
+      </c>
+      <c r="AW67">
+        <v>4</v>
+      </c>
+      <c r="AX67">
+        <v>5</v>
+      </c>
+      <c r="AY67">
+        <v>9</v>
+      </c>
+      <c r="AZ67">
+        <v>9</v>
+      </c>
+      <c r="BA67">
+        <v>6</v>
+      </c>
+      <c r="BB67">
+        <v>14</v>
+      </c>
+      <c r="BC67">
+        <v>20</v>
+      </c>
+      <c r="BD67">
+        <v>4.2</v>
+      </c>
+      <c r="BE67">
+        <v>9</v>
+      </c>
+      <c r="BF67">
+        <v>1.32</v>
+      </c>
+      <c r="BG67">
+        <v>1.09</v>
+      </c>
+      <c r="BH67">
+        <v>6.5</v>
+      </c>
+      <c r="BI67">
+        <v>1.17</v>
+      </c>
+      <c r="BJ67">
+        <v>4.2</v>
+      </c>
+      <c r="BK67">
+        <v>1.32</v>
+      </c>
+      <c r="BL67">
+        <v>3.2</v>
+      </c>
+      <c r="BM67">
+        <v>1.61</v>
+      </c>
+      <c r="BN67">
+        <v>2.28</v>
+      </c>
+      <c r="BO67">
+        <v>1.93</v>
+      </c>
+      <c r="BP67">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7295027</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45432.5</v>
+      </c>
+      <c r="F68">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H68" t="s">
+        <v>76</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>3</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+      <c r="O68" t="s">
+        <v>87</v>
+      </c>
+      <c r="P68" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q68">
+        <v>3.5</v>
+      </c>
+      <c r="R68">
+        <v>2.38</v>
+      </c>
+      <c r="S68">
+        <v>2.65</v>
+      </c>
+      <c r="T68">
+        <v>1.28</v>
+      </c>
+      <c r="U68">
+        <v>3.3</v>
+      </c>
+      <c r="V68">
+        <v>2.3</v>
+      </c>
+      <c r="W68">
+        <v>1.55</v>
+      </c>
+      <c r="X68">
+        <v>5.05</v>
+      </c>
+      <c r="Y68">
+        <v>1.15</v>
+      </c>
+      <c r="Z68">
+        <v>3.25</v>
+      </c>
+      <c r="AA68">
+        <v>3.7</v>
+      </c>
+      <c r="AB68">
+        <v>2</v>
+      </c>
+      <c r="AC68">
+        <v>1.03</v>
+      </c>
+      <c r="AD68">
+        <v>18.25</v>
+      </c>
+      <c r="AE68">
+        <v>1.13</v>
+      </c>
+      <c r="AF68">
+        <v>4.75</v>
+      </c>
+      <c r="AG68">
+        <v>1.52</v>
+      </c>
+      <c r="AH68">
+        <v>2.33</v>
+      </c>
+      <c r="AI68">
+        <v>1.48</v>
+      </c>
+      <c r="AJ68">
+        <v>2.54</v>
+      </c>
+      <c r="AK68">
+        <v>1.65</v>
+      </c>
+      <c r="AL68">
+        <v>1.3</v>
+      </c>
+      <c r="AM68">
+        <v>1.4</v>
+      </c>
+      <c r="AN68">
+        <v>2</v>
+      </c>
+      <c r="AO68">
+        <v>1.33</v>
+      </c>
+      <c r="AP68">
+        <v>1.5</v>
+      </c>
+      <c r="AQ68">
+        <v>1.75</v>
+      </c>
+      <c r="AR68">
+        <v>1.55</v>
+      </c>
+      <c r="AS68">
+        <v>1.46</v>
+      </c>
+      <c r="AT68">
+        <v>3.01</v>
+      </c>
+      <c r="AU68">
+        <v>-1</v>
+      </c>
+      <c r="AV68">
+        <v>-1</v>
+      </c>
+      <c r="AW68">
+        <v>-1</v>
+      </c>
+      <c r="AX68">
+        <v>-1</v>
+      </c>
+      <c r="AY68">
+        <v>-1</v>
+      </c>
+      <c r="AZ68">
+        <v>-1</v>
+      </c>
+      <c r="BA68">
+        <v>-1</v>
+      </c>
+      <c r="BB68">
+        <v>-1</v>
+      </c>
+      <c r="BC68">
+        <v>-1</v>
+      </c>
+      <c r="BD68">
+        <v>2.25</v>
+      </c>
+      <c r="BE68">
+        <v>8.5</v>
+      </c>
+      <c r="BF68">
+        <v>1.8</v>
+      </c>
+      <c r="BG68">
+        <v>1.15</v>
+      </c>
+      <c r="BH68">
+        <v>5</v>
+      </c>
+      <c r="BI68">
+        <v>1.29</v>
+      </c>
+      <c r="BJ68">
+        <v>3.4</v>
+      </c>
+      <c r="BK68">
+        <v>1.54</v>
+      </c>
+      <c r="BL68">
+        <v>2.46</v>
+      </c>
+      <c r="BM68">
+        <v>1.8</v>
+      </c>
+      <c r="BN68">
+        <v>1.9</v>
+      </c>
+      <c r="BO68">
+        <v>2.28</v>
+      </c>
+      <c r="BP68">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7295028</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45432.5</v>
+      </c>
+      <c r="F69">
+        <v>9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>81</v>
+      </c>
+      <c r="H69" t="s">
+        <v>80</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69" t="s">
+        <v>133</v>
+      </c>
+      <c r="P69" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q69">
+        <v>2.2</v>
+      </c>
+      <c r="R69">
+        <v>2.3</v>
+      </c>
+      <c r="S69">
+        <v>4.75</v>
+      </c>
+      <c r="T69">
+        <v>1.37</v>
+      </c>
+      <c r="U69">
+        <v>2.9</v>
+      </c>
+      <c r="V69">
+        <v>2.7</v>
+      </c>
+      <c r="W69">
+        <v>1.45</v>
+      </c>
+      <c r="X69">
+        <v>6</v>
+      </c>
+      <c r="Y69">
+        <v>1.11</v>
+      </c>
+      <c r="Z69">
+        <v>1.7</v>
+      </c>
+      <c r="AA69">
+        <v>3.7</v>
+      </c>
+      <c r="AB69">
+        <v>4.75</v>
+      </c>
+      <c r="AC69">
+        <v>1.05</v>
+      </c>
+      <c r="AD69">
+        <v>8</v>
+      </c>
+      <c r="AE69">
+        <v>1.25</v>
+      </c>
+      <c r="AF69">
+        <v>3.75</v>
+      </c>
+      <c r="AG69">
+        <v>1.78</v>
+      </c>
+      <c r="AH69">
+        <v>1.9</v>
+      </c>
+      <c r="AI69">
+        <v>1.7</v>
+      </c>
+      <c r="AJ69">
+        <v>2</v>
+      </c>
+      <c r="AK69">
+        <v>1.2</v>
+      </c>
+      <c r="AL69">
+        <v>1.2</v>
+      </c>
+      <c r="AM69">
+        <v>2.1</v>
+      </c>
+      <c r="AN69">
+        <v>1.33</v>
+      </c>
+      <c r="AO69">
+        <v>1.75</v>
+      </c>
+      <c r="AP69">
+        <v>1.75</v>
+      </c>
+      <c r="AQ69">
+        <v>1.4</v>
+      </c>
+      <c r="AR69">
+        <v>1.61</v>
+      </c>
+      <c r="AS69">
+        <v>1.2</v>
+      </c>
+      <c r="AT69">
+        <v>2.81</v>
+      </c>
+      <c r="AU69">
+        <v>4</v>
+      </c>
+      <c r="AV69">
+        <v>2</v>
+      </c>
+      <c r="AW69">
+        <v>3</v>
+      </c>
+      <c r="AX69">
+        <v>4</v>
+      </c>
+      <c r="AY69">
+        <v>7</v>
+      </c>
+      <c r="AZ69">
+        <v>6</v>
+      </c>
+      <c r="BA69">
+        <v>5</v>
+      </c>
+      <c r="BB69">
+        <v>1</v>
+      </c>
+      <c r="BC69">
+        <v>6</v>
+      </c>
+      <c r="BD69">
+        <v>1.5</v>
+      </c>
+      <c r="BE69">
+        <v>9</v>
+      </c>
+      <c r="BF69">
+        <v>3</v>
+      </c>
+      <c r="BG69">
+        <v>1.11</v>
+      </c>
+      <c r="BH69">
+        <v>5.15</v>
+      </c>
+      <c r="BI69">
+        <v>1.25</v>
+      </c>
+      <c r="BJ69">
+        <v>3.42</v>
+      </c>
+      <c r="BK69">
+        <v>1.52</v>
+      </c>
+      <c r="BL69">
+        <v>2.51</v>
+      </c>
+      <c r="BM69">
+        <v>1.77</v>
+      </c>
+      <c r="BN69">
+        <v>1.95</v>
+      </c>
+      <c r="BO69">
+        <v>2.26</v>
+      </c>
+      <c r="BP69">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7295029</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45432.5</v>
+      </c>
+      <c r="F70">
+        <v>9</v>
+      </c>
+      <c r="G70" t="s">
+        <v>83</v>
+      </c>
+      <c r="H70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
+        <v>134</v>
+      </c>
+      <c r="P70" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q70">
+        <v>5.5</v>
+      </c>
+      <c r="R70">
+        <v>2.65</v>
+      </c>
+      <c r="S70">
+        <v>1.95</v>
+      </c>
+      <c r="T70">
+        <v>1.26</v>
+      </c>
+      <c r="U70">
+        <v>3.6</v>
+      </c>
+      <c r="V70">
+        <v>2.2</v>
+      </c>
+      <c r="W70">
+        <v>1.64</v>
+      </c>
+      <c r="X70">
+        <v>4.6</v>
+      </c>
+      <c r="Y70">
+        <v>1.2</v>
+      </c>
+      <c r="Z70">
+        <v>6.5</v>
+      </c>
+      <c r="AA70">
+        <v>4.5</v>
+      </c>
+      <c r="AB70">
+        <v>1.4</v>
+      </c>
+      <c r="AC70">
+        <v>1.01</v>
+      </c>
+      <c r="AD70">
+        <v>21</v>
+      </c>
+      <c r="AE70">
+        <v>1.15</v>
+      </c>
+      <c r="AF70">
+        <v>5.25</v>
+      </c>
+      <c r="AG70">
+        <v>1.49</v>
+      </c>
+      <c r="AH70">
+        <v>2.39</v>
+      </c>
+      <c r="AI70">
+        <v>1.7</v>
+      </c>
+      <c r="AJ70">
+        <v>2.16</v>
+      </c>
+      <c r="AK70">
+        <v>2.7</v>
+      </c>
+      <c r="AL70">
+        <v>1.14</v>
+      </c>
+      <c r="AM70">
+        <v>1.15</v>
+      </c>
+      <c r="AN70">
+        <v>0.33</v>
+      </c>
+      <c r="AO70">
+        <v>3</v>
+      </c>
+      <c r="AP70">
+        <v>1</v>
+      </c>
+      <c r="AQ70">
+        <v>2.4</v>
+      </c>
+      <c r="AR70">
+        <v>1.23</v>
+      </c>
+      <c r="AS70">
+        <v>1.75</v>
+      </c>
+      <c r="AT70">
+        <v>2.98</v>
+      </c>
+      <c r="AU70">
+        <v>2</v>
+      </c>
+      <c r="AV70">
+        <v>7</v>
+      </c>
+      <c r="AW70">
+        <v>2</v>
+      </c>
+      <c r="AX70">
+        <v>6</v>
+      </c>
+      <c r="AY70">
+        <v>4</v>
+      </c>
+      <c r="AZ70">
+        <v>13</v>
+      </c>
+      <c r="BA70">
+        <v>3</v>
+      </c>
+      <c r="BB70">
+        <v>8</v>
+      </c>
+      <c r="BC70">
+        <v>11</v>
+      </c>
+      <c r="BD70">
+        <v>3.5</v>
+      </c>
+      <c r="BE70">
+        <v>10.25</v>
+      </c>
+      <c r="BF70">
+        <v>1.41</v>
+      </c>
+      <c r="BG70">
+        <v>1.15</v>
+      </c>
+      <c r="BH70">
+        <v>4.5</v>
+      </c>
+      <c r="BI70">
+        <v>1.31</v>
+      </c>
+      <c r="BJ70">
+        <v>3.04</v>
+      </c>
+      <c r="BK70">
+        <v>1.57</v>
+      </c>
+      <c r="BL70">
+        <v>2.25</v>
+      </c>
+      <c r="BM70">
+        <v>1.96</v>
+      </c>
+      <c r="BN70">
+        <v>1.79</v>
+      </c>
+      <c r="BO70">
+        <v>2.52</v>
+      </c>
+      <c r="BP70">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7295030</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45432.5</v>
+      </c>
+      <c r="F71">
+        <v>9</v>
+      </c>
+      <c r="G71" t="s">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s">
+        <v>70</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71" t="s">
+        <v>87</v>
+      </c>
+      <c r="P71" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q71">
+        <v>2.75</v>
+      </c>
+      <c r="R71">
+        <v>2.25</v>
+      </c>
+      <c r="S71">
+        <v>3.75</v>
+      </c>
+      <c r="T71">
+        <v>1.33</v>
+      </c>
+      <c r="U71">
+        <v>3.25</v>
+      </c>
+      <c r="V71">
+        <v>2.63</v>
+      </c>
+      <c r="W71">
+        <v>1.44</v>
+      </c>
+      <c r="X71">
+        <v>6.5</v>
+      </c>
+      <c r="Y71">
+        <v>1.11</v>
+      </c>
+      <c r="Z71">
+        <v>2.05</v>
+      </c>
+      <c r="AA71">
+        <v>3.5</v>
+      </c>
+      <c r="AB71">
+        <v>3.3</v>
+      </c>
+      <c r="AC71">
+        <v>1.02</v>
+      </c>
+      <c r="AD71">
+        <v>10</v>
+      </c>
+      <c r="AE71">
+        <v>1.22</v>
+      </c>
+      <c r="AF71">
+        <v>3.8</v>
+      </c>
+      <c r="AG71">
+        <v>1.66</v>
+      </c>
+      <c r="AH71">
+        <v>2.04</v>
+      </c>
+      <c r="AI71">
+        <v>1.62</v>
+      </c>
+      <c r="AJ71">
+        <v>2.2</v>
+      </c>
+      <c r="AK71">
+        <v>1.3</v>
+      </c>
+      <c r="AL71">
+        <v>1.3</v>
+      </c>
+      <c r="AM71">
+        <v>1.78</v>
+      </c>
+      <c r="AN71">
+        <v>0.5</v>
+      </c>
+      <c r="AO71">
+        <v>1.5</v>
+      </c>
+      <c r="AP71">
+        <v>0.6</v>
+      </c>
+      <c r="AQ71">
+        <v>1.4</v>
+      </c>
+      <c r="AR71">
+        <v>1.62</v>
+      </c>
+      <c r="AS71">
+        <v>0.96</v>
+      </c>
+      <c r="AT71">
+        <v>2.58</v>
+      </c>
+      <c r="AU71">
+        <v>-1</v>
+      </c>
+      <c r="AV71">
+        <v>-1</v>
+      </c>
+      <c r="AW71">
+        <v>-1</v>
+      </c>
+      <c r="AX71">
+        <v>-1</v>
+      </c>
+      <c r="AY71">
+        <v>-1</v>
+      </c>
+      <c r="AZ71">
+        <v>-1</v>
+      </c>
+      <c r="BA71">
+        <v>-1</v>
+      </c>
+      <c r="BB71">
+        <v>-1</v>
+      </c>
+      <c r="BC71">
+        <v>-1</v>
+      </c>
+      <c r="BD71">
+        <v>1.5</v>
+      </c>
+      <c r="BE71">
+        <v>8.5</v>
+      </c>
+      <c r="BF71">
+        <v>3</v>
+      </c>
+      <c r="BG71">
+        <v>1.19</v>
+      </c>
+      <c r="BH71">
+        <v>3.92</v>
+      </c>
+      <c r="BI71">
+        <v>1.39</v>
+      </c>
+      <c r="BJ71">
+        <v>2.77</v>
+      </c>
+      <c r="BK71">
+        <v>1.7</v>
+      </c>
+      <c r="BL71">
+        <v>2.05</v>
+      </c>
+      <c r="BM71">
+        <v>2.05</v>
+      </c>
+      <c r="BN71">
+        <v>1.7</v>
+      </c>
+      <c r="BO71">
+        <v>2.85</v>
+      </c>
+      <c r="BP71">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7295031</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45432.5</v>
+      </c>
+      <c r="F72">
+        <v>9</v>
+      </c>
+      <c r="G72" t="s">
+        <v>74</v>
+      </c>
+      <c r="H72" t="s">
+        <v>71</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>3</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72" t="s">
+        <v>87</v>
+      </c>
+      <c r="P72" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q72">
+        <v>2.88</v>
+      </c>
+      <c r="R72">
+        <v>2.25</v>
+      </c>
+      <c r="S72">
+        <v>3.5</v>
+      </c>
+      <c r="T72">
+        <v>1.33</v>
+      </c>
+      <c r="U72">
+        <v>3</v>
+      </c>
+      <c r="V72">
+        <v>2.4</v>
+      </c>
+      <c r="W72">
+        <v>1.5</v>
+      </c>
+      <c r="X72">
+        <v>5.5</v>
+      </c>
+      <c r="Y72">
+        <v>1.11</v>
+      </c>
+      <c r="Z72">
+        <v>2.2</v>
+      </c>
+      <c r="AA72">
+        <v>3.4</v>
+      </c>
+      <c r="AB72">
+        <v>3</v>
+      </c>
+      <c r="AC72">
+        <v>1.02</v>
+      </c>
+      <c r="AD72">
+        <v>10</v>
+      </c>
+      <c r="AE72">
+        <v>1.22</v>
+      </c>
+      <c r="AF72">
+        <v>3.8</v>
+      </c>
+      <c r="AG72">
+        <v>1.66</v>
+      </c>
+      <c r="AH72">
+        <v>2.04</v>
+      </c>
+      <c r="AI72">
+        <v>1.57</v>
+      </c>
+      <c r="AJ72">
+        <v>2.25</v>
+      </c>
+      <c r="AK72">
+        <v>1.38</v>
+      </c>
+      <c r="AL72">
+        <v>1.33</v>
+      </c>
+      <c r="AM72">
+        <v>1.62</v>
+      </c>
+      <c r="AN72">
+        <v>0.25</v>
+      </c>
+      <c r="AO72">
+        <v>2.5</v>
+      </c>
+      <c r="AP72">
+        <v>0.2</v>
+      </c>
+      <c r="AQ72">
+        <v>2.6</v>
+      </c>
+      <c r="AR72">
+        <v>1.23</v>
+      </c>
+      <c r="AS72">
+        <v>1.16</v>
+      </c>
+      <c r="AT72">
+        <v>2.39</v>
+      </c>
+      <c r="AU72">
+        <v>3</v>
+      </c>
+      <c r="AV72">
+        <v>0</v>
+      </c>
+      <c r="AW72">
+        <v>2</v>
+      </c>
+      <c r="AX72">
+        <v>3</v>
+      </c>
+      <c r="AY72">
+        <v>5</v>
+      </c>
+      <c r="AZ72">
+        <v>3</v>
+      </c>
+      <c r="BA72">
+        <v>3</v>
+      </c>
+      <c r="BB72">
+        <v>7</v>
+      </c>
+      <c r="BC72">
+        <v>10</v>
+      </c>
+      <c r="BD72">
+        <v>1.73</v>
+      </c>
+      <c r="BE72">
+        <v>8.5</v>
+      </c>
+      <c r="BF72">
+        <v>2.38</v>
+      </c>
+      <c r="BG72">
+        <v>1.14</v>
+      </c>
+      <c r="BH72">
+        <v>4.6</v>
+      </c>
+      <c r="BI72">
+        <v>1.29</v>
+      </c>
+      <c r="BJ72">
+        <v>3.3</v>
+      </c>
+      <c r="BK72">
+        <v>1.61</v>
+      </c>
+      <c r="BL72">
+        <v>2.29</v>
+      </c>
+      <c r="BM72">
+        <v>1.95</v>
+      </c>
+      <c r="BN72">
+        <v>1.77</v>
+      </c>
+      <c r="BO72">
+        <v>2.47</v>
+      </c>
+      <c r="BP72">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7295032</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45432.5</v>
+      </c>
+      <c r="F73">
+        <v>9</v>
+      </c>
+      <c r="G73" t="s">
+        <v>72</v>
+      </c>
+      <c r="H73" t="s">
+        <v>82</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>2</v>
+      </c>
+      <c r="K73">
+        <v>3</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>4</v>
+      </c>
+      <c r="N73">
+        <v>6</v>
+      </c>
+      <c r="O73" t="s">
+        <v>135</v>
+      </c>
+      <c r="P73" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q73">
+        <v>1.95</v>
+      </c>
+      <c r="R73">
+        <v>2.79</v>
+      </c>
+      <c r="S73">
+        <v>5.66</v>
+      </c>
+      <c r="T73">
+        <v>1.22</v>
+      </c>
+      <c r="U73">
+        <v>3.75</v>
+      </c>
+      <c r="V73">
+        <v>2.16</v>
+      </c>
+      <c r="W73">
+        <v>1.72</v>
+      </c>
+      <c r="X73">
+        <v>4.5</v>
+      </c>
+      <c r="Y73">
+        <v>1.19</v>
+      </c>
+      <c r="Z73">
+        <v>1.5</v>
+      </c>
+      <c r="AA73">
+        <v>4.5</v>
+      </c>
+      <c r="AB73">
+        <v>5.5</v>
+      </c>
+      <c r="AC73">
+        <v>1.01</v>
+      </c>
+      <c r="AD73">
+        <v>26</v>
+      </c>
+      <c r="AE73">
+        <v>1.13</v>
+      </c>
+      <c r="AF73">
+        <v>5.75</v>
+      </c>
+      <c r="AG73">
+        <v>1.43</v>
+      </c>
+      <c r="AH73">
+        <v>2.56</v>
+      </c>
+      <c r="AI73">
+        <v>1.59</v>
+      </c>
+      <c r="AJ73">
+        <v>2.41</v>
+      </c>
+      <c r="AK73">
+        <v>1.14</v>
+      </c>
+      <c r="AL73">
+        <v>1.14</v>
+      </c>
+      <c r="AM73">
+        <v>2.5</v>
+      </c>
+      <c r="AN73">
+        <v>2</v>
+      </c>
+      <c r="AO73">
+        <v>1</v>
+      </c>
+      <c r="AP73">
+        <v>1.67</v>
+      </c>
+      <c r="AQ73">
+        <v>1.4</v>
+      </c>
+      <c r="AR73">
+        <v>1.73</v>
+      </c>
+      <c r="AS73">
+        <v>1.17</v>
+      </c>
+      <c r="AT73">
+        <v>2.9</v>
+      </c>
+      <c r="AU73">
+        <v>-1</v>
+      </c>
+      <c r="AV73">
+        <v>-1</v>
+      </c>
+      <c r="AW73">
+        <v>-1</v>
+      </c>
+      <c r="AX73">
+        <v>-1</v>
+      </c>
+      <c r="AY73">
+        <v>-1</v>
+      </c>
+      <c r="AZ73">
+        <v>-1</v>
+      </c>
+      <c r="BA73">
+        <v>-1</v>
+      </c>
+      <c r="BB73">
+        <v>-1</v>
+      </c>
+      <c r="BC73">
+        <v>-1</v>
+      </c>
+      <c r="BD73">
+        <v>1.44</v>
+      </c>
+      <c r="BE73">
+        <v>9</v>
+      </c>
+      <c r="BF73">
+        <v>3.2</v>
+      </c>
+      <c r="BG73">
+        <v>1.17</v>
+      </c>
+      <c r="BH73">
+        <v>4.6</v>
+      </c>
+      <c r="BI73">
+        <v>1.28</v>
+      </c>
+      <c r="BJ73">
+        <v>3.35</v>
+      </c>
+      <c r="BK73">
+        <v>1.59</v>
+      </c>
+      <c r="BL73">
+        <v>2.31</v>
+      </c>
+      <c r="BM73">
+        <v>1.85</v>
+      </c>
+      <c r="BN73">
+        <v>1.85</v>
+      </c>
+      <c r="BO73">
+        <v>2.45</v>
+      </c>
+      <c r="BP73">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="182">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,9 @@
     <t>['23', '61']</t>
   </si>
   <si>
+    <t>['49', '51', '77']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -554,6 +557,9 @@
   </si>
   <si>
     <t>['10', '35', '51', '90+2']</t>
+  </si>
+  <si>
+    <t>['1', '43']</t>
   </si>
 </sst>
 </file>
@@ -915,7 +921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1174,7 +1180,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1380,7 +1386,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1792,7 +1798,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1870,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ5">
         <v>1.8</v>
@@ -1998,7 +2004,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -3028,7 +3034,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3234,7 +3240,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -3521,7 +3527,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3646,7 +3652,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3852,7 +3858,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4058,7 +4064,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4264,7 +4270,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4470,7 +4476,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4676,7 +4682,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -4754,7 +4760,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ19">
         <v>1.4</v>
@@ -5088,7 +5094,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5500,7 +5506,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5706,7 +5712,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6118,7 +6124,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6324,7 +6330,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6530,7 +6536,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6736,7 +6742,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -7354,7 +7360,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7435,7 +7441,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR32">
         <v>0.59</v>
@@ -7766,7 +7772,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -7972,7 +7978,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8178,7 +8184,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q36">
         <v>2.54</v>
@@ -8384,7 +8390,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q37">
         <v>1.55</v>
@@ -8590,7 +8596,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -8668,7 +8674,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ38">
         <v>1.4</v>
@@ -9208,7 +9214,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q41">
         <v>2.14</v>
@@ -9414,7 +9420,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9701,7 +9707,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR43">
         <v>1.98</v>
@@ -9826,7 +9832,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q44">
         <v>4.5</v>
@@ -10856,7 +10862,7 @@
         <v>87</v>
       </c>
       <c r="P49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11268,7 +11274,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11349,7 +11355,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR51">
         <v>1.86</v>
@@ -11474,7 +11480,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -11680,7 +11686,7 @@
         <v>87</v>
       </c>
       <c r="P53" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q53">
         <v>3.35</v>
@@ -11886,7 +11892,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12092,7 +12098,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12298,7 +12304,7 @@
         <v>124</v>
       </c>
       <c r="P56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -12582,7 +12588,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ57">
         <v>1.4</v>
@@ -12710,7 +12716,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -12916,7 +12922,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13122,7 +13128,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13740,7 +13746,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -13946,7 +13952,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14358,7 +14364,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -14564,7 +14570,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -14657,10 +14663,10 @@
         <v>3.23</v>
       </c>
       <c r="AU67">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV67">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW67">
         <v>4</v>
@@ -14669,10 +14675,10 @@
         <v>5</v>
       </c>
       <c r="AY67">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ67">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA67">
         <v>6</v>
@@ -14770,7 +14776,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -14863,31 +14869,31 @@
         <v>3.01</v>
       </c>
       <c r="AU68">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV68">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW68">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX68">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY68">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ68">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA68">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB68">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC68">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD68">
         <v>2.25</v>
@@ -15072,28 +15078,28 @@
         <v>4</v>
       </c>
       <c r="AV69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX69">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY69">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ69">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA69">
+        <v>8</v>
+      </c>
+      <c r="BB69">
         <v>5</v>
       </c>
-      <c r="BB69">
-        <v>1</v>
-      </c>
       <c r="BC69">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD69">
         <v>1.5</v>
@@ -15275,22 +15281,22 @@
         <v>2.98</v>
       </c>
       <c r="AU70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV70">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AW70">
         <v>2</v>
       </c>
       <c r="AX70">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ70">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="BA70">
         <v>3</v>
@@ -15481,31 +15487,31 @@
         <v>2.58</v>
       </c>
       <c r="AU71">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV71">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW71">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX71">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY71">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AZ71">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA71">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB71">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC71">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD71">
         <v>1.5</v>
@@ -15594,7 +15600,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -15690,28 +15696,28 @@
         <v>3</v>
       </c>
       <c r="AV72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY72">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ72">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BA72">
         <v>3</v>
       </c>
       <c r="BB72">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC72">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD72">
         <v>1.73</v>
@@ -15800,7 +15806,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -15893,31 +15899,31 @@
         <v>2.9</v>
       </c>
       <c r="AU73">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV73">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW73">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX73">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY73">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ73">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA73">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB73">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC73">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD73">
         <v>1.44</v>
@@ -15957,6 +15963,212 @@
       </c>
       <c r="BP73">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7295033</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45432.59375</v>
+      </c>
+      <c r="F74">
+        <v>9</v>
+      </c>
+      <c r="G74" t="s">
+        <v>73</v>
+      </c>
+      <c r="H74" t="s">
+        <v>75</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>2</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>3</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <v>5</v>
+      </c>
+      <c r="O74" t="s">
+        <v>136</v>
+      </c>
+      <c r="P74" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q74">
+        <v>2.95</v>
+      </c>
+      <c r="R74">
+        <v>2.1</v>
+      </c>
+      <c r="S74">
+        <v>3.75</v>
+      </c>
+      <c r="T74">
+        <v>1.42</v>
+      </c>
+      <c r="U74">
+        <v>2.9</v>
+      </c>
+      <c r="V74">
+        <v>2.85</v>
+      </c>
+      <c r="W74">
+        <v>1.42</v>
+      </c>
+      <c r="X74">
+        <v>7</v>
+      </c>
+      <c r="Y74">
+        <v>1.09</v>
+      </c>
+      <c r="Z74">
+        <v>2.25</v>
+      </c>
+      <c r="AA74">
+        <v>3.25</v>
+      </c>
+      <c r="AB74">
+        <v>3.1</v>
+      </c>
+      <c r="AC74">
+        <v>1.06</v>
+      </c>
+      <c r="AD74">
+        <v>11</v>
+      </c>
+      <c r="AE74">
+        <v>1.3</v>
+      </c>
+      <c r="AF74">
+        <v>3.6</v>
+      </c>
+      <c r="AG74">
+        <v>1.86</v>
+      </c>
+      <c r="AH74">
+        <v>1.81</v>
+      </c>
+      <c r="AI74">
+        <v>1.72</v>
+      </c>
+      <c r="AJ74">
+        <v>2.1</v>
+      </c>
+      <c r="AK74">
+        <v>1.36</v>
+      </c>
+      <c r="AL74">
+        <v>1.28</v>
+      </c>
+      <c r="AM74">
+        <v>1.68</v>
+      </c>
+      <c r="AN74">
+        <v>0.75</v>
+      </c>
+      <c r="AO74">
+        <v>1</v>
+      </c>
+      <c r="AP74">
+        <v>1.2</v>
+      </c>
+      <c r="AQ74">
+        <v>0.8</v>
+      </c>
+      <c r="AR74">
+        <v>1.59</v>
+      </c>
+      <c r="AS74">
+        <v>1.16</v>
+      </c>
+      <c r="AT74">
+        <v>2.75</v>
+      </c>
+      <c r="AU74">
+        <v>3</v>
+      </c>
+      <c r="AV74">
+        <v>3</v>
+      </c>
+      <c r="AW74">
+        <v>2</v>
+      </c>
+      <c r="AX74">
+        <v>3</v>
+      </c>
+      <c r="AY74">
+        <v>5</v>
+      </c>
+      <c r="AZ74">
+        <v>6</v>
+      </c>
+      <c r="BA74">
+        <v>1</v>
+      </c>
+      <c r="BB74">
+        <v>2</v>
+      </c>
+      <c r="BC74">
+        <v>3</v>
+      </c>
+      <c r="BD74">
+        <v>1.73</v>
+      </c>
+      <c r="BE74">
+        <v>8.5</v>
+      </c>
+      <c r="BF74">
+        <v>2.38</v>
+      </c>
+      <c r="BG74">
+        <v>1.15</v>
+      </c>
+      <c r="BH74">
+        <v>4.45</v>
+      </c>
+      <c r="BI74">
+        <v>1.31</v>
+      </c>
+      <c r="BJ74">
+        <v>3.04</v>
+      </c>
+      <c r="BK74">
+        <v>1.57</v>
+      </c>
+      <c r="BL74">
+        <v>2.25</v>
+      </c>
+      <c r="BM74">
+        <v>1.95</v>
+      </c>
+      <c r="BN74">
+        <v>1.77</v>
+      </c>
+      <c r="BO74">
+        <v>2.52</v>
+      </c>
+      <c r="BP74">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -16105,22 +16105,22 @@
         <v>2.75</v>
       </c>
       <c r="AU74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX74">
         <v>3</v>
       </c>
       <c r="AY74">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ74">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA74">
         <v>1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="184">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -427,6 +427,9 @@
     <t>['49', '51', '77']</t>
   </si>
   <si>
+    <t>['41', '75']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -560,6 +563,9 @@
   </si>
   <si>
     <t>['1', '43']</t>
+  </si>
+  <si>
+    <t>['45+1', '64']</t>
   </si>
 </sst>
 </file>
@@ -921,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP74"/>
+  <dimension ref="A1:BP75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1180,7 +1186,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1386,7 +1392,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1798,7 +1804,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2004,7 +2010,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2906,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ10">
         <v>1.75</v>
@@ -3034,7 +3040,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3115,7 +3121,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ11">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3240,7 +3246,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -3652,7 +3658,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3858,7 +3864,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4064,7 +4070,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4270,7 +4276,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4476,7 +4482,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4682,7 +4688,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -5094,7 +5100,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5506,7 +5512,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5712,7 +5718,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6124,7 +6130,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6330,7 +6336,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6536,7 +6542,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6742,7 +6748,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6823,7 +6829,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ29">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR29">
         <v>1.39</v>
@@ -7360,7 +7366,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7772,7 +7778,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -7850,7 +7856,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ34">
         <v>1.75</v>
@@ -7978,7 +7984,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8184,7 +8190,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q36">
         <v>2.54</v>
@@ -8390,7 +8396,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q37">
         <v>1.55</v>
@@ -8596,7 +8602,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -9214,7 +9220,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q41">
         <v>2.14</v>
@@ -9420,7 +9426,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9832,7 +9838,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q44">
         <v>4.5</v>
@@ -10116,7 +10122,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ45">
         <v>1.2</v>
@@ -10737,7 +10743,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ48">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR48">
         <v>1.38</v>
@@ -10862,7 +10868,7 @@
         <v>87</v>
       </c>
       <c r="P49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11274,7 +11280,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11480,7 +11486,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -11686,7 +11692,7 @@
         <v>87</v>
       </c>
       <c r="P53" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q53">
         <v>3.35</v>
@@ -11892,7 +11898,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12098,7 +12104,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12304,7 +12310,7 @@
         <v>124</v>
       </c>
       <c r="P56" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -12716,7 +12722,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -12922,7 +12928,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13128,7 +13134,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13209,7 +13215,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ60">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR60">
         <v>1.09</v>
@@ -13412,7 +13418,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ61">
         <v>0</v>
@@ -13746,7 +13752,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -13952,7 +13958,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14364,7 +14370,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -14570,7 +14576,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -14776,7 +14782,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15600,7 +15606,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -15806,7 +15812,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16012,7 +16018,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16168,6 +16174,212 @@
         <v>2.52</v>
       </c>
       <c r="BP74">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7295034</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45436.58333333334</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>78</v>
+      </c>
+      <c r="H75" t="s">
+        <v>77</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+      <c r="N75">
+        <v>4</v>
+      </c>
+      <c r="O75" t="s">
+        <v>137</v>
+      </c>
+      <c r="P75" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q75">
+        <v>1.66</v>
+      </c>
+      <c r="R75">
+        <v>2.9</v>
+      </c>
+      <c r="S75">
+        <v>7.5</v>
+      </c>
+      <c r="T75">
+        <v>1.22</v>
+      </c>
+      <c r="U75">
+        <v>4.2</v>
+      </c>
+      <c r="V75">
+        <v>2.05</v>
+      </c>
+      <c r="W75">
+        <v>1.75</v>
+      </c>
+      <c r="X75">
+        <v>4.33</v>
+      </c>
+      <c r="Y75">
+        <v>1.2</v>
+      </c>
+      <c r="Z75">
+        <v>1.25</v>
+      </c>
+      <c r="AA75">
+        <v>5.6</v>
+      </c>
+      <c r="AB75">
+        <v>7.9</v>
+      </c>
+      <c r="AC75">
+        <v>1.01</v>
+      </c>
+      <c r="AD75">
+        <v>26</v>
+      </c>
+      <c r="AE75">
+        <v>1.12</v>
+      </c>
+      <c r="AF75">
+        <v>6.5</v>
+      </c>
+      <c r="AG75">
+        <v>1.36</v>
+      </c>
+      <c r="AH75">
+        <v>2.81</v>
+      </c>
+      <c r="AI75">
+        <v>1.75</v>
+      </c>
+      <c r="AJ75">
+        <v>2.05</v>
+      </c>
+      <c r="AK75">
+        <v>1.05</v>
+      </c>
+      <c r="AL75">
+        <v>1.12</v>
+      </c>
+      <c r="AM75">
+        <v>3.78</v>
+      </c>
+      <c r="AN75">
+        <v>2.5</v>
+      </c>
+      <c r="AO75">
+        <v>2.5</v>
+      </c>
+      <c r="AP75">
+        <v>2.2</v>
+      </c>
+      <c r="AQ75">
+        <v>2.2</v>
+      </c>
+      <c r="AR75">
+        <v>1.51</v>
+      </c>
+      <c r="AS75">
+        <v>1.05</v>
+      </c>
+      <c r="AT75">
+        <v>2.56</v>
+      </c>
+      <c r="AU75">
+        <v>5</v>
+      </c>
+      <c r="AV75">
+        <v>7</v>
+      </c>
+      <c r="AW75">
+        <v>4</v>
+      </c>
+      <c r="AX75">
+        <v>3</v>
+      </c>
+      <c r="AY75">
+        <v>9</v>
+      </c>
+      <c r="AZ75">
+        <v>10</v>
+      </c>
+      <c r="BA75">
+        <v>1</v>
+      </c>
+      <c r="BB75">
+        <v>5</v>
+      </c>
+      <c r="BC75">
+        <v>6</v>
+      </c>
+      <c r="BD75">
+        <v>1.2</v>
+      </c>
+      <c r="BE75">
+        <v>11</v>
+      </c>
+      <c r="BF75">
+        <v>5.5</v>
+      </c>
+      <c r="BG75">
+        <v>1.19</v>
+      </c>
+      <c r="BH75">
+        <v>4.4</v>
+      </c>
+      <c r="BI75">
+        <v>1.31</v>
+      </c>
+      <c r="BJ75">
+        <v>3.15</v>
+      </c>
+      <c r="BK75">
+        <v>1.55</v>
+      </c>
+      <c r="BL75">
+        <v>2.3</v>
+      </c>
+      <c r="BM75">
+        <v>1.9</v>
+      </c>
+      <c r="BN75">
+        <v>1.8</v>
+      </c>
+      <c r="BO75">
+        <v>2.52</v>
+      </c>
+      <c r="BP75">
         <v>1.46</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="184">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -927,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP75"/>
+  <dimension ref="A1:BP76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ3">
         <v>2.4</v>
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ17">
         <v>1.4</v>
@@ -7653,7 +7653,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ33">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR33">
         <v>1.11</v>
@@ -9092,7 +9092,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ40">
         <v>0.25</v>
@@ -11155,7 +11155,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ50">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR50">
         <v>1.33</v>
@@ -13421,7 +13421,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ61">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR61">
         <v>1.51</v>
@@ -13624,7 +13624,7 @@
         <v>1.5</v>
       </c>
       <c r="AP62">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ62">
         <v>1.2</v>
@@ -16335,13 +16335,13 @@
         <v>10</v>
       </c>
       <c r="BA75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB75">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BC75">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BD75">
         <v>1.2</v>
@@ -16381,6 +16381,212 @@
       </c>
       <c r="BP75">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7295035</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45437.54166666666</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>71</v>
+      </c>
+      <c r="H76" t="s">
+        <v>73</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76" t="s">
+        <v>87</v>
+      </c>
+      <c r="P76" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q76">
+        <v>2.5</v>
+      </c>
+      <c r="R76">
+        <v>2.2</v>
+      </c>
+      <c r="S76">
+        <v>4.5</v>
+      </c>
+      <c r="T76">
+        <v>1.38</v>
+      </c>
+      <c r="U76">
+        <v>3</v>
+      </c>
+      <c r="V76">
+        <v>2.8</v>
+      </c>
+      <c r="W76">
+        <v>1.42</v>
+      </c>
+      <c r="X76">
+        <v>7</v>
+      </c>
+      <c r="Y76">
+        <v>1.09</v>
+      </c>
+      <c r="Z76">
+        <v>1.8</v>
+      </c>
+      <c r="AA76">
+        <v>3.5</v>
+      </c>
+      <c r="AB76">
+        <v>4</v>
+      </c>
+      <c r="AC76">
+        <v>1.05</v>
+      </c>
+      <c r="AD76">
+        <v>12</v>
+      </c>
+      <c r="AE76">
+        <v>1.3</v>
+      </c>
+      <c r="AF76">
+        <v>3.6</v>
+      </c>
+      <c r="AG76">
+        <v>1.81</v>
+      </c>
+      <c r="AH76">
+        <v>1.89</v>
+      </c>
+      <c r="AI76">
+        <v>1.78</v>
+      </c>
+      <c r="AJ76">
+        <v>2</v>
+      </c>
+      <c r="AK76">
+        <v>1.24</v>
+      </c>
+      <c r="AL76">
+        <v>1.24</v>
+      </c>
+      <c r="AM76">
+        <v>1.98</v>
+      </c>
+      <c r="AN76">
+        <v>1.75</v>
+      </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+      <c r="AP76">
+        <v>1.6</v>
+      </c>
+      <c r="AQ76">
+        <v>0.25</v>
+      </c>
+      <c r="AR76">
+        <v>1.37</v>
+      </c>
+      <c r="AS76">
+        <v>1.07</v>
+      </c>
+      <c r="AT76">
+        <v>2.44</v>
+      </c>
+      <c r="AU76">
+        <v>2</v>
+      </c>
+      <c r="AV76">
+        <v>8</v>
+      </c>
+      <c r="AW76">
+        <v>2</v>
+      </c>
+      <c r="AX76">
+        <v>8</v>
+      </c>
+      <c r="AY76">
+        <v>4</v>
+      </c>
+      <c r="AZ76">
+        <v>16</v>
+      </c>
+      <c r="BA76">
+        <v>3</v>
+      </c>
+      <c r="BB76">
+        <v>5</v>
+      </c>
+      <c r="BC76">
+        <v>8</v>
+      </c>
+      <c r="BD76">
+        <v>1.57</v>
+      </c>
+      <c r="BE76">
+        <v>8.5</v>
+      </c>
+      <c r="BF76">
+        <v>2.75</v>
+      </c>
+      <c r="BG76">
+        <v>1.27</v>
+      </c>
+      <c r="BH76">
+        <v>3.55</v>
+      </c>
+      <c r="BI76">
+        <v>1.5</v>
+      </c>
+      <c r="BJ76">
+        <v>2.48</v>
+      </c>
+      <c r="BK76">
+        <v>1.7</v>
+      </c>
+      <c r="BL76">
+        <v>2.05</v>
+      </c>
+      <c r="BM76">
+        <v>2.05</v>
+      </c>
+      <c r="BN76">
+        <v>1.7</v>
+      </c>
+      <c r="BO76">
+        <v>3.4</v>
+      </c>
+      <c r="BP76">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="193">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,6 +430,24 @@
     <t>['41', '75']</t>
   </si>
   <si>
+    <t>['77', '90+5']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['15', '45+3', '77']</t>
+  </si>
+  <si>
+    <t>['64', '81']</t>
+  </si>
+  <si>
+    <t>['49', '86']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -566,6 +584,15 @@
   </si>
   <si>
     <t>['45+1', '64']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['36', '63', '89']</t>
+  </si>
+  <si>
+    <t>['60', '70', '72']</t>
   </si>
 </sst>
 </file>
@@ -927,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP76"/>
+  <dimension ref="A1:BP82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1186,7 +1213,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1264,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ2">
         <v>1.4</v>
@@ -1392,7 +1419,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1679,7 +1706,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ4">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1804,7 +1831,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2010,7 +2037,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2091,7 +2118,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2294,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ7">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2500,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ8">
         <v>1.4</v>
@@ -2709,7 +2736,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3040,7 +3067,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3246,7 +3273,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -3324,10 +3351,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ12">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3658,7 +3685,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3736,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ14">
         <v>1.4</v>
@@ -3864,7 +3891,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -3945,7 +3972,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4070,7 +4097,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4148,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>2.6</v>
@@ -4276,7 +4303,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4482,7 +4509,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4560,7 +4587,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ18">
         <v>1.8</v>
@@ -4688,7 +4715,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -4975,7 +5002,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR20">
         <v>2.32</v>
@@ -5100,7 +5127,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5178,10 +5205,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ21">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR21">
         <v>1.91</v>
@@ -5384,10 +5411,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR22">
         <v>1.3</v>
@@ -5512,7 +5539,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5718,7 +5745,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -5799,7 +5826,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ24">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>2.18</v>
@@ -6002,10 +6029,10 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR25">
         <v>2.34</v>
@@ -6130,7 +6157,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6336,7 +6363,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6417,7 +6444,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR27">
         <v>1.08</v>
@@ -6542,7 +6569,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6623,7 +6650,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -6748,7 +6775,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6826,7 +6853,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ29">
         <v>2.2</v>
@@ -7032,7 +7059,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>1.4</v>
@@ -7238,7 +7265,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ31">
         <v>2.6</v>
@@ -7366,7 +7393,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7444,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ32">
         <v>0.8</v>
@@ -7778,7 +7805,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -7859,7 +7886,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ34">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR34">
         <v>1.56</v>
@@ -7984,7 +8011,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8062,7 +8089,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ35">
         <v>2.4</v>
@@ -8190,7 +8217,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q36">
         <v>2.54</v>
@@ -8271,7 +8298,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR36">
         <v>1.19</v>
@@ -8396,7 +8423,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q37">
         <v>1.55</v>
@@ -8602,7 +8629,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -9095,7 +9122,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ40">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR40">
         <v>1.33</v>
@@ -9220,7 +9247,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q41">
         <v>2.14</v>
@@ -9301,7 +9328,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR41">
         <v>1.56</v>
@@ -9426,7 +9453,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9504,7 +9531,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ42">
         <v>1.75</v>
@@ -9710,7 +9737,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
         <v>0.8</v>
@@ -9838,7 +9865,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q44">
         <v>4.5</v>
@@ -9919,7 +9946,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ44">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <v>1.32</v>
@@ -10125,7 +10152,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ45">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
         <v>1.4</v>
@@ -10331,7 +10358,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR46">
         <v>1.51</v>
@@ -10534,10 +10561,10 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ47">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR47">
         <v>1.46</v>
@@ -10740,7 +10767,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ48">
         <v>2.2</v>
@@ -10868,7 +10895,7 @@
         <v>87</v>
       </c>
       <c r="P49" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -10946,7 +10973,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ49">
         <v>2.6</v>
@@ -11152,7 +11179,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ50">
         <v>0.25</v>
@@ -11280,7 +11307,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11486,7 +11513,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -11692,7 +11719,7 @@
         <v>87</v>
       </c>
       <c r="P53" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q53">
         <v>3.35</v>
@@ -11898,7 +11925,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12104,7 +12131,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12310,7 +12337,7 @@
         <v>124</v>
       </c>
       <c r="P56" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -12722,7 +12749,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -12928,7 +12955,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13006,10 +13033,10 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ59">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR59">
         <v>1.19</v>
@@ -13134,7 +13161,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13212,7 +13239,7 @@
         <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ60">
         <v>2.2</v>
@@ -13627,7 +13654,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ62">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR62">
         <v>1.32</v>
@@ -13752,7 +13779,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -13830,10 +13857,10 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ63">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -13958,7 +13985,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14036,10 +14063,10 @@
         <v>0.6</v>
       </c>
       <c r="AP64">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR64">
         <v>1.5</v>
@@ -14242,10 +14269,10 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -14370,7 +14397,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -14448,10 +14475,10 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR66">
         <v>2.1</v>
@@ -14576,7 +14603,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -14782,7 +14809,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15606,7 +15633,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -15812,7 +15839,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16018,7 +16045,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16224,7 +16251,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16541,13 +16568,13 @@
         <v>16</v>
       </c>
       <c r="BA76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB76">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BC76">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BD76">
         <v>1.57</v>
@@ -16587,6 +16614,1242 @@
       </c>
       <c r="BP76">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7295036</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45438.5</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>70</v>
+      </c>
+      <c r="H77" t="s">
+        <v>74</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77" t="s">
+        <v>138</v>
+      </c>
+      <c r="P77" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q77">
+        <v>3.6</v>
+      </c>
+      <c r="R77">
+        <v>2.25</v>
+      </c>
+      <c r="S77">
+        <v>2.8</v>
+      </c>
+      <c r="T77">
+        <v>1.33</v>
+      </c>
+      <c r="U77">
+        <v>3.3</v>
+      </c>
+      <c r="V77">
+        <v>2.55</v>
+      </c>
+      <c r="W77">
+        <v>1.5</v>
+      </c>
+      <c r="X77">
+        <v>6</v>
+      </c>
+      <c r="Y77">
+        <v>1.12</v>
+      </c>
+      <c r="Z77">
+        <v>3.05</v>
+      </c>
+      <c r="AA77">
+        <v>3.5</v>
+      </c>
+      <c r="AB77">
+        <v>2.12</v>
+      </c>
+      <c r="AC77">
+        <v>1.03</v>
+      </c>
+      <c r="AD77">
+        <v>15</v>
+      </c>
+      <c r="AE77">
+        <v>1.22</v>
+      </c>
+      <c r="AF77">
+        <v>4.33</v>
+      </c>
+      <c r="AG77">
+        <v>1.68</v>
+      </c>
+      <c r="AH77">
+        <v>2.06</v>
+      </c>
+      <c r="AI77">
+        <v>1.58</v>
+      </c>
+      <c r="AJ77">
+        <v>2.35</v>
+      </c>
+      <c r="AK77">
+        <v>1.7</v>
+      </c>
+      <c r="AL77">
+        <v>1.25</v>
+      </c>
+      <c r="AM77">
+        <v>1.38</v>
+      </c>
+      <c r="AN77">
+        <v>0.4</v>
+      </c>
+      <c r="AO77">
+        <v>2.25</v>
+      </c>
+      <c r="AP77">
+        <v>0.83</v>
+      </c>
+      <c r="AQ77">
+        <v>1.8</v>
+      </c>
+      <c r="AR77">
+        <v>1.07</v>
+      </c>
+      <c r="AS77">
+        <v>1.45</v>
+      </c>
+      <c r="AT77">
+        <v>2.52</v>
+      </c>
+      <c r="AU77">
+        <v>5</v>
+      </c>
+      <c r="AV77">
+        <v>4</v>
+      </c>
+      <c r="AW77">
+        <v>6</v>
+      </c>
+      <c r="AX77">
+        <v>8</v>
+      </c>
+      <c r="AY77">
+        <v>11</v>
+      </c>
+      <c r="AZ77">
+        <v>12</v>
+      </c>
+      <c r="BA77">
+        <v>7</v>
+      </c>
+      <c r="BB77">
+        <v>11</v>
+      </c>
+      <c r="BC77">
+        <v>18</v>
+      </c>
+      <c r="BD77">
+        <v>2.25</v>
+      </c>
+      <c r="BE77">
+        <v>8.5</v>
+      </c>
+      <c r="BF77">
+        <v>1.83</v>
+      </c>
+      <c r="BG77">
+        <v>1.13</v>
+      </c>
+      <c r="BH77">
+        <v>4.85</v>
+      </c>
+      <c r="BI77">
+        <v>1.29</v>
+      </c>
+      <c r="BJ77">
+        <v>3.45</v>
+      </c>
+      <c r="BK77">
+        <v>1.56</v>
+      </c>
+      <c r="BL77">
+        <v>2.38</v>
+      </c>
+      <c r="BM77">
+        <v>1.85</v>
+      </c>
+      <c r="BN77">
+        <v>1.85</v>
+      </c>
+      <c r="BO77">
+        <v>2.33</v>
+      </c>
+      <c r="BP77">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7295037</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45438.5</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>82</v>
+      </c>
+      <c r="H78" t="s">
+        <v>81</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>3</v>
+      </c>
+      <c r="N78">
+        <v>4</v>
+      </c>
+      <c r="O78" t="s">
+        <v>139</v>
+      </c>
+      <c r="P78" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q78">
+        <v>2.62</v>
+      </c>
+      <c r="R78">
+        <v>2.29</v>
+      </c>
+      <c r="S78">
+        <v>3.65</v>
+      </c>
+      <c r="T78">
+        <v>1.31</v>
+      </c>
+      <c r="U78">
+        <v>3.28</v>
+      </c>
+      <c r="V78">
+        <v>2.44</v>
+      </c>
+      <c r="W78">
+        <v>1.52</v>
+      </c>
+      <c r="X78">
+        <v>5.7</v>
+      </c>
+      <c r="Y78">
+        <v>1.12</v>
+      </c>
+      <c r="Z78">
+        <v>2.06</v>
+      </c>
+      <c r="AA78">
+        <v>3.7</v>
+      </c>
+      <c r="AB78">
+        <v>3.04</v>
+      </c>
+      <c r="AC78">
+        <v>1.03</v>
+      </c>
+      <c r="AD78">
+        <v>17</v>
+      </c>
+      <c r="AE78">
+        <v>1.18</v>
+      </c>
+      <c r="AF78">
+        <v>4.15</v>
+      </c>
+      <c r="AG78">
+        <v>1.64</v>
+      </c>
+      <c r="AH78">
+        <v>2.12</v>
+      </c>
+      <c r="AI78">
+        <v>1.58</v>
+      </c>
+      <c r="AJ78">
+        <v>2.35</v>
+      </c>
+      <c r="AK78">
+        <v>1.36</v>
+      </c>
+      <c r="AL78">
+        <v>1.22</v>
+      </c>
+      <c r="AM78">
+        <v>1.78</v>
+      </c>
+      <c r="AN78">
+        <v>0.75</v>
+      </c>
+      <c r="AO78">
+        <v>1.2</v>
+      </c>
+      <c r="AP78">
+        <v>0.6</v>
+      </c>
+      <c r="AQ78">
+        <v>1.5</v>
+      </c>
+      <c r="AR78">
+        <v>1.56</v>
+      </c>
+      <c r="AS78">
+        <v>1.31</v>
+      </c>
+      <c r="AT78">
+        <v>2.87</v>
+      </c>
+      <c r="AU78">
+        <v>11</v>
+      </c>
+      <c r="AV78">
+        <v>7</v>
+      </c>
+      <c r="AW78">
+        <v>8</v>
+      </c>
+      <c r="AX78">
+        <v>4</v>
+      </c>
+      <c r="AY78">
+        <v>19</v>
+      </c>
+      <c r="AZ78">
+        <v>11</v>
+      </c>
+      <c r="BA78">
+        <v>5</v>
+      </c>
+      <c r="BB78">
+        <v>6</v>
+      </c>
+      <c r="BC78">
+        <v>11</v>
+      </c>
+      <c r="BD78">
+        <v>1.67</v>
+      </c>
+      <c r="BE78">
+        <v>8.5</v>
+      </c>
+      <c r="BF78">
+        <v>2.5</v>
+      </c>
+      <c r="BG78">
+        <v>1.1</v>
+      </c>
+      <c r="BH78">
+        <v>5.3</v>
+      </c>
+      <c r="BI78">
+        <v>1.27</v>
+      </c>
+      <c r="BJ78">
+        <v>3.55</v>
+      </c>
+      <c r="BK78">
+        <v>1.48</v>
+      </c>
+      <c r="BL78">
+        <v>2.55</v>
+      </c>
+      <c r="BM78">
+        <v>1.77</v>
+      </c>
+      <c r="BN78">
+        <v>1.95</v>
+      </c>
+      <c r="BO78">
+        <v>2.35</v>
+      </c>
+      <c r="BP78">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7295038</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45438.5</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>76</v>
+      </c>
+      <c r="H79" t="s">
+        <v>83</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>3</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79" t="s">
+        <v>140</v>
+      </c>
+      <c r="P79" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q79">
+        <v>2</v>
+      </c>
+      <c r="R79">
+        <v>2.65</v>
+      </c>
+      <c r="S79">
+        <v>5</v>
+      </c>
+      <c r="T79">
+        <v>1.24</v>
+      </c>
+      <c r="U79">
+        <v>4.2</v>
+      </c>
+      <c r="V79">
+        <v>2.15</v>
+      </c>
+      <c r="W79">
+        <v>1.7</v>
+      </c>
+      <c r="X79">
+        <v>4.5</v>
+      </c>
+      <c r="Y79">
+        <v>1.19</v>
+      </c>
+      <c r="Z79">
+        <v>1.52</v>
+      </c>
+      <c r="AA79">
+        <v>4.75</v>
+      </c>
+      <c r="AB79">
+        <v>4.62</v>
+      </c>
+      <c r="AC79">
+        <v>1.01</v>
+      </c>
+      <c r="AD79">
+        <v>26</v>
+      </c>
+      <c r="AE79">
+        <v>1.14</v>
+      </c>
+      <c r="AF79">
+        <v>6</v>
+      </c>
+      <c r="AG79">
+        <v>1.44</v>
+      </c>
+      <c r="AH79">
+        <v>2.59</v>
+      </c>
+      <c r="AI79">
+        <v>1.53</v>
+      </c>
+      <c r="AJ79">
+        <v>2.45</v>
+      </c>
+      <c r="AK79">
+        <v>1.16</v>
+      </c>
+      <c r="AL79">
+        <v>1.15</v>
+      </c>
+      <c r="AM79">
+        <v>2.55</v>
+      </c>
+      <c r="AN79">
+        <v>1.6</v>
+      </c>
+      <c r="AO79">
+        <v>1</v>
+      </c>
+      <c r="AP79">
+        <v>1.83</v>
+      </c>
+      <c r="AQ79">
+        <v>0.86</v>
+      </c>
+      <c r="AR79">
+        <v>1.46</v>
+      </c>
+      <c r="AS79">
+        <v>1.29</v>
+      </c>
+      <c r="AT79">
+        <v>2.75</v>
+      </c>
+      <c r="AU79">
+        <v>9</v>
+      </c>
+      <c r="AV79">
+        <v>4</v>
+      </c>
+      <c r="AW79">
+        <v>6</v>
+      </c>
+      <c r="AX79">
+        <v>2</v>
+      </c>
+      <c r="AY79">
+        <v>15</v>
+      </c>
+      <c r="AZ79">
+        <v>6</v>
+      </c>
+      <c r="BA79">
+        <v>8</v>
+      </c>
+      <c r="BB79">
+        <v>6</v>
+      </c>
+      <c r="BC79">
+        <v>14</v>
+      </c>
+      <c r="BD79">
+        <v>1.3</v>
+      </c>
+      <c r="BE79">
+        <v>10</v>
+      </c>
+      <c r="BF79">
+        <v>4</v>
+      </c>
+      <c r="BG79">
+        <v>1.08</v>
+      </c>
+      <c r="BH79">
+        <v>6.8</v>
+      </c>
+      <c r="BI79">
+        <v>1.15</v>
+      </c>
+      <c r="BJ79">
+        <v>4.5</v>
+      </c>
+      <c r="BK79">
+        <v>1.3</v>
+      </c>
+      <c r="BL79">
+        <v>3.3</v>
+      </c>
+      <c r="BM79">
+        <v>1.7</v>
+      </c>
+      <c r="BN79">
+        <v>2.05</v>
+      </c>
+      <c r="BO79">
+        <v>2.05</v>
+      </c>
+      <c r="BP79">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7295039</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45438.5</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>80</v>
+      </c>
+      <c r="H80" t="s">
+        <v>85</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>3</v>
+      </c>
+      <c r="O80" t="s">
+        <v>141</v>
+      </c>
+      <c r="P80" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q80">
+        <v>2.8</v>
+      </c>
+      <c r="R80">
+        <v>2.2</v>
+      </c>
+      <c r="S80">
+        <v>3.75</v>
+      </c>
+      <c r="T80">
+        <v>1.38</v>
+      </c>
+      <c r="U80">
+        <v>3.1</v>
+      </c>
+      <c r="V80">
+        <v>2.75</v>
+      </c>
+      <c r="W80">
+        <v>1.44</v>
+      </c>
+      <c r="X80">
+        <v>6.5</v>
+      </c>
+      <c r="Y80">
+        <v>1.1</v>
+      </c>
+      <c r="Z80">
+        <v>2.08</v>
+      </c>
+      <c r="AA80">
+        <v>3.4</v>
+      </c>
+      <c r="AB80">
+        <v>3.22</v>
+      </c>
+      <c r="AC80">
+        <v>1.04</v>
+      </c>
+      <c r="AD80">
+        <v>12</v>
+      </c>
+      <c r="AE80">
+        <v>1.28</v>
+      </c>
+      <c r="AF80">
+        <v>3.75</v>
+      </c>
+      <c r="AG80">
+        <v>1.8</v>
+      </c>
+      <c r="AH80">
+        <v>1.9</v>
+      </c>
+      <c r="AI80">
+        <v>1.68</v>
+      </c>
+      <c r="AJ80">
+        <v>2.15</v>
+      </c>
+      <c r="AK80">
+        <v>1.33</v>
+      </c>
+      <c r="AL80">
+        <v>1.26</v>
+      </c>
+      <c r="AM80">
+        <v>1.75</v>
+      </c>
+      <c r="AN80">
+        <v>0.75</v>
+      </c>
+      <c r="AO80">
+        <v>0.25</v>
+      </c>
+      <c r="AP80">
+        <v>1.2</v>
+      </c>
+      <c r="AQ80">
+        <v>0.2</v>
+      </c>
+      <c r="AR80">
+        <v>1.47</v>
+      </c>
+      <c r="AS80">
+        <v>1.34</v>
+      </c>
+      <c r="AT80">
+        <v>2.81</v>
+      </c>
+      <c r="AU80">
+        <v>4</v>
+      </c>
+      <c r="AV80">
+        <v>6</v>
+      </c>
+      <c r="AW80">
+        <v>1</v>
+      </c>
+      <c r="AX80">
+        <v>5</v>
+      </c>
+      <c r="AY80">
+        <v>5</v>
+      </c>
+      <c r="AZ80">
+        <v>11</v>
+      </c>
+      <c r="BA80">
+        <v>7</v>
+      </c>
+      <c r="BB80">
+        <v>2</v>
+      </c>
+      <c r="BC80">
+        <v>9</v>
+      </c>
+      <c r="BD80">
+        <v>1.73</v>
+      </c>
+      <c r="BE80">
+        <v>8.5</v>
+      </c>
+      <c r="BF80">
+        <v>2.38</v>
+      </c>
+      <c r="BG80">
+        <v>1.16</v>
+      </c>
+      <c r="BH80">
+        <v>4.33</v>
+      </c>
+      <c r="BI80">
+        <v>1.33</v>
+      </c>
+      <c r="BJ80">
+        <v>2.93</v>
+      </c>
+      <c r="BK80">
+        <v>1.56</v>
+      </c>
+      <c r="BL80">
+        <v>2.38</v>
+      </c>
+      <c r="BM80">
+        <v>1.95</v>
+      </c>
+      <c r="BN80">
+        <v>1.77</v>
+      </c>
+      <c r="BO80">
+        <v>2.35</v>
+      </c>
+      <c r="BP80">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7295040</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45438.5</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>75</v>
+      </c>
+      <c r="H81" t="s">
+        <v>79</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81" t="s">
+        <v>142</v>
+      </c>
+      <c r="P81" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q81">
+        <v>2</v>
+      </c>
+      <c r="R81">
+        <v>2.45</v>
+      </c>
+      <c r="S81">
+        <v>4.75</v>
+      </c>
+      <c r="T81">
+        <v>1.28</v>
+      </c>
+      <c r="U81">
+        <v>3.4</v>
+      </c>
+      <c r="V81">
+        <v>2.3</v>
+      </c>
+      <c r="W81">
+        <v>1.55</v>
+      </c>
+      <c r="X81">
+        <v>5</v>
+      </c>
+      <c r="Y81">
+        <v>1.16</v>
+      </c>
+      <c r="Z81">
+        <v>1.5</v>
+      </c>
+      <c r="AA81">
+        <v>4.5</v>
+      </c>
+      <c r="AB81">
+        <v>5.1</v>
+      </c>
+      <c r="AC81">
+        <v>1.03</v>
+      </c>
+      <c r="AD81">
+        <v>11</v>
+      </c>
+      <c r="AE81">
+        <v>1.17</v>
+      </c>
+      <c r="AF81">
+        <v>5</v>
+      </c>
+      <c r="AG81">
+        <v>1.52</v>
+      </c>
+      <c r="AH81">
+        <v>2.36</v>
+      </c>
+      <c r="AI81">
+        <v>1.6</v>
+      </c>
+      <c r="AJ81">
+        <v>2.15</v>
+      </c>
+      <c r="AK81">
+        <v>1.15</v>
+      </c>
+      <c r="AL81">
+        <v>1.15</v>
+      </c>
+      <c r="AM81">
+        <v>2.4</v>
+      </c>
+      <c r="AN81">
+        <v>1.5</v>
+      </c>
+      <c r="AO81">
+        <v>1</v>
+      </c>
+      <c r="AP81">
+        <v>1.8</v>
+      </c>
+      <c r="AQ81">
+        <v>0.8</v>
+      </c>
+      <c r="AR81">
+        <v>1.14</v>
+      </c>
+      <c r="AS81">
+        <v>1.01</v>
+      </c>
+      <c r="AT81">
+        <v>2.15</v>
+      </c>
+      <c r="AU81">
+        <v>10</v>
+      </c>
+      <c r="AV81">
+        <v>3</v>
+      </c>
+      <c r="AW81">
+        <v>11</v>
+      </c>
+      <c r="AX81">
+        <v>1</v>
+      </c>
+      <c r="AY81">
+        <v>21</v>
+      </c>
+      <c r="AZ81">
+        <v>4</v>
+      </c>
+      <c r="BA81">
+        <v>17</v>
+      </c>
+      <c r="BB81">
+        <v>2</v>
+      </c>
+      <c r="BC81">
+        <v>19</v>
+      </c>
+      <c r="BD81">
+        <v>1.33</v>
+      </c>
+      <c r="BE81">
+        <v>10</v>
+      </c>
+      <c r="BF81">
+        <v>3.75</v>
+      </c>
+      <c r="BG81">
+        <v>1.13</v>
+      </c>
+      <c r="BH81">
+        <v>4.85</v>
+      </c>
+      <c r="BI81">
+        <v>1.29</v>
+      </c>
+      <c r="BJ81">
+        <v>3.45</v>
+      </c>
+      <c r="BK81">
+        <v>1.5</v>
+      </c>
+      <c r="BL81">
+        <v>2.45</v>
+      </c>
+      <c r="BM81">
+        <v>1.85</v>
+      </c>
+      <c r="BN81">
+        <v>1.85</v>
+      </c>
+      <c r="BO81">
+        <v>2.43</v>
+      </c>
+      <c r="BP81">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7295041</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45438.59375</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>84</v>
+      </c>
+      <c r="H82" t="s">
+        <v>72</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>3</v>
+      </c>
+      <c r="N82">
+        <v>4</v>
+      </c>
+      <c r="O82" t="s">
+        <v>143</v>
+      </c>
+      <c r="P82" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q82">
+        <v>2.3</v>
+      </c>
+      <c r="R82">
+        <v>2.4</v>
+      </c>
+      <c r="S82">
+        <v>4</v>
+      </c>
+      <c r="T82">
+        <v>1.29</v>
+      </c>
+      <c r="U82">
+        <v>3.4</v>
+      </c>
+      <c r="V82">
+        <v>2.25</v>
+      </c>
+      <c r="W82">
+        <v>1.57</v>
+      </c>
+      <c r="X82">
+        <v>4.75</v>
+      </c>
+      <c r="Y82">
+        <v>1.15</v>
+      </c>
+      <c r="Z82">
+        <v>1.77</v>
+      </c>
+      <c r="AA82">
+        <v>3.7</v>
+      </c>
+      <c r="AB82">
+        <v>3.75</v>
+      </c>
+      <c r="AC82">
+        <v>1.01</v>
+      </c>
+      <c r="AD82">
+        <v>12</v>
+      </c>
+      <c r="AE82">
+        <v>1.17</v>
+      </c>
+      <c r="AF82">
+        <v>4.5</v>
+      </c>
+      <c r="AG82">
+        <v>1.57</v>
+      </c>
+      <c r="AH82">
+        <v>2.25</v>
+      </c>
+      <c r="AI82">
+        <v>1.55</v>
+      </c>
+      <c r="AJ82">
+        <v>2.3</v>
+      </c>
+      <c r="AK82">
+        <v>1.29</v>
+      </c>
+      <c r="AL82">
+        <v>1.22</v>
+      </c>
+      <c r="AM82">
+        <v>2</v>
+      </c>
+      <c r="AN82">
+        <v>2.4</v>
+      </c>
+      <c r="AO82">
+        <v>1.75</v>
+      </c>
+      <c r="AP82">
+        <v>2</v>
+      </c>
+      <c r="AQ82">
+        <v>2</v>
+      </c>
+      <c r="AR82">
+        <v>2.05</v>
+      </c>
+      <c r="AS82">
+        <v>1.54</v>
+      </c>
+      <c r="AT82">
+        <v>3.59</v>
+      </c>
+      <c r="AU82">
+        <v>4</v>
+      </c>
+      <c r="AV82">
+        <v>8</v>
+      </c>
+      <c r="AW82">
+        <v>6</v>
+      </c>
+      <c r="AX82">
+        <v>3</v>
+      </c>
+      <c r="AY82">
+        <v>10</v>
+      </c>
+      <c r="AZ82">
+        <v>11</v>
+      </c>
+      <c r="BA82">
+        <v>7</v>
+      </c>
+      <c r="BB82">
+        <v>7</v>
+      </c>
+      <c r="BC82">
+        <v>14</v>
+      </c>
+      <c r="BD82">
+        <v>1.4</v>
+      </c>
+      <c r="BE82">
+        <v>9.5</v>
+      </c>
+      <c r="BF82">
+        <v>3.4</v>
+      </c>
+      <c r="BG82">
+        <v>1.09</v>
+      </c>
+      <c r="BH82">
+        <v>6.5</v>
+      </c>
+      <c r="BI82">
+        <v>1.22</v>
+      </c>
+      <c r="BJ82">
+        <v>4</v>
+      </c>
+      <c r="BK82">
+        <v>1.4</v>
+      </c>
+      <c r="BL82">
+        <v>2.75</v>
+      </c>
+      <c r="BM82">
+        <v>1.73</v>
+      </c>
+      <c r="BN82">
+        <v>2</v>
+      </c>
+      <c r="BO82">
+        <v>2.05</v>
+      </c>
+      <c r="BP82">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -16756,19 +16756,19 @@
         <v>2.52</v>
       </c>
       <c r="AU77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV77">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW77">
+        <v>7</v>
+      </c>
+      <c r="AX77">
         <v>6</v>
       </c>
-      <c r="AX77">
-        <v>8</v>
-      </c>
       <c r="AY77">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ77">
         <v>12</v>
@@ -16962,31 +16962,31 @@
         <v>2.87</v>
       </c>
       <c r="AU78">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV78">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW78">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AX78">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AY78">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ78">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA78">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BB78">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BC78">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="BD78">
         <v>1.67</v>
@@ -17168,22 +17168,22 @@
         <v>2.75</v>
       </c>
       <c r="AU79">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW79">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX79">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY79">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ79">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA79">
         <v>8</v>
@@ -17374,31 +17374,31 @@
         <v>2.81</v>
       </c>
       <c r="AU80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV80">
         <v>6</v>
       </c>
       <c r="AW80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX80">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY80">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ80">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA80">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BB80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC80">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BD80">
         <v>1.73</v>
@@ -17580,22 +17580,22 @@
         <v>2.15</v>
       </c>
       <c r="AU81">
+        <v>8</v>
+      </c>
+      <c r="AV81">
+        <v>2</v>
+      </c>
+      <c r="AW81">
         <v>10</v>
       </c>
-      <c r="AV81">
+      <c r="AX81">
+        <v>1</v>
+      </c>
+      <c r="AY81">
+        <v>18</v>
+      </c>
+      <c r="AZ81">
         <v>3</v>
-      </c>
-      <c r="AW81">
-        <v>11</v>
-      </c>
-      <c r="AX81">
-        <v>1</v>
-      </c>
-      <c r="AY81">
-        <v>21</v>
-      </c>
-      <c r="AZ81">
-        <v>4</v>
       </c>
       <c r="BA81">
         <v>17</v>
@@ -17789,19 +17789,19 @@
         <v>4</v>
       </c>
       <c r="AV82">
+        <v>6</v>
+      </c>
+      <c r="AW82">
+        <v>3</v>
+      </c>
+      <c r="AX82">
+        <v>2</v>
+      </c>
+      <c r="AY82">
+        <v>7</v>
+      </c>
+      <c r="AZ82">
         <v>8</v>
-      </c>
-      <c r="AW82">
-        <v>6</v>
-      </c>
-      <c r="AX82">
-        <v>3</v>
-      </c>
-      <c r="AY82">
-        <v>10</v>
-      </c>
-      <c r="AZ82">
-        <v>11</v>
       </c>
       <c r="BA82">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -16756,19 +16756,19 @@
         <v>2.52</v>
       </c>
       <c r="AU77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV77">
+        <v>4</v>
+      </c>
+      <c r="AW77">
         <v>6</v>
       </c>
-      <c r="AW77">
-        <v>7</v>
-      </c>
       <c r="AX77">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY77">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ77">
         <v>12</v>
@@ -16962,22 +16962,22 @@
         <v>2.87</v>
       </c>
       <c r="AU78">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV78">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW78">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AX78">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AY78">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ78">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA78">
         <v>9</v>
@@ -17168,22 +17168,22 @@
         <v>2.75</v>
       </c>
       <c r="AU79">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW79">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY79">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ79">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BA79">
         <v>8</v>
@@ -17374,22 +17374,22 @@
         <v>2.81</v>
       </c>
       <c r="AU80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV80">
         <v>6</v>
       </c>
       <c r="AW80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX80">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AY80">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ80">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA80">
         <v>14</v>
@@ -17580,22 +17580,22 @@
         <v>2.15</v>
       </c>
       <c r="AU81">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW81">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX81">
         <v>1</v>
       </c>
       <c r="AY81">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA81">
         <v>17</v>
@@ -17789,19 +17789,19 @@
         <v>4</v>
       </c>
       <c r="AV82">
+        <v>8</v>
+      </c>
+      <c r="AW82">
         <v>6</v>
       </c>
-      <c r="AW82">
+      <c r="AX82">
         <v>3</v>
       </c>
-      <c r="AX82">
-        <v>2</v>
-      </c>
       <c r="AY82">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ82">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA82">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="196">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -446,6 +446,15 @@
   </si>
   <si>
     <t>['36']</t>
+  </si>
+  <si>
+    <t>['45+6']</t>
+  </si>
+  <si>
+    <t>['38', '90+9']</t>
+  </si>
+  <si>
+    <t>['17', '34', '80']</t>
   </si>
   <si>
     <t>['39', '90+2']</t>
@@ -954,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP82"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1213,7 +1222,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1419,7 +1428,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1831,7 +1840,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1909,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>1.8</v>
@@ -2037,7 +2046,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2118,7 +2127,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ6">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2324,7 +2333,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ7">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2939,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>1.75</v>
@@ -3067,7 +3076,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3273,7 +3282,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -3685,7 +3694,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3891,7 +3900,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4097,7 +4106,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4175,10 +4184,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ16">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4303,7 +4312,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4509,7 +4518,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4715,7 +4724,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -4793,7 +4802,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
         <v>1.4</v>
@@ -5002,7 +5011,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ20">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR20">
         <v>2.32</v>
@@ -5127,7 +5136,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5208,7 +5217,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ21">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR21">
         <v>1.91</v>
@@ -5539,7 +5548,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5745,7 +5754,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6029,7 +6038,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ25">
         <v>0.86</v>
@@ -6157,7 +6166,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6363,7 +6372,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6569,7 +6578,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6775,7 +6784,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -7059,7 +7068,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ30">
         <v>1.4</v>
@@ -7268,7 +7277,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ31">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR31">
         <v>1.22</v>
@@ -7393,7 +7402,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7805,7 +7814,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -7883,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>2</v>
@@ -8011,7 +8020,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8217,7 +8226,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q36">
         <v>2.54</v>
@@ -8298,7 +8307,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ36">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR36">
         <v>1.19</v>
@@ -8423,7 +8432,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q37">
         <v>1.55</v>
@@ -8629,7 +8638,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -8707,7 +8716,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38">
         <v>1.4</v>
@@ -9122,7 +9131,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ40">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR40">
         <v>1.33</v>
@@ -9247,7 +9256,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q41">
         <v>2.14</v>
@@ -9453,7 +9462,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9737,7 +9746,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ43">
         <v>0.8</v>
@@ -9865,7 +9874,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q44">
         <v>4.5</v>
@@ -10149,7 +10158,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>1.5</v>
@@ -10895,7 +10904,7 @@
         <v>87</v>
       </c>
       <c r="P49" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -10976,7 +10985,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ49">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR49">
         <v>1.24</v>
@@ -11307,7 +11316,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11513,7 +11522,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -11719,7 +11728,7 @@
         <v>87</v>
       </c>
       <c r="P53" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q53">
         <v>3.35</v>
@@ -11925,7 +11934,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12006,7 +12015,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ54">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR54">
         <v>1.82</v>
@@ -12131,7 +12140,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12337,7 +12346,7 @@
         <v>124</v>
       </c>
       <c r="P56" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -12621,7 +12630,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
         <v>1.4</v>
@@ -12749,7 +12758,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -12955,7 +12964,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13161,7 +13170,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13445,7 +13454,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
         <v>0.25</v>
@@ -13779,7 +13788,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -13985,7 +13994,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14272,7 +14281,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ65">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -14397,7 +14406,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -14475,10 +14484,10 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ66">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR66">
         <v>2.1</v>
@@ -14603,7 +14612,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -14809,7 +14818,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15633,7 +15642,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -15714,7 +15723,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ72">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR72">
         <v>1.23</v>
@@ -15839,7 +15848,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16045,7 +16054,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16123,7 +16132,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ74">
         <v>0.8</v>
@@ -16251,7 +16260,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16329,7 +16338,7 @@
         <v>2.5</v>
       </c>
       <c r="AP75">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
         <v>2.2</v>
@@ -16663,7 +16672,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -16869,7 +16878,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q78">
         <v>2.62</v>
@@ -17362,7 +17371,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ80">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR80">
         <v>1.47</v>
@@ -17487,7 +17496,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -17568,7 +17577,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ81">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR81">
         <v>1.14</v>
@@ -17693,7 +17702,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -17771,7 +17780,7 @@
         <v>1.75</v>
       </c>
       <c r="AP82">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ82">
         <v>2</v>
@@ -17850,6 +17859,624 @@
       </c>
       <c r="BP82">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7295113</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45441.58333333334</v>
+      </c>
+      <c r="F83">
+        <v>19</v>
+      </c>
+      <c r="G83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H83" t="s">
+        <v>85</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83" t="s">
+        <v>144</v>
+      </c>
+      <c r="P83" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q83">
+        <v>1.57</v>
+      </c>
+      <c r="R83">
+        <v>2.95</v>
+      </c>
+      <c r="S83">
+        <v>7</v>
+      </c>
+      <c r="T83">
+        <v>1.18</v>
+      </c>
+      <c r="U83">
+        <v>4.33</v>
+      </c>
+      <c r="V83">
+        <v>1.91</v>
+      </c>
+      <c r="W83">
+        <v>1.8</v>
+      </c>
+      <c r="X83">
+        <v>3.92</v>
+      </c>
+      <c r="Y83">
+        <v>1.23</v>
+      </c>
+      <c r="Z83">
+        <v>1.22</v>
+      </c>
+      <c r="AA83">
+        <v>6</v>
+      </c>
+      <c r="AB83">
+        <v>8.6</v>
+      </c>
+      <c r="AC83">
+        <v>1.01</v>
+      </c>
+      <c r="AD83">
+        <v>29</v>
+      </c>
+      <c r="AE83">
+        <v>1.09</v>
+      </c>
+      <c r="AF83">
+        <v>7</v>
+      </c>
+      <c r="AG83">
+        <v>1.33</v>
+      </c>
+      <c r="AH83">
+        <v>3</v>
+      </c>
+      <c r="AI83">
+        <v>1.75</v>
+      </c>
+      <c r="AJ83">
+        <v>1.93</v>
+      </c>
+      <c r="AK83">
+        <v>1.04</v>
+      </c>
+      <c r="AL83">
+        <v>1.1</v>
+      </c>
+      <c r="AM83">
+        <v>4.2</v>
+      </c>
+      <c r="AN83">
+        <v>2.2</v>
+      </c>
+      <c r="AO83">
+        <v>0.2</v>
+      </c>
+      <c r="AP83">
+        <v>2</v>
+      </c>
+      <c r="AQ83">
+        <v>0.33</v>
+      </c>
+      <c r="AR83">
+        <v>1.48</v>
+      </c>
+      <c r="AS83">
+        <v>1.37</v>
+      </c>
+      <c r="AT83">
+        <v>2.85</v>
+      </c>
+      <c r="AU83">
+        <v>7</v>
+      </c>
+      <c r="AV83">
+        <v>6</v>
+      </c>
+      <c r="AW83">
+        <v>6</v>
+      </c>
+      <c r="AX83">
+        <v>2</v>
+      </c>
+      <c r="AY83">
+        <v>13</v>
+      </c>
+      <c r="AZ83">
+        <v>8</v>
+      </c>
+      <c r="BA83">
+        <v>4</v>
+      </c>
+      <c r="BB83">
+        <v>5</v>
+      </c>
+      <c r="BC83">
+        <v>9</v>
+      </c>
+      <c r="BD83">
+        <v>1.19</v>
+      </c>
+      <c r="BE83">
+        <v>13</v>
+      </c>
+      <c r="BF83">
+        <v>5.65</v>
+      </c>
+      <c r="BG83">
+        <v>1.11</v>
+      </c>
+      <c r="BH83">
+        <v>5.15</v>
+      </c>
+      <c r="BI83">
+        <v>1.25</v>
+      </c>
+      <c r="BJ83">
+        <v>3.42</v>
+      </c>
+      <c r="BK83">
+        <v>1.46</v>
+      </c>
+      <c r="BL83">
+        <v>2.52</v>
+      </c>
+      <c r="BM83">
+        <v>1.79</v>
+      </c>
+      <c r="BN83">
+        <v>1.96</v>
+      </c>
+      <c r="BO83">
+        <v>2.23</v>
+      </c>
+      <c r="BP83">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7295100</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45441.58333333334</v>
+      </c>
+      <c r="F84">
+        <v>18</v>
+      </c>
+      <c r="G84" t="s">
+        <v>84</v>
+      </c>
+      <c r="H84" t="s">
+        <v>79</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>145</v>
+      </c>
+      <c r="P84" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q84">
+        <v>1.58</v>
+      </c>
+      <c r="R84">
+        <v>3.19</v>
+      </c>
+      <c r="S84">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="T84">
+        <v>1.21</v>
+      </c>
+      <c r="U84">
+        <v>4.15</v>
+      </c>
+      <c r="V84">
+        <v>2.08</v>
+      </c>
+      <c r="W84">
+        <v>1.8</v>
+      </c>
+      <c r="X84">
+        <v>4.15</v>
+      </c>
+      <c r="Y84">
+        <v>1.21</v>
+      </c>
+      <c r="Z84">
+        <v>1.21</v>
+      </c>
+      <c r="AA84">
+        <v>6.1</v>
+      </c>
+      <c r="AB84">
+        <v>9</v>
+      </c>
+      <c r="AC84">
+        <v>1.01</v>
+      </c>
+      <c r="AD84">
+        <v>31.5</v>
+      </c>
+      <c r="AE84">
+        <v>1.08</v>
+      </c>
+      <c r="AF84">
+        <v>5.85</v>
+      </c>
+      <c r="AG84">
+        <v>1.33</v>
+      </c>
+      <c r="AH84">
+        <v>3</v>
+      </c>
+      <c r="AI84">
+        <v>1.87</v>
+      </c>
+      <c r="AJ84">
+        <v>1.93</v>
+      </c>
+      <c r="AK84">
+        <v>1.06</v>
+      </c>
+      <c r="AL84">
+        <v>1.11</v>
+      </c>
+      <c r="AM84">
+        <v>4.38</v>
+      </c>
+      <c r="AN84">
+        <v>2</v>
+      </c>
+      <c r="AO84">
+        <v>0.8</v>
+      </c>
+      <c r="AP84">
+        <v>2.14</v>
+      </c>
+      <c r="AQ84">
+        <v>0.67</v>
+      </c>
+      <c r="AR84">
+        <v>1.93</v>
+      </c>
+      <c r="AS84">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT84">
+        <v>2.87</v>
+      </c>
+      <c r="AU84">
+        <v>8</v>
+      </c>
+      <c r="AV84">
+        <v>4</v>
+      </c>
+      <c r="AW84">
+        <v>8</v>
+      </c>
+      <c r="AX84">
+        <v>5</v>
+      </c>
+      <c r="AY84">
+        <v>16</v>
+      </c>
+      <c r="AZ84">
+        <v>9</v>
+      </c>
+      <c r="BA84">
+        <v>7</v>
+      </c>
+      <c r="BB84">
+        <v>5</v>
+      </c>
+      <c r="BC84">
+        <v>12</v>
+      </c>
+      <c r="BD84">
+        <v>1.05</v>
+      </c>
+      <c r="BE84">
+        <v>19</v>
+      </c>
+      <c r="BF84">
+        <v>11</v>
+      </c>
+      <c r="BG84">
+        <v>0</v>
+      </c>
+      <c r="BH84">
+        <v>0</v>
+      </c>
+      <c r="BI84">
+        <v>1.11</v>
+      </c>
+      <c r="BJ84">
+        <v>5.25</v>
+      </c>
+      <c r="BK84">
+        <v>1.23</v>
+      </c>
+      <c r="BL84">
+        <v>3.56</v>
+      </c>
+      <c r="BM84">
+        <v>1.42</v>
+      </c>
+      <c r="BN84">
+        <v>2.65</v>
+      </c>
+      <c r="BO84">
+        <v>1.7</v>
+      </c>
+      <c r="BP84">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7295099</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45441.58333333334</v>
+      </c>
+      <c r="F85">
+        <v>18</v>
+      </c>
+      <c r="G85" t="s">
+        <v>73</v>
+      </c>
+      <c r="H85" t="s">
+        <v>71</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>3</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85" t="s">
+        <v>146</v>
+      </c>
+      <c r="P85" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q85">
+        <v>3.08</v>
+      </c>
+      <c r="R85">
+        <v>2.22</v>
+      </c>
+      <c r="S85">
+        <v>3.57</v>
+      </c>
+      <c r="T85">
+        <v>1.42</v>
+      </c>
+      <c r="U85">
+        <v>2.97</v>
+      </c>
+      <c r="V85">
+        <v>3.05</v>
+      </c>
+      <c r="W85">
+        <v>1.4</v>
+      </c>
+      <c r="X85">
+        <v>7.6</v>
+      </c>
+      <c r="Y85">
+        <v>1.07</v>
+      </c>
+      <c r="Z85">
+        <v>2.36</v>
+      </c>
+      <c r="AA85">
+        <v>3.12</v>
+      </c>
+      <c r="AB85">
+        <v>2.8</v>
+      </c>
+      <c r="AC85">
+        <v>1.02</v>
+      </c>
+      <c r="AD85">
+        <v>8.5</v>
+      </c>
+      <c r="AE85">
+        <v>1.3</v>
+      </c>
+      <c r="AF85">
+        <v>3.1</v>
+      </c>
+      <c r="AG85">
+        <v>2</v>
+      </c>
+      <c r="AH85">
+        <v>1.73</v>
+      </c>
+      <c r="AI85">
+        <v>1.79</v>
+      </c>
+      <c r="AJ85">
+        <v>2.06</v>
+      </c>
+      <c r="AK85">
+        <v>1.43</v>
+      </c>
+      <c r="AL85">
+        <v>1.36</v>
+      </c>
+      <c r="AM85">
+        <v>1.55</v>
+      </c>
+      <c r="AN85">
+        <v>1.2</v>
+      </c>
+      <c r="AO85">
+        <v>2.6</v>
+      </c>
+      <c r="AP85">
+        <v>1.5</v>
+      </c>
+      <c r="AQ85">
+        <v>2.17</v>
+      </c>
+      <c r="AR85">
+        <v>1.53</v>
+      </c>
+      <c r="AS85">
+        <v>1.15</v>
+      </c>
+      <c r="AT85">
+        <v>2.68</v>
+      </c>
+      <c r="AU85">
+        <v>11</v>
+      </c>
+      <c r="AV85">
+        <v>2</v>
+      </c>
+      <c r="AW85">
+        <v>2</v>
+      </c>
+      <c r="AX85">
+        <v>7</v>
+      </c>
+      <c r="AY85">
+        <v>13</v>
+      </c>
+      <c r="AZ85">
+        <v>9</v>
+      </c>
+      <c r="BA85">
+        <v>5</v>
+      </c>
+      <c r="BB85">
+        <v>6</v>
+      </c>
+      <c r="BC85">
+        <v>11</v>
+      </c>
+      <c r="BD85">
+        <v>1.71</v>
+      </c>
+      <c r="BE85">
+        <v>9.1</v>
+      </c>
+      <c r="BF85">
+        <v>2.51</v>
+      </c>
+      <c r="BG85">
+        <v>1.24</v>
+      </c>
+      <c r="BH85">
+        <v>3.48</v>
+      </c>
+      <c r="BI85">
+        <v>1.7</v>
+      </c>
+      <c r="BJ85">
+        <v>2.05</v>
+      </c>
+      <c r="BK85">
+        <v>1.77</v>
+      </c>
+      <c r="BL85">
+        <v>1.95</v>
+      </c>
+      <c r="BM85">
+        <v>1.95</v>
+      </c>
+      <c r="BN85">
+        <v>1.77</v>
+      </c>
+      <c r="BO85">
+        <v>3.08</v>
+      </c>
+      <c r="BP85">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="197">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,9 @@
     <t>['17', '34', '80']</t>
   </si>
   <si>
+    <t>['51']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -532,9 +535,6 @@
     <t>['17', '27', '51']</t>
   </si>
   <si>
-    <t>['51']</t>
-  </si>
-  <si>
     <t>['25', '86', '90+4']</t>
   </si>
   <si>
@@ -602,6 +602,9 @@
   </si>
   <si>
     <t>['60', '70', '72']</t>
+  </si>
+  <si>
+    <t>['9', '74']</t>
   </si>
 </sst>
 </file>
@@ -963,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1222,7 +1225,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1428,7 +1431,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1840,7 +1843,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1921,7 +1924,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2046,7 +2049,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -3076,7 +3079,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3282,7 +3285,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -3694,7 +3697,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3900,7 +3903,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -3978,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ15">
         <v>2</v>
@@ -4106,7 +4109,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4312,7 +4315,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4518,7 +4521,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4599,7 +4602,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ18">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>1.5</v>
@@ -4724,7 +4727,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -5136,7 +5139,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5548,7 +5551,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5754,7 +5757,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6166,7 +6169,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6372,7 +6375,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6450,7 +6453,7 @@
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ27">
         <v>1.5</v>
@@ -6578,7 +6581,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6784,7 +6787,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -7402,7 +7405,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7814,7 +7817,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8020,7 +8023,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8226,7 +8229,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q36">
         <v>2.54</v>
@@ -8432,7 +8435,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q37">
         <v>1.55</v>
@@ -8638,7 +8641,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -8925,7 +8928,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ39">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR39">
         <v>2.11</v>
@@ -9256,7 +9259,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="Q41">
         <v>2.14</v>
@@ -12218,7 +12221,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ55">
         <v>1.4</v>
@@ -12346,7 +12349,7 @@
         <v>124</v>
       </c>
       <c r="P56" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -12839,7 +12842,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ58">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR58">
         <v>1.38</v>
@@ -14693,7 +14696,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ67">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR67">
         <v>1.44</v>
@@ -15308,7 +15311,7 @@
         <v>3</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ70">
         <v>2.4</v>
@@ -18114,7 +18117,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q84">
         <v>1.58</v>
@@ -18477,6 +18480,212 @@
       </c>
       <c r="BP85">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7295042</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45444.54166666666</v>
+      </c>
+      <c r="F86">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>83</v>
+      </c>
+      <c r="H86" t="s">
+        <v>84</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>3</v>
+      </c>
+      <c r="O86" t="s">
+        <v>147</v>
+      </c>
+      <c r="P86" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q86">
+        <v>4.5</v>
+      </c>
+      <c r="R86">
+        <v>2.38</v>
+      </c>
+      <c r="S86">
+        <v>2.3</v>
+      </c>
+      <c r="T86">
+        <v>1.3</v>
+      </c>
+      <c r="U86">
+        <v>3.4</v>
+      </c>
+      <c r="V86">
+        <v>2.38</v>
+      </c>
+      <c r="W86">
+        <v>1.53</v>
+      </c>
+      <c r="X86">
+        <v>6</v>
+      </c>
+      <c r="Y86">
+        <v>1.13</v>
+      </c>
+      <c r="Z86">
+        <v>4.85</v>
+      </c>
+      <c r="AA86">
+        <v>4</v>
+      </c>
+      <c r="AB86">
+        <v>1.47</v>
+      </c>
+      <c r="AC86">
+        <v>1.03</v>
+      </c>
+      <c r="AD86">
+        <v>15</v>
+      </c>
+      <c r="AE86">
+        <v>1.17</v>
+      </c>
+      <c r="AF86">
+        <v>4.25</v>
+      </c>
+      <c r="AG86">
+        <v>1.6</v>
+      </c>
+      <c r="AH86">
+        <v>2.19</v>
+      </c>
+      <c r="AI86">
+        <v>1.62</v>
+      </c>
+      <c r="AJ86">
+        <v>2.2</v>
+      </c>
+      <c r="AK86">
+        <v>2.11</v>
+      </c>
+      <c r="AL86">
+        <v>1.24</v>
+      </c>
+      <c r="AM86">
+        <v>1.21</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
+        <v>1.8</v>
+      </c>
+      <c r="AP86">
+        <v>0.8</v>
+      </c>
+      <c r="AQ86">
+        <v>2</v>
+      </c>
+      <c r="AR86">
+        <v>1.09</v>
+      </c>
+      <c r="AS86">
+        <v>1.78</v>
+      </c>
+      <c r="AT86">
+        <v>2.87</v>
+      </c>
+      <c r="AU86">
+        <v>5</v>
+      </c>
+      <c r="AV86">
+        <v>5</v>
+      </c>
+      <c r="AW86">
+        <v>10</v>
+      </c>
+      <c r="AX86">
+        <v>7</v>
+      </c>
+      <c r="AY86">
+        <v>15</v>
+      </c>
+      <c r="AZ86">
+        <v>12</v>
+      </c>
+      <c r="BA86">
+        <v>5</v>
+      </c>
+      <c r="BB86">
+        <v>5</v>
+      </c>
+      <c r="BC86">
+        <v>10</v>
+      </c>
+      <c r="BD86">
+        <v>3.25</v>
+      </c>
+      <c r="BE86">
+        <v>9.5</v>
+      </c>
+      <c r="BF86">
+        <v>1.44</v>
+      </c>
+      <c r="BG86">
+        <v>1.08</v>
+      </c>
+      <c r="BH86">
+        <v>6.8</v>
+      </c>
+      <c r="BI86">
+        <v>1.15</v>
+      </c>
+      <c r="BJ86">
+        <v>4.5</v>
+      </c>
+      <c r="BK86">
+        <v>1.3</v>
+      </c>
+      <c r="BL86">
+        <v>3.08</v>
+      </c>
+      <c r="BM86">
+        <v>1.77</v>
+      </c>
+      <c r="BN86">
+        <v>1.95</v>
+      </c>
+      <c r="BO86">
+        <v>1.98</v>
+      </c>
+      <c r="BP86">
+        <v>1.82</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="206">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -460,6 +460,24 @@
     <t>['51']</t>
   </si>
   <si>
+    <t>['7', '74']</t>
+  </si>
+  <si>
+    <t>['66', '75', '89']</t>
+  </si>
+  <si>
+    <t>['69', '75', '82']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -550,9 +568,6 @@
     <t>['37', '66', '89', '90+3']</t>
   </si>
   <si>
-    <t>['53']</t>
-  </si>
-  <si>
     <t>['3', '7', '33', '45']</t>
   </si>
   <si>
@@ -605,6 +620,18 @@
   </si>
   <si>
     <t>['9', '74']</t>
+  </si>
+  <si>
+    <t>['20', '46']</t>
+  </si>
+  <si>
+    <t>['68', '72', '81']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['20', '51']</t>
   </si>
 </sst>
 </file>
@@ -966,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP86"/>
+  <dimension ref="A1:BP93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1225,7 +1252,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1431,7 +1458,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1512,7 +1539,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ3">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1715,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -1843,7 +1870,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1921,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ5">
         <v>2</v>
@@ -2049,7 +2076,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2333,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ7">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2542,7 +2569,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ8">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2745,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ9">
         <v>0.86</v>
@@ -2954,7 +2981,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3079,7 +3106,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3157,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>2.2</v>
@@ -3285,7 +3312,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -3363,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3569,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ13">
         <v>0.8</v>
@@ -3697,7 +3724,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3778,7 +3805,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ14">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3903,7 +3930,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4109,7 +4136,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4190,7 +4217,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ16">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4315,7 +4342,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4396,7 +4423,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ17">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR17">
         <v>0.83</v>
@@ -4521,7 +4548,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4727,7 +4754,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -4805,7 +4832,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ19">
         <v>1.4</v>
@@ -5011,7 +5038,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ20">
         <v>0.67</v>
@@ -5139,7 +5166,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5220,7 +5247,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ21">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR21">
         <v>1.91</v>
@@ -5423,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ22">
         <v>0.86</v>
@@ -5551,7 +5578,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5632,7 +5659,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ23">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR23">
         <v>2.02</v>
@@ -5757,7 +5784,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -5835,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ24">
         <v>1.5</v>
@@ -6169,7 +6196,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6247,10 +6274,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ26">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR26">
         <v>2.06</v>
@@ -6375,7 +6402,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6581,7 +6608,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6662,7 +6689,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -6787,7 +6814,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -7074,7 +7101,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ30">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR30">
         <v>2.08</v>
@@ -7280,7 +7307,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ31">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR31">
         <v>1.22</v>
@@ -7405,7 +7432,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7483,7 +7510,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
         <v>0.8</v>
@@ -7689,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
         <v>0.25</v>
@@ -7817,7 +7844,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8023,7 +8050,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8101,10 +8128,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ35">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR35">
         <v>1.13</v>
@@ -8229,7 +8256,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q36">
         <v>2.54</v>
@@ -8307,7 +8334,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ36">
         <v>0.67</v>
@@ -8435,7 +8462,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q37">
         <v>1.55</v>
@@ -8513,7 +8540,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ37">
         <v>1.4</v>
@@ -8641,7 +8668,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -8719,10 +8746,10 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ38">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR38">
         <v>1.7</v>
@@ -8925,7 +8952,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ39">
         <v>2</v>
@@ -9134,7 +9161,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ40">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR40">
         <v>1.33</v>
@@ -9465,7 +9492,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9546,7 +9573,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ42">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR42">
         <v>1.44</v>
@@ -9877,7 +9904,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q44">
         <v>4.5</v>
@@ -10367,7 +10394,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
         <v>0.86</v>
@@ -10576,7 +10603,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ47">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR47">
         <v>1.46</v>
@@ -10779,7 +10806,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
         <v>2.2</v>
@@ -10907,7 +10934,7 @@
         <v>87</v>
       </c>
       <c r="P49" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -10988,7 +11015,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ49">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR49">
         <v>1.24</v>
@@ -11319,7 +11346,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11397,7 +11424,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ51">
         <v>0.8</v>
@@ -11525,7 +11552,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -11603,10 +11630,10 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR52">
         <v>1.4</v>
@@ -11731,7 +11758,7 @@
         <v>87</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="Q53">
         <v>3.35</v>
@@ -11809,10 +11836,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ53">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR53">
         <v>1.7</v>
@@ -11937,7 +11964,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12015,10 +12042,10 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ54">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR54">
         <v>1.82</v>
@@ -12143,7 +12170,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12430,7 +12457,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR56">
         <v>1.62</v>
@@ -12633,10 +12660,10 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ57">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR57">
         <v>1.51</v>
@@ -12761,7 +12788,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -12967,7 +12994,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13173,7 +13200,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13251,7 +13278,7 @@
         <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ60">
         <v>2.2</v>
@@ -13791,7 +13818,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -13872,7 +13899,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ63">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -13997,7 +14024,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14281,7 +14308,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
         <v>0.67</v>
@@ -14409,7 +14436,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -14490,7 +14517,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ66">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR66">
         <v>2.1</v>
@@ -14615,7 +14642,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -14693,7 +14720,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67">
         <v>2</v>
@@ -14821,7 +14848,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -14902,7 +14929,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ68">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR68">
         <v>1.55</v>
@@ -15105,7 +15132,7 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ69">
         <v>1.4</v>
@@ -15314,7 +15341,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ70">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR70">
         <v>1.23</v>
@@ -15517,10 +15544,10 @@
         <v>1.5</v>
       </c>
       <c r="AP71">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ71">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR71">
         <v>1.62</v>
@@ -15645,7 +15672,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -15726,7 +15753,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ72">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR72">
         <v>1.23</v>
@@ -15851,7 +15878,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -15929,10 +15956,10 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ73">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR73">
         <v>1.73</v>
@@ -16057,7 +16084,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16135,7 +16162,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ74">
         <v>0.8</v>
@@ -16263,7 +16290,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16675,7 +16702,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -16756,7 +16783,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ77">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR77">
         <v>1.07</v>
@@ -16881,7 +16908,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q78">
         <v>2.62</v>
@@ -17371,10 +17398,10 @@
         <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ80">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR80">
         <v>1.47</v>
@@ -17499,7 +17526,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -17577,7 +17604,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ81">
         <v>0.67</v>
@@ -17705,7 +17732,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -17911,7 +17938,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q83">
         <v>1.57</v>
@@ -17992,7 +18019,7 @@
         <v>2</v>
       </c>
       <c r="AQ83">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR83">
         <v>1.48</v>
@@ -18117,7 +18144,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q84">
         <v>1.58</v>
@@ -18401,10 +18428,10 @@
         <v>2.6</v>
       </c>
       <c r="AP85">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ85">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR85">
         <v>1.53</v>
@@ -18529,7 +18556,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -18686,6 +18713,1448 @@
       </c>
       <c r="BP86">
         <v>1.82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7295043</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45445.39583333334</v>
+      </c>
+      <c r="F87">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>72</v>
+      </c>
+      <c r="H87" t="s">
+        <v>76</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>4</v>
+      </c>
+      <c r="O87" t="s">
+        <v>148</v>
+      </c>
+      <c r="P87" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q87">
+        <v>2.15</v>
+      </c>
+      <c r="R87">
+        <v>2.6</v>
+      </c>
+      <c r="S87">
+        <v>4.33</v>
+      </c>
+      <c r="T87">
+        <v>1.24</v>
+      </c>
+      <c r="U87">
+        <v>4.33</v>
+      </c>
+      <c r="V87">
+        <v>2.05</v>
+      </c>
+      <c r="W87">
+        <v>1.75</v>
+      </c>
+      <c r="X87">
+        <v>4.33</v>
+      </c>
+      <c r="Y87">
+        <v>1.2</v>
+      </c>
+      <c r="Z87">
+        <v>1.69</v>
+      </c>
+      <c r="AA87">
+        <v>4.15</v>
+      </c>
+      <c r="AB87">
+        <v>4.05</v>
+      </c>
+      <c r="AC87">
+        <v>1.02</v>
+      </c>
+      <c r="AD87">
+        <v>26</v>
+      </c>
+      <c r="AE87">
+        <v>1.09</v>
+      </c>
+      <c r="AF87">
+        <v>5.75</v>
+      </c>
+      <c r="AG87">
+        <v>1.39</v>
+      </c>
+      <c r="AH87">
+        <v>2.77</v>
+      </c>
+      <c r="AI87">
+        <v>1.45</v>
+      </c>
+      <c r="AJ87">
+        <v>2.75</v>
+      </c>
+      <c r="AK87">
+        <v>1.2</v>
+      </c>
+      <c r="AL87">
+        <v>1.17</v>
+      </c>
+      <c r="AM87">
+        <v>2.25</v>
+      </c>
+      <c r="AN87">
+        <v>1.67</v>
+      </c>
+      <c r="AO87">
+        <v>1.75</v>
+      </c>
+      <c r="AP87">
+        <v>1.57</v>
+      </c>
+      <c r="AQ87">
+        <v>1.6</v>
+      </c>
+      <c r="AR87">
+        <v>1.72</v>
+      </c>
+      <c r="AS87">
+        <v>1.37</v>
+      </c>
+      <c r="AT87">
+        <v>3.09</v>
+      </c>
+      <c r="AU87">
+        <v>8</v>
+      </c>
+      <c r="AV87">
+        <v>2</v>
+      </c>
+      <c r="AW87">
+        <v>6</v>
+      </c>
+      <c r="AX87">
+        <v>4</v>
+      </c>
+      <c r="AY87">
+        <v>14</v>
+      </c>
+      <c r="AZ87">
+        <v>6</v>
+      </c>
+      <c r="BA87">
+        <v>7</v>
+      </c>
+      <c r="BB87">
+        <v>2</v>
+      </c>
+      <c r="BC87">
+        <v>9</v>
+      </c>
+      <c r="BD87">
+        <v>1.57</v>
+      </c>
+      <c r="BE87">
+        <v>8.5</v>
+      </c>
+      <c r="BF87">
+        <v>2.75</v>
+      </c>
+      <c r="BG87">
+        <v>1.12</v>
+      </c>
+      <c r="BH87">
+        <v>4.95</v>
+      </c>
+      <c r="BI87">
+        <v>1.27</v>
+      </c>
+      <c r="BJ87">
+        <v>3.28</v>
+      </c>
+      <c r="BK87">
+        <v>1.5</v>
+      </c>
+      <c r="BL87">
+        <v>2.41</v>
+      </c>
+      <c r="BM87">
+        <v>1.88</v>
+      </c>
+      <c r="BN87">
+        <v>1.92</v>
+      </c>
+      <c r="BO87">
+        <v>2.34</v>
+      </c>
+      <c r="BP87">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7295046</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45445.5</v>
+      </c>
+      <c r="F88">
+        <v>11</v>
+      </c>
+      <c r="G88" t="s">
+        <v>77</v>
+      </c>
+      <c r="H88" t="s">
+        <v>85</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>3</v>
+      </c>
+      <c r="M88">
+        <v>3</v>
+      </c>
+      <c r="N88">
+        <v>6</v>
+      </c>
+      <c r="O88" t="s">
+        <v>149</v>
+      </c>
+      <c r="P88" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q88">
+        <v>2.75</v>
+      </c>
+      <c r="R88">
+        <v>2.33</v>
+      </c>
+      <c r="S88">
+        <v>3.99</v>
+      </c>
+      <c r="T88">
+        <v>1.36</v>
+      </c>
+      <c r="U88">
+        <v>3.23</v>
+      </c>
+      <c r="V88">
+        <v>2.78</v>
+      </c>
+      <c r="W88">
+        <v>1.46</v>
+      </c>
+      <c r="X88">
+        <v>6.6</v>
+      </c>
+      <c r="Y88">
+        <v>1.09</v>
+      </c>
+      <c r="Z88">
+        <v>2.12</v>
+      </c>
+      <c r="AA88">
+        <v>3.23</v>
+      </c>
+      <c r="AB88">
+        <v>3.02</v>
+      </c>
+      <c r="AC88">
+        <v>1.01</v>
+      </c>
+      <c r="AD88">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE88">
+        <v>1.24</v>
+      </c>
+      <c r="AF88">
+        <v>3.5</v>
+      </c>
+      <c r="AG88">
+        <v>1.8</v>
+      </c>
+      <c r="AH88">
+        <v>1.9</v>
+      </c>
+      <c r="AI88">
+        <v>1.67</v>
+      </c>
+      <c r="AJ88">
+        <v>2.1</v>
+      </c>
+      <c r="AK88">
+        <v>1.35</v>
+      </c>
+      <c r="AL88">
+        <v>1.26</v>
+      </c>
+      <c r="AM88">
+        <v>1.7</v>
+      </c>
+      <c r="AN88">
+        <v>0.6</v>
+      </c>
+      <c r="AO88">
+        <v>0.33</v>
+      </c>
+      <c r="AP88">
+        <v>0.67</v>
+      </c>
+      <c r="AQ88">
+        <v>0.43</v>
+      </c>
+      <c r="AR88">
+        <v>1.51</v>
+      </c>
+      <c r="AS88">
+        <v>1.35</v>
+      </c>
+      <c r="AT88">
+        <v>2.86</v>
+      </c>
+      <c r="AU88">
+        <v>9</v>
+      </c>
+      <c r="AV88">
+        <v>5</v>
+      </c>
+      <c r="AW88">
+        <v>6</v>
+      </c>
+      <c r="AX88">
+        <v>1</v>
+      </c>
+      <c r="AY88">
+        <v>15</v>
+      </c>
+      <c r="AZ88">
+        <v>6</v>
+      </c>
+      <c r="BA88">
+        <v>9</v>
+      </c>
+      <c r="BB88">
+        <v>2</v>
+      </c>
+      <c r="BC88">
+        <v>11</v>
+      </c>
+      <c r="BD88">
+        <v>1.62</v>
+      </c>
+      <c r="BE88">
+        <v>8.5</v>
+      </c>
+      <c r="BF88">
+        <v>2.62</v>
+      </c>
+      <c r="BG88">
+        <v>1.21</v>
+      </c>
+      <c r="BH88">
+        <v>3.74</v>
+      </c>
+      <c r="BI88">
+        <v>1.42</v>
+      </c>
+      <c r="BJ88">
+        <v>2.65</v>
+      </c>
+      <c r="BK88">
+        <v>1.74</v>
+      </c>
+      <c r="BL88">
+        <v>2.02</v>
+      </c>
+      <c r="BM88">
+        <v>1.95</v>
+      </c>
+      <c r="BN88">
+        <v>1.75</v>
+      </c>
+      <c r="BO88">
+        <v>2.88</v>
+      </c>
+      <c r="BP88">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7295047</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45445.5</v>
+      </c>
+      <c r="F89">
+        <v>11</v>
+      </c>
+      <c r="G89" t="s">
+        <v>79</v>
+      </c>
+      <c r="H89" t="s">
+        <v>82</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>3</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>4</v>
+      </c>
+      <c r="O89" t="s">
+        <v>150</v>
+      </c>
+      <c r="P89" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q89">
+        <v>3.1</v>
+      </c>
+      <c r="R89">
+        <v>2.38</v>
+      </c>
+      <c r="S89">
+        <v>3</v>
+      </c>
+      <c r="T89">
+        <v>1.29</v>
+      </c>
+      <c r="U89">
+        <v>3.5</v>
+      </c>
+      <c r="V89">
+        <v>2.25</v>
+      </c>
+      <c r="W89">
+        <v>1.57</v>
+      </c>
+      <c r="X89">
+        <v>5.5</v>
+      </c>
+      <c r="Y89">
+        <v>1.14</v>
+      </c>
+      <c r="Z89">
+        <v>2.51</v>
+      </c>
+      <c r="AA89">
+        <v>3.45</v>
+      </c>
+      <c r="AB89">
+        <v>2.35</v>
+      </c>
+      <c r="AC89">
+        <v>1.02</v>
+      </c>
+      <c r="AD89">
+        <v>17</v>
+      </c>
+      <c r="AE89">
+        <v>1.18</v>
+      </c>
+      <c r="AF89">
+        <v>5</v>
+      </c>
+      <c r="AG89">
+        <v>1.5</v>
+      </c>
+      <c r="AH89">
+        <v>2.41</v>
+      </c>
+      <c r="AI89">
+        <v>1.5</v>
+      </c>
+      <c r="AJ89">
+        <v>2.5</v>
+      </c>
+      <c r="AK89">
+        <v>1.55</v>
+      </c>
+      <c r="AL89">
+        <v>1.24</v>
+      </c>
+      <c r="AM89">
+        <v>1.5</v>
+      </c>
+      <c r="AN89">
+        <v>1.2</v>
+      </c>
+      <c r="AO89">
+        <v>1.4</v>
+      </c>
+      <c r="AP89">
+        <v>1.5</v>
+      </c>
+      <c r="AQ89">
+        <v>1.17</v>
+      </c>
+      <c r="AR89">
+        <v>1.44</v>
+      </c>
+      <c r="AS89">
+        <v>1.16</v>
+      </c>
+      <c r="AT89">
+        <v>2.6</v>
+      </c>
+      <c r="AU89">
+        <v>6</v>
+      </c>
+      <c r="AV89">
+        <v>5</v>
+      </c>
+      <c r="AW89">
+        <v>3</v>
+      </c>
+      <c r="AX89">
+        <v>7</v>
+      </c>
+      <c r="AY89">
+        <v>9</v>
+      </c>
+      <c r="AZ89">
+        <v>12</v>
+      </c>
+      <c r="BA89">
+        <v>3</v>
+      </c>
+      <c r="BB89">
+        <v>3</v>
+      </c>
+      <c r="BC89">
+        <v>6</v>
+      </c>
+      <c r="BD89">
+        <v>2.1</v>
+      </c>
+      <c r="BE89">
+        <v>8.5</v>
+      </c>
+      <c r="BF89">
+        <v>1.91</v>
+      </c>
+      <c r="BG89">
+        <v>1.11</v>
+      </c>
+      <c r="BH89">
+        <v>5.9</v>
+      </c>
+      <c r="BI89">
+        <v>1.17</v>
+      </c>
+      <c r="BJ89">
+        <v>4.15</v>
+      </c>
+      <c r="BK89">
+        <v>1.34</v>
+      </c>
+      <c r="BL89">
+        <v>2.88</v>
+      </c>
+      <c r="BM89">
+        <v>1.77</v>
+      </c>
+      <c r="BN89">
+        <v>1.95</v>
+      </c>
+      <c r="BO89">
+        <v>2</v>
+      </c>
+      <c r="BP89">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7295048</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45445.5</v>
+      </c>
+      <c r="F90">
+        <v>11</v>
+      </c>
+      <c r="G90" t="s">
+        <v>73</v>
+      </c>
+      <c r="H90" t="s">
+        <v>74</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>3</v>
+      </c>
+      <c r="O90" t="s">
+        <v>151</v>
+      </c>
+      <c r="P90" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q90">
+        <v>2.7</v>
+      </c>
+      <c r="R90">
+        <v>2.4</v>
+      </c>
+      <c r="S90">
+        <v>3.89</v>
+      </c>
+      <c r="T90">
+        <v>1.34</v>
+      </c>
+      <c r="U90">
+        <v>3.38</v>
+      </c>
+      <c r="V90">
+        <v>2.61</v>
+      </c>
+      <c r="W90">
+        <v>1.52</v>
+      </c>
+      <c r="X90">
+        <v>6.5</v>
+      </c>
+      <c r="Y90">
+        <v>1.11</v>
+      </c>
+      <c r="Z90">
+        <v>2.15</v>
+      </c>
+      <c r="AA90">
+        <v>3.28</v>
+      </c>
+      <c r="AB90">
+        <v>2.93</v>
+      </c>
+      <c r="AC90">
+        <v>1.02</v>
+      </c>
+      <c r="AD90">
+        <v>10</v>
+      </c>
+      <c r="AE90">
+        <v>1.22</v>
+      </c>
+      <c r="AF90">
+        <v>3.8</v>
+      </c>
+      <c r="AG90">
+        <v>1.81</v>
+      </c>
+      <c r="AH90">
+        <v>2.01</v>
+      </c>
+      <c r="AI90">
+        <v>1.62</v>
+      </c>
+      <c r="AJ90">
+        <v>2.2</v>
+      </c>
+      <c r="AK90">
+        <v>1.35</v>
+      </c>
+      <c r="AL90">
+        <v>1.28</v>
+      </c>
+      <c r="AM90">
+        <v>1.72</v>
+      </c>
+      <c r="AN90">
+        <v>1.5</v>
+      </c>
+      <c r="AO90">
+        <v>1.8</v>
+      </c>
+      <c r="AP90">
+        <v>1.29</v>
+      </c>
+      <c r="AQ90">
+        <v>2</v>
+      </c>
+      <c r="AR90">
+        <v>1.59</v>
+      </c>
+      <c r="AS90">
+        <v>1.49</v>
+      </c>
+      <c r="AT90">
+        <v>3.08</v>
+      </c>
+      <c r="AU90">
+        <v>5</v>
+      </c>
+      <c r="AV90">
+        <v>3</v>
+      </c>
+      <c r="AW90">
+        <v>2</v>
+      </c>
+      <c r="AX90">
+        <v>2</v>
+      </c>
+      <c r="AY90">
+        <v>7</v>
+      </c>
+      <c r="AZ90">
+        <v>5</v>
+      </c>
+      <c r="BA90">
+        <v>4</v>
+      </c>
+      <c r="BB90">
+        <v>7</v>
+      </c>
+      <c r="BC90">
+        <v>11</v>
+      </c>
+      <c r="BD90">
+        <v>1.8</v>
+      </c>
+      <c r="BE90">
+        <v>8.5</v>
+      </c>
+      <c r="BF90">
+        <v>2.3</v>
+      </c>
+      <c r="BG90">
+        <v>1.13</v>
+      </c>
+      <c r="BH90">
+        <v>4.9</v>
+      </c>
+      <c r="BI90">
+        <v>1.27</v>
+      </c>
+      <c r="BJ90">
+        <v>3.28</v>
+      </c>
+      <c r="BK90">
+        <v>1.5</v>
+      </c>
+      <c r="BL90">
+        <v>2.41</v>
+      </c>
+      <c r="BM90">
+        <v>1.9</v>
+      </c>
+      <c r="BN90">
+        <v>1.8</v>
+      </c>
+      <c r="BO90">
+        <v>2.36</v>
+      </c>
+      <c r="BP90">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7295044</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45445.5</v>
+      </c>
+      <c r="F91">
+        <v>11</v>
+      </c>
+      <c r="G91" t="s">
+        <v>81</v>
+      </c>
+      <c r="H91" t="s">
+        <v>70</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91" t="s">
+        <v>152</v>
+      </c>
+      <c r="P91" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q91">
+        <v>2.25</v>
+      </c>
+      <c r="R91">
+        <v>2.35</v>
+      </c>
+      <c r="S91">
+        <v>4.75</v>
+      </c>
+      <c r="T91">
+        <v>1.33</v>
+      </c>
+      <c r="U91">
+        <v>3.3</v>
+      </c>
+      <c r="V91">
+        <v>2.55</v>
+      </c>
+      <c r="W91">
+        <v>1.5</v>
+      </c>
+      <c r="X91">
+        <v>6</v>
+      </c>
+      <c r="Y91">
+        <v>1.12</v>
+      </c>
+      <c r="Z91">
+        <v>1.67</v>
+      </c>
+      <c r="AA91">
+        <v>3.63</v>
+      </c>
+      <c r="AB91">
+        <v>4.2</v>
+      </c>
+      <c r="AC91">
+        <v>1.03</v>
+      </c>
+      <c r="AD91">
+        <v>15</v>
+      </c>
+      <c r="AE91">
+        <v>1.22</v>
+      </c>
+      <c r="AF91">
+        <v>4.33</v>
+      </c>
+      <c r="AG91">
+        <v>1.81</v>
+      </c>
+      <c r="AH91">
+        <v>2.01</v>
+      </c>
+      <c r="AI91">
+        <v>1.68</v>
+      </c>
+      <c r="AJ91">
+        <v>2.15</v>
+      </c>
+      <c r="AK91">
+        <v>1.19</v>
+      </c>
+      <c r="AL91">
+        <v>1.22</v>
+      </c>
+      <c r="AM91">
+        <v>2.2</v>
+      </c>
+      <c r="AN91">
+        <v>1.75</v>
+      </c>
+      <c r="AO91">
+        <v>1.4</v>
+      </c>
+      <c r="AP91">
+        <v>1.6</v>
+      </c>
+      <c r="AQ91">
+        <v>1.33</v>
+      </c>
+      <c r="AR91">
+        <v>1.54</v>
+      </c>
+      <c r="AS91">
+        <v>0.92</v>
+      </c>
+      <c r="AT91">
+        <v>2.46</v>
+      </c>
+      <c r="AU91">
+        <v>5</v>
+      </c>
+      <c r="AV91">
+        <v>4</v>
+      </c>
+      <c r="AW91">
+        <v>5</v>
+      </c>
+      <c r="AX91">
+        <v>4</v>
+      </c>
+      <c r="AY91">
+        <v>10</v>
+      </c>
+      <c r="AZ91">
+        <v>8</v>
+      </c>
+      <c r="BA91">
+        <v>13</v>
+      </c>
+      <c r="BB91">
+        <v>2</v>
+      </c>
+      <c r="BC91">
+        <v>15</v>
+      </c>
+      <c r="BD91">
+        <v>1.44</v>
+      </c>
+      <c r="BE91">
+        <v>9</v>
+      </c>
+      <c r="BF91">
+        <v>3.25</v>
+      </c>
+      <c r="BG91">
+        <v>1.14</v>
+      </c>
+      <c r="BH91">
+        <v>5.3</v>
+      </c>
+      <c r="BI91">
+        <v>1.27</v>
+      </c>
+      <c r="BJ91">
+        <v>3.55</v>
+      </c>
+      <c r="BK91">
+        <v>1.48</v>
+      </c>
+      <c r="BL91">
+        <v>2.55</v>
+      </c>
+      <c r="BM91">
+        <v>1.95</v>
+      </c>
+      <c r="BN91">
+        <v>1.77</v>
+      </c>
+      <c r="BO91">
+        <v>2.35</v>
+      </c>
+      <c r="BP91">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7295045</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45445.5</v>
+      </c>
+      <c r="F92">
+        <v>11</v>
+      </c>
+      <c r="G92" t="s">
+        <v>80</v>
+      </c>
+      <c r="H92" t="s">
+        <v>78</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92" t="s">
+        <v>87</v>
+      </c>
+      <c r="P92" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q92">
+        <v>5</v>
+      </c>
+      <c r="R92">
+        <v>2.45</v>
+      </c>
+      <c r="S92">
+        <v>2.06</v>
+      </c>
+      <c r="T92">
+        <v>1.28</v>
+      </c>
+      <c r="U92">
+        <v>3.48</v>
+      </c>
+      <c r="V92">
+        <v>2.3</v>
+      </c>
+      <c r="W92">
+        <v>1.58</v>
+      </c>
+      <c r="X92">
+        <v>5.2</v>
+      </c>
+      <c r="Y92">
+        <v>1.14</v>
+      </c>
+      <c r="Z92">
+        <v>4.8</v>
+      </c>
+      <c r="AA92">
+        <v>4</v>
+      </c>
+      <c r="AB92">
+        <v>1.53</v>
+      </c>
+      <c r="AC92">
+        <v>1.03</v>
+      </c>
+      <c r="AD92">
+        <v>11</v>
+      </c>
+      <c r="AE92">
+        <v>1.14</v>
+      </c>
+      <c r="AF92">
+        <v>4.55</v>
+      </c>
+      <c r="AG92">
+        <v>1.53</v>
+      </c>
+      <c r="AH92">
+        <v>2.34</v>
+      </c>
+      <c r="AI92">
+        <v>1.63</v>
+      </c>
+      <c r="AJ92">
+        <v>2.19</v>
+      </c>
+      <c r="AK92">
+        <v>2.38</v>
+      </c>
+      <c r="AL92">
+        <v>1.21</v>
+      </c>
+      <c r="AM92">
+        <v>1.16</v>
+      </c>
+      <c r="AN92">
+        <v>1.2</v>
+      </c>
+      <c r="AO92">
+        <v>2.4</v>
+      </c>
+      <c r="AP92">
+        <v>1</v>
+      </c>
+      <c r="AQ92">
+        <v>2.5</v>
+      </c>
+      <c r="AR92">
+        <v>1.37</v>
+      </c>
+      <c r="AS92">
+        <v>1.5</v>
+      </c>
+      <c r="AT92">
+        <v>2.87</v>
+      </c>
+      <c r="AU92">
+        <v>4</v>
+      </c>
+      <c r="AV92">
+        <v>7</v>
+      </c>
+      <c r="AW92">
+        <v>3</v>
+      </c>
+      <c r="AX92">
+        <v>7</v>
+      </c>
+      <c r="AY92">
+        <v>7</v>
+      </c>
+      <c r="AZ92">
+        <v>14</v>
+      </c>
+      <c r="BA92">
+        <v>1</v>
+      </c>
+      <c r="BB92">
+        <v>9</v>
+      </c>
+      <c r="BC92">
+        <v>10</v>
+      </c>
+      <c r="BD92">
+        <v>3.1</v>
+      </c>
+      <c r="BE92">
+        <v>9</v>
+      </c>
+      <c r="BF92">
+        <v>1.44</v>
+      </c>
+      <c r="BG92">
+        <v>1.16</v>
+      </c>
+      <c r="BH92">
+        <v>4.33</v>
+      </c>
+      <c r="BI92">
+        <v>1.33</v>
+      </c>
+      <c r="BJ92">
+        <v>2.93</v>
+      </c>
+      <c r="BK92">
+        <v>1.6</v>
+      </c>
+      <c r="BL92">
+        <v>2.19</v>
+      </c>
+      <c r="BM92">
+        <v>2</v>
+      </c>
+      <c r="BN92">
+        <v>1.73</v>
+      </c>
+      <c r="BO92">
+        <v>2.58</v>
+      </c>
+      <c r="BP92">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7295049</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45445.59375</v>
+      </c>
+      <c r="F93">
+        <v>11</v>
+      </c>
+      <c r="G93" t="s">
+        <v>75</v>
+      </c>
+      <c r="H93" t="s">
+        <v>71</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93" t="s">
+        <v>153</v>
+      </c>
+      <c r="P93" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q93">
+        <v>2.79</v>
+      </c>
+      <c r="R93">
+        <v>2.13</v>
+      </c>
+      <c r="S93">
+        <v>3.78</v>
+      </c>
+      <c r="T93">
+        <v>1.38</v>
+      </c>
+      <c r="U93">
+        <v>2.91</v>
+      </c>
+      <c r="V93">
+        <v>2.71</v>
+      </c>
+      <c r="W93">
+        <v>1.43</v>
+      </c>
+      <c r="X93">
+        <v>6.65</v>
+      </c>
+      <c r="Y93">
+        <v>1.09</v>
+      </c>
+      <c r="Z93">
+        <v>2.23</v>
+      </c>
+      <c r="AA93">
+        <v>3.2</v>
+      </c>
+      <c r="AB93">
+        <v>2.83</v>
+      </c>
+      <c r="AC93">
+        <v>1.01</v>
+      </c>
+      <c r="AD93">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE93">
+        <v>1.24</v>
+      </c>
+      <c r="AF93">
+        <v>3.5</v>
+      </c>
+      <c r="AG93">
+        <v>1.83</v>
+      </c>
+      <c r="AH93">
+        <v>1.87</v>
+      </c>
+      <c r="AI93">
+        <v>1.68</v>
+      </c>
+      <c r="AJ93">
+        <v>2.11</v>
+      </c>
+      <c r="AK93">
+        <v>1.35</v>
+      </c>
+      <c r="AL93">
+        <v>1.32</v>
+      </c>
+      <c r="AM93">
+        <v>1.66</v>
+      </c>
+      <c r="AN93">
+        <v>1.8</v>
+      </c>
+      <c r="AO93">
+        <v>2.17</v>
+      </c>
+      <c r="AP93">
+        <v>1.67</v>
+      </c>
+      <c r="AQ93">
+        <v>2</v>
+      </c>
+      <c r="AR93">
+        <v>1.43</v>
+      </c>
+      <c r="AS93">
+        <v>1.14</v>
+      </c>
+      <c r="AT93">
+        <v>2.57</v>
+      </c>
+      <c r="AU93">
+        <v>5</v>
+      </c>
+      <c r="AV93">
+        <v>6</v>
+      </c>
+      <c r="AW93">
+        <v>3</v>
+      </c>
+      <c r="AX93">
+        <v>5</v>
+      </c>
+      <c r="AY93">
+        <v>8</v>
+      </c>
+      <c r="AZ93">
+        <v>11</v>
+      </c>
+      <c r="BA93">
+        <v>4</v>
+      </c>
+      <c r="BB93">
+        <v>5</v>
+      </c>
+      <c r="BC93">
+        <v>9</v>
+      </c>
+      <c r="BD93">
+        <v>1.8</v>
+      </c>
+      <c r="BE93">
+        <v>8</v>
+      </c>
+      <c r="BF93">
+        <v>2.38</v>
+      </c>
+      <c r="BG93">
+        <v>1.2</v>
+      </c>
+      <c r="BH93">
+        <v>4.25</v>
+      </c>
+      <c r="BI93">
+        <v>1.38</v>
+      </c>
+      <c r="BJ93">
+        <v>2.9</v>
+      </c>
+      <c r="BK93">
+        <v>1.7</v>
+      </c>
+      <c r="BL93">
+        <v>2.05</v>
+      </c>
+      <c r="BM93">
+        <v>2.05</v>
+      </c>
+      <c r="BN93">
+        <v>1.7</v>
+      </c>
+      <c r="BO93">
+        <v>2.85</v>
+      </c>
+      <c r="BP93">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,6 +478,12 @@
     <t>['53']</t>
   </si>
   <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['19', '86']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -632,6 +638,12 @@
   </si>
   <si>
     <t>['20', '51']</t>
+  </si>
+  <si>
+    <t>['9', '60']</t>
+  </si>
+  <si>
+    <t>['48']</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP93"/>
+  <dimension ref="A1:BP95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1252,7 +1264,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1458,7 +1470,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1870,7 +1882,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2076,7 +2088,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2154,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ6">
         <v>0.67</v>
@@ -2775,7 +2787,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ9">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3106,7 +3118,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3187,7 +3199,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3312,7 +3324,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -3724,7 +3736,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3930,7 +3942,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4136,7 +4148,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4342,7 +4354,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4548,7 +4560,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4754,7 +4766,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -5166,7 +5178,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5453,7 +5465,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ22">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR22">
         <v>1.3</v>
@@ -5578,7 +5590,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5656,7 +5668,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ23">
         <v>2.5</v>
@@ -5784,7 +5796,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6071,7 +6083,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ25">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR25">
         <v>2.34</v>
@@ -6196,7 +6208,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6402,7 +6414,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6608,7 +6620,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6686,7 +6698,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ28">
         <v>2</v>
@@ -6814,7 +6826,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6895,7 +6907,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ29">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR29">
         <v>1.39</v>
@@ -7432,7 +7444,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7844,7 +7856,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8050,7 +8062,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8256,7 +8268,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q36">
         <v>2.54</v>
@@ -8462,7 +8474,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q37">
         <v>1.55</v>
@@ -8668,7 +8680,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -9364,10 +9376,10 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ41">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR41">
         <v>1.56</v>
@@ -9492,7 +9504,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9904,7 +9916,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q44">
         <v>4.5</v>
@@ -9982,7 +9994,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ44">
         <v>2</v>
@@ -10397,7 +10409,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ46">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR46">
         <v>1.51</v>
@@ -10809,7 +10821,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR48">
         <v>1.38</v>
@@ -10934,7 +10946,7 @@
         <v>87</v>
       </c>
       <c r="P49" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11346,7 +11358,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11552,7 +11564,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -11964,7 +11976,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12170,7 +12182,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12454,7 +12466,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ56">
         <v>1.17</v>
@@ -12788,7 +12800,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -12866,7 +12878,7 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ58">
         <v>2</v>
@@ -12994,7 +13006,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13200,7 +13212,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13281,7 +13293,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ60">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR60">
         <v>1.09</v>
@@ -13818,7 +13830,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14024,7 +14036,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14105,7 +14117,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ64">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR64">
         <v>1.5</v>
@@ -14436,7 +14448,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -14642,7 +14654,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -14848,7 +14860,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -14926,7 +14938,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ68">
         <v>1.6</v>
@@ -15672,7 +15684,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -15750,7 +15762,7 @@
         <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ72">
         <v>2</v>
@@ -15878,7 +15890,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16084,7 +16096,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16290,7 +16302,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16371,7 +16383,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR75">
         <v>1.51</v>
@@ -16702,7 +16714,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -16908,7 +16920,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q78">
         <v>2.62</v>
@@ -17195,7 +17207,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ79">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR79">
         <v>1.46</v>
@@ -17526,7 +17538,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -17732,7 +17744,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -17938,7 +17950,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q83">
         <v>1.57</v>
@@ -18144,7 +18156,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q84">
         <v>1.58</v>
@@ -18556,7 +18568,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -18762,7 +18774,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -18968,7 +18980,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19174,7 +19186,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19380,7 +19392,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q90">
         <v>2.7</v>
@@ -19998,7 +20010,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q93">
         <v>2.79</v>
@@ -20155,6 +20167,418 @@
       </c>
       <c r="BP93">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7295050</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45470.58333333334</v>
+      </c>
+      <c r="F94">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>85</v>
+      </c>
+      <c r="H94" t="s">
+        <v>83</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
+        <v>3</v>
+      </c>
+      <c r="O94" t="s">
+        <v>154</v>
+      </c>
+      <c r="P94" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q94">
+        <v>2.6</v>
+      </c>
+      <c r="R94">
+        <v>2.3</v>
+      </c>
+      <c r="S94">
+        <v>4</v>
+      </c>
+      <c r="T94">
+        <v>1.33</v>
+      </c>
+      <c r="U94">
+        <v>3.25</v>
+      </c>
+      <c r="V94">
+        <v>2.5</v>
+      </c>
+      <c r="W94">
+        <v>1.5</v>
+      </c>
+      <c r="X94">
+        <v>6.5</v>
+      </c>
+      <c r="Y94">
+        <v>1.11</v>
+      </c>
+      <c r="Z94">
+        <v>1.82</v>
+      </c>
+      <c r="AA94">
+        <v>3.5</v>
+      </c>
+      <c r="AB94">
+        <v>3.35</v>
+      </c>
+      <c r="AC94">
+        <v>1.03</v>
+      </c>
+      <c r="AD94">
+        <v>15</v>
+      </c>
+      <c r="AE94">
+        <v>1.22</v>
+      </c>
+      <c r="AF94">
+        <v>4.33</v>
+      </c>
+      <c r="AG94">
+        <v>1.66</v>
+      </c>
+      <c r="AH94">
+        <v>2.08</v>
+      </c>
+      <c r="AI94">
+        <v>1.62</v>
+      </c>
+      <c r="AJ94">
+        <v>2.2</v>
+      </c>
+      <c r="AK94">
+        <v>1.32</v>
+      </c>
+      <c r="AL94">
+        <v>1.22</v>
+      </c>
+      <c r="AM94">
+        <v>1.85</v>
+      </c>
+      <c r="AN94">
+        <v>1.5</v>
+      </c>
+      <c r="AO94">
+        <v>0.86</v>
+      </c>
+      <c r="AP94">
+        <v>1.2</v>
+      </c>
+      <c r="AQ94">
+        <v>1.13</v>
+      </c>
+      <c r="AR94">
+        <v>1.46</v>
+      </c>
+      <c r="AS94">
+        <v>1.24</v>
+      </c>
+      <c r="AT94">
+        <v>2.7</v>
+      </c>
+      <c r="AU94">
+        <v>5</v>
+      </c>
+      <c r="AV94">
+        <v>5</v>
+      </c>
+      <c r="AW94">
+        <v>5</v>
+      </c>
+      <c r="AX94">
+        <v>5</v>
+      </c>
+      <c r="AY94">
+        <v>10</v>
+      </c>
+      <c r="AZ94">
+        <v>10</v>
+      </c>
+      <c r="BA94">
+        <v>6</v>
+      </c>
+      <c r="BB94">
+        <v>4</v>
+      </c>
+      <c r="BC94">
+        <v>10</v>
+      </c>
+      <c r="BD94">
+        <v>1.57</v>
+      </c>
+      <c r="BE94">
+        <v>9</v>
+      </c>
+      <c r="BF94">
+        <v>2.75</v>
+      </c>
+      <c r="BG94">
+        <v>1.09</v>
+      </c>
+      <c r="BH94">
+        <v>5.7</v>
+      </c>
+      <c r="BI94">
+        <v>1.22</v>
+      </c>
+      <c r="BJ94">
+        <v>4</v>
+      </c>
+      <c r="BK94">
+        <v>1.4</v>
+      </c>
+      <c r="BL94">
+        <v>2.8</v>
+      </c>
+      <c r="BM94">
+        <v>1.73</v>
+      </c>
+      <c r="BN94">
+        <v>2</v>
+      </c>
+      <c r="BO94">
+        <v>2.05</v>
+      </c>
+      <c r="BP94">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7295051</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45470.67708333334</v>
+      </c>
+      <c r="F95">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>74</v>
+      </c>
+      <c r="H95" t="s">
+        <v>77</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95" t="s">
+        <v>155</v>
+      </c>
+      <c r="P95" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q95">
+        <v>2.5</v>
+      </c>
+      <c r="R95">
+        <v>2.3</v>
+      </c>
+      <c r="S95">
+        <v>4</v>
+      </c>
+      <c r="T95">
+        <v>1.33</v>
+      </c>
+      <c r="U95">
+        <v>3.25</v>
+      </c>
+      <c r="V95">
+        <v>2.63</v>
+      </c>
+      <c r="W95">
+        <v>1.44</v>
+      </c>
+      <c r="X95">
+        <v>6.5</v>
+      </c>
+      <c r="Y95">
+        <v>1.11</v>
+      </c>
+      <c r="Z95">
+        <v>1.9</v>
+      </c>
+      <c r="AA95">
+        <v>4</v>
+      </c>
+      <c r="AB95">
+        <v>3.75</v>
+      </c>
+      <c r="AC95">
+        <v>1.03</v>
+      </c>
+      <c r="AD95">
+        <v>13</v>
+      </c>
+      <c r="AE95">
+        <v>1.26</v>
+      </c>
+      <c r="AF95">
+        <v>4</v>
+      </c>
+      <c r="AG95">
+        <v>1.75</v>
+      </c>
+      <c r="AH95">
+        <v>2.1</v>
+      </c>
+      <c r="AI95">
+        <v>1.67</v>
+      </c>
+      <c r="AJ95">
+        <v>2.1</v>
+      </c>
+      <c r="AK95">
+        <v>1.2</v>
+      </c>
+      <c r="AL95">
+        <v>1.27</v>
+      </c>
+      <c r="AM95">
+        <v>1.83</v>
+      </c>
+      <c r="AN95">
+        <v>0.2</v>
+      </c>
+      <c r="AO95">
+        <v>2.2</v>
+      </c>
+      <c r="AP95">
+        <v>0.67</v>
+      </c>
+      <c r="AQ95">
+        <v>1.83</v>
+      </c>
+      <c r="AR95">
+        <v>1.17</v>
+      </c>
+      <c r="AS95">
+        <v>1.15</v>
+      </c>
+      <c r="AT95">
+        <v>2.32</v>
+      </c>
+      <c r="AU95">
+        <v>4</v>
+      </c>
+      <c r="AV95">
+        <v>4</v>
+      </c>
+      <c r="AW95">
+        <v>2</v>
+      </c>
+      <c r="AX95">
+        <v>3</v>
+      </c>
+      <c r="AY95">
+        <v>6</v>
+      </c>
+      <c r="AZ95">
+        <v>7</v>
+      </c>
+      <c r="BA95">
+        <v>5</v>
+      </c>
+      <c r="BB95">
+        <v>8</v>
+      </c>
+      <c r="BC95">
+        <v>13</v>
+      </c>
+      <c r="BD95">
+        <v>1.95</v>
+      </c>
+      <c r="BE95">
+        <v>8.5</v>
+      </c>
+      <c r="BF95">
+        <v>2.1</v>
+      </c>
+      <c r="BG95">
+        <v>1.15</v>
+      </c>
+      <c r="BH95">
+        <v>5</v>
+      </c>
+      <c r="BI95">
+        <v>1.3</v>
+      </c>
+      <c r="BJ95">
+        <v>3.3</v>
+      </c>
+      <c r="BK95">
+        <v>1.55</v>
+      </c>
+      <c r="BL95">
+        <v>2.38</v>
+      </c>
+      <c r="BM95">
+        <v>1.98</v>
+      </c>
+      <c r="BN95">
+        <v>1.82</v>
+      </c>
+      <c r="BO95">
+        <v>2.5</v>
+      </c>
+      <c r="BP95">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="213">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,10 +397,10 @@
     <t>['12']</t>
   </si>
   <si>
-    <t>['19', '21', '63', '74']</t>
+    <t>['4', '14', '41', '66']</t>
   </si>
   <si>
-    <t>['4', '14', '41', '66']</t>
+    <t>['19', '21', '63', '74']</t>
   </si>
   <si>
     <t>['65']</t>
@@ -430,9 +430,6 @@
     <t>['41', '75']</t>
   </si>
   <si>
-    <t>['77', '90+5']</t>
-  </si>
-  <si>
     <t>['72']</t>
   </si>
   <si>
@@ -445,10 +442,10 @@
     <t>['49', '86']</t>
   </si>
   <si>
-    <t>['36']</t>
+    <t>['77', '90+5']</t>
   </si>
   <si>
-    <t>['45+6']</t>
+    <t>['36']</t>
   </si>
   <si>
     <t>['38', '90+9']</t>
@@ -457,13 +454,16 @@
     <t>['17', '34', '80']</t>
   </si>
   <si>
+    <t>['45+6']</t>
+  </si>
+  <si>
     <t>['51']</t>
   </si>
   <si>
     <t>['7', '74']</t>
   </si>
   <si>
-    <t>['66', '75', '89']</t>
+    <t>['15']</t>
   </si>
   <si>
     <t>['69', '75', '82']</t>
@@ -472,7 +472,7 @@
     <t>['67']</t>
   </si>
   <si>
-    <t>['15']</t>
+    <t>['66', '75', '89']</t>
   </si>
   <si>
     <t>['53']</t>
@@ -482,6 +482,12 @@
   </si>
   <si>
     <t>['19', '86']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['69']</t>
   </si>
   <si>
     <t>['39', '90+2']</t>
@@ -500,9 +506,6 @@
   </si>
   <si>
     <t>['13', '34']</t>
-  </si>
-  <si>
-    <t>['23']</t>
   </si>
   <si>
     <t>['45']</t>
@@ -551,9 +554,6 @@
   </si>
   <si>
     <t>['22', '40']</t>
-  </si>
-  <si>
-    <t>['69']</t>
   </si>
   <si>
     <t>['17', '27', '51']</t>
@@ -616,10 +616,10 @@
     <t>['45+1', '64']</t>
   </si>
   <si>
-    <t>['90+6']</t>
+    <t>['36', '63', '89']</t>
   </si>
   <si>
-    <t>['36', '63', '89']</t>
+    <t>['90+6']</t>
   </si>
   <si>
     <t>['60', '70', '72']</t>
@@ -631,19 +631,28 @@
     <t>['20', '46']</t>
   </si>
   <si>
-    <t>['68', '72', '81']</t>
-  </si>
-  <si>
     <t>['86']</t>
   </si>
   <si>
     <t>['20', '51']</t>
   </si>
   <si>
+    <t>['68', '72', '81']</t>
+  </si>
+  <si>
     <t>['9', '60']</t>
   </si>
   <si>
     <t>['48']</t>
+  </si>
+  <si>
+    <t>['52', '90+2']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['33', '61']</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1014,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP95"/>
+  <dimension ref="A1:BP99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1264,7 +1273,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1342,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ2">
         <v>1.4</v>
@@ -1470,7 +1479,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1551,7 +1560,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ3">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1757,7 +1766,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1882,7 +1891,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1960,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ5">
         <v>2</v>
@@ -2088,7 +2097,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2169,7 +2178,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ6">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3118,7 +3127,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3324,7 +3333,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -3736,7 +3745,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3814,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ14">
         <v>1.33</v>
@@ -3942,7 +3951,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4023,7 +4032,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4148,7 +4157,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4226,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>2</v>
@@ -4354,7 +4363,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4560,7 +4569,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4766,7 +4775,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -4844,7 +4853,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ19">
         <v>1.4</v>
@@ -5053,7 +5062,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ20">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR20">
         <v>2.32</v>
@@ -5178,7 +5187,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5256,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ21">
         <v>0.43</v>
@@ -5590,7 +5599,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5671,7 +5680,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ23">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR23">
         <v>2.02</v>
@@ -5796,7 +5805,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -5877,7 +5886,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR24">
         <v>2.18</v>
@@ -6080,7 +6089,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>1.13</v>
@@ -6208,7 +6217,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6414,7 +6423,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6495,7 +6504,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR27">
         <v>1.08</v>
@@ -6620,7 +6629,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6826,7 +6835,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6904,7 +6913,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ29">
         <v>1.83</v>
@@ -7110,7 +7119,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>1.33</v>
@@ -7444,7 +7453,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7856,7 +7865,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -7937,7 +7946,7 @@
         <v>2</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR34">
         <v>1.56</v>
@@ -8062,7 +8071,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8143,7 +8152,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ35">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR35">
         <v>1.13</v>
@@ -8268,7 +8277,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q36">
         <v>2.54</v>
@@ -8349,7 +8358,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ36">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR36">
         <v>1.19</v>
@@ -8474,7 +8483,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="Q37">
         <v>1.55</v>
@@ -8758,7 +8767,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ38">
         <v>1.17</v>
@@ -9582,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ42">
         <v>1.6</v>
@@ -9788,7 +9797,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
         <v>0.8</v>
@@ -9997,7 +10006,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR44">
         <v>1.32</v>
@@ -10203,7 +10212,7 @@
         <v>2</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR45">
         <v>1.4</v>
@@ -10612,7 +10621,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ47">
         <v>2</v>
@@ -11024,7 +11033,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ49">
         <v>2</v>
@@ -11645,7 +11654,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ52">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR52">
         <v>1.4</v>
@@ -12672,7 +12681,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ57">
         <v>1.33</v>
@@ -13084,10 +13093,10 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ59">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR59">
         <v>1.19</v>
@@ -13376,7 +13385,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7295022</v>
+        <v>7295023</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13391,160 +13400,160 @@
         <v>8</v>
       </c>
       <c r="G61" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H61" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L61">
         <v>4</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O61" t="s">
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="Q61">
-        <v>1.64</v>
+        <v>2.7</v>
       </c>
       <c r="R61">
-        <v>3.02</v>
+        <v>2.1</v>
       </c>
       <c r="S61">
-        <v>8.67</v>
+        <v>3.7</v>
       </c>
       <c r="T61">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="U61">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="V61">
-        <v>2.16</v>
+        <v>2.75</v>
       </c>
       <c r="W61">
-        <v>1.71</v>
+        <v>1.4</v>
       </c>
       <c r="X61">
-        <v>4.3</v>
+        <v>6.7</v>
       </c>
       <c r="Y61">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="Z61">
-        <v>1.34</v>
+        <v>2.03</v>
       </c>
       <c r="AA61">
-        <v>5.48</v>
+        <v>3.63</v>
       </c>
       <c r="AB61">
-        <v>8.449999999999999</v>
+        <v>3.58</v>
       </c>
       <c r="AC61">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AD61">
-        <v>26.5</v>
+        <v>9</v>
       </c>
       <c r="AE61">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="AF61">
-        <v>5.75</v>
+        <v>3.45</v>
       </c>
       <c r="AG61">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="AH61">
-        <v>2.6</v>
+        <v>1.91</v>
       </c>
       <c r="AI61">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AJ61">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AK61">
-        <v>1.07</v>
+        <v>1.3</v>
       </c>
       <c r="AL61">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AM61">
-        <v>3.91</v>
+        <v>1.73</v>
       </c>
       <c r="AN61">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AO61">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ61">
-        <v>0.25</v>
+        <v>1.43</v>
       </c>
       <c r="AR61">
-        <v>1.51</v>
+        <v>1.32</v>
       </c>
       <c r="AS61">
-        <v>1.12</v>
+        <v>1.33</v>
       </c>
       <c r="AT61">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AU61">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV61">
         <v>3</v>
       </c>
       <c r="AW61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX61">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY61">
         <v>10</v>
       </c>
       <c r="AZ61">
+        <v>11</v>
+      </c>
+      <c r="BA61">
         <v>8</v>
       </c>
-      <c r="BA61">
-        <v>4</v>
-      </c>
       <c r="BB61">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BC61">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD61">
-        <v>1.14</v>
+        <v>1.73</v>
       </c>
       <c r="BE61">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="BF61">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="BG61">
         <v>1.18</v>
@@ -13553,16 +13562,16 @@
         <v>4.6</v>
       </c>
       <c r="BI61">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="BJ61">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="BK61">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="BL61">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="BM61">
         <v>1.95</v>
@@ -13571,10 +13580,10 @@
         <v>1.77</v>
       </c>
       <c r="BO61">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="BP61">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="62" spans="1:68">
@@ -13582,7 +13591,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>7295023</v>
+        <v>7295022</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
@@ -13597,160 +13606,160 @@
         <v>8</v>
       </c>
       <c r="G62" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L62">
         <v>4</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O62" t="s">
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="Q62">
-        <v>2.7</v>
+        <v>1.64</v>
       </c>
       <c r="R62">
-        <v>2.1</v>
+        <v>3.02</v>
       </c>
       <c r="S62">
-        <v>3.7</v>
+        <v>8.67</v>
       </c>
       <c r="T62">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="U62">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="V62">
-        <v>2.75</v>
+        <v>2.16</v>
       </c>
       <c r="W62">
-        <v>1.4</v>
+        <v>1.71</v>
       </c>
       <c r="X62">
-        <v>6.7</v>
+        <v>4.3</v>
       </c>
       <c r="Y62">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="Z62">
-        <v>2.03</v>
+        <v>1.34</v>
       </c>
       <c r="AA62">
-        <v>3.63</v>
+        <v>5.48</v>
       </c>
       <c r="AB62">
-        <v>3.58</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="AC62">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AD62">
-        <v>9</v>
+        <v>26.5</v>
       </c>
       <c r="AE62">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="AF62">
-        <v>3.45</v>
+        <v>5.75</v>
       </c>
       <c r="AG62">
+        <v>1.44</v>
+      </c>
+      <c r="AH62">
+        <v>2.6</v>
+      </c>
+      <c r="AI62">
         <v>1.8</v>
       </c>
-      <c r="AH62">
-        <v>1.91</v>
-      </c>
-      <c r="AI62">
-        <v>1.7</v>
-      </c>
       <c r="AJ62">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AK62">
-        <v>1.3</v>
+        <v>1.07</v>
       </c>
       <c r="AL62">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AM62">
-        <v>1.73</v>
+        <v>3.91</v>
       </c>
       <c r="AN62">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="AO62">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="AR62">
-        <v>1.32</v>
+        <v>1.51</v>
       </c>
       <c r="AS62">
-        <v>1.33</v>
+        <v>1.12</v>
       </c>
       <c r="AT62">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="AU62">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV62">
         <v>3</v>
       </c>
       <c r="AW62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX62">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AY62">
         <v>10</v>
       </c>
       <c r="AZ62">
+        <v>8</v>
+      </c>
+      <c r="BA62">
+        <v>4</v>
+      </c>
+      <c r="BB62">
+        <v>7</v>
+      </c>
+      <c r="BC62">
         <v>11</v>
       </c>
-      <c r="BA62">
-        <v>8</v>
-      </c>
-      <c r="BB62">
-        <v>2</v>
-      </c>
-      <c r="BC62">
-        <v>10</v>
-      </c>
       <c r="BD62">
-        <v>1.73</v>
+        <v>1.14</v>
       </c>
       <c r="BE62">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="BF62">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="BG62">
         <v>1.18</v>
@@ -13759,16 +13768,16 @@
         <v>4.6</v>
       </c>
       <c r="BI62">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="BJ62">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="BK62">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="BL62">
-        <v>2.37</v>
+        <v>2.22</v>
       </c>
       <c r="BM62">
         <v>1.95</v>
@@ -13777,10 +13786,10 @@
         <v>1.77</v>
       </c>
       <c r="BO62">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="BP62">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="63" spans="1:68">
@@ -14114,7 +14123,7 @@
         <v>0.6</v>
       </c>
       <c r="AP64">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ64">
         <v>1.13</v>
@@ -14323,7 +14332,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -14526,7 +14535,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
         <v>0.43</v>
@@ -15353,7 +15362,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ70">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR70">
         <v>1.23</v>
@@ -16174,7 +16183,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ74">
         <v>0.8</v>
@@ -16672,7 +16681,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7295036</v>
+        <v>7295037</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -16687,28 +16696,28 @@
         <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H77" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O77" t="s">
         <v>138</v>
@@ -16717,58 +16726,58 @@
         <v>200</v>
       </c>
       <c r="Q77">
-        <v>3.6</v>
+        <v>2.62</v>
       </c>
       <c r="R77">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="S77">
-        <v>2.8</v>
+        <v>3.65</v>
       </c>
       <c r="T77">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="U77">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="V77">
-        <v>2.55</v>
+        <v>2.44</v>
       </c>
       <c r="W77">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X77">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="Y77">
         <v>1.12</v>
       </c>
       <c r="Z77">
-        <v>3.05</v>
+        <v>2.06</v>
       </c>
       <c r="AA77">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AB77">
-        <v>2.12</v>
+        <v>3.04</v>
       </c>
       <c r="AC77">
         <v>1.03</v>
       </c>
       <c r="AD77">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE77">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AF77">
-        <v>4.33</v>
+        <v>4.15</v>
       </c>
       <c r="AG77">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="AH77">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AI77">
         <v>1.58</v>
@@ -16777,100 +16786,100 @@
         <v>2.35</v>
       </c>
       <c r="AK77">
-        <v>1.7</v>
+        <v>1.36</v>
       </c>
       <c r="AL77">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM77">
-        <v>1.38</v>
+        <v>1.78</v>
       </c>
       <c r="AN77">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AO77">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="AP77">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AQ77">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="AR77">
-        <v>1.07</v>
+        <v>1.56</v>
       </c>
       <c r="AS77">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="AT77">
-        <v>2.52</v>
+        <v>2.87</v>
       </c>
       <c r="AU77">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AV77">
+        <v>7</v>
+      </c>
+      <c r="AW77">
+        <v>8</v>
+      </c>
+      <c r="AX77">
         <v>4</v>
       </c>
-      <c r="AW77">
-        <v>6</v>
-      </c>
-      <c r="AX77">
-        <v>8</v>
-      </c>
       <c r="AY77">
+        <v>19</v>
+      </c>
+      <c r="AZ77">
         <v>11</v>
       </c>
-      <c r="AZ77">
+      <c r="BA77">
+        <v>9</v>
+      </c>
+      <c r="BB77">
         <v>12</v>
       </c>
-      <c r="BA77">
-        <v>7</v>
-      </c>
-      <c r="BB77">
-        <v>11</v>
-      </c>
       <c r="BC77">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BD77">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="BE77">
         <v>8.5</v>
       </c>
       <c r="BF77">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="BG77">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="BH77">
-        <v>4.85</v>
+        <v>5.3</v>
       </c>
       <c r="BI77">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="BJ77">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="BK77">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="BL77">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="BM77">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="BN77">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="BO77">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="BP77">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="78" spans="1:68">
@@ -16878,7 +16887,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7295037</v>
+        <v>7295038</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16893,190 +16902,190 @@
         <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H78" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
         <v>3</v>
-      </c>
-      <c r="N78">
-        <v>4</v>
       </c>
       <c r="O78" t="s">
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>201</v>
+        <v>87</v>
       </c>
       <c r="Q78">
-        <v>2.62</v>
+        <v>2</v>
       </c>
       <c r="R78">
-        <v>2.29</v>
+        <v>2.65</v>
       </c>
       <c r="S78">
-        <v>3.65</v>
+        <v>5</v>
       </c>
       <c r="T78">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="U78">
-        <v>3.28</v>
+        <v>4.2</v>
       </c>
       <c r="V78">
-        <v>2.44</v>
+        <v>2.15</v>
       </c>
       <c r="W78">
+        <v>1.7</v>
+      </c>
+      <c r="X78">
+        <v>4.5</v>
+      </c>
+      <c r="Y78">
+        <v>1.19</v>
+      </c>
+      <c r="Z78">
         <v>1.52</v>
       </c>
-      <c r="X78">
-        <v>5.7</v>
-      </c>
-      <c r="Y78">
-        <v>1.12</v>
-      </c>
-      <c r="Z78">
-        <v>2.06</v>
-      </c>
       <c r="AA78">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="AB78">
-        <v>3.04</v>
+        <v>4.62</v>
       </c>
       <c r="AC78">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD78">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AE78">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AF78">
-        <v>4.15</v>
+        <v>6</v>
       </c>
       <c r="AG78">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="AH78">
-        <v>2.12</v>
+        <v>2.59</v>
       </c>
       <c r="AI78">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AJ78">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="AK78">
-        <v>1.36</v>
+        <v>1.16</v>
       </c>
       <c r="AL78">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AM78">
-        <v>1.78</v>
+        <v>2.55</v>
       </c>
       <c r="AN78">
-        <v>0.75</v>
+        <v>1.6</v>
       </c>
       <c r="AO78">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AP78">
-        <v>0.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ78">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AR78">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="AS78">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT78">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="AU78">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV78">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW78">
+        <v>6</v>
+      </c>
+      <c r="AX78">
+        <v>2</v>
+      </c>
+      <c r="AY78">
+        <v>15</v>
+      </c>
+      <c r="AZ78">
+        <v>6</v>
+      </c>
+      <c r="BA78">
         <v>8</v>
       </c>
-      <c r="AX78">
+      <c r="BB78">
+        <v>6</v>
+      </c>
+      <c r="BC78">
+        <v>14</v>
+      </c>
+      <c r="BD78">
+        <v>1.3</v>
+      </c>
+      <c r="BE78">
+        <v>10</v>
+      </c>
+      <c r="BF78">
         <v>4</v>
       </c>
-      <c r="AY78">
-        <v>19</v>
-      </c>
-      <c r="AZ78">
-        <v>11</v>
-      </c>
-      <c r="BA78">
-        <v>9</v>
-      </c>
-      <c r="BB78">
-        <v>12</v>
-      </c>
-      <c r="BC78">
-        <v>21</v>
-      </c>
-      <c r="BD78">
-        <v>1.67</v>
-      </c>
-      <c r="BE78">
-        <v>8.5</v>
-      </c>
-      <c r="BF78">
-        <v>2.5</v>
-      </c>
       <c r="BG78">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="BH78">
-        <v>5.3</v>
+        <v>6.8</v>
       </c>
       <c r="BI78">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="BJ78">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="BK78">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="BL78">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="BM78">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="BN78">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="BO78">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="BP78">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -17084,7 +17093,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7295038</v>
+        <v>7295039</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17099,25 +17108,25 @@
         <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H79" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79">
         <v>3</v>
@@ -17126,163 +17135,163 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q79">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="R79">
-        <v>2.65</v>
+        <v>2.2</v>
       </c>
       <c r="S79">
+        <v>3.75</v>
+      </c>
+      <c r="T79">
+        <v>1.38</v>
+      </c>
+      <c r="U79">
+        <v>3.1</v>
+      </c>
+      <c r="V79">
+        <v>2.75</v>
+      </c>
+      <c r="W79">
+        <v>1.44</v>
+      </c>
+      <c r="X79">
+        <v>6.5</v>
+      </c>
+      <c r="Y79">
+        <v>1.1</v>
+      </c>
+      <c r="Z79">
+        <v>2.08</v>
+      </c>
+      <c r="AA79">
+        <v>3.4</v>
+      </c>
+      <c r="AB79">
+        <v>3.22</v>
+      </c>
+      <c r="AC79">
+        <v>1.04</v>
+      </c>
+      <c r="AD79">
+        <v>12</v>
+      </c>
+      <c r="AE79">
+        <v>1.28</v>
+      </c>
+      <c r="AF79">
+        <v>3.75</v>
+      </c>
+      <c r="AG79">
+        <v>1.8</v>
+      </c>
+      <c r="AH79">
+        <v>1.9</v>
+      </c>
+      <c r="AI79">
+        <v>1.68</v>
+      </c>
+      <c r="AJ79">
+        <v>2.15</v>
+      </c>
+      <c r="AK79">
+        <v>1.33</v>
+      </c>
+      <c r="AL79">
+        <v>1.26</v>
+      </c>
+      <c r="AM79">
+        <v>1.75</v>
+      </c>
+      <c r="AN79">
+        <v>0.75</v>
+      </c>
+      <c r="AO79">
+        <v>0.25</v>
+      </c>
+      <c r="AP79">
+        <v>1</v>
+      </c>
+      <c r="AQ79">
+        <v>0.43</v>
+      </c>
+      <c r="AR79">
+        <v>1.47</v>
+      </c>
+      <c r="AS79">
+        <v>1.34</v>
+      </c>
+      <c r="AT79">
+        <v>2.81</v>
+      </c>
+      <c r="AU79">
+        <v>4</v>
+      </c>
+      <c r="AV79">
+        <v>6</v>
+      </c>
+      <c r="AW79">
+        <v>1</v>
+      </c>
+      <c r="AX79">
         <v>5</v>
       </c>
-      <c r="T79">
-        <v>1.24</v>
-      </c>
-      <c r="U79">
-        <v>4.2</v>
-      </c>
-      <c r="V79">
-        <v>2.15</v>
-      </c>
-      <c r="W79">
-        <v>1.7</v>
-      </c>
-      <c r="X79">
-        <v>4.5</v>
-      </c>
-      <c r="Y79">
-        <v>1.19</v>
-      </c>
-      <c r="Z79">
-        <v>1.52</v>
-      </c>
-      <c r="AA79">
-        <v>4.75</v>
-      </c>
-      <c r="AB79">
-        <v>4.62</v>
-      </c>
-      <c r="AC79">
-        <v>1.01</v>
-      </c>
-      <c r="AD79">
-        <v>26</v>
-      </c>
-      <c r="AE79">
-        <v>1.14</v>
-      </c>
-      <c r="AF79">
-        <v>6</v>
-      </c>
-      <c r="AG79">
-        <v>1.44</v>
-      </c>
-      <c r="AH79">
-        <v>2.59</v>
-      </c>
-      <c r="AI79">
-        <v>1.53</v>
-      </c>
-      <c r="AJ79">
-        <v>2.45</v>
-      </c>
-      <c r="AK79">
+      <c r="AY79">
+        <v>5</v>
+      </c>
+      <c r="AZ79">
+        <v>11</v>
+      </c>
+      <c r="BA79">
+        <v>14</v>
+      </c>
+      <c r="BB79">
+        <v>4</v>
+      </c>
+      <c r="BC79">
+        <v>18</v>
+      </c>
+      <c r="BD79">
+        <v>1.73</v>
+      </c>
+      <c r="BE79">
+        <v>8.5</v>
+      </c>
+      <c r="BF79">
+        <v>2.38</v>
+      </c>
+      <c r="BG79">
         <v>1.16</v>
       </c>
-      <c r="AL79">
-        <v>1.15</v>
-      </c>
-      <c r="AM79">
-        <v>2.55</v>
-      </c>
-      <c r="AN79">
-        <v>1.6</v>
-      </c>
-      <c r="AO79">
-        <v>1</v>
-      </c>
-      <c r="AP79">
-        <v>1.83</v>
-      </c>
-      <c r="AQ79">
-        <v>1.13</v>
-      </c>
-      <c r="AR79">
-        <v>1.46</v>
-      </c>
-      <c r="AS79">
-        <v>1.29</v>
-      </c>
-      <c r="AT79">
-        <v>2.75</v>
-      </c>
-      <c r="AU79">
-        <v>9</v>
-      </c>
-      <c r="AV79">
-        <v>4</v>
-      </c>
-      <c r="AW79">
-        <v>6</v>
-      </c>
-      <c r="AX79">
-        <v>2</v>
-      </c>
-      <c r="AY79">
-        <v>15</v>
-      </c>
-      <c r="AZ79">
-        <v>6</v>
-      </c>
-      <c r="BA79">
-        <v>8</v>
-      </c>
-      <c r="BB79">
-        <v>6</v>
-      </c>
-      <c r="BC79">
-        <v>14</v>
-      </c>
-      <c r="BD79">
-        <v>1.3</v>
-      </c>
-      <c r="BE79">
-        <v>10</v>
-      </c>
-      <c r="BF79">
-        <v>4</v>
-      </c>
-      <c r="BG79">
-        <v>1.08</v>
-      </c>
       <c r="BH79">
-        <v>6.8</v>
+        <v>4.33</v>
       </c>
       <c r="BI79">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="BJ79">
-        <v>4.5</v>
+        <v>2.93</v>
       </c>
       <c r="BK79">
-        <v>1.3</v>
+        <v>1.56</v>
       </c>
       <c r="BL79">
-        <v>3.3</v>
+        <v>2.38</v>
       </c>
       <c r="BM79">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="BN79">
-        <v>2.05</v>
+        <v>1.77</v>
       </c>
       <c r="BO79">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="BP79">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="80" spans="1:68">
@@ -17290,7 +17299,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7295039</v>
+        <v>7295040</v>
       </c>
       <c r="C80" t="s">
         <v>68</v>
@@ -17305,19 +17314,19 @@
         <v>10</v>
       </c>
       <c r="G80" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H80" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80">
         <v>2</v>
@@ -17332,163 +17341,163 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="Q80">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="R80">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="S80">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="T80">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="U80">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="V80">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="W80">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="X80">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Y80">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="Z80">
-        <v>2.08</v>
+        <v>1.5</v>
       </c>
       <c r="AA80">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="AB80">
-        <v>3.22</v>
+        <v>5.1</v>
       </c>
       <c r="AC80">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD80">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE80">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="AF80">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AG80">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
       <c r="AH80">
-        <v>1.9</v>
+        <v>2.36</v>
       </c>
       <c r="AI80">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AJ80">
         <v>2.15</v>
       </c>
       <c r="AK80">
+        <v>1.15</v>
+      </c>
+      <c r="AL80">
+        <v>1.15</v>
+      </c>
+      <c r="AM80">
+        <v>2.4</v>
+      </c>
+      <c r="AN80">
+        <v>1.5</v>
+      </c>
+      <c r="AO80">
+        <v>1</v>
+      </c>
+      <c r="AP80">
+        <v>1.67</v>
+      </c>
+      <c r="AQ80">
+        <v>0.71</v>
+      </c>
+      <c r="AR80">
+        <v>1.14</v>
+      </c>
+      <c r="AS80">
+        <v>1.01</v>
+      </c>
+      <c r="AT80">
+        <v>2.15</v>
+      </c>
+      <c r="AU80">
+        <v>10</v>
+      </c>
+      <c r="AV80">
+        <v>3</v>
+      </c>
+      <c r="AW80">
+        <v>11</v>
+      </c>
+      <c r="AX80">
+        <v>1</v>
+      </c>
+      <c r="AY80">
+        <v>21</v>
+      </c>
+      <c r="AZ80">
+        <v>4</v>
+      </c>
+      <c r="BA80">
+        <v>17</v>
+      </c>
+      <c r="BB80">
+        <v>2</v>
+      </c>
+      <c r="BC80">
+        <v>19</v>
+      </c>
+      <c r="BD80">
         <v>1.33</v>
       </c>
-      <c r="AL80">
-        <v>1.26</v>
-      </c>
-      <c r="AM80">
-        <v>1.75</v>
-      </c>
-      <c r="AN80">
-        <v>0.75</v>
-      </c>
-      <c r="AO80">
-        <v>0.25</v>
-      </c>
-      <c r="AP80">
-        <v>1</v>
-      </c>
-      <c r="AQ80">
-        <v>0.43</v>
-      </c>
-      <c r="AR80">
-        <v>1.47</v>
-      </c>
-      <c r="AS80">
-        <v>1.34</v>
-      </c>
-      <c r="AT80">
-        <v>2.81</v>
-      </c>
-      <c r="AU80">
-        <v>4</v>
-      </c>
-      <c r="AV80">
-        <v>6</v>
-      </c>
-      <c r="AW80">
-        <v>1</v>
-      </c>
-      <c r="AX80">
-        <v>5</v>
-      </c>
-      <c r="AY80">
-        <v>5</v>
-      </c>
-      <c r="AZ80">
-        <v>11</v>
-      </c>
-      <c r="BA80">
-        <v>14</v>
-      </c>
-      <c r="BB80">
-        <v>4</v>
-      </c>
-      <c r="BC80">
-        <v>18</v>
-      </c>
-      <c r="BD80">
-        <v>1.73</v>
-      </c>
       <c r="BE80">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="BF80">
-        <v>2.38</v>
+        <v>3.75</v>
       </c>
       <c r="BG80">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="BH80">
-        <v>4.33</v>
+        <v>4.85</v>
       </c>
       <c r="BI80">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="BJ80">
-        <v>2.93</v>
+        <v>3.45</v>
       </c>
       <c r="BK80">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="BL80">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="BM80">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="BN80">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="BO80">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="BP80">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="81" spans="1:68">
@@ -17496,7 +17505,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7295040</v>
+        <v>7295036</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17511,19 +17520,19 @@
         <v>10</v>
       </c>
       <c r="G81" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H81" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81">
         <v>2</v>
@@ -17538,133 +17547,133 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="Q81">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="R81">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="S81">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="T81">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="U81">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="V81">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="W81">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="X81">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y81">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="Z81">
-        <v>1.5</v>
+        <v>3.05</v>
       </c>
       <c r="AA81">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="AB81">
-        <v>5.1</v>
+        <v>2.12</v>
       </c>
       <c r="AC81">
         <v>1.03</v>
       </c>
       <c r="AD81">
+        <v>15</v>
+      </c>
+      <c r="AE81">
+        <v>1.22</v>
+      </c>
+      <c r="AF81">
+        <v>4.33</v>
+      </c>
+      <c r="AG81">
+        <v>1.68</v>
+      </c>
+      <c r="AH81">
+        <v>2.06</v>
+      </c>
+      <c r="AI81">
+        <v>1.58</v>
+      </c>
+      <c r="AJ81">
+        <v>2.35</v>
+      </c>
+      <c r="AK81">
+        <v>1.7</v>
+      </c>
+      <c r="AL81">
+        <v>1.25</v>
+      </c>
+      <c r="AM81">
+        <v>1.38</v>
+      </c>
+      <c r="AN81">
+        <v>0.4</v>
+      </c>
+      <c r="AO81">
+        <v>2.25</v>
+      </c>
+      <c r="AP81">
+        <v>0.86</v>
+      </c>
+      <c r="AQ81">
+        <v>2</v>
+      </c>
+      <c r="AR81">
+        <v>1.07</v>
+      </c>
+      <c r="AS81">
+        <v>1.45</v>
+      </c>
+      <c r="AT81">
+        <v>2.52</v>
+      </c>
+      <c r="AU81">
+        <v>5</v>
+      </c>
+      <c r="AV81">
+        <v>4</v>
+      </c>
+      <c r="AW81">
+        <v>6</v>
+      </c>
+      <c r="AX81">
+        <v>8</v>
+      </c>
+      <c r="AY81">
         <v>11</v>
       </c>
-      <c r="AE81">
-        <v>1.17</v>
-      </c>
-      <c r="AF81">
-        <v>5</v>
-      </c>
-      <c r="AG81">
-        <v>1.52</v>
-      </c>
-      <c r="AH81">
-        <v>2.36</v>
-      </c>
-      <c r="AI81">
-        <v>1.6</v>
-      </c>
-      <c r="AJ81">
-        <v>2.15</v>
-      </c>
-      <c r="AK81">
-        <v>1.15</v>
-      </c>
-      <c r="AL81">
-        <v>1.15</v>
-      </c>
-      <c r="AM81">
-        <v>2.4</v>
-      </c>
-      <c r="AN81">
-        <v>1.5</v>
-      </c>
-      <c r="AO81">
-        <v>1</v>
-      </c>
-      <c r="AP81">
-        <v>1.67</v>
-      </c>
-      <c r="AQ81">
-        <v>0.67</v>
-      </c>
-      <c r="AR81">
-        <v>1.14</v>
-      </c>
-      <c r="AS81">
-        <v>1.01</v>
-      </c>
-      <c r="AT81">
-        <v>2.15</v>
-      </c>
-      <c r="AU81">
-        <v>10</v>
-      </c>
-      <c r="AV81">
-        <v>3</v>
-      </c>
-      <c r="AW81">
+      <c r="AZ81">
+        <v>12</v>
+      </c>
+      <c r="BA81">
+        <v>7</v>
+      </c>
+      <c r="BB81">
         <v>11</v>
       </c>
-      <c r="AX81">
-        <v>1</v>
-      </c>
-      <c r="AY81">
-        <v>21</v>
-      </c>
-      <c r="AZ81">
-        <v>4</v>
-      </c>
-      <c r="BA81">
-        <v>17</v>
-      </c>
-      <c r="BB81">
-        <v>2</v>
-      </c>
       <c r="BC81">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD81">
-        <v>1.33</v>
+        <v>2.25</v>
       </c>
       <c r="BE81">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="BF81">
-        <v>3.75</v>
+        <v>1.83</v>
       </c>
       <c r="BG81">
         <v>1.13</v>
@@ -17679,10 +17688,10 @@
         <v>3.45</v>
       </c>
       <c r="BK81">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="BL81">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="BM81">
         <v>1.85</v>
@@ -17691,10 +17700,10 @@
         <v>1.85</v>
       </c>
       <c r="BO81">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="BP81">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="82" spans="1:68">
@@ -17822,10 +17831,10 @@
         <v>1.75</v>
       </c>
       <c r="AP82">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ82">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR82">
         <v>2.05</v>
@@ -17908,7 +17917,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>7295113</v>
+        <v>7295100</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -17920,85 +17929,85 @@
         <v>45441.58333333334</v>
       </c>
       <c r="F83">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G83" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H83" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M83">
         <v>1</v>
       </c>
       <c r="N83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O83" t="s">
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="Q83">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R83">
-        <v>2.95</v>
+        <v>3.19</v>
       </c>
       <c r="S83">
-        <v>7</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="T83">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="U83">
-        <v>4.33</v>
+        <v>4.15</v>
       </c>
       <c r="V83">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="W83">
         <v>1.8</v>
       </c>
       <c r="X83">
-        <v>3.92</v>
+        <v>4.15</v>
       </c>
       <c r="Y83">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="Z83">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AA83">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB83">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AC83">
         <v>1.01</v>
       </c>
       <c r="AD83">
-        <v>29</v>
+        <v>31.5</v>
       </c>
       <c r="AE83">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AF83">
-        <v>7</v>
+        <v>5.85</v>
       </c>
       <c r="AG83">
         <v>1.33</v>
@@ -18007,106 +18016,106 @@
         <v>3</v>
       </c>
       <c r="AI83">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AJ83">
         <v>1.93</v>
       </c>
       <c r="AK83">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AL83">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AM83">
-        <v>4.2</v>
+        <v>4.38</v>
       </c>
       <c r="AN83">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AO83">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="AP83">
         <v>2</v>
       </c>
       <c r="AQ83">
-        <v>0.43</v>
+        <v>0.71</v>
       </c>
       <c r="AR83">
-        <v>1.48</v>
+        <v>1.93</v>
       </c>
       <c r="AS83">
-        <v>1.37</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT83">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="AU83">
+        <v>8</v>
+      </c>
+      <c r="AV83">
+        <v>4</v>
+      </c>
+      <c r="AW83">
+        <v>8</v>
+      </c>
+      <c r="AX83">
+        <v>5</v>
+      </c>
+      <c r="AY83">
+        <v>16</v>
+      </c>
+      <c r="AZ83">
+        <v>9</v>
+      </c>
+      <c r="BA83">
         <v>7</v>
-      </c>
-      <c r="AV83">
-        <v>6</v>
-      </c>
-      <c r="AW83">
-        <v>6</v>
-      </c>
-      <c r="AX83">
-        <v>2</v>
-      </c>
-      <c r="AY83">
-        <v>13</v>
-      </c>
-      <c r="AZ83">
-        <v>8</v>
-      </c>
-      <c r="BA83">
-        <v>4</v>
       </c>
       <c r="BB83">
         <v>5</v>
       </c>
       <c r="BC83">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD83">
-        <v>1.19</v>
+        <v>1.05</v>
       </c>
       <c r="BE83">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BF83">
-        <v>5.65</v>
+        <v>11</v>
       </c>
       <c r="BG83">
+        <v>0</v>
+      </c>
+      <c r="BH83">
+        <v>0</v>
+      </c>
+      <c r="BI83">
         <v>1.11</v>
       </c>
-      <c r="BH83">
-        <v>5.15</v>
-      </c>
-      <c r="BI83">
-        <v>1.25</v>
-      </c>
       <c r="BJ83">
-        <v>3.42</v>
+        <v>5.25</v>
       </c>
       <c r="BK83">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
       <c r="BL83">
-        <v>2.52</v>
+        <v>3.56</v>
       </c>
       <c r="BM83">
-        <v>1.79</v>
+        <v>1.42</v>
       </c>
       <c r="BN83">
-        <v>1.96</v>
+        <v>2.65</v>
       </c>
       <c r="BO83">
-        <v>2.23</v>
+        <v>1.7</v>
       </c>
       <c r="BP83">
-        <v>1.58</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="84" spans="1:68">
@@ -18114,7 +18123,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7295100</v>
+        <v>7295099</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -18129,25 +18138,25 @@
         <v>18</v>
       </c>
       <c r="G84" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H84" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84">
         <v>3</v>
@@ -18156,163 +18165,163 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="Q84">
-        <v>1.58</v>
+        <v>3.08</v>
       </c>
       <c r="R84">
-        <v>3.19</v>
+        <v>2.22</v>
       </c>
       <c r="S84">
-        <v>9.449999999999999</v>
+        <v>3.57</v>
       </c>
       <c r="T84">
-        <v>1.21</v>
+        <v>1.42</v>
       </c>
       <c r="U84">
-        <v>4.15</v>
+        <v>2.97</v>
       </c>
       <c r="V84">
-        <v>2.08</v>
+        <v>3.05</v>
       </c>
       <c r="W84">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="X84">
-        <v>4.15</v>
+        <v>7.6</v>
       </c>
       <c r="Y84">
-        <v>1.21</v>
+        <v>1.07</v>
       </c>
       <c r="Z84">
-        <v>1.21</v>
+        <v>2.36</v>
       </c>
       <c r="AA84">
-        <v>6.1</v>
+        <v>3.12</v>
       </c>
       <c r="AB84">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="AC84">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD84">
-        <v>31.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE84">
-        <v>1.08</v>
+        <v>1.3</v>
       </c>
       <c r="AF84">
-        <v>5.85</v>
+        <v>3.1</v>
       </c>
       <c r="AG84">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AH84">
-        <v>3</v>
+        <v>1.73</v>
       </c>
       <c r="AI84">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="AJ84">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="AK84">
-        <v>1.06</v>
+        <v>1.43</v>
       </c>
       <c r="AL84">
-        <v>1.11</v>
+        <v>1.36</v>
       </c>
       <c r="AM84">
-        <v>4.38</v>
+        <v>1.55</v>
       </c>
       <c r="AN84">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AO84">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="AP84">
-        <v>2.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ84">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="AR84">
-        <v>1.93</v>
+        <v>1.53</v>
       </c>
       <c r="AS84">
-        <v>0.9399999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AT84">
-        <v>2.87</v>
+        <v>2.68</v>
       </c>
       <c r="AU84">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW84">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AX84">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY84">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ84">
         <v>9</v>
       </c>
       <c r="BA84">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC84">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD84">
-        <v>1.05</v>
+        <v>1.71</v>
       </c>
       <c r="BE84">
-        <v>19</v>
+        <v>9.1</v>
       </c>
       <c r="BF84">
-        <v>11</v>
+        <v>2.51</v>
       </c>
       <c r="BG84">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="BH84">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="BI84">
-        <v>1.11</v>
+        <v>1.7</v>
       </c>
       <c r="BJ84">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="BK84">
-        <v>1.23</v>
+        <v>1.77</v>
       </c>
       <c r="BL84">
-        <v>3.56</v>
+        <v>1.95</v>
       </c>
       <c r="BM84">
-        <v>1.42</v>
+        <v>1.95</v>
       </c>
       <c r="BN84">
-        <v>2.65</v>
+        <v>1.77</v>
       </c>
       <c r="BO84">
-        <v>1.7</v>
+        <v>3.08</v>
       </c>
       <c r="BP84">
-        <v>2.05</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="85" spans="1:68">
@@ -18320,7 +18329,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7295099</v>
+        <v>7295113</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -18332,193 +18341,193 @@
         <v>45441.58333333334</v>
       </c>
       <c r="F85">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G85" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H85" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85">
         <v>2</v>
       </c>
       <c r="L85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O85" t="s">
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="Q85">
-        <v>3.08</v>
+        <v>1.57</v>
       </c>
       <c r="R85">
-        <v>2.22</v>
+        <v>2.95</v>
       </c>
       <c r="S85">
-        <v>3.57</v>
+        <v>7</v>
       </c>
       <c r="T85">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="U85">
-        <v>2.97</v>
+        <v>4.33</v>
       </c>
       <c r="V85">
-        <v>3.05</v>
+        <v>1.91</v>
       </c>
       <c r="W85">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="X85">
-        <v>7.6</v>
+        <v>3.92</v>
       </c>
       <c r="Y85">
-        <v>1.07</v>
+        <v>1.23</v>
       </c>
       <c r="Z85">
-        <v>2.36</v>
+        <v>1.22</v>
       </c>
       <c r="AA85">
-        <v>3.12</v>
+        <v>6</v>
       </c>
       <c r="AB85">
-        <v>2.8</v>
+        <v>8.6</v>
       </c>
       <c r="AC85">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD85">
-        <v>8.5</v>
+        <v>29</v>
       </c>
       <c r="AE85">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="AF85">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="AG85">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AH85">
-        <v>1.73</v>
+        <v>3</v>
       </c>
       <c r="AI85">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="AJ85">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="AK85">
-        <v>1.43</v>
+        <v>1.04</v>
       </c>
       <c r="AL85">
-        <v>1.36</v>
+        <v>1.1</v>
       </c>
       <c r="AM85">
-        <v>1.55</v>
+        <v>4.2</v>
       </c>
       <c r="AN85">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="AO85">
-        <v>2.6</v>
+        <v>0.2</v>
       </c>
       <c r="AP85">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
-        <v>2</v>
+        <v>0.43</v>
       </c>
       <c r="AR85">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AS85">
-        <v>1.15</v>
+        <v>1.37</v>
       </c>
       <c r="AT85">
-        <v>2.68</v>
+        <v>2.85</v>
       </c>
       <c r="AU85">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AV85">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW85">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX85">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AY85">
         <v>13</v>
       </c>
       <c r="AZ85">
+        <v>8</v>
+      </c>
+      <c r="BA85">
+        <v>4</v>
+      </c>
+      <c r="BB85">
+        <v>5</v>
+      </c>
+      <c r="BC85">
         <v>9</v>
       </c>
-      <c r="BA85">
-        <v>5</v>
-      </c>
-      <c r="BB85">
-        <v>6</v>
-      </c>
-      <c r="BC85">
-        <v>11</v>
-      </c>
       <c r="BD85">
-        <v>1.71</v>
+        <v>1.19</v>
       </c>
       <c r="BE85">
-        <v>9.1</v>
+        <v>13</v>
       </c>
       <c r="BF85">
-        <v>2.51</v>
+        <v>5.65</v>
       </c>
       <c r="BG85">
-        <v>1.24</v>
+        <v>1.11</v>
       </c>
       <c r="BH85">
-        <v>3.48</v>
+        <v>5.15</v>
       </c>
       <c r="BI85">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="BJ85">
-        <v>2.05</v>
+        <v>3.42</v>
       </c>
       <c r="BK85">
-        <v>1.77</v>
+        <v>1.46</v>
       </c>
       <c r="BL85">
-        <v>1.95</v>
+        <v>2.52</v>
       </c>
       <c r="BM85">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="BN85">
-        <v>1.77</v>
+        <v>1.96</v>
       </c>
       <c r="BO85">
-        <v>3.08</v>
+        <v>2.23</v>
       </c>
       <c r="BP85">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="86" spans="1:68">
@@ -18938,7 +18947,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7295046</v>
+        <v>7295044</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18953,190 +18962,190 @@
         <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H88" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N88">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O88" t="s">
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="Q88">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="R88">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="S88">
-        <v>3.99</v>
+        <v>4.75</v>
       </c>
       <c r="T88">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U88">
-        <v>3.23</v>
+        <v>3.3</v>
       </c>
       <c r="V88">
-        <v>2.78</v>
+        <v>2.55</v>
       </c>
       <c r="W88">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="X88">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="Y88">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="Z88">
-        <v>2.12</v>
+        <v>1.67</v>
       </c>
       <c r="AA88">
-        <v>3.23</v>
+        <v>3.63</v>
       </c>
       <c r="AB88">
-        <v>3.02</v>
+        <v>4.2</v>
       </c>
       <c r="AC88">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD88">
-        <v>9.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="AE88">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AF88">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="AG88">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AH88">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="AI88">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="AJ88">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AK88">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AL88">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AM88">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="AN88">
-        <v>0.6</v>
+        <v>1.75</v>
       </c>
       <c r="AO88">
-        <v>0.33</v>
+        <v>1.4</v>
       </c>
       <c r="AP88">
-        <v>0.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ88">
-        <v>0.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR88">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AS88">
-        <v>1.35</v>
+        <v>0.92</v>
       </c>
       <c r="AT88">
-        <v>2.86</v>
+        <v>2.46</v>
       </c>
       <c r="AU88">
+        <v>5</v>
+      </c>
+      <c r="AV88">
+        <v>4</v>
+      </c>
+      <c r="AW88">
+        <v>5</v>
+      </c>
+      <c r="AX88">
+        <v>4</v>
+      </c>
+      <c r="AY88">
+        <v>10</v>
+      </c>
+      <c r="AZ88">
+        <v>8</v>
+      </c>
+      <c r="BA88">
+        <v>13</v>
+      </c>
+      <c r="BB88">
+        <v>2</v>
+      </c>
+      <c r="BC88">
+        <v>15</v>
+      </c>
+      <c r="BD88">
+        <v>1.44</v>
+      </c>
+      <c r="BE88">
         <v>9</v>
       </c>
-      <c r="AV88">
-        <v>5</v>
-      </c>
-      <c r="AW88">
-        <v>6</v>
-      </c>
-      <c r="AX88">
-        <v>1</v>
-      </c>
-      <c r="AY88">
-        <v>15</v>
-      </c>
-      <c r="AZ88">
-        <v>6</v>
-      </c>
-      <c r="BA88">
-        <v>9</v>
-      </c>
-      <c r="BB88">
-        <v>2</v>
-      </c>
-      <c r="BC88">
-        <v>11</v>
-      </c>
-      <c r="BD88">
-        <v>1.62</v>
-      </c>
-      <c r="BE88">
-        <v>8.5</v>
-      </c>
       <c r="BF88">
-        <v>2.62</v>
+        <v>3.25</v>
       </c>
       <c r="BG88">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="BH88">
-        <v>3.74</v>
+        <v>5.3</v>
       </c>
       <c r="BI88">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="BJ88">
-        <v>2.65</v>
+        <v>3.55</v>
       </c>
       <c r="BK88">
-        <v>1.74</v>
+        <v>1.48</v>
       </c>
       <c r="BL88">
-        <v>2.02</v>
+        <v>2.55</v>
       </c>
       <c r="BM88">
         <v>1.95</v>
       </c>
       <c r="BN88">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="BO88">
-        <v>2.88</v>
+        <v>2.35</v>
       </c>
       <c r="BP88">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="89" spans="1:68">
@@ -19186,7 +19195,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19392,7 +19401,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q90">
         <v>2.7</v>
@@ -19470,7 +19479,7 @@
         <v>1.8</v>
       </c>
       <c r="AP90">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ90">
         <v>2</v>
@@ -19556,7 +19565,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>7295044</v>
+        <v>7295045</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
@@ -19571,190 +19580,190 @@
         <v>11</v>
       </c>
       <c r="G91" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H91" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M91">
         <v>1</v>
       </c>
       <c r="N91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O91" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Q91">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="R91">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="S91">
-        <v>4.75</v>
+        <v>2.06</v>
       </c>
       <c r="T91">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="U91">
-        <v>3.3</v>
+        <v>3.48</v>
       </c>
       <c r="V91">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="W91">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="X91">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="Y91">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="Z91">
-        <v>1.67</v>
+        <v>4.8</v>
       </c>
       <c r="AA91">
-        <v>3.63</v>
+        <v>4</v>
       </c>
       <c r="AB91">
-        <v>4.2</v>
+        <v>1.53</v>
       </c>
       <c r="AC91">
         <v>1.03</v>
       </c>
       <c r="AD91">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE91">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AF91">
-        <v>4.33</v>
+        <v>4.55</v>
       </c>
       <c r="AG91">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="AH91">
-        <v>2.01</v>
+        <v>2.34</v>
       </c>
       <c r="AI91">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="AJ91">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AK91">
-        <v>1.19</v>
+        <v>2.38</v>
       </c>
       <c r="AL91">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AM91">
-        <v>2.2</v>
+        <v>1.16</v>
       </c>
       <c r="AN91">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="AO91">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="AP91">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AQ91">
-        <v>1.33</v>
+        <v>2.57</v>
       </c>
       <c r="AR91">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="AS91">
-        <v>0.92</v>
+        <v>1.5</v>
       </c>
       <c r="AT91">
-        <v>2.46</v>
+        <v>2.87</v>
       </c>
       <c r="AU91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV91">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX91">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY91">
+        <v>7</v>
+      </c>
+      <c r="AZ91">
+        <v>14</v>
+      </c>
+      <c r="BA91">
+        <v>1</v>
+      </c>
+      <c r="BB91">
+        <v>9</v>
+      </c>
+      <c r="BC91">
         <v>10</v>
       </c>
-      <c r="AZ91">
-        <v>8</v>
-      </c>
-      <c r="BA91">
-        <v>13</v>
-      </c>
-      <c r="BB91">
-        <v>2</v>
-      </c>
-      <c r="BC91">
-        <v>15</v>
-      </c>
       <c r="BD91">
-        <v>1.44</v>
+        <v>3.1</v>
       </c>
       <c r="BE91">
         <v>9</v>
       </c>
       <c r="BF91">
-        <v>3.25</v>
+        <v>1.44</v>
       </c>
       <c r="BG91">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="BH91">
-        <v>5.3</v>
+        <v>4.33</v>
       </c>
       <c r="BI91">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="BJ91">
-        <v>3.55</v>
+        <v>2.93</v>
       </c>
       <c r="BK91">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="BL91">
-        <v>2.55</v>
+        <v>2.19</v>
       </c>
       <c r="BM91">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BN91">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="BO91">
-        <v>2.35</v>
+        <v>2.58</v>
       </c>
       <c r="BP91">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="92" spans="1:68">
@@ -19762,7 +19771,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7295045</v>
+        <v>7295046</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -19777,10 +19786,10 @@
         <v>11</v>
       </c>
       <c r="G92" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H92" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -19792,175 +19801,175 @@
         <v>0</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O92" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="Q92">
+        <v>2.75</v>
+      </c>
+      <c r="R92">
+        <v>2.33</v>
+      </c>
+      <c r="S92">
+        <v>3.99</v>
+      </c>
+      <c r="T92">
+        <v>1.36</v>
+      </c>
+      <c r="U92">
+        <v>3.23</v>
+      </c>
+      <c r="V92">
+        <v>2.78</v>
+      </c>
+      <c r="W92">
+        <v>1.46</v>
+      </c>
+      <c r="X92">
+        <v>6.6</v>
+      </c>
+      <c r="Y92">
+        <v>1.09</v>
+      </c>
+      <c r="Z92">
+        <v>2.12</v>
+      </c>
+      <c r="AA92">
+        <v>3.23</v>
+      </c>
+      <c r="AB92">
+        <v>3.02</v>
+      </c>
+      <c r="AC92">
+        <v>1.01</v>
+      </c>
+      <c r="AD92">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE92">
+        <v>1.24</v>
+      </c>
+      <c r="AF92">
+        <v>3.5</v>
+      </c>
+      <c r="AG92">
+        <v>1.8</v>
+      </c>
+      <c r="AH92">
+        <v>1.9</v>
+      </c>
+      <c r="AI92">
+        <v>1.67</v>
+      </c>
+      <c r="AJ92">
+        <v>2.1</v>
+      </c>
+      <c r="AK92">
+        <v>1.35</v>
+      </c>
+      <c r="AL92">
+        <v>1.26</v>
+      </c>
+      <c r="AM92">
+        <v>1.7</v>
+      </c>
+      <c r="AN92">
+        <v>0.6</v>
+      </c>
+      <c r="AO92">
+        <v>0.33</v>
+      </c>
+      <c r="AP92">
+        <v>0.67</v>
+      </c>
+      <c r="AQ92">
+        <v>0.43</v>
+      </c>
+      <c r="AR92">
+        <v>1.51</v>
+      </c>
+      <c r="AS92">
+        <v>1.35</v>
+      </c>
+      <c r="AT92">
+        <v>2.86</v>
+      </c>
+      <c r="AU92">
+        <v>9</v>
+      </c>
+      <c r="AV92">
         <v>5</v>
       </c>
-      <c r="R92">
-        <v>2.45</v>
-      </c>
-      <c r="S92">
-        <v>2.06</v>
-      </c>
-      <c r="T92">
-        <v>1.28</v>
-      </c>
-      <c r="U92">
-        <v>3.48</v>
-      </c>
-      <c r="V92">
-        <v>2.3</v>
-      </c>
-      <c r="W92">
-        <v>1.58</v>
-      </c>
-      <c r="X92">
-        <v>5.2</v>
-      </c>
-      <c r="Y92">
-        <v>1.14</v>
-      </c>
-      <c r="Z92">
-        <v>4.8</v>
-      </c>
-      <c r="AA92">
-        <v>4</v>
-      </c>
-      <c r="AB92">
-        <v>1.53</v>
-      </c>
-      <c r="AC92">
-        <v>1.03</v>
-      </c>
-      <c r="AD92">
+      <c r="AW92">
+        <v>6</v>
+      </c>
+      <c r="AX92">
+        <v>1</v>
+      </c>
+      <c r="AY92">
+        <v>15</v>
+      </c>
+      <c r="AZ92">
+        <v>6</v>
+      </c>
+      <c r="BA92">
+        <v>9</v>
+      </c>
+      <c r="BB92">
+        <v>2</v>
+      </c>
+      <c r="BC92">
         <v>11</v>
       </c>
-      <c r="AE92">
-        <v>1.14</v>
-      </c>
-      <c r="AF92">
-        <v>4.55</v>
-      </c>
-      <c r="AG92">
-        <v>1.53</v>
-      </c>
-      <c r="AH92">
-        <v>2.34</v>
-      </c>
-      <c r="AI92">
-        <v>1.63</v>
-      </c>
-      <c r="AJ92">
-        <v>2.19</v>
-      </c>
-      <c r="AK92">
-        <v>2.38</v>
-      </c>
-      <c r="AL92">
+      <c r="BD92">
+        <v>1.62</v>
+      </c>
+      <c r="BE92">
+        <v>8.5</v>
+      </c>
+      <c r="BF92">
+        <v>2.62</v>
+      </c>
+      <c r="BG92">
         <v>1.21</v>
       </c>
-      <c r="AM92">
-        <v>1.16</v>
-      </c>
-      <c r="AN92">
-        <v>1.2</v>
-      </c>
-      <c r="AO92">
-        <v>2.4</v>
-      </c>
-      <c r="AP92">
-        <v>1</v>
-      </c>
-      <c r="AQ92">
-        <v>2.5</v>
-      </c>
-      <c r="AR92">
-        <v>1.37</v>
-      </c>
-      <c r="AS92">
-        <v>1.5</v>
-      </c>
-      <c r="AT92">
-        <v>2.87</v>
-      </c>
-      <c r="AU92">
-        <v>4</v>
-      </c>
-      <c r="AV92">
-        <v>7</v>
-      </c>
-      <c r="AW92">
-        <v>3</v>
-      </c>
-      <c r="AX92">
-        <v>7</v>
-      </c>
-      <c r="AY92">
-        <v>7</v>
-      </c>
-      <c r="AZ92">
-        <v>14</v>
-      </c>
-      <c r="BA92">
-        <v>1</v>
-      </c>
-      <c r="BB92">
-        <v>9</v>
-      </c>
-      <c r="BC92">
-        <v>10</v>
-      </c>
-      <c r="BD92">
-        <v>3.1</v>
-      </c>
-      <c r="BE92">
-        <v>9</v>
-      </c>
-      <c r="BF92">
-        <v>1.44</v>
-      </c>
-      <c r="BG92">
-        <v>1.16</v>
-      </c>
       <c r="BH92">
-        <v>4.33</v>
+        <v>3.74</v>
       </c>
       <c r="BI92">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="BJ92">
-        <v>2.93</v>
+        <v>2.65</v>
       </c>
       <c r="BK92">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="BL92">
-        <v>2.19</v>
+        <v>2.02</v>
       </c>
       <c r="BM92">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BN92">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="BO92">
-        <v>2.58</v>
+        <v>2.88</v>
       </c>
       <c r="BP92">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="93" spans="1:68">
@@ -20579,6 +20588,830 @@
       </c>
       <c r="BP95">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7295053</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45471.58333333334</v>
+      </c>
+      <c r="F96">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>82</v>
+      </c>
+      <c r="H96" t="s">
+        <v>78</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96" t="s">
+        <v>156</v>
+      </c>
+      <c r="P96" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q96">
+        <v>4</v>
+      </c>
+      <c r="R96">
+        <v>2.63</v>
+      </c>
+      <c r="S96">
+        <v>2.2</v>
+      </c>
+      <c r="T96">
+        <v>1.22</v>
+      </c>
+      <c r="U96">
+        <v>4</v>
+      </c>
+      <c r="V96">
+        <v>2</v>
+      </c>
+      <c r="W96">
+        <v>1.73</v>
+      </c>
+      <c r="X96">
+        <v>4.33</v>
+      </c>
+      <c r="Y96">
+        <v>1.2</v>
+      </c>
+      <c r="Z96">
+        <v>4.6</v>
+      </c>
+      <c r="AA96">
+        <v>4.55</v>
+      </c>
+      <c r="AB96">
+        <v>1.62</v>
+      </c>
+      <c r="AC96">
+        <v>1.01</v>
+      </c>
+      <c r="AD96">
+        <v>26</v>
+      </c>
+      <c r="AE96">
+        <v>1.08</v>
+      </c>
+      <c r="AF96">
+        <v>6.15</v>
+      </c>
+      <c r="AG96">
+        <v>1.37</v>
+      </c>
+      <c r="AH96">
+        <v>2.76</v>
+      </c>
+      <c r="AI96">
+        <v>1.44</v>
+      </c>
+      <c r="AJ96">
+        <v>2.63</v>
+      </c>
+      <c r="AK96">
+        <v>2.06</v>
+      </c>
+      <c r="AL96">
+        <v>1.17</v>
+      </c>
+      <c r="AM96">
+        <v>1.18</v>
+      </c>
+      <c r="AN96">
+        <v>0.6</v>
+      </c>
+      <c r="AO96">
+        <v>2.5</v>
+      </c>
+      <c r="AP96">
+        <v>0.5</v>
+      </c>
+      <c r="AQ96">
+        <v>2.57</v>
+      </c>
+      <c r="AR96">
+        <v>1.75</v>
+      </c>
+      <c r="AS96">
+        <v>1.54</v>
+      </c>
+      <c r="AT96">
+        <v>3.29</v>
+      </c>
+      <c r="AU96">
+        <v>3</v>
+      </c>
+      <c r="AV96">
+        <v>4</v>
+      </c>
+      <c r="AW96">
+        <v>1</v>
+      </c>
+      <c r="AX96">
+        <v>4</v>
+      </c>
+      <c r="AY96">
+        <v>4</v>
+      </c>
+      <c r="AZ96">
+        <v>8</v>
+      </c>
+      <c r="BA96">
+        <v>6</v>
+      </c>
+      <c r="BB96">
+        <v>5</v>
+      </c>
+      <c r="BC96">
+        <v>11</v>
+      </c>
+      <c r="BD96">
+        <v>2.75</v>
+      </c>
+      <c r="BE96">
+        <v>8.5</v>
+      </c>
+      <c r="BF96">
+        <v>1.57</v>
+      </c>
+      <c r="BG96">
+        <v>1.12</v>
+      </c>
+      <c r="BH96">
+        <v>5.1</v>
+      </c>
+      <c r="BI96">
+        <v>1.3</v>
+      </c>
+      <c r="BJ96">
+        <v>3.3</v>
+      </c>
+      <c r="BK96">
+        <v>1.55</v>
+      </c>
+      <c r="BL96">
+        <v>2.38</v>
+      </c>
+      <c r="BM96">
+        <v>2</v>
+      </c>
+      <c r="BN96">
+        <v>1.8</v>
+      </c>
+      <c r="BO96">
+        <v>2.5</v>
+      </c>
+      <c r="BP96">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7295054</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45471.58333333334</v>
+      </c>
+      <c r="F97">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>70</v>
+      </c>
+      <c r="H97" t="s">
+        <v>79</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="O97" t="s">
+        <v>157</v>
+      </c>
+      <c r="P97" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q97">
+        <v>2.6</v>
+      </c>
+      <c r="R97">
+        <v>2.38</v>
+      </c>
+      <c r="S97">
+        <v>3.75</v>
+      </c>
+      <c r="T97">
+        <v>1.3</v>
+      </c>
+      <c r="U97">
+        <v>3.4</v>
+      </c>
+      <c r="V97">
+        <v>2.38</v>
+      </c>
+      <c r="W97">
+        <v>1.53</v>
+      </c>
+      <c r="X97">
+        <v>6</v>
+      </c>
+      <c r="Y97">
+        <v>1.13</v>
+      </c>
+      <c r="Z97">
+        <v>2.06</v>
+      </c>
+      <c r="AA97">
+        <v>3.78</v>
+      </c>
+      <c r="AB97">
+        <v>3.28</v>
+      </c>
+      <c r="AC97">
+        <v>1.01</v>
+      </c>
+      <c r="AD97">
+        <v>9.9</v>
+      </c>
+      <c r="AE97">
+        <v>1.16</v>
+      </c>
+      <c r="AF97">
+        <v>4.4</v>
+      </c>
+      <c r="AG97">
+        <v>1.54</v>
+      </c>
+      <c r="AH97">
+        <v>2.3</v>
+      </c>
+      <c r="AI97">
+        <v>1.53</v>
+      </c>
+      <c r="AJ97">
+        <v>2.38</v>
+      </c>
+      <c r="AK97">
+        <v>1.26</v>
+      </c>
+      <c r="AL97">
+        <v>1.21</v>
+      </c>
+      <c r="AM97">
+        <v>1.75</v>
+      </c>
+      <c r="AN97">
+        <v>0.83</v>
+      </c>
+      <c r="AO97">
+        <v>0.67</v>
+      </c>
+      <c r="AP97">
+        <v>0.86</v>
+      </c>
+      <c r="AQ97">
+        <v>0.71</v>
+      </c>
+      <c r="AR97">
+        <v>1.11</v>
+      </c>
+      <c r="AS97">
+        <v>0.97</v>
+      </c>
+      <c r="AT97">
+        <v>2.08</v>
+      </c>
+      <c r="AU97">
+        <v>6</v>
+      </c>
+      <c r="AV97">
+        <v>2</v>
+      </c>
+      <c r="AW97">
+        <v>8</v>
+      </c>
+      <c r="AX97">
+        <v>4</v>
+      </c>
+      <c r="AY97">
+        <v>14</v>
+      </c>
+      <c r="AZ97">
+        <v>6</v>
+      </c>
+      <c r="BA97">
+        <v>7</v>
+      </c>
+      <c r="BB97">
+        <v>2</v>
+      </c>
+      <c r="BC97">
+        <v>9</v>
+      </c>
+      <c r="BD97">
+        <v>1.62</v>
+      </c>
+      <c r="BE97">
+        <v>8.5</v>
+      </c>
+      <c r="BF97">
+        <v>2.6</v>
+      </c>
+      <c r="BG97">
+        <v>1.09</v>
+      </c>
+      <c r="BH97">
+        <v>5.75</v>
+      </c>
+      <c r="BI97">
+        <v>1.22</v>
+      </c>
+      <c r="BJ97">
+        <v>4.1</v>
+      </c>
+      <c r="BK97">
+        <v>1.38</v>
+      </c>
+      <c r="BL97">
+        <v>2.85</v>
+      </c>
+      <c r="BM97">
+        <v>1.7</v>
+      </c>
+      <c r="BN97">
+        <v>2.05</v>
+      </c>
+      <c r="BO97">
+        <v>2</v>
+      </c>
+      <c r="BP97">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7295052</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45471.58333333334</v>
+      </c>
+      <c r="F98">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>84</v>
+      </c>
+      <c r="H98" t="s">
+        <v>81</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98" t="s">
+        <v>87</v>
+      </c>
+      <c r="P98" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q98">
+        <v>1.8</v>
+      </c>
+      <c r="R98">
+        <v>2.75</v>
+      </c>
+      <c r="S98">
+        <v>6.5</v>
+      </c>
+      <c r="T98">
+        <v>1.22</v>
+      </c>
+      <c r="U98">
+        <v>4</v>
+      </c>
+      <c r="V98">
+        <v>2.1</v>
+      </c>
+      <c r="W98">
+        <v>1.67</v>
+      </c>
+      <c r="X98">
+        <v>4.5</v>
+      </c>
+      <c r="Y98">
+        <v>1.18</v>
+      </c>
+      <c r="Z98">
+        <v>1.36</v>
+      </c>
+      <c r="AA98">
+        <v>5.35</v>
+      </c>
+      <c r="AB98">
+        <v>7.6</v>
+      </c>
+      <c r="AC98">
+        <v>1.01</v>
+      </c>
+      <c r="AD98">
+        <v>26</v>
+      </c>
+      <c r="AE98">
+        <v>1.1</v>
+      </c>
+      <c r="AF98">
+        <v>5.45</v>
+      </c>
+      <c r="AG98">
+        <v>1.41</v>
+      </c>
+      <c r="AH98">
+        <v>2.62</v>
+      </c>
+      <c r="AI98">
+        <v>1.67</v>
+      </c>
+      <c r="AJ98">
+        <v>2.1</v>
+      </c>
+      <c r="AK98">
+        <v>1.06</v>
+      </c>
+      <c r="AL98">
+        <v>1.11</v>
+      </c>
+      <c r="AM98">
+        <v>2.87</v>
+      </c>
+      <c r="AN98">
+        <v>2.14</v>
+      </c>
+      <c r="AO98">
+        <v>1.5</v>
+      </c>
+      <c r="AP98">
+        <v>2</v>
+      </c>
+      <c r="AQ98">
+        <v>1.43</v>
+      </c>
+      <c r="AR98">
+        <v>1.97</v>
+      </c>
+      <c r="AS98">
+        <v>1.35</v>
+      </c>
+      <c r="AT98">
+        <v>3.32</v>
+      </c>
+      <c r="AU98">
+        <v>3</v>
+      </c>
+      <c r="AV98">
+        <v>5</v>
+      </c>
+      <c r="AW98">
+        <v>8</v>
+      </c>
+      <c r="AX98">
+        <v>5</v>
+      </c>
+      <c r="AY98">
+        <v>11</v>
+      </c>
+      <c r="AZ98">
+        <v>10</v>
+      </c>
+      <c r="BA98">
+        <v>9</v>
+      </c>
+      <c r="BB98">
+        <v>4</v>
+      </c>
+      <c r="BC98">
+        <v>13</v>
+      </c>
+      <c r="BD98">
+        <v>1.2</v>
+      </c>
+      <c r="BE98">
+        <v>11</v>
+      </c>
+      <c r="BF98">
+        <v>5</v>
+      </c>
+      <c r="BG98">
+        <v>1.1</v>
+      </c>
+      <c r="BH98">
+        <v>6.2</v>
+      </c>
+      <c r="BI98">
+        <v>1.2</v>
+      </c>
+      <c r="BJ98">
+        <v>4.3</v>
+      </c>
+      <c r="BK98">
+        <v>1.36</v>
+      </c>
+      <c r="BL98">
+        <v>3</v>
+      </c>
+      <c r="BM98">
+        <v>1.62</v>
+      </c>
+      <c r="BN98">
+        <v>2.2</v>
+      </c>
+      <c r="BO98">
+        <v>1.95</v>
+      </c>
+      <c r="BP98">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7295056</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45471.67708333334</v>
+      </c>
+      <c r="F99">
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>73</v>
+      </c>
+      <c r="H99" t="s">
+        <v>72</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>87</v>
+      </c>
+      <c r="P99" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q99">
+        <v>3.5</v>
+      </c>
+      <c r="R99">
+        <v>2.25</v>
+      </c>
+      <c r="S99">
+        <v>2.88</v>
+      </c>
+      <c r="T99">
+        <v>1.33</v>
+      </c>
+      <c r="U99">
+        <v>3.25</v>
+      </c>
+      <c r="V99">
+        <v>2.63</v>
+      </c>
+      <c r="W99">
+        <v>1.44</v>
+      </c>
+      <c r="X99">
+        <v>7</v>
+      </c>
+      <c r="Y99">
+        <v>1.1</v>
+      </c>
+      <c r="Z99">
+        <v>3</v>
+      </c>
+      <c r="AA99">
+        <v>3.4</v>
+      </c>
+      <c r="AB99">
+        <v>2.15</v>
+      </c>
+      <c r="AC99">
+        <v>1.04</v>
+      </c>
+      <c r="AD99">
+        <v>13</v>
+      </c>
+      <c r="AE99">
+        <v>1.24</v>
+      </c>
+      <c r="AF99">
+        <v>4.2</v>
+      </c>
+      <c r="AG99">
+        <v>1.7</v>
+      </c>
+      <c r="AH99">
+        <v>1.99</v>
+      </c>
+      <c r="AI99">
+        <v>1.62</v>
+      </c>
+      <c r="AJ99">
+        <v>2.2</v>
+      </c>
+      <c r="AK99">
+        <v>1.68</v>
+      </c>
+      <c r="AL99">
+        <v>1.25</v>
+      </c>
+      <c r="AM99">
+        <v>1.36</v>
+      </c>
+      <c r="AN99">
+        <v>1.29</v>
+      </c>
+      <c r="AO99">
+        <v>2</v>
+      </c>
+      <c r="AP99">
+        <v>1.13</v>
+      </c>
+      <c r="AQ99">
+        <v>2.17</v>
+      </c>
+      <c r="AR99">
+        <v>1.54</v>
+      </c>
+      <c r="AS99">
+        <v>1.53</v>
+      </c>
+      <c r="AT99">
+        <v>3.07</v>
+      </c>
+      <c r="AU99">
+        <v>3</v>
+      </c>
+      <c r="AV99">
+        <v>8</v>
+      </c>
+      <c r="AW99">
+        <v>2</v>
+      </c>
+      <c r="AX99">
+        <v>4</v>
+      </c>
+      <c r="AY99">
+        <v>5</v>
+      </c>
+      <c r="AZ99">
+        <v>12</v>
+      </c>
+      <c r="BA99">
+        <v>5</v>
+      </c>
+      <c r="BB99">
+        <v>0</v>
+      </c>
+      <c r="BC99">
+        <v>5</v>
+      </c>
+      <c r="BD99">
+        <v>2.1</v>
+      </c>
+      <c r="BE99">
+        <v>8</v>
+      </c>
+      <c r="BF99">
+        <v>1.91</v>
+      </c>
+      <c r="BG99">
+        <v>1.18</v>
+      </c>
+      <c r="BH99">
+        <v>4.5</v>
+      </c>
+      <c r="BI99">
+        <v>1.34</v>
+      </c>
+      <c r="BJ99">
+        <v>3.1</v>
+      </c>
+      <c r="BK99">
+        <v>1.61</v>
+      </c>
+      <c r="BL99">
+        <v>2.23</v>
+      </c>
+      <c r="BM99">
+        <v>1.95</v>
+      </c>
+      <c r="BN99">
+        <v>1.77</v>
+      </c>
+      <c r="BO99">
+        <v>2.7</v>
+      </c>
+      <c r="BP99">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="215">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,10 +397,10 @@
     <t>['12']</t>
   </si>
   <si>
-    <t>['4', '14', '41', '66']</t>
+    <t>['19', '21', '63', '74']</t>
   </si>
   <si>
-    <t>['19', '21', '63', '74']</t>
+    <t>['4', '14', '41', '66']</t>
   </si>
   <si>
     <t>['65']</t>
@@ -430,6 +430,9 @@
     <t>['41', '75']</t>
   </si>
   <si>
+    <t>['77', '90+5']</t>
+  </si>
+  <si>
     <t>['72']</t>
   </si>
   <si>
@@ -442,10 +445,10 @@
     <t>['49', '86']</t>
   </si>
   <si>
-    <t>['77', '90+5']</t>
+    <t>['36']</t>
   </si>
   <si>
-    <t>['36']</t>
+    <t>['45+6']</t>
   </si>
   <si>
     <t>['38', '90+9']</t>
@@ -454,16 +457,13 @@
     <t>['17', '34', '80']</t>
   </si>
   <si>
-    <t>['45+6']</t>
-  </si>
-  <si>
     <t>['51']</t>
   </si>
   <si>
     <t>['7', '74']</t>
   </si>
   <si>
-    <t>['15']</t>
+    <t>['66', '75', '89']</t>
   </si>
   <si>
     <t>['69', '75', '82']</t>
@@ -472,7 +472,7 @@
     <t>['67']</t>
   </si>
   <si>
-    <t>['66', '75', '89']</t>
+    <t>['15']</t>
   </si>
   <si>
     <t>['53']</t>
@@ -488,6 +488,9 @@
   </si>
   <si>
     <t>['69']</t>
+  </si>
+  <si>
+    <t>['19', '68', '73', '84']</t>
   </si>
   <si>
     <t>['39', '90+2']</t>
@@ -616,10 +619,10 @@
     <t>['45+1', '64']</t>
   </si>
   <si>
-    <t>['36', '63', '89']</t>
+    <t>['90+6']</t>
   </si>
   <si>
-    <t>['90+6']</t>
+    <t>['36', '63', '89']</t>
   </si>
   <si>
     <t>['60', '70', '72']</t>
@@ -631,13 +634,13 @@
     <t>['20', '46']</t>
   </si>
   <si>
+    <t>['68', '72', '81']</t>
+  </si>
+  <si>
     <t>['86']</t>
   </si>
   <si>
     <t>['20', '51']</t>
-  </si>
-  <si>
-    <t>['68', '72', '81']</t>
   </si>
   <si>
     <t>['9', '60']</t>
@@ -653,6 +656,9 @@
   </si>
   <si>
     <t>['33', '61']</t>
+  </si>
+  <si>
+    <t>['48', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP99"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1273,7 +1279,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1479,7 +1485,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1891,7 +1897,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2097,7 +2103,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2587,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>1.17</v>
@@ -3127,7 +3133,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3333,7 +3339,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -3620,7 +3626,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ13">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3951,7 +3957,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4157,7 +4163,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4363,7 +4369,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4569,7 +4575,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4647,7 +4653,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -4775,7 +4781,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -5187,7 +5193,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5599,7 +5605,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5805,7 +5811,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6217,7 +6223,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6423,7 +6429,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6629,7 +6635,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6835,7 +6841,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -7325,7 +7331,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>2</v>
@@ -7453,7 +7459,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7534,7 +7540,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR32">
         <v>0.59</v>
@@ -7865,7 +7871,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8071,7 +8077,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8277,7 +8283,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q36">
         <v>2.54</v>
@@ -8689,7 +8695,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -9513,7 +9519,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9800,7 +9806,7 @@
         <v>2</v>
       </c>
       <c r="AQ43">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR43">
         <v>1.98</v>
@@ -9925,7 +9931,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q44">
         <v>4.5</v>
@@ -10955,7 +10961,7 @@
         <v>87</v>
       </c>
       <c r="P49" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11239,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>0.25</v>
@@ -11367,7 +11373,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11448,7 +11454,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ51">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR51">
         <v>1.86</v>
@@ -11573,7 +11579,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -11985,7 +11991,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12191,7 +12197,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12809,7 +12815,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13015,7 +13021,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13221,7 +13227,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13385,7 +13391,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7295023</v>
+        <v>7295022</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13400,160 +13406,160 @@
         <v>8</v>
       </c>
       <c r="G61" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L61">
         <v>4</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O61" t="s">
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="Q61">
-        <v>2.7</v>
+        <v>1.64</v>
       </c>
       <c r="R61">
-        <v>2.1</v>
+        <v>3.02</v>
       </c>
       <c r="S61">
-        <v>3.7</v>
+        <v>8.67</v>
       </c>
       <c r="T61">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="U61">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="V61">
-        <v>2.75</v>
+        <v>2.16</v>
       </c>
       <c r="W61">
-        <v>1.4</v>
+        <v>1.71</v>
       </c>
       <c r="X61">
-        <v>6.7</v>
+        <v>4.3</v>
       </c>
       <c r="Y61">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="Z61">
-        <v>2.03</v>
+        <v>1.34</v>
       </c>
       <c r="AA61">
-        <v>3.63</v>
+        <v>5.48</v>
       </c>
       <c r="AB61">
-        <v>3.58</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="AC61">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AD61">
-        <v>9</v>
+        <v>26.5</v>
       </c>
       <c r="AE61">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="AF61">
-        <v>3.45</v>
+        <v>5.75</v>
       </c>
       <c r="AG61">
+        <v>1.44</v>
+      </c>
+      <c r="AH61">
+        <v>2.6</v>
+      </c>
+      <c r="AI61">
         <v>1.8</v>
       </c>
-      <c r="AH61">
-        <v>1.91</v>
-      </c>
-      <c r="AI61">
-        <v>1.7</v>
-      </c>
       <c r="AJ61">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AK61">
-        <v>1.3</v>
+        <v>1.07</v>
       </c>
       <c r="AL61">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AM61">
-        <v>1.73</v>
+        <v>3.91</v>
       </c>
       <c r="AN61">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="AO61">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
-        <v>1.43</v>
+        <v>0.25</v>
       </c>
       <c r="AR61">
-        <v>1.32</v>
+        <v>1.51</v>
       </c>
       <c r="AS61">
-        <v>1.33</v>
+        <v>1.12</v>
       </c>
       <c r="AT61">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="AU61">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV61">
         <v>3</v>
       </c>
       <c r="AW61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX61">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AY61">
         <v>10</v>
       </c>
       <c r="AZ61">
+        <v>8</v>
+      </c>
+      <c r="BA61">
+        <v>4</v>
+      </c>
+      <c r="BB61">
+        <v>7</v>
+      </c>
+      <c r="BC61">
         <v>11</v>
       </c>
-      <c r="BA61">
-        <v>8</v>
-      </c>
-      <c r="BB61">
-        <v>2</v>
-      </c>
-      <c r="BC61">
-        <v>10</v>
-      </c>
       <c r="BD61">
-        <v>1.73</v>
+        <v>1.14</v>
       </c>
       <c r="BE61">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="BF61">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="BG61">
         <v>1.18</v>
@@ -13562,16 +13568,16 @@
         <v>4.6</v>
       </c>
       <c r="BI61">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="BJ61">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="BK61">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="BL61">
-        <v>2.37</v>
+        <v>2.22</v>
       </c>
       <c r="BM61">
         <v>1.95</v>
@@ -13580,10 +13586,10 @@
         <v>1.77</v>
       </c>
       <c r="BO61">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="BP61">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="62" spans="1:68">
@@ -13591,7 +13597,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>7295022</v>
+        <v>7295023</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
@@ -13606,160 +13612,160 @@
         <v>8</v>
       </c>
       <c r="G62" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H62" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L62">
         <v>4</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O62" t="s">
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="Q62">
-        <v>1.64</v>
+        <v>2.7</v>
       </c>
       <c r="R62">
-        <v>3.02</v>
+        <v>2.1</v>
       </c>
       <c r="S62">
-        <v>8.67</v>
+        <v>3.7</v>
       </c>
       <c r="T62">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="U62">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="V62">
-        <v>2.16</v>
+        <v>2.75</v>
       </c>
       <c r="W62">
-        <v>1.71</v>
+        <v>1.4</v>
       </c>
       <c r="X62">
-        <v>4.3</v>
+        <v>6.7</v>
       </c>
       <c r="Y62">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="Z62">
-        <v>1.34</v>
+        <v>2.03</v>
       </c>
       <c r="AA62">
-        <v>5.48</v>
+        <v>3.63</v>
       </c>
       <c r="AB62">
-        <v>8.449999999999999</v>
+        <v>3.58</v>
       </c>
       <c r="AC62">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AD62">
-        <v>26.5</v>
+        <v>9</v>
       </c>
       <c r="AE62">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="AF62">
-        <v>5.75</v>
+        <v>3.45</v>
       </c>
       <c r="AG62">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="AH62">
-        <v>2.6</v>
+        <v>1.91</v>
       </c>
       <c r="AI62">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AJ62">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AK62">
-        <v>1.07</v>
+        <v>1.3</v>
       </c>
       <c r="AL62">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AM62">
-        <v>3.91</v>
+        <v>1.73</v>
       </c>
       <c r="AN62">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AO62">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ62">
-        <v>0.25</v>
+        <v>1.43</v>
       </c>
       <c r="AR62">
-        <v>1.51</v>
+        <v>1.32</v>
       </c>
       <c r="AS62">
-        <v>1.12</v>
+        <v>1.33</v>
       </c>
       <c r="AT62">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AU62">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV62">
         <v>3</v>
       </c>
       <c r="AW62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX62">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY62">
         <v>10</v>
       </c>
       <c r="AZ62">
+        <v>11</v>
+      </c>
+      <c r="BA62">
         <v>8</v>
       </c>
-      <c r="BA62">
-        <v>4</v>
-      </c>
       <c r="BB62">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BC62">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD62">
-        <v>1.14</v>
+        <v>1.73</v>
       </c>
       <c r="BE62">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="BF62">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="BG62">
         <v>1.18</v>
@@ -13768,16 +13774,16 @@
         <v>4.6</v>
       </c>
       <c r="BI62">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="BJ62">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="BK62">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="BL62">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="BM62">
         <v>1.95</v>
@@ -13786,10 +13792,10 @@
         <v>1.77</v>
       </c>
       <c r="BO62">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="BP62">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="63" spans="1:68">
@@ -13839,7 +13845,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -13917,7 +13923,7 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
         <v>2</v>
@@ -14045,7 +14051,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14457,7 +14463,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -14663,7 +14669,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -14869,7 +14875,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15693,7 +15699,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -15899,7 +15905,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16105,7 +16111,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16186,7 +16192,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ74">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR74">
         <v>1.59</v>
@@ -16311,7 +16317,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16681,7 +16687,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7295037</v>
+        <v>7295036</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -16696,88 +16702,88 @@
         <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H77" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
         <v>3</v>
-      </c>
-      <c r="N77">
-        <v>4</v>
       </c>
       <c r="O77" t="s">
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q77">
-        <v>2.62</v>
+        <v>3.6</v>
       </c>
       <c r="R77">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="S77">
-        <v>3.65</v>
+        <v>2.8</v>
       </c>
       <c r="T77">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="U77">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="V77">
-        <v>2.44</v>
+        <v>2.55</v>
       </c>
       <c r="W77">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X77">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="Y77">
         <v>1.12</v>
       </c>
       <c r="Z77">
-        <v>2.06</v>
+        <v>3.05</v>
       </c>
       <c r="AA77">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AB77">
-        <v>3.04</v>
+        <v>2.12</v>
       </c>
       <c r="AC77">
         <v>1.03</v>
       </c>
       <c r="AD77">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE77">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AF77">
-        <v>4.15</v>
+        <v>4.33</v>
       </c>
       <c r="AG77">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="AH77">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AI77">
         <v>1.58</v>
@@ -16786,100 +16792,100 @@
         <v>2.35</v>
       </c>
       <c r="AK77">
-        <v>1.36</v>
+        <v>1.7</v>
       </c>
       <c r="AL77">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM77">
-        <v>1.78</v>
+        <v>1.38</v>
       </c>
       <c r="AN77">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AO77">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="AP77">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ77">
-        <v>1.43</v>
+        <v>2</v>
       </c>
       <c r="AR77">
-        <v>1.56</v>
+        <v>1.07</v>
       </c>
       <c r="AS77">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="AT77">
-        <v>2.87</v>
+        <v>2.52</v>
       </c>
       <c r="AU77">
+        <v>5</v>
+      </c>
+      <c r="AV77">
+        <v>4</v>
+      </c>
+      <c r="AW77">
+        <v>6</v>
+      </c>
+      <c r="AX77">
+        <v>8</v>
+      </c>
+      <c r="AY77">
         <v>11</v>
       </c>
-      <c r="AV77">
+      <c r="AZ77">
+        <v>12</v>
+      </c>
+      <c r="BA77">
         <v>7</v>
       </c>
-      <c r="AW77">
-        <v>8</v>
-      </c>
-      <c r="AX77">
-        <v>4</v>
-      </c>
-      <c r="AY77">
-        <v>19</v>
-      </c>
-      <c r="AZ77">
+      <c r="BB77">
         <v>11</v>
       </c>
-      <c r="BA77">
-        <v>9</v>
-      </c>
-      <c r="BB77">
-        <v>12</v>
-      </c>
       <c r="BC77">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BD77">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="BE77">
         <v>8.5</v>
       </c>
       <c r="BF77">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="BG77">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="BH77">
-        <v>5.3</v>
+        <v>4.85</v>
       </c>
       <c r="BI77">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="BJ77">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="BK77">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="BL77">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="BM77">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="BN77">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="BO77">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="BP77">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="78" spans="1:68">
@@ -16887,7 +16893,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7295038</v>
+        <v>7295037</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16902,190 +16908,190 @@
         <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H78" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
         <v>3</v>
       </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
       <c r="N78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O78" t="s">
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="Q78">
-        <v>2</v>
+        <v>2.62</v>
       </c>
       <c r="R78">
-        <v>2.65</v>
+        <v>2.29</v>
       </c>
       <c r="S78">
-        <v>5</v>
+        <v>3.65</v>
       </c>
       <c r="T78">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="U78">
-        <v>4.2</v>
+        <v>3.28</v>
       </c>
       <c r="V78">
-        <v>2.15</v>
+        <v>2.44</v>
       </c>
       <c r="W78">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="X78">
-        <v>4.5</v>
+        <v>5.7</v>
       </c>
       <c r="Y78">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="Z78">
-        <v>1.52</v>
+        <v>2.06</v>
       </c>
       <c r="AA78">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="AB78">
-        <v>4.62</v>
+        <v>3.04</v>
       </c>
       <c r="AC78">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD78">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AE78">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AF78">
-        <v>6</v>
+        <v>4.15</v>
       </c>
       <c r="AG78">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="AH78">
-        <v>2.59</v>
+        <v>2.12</v>
       </c>
       <c r="AI78">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AJ78">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="AK78">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="AL78">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AM78">
+        <v>1.78</v>
+      </c>
+      <c r="AN78">
+        <v>0.75</v>
+      </c>
+      <c r="AO78">
+        <v>1.2</v>
+      </c>
+      <c r="AP78">
+        <v>0.5</v>
+      </c>
+      <c r="AQ78">
+        <v>1.43</v>
+      </c>
+      <c r="AR78">
+        <v>1.56</v>
+      </c>
+      <c r="AS78">
+        <v>1.31</v>
+      </c>
+      <c r="AT78">
+        <v>2.87</v>
+      </c>
+      <c r="AU78">
+        <v>11</v>
+      </c>
+      <c r="AV78">
+        <v>7</v>
+      </c>
+      <c r="AW78">
+        <v>8</v>
+      </c>
+      <c r="AX78">
+        <v>4</v>
+      </c>
+      <c r="AY78">
+        <v>19</v>
+      </c>
+      <c r="AZ78">
+        <v>11</v>
+      </c>
+      <c r="BA78">
+        <v>9</v>
+      </c>
+      <c r="BB78">
+        <v>12</v>
+      </c>
+      <c r="BC78">
+        <v>21</v>
+      </c>
+      <c r="BD78">
+        <v>1.67</v>
+      </c>
+      <c r="BE78">
+        <v>8.5</v>
+      </c>
+      <c r="BF78">
+        <v>2.5</v>
+      </c>
+      <c r="BG78">
+        <v>1.1</v>
+      </c>
+      <c r="BH78">
+        <v>5.3</v>
+      </c>
+      <c r="BI78">
+        <v>1.27</v>
+      </c>
+      <c r="BJ78">
+        <v>3.55</v>
+      </c>
+      <c r="BK78">
+        <v>1.48</v>
+      </c>
+      <c r="BL78">
         <v>2.55</v>
       </c>
-      <c r="AN78">
-        <v>1.6</v>
-      </c>
-      <c r="AO78">
-        <v>1</v>
-      </c>
-      <c r="AP78">
-        <v>1.83</v>
-      </c>
-      <c r="AQ78">
-        <v>1.13</v>
-      </c>
-      <c r="AR78">
-        <v>1.46</v>
-      </c>
-      <c r="AS78">
-        <v>1.29</v>
-      </c>
-      <c r="AT78">
-        <v>2.75</v>
-      </c>
-      <c r="AU78">
-        <v>9</v>
-      </c>
-      <c r="AV78">
-        <v>4</v>
-      </c>
-      <c r="AW78">
-        <v>6</v>
-      </c>
-      <c r="AX78">
-        <v>2</v>
-      </c>
-      <c r="AY78">
-        <v>15</v>
-      </c>
-      <c r="AZ78">
-        <v>6</v>
-      </c>
-      <c r="BA78">
-        <v>8</v>
-      </c>
-      <c r="BB78">
-        <v>6</v>
-      </c>
-      <c r="BC78">
-        <v>14</v>
-      </c>
-      <c r="BD78">
-        <v>1.3</v>
-      </c>
-      <c r="BE78">
-        <v>10</v>
-      </c>
-      <c r="BF78">
-        <v>4</v>
-      </c>
-      <c r="BG78">
-        <v>1.08</v>
-      </c>
-      <c r="BH78">
-        <v>6.8</v>
-      </c>
-      <c r="BI78">
-        <v>1.15</v>
-      </c>
-      <c r="BJ78">
-        <v>4.5</v>
-      </c>
-      <c r="BK78">
-        <v>1.3</v>
-      </c>
-      <c r="BL78">
-        <v>3.3</v>
-      </c>
       <c r="BM78">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="BN78">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="BO78">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="BP78">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -17093,7 +17099,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7295039</v>
+        <v>7295038</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17108,25 +17114,25 @@
         <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N79">
         <v>3</v>
@@ -17135,163 +17141,163 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q79">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="R79">
-        <v>2.2</v>
+        <v>2.65</v>
       </c>
       <c r="S79">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="T79">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="U79">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="V79">
+        <v>2.15</v>
+      </c>
+      <c r="W79">
+        <v>1.7</v>
+      </c>
+      <c r="X79">
+        <v>4.5</v>
+      </c>
+      <c r="Y79">
+        <v>1.19</v>
+      </c>
+      <c r="Z79">
+        <v>1.52</v>
+      </c>
+      <c r="AA79">
+        <v>4.75</v>
+      </c>
+      <c r="AB79">
+        <v>4.62</v>
+      </c>
+      <c r="AC79">
+        <v>1.01</v>
+      </c>
+      <c r="AD79">
+        <v>26</v>
+      </c>
+      <c r="AE79">
+        <v>1.14</v>
+      </c>
+      <c r="AF79">
+        <v>6</v>
+      </c>
+      <c r="AG79">
+        <v>1.44</v>
+      </c>
+      <c r="AH79">
+        <v>2.59</v>
+      </c>
+      <c r="AI79">
+        <v>1.53</v>
+      </c>
+      <c r="AJ79">
+        <v>2.45</v>
+      </c>
+      <c r="AK79">
+        <v>1.16</v>
+      </c>
+      <c r="AL79">
+        <v>1.15</v>
+      </c>
+      <c r="AM79">
+        <v>2.55</v>
+      </c>
+      <c r="AN79">
+        <v>1.6</v>
+      </c>
+      <c r="AO79">
+        <v>1</v>
+      </c>
+      <c r="AP79">
+        <v>2</v>
+      </c>
+      <c r="AQ79">
+        <v>1.13</v>
+      </c>
+      <c r="AR79">
+        <v>1.46</v>
+      </c>
+      <c r="AS79">
+        <v>1.29</v>
+      </c>
+      <c r="AT79">
         <v>2.75</v>
       </c>
-      <c r="W79">
-        <v>1.44</v>
-      </c>
-      <c r="X79">
-        <v>6.5</v>
-      </c>
-      <c r="Y79">
-        <v>1.1</v>
-      </c>
-      <c r="Z79">
-        <v>2.08</v>
-      </c>
-      <c r="AA79">
-        <v>3.4</v>
-      </c>
-      <c r="AB79">
-        <v>3.22</v>
-      </c>
-      <c r="AC79">
-        <v>1.04</v>
-      </c>
-      <c r="AD79">
-        <v>12</v>
-      </c>
-      <c r="AE79">
-        <v>1.28</v>
-      </c>
-      <c r="AF79">
-        <v>3.75</v>
-      </c>
-      <c r="AG79">
-        <v>1.8</v>
-      </c>
-      <c r="AH79">
-        <v>1.9</v>
-      </c>
-      <c r="AI79">
-        <v>1.68</v>
-      </c>
-      <c r="AJ79">
-        <v>2.15</v>
-      </c>
-      <c r="AK79">
-        <v>1.33</v>
-      </c>
-      <c r="AL79">
-        <v>1.26</v>
-      </c>
-      <c r="AM79">
-        <v>1.75</v>
-      </c>
-      <c r="AN79">
-        <v>0.75</v>
-      </c>
-      <c r="AO79">
-        <v>0.25</v>
-      </c>
-      <c r="AP79">
-        <v>1</v>
-      </c>
-      <c r="AQ79">
-        <v>0.43</v>
-      </c>
-      <c r="AR79">
-        <v>1.47</v>
-      </c>
-      <c r="AS79">
-        <v>1.34</v>
-      </c>
-      <c r="AT79">
-        <v>2.81</v>
-      </c>
       <c r="AU79">
+        <v>9</v>
+      </c>
+      <c r="AV79">
         <v>4</v>
       </c>
-      <c r="AV79">
+      <c r="AW79">
         <v>6</v>
       </c>
-      <c r="AW79">
-        <v>1</v>
-      </c>
       <c r="AX79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY79">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AZ79">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BA79">
+        <v>8</v>
+      </c>
+      <c r="BB79">
+        <v>6</v>
+      </c>
+      <c r="BC79">
         <v>14</v>
       </c>
-      <c r="BB79">
+      <c r="BD79">
+        <v>1.3</v>
+      </c>
+      <c r="BE79">
+        <v>10</v>
+      </c>
+      <c r="BF79">
         <v>4</v>
       </c>
-      <c r="BC79">
-        <v>18</v>
-      </c>
-      <c r="BD79">
-        <v>1.73</v>
-      </c>
-      <c r="BE79">
-        <v>8.5</v>
-      </c>
-      <c r="BF79">
-        <v>2.38</v>
-      </c>
       <c r="BG79">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="BH79">
-        <v>4.33</v>
+        <v>6.8</v>
       </c>
       <c r="BI79">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="BJ79">
-        <v>2.93</v>
+        <v>4.5</v>
       </c>
       <c r="BK79">
-        <v>1.56</v>
+        <v>1.3</v>
       </c>
       <c r="BL79">
-        <v>2.38</v>
+        <v>3.3</v>
       </c>
       <c r="BM79">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="BN79">
-        <v>1.77</v>
+        <v>2.05</v>
       </c>
       <c r="BO79">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="BP79">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="80" spans="1:68">
@@ -17299,7 +17305,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7295040</v>
+        <v>7295039</v>
       </c>
       <c r="C80" t="s">
         <v>68</v>
@@ -17314,19 +17320,19 @@
         <v>10</v>
       </c>
       <c r="G80" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H80" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80">
         <v>2</v>
@@ -17341,163 +17347,163 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
       <c r="Q80">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="R80">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="S80">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="T80">
+        <v>1.38</v>
+      </c>
+      <c r="U80">
+        <v>3.1</v>
+      </c>
+      <c r="V80">
+        <v>2.75</v>
+      </c>
+      <c r="W80">
+        <v>1.44</v>
+      </c>
+      <c r="X80">
+        <v>6.5</v>
+      </c>
+      <c r="Y80">
+        <v>1.1</v>
+      </c>
+      <c r="Z80">
+        <v>2.08</v>
+      </c>
+      <c r="AA80">
+        <v>3.4</v>
+      </c>
+      <c r="AB80">
+        <v>3.22</v>
+      </c>
+      <c r="AC80">
+        <v>1.04</v>
+      </c>
+      <c r="AD80">
+        <v>12</v>
+      </c>
+      <c r="AE80">
         <v>1.28</v>
       </c>
-      <c r="U80">
-        <v>3.4</v>
-      </c>
-      <c r="V80">
-        <v>2.3</v>
-      </c>
-      <c r="W80">
-        <v>1.55</v>
-      </c>
-      <c r="X80">
-        <v>5</v>
-      </c>
-      <c r="Y80">
-        <v>1.16</v>
-      </c>
-      <c r="Z80">
-        <v>1.5</v>
-      </c>
-      <c r="AA80">
-        <v>4.5</v>
-      </c>
-      <c r="AB80">
-        <v>5.1</v>
-      </c>
-      <c r="AC80">
-        <v>1.03</v>
-      </c>
-      <c r="AD80">
-        <v>11</v>
-      </c>
-      <c r="AE80">
-        <v>1.17</v>
-      </c>
       <c r="AF80">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="AG80">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
       <c r="AH80">
-        <v>2.36</v>
+        <v>1.9</v>
       </c>
       <c r="AI80">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="AJ80">
         <v>2.15</v>
       </c>
       <c r="AK80">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="AL80">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="AM80">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="AN80">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AO80">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AQ80">
-        <v>0.71</v>
+        <v>0.43</v>
       </c>
       <c r="AR80">
-        <v>1.14</v>
+        <v>1.47</v>
       </c>
       <c r="AS80">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="AT80">
-        <v>2.15</v>
+        <v>2.81</v>
       </c>
       <c r="AU80">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AV80">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW80">
+        <v>1</v>
+      </c>
+      <c r="AX80">
+        <v>5</v>
+      </c>
+      <c r="AY80">
+        <v>5</v>
+      </c>
+      <c r="AZ80">
         <v>11</v>
       </c>
-      <c r="AX80">
-        <v>1</v>
-      </c>
-      <c r="AY80">
-        <v>21</v>
-      </c>
-      <c r="AZ80">
+      <c r="BA80">
+        <v>14</v>
+      </c>
+      <c r="BB80">
         <v>4</v>
       </c>
-      <c r="BA80">
-        <v>17</v>
-      </c>
-      <c r="BB80">
-        <v>2</v>
-      </c>
       <c r="BC80">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD80">
+        <v>1.73</v>
+      </c>
+      <c r="BE80">
+        <v>8.5</v>
+      </c>
+      <c r="BF80">
+        <v>2.38</v>
+      </c>
+      <c r="BG80">
+        <v>1.16</v>
+      </c>
+      <c r="BH80">
+        <v>4.33</v>
+      </c>
+      <c r="BI80">
         <v>1.33</v>
       </c>
-      <c r="BE80">
-        <v>10</v>
-      </c>
-      <c r="BF80">
-        <v>3.75</v>
-      </c>
-      <c r="BG80">
-        <v>1.13</v>
-      </c>
-      <c r="BH80">
-        <v>4.85</v>
-      </c>
-      <c r="BI80">
-        <v>1.29</v>
-      </c>
       <c r="BJ80">
-        <v>3.45</v>
+        <v>2.93</v>
       </c>
       <c r="BK80">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="BL80">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="BM80">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="BN80">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="BO80">
-        <v>2.43</v>
+        <v>2.35</v>
       </c>
       <c r="BP80">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="81" spans="1:68">
@@ -17505,7 +17511,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7295036</v>
+        <v>7295040</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17520,19 +17526,19 @@
         <v>10</v>
       </c>
       <c r="G81" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H81" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81">
         <v>2</v>
@@ -17547,133 +17553,133 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="Q81">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="R81">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="S81">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="T81">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="U81">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="V81">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="W81">
+        <v>1.55</v>
+      </c>
+      <c r="X81">
+        <v>5</v>
+      </c>
+      <c r="Y81">
+        <v>1.16</v>
+      </c>
+      <c r="Z81">
         <v>1.5</v>
       </c>
-      <c r="X81">
-        <v>6</v>
-      </c>
-      <c r="Y81">
-        <v>1.12</v>
-      </c>
-      <c r="Z81">
-        <v>3.05</v>
-      </c>
       <c r="AA81">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="AB81">
-        <v>2.12</v>
+        <v>5.1</v>
       </c>
       <c r="AC81">
         <v>1.03</v>
       </c>
       <c r="AD81">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE81">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AF81">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AG81">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
       <c r="AH81">
-        <v>2.06</v>
+        <v>2.36</v>
       </c>
       <c r="AI81">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="AJ81">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="AK81">
-        <v>1.7</v>
+        <v>1.15</v>
       </c>
       <c r="AL81">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AM81">
-        <v>1.38</v>
+        <v>2.4</v>
       </c>
       <c r="AN81">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="AO81">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="AP81">
-        <v>0.86</v>
+        <v>1.67</v>
       </c>
       <c r="AQ81">
-        <v>2</v>
+        <v>0.71</v>
       </c>
       <c r="AR81">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="AS81">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="AT81">
-        <v>2.52</v>
+        <v>2.15</v>
       </c>
       <c r="AU81">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AV81">
+        <v>3</v>
+      </c>
+      <c r="AW81">
+        <v>11</v>
+      </c>
+      <c r="AX81">
+        <v>1</v>
+      </c>
+      <c r="AY81">
+        <v>21</v>
+      </c>
+      <c r="AZ81">
         <v>4</v>
       </c>
-      <c r="AW81">
-        <v>6</v>
-      </c>
-      <c r="AX81">
-        <v>8</v>
-      </c>
-      <c r="AY81">
-        <v>11</v>
-      </c>
-      <c r="AZ81">
-        <v>12</v>
-      </c>
       <c r="BA81">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="BB81">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="BC81">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD81">
-        <v>2.25</v>
+        <v>1.33</v>
       </c>
       <c r="BE81">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="BF81">
-        <v>1.83</v>
+        <v>3.75</v>
       </c>
       <c r="BG81">
         <v>1.13</v>
@@ -17688,10 +17694,10 @@
         <v>3.45</v>
       </c>
       <c r="BK81">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="BL81">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="BM81">
         <v>1.85</v>
@@ -17700,10 +17706,10 @@
         <v>1.85</v>
       </c>
       <c r="BO81">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="BP81">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="82" spans="1:68">
@@ -17753,7 +17759,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -17917,7 +17923,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>7295100</v>
+        <v>7295113</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -17929,85 +17935,85 @@
         <v>45441.58333333334</v>
       </c>
       <c r="F83">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H83" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M83">
         <v>1</v>
       </c>
       <c r="N83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O83" t="s">
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="Q83">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R83">
-        <v>3.19</v>
+        <v>2.95</v>
       </c>
       <c r="S83">
-        <v>9.449999999999999</v>
+        <v>7</v>
       </c>
       <c r="T83">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="U83">
-        <v>4.15</v>
+        <v>4.33</v>
       </c>
       <c r="V83">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="W83">
         <v>1.8</v>
       </c>
       <c r="X83">
-        <v>4.15</v>
+        <v>3.92</v>
       </c>
       <c r="Y83">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="Z83">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AA83">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB83">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC83">
         <v>1.01</v>
       </c>
       <c r="AD83">
-        <v>31.5</v>
+        <v>29</v>
       </c>
       <c r="AE83">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AF83">
-        <v>5.85</v>
+        <v>7</v>
       </c>
       <c r="AG83">
         <v>1.33</v>
@@ -18016,106 +18022,106 @@
         <v>3</v>
       </c>
       <c r="AI83">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AJ83">
         <v>1.93</v>
       </c>
       <c r="AK83">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AL83">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AM83">
-        <v>4.38</v>
+        <v>4.2</v>
       </c>
       <c r="AN83">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AO83">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AP83">
         <v>2</v>
       </c>
       <c r="AQ83">
-        <v>0.71</v>
+        <v>0.43</v>
       </c>
       <c r="AR83">
-        <v>1.93</v>
+        <v>1.48</v>
       </c>
       <c r="AS83">
-        <v>0.9399999999999999</v>
+        <v>1.37</v>
       </c>
       <c r="AT83">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="AU83">
+        <v>7</v>
+      </c>
+      <c r="AV83">
+        <v>6</v>
+      </c>
+      <c r="AW83">
+        <v>6</v>
+      </c>
+      <c r="AX83">
+        <v>2</v>
+      </c>
+      <c r="AY83">
+        <v>13</v>
+      </c>
+      <c r="AZ83">
         <v>8</v>
       </c>
-      <c r="AV83">
+      <c r="BA83">
         <v>4</v>
-      </c>
-      <c r="AW83">
-        <v>8</v>
-      </c>
-      <c r="AX83">
-        <v>5</v>
-      </c>
-      <c r="AY83">
-        <v>16</v>
-      </c>
-      <c r="AZ83">
-        <v>9</v>
-      </c>
-      <c r="BA83">
-        <v>7</v>
       </c>
       <c r="BB83">
         <v>5</v>
       </c>
       <c r="BC83">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD83">
-        <v>1.05</v>
+        <v>1.19</v>
       </c>
       <c r="BE83">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="BF83">
-        <v>11</v>
+        <v>5.65</v>
       </c>
       <c r="BG83">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="BH83">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="BI83">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="BJ83">
-        <v>5.25</v>
+        <v>3.42</v>
       </c>
       <c r="BK83">
-        <v>1.23</v>
+        <v>1.46</v>
       </c>
       <c r="BL83">
-        <v>3.56</v>
+        <v>2.52</v>
       </c>
       <c r="BM83">
-        <v>1.42</v>
+        <v>1.79</v>
       </c>
       <c r="BN83">
-        <v>2.65</v>
+        <v>1.96</v>
       </c>
       <c r="BO83">
-        <v>1.7</v>
+        <v>2.23</v>
       </c>
       <c r="BP83">
-        <v>2.05</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="84" spans="1:68">
@@ -18123,7 +18129,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7295099</v>
+        <v>7295100</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -18138,25 +18144,25 @@
         <v>18</v>
       </c>
       <c r="G84" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H84" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84">
         <v>3</v>
@@ -18165,163 +18171,163 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="Q84">
-        <v>3.08</v>
+        <v>1.58</v>
       </c>
       <c r="R84">
-        <v>2.22</v>
+        <v>3.19</v>
       </c>
       <c r="S84">
-        <v>3.57</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="T84">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="U84">
-        <v>2.97</v>
+        <v>4.15</v>
       </c>
       <c r="V84">
-        <v>3.05</v>
+        <v>2.08</v>
       </c>
       <c r="W84">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="X84">
-        <v>7.6</v>
+        <v>4.15</v>
       </c>
       <c r="Y84">
-        <v>1.07</v>
+        <v>1.21</v>
       </c>
       <c r="Z84">
-        <v>2.36</v>
+        <v>1.21</v>
       </c>
       <c r="AA84">
-        <v>3.12</v>
+        <v>6.1</v>
       </c>
       <c r="AB84">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="AC84">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD84">
-        <v>8.5</v>
+        <v>31.5</v>
       </c>
       <c r="AE84">
-        <v>1.3</v>
+        <v>1.08</v>
       </c>
       <c r="AF84">
-        <v>3.1</v>
+        <v>5.85</v>
       </c>
       <c r="AG84">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AH84">
-        <v>1.73</v>
+        <v>3</v>
       </c>
       <c r="AI84">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AJ84">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="AK84">
-        <v>1.43</v>
+        <v>1.06</v>
       </c>
       <c r="AL84">
-        <v>1.36</v>
+        <v>1.11</v>
       </c>
       <c r="AM84">
-        <v>1.55</v>
+        <v>4.38</v>
       </c>
       <c r="AN84">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AO84">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="AP84">
-        <v>1.13</v>
+        <v>2</v>
       </c>
       <c r="AQ84">
-        <v>2</v>
+        <v>0.71</v>
       </c>
       <c r="AR84">
-        <v>1.53</v>
+        <v>1.93</v>
       </c>
       <c r="AS84">
-        <v>1.15</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT84">
-        <v>2.68</v>
+        <v>2.87</v>
       </c>
       <c r="AU84">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW84">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AX84">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY84">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ84">
         <v>9</v>
       </c>
       <c r="BA84">
+        <v>7</v>
+      </c>
+      <c r="BB84">
         <v>5</v>
       </c>
-      <c r="BB84">
-        <v>6</v>
-      </c>
       <c r="BC84">
+        <v>12</v>
+      </c>
+      <c r="BD84">
+        <v>1.05</v>
+      </c>
+      <c r="BE84">
+        <v>19</v>
+      </c>
+      <c r="BF84">
         <v>11</v>
       </c>
-      <c r="BD84">
-        <v>1.71</v>
-      </c>
-      <c r="BE84">
-        <v>9.1</v>
-      </c>
-      <c r="BF84">
-        <v>2.51</v>
-      </c>
       <c r="BG84">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="BH84">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="BI84">
+        <v>1.11</v>
+      </c>
+      <c r="BJ84">
+        <v>5.25</v>
+      </c>
+      <c r="BK84">
+        <v>1.23</v>
+      </c>
+      <c r="BL84">
+        <v>3.56</v>
+      </c>
+      <c r="BM84">
+        <v>1.42</v>
+      </c>
+      <c r="BN84">
+        <v>2.65</v>
+      </c>
+      <c r="BO84">
         <v>1.7</v>
       </c>
-      <c r="BJ84">
+      <c r="BP84">
         <v>2.05</v>
-      </c>
-      <c r="BK84">
-        <v>1.77</v>
-      </c>
-      <c r="BL84">
-        <v>1.95</v>
-      </c>
-      <c r="BM84">
-        <v>1.95</v>
-      </c>
-      <c r="BN84">
-        <v>1.77</v>
-      </c>
-      <c r="BO84">
-        <v>3.08</v>
-      </c>
-      <c r="BP84">
-        <v>1.3</v>
       </c>
     </row>
     <row r="85" spans="1:68">
@@ -18329,7 +18335,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7295113</v>
+        <v>7295099</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -18341,193 +18347,193 @@
         <v>45441.58333333334</v>
       </c>
       <c r="F85">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G85" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H85" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85">
         <v>2</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O85" t="s">
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>182</v>
+        <v>87</v>
       </c>
       <c r="Q85">
-        <v>1.57</v>
+        <v>3.08</v>
       </c>
       <c r="R85">
-        <v>2.95</v>
+        <v>2.22</v>
       </c>
       <c r="S85">
+        <v>3.57</v>
+      </c>
+      <c r="T85">
+        <v>1.42</v>
+      </c>
+      <c r="U85">
+        <v>2.97</v>
+      </c>
+      <c r="V85">
+        <v>3.05</v>
+      </c>
+      <c r="W85">
+        <v>1.4</v>
+      </c>
+      <c r="X85">
+        <v>7.6</v>
+      </c>
+      <c r="Y85">
+        <v>1.07</v>
+      </c>
+      <c r="Z85">
+        <v>2.36</v>
+      </c>
+      <c r="AA85">
+        <v>3.12</v>
+      </c>
+      <c r="AB85">
+        <v>2.8</v>
+      </c>
+      <c r="AC85">
+        <v>1.02</v>
+      </c>
+      <c r="AD85">
+        <v>8.5</v>
+      </c>
+      <c r="AE85">
+        <v>1.3</v>
+      </c>
+      <c r="AF85">
+        <v>3.1</v>
+      </c>
+      <c r="AG85">
+        <v>2</v>
+      </c>
+      <c r="AH85">
+        <v>1.73</v>
+      </c>
+      <c r="AI85">
+        <v>1.79</v>
+      </c>
+      <c r="AJ85">
+        <v>2.06</v>
+      </c>
+      <c r="AK85">
+        <v>1.43</v>
+      </c>
+      <c r="AL85">
+        <v>1.36</v>
+      </c>
+      <c r="AM85">
+        <v>1.55</v>
+      </c>
+      <c r="AN85">
+        <v>1.2</v>
+      </c>
+      <c r="AO85">
+        <v>2.6</v>
+      </c>
+      <c r="AP85">
+        <v>1.13</v>
+      </c>
+      <c r="AQ85">
+        <v>2</v>
+      </c>
+      <c r="AR85">
+        <v>1.53</v>
+      </c>
+      <c r="AS85">
+        <v>1.15</v>
+      </c>
+      <c r="AT85">
+        <v>2.68</v>
+      </c>
+      <c r="AU85">
+        <v>11</v>
+      </c>
+      <c r="AV85">
+        <v>2</v>
+      </c>
+      <c r="AW85">
+        <v>2</v>
+      </c>
+      <c r="AX85">
         <v>7</v>
-      </c>
-      <c r="T85">
-        <v>1.18</v>
-      </c>
-      <c r="U85">
-        <v>4.33</v>
-      </c>
-      <c r="V85">
-        <v>1.91</v>
-      </c>
-      <c r="W85">
-        <v>1.8</v>
-      </c>
-      <c r="X85">
-        <v>3.92</v>
-      </c>
-      <c r="Y85">
-        <v>1.23</v>
-      </c>
-      <c r="Z85">
-        <v>1.22</v>
-      </c>
-      <c r="AA85">
-        <v>6</v>
-      </c>
-      <c r="AB85">
-        <v>8.6</v>
-      </c>
-      <c r="AC85">
-        <v>1.01</v>
-      </c>
-      <c r="AD85">
-        <v>29</v>
-      </c>
-      <c r="AE85">
-        <v>1.09</v>
-      </c>
-      <c r="AF85">
-        <v>7</v>
-      </c>
-      <c r="AG85">
-        <v>1.33</v>
-      </c>
-      <c r="AH85">
-        <v>3</v>
-      </c>
-      <c r="AI85">
-        <v>1.75</v>
-      </c>
-      <c r="AJ85">
-        <v>1.93</v>
-      </c>
-      <c r="AK85">
-        <v>1.04</v>
-      </c>
-      <c r="AL85">
-        <v>1.1</v>
-      </c>
-      <c r="AM85">
-        <v>4.2</v>
-      </c>
-      <c r="AN85">
-        <v>2.2</v>
-      </c>
-      <c r="AO85">
-        <v>0.2</v>
-      </c>
-      <c r="AP85">
-        <v>2</v>
-      </c>
-      <c r="AQ85">
-        <v>0.43</v>
-      </c>
-      <c r="AR85">
-        <v>1.48</v>
-      </c>
-      <c r="AS85">
-        <v>1.37</v>
-      </c>
-      <c r="AT85">
-        <v>2.85</v>
-      </c>
-      <c r="AU85">
-        <v>7</v>
-      </c>
-      <c r="AV85">
-        <v>6</v>
-      </c>
-      <c r="AW85">
-        <v>6</v>
-      </c>
-      <c r="AX85">
-        <v>2</v>
       </c>
       <c r="AY85">
         <v>13</v>
       </c>
       <c r="AZ85">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA85">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB85">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC85">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD85">
-        <v>1.19</v>
+        <v>1.71</v>
       </c>
       <c r="BE85">
-        <v>13</v>
+        <v>9.1</v>
       </c>
       <c r="BF85">
-        <v>5.65</v>
+        <v>2.51</v>
       </c>
       <c r="BG85">
-        <v>1.11</v>
+        <v>1.24</v>
       </c>
       <c r="BH85">
-        <v>5.15</v>
+        <v>3.48</v>
       </c>
       <c r="BI85">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="BJ85">
-        <v>3.42</v>
+        <v>2.05</v>
       </c>
       <c r="BK85">
-        <v>1.46</v>
+        <v>1.77</v>
       </c>
       <c r="BL85">
-        <v>2.52</v>
+        <v>1.95</v>
       </c>
       <c r="BM85">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="BN85">
-        <v>1.96</v>
+        <v>1.77</v>
       </c>
       <c r="BO85">
-        <v>2.23</v>
+        <v>3.08</v>
       </c>
       <c r="BP85">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="86" spans="1:68">
@@ -18577,7 +18583,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -18783,7 +18789,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -18947,7 +18953,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7295044</v>
+        <v>7295046</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18962,190 +18968,190 @@
         <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H88" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N88">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O88" t="s">
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>108</v>
+        <v>206</v>
       </c>
       <c r="Q88">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="R88">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="S88">
-        <v>4.75</v>
+        <v>3.99</v>
       </c>
       <c r="T88">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U88">
-        <v>3.3</v>
+        <v>3.23</v>
       </c>
       <c r="V88">
-        <v>2.55</v>
+        <v>2.78</v>
       </c>
       <c r="W88">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="X88">
+        <v>6.6</v>
+      </c>
+      <c r="Y88">
+        <v>1.09</v>
+      </c>
+      <c r="Z88">
+        <v>2.12</v>
+      </c>
+      <c r="AA88">
+        <v>3.23</v>
+      </c>
+      <c r="AB88">
+        <v>3.02</v>
+      </c>
+      <c r="AC88">
+        <v>1.01</v>
+      </c>
+      <c r="AD88">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE88">
+        <v>1.24</v>
+      </c>
+      <c r="AF88">
+        <v>3.5</v>
+      </c>
+      <c r="AG88">
+        <v>1.8</v>
+      </c>
+      <c r="AH88">
+        <v>1.9</v>
+      </c>
+      <c r="AI88">
+        <v>1.67</v>
+      </c>
+      <c r="AJ88">
+        <v>2.1</v>
+      </c>
+      <c r="AK88">
+        <v>1.35</v>
+      </c>
+      <c r="AL88">
+        <v>1.26</v>
+      </c>
+      <c r="AM88">
+        <v>1.7</v>
+      </c>
+      <c r="AN88">
+        <v>0.6</v>
+      </c>
+      <c r="AO88">
+        <v>0.33</v>
+      </c>
+      <c r="AP88">
+        <v>0.67</v>
+      </c>
+      <c r="AQ88">
+        <v>0.43</v>
+      </c>
+      <c r="AR88">
+        <v>1.51</v>
+      </c>
+      <c r="AS88">
+        <v>1.35</v>
+      </c>
+      <c r="AT88">
+        <v>2.86</v>
+      </c>
+      <c r="AU88">
+        <v>9</v>
+      </c>
+      <c r="AV88">
+        <v>5</v>
+      </c>
+      <c r="AW88">
         <v>6</v>
       </c>
-      <c r="Y88">
-        <v>1.12</v>
-      </c>
-      <c r="Z88">
-        <v>1.67</v>
-      </c>
-      <c r="AA88">
-        <v>3.63</v>
-      </c>
-      <c r="AB88">
-        <v>4.2</v>
-      </c>
-      <c r="AC88">
-        <v>1.03</v>
-      </c>
-      <c r="AD88">
+      <c r="AX88">
+        <v>1</v>
+      </c>
+      <c r="AY88">
         <v>15</v>
       </c>
-      <c r="AE88">
-        <v>1.22</v>
-      </c>
-      <c r="AF88">
-        <v>4.33</v>
-      </c>
-      <c r="AG88">
-        <v>1.81</v>
-      </c>
-      <c r="AH88">
-        <v>2.01</v>
-      </c>
-      <c r="AI88">
-        <v>1.68</v>
-      </c>
-      <c r="AJ88">
-        <v>2.15</v>
-      </c>
-      <c r="AK88">
-        <v>1.19</v>
-      </c>
-      <c r="AL88">
-        <v>1.22</v>
-      </c>
-      <c r="AM88">
-        <v>2.2</v>
-      </c>
-      <c r="AN88">
-        <v>1.75</v>
-      </c>
-      <c r="AO88">
-        <v>1.4</v>
-      </c>
-      <c r="AP88">
-        <v>1.6</v>
-      </c>
-      <c r="AQ88">
-        <v>1.33</v>
-      </c>
-      <c r="AR88">
-        <v>1.54</v>
-      </c>
-      <c r="AS88">
-        <v>0.92</v>
-      </c>
-      <c r="AT88">
-        <v>2.46</v>
-      </c>
-      <c r="AU88">
-        <v>5</v>
-      </c>
-      <c r="AV88">
-        <v>4</v>
-      </c>
-      <c r="AW88">
-        <v>5</v>
-      </c>
-      <c r="AX88">
-        <v>4</v>
-      </c>
-      <c r="AY88">
-        <v>10</v>
-      </c>
       <c r="AZ88">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA88">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BB88">
         <v>2</v>
       </c>
       <c r="BC88">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BD88">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="BE88">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF88">
-        <v>3.25</v>
+        <v>2.62</v>
       </c>
       <c r="BG88">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="BH88">
-        <v>5.3</v>
+        <v>3.74</v>
       </c>
       <c r="BI88">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="BJ88">
-        <v>3.55</v>
+        <v>2.65</v>
       </c>
       <c r="BK88">
-        <v>1.48</v>
+        <v>1.74</v>
       </c>
       <c r="BL88">
-        <v>2.55</v>
+        <v>2.02</v>
       </c>
       <c r="BM88">
         <v>1.95</v>
       </c>
       <c r="BN88">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="BO88">
-        <v>2.35</v>
+        <v>2.88</v>
       </c>
       <c r="BP88">
-        <v>1.55</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="89" spans="1:68">
@@ -19195,7 +19201,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19401,7 +19407,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q90">
         <v>2.7</v>
@@ -19565,7 +19571,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>7295045</v>
+        <v>7295044</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
@@ -19580,190 +19586,190 @@
         <v>11</v>
       </c>
       <c r="G91" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H91" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91">
         <v>1</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O91" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Q91">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="R91">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="S91">
-        <v>2.06</v>
+        <v>4.75</v>
       </c>
       <c r="T91">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="U91">
-        <v>3.48</v>
+        <v>3.3</v>
       </c>
       <c r="V91">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="W91">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="X91">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="Y91">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="Z91">
-        <v>4.8</v>
+        <v>1.67</v>
       </c>
       <c r="AA91">
-        <v>4</v>
+        <v>3.63</v>
       </c>
       <c r="AB91">
-        <v>1.53</v>
+        <v>4.2</v>
       </c>
       <c r="AC91">
         <v>1.03</v>
       </c>
       <c r="AD91">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE91">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AF91">
-        <v>4.55</v>
+        <v>4.33</v>
       </c>
       <c r="AG91">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AH91">
-        <v>2.34</v>
+        <v>2.01</v>
       </c>
       <c r="AI91">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="AJ91">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="AK91">
-        <v>2.38</v>
+        <v>1.19</v>
       </c>
       <c r="AL91">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AM91">
-        <v>1.16</v>
+        <v>2.2</v>
       </c>
       <c r="AN91">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="AO91">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AQ91">
-        <v>2.57</v>
+        <v>1.33</v>
       </c>
       <c r="AR91">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="AS91">
-        <v>1.5</v>
+        <v>0.92</v>
       </c>
       <c r="AT91">
-        <v>2.87</v>
+        <v>2.46</v>
       </c>
       <c r="AU91">
+        <v>5</v>
+      </c>
+      <c r="AV91">
         <v>4</v>
       </c>
-      <c r="AV91">
-        <v>7</v>
-      </c>
       <c r="AW91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX91">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AY91">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ91">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BA91">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="BB91">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BC91">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BD91">
-        <v>3.1</v>
+        <v>1.44</v>
       </c>
       <c r="BE91">
         <v>9</v>
       </c>
       <c r="BF91">
-        <v>1.44</v>
+        <v>3.25</v>
       </c>
       <c r="BG91">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="BH91">
-        <v>4.33</v>
+        <v>5.3</v>
       </c>
       <c r="BI91">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="BJ91">
-        <v>2.93</v>
+        <v>3.55</v>
       </c>
       <c r="BK91">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="BL91">
-        <v>2.19</v>
+        <v>2.55</v>
       </c>
       <c r="BM91">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BN91">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="BO91">
-        <v>2.58</v>
+        <v>2.35</v>
       </c>
       <c r="BP91">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="92" spans="1:68">
@@ -19771,7 +19777,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7295046</v>
+        <v>7295045</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -19786,10 +19792,10 @@
         <v>11</v>
       </c>
       <c r="G92" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H92" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -19801,175 +19807,175 @@
         <v>0</v>
       </c>
       <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92" t="s">
+        <v>87</v>
+      </c>
+      <c r="P92" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q92">
+        <v>5</v>
+      </c>
+      <c r="R92">
+        <v>2.45</v>
+      </c>
+      <c r="S92">
+        <v>2.06</v>
+      </c>
+      <c r="T92">
+        <v>1.28</v>
+      </c>
+      <c r="U92">
+        <v>3.48</v>
+      </c>
+      <c r="V92">
+        <v>2.3</v>
+      </c>
+      <c r="W92">
+        <v>1.58</v>
+      </c>
+      <c r="X92">
+        <v>5.2</v>
+      </c>
+      <c r="Y92">
+        <v>1.14</v>
+      </c>
+      <c r="Z92">
+        <v>4.8</v>
+      </c>
+      <c r="AA92">
+        <v>4</v>
+      </c>
+      <c r="AB92">
+        <v>1.53</v>
+      </c>
+      <c r="AC92">
+        <v>1.03</v>
+      </c>
+      <c r="AD92">
+        <v>11</v>
+      </c>
+      <c r="AE92">
+        <v>1.14</v>
+      </c>
+      <c r="AF92">
+        <v>4.55</v>
+      </c>
+      <c r="AG92">
+        <v>1.53</v>
+      </c>
+      <c r="AH92">
+        <v>2.34</v>
+      </c>
+      <c r="AI92">
+        <v>1.63</v>
+      </c>
+      <c r="AJ92">
+        <v>2.19</v>
+      </c>
+      <c r="AK92">
+        <v>2.38</v>
+      </c>
+      <c r="AL92">
+        <v>1.21</v>
+      </c>
+      <c r="AM92">
+        <v>1.16</v>
+      </c>
+      <c r="AN92">
+        <v>1.2</v>
+      </c>
+      <c r="AO92">
+        <v>2.4</v>
+      </c>
+      <c r="AP92">
+        <v>1</v>
+      </c>
+      <c r="AQ92">
+        <v>2.57</v>
+      </c>
+      <c r="AR92">
+        <v>1.37</v>
+      </c>
+      <c r="AS92">
+        <v>1.5</v>
+      </c>
+      <c r="AT92">
+        <v>2.87</v>
+      </c>
+      <c r="AU92">
+        <v>4</v>
+      </c>
+      <c r="AV92">
+        <v>7</v>
+      </c>
+      <c r="AW92">
         <v>3</v>
       </c>
-      <c r="M92">
-        <v>3</v>
-      </c>
-      <c r="N92">
-        <v>6</v>
-      </c>
-      <c r="O92" t="s">
-        <v>152</v>
-      </c>
-      <c r="P92" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q92">
-        <v>2.75</v>
-      </c>
-      <c r="R92">
-        <v>2.33</v>
-      </c>
-      <c r="S92">
-        <v>3.99</v>
-      </c>
-      <c r="T92">
-        <v>1.36</v>
-      </c>
-      <c r="U92">
-        <v>3.23</v>
-      </c>
-      <c r="V92">
-        <v>2.78</v>
-      </c>
-      <c r="W92">
-        <v>1.46</v>
-      </c>
-      <c r="X92">
-        <v>6.6</v>
-      </c>
-      <c r="Y92">
-        <v>1.09</v>
-      </c>
-      <c r="Z92">
-        <v>2.12</v>
-      </c>
-      <c r="AA92">
-        <v>3.23</v>
-      </c>
-      <c r="AB92">
-        <v>3.02</v>
-      </c>
-      <c r="AC92">
-        <v>1.01</v>
-      </c>
-      <c r="AD92">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE92">
-        <v>1.24</v>
-      </c>
-      <c r="AF92">
-        <v>3.5</v>
-      </c>
-      <c r="AG92">
-        <v>1.8</v>
-      </c>
-      <c r="AH92">
-        <v>1.9</v>
-      </c>
-      <c r="AI92">
-        <v>1.67</v>
-      </c>
-      <c r="AJ92">
-        <v>2.1</v>
-      </c>
-      <c r="AK92">
-        <v>1.35</v>
-      </c>
-      <c r="AL92">
-        <v>1.26</v>
-      </c>
-      <c r="AM92">
-        <v>1.7</v>
-      </c>
-      <c r="AN92">
-        <v>0.6</v>
-      </c>
-      <c r="AO92">
-        <v>0.33</v>
-      </c>
-      <c r="AP92">
-        <v>0.67</v>
-      </c>
-      <c r="AQ92">
-        <v>0.43</v>
-      </c>
-      <c r="AR92">
-        <v>1.51</v>
-      </c>
-      <c r="AS92">
-        <v>1.35</v>
-      </c>
-      <c r="AT92">
-        <v>2.86</v>
-      </c>
-      <c r="AU92">
+      <c r="AX92">
+        <v>7</v>
+      </c>
+      <c r="AY92">
+        <v>7</v>
+      </c>
+      <c r="AZ92">
+        <v>14</v>
+      </c>
+      <c r="BA92">
+        <v>1</v>
+      </c>
+      <c r="BB92">
         <v>9</v>
       </c>
-      <c r="AV92">
-        <v>5</v>
-      </c>
-      <c r="AW92">
-        <v>6</v>
-      </c>
-      <c r="AX92">
-        <v>1</v>
-      </c>
-      <c r="AY92">
-        <v>15</v>
-      </c>
-      <c r="AZ92">
-        <v>6</v>
-      </c>
-      <c r="BA92">
+      <c r="BC92">
+        <v>10</v>
+      </c>
+      <c r="BD92">
+        <v>3.1</v>
+      </c>
+      <c r="BE92">
         <v>9</v>
       </c>
-      <c r="BB92">
-        <v>2</v>
-      </c>
-      <c r="BC92">
-        <v>11</v>
-      </c>
-      <c r="BD92">
-        <v>1.62</v>
-      </c>
-      <c r="BE92">
-        <v>8.5</v>
-      </c>
       <c r="BF92">
-        <v>2.62</v>
+        <v>1.44</v>
       </c>
       <c r="BG92">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="BH92">
-        <v>3.74</v>
+        <v>4.33</v>
       </c>
       <c r="BI92">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="BJ92">
-        <v>2.65</v>
+        <v>2.93</v>
       </c>
       <c r="BK92">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="BL92">
-        <v>2.02</v>
+        <v>2.19</v>
       </c>
       <c r="BM92">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BN92">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="BO92">
-        <v>2.88</v>
+        <v>2.58</v>
       </c>
       <c r="BP92">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="93" spans="1:68">
@@ -20019,7 +20025,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q93">
         <v>2.79</v>
@@ -20225,7 +20231,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20431,7 +20437,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20637,7 +20643,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -20843,7 +20849,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21255,7 +21261,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21412,6 +21418,212 @@
       </c>
       <c r="BP99">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7295057</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45473.41666666666</v>
+      </c>
+      <c r="F100">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>76</v>
+      </c>
+      <c r="H100" t="s">
+        <v>75</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>4</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100">
+        <v>6</v>
+      </c>
+      <c r="O100" t="s">
+        <v>158</v>
+      </c>
+      <c r="P100" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q100">
+        <v>2.1</v>
+      </c>
+      <c r="R100">
+        <v>2.6</v>
+      </c>
+      <c r="S100">
+        <v>4.75</v>
+      </c>
+      <c r="T100">
+        <v>1.22</v>
+      </c>
+      <c r="U100">
+        <v>4</v>
+      </c>
+      <c r="V100">
+        <v>2.1</v>
+      </c>
+      <c r="W100">
+        <v>1.67</v>
+      </c>
+      <c r="X100">
+        <v>4.5</v>
+      </c>
+      <c r="Y100">
+        <v>1.18</v>
+      </c>
+      <c r="Z100">
+        <v>1.55</v>
+      </c>
+      <c r="AA100">
+        <v>4.35</v>
+      </c>
+      <c r="AB100">
+        <v>4.65</v>
+      </c>
+      <c r="AC100">
+        <v>1.01</v>
+      </c>
+      <c r="AD100">
+        <v>23</v>
+      </c>
+      <c r="AE100">
+        <v>1.1</v>
+      </c>
+      <c r="AF100">
+        <v>5.45</v>
+      </c>
+      <c r="AG100">
+        <v>1.42</v>
+      </c>
+      <c r="AH100">
+        <v>2.65</v>
+      </c>
+      <c r="AI100">
+        <v>1.5</v>
+      </c>
+      <c r="AJ100">
+        <v>2.5</v>
+      </c>
+      <c r="AK100">
+        <v>1.2</v>
+      </c>
+      <c r="AL100">
+        <v>1.17</v>
+      </c>
+      <c r="AM100">
+        <v>2.35</v>
+      </c>
+      <c r="AN100">
+        <v>1.83</v>
+      </c>
+      <c r="AO100">
+        <v>0.8</v>
+      </c>
+      <c r="AP100">
+        <v>2</v>
+      </c>
+      <c r="AQ100">
+        <v>0.67</v>
+      </c>
+      <c r="AR100">
+        <v>1.55</v>
+      </c>
+      <c r="AS100">
+        <v>1.17</v>
+      </c>
+      <c r="AT100">
+        <v>2.72</v>
+      </c>
+      <c r="AU100">
+        <v>-1</v>
+      </c>
+      <c r="AV100">
+        <v>-1</v>
+      </c>
+      <c r="AW100">
+        <v>-1</v>
+      </c>
+      <c r="AX100">
+        <v>-1</v>
+      </c>
+      <c r="AY100">
+        <v>-1</v>
+      </c>
+      <c r="AZ100">
+        <v>-1</v>
+      </c>
+      <c r="BA100">
+        <v>-1</v>
+      </c>
+      <c r="BB100">
+        <v>-1</v>
+      </c>
+      <c r="BC100">
+        <v>-1</v>
+      </c>
+      <c r="BD100">
+        <v>1.5</v>
+      </c>
+      <c r="BE100">
+        <v>9</v>
+      </c>
+      <c r="BF100">
+        <v>3</v>
+      </c>
+      <c r="BG100">
+        <v>1.13</v>
+      </c>
+      <c r="BH100">
+        <v>4.9</v>
+      </c>
+      <c r="BI100">
+        <v>1.29</v>
+      </c>
+      <c r="BJ100">
+        <v>3.45</v>
+      </c>
+      <c r="BK100">
+        <v>1.5</v>
+      </c>
+      <c r="BL100">
+        <v>2.45</v>
+      </c>
+      <c r="BM100">
+        <v>1.9</v>
+      </c>
+      <c r="BN100">
+        <v>1.9</v>
+      </c>
+      <c r="BO100">
+        <v>2.43</v>
+      </c>
+      <c r="BP100">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -21560,31 +21560,31 @@
         <v>2.72</v>
       </c>
       <c r="AU100">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV100">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AW100">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX100">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY100">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ100">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA100">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB100">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC100">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD100">
         <v>1.5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="216">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -660,6 +660,9 @@
   <si>
     <t>['48', '90+4']</t>
   </si>
+  <si>
+    <t>['6', '37']</t>
+  </si>
 </sst>
 </file>
 
@@ -1020,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6713,7 +6716,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>2</v>
@@ -7746,7 +7749,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR33">
         <v>1.11</v>
@@ -10009,7 +10012,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>2.17</v>
@@ -11248,7 +11251,7 @@
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR50">
         <v>1.33</v>
@@ -12481,7 +12484,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
         <v>1.17</v>
@@ -13514,7 +13517,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR61">
         <v>1.51</v>
@@ -14953,7 +14956,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ68">
         <v>1.6</v>
@@ -16604,7 +16607,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ76">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR76">
         <v>1.37</v>
@@ -20309,7 +20312,7 @@
         <v>0.86</v>
       </c>
       <c r="AP94">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ94">
         <v>1.13</v>
@@ -21624,6 +21627,212 @@
       </c>
       <c r="BP100">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7294969</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45476.58333333334</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101" t="s">
+        <v>85</v>
+      </c>
+      <c r="H101" t="s">
+        <v>73</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>2</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>3</v>
+      </c>
+      <c r="O101" t="s">
+        <v>116</v>
+      </c>
+      <c r="P101" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q101">
+        <v>3.1</v>
+      </c>
+      <c r="R101">
+        <v>2.15</v>
+      </c>
+      <c r="S101">
+        <v>3.5</v>
+      </c>
+      <c r="T101">
+        <v>1.42</v>
+      </c>
+      <c r="U101">
+        <v>2.95</v>
+      </c>
+      <c r="V101">
+        <v>2.8</v>
+      </c>
+      <c r="W101">
+        <v>1.42</v>
+      </c>
+      <c r="X101">
+        <v>7</v>
+      </c>
+      <c r="Y101">
+        <v>1.09</v>
+      </c>
+      <c r="Z101">
+        <v>2.38</v>
+      </c>
+      <c r="AA101">
+        <v>3.2</v>
+      </c>
+      <c r="AB101">
+        <v>2.8</v>
+      </c>
+      <c r="AC101">
+        <v>1.05</v>
+      </c>
+      <c r="AD101">
+        <v>11</v>
+      </c>
+      <c r="AE101">
+        <v>1.3</v>
+      </c>
+      <c r="AF101">
+        <v>3.6</v>
+      </c>
+      <c r="AG101">
+        <v>1.87</v>
+      </c>
+      <c r="AH101">
+        <v>1.93</v>
+      </c>
+      <c r="AI101">
+        <v>1.68</v>
+      </c>
+      <c r="AJ101">
+        <v>2.15</v>
+      </c>
+      <c r="AK101">
+        <v>1.44</v>
+      </c>
+      <c r="AL101">
+        <v>1.28</v>
+      </c>
+      <c r="AM101">
+        <v>1.58</v>
+      </c>
+      <c r="AN101">
+        <v>1.2</v>
+      </c>
+      <c r="AO101">
+        <v>0.25</v>
+      </c>
+      <c r="AP101">
+        <v>1</v>
+      </c>
+      <c r="AQ101">
+        <v>0.8</v>
+      </c>
+      <c r="AR101">
+        <v>1.41</v>
+      </c>
+      <c r="AS101">
+        <v>1.29</v>
+      </c>
+      <c r="AT101">
+        <v>2.7</v>
+      </c>
+      <c r="AU101">
+        <v>8</v>
+      </c>
+      <c r="AV101">
+        <v>6</v>
+      </c>
+      <c r="AW101">
+        <v>2</v>
+      </c>
+      <c r="AX101">
+        <v>4</v>
+      </c>
+      <c r="AY101">
+        <v>10</v>
+      </c>
+      <c r="AZ101">
+        <v>10</v>
+      </c>
+      <c r="BA101">
+        <v>5</v>
+      </c>
+      <c r="BB101">
+        <v>3</v>
+      </c>
+      <c r="BC101">
+        <v>8</v>
+      </c>
+      <c r="BD101">
+        <v>1.94</v>
+      </c>
+      <c r="BE101">
+        <v>6.55</v>
+      </c>
+      <c r="BF101">
+        <v>2.35</v>
+      </c>
+      <c r="BG101">
+        <v>1.21</v>
+      </c>
+      <c r="BH101">
+        <v>3.74</v>
+      </c>
+      <c r="BI101">
+        <v>1.42</v>
+      </c>
+      <c r="BJ101">
+        <v>2.65</v>
+      </c>
+      <c r="BK101">
+        <v>1.7</v>
+      </c>
+      <c r="BL101">
+        <v>2.05</v>
+      </c>
+      <c r="BM101">
+        <v>2.19</v>
+      </c>
+      <c r="BN101">
+        <v>1.64</v>
+      </c>
+      <c r="BO101">
+        <v>2.93</v>
+      </c>
+      <c r="BP101">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="223">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -493,6 +493,15 @@
     <t>['19', '68', '73', '84']</t>
   </si>
   <si>
+    <t>['20', '45+1', '55', '77', '89']</t>
+  </si>
+  <si>
+    <t>['13', '24', '67']</t>
+  </si>
+  <si>
+    <t>['26', '37']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -662,6 +671,18 @@
   </si>
   <si>
     <t>['6', '37']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['81', '85']</t>
+  </si>
+  <si>
+    <t>['79', '90+7']</t>
+  </si>
+  <si>
+    <t>['81']</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP101"/>
+  <dimension ref="A1:BP107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1282,7 +1303,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1488,7 +1509,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1772,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ4">
         <v>1.43</v>
@@ -1900,7 +1921,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1981,7 +2002,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2106,7 +2127,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2390,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ7">
         <v>0.43</v>
@@ -2599,7 +2620,7 @@
         <v>2</v>
       </c>
       <c r="AQ8">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2802,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ9">
         <v>1.13</v>
@@ -3008,10 +3029,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ10">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3136,7 +3157,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3342,7 +3363,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -3420,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3835,7 +3856,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ14">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3960,7 +3981,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4038,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ15">
         <v>2.17</v>
@@ -4166,7 +4187,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4372,7 +4393,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4453,7 +4474,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ17">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR17">
         <v>0.83</v>
@@ -4578,7 +4599,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4659,7 +4680,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR18">
         <v>1.5</v>
@@ -4784,7 +4805,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -5068,7 +5089,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ20">
         <v>0.71</v>
@@ -5196,7 +5217,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5480,7 +5501,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ22">
         <v>1.13</v>
@@ -5608,7 +5629,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5814,7 +5835,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -5892,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ24">
         <v>1.43</v>
@@ -6226,7 +6247,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6304,10 +6325,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR26">
         <v>2.06</v>
@@ -6432,7 +6453,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6510,7 +6531,7 @@
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ27">
         <v>1.43</v>
@@ -6638,7 +6659,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6719,7 +6740,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -6844,7 +6865,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -7131,7 +7152,7 @@
         <v>2</v>
       </c>
       <c r="AQ30">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR30">
         <v>2.08</v>
@@ -7462,7 +7483,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7540,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ32">
         <v>0.67</v>
@@ -7749,7 +7770,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR33">
         <v>1.11</v>
@@ -7874,7 +7895,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -7952,7 +7973,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ34">
         <v>2.17</v>
@@ -8080,7 +8101,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8158,7 +8179,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ35">
         <v>2.57</v>
@@ -8286,7 +8307,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q36">
         <v>2.54</v>
@@ -8570,7 +8591,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ37">
         <v>1.4</v>
@@ -8698,7 +8719,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -8779,7 +8800,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ38">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR38">
         <v>1.7</v>
@@ -8982,10 +9003,10 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR39">
         <v>2.11</v>
@@ -9522,7 +9543,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9603,7 +9624,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ42">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR42">
         <v>1.44</v>
@@ -9934,7 +9955,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q44">
         <v>4.5</v>
@@ -10218,7 +10239,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ45">
         <v>1.43</v>
@@ -10633,7 +10654,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ47">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR47">
         <v>1.46</v>
@@ -10836,7 +10857,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ48">
         <v>1.83</v>
@@ -10964,7 +10985,7 @@
         <v>87</v>
       </c>
       <c r="P49" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11251,7 +11272,7 @@
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR50">
         <v>1.33</v>
@@ -11376,7 +11397,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11454,7 +11475,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ51">
         <v>0.67</v>
@@ -11582,7 +11603,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -11869,7 +11890,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ53">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR53">
         <v>1.7</v>
@@ -11994,7 +12015,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12072,7 +12093,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ54">
         <v>2</v>
@@ -12200,7 +12221,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12278,7 +12299,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ55">
         <v>1.4</v>
@@ -12487,7 +12508,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR56">
         <v>1.62</v>
@@ -12693,7 +12714,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ57">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR57">
         <v>1.51</v>
@@ -12818,7 +12839,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -12899,7 +12920,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ58">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR58">
         <v>1.38</v>
@@ -13024,7 +13045,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13230,7 +13251,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13308,7 +13329,7 @@
         <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ60">
         <v>1.83</v>
@@ -13514,10 +13535,10 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ61">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR61">
         <v>1.51</v>
@@ -13848,7 +13869,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -13929,7 +13950,7 @@
         <v>2</v>
       </c>
       <c r="AQ63">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -14054,7 +14075,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14338,7 +14359,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ65">
         <v>0.71</v>
@@ -14466,7 +14487,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -14672,7 +14693,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -14753,7 +14774,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR67">
         <v>1.44</v>
@@ -14878,7 +14899,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -14959,7 +14980,7 @@
         <v>1</v>
       </c>
       <c r="AQ68">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR68">
         <v>1.55</v>
@@ -15368,7 +15389,7 @@
         <v>3</v>
       </c>
       <c r="AP70">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ70">
         <v>2.57</v>
@@ -15574,10 +15595,10 @@
         <v>1.5</v>
       </c>
       <c r="AP71">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ71">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR71">
         <v>1.62</v>
@@ -15702,7 +15723,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -15908,7 +15929,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -15986,10 +16007,10 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ73">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR73">
         <v>1.73</v>
@@ -16114,7 +16135,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16320,7 +16341,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16398,7 +16419,7 @@
         <v>2.5</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ75">
         <v>1.83</v>
@@ -16607,7 +16628,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ76">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR76">
         <v>1.37</v>
@@ -16732,7 +16753,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -16813,7 +16834,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ77">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR77">
         <v>1.07</v>
@@ -16938,7 +16959,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q78">
         <v>2.62</v>
@@ -17428,7 +17449,7 @@
         <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ80">
         <v>0.43</v>
@@ -17556,7 +17577,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -17634,7 +17655,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ81">
         <v>0.71</v>
@@ -17762,7 +17783,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -17968,7 +17989,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q83">
         <v>1.57</v>
@@ -18046,7 +18067,7 @@
         <v>0.2</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ83">
         <v>0.43</v>
@@ -18586,7 +18607,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -18664,10 +18685,10 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ86">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR86">
         <v>1.09</v>
@@ -18792,7 +18813,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -18870,10 +18891,10 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ87">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR87">
         <v>1.72</v>
@@ -18998,7 +19019,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19076,7 +19097,7 @@
         <v>0.33</v>
       </c>
       <c r="AP88">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ88">
         <v>0.43</v>
@@ -19204,7 +19225,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19285,7 +19306,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ89">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR89">
         <v>1.44</v>
@@ -19410,7 +19431,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q90">
         <v>2.7</v>
@@ -19491,7 +19512,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ90">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR90">
         <v>1.59</v>
@@ -19697,7 +19718,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ91">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR91">
         <v>1.54</v>
@@ -19900,7 +19921,7 @@
         <v>2.4</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ92">
         <v>2.57</v>
@@ -20028,7 +20049,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q93">
         <v>2.79</v>
@@ -20106,7 +20127,7 @@
         <v>2.17</v>
       </c>
       <c r="AP93">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ93">
         <v>2</v>
@@ -20234,7 +20255,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20440,7 +20461,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20646,7 +20667,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -20852,7 +20873,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21264,7 +21285,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21470,7 +21491,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21676,7 +21697,7 @@
         <v>116</v>
       </c>
       <c r="P101" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -21757,7 +21778,7 @@
         <v>1</v>
       </c>
       <c r="AQ101">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR101">
         <v>1.41</v>
@@ -21833,6 +21854,1242 @@
       </c>
       <c r="BP101">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7295058</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45480.39583333334</v>
+      </c>
+      <c r="F102">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>78</v>
+      </c>
+      <c r="H102" t="s">
+        <v>84</v>
+      </c>
+      <c r="I102">
+        <v>2</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+      <c r="L102">
+        <v>5</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>6</v>
+      </c>
+      <c r="O102" t="s">
+        <v>159</v>
+      </c>
+      <c r="P102" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q102">
+        <v>2.45</v>
+      </c>
+      <c r="R102">
+        <v>2.5</v>
+      </c>
+      <c r="S102">
+        <v>3.75</v>
+      </c>
+      <c r="T102">
+        <v>1.26</v>
+      </c>
+      <c r="U102">
+        <v>4</v>
+      </c>
+      <c r="V102">
+        <v>2.2</v>
+      </c>
+      <c r="W102">
+        <v>1.65</v>
+      </c>
+      <c r="X102">
+        <v>4.75</v>
+      </c>
+      <c r="Y102">
+        <v>1.18</v>
+      </c>
+      <c r="Z102">
+        <v>1.8</v>
+      </c>
+      <c r="AA102">
+        <v>4.1</v>
+      </c>
+      <c r="AB102">
+        <v>3.6</v>
+      </c>
+      <c r="AC102">
+        <v>1.01</v>
+      </c>
+      <c r="AD102">
+        <v>21</v>
+      </c>
+      <c r="AE102">
+        <v>1.15</v>
+      </c>
+      <c r="AF102">
+        <v>5.5</v>
+      </c>
+      <c r="AG102">
+        <v>1.45</v>
+      </c>
+      <c r="AH102">
+        <v>2.55</v>
+      </c>
+      <c r="AI102">
+        <v>1.45</v>
+      </c>
+      <c r="AJ102">
+        <v>2.7</v>
+      </c>
+      <c r="AK102">
+        <v>1.3</v>
+      </c>
+      <c r="AL102">
+        <v>1.2</v>
+      </c>
+      <c r="AM102">
+        <v>1.92</v>
+      </c>
+      <c r="AN102">
+        <v>2</v>
+      </c>
+      <c r="AO102">
+        <v>2</v>
+      </c>
+      <c r="AP102">
+        <v>2.14</v>
+      </c>
+      <c r="AQ102">
+        <v>1.71</v>
+      </c>
+      <c r="AR102">
+        <v>1.54</v>
+      </c>
+      <c r="AS102">
+        <v>1.74</v>
+      </c>
+      <c r="AT102">
+        <v>3.28</v>
+      </c>
+      <c r="AU102">
+        <v>-1</v>
+      </c>
+      <c r="AV102">
+        <v>-1</v>
+      </c>
+      <c r="AW102">
+        <v>-1</v>
+      </c>
+      <c r="AX102">
+        <v>-1</v>
+      </c>
+      <c r="AY102">
+        <v>-1</v>
+      </c>
+      <c r="AZ102">
+        <v>-1</v>
+      </c>
+      <c r="BA102">
+        <v>-1</v>
+      </c>
+      <c r="BB102">
+        <v>-1</v>
+      </c>
+      <c r="BC102">
+        <v>-1</v>
+      </c>
+      <c r="BD102">
+        <v>1.61</v>
+      </c>
+      <c r="BE102">
+        <v>7.2</v>
+      </c>
+      <c r="BF102">
+        <v>3</v>
+      </c>
+      <c r="BG102">
+        <v>1.1</v>
+      </c>
+      <c r="BH102">
+        <v>5.35</v>
+      </c>
+      <c r="BI102">
+        <v>1.23</v>
+      </c>
+      <c r="BJ102">
+        <v>3.56</v>
+      </c>
+      <c r="BK102">
+        <v>1.44</v>
+      </c>
+      <c r="BL102">
+        <v>2.58</v>
+      </c>
+      <c r="BM102">
+        <v>1.88</v>
+      </c>
+      <c r="BN102">
+        <v>1.92</v>
+      </c>
+      <c r="BO102">
+        <v>2.19</v>
+      </c>
+      <c r="BP102">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7295059</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45480.5</v>
+      </c>
+      <c r="F103">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s">
+        <v>77</v>
+      </c>
+      <c r="H103" t="s">
+        <v>76</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+      <c r="N103">
+        <v>3</v>
+      </c>
+      <c r="O103" t="s">
+        <v>98</v>
+      </c>
+      <c r="P103" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q103">
+        <v>3.4</v>
+      </c>
+      <c r="R103">
+        <v>2.3</v>
+      </c>
+      <c r="S103">
+        <v>2.85</v>
+      </c>
+      <c r="T103">
+        <v>1.32</v>
+      </c>
+      <c r="U103">
+        <v>3.5</v>
+      </c>
+      <c r="V103">
+        <v>2.4</v>
+      </c>
+      <c r="W103">
+        <v>1.55</v>
+      </c>
+      <c r="X103">
+        <v>5.5</v>
+      </c>
+      <c r="Y103">
+        <v>1.14</v>
+      </c>
+      <c r="Z103">
+        <v>2.72</v>
+      </c>
+      <c r="AA103">
+        <v>3.42</v>
+      </c>
+      <c r="AB103">
+        <v>2.26</v>
+      </c>
+      <c r="AC103">
+        <v>1.03</v>
+      </c>
+      <c r="AD103">
+        <v>17</v>
+      </c>
+      <c r="AE103">
+        <v>1.2</v>
+      </c>
+      <c r="AF103">
+        <v>4.5</v>
+      </c>
+      <c r="AG103">
+        <v>1.58</v>
+      </c>
+      <c r="AH103">
+        <v>2.25</v>
+      </c>
+      <c r="AI103">
+        <v>1.53</v>
+      </c>
+      <c r="AJ103">
+        <v>2.5</v>
+      </c>
+      <c r="AK103">
+        <v>1.65</v>
+      </c>
+      <c r="AL103">
+        <v>1.24</v>
+      </c>
+      <c r="AM103">
+        <v>1.42</v>
+      </c>
+      <c r="AN103">
+        <v>0.67</v>
+      </c>
+      <c r="AO103">
+        <v>1.6</v>
+      </c>
+      <c r="AP103">
+        <v>0.57</v>
+      </c>
+      <c r="AQ103">
+        <v>1.83</v>
+      </c>
+      <c r="AR103">
+        <v>1.67</v>
+      </c>
+      <c r="AS103">
+        <v>1.24</v>
+      </c>
+      <c r="AT103">
+        <v>2.91</v>
+      </c>
+      <c r="AU103">
+        <v>4</v>
+      </c>
+      <c r="AV103">
+        <v>4</v>
+      </c>
+      <c r="AW103">
+        <v>2</v>
+      </c>
+      <c r="AX103">
+        <v>5</v>
+      </c>
+      <c r="AY103">
+        <v>6</v>
+      </c>
+      <c r="AZ103">
+        <v>9</v>
+      </c>
+      <c r="BA103">
+        <v>5</v>
+      </c>
+      <c r="BB103">
+        <v>4</v>
+      </c>
+      <c r="BC103">
+        <v>9</v>
+      </c>
+      <c r="BD103">
+        <v>1.8</v>
+      </c>
+      <c r="BE103">
+        <v>8.5</v>
+      </c>
+      <c r="BF103">
+        <v>2.25</v>
+      </c>
+      <c r="BG103">
+        <v>1.13</v>
+      </c>
+      <c r="BH103">
+        <v>4.8</v>
+      </c>
+      <c r="BI103">
+        <v>1.28</v>
+      </c>
+      <c r="BJ103">
+        <v>3.2</v>
+      </c>
+      <c r="BK103">
+        <v>1.46</v>
+      </c>
+      <c r="BL103">
+        <v>2.52</v>
+      </c>
+      <c r="BM103">
+        <v>1.92</v>
+      </c>
+      <c r="BN103">
+        <v>1.88</v>
+      </c>
+      <c r="BO103">
+        <v>2.33</v>
+      </c>
+      <c r="BP103">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7295061</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45480.5</v>
+      </c>
+      <c r="F104">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s">
+        <v>83</v>
+      </c>
+      <c r="H104" t="s">
+        <v>73</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104" t="s">
+        <v>87</v>
+      </c>
+      <c r="P104" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q104">
+        <v>3</v>
+      </c>
+      <c r="R104">
+        <v>2.2</v>
+      </c>
+      <c r="S104">
+        <v>3.5</v>
+      </c>
+      <c r="T104">
+        <v>1.4</v>
+      </c>
+      <c r="U104">
+        <v>2.75</v>
+      </c>
+      <c r="V104">
+        <v>2.75</v>
+      </c>
+      <c r="W104">
+        <v>1.4</v>
+      </c>
+      <c r="X104">
+        <v>8</v>
+      </c>
+      <c r="Y104">
+        <v>1.08</v>
+      </c>
+      <c r="Z104">
+        <v>2.32</v>
+      </c>
+      <c r="AA104">
+        <v>3.19</v>
+      </c>
+      <c r="AB104">
+        <v>2.79</v>
+      </c>
+      <c r="AC104">
+        <v>1.05</v>
+      </c>
+      <c r="AD104">
+        <v>9</v>
+      </c>
+      <c r="AE104">
+        <v>1.3</v>
+      </c>
+      <c r="AF104">
+        <v>3.45</v>
+      </c>
+      <c r="AG104">
+        <v>1.98</v>
+      </c>
+      <c r="AH104">
+        <v>1.9</v>
+      </c>
+      <c r="AI104">
+        <v>1.75</v>
+      </c>
+      <c r="AJ104">
+        <v>2</v>
+      </c>
+      <c r="AK104">
+        <v>1.38</v>
+      </c>
+      <c r="AL104">
+        <v>1.25</v>
+      </c>
+      <c r="AM104">
+        <v>1.57</v>
+      </c>
+      <c r="AN104">
+        <v>0.8</v>
+      </c>
+      <c r="AO104">
+        <v>0.8</v>
+      </c>
+      <c r="AP104">
+        <v>0.83</v>
+      </c>
+      <c r="AQ104">
+        <v>0.83</v>
+      </c>
+      <c r="AR104">
+        <v>1.2</v>
+      </c>
+      <c r="AS104">
+        <v>1.29</v>
+      </c>
+      <c r="AT104">
+        <v>2.49</v>
+      </c>
+      <c r="AU104">
+        <v>3</v>
+      </c>
+      <c r="AV104">
+        <v>4</v>
+      </c>
+      <c r="AW104">
+        <v>3</v>
+      </c>
+      <c r="AX104">
+        <v>7</v>
+      </c>
+      <c r="AY104">
+        <v>6</v>
+      </c>
+      <c r="AZ104">
+        <v>11</v>
+      </c>
+      <c r="BA104">
+        <v>5</v>
+      </c>
+      <c r="BB104">
+        <v>7</v>
+      </c>
+      <c r="BC104">
+        <v>12</v>
+      </c>
+      <c r="BD104">
+        <v>1.95</v>
+      </c>
+      <c r="BE104">
+        <v>6.75</v>
+      </c>
+      <c r="BF104">
+        <v>2.31</v>
+      </c>
+      <c r="BG104">
+        <v>1.14</v>
+      </c>
+      <c r="BH104">
+        <v>4.7</v>
+      </c>
+      <c r="BI104">
+        <v>1.28</v>
+      </c>
+      <c r="BJ104">
+        <v>3.18</v>
+      </c>
+      <c r="BK104">
+        <v>1.53</v>
+      </c>
+      <c r="BL104">
+        <v>2.34</v>
+      </c>
+      <c r="BM104">
+        <v>1.92</v>
+      </c>
+      <c r="BN104">
+        <v>1.88</v>
+      </c>
+      <c r="BO104">
+        <v>2.44</v>
+      </c>
+      <c r="BP104">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7295062</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45480.5</v>
+      </c>
+      <c r="F105">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s">
+        <v>72</v>
+      </c>
+      <c r="H105" t="s">
+        <v>74</v>
+      </c>
+      <c r="I105">
+        <v>2</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>2</v>
+      </c>
+      <c r="L105">
+        <v>3</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105" t="s">
+        <v>160</v>
+      </c>
+      <c r="P105" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q105">
+        <v>1.95</v>
+      </c>
+      <c r="R105">
+        <v>2.6</v>
+      </c>
+      <c r="S105">
+        <v>5.5</v>
+      </c>
+      <c r="T105">
+        <v>1.26</v>
+      </c>
+      <c r="U105">
+        <v>4</v>
+      </c>
+      <c r="V105">
+        <v>2.15</v>
+      </c>
+      <c r="W105">
+        <v>1.68</v>
+      </c>
+      <c r="X105">
+        <v>4.75</v>
+      </c>
+      <c r="Y105">
+        <v>1.18</v>
+      </c>
+      <c r="Z105">
+        <v>1.44</v>
+      </c>
+      <c r="AA105">
+        <v>4.4</v>
+      </c>
+      <c r="AB105">
+        <v>5.5</v>
+      </c>
+      <c r="AC105">
+        <v>1.01</v>
+      </c>
+      <c r="AD105">
+        <v>23</v>
+      </c>
+      <c r="AE105">
+        <v>1.15</v>
+      </c>
+      <c r="AF105">
+        <v>5.5</v>
+      </c>
+      <c r="AG105">
+        <v>1.45</v>
+      </c>
+      <c r="AH105">
+        <v>2.51</v>
+      </c>
+      <c r="AI105">
+        <v>1.6</v>
+      </c>
+      <c r="AJ105">
+        <v>2.3</v>
+      </c>
+      <c r="AK105">
+        <v>1.12</v>
+      </c>
+      <c r="AL105">
+        <v>1.15</v>
+      </c>
+      <c r="AM105">
+        <v>2.7</v>
+      </c>
+      <c r="AN105">
+        <v>1.57</v>
+      </c>
+      <c r="AO105">
+        <v>2</v>
+      </c>
+      <c r="AP105">
+        <v>1.75</v>
+      </c>
+      <c r="AQ105">
+        <v>1.71</v>
+      </c>
+      <c r="AR105">
+        <v>1.74</v>
+      </c>
+      <c r="AS105">
+        <v>1.37</v>
+      </c>
+      <c r="AT105">
+        <v>3.11</v>
+      </c>
+      <c r="AU105">
+        <v>9</v>
+      </c>
+      <c r="AV105">
+        <v>3</v>
+      </c>
+      <c r="AW105">
+        <v>4</v>
+      </c>
+      <c r="AX105">
+        <v>5</v>
+      </c>
+      <c r="AY105">
+        <v>13</v>
+      </c>
+      <c r="AZ105">
+        <v>8</v>
+      </c>
+      <c r="BA105">
+        <v>5</v>
+      </c>
+      <c r="BB105">
+        <v>3</v>
+      </c>
+      <c r="BC105">
+        <v>8</v>
+      </c>
+      <c r="BD105">
+        <v>1.36</v>
+      </c>
+      <c r="BE105">
+        <v>10</v>
+      </c>
+      <c r="BF105">
+        <v>3.6</v>
+      </c>
+      <c r="BG105">
+        <v>1.1</v>
+      </c>
+      <c r="BH105">
+        <v>5.4</v>
+      </c>
+      <c r="BI105">
+        <v>1.23</v>
+      </c>
+      <c r="BJ105">
+        <v>3.56</v>
+      </c>
+      <c r="BK105">
+        <v>1.42</v>
+      </c>
+      <c r="BL105">
+        <v>2.65</v>
+      </c>
+      <c r="BM105">
+        <v>1.77</v>
+      </c>
+      <c r="BN105">
+        <v>1.95</v>
+      </c>
+      <c r="BO105">
+        <v>2.22</v>
+      </c>
+      <c r="BP105">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7295063</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45480.5</v>
+      </c>
+      <c r="F106">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s">
+        <v>80</v>
+      </c>
+      <c r="H106" t="s">
+        <v>82</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106" t="s">
+        <v>118</v>
+      </c>
+      <c r="P106" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q106">
+        <v>2.75</v>
+      </c>
+      <c r="R106">
+        <v>2.3</v>
+      </c>
+      <c r="S106">
+        <v>3.6</v>
+      </c>
+      <c r="T106">
+        <v>1.33</v>
+      </c>
+      <c r="U106">
+        <v>3.4</v>
+      </c>
+      <c r="V106">
+        <v>2.5</v>
+      </c>
+      <c r="W106">
+        <v>1.52</v>
+      </c>
+      <c r="X106">
+        <v>6</v>
+      </c>
+      <c r="Y106">
+        <v>1.12</v>
+      </c>
+      <c r="Z106">
+        <v>2.25</v>
+      </c>
+      <c r="AA106">
+        <v>3.28</v>
+      </c>
+      <c r="AB106">
+        <v>2.84</v>
+      </c>
+      <c r="AC106">
+        <v>1.03</v>
+      </c>
+      <c r="AD106">
+        <v>15</v>
+      </c>
+      <c r="AE106">
+        <v>1.22</v>
+      </c>
+      <c r="AF106">
+        <v>4.33</v>
+      </c>
+      <c r="AG106">
+        <v>1.6</v>
+      </c>
+      <c r="AH106">
+        <v>2.2</v>
+      </c>
+      <c r="AI106">
+        <v>1.57</v>
+      </c>
+      <c r="AJ106">
+        <v>2.35</v>
+      </c>
+      <c r="AK106">
+        <v>1.36</v>
+      </c>
+      <c r="AL106">
+        <v>1.24</v>
+      </c>
+      <c r="AM106">
+        <v>1.72</v>
+      </c>
+      <c r="AN106">
+        <v>1</v>
+      </c>
+      <c r="AO106">
+        <v>1.17</v>
+      </c>
+      <c r="AP106">
+        <v>0.86</v>
+      </c>
+      <c r="AQ106">
+        <v>1.43</v>
+      </c>
+      <c r="AR106">
+        <v>1.31</v>
+      </c>
+      <c r="AS106">
+        <v>1.21</v>
+      </c>
+      <c r="AT106">
+        <v>2.52</v>
+      </c>
+      <c r="AU106">
+        <v>4</v>
+      </c>
+      <c r="AV106">
+        <v>9</v>
+      </c>
+      <c r="AW106">
+        <v>5</v>
+      </c>
+      <c r="AX106">
+        <v>5</v>
+      </c>
+      <c r="AY106">
+        <v>9</v>
+      </c>
+      <c r="AZ106">
+        <v>14</v>
+      </c>
+      <c r="BA106">
+        <v>2</v>
+      </c>
+      <c r="BB106">
+        <v>8</v>
+      </c>
+      <c r="BC106">
+        <v>10</v>
+      </c>
+      <c r="BD106">
+        <v>1.92</v>
+      </c>
+      <c r="BE106">
+        <v>6.8</v>
+      </c>
+      <c r="BF106">
+        <v>2.35</v>
+      </c>
+      <c r="BG106">
+        <v>1.13</v>
+      </c>
+      <c r="BH106">
+        <v>4.8</v>
+      </c>
+      <c r="BI106">
+        <v>1.28</v>
+      </c>
+      <c r="BJ106">
+        <v>3.2</v>
+      </c>
+      <c r="BK106">
+        <v>1.52</v>
+      </c>
+      <c r="BL106">
+        <v>2.36</v>
+      </c>
+      <c r="BM106">
+        <v>1.88</v>
+      </c>
+      <c r="BN106">
+        <v>1.86</v>
+      </c>
+      <c r="BO106">
+        <v>2.39</v>
+      </c>
+      <c r="BP106">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7295064</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45480.59375</v>
+      </c>
+      <c r="F107">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s">
+        <v>75</v>
+      </c>
+      <c r="H107" t="s">
+        <v>70</v>
+      </c>
+      <c r="I107">
+        <v>2</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+      <c r="L107">
+        <v>2</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>3</v>
+      </c>
+      <c r="O107" t="s">
+        <v>161</v>
+      </c>
+      <c r="P107" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q107">
+        <v>2.1</v>
+      </c>
+      <c r="R107">
+        <v>2.38</v>
+      </c>
+      <c r="S107">
+        <v>4.5</v>
+      </c>
+      <c r="T107">
+        <v>1.28</v>
+      </c>
+      <c r="U107">
+        <v>3.35</v>
+      </c>
+      <c r="V107">
+        <v>2.3</v>
+      </c>
+      <c r="W107">
+        <v>1.55</v>
+      </c>
+      <c r="X107">
+        <v>5.2</v>
+      </c>
+      <c r="Y107">
+        <v>1.14</v>
+      </c>
+      <c r="Z107">
+        <v>1.59</v>
+      </c>
+      <c r="AA107">
+        <v>3.9</v>
+      </c>
+      <c r="AB107">
+        <v>4.57</v>
+      </c>
+      <c r="AC107">
+        <v>1.03</v>
+      </c>
+      <c r="AD107">
+        <v>11</v>
+      </c>
+      <c r="AE107">
+        <v>1.18</v>
+      </c>
+      <c r="AF107">
+        <v>4.75</v>
+      </c>
+      <c r="AG107">
+        <v>1.65</v>
+      </c>
+      <c r="AH107">
+        <v>2.25</v>
+      </c>
+      <c r="AI107">
+        <v>1.57</v>
+      </c>
+      <c r="AJ107">
+        <v>2.2</v>
+      </c>
+      <c r="AK107">
+        <v>1.17</v>
+      </c>
+      <c r="AL107">
+        <v>1.17</v>
+      </c>
+      <c r="AM107">
+        <v>2.25</v>
+      </c>
+      <c r="AN107">
+        <v>1.67</v>
+      </c>
+      <c r="AO107">
+        <v>1.33</v>
+      </c>
+      <c r="AP107">
+        <v>1.86</v>
+      </c>
+      <c r="AQ107">
+        <v>1.14</v>
+      </c>
+      <c r="AR107">
+        <v>1.41</v>
+      </c>
+      <c r="AS107">
+        <v>0.92</v>
+      </c>
+      <c r="AT107">
+        <v>2.33</v>
+      </c>
+      <c r="AU107">
+        <v>3</v>
+      </c>
+      <c r="AV107">
+        <v>2</v>
+      </c>
+      <c r="AW107">
+        <v>8</v>
+      </c>
+      <c r="AX107">
+        <v>4</v>
+      </c>
+      <c r="AY107">
+        <v>11</v>
+      </c>
+      <c r="AZ107">
+        <v>6</v>
+      </c>
+      <c r="BA107">
+        <v>6</v>
+      </c>
+      <c r="BB107">
+        <v>3</v>
+      </c>
+      <c r="BC107">
+        <v>9</v>
+      </c>
+      <c r="BD107">
+        <v>1.29</v>
+      </c>
+      <c r="BE107">
+        <v>8.5</v>
+      </c>
+      <c r="BF107">
+        <v>5</v>
+      </c>
+      <c r="BG107">
+        <v>1.16</v>
+      </c>
+      <c r="BH107">
+        <v>4.4</v>
+      </c>
+      <c r="BI107">
+        <v>1.32</v>
+      </c>
+      <c r="BJ107">
+        <v>2.98</v>
+      </c>
+      <c r="BK107">
+        <v>1.59</v>
+      </c>
+      <c r="BL107">
+        <v>2.21</v>
+      </c>
+      <c r="BM107">
+        <v>2</v>
+      </c>
+      <c r="BN107">
+        <v>1.76</v>
+      </c>
+      <c r="BO107">
+        <v>2.58</v>
+      </c>
+      <c r="BP107">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="225">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,10 +397,10 @@
     <t>['12']</t>
   </si>
   <si>
-    <t>['19', '21', '63', '74']</t>
+    <t>['4', '14', '41', '66']</t>
   </si>
   <si>
-    <t>['4', '14', '41', '66']</t>
+    <t>['19', '21', '63', '74']</t>
   </si>
   <si>
     <t>['65']</t>
@@ -430,9 +430,6 @@
     <t>['41', '75']</t>
   </si>
   <si>
-    <t>['77', '90+5']</t>
-  </si>
-  <si>
     <t>['72']</t>
   </si>
   <si>
@@ -445,10 +442,10 @@
     <t>['49', '86']</t>
   </si>
   <si>
-    <t>['36']</t>
+    <t>['77', '90+5']</t>
   </si>
   <si>
-    <t>['45+6']</t>
+    <t>['36']</t>
   </si>
   <si>
     <t>['38', '90+9']</t>
@@ -457,13 +454,16 @@
     <t>['17', '34', '80']</t>
   </si>
   <si>
+    <t>['45+6']</t>
+  </si>
+  <si>
     <t>['51']</t>
   </si>
   <si>
     <t>['7', '74']</t>
   </si>
   <si>
-    <t>['66', '75', '89']</t>
+    <t>['15']</t>
   </si>
   <si>
     <t>['69', '75', '82']</t>
@@ -472,7 +472,7 @@
     <t>['67']</t>
   </si>
   <si>
-    <t>['15']</t>
+    <t>['66', '75', '89']</t>
   </si>
   <si>
     <t>['53']</t>
@@ -500,6 +500,9 @@
   </si>
   <si>
     <t>['26', '37']</t>
+  </si>
+  <si>
+    <t>['14', '45+4', '59']</t>
   </si>
   <si>
     <t>['39', '90+2']</t>
@@ -628,10 +631,10 @@
     <t>['45+1', '64']</t>
   </si>
   <si>
-    <t>['90+6']</t>
+    <t>['36', '63', '89']</t>
   </si>
   <si>
-    <t>['36', '63', '89']</t>
+    <t>['90+6']</t>
   </si>
   <si>
     <t>['60', '70', '72']</t>
@@ -643,13 +646,13 @@
     <t>['20', '46']</t>
   </si>
   <si>
-    <t>['68', '72', '81']</t>
-  </si>
-  <si>
     <t>['86']</t>
   </si>
   <si>
     <t>['20', '51']</t>
+  </si>
+  <si>
+    <t>['68', '72', '81']</t>
   </si>
   <si>
     <t>['9', '60']</t>
@@ -683,6 +686,9 @@
   </si>
   <si>
     <t>['81']</t>
+  </si>
+  <si>
+    <t>['9']</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP107"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1303,7 +1309,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1509,7 +1515,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1921,7 +1927,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2127,7 +2133,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2414,7 +2420,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ7">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3157,7 +3163,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3235,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ11">
         <v>1.83</v>
@@ -3363,7 +3369,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -3647,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>0.67</v>
@@ -3981,7 +3987,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4187,7 +4193,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4268,7 +4274,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4393,7 +4399,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4599,7 +4605,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4805,7 +4811,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -5217,7 +5223,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5298,7 +5304,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ21">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR21">
         <v>1.91</v>
@@ -5629,7 +5635,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5835,7 +5841,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6247,7 +6253,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6453,7 +6459,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6659,7 +6665,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6865,7 +6871,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -7358,7 +7364,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR31">
         <v>1.22</v>
@@ -7483,7 +7489,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7767,7 +7773,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ33">
         <v>0.83</v>
@@ -7895,7 +7901,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8101,7 +8107,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8307,7 +8313,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q36">
         <v>2.54</v>
@@ -8385,7 +8391,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
         <v>0.71</v>
@@ -8719,7 +8725,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -9212,7 +9218,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ40">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR40">
         <v>1.33</v>
@@ -9543,7 +9549,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9955,7 +9961,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q44">
         <v>4.5</v>
@@ -10445,7 +10451,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ46">
         <v>1.13</v>
@@ -10985,7 +10991,7 @@
         <v>87</v>
       </c>
       <c r="P49" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11066,7 +11072,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR49">
         <v>1.24</v>
@@ -11397,7 +11403,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11603,7 +11609,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -11681,7 +11687,7 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ52">
         <v>2.57</v>
@@ -11887,7 +11893,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
         <v>1.83</v>
@@ -12015,7 +12021,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12096,7 +12102,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ54">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR54">
         <v>1.82</v>
@@ -12221,7 +12227,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12839,7 +12845,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13045,7 +13051,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13251,7 +13257,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13415,7 +13421,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7295022</v>
+        <v>7295023</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13430,160 +13436,160 @@
         <v>8</v>
       </c>
       <c r="G61" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H61" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L61">
         <v>4</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O61" t="s">
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="Q61">
-        <v>1.64</v>
+        <v>2.7</v>
       </c>
       <c r="R61">
-        <v>3.02</v>
+        <v>2.1</v>
       </c>
       <c r="S61">
-        <v>8.67</v>
+        <v>3.7</v>
       </c>
       <c r="T61">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="U61">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="V61">
-        <v>2.16</v>
+        <v>2.75</v>
       </c>
       <c r="W61">
-        <v>1.71</v>
+        <v>1.4</v>
       </c>
       <c r="X61">
-        <v>4.3</v>
+        <v>6.7</v>
       </c>
       <c r="Y61">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="Z61">
-        <v>1.34</v>
+        <v>2.03</v>
       </c>
       <c r="AA61">
-        <v>5.48</v>
+        <v>3.63</v>
       </c>
       <c r="AB61">
-        <v>8.449999999999999</v>
+        <v>3.58</v>
       </c>
       <c r="AC61">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AD61">
-        <v>26.5</v>
+        <v>9</v>
       </c>
       <c r="AE61">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="AF61">
-        <v>5.75</v>
+        <v>3.45</v>
       </c>
       <c r="AG61">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="AH61">
-        <v>2.6</v>
+        <v>1.91</v>
       </c>
       <c r="AI61">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AJ61">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AK61">
-        <v>1.07</v>
+        <v>1.3</v>
       </c>
       <c r="AL61">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AM61">
-        <v>3.91</v>
+        <v>1.73</v>
       </c>
       <c r="AN61">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AO61">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>2.14</v>
+        <v>1.6</v>
       </c>
       <c r="AQ61">
-        <v>0.83</v>
+        <v>1.43</v>
       </c>
       <c r="AR61">
-        <v>1.51</v>
+        <v>1.32</v>
       </c>
       <c r="AS61">
-        <v>1.12</v>
+        <v>1.33</v>
       </c>
       <c r="AT61">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AU61">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV61">
         <v>3</v>
       </c>
       <c r="AW61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX61">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY61">
         <v>10</v>
       </c>
       <c r="AZ61">
+        <v>11</v>
+      </c>
+      <c r="BA61">
         <v>8</v>
       </c>
-      <c r="BA61">
-        <v>4</v>
-      </c>
       <c r="BB61">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BC61">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD61">
-        <v>1.14</v>
+        <v>1.73</v>
       </c>
       <c r="BE61">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="BF61">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="BG61">
         <v>1.18</v>
@@ -13592,16 +13598,16 @@
         <v>4.6</v>
       </c>
       <c r="BI61">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="BJ61">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="BK61">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="BL61">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="BM61">
         <v>1.95</v>
@@ -13610,10 +13616,10 @@
         <v>1.77</v>
       </c>
       <c r="BO61">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="BP61">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="62" spans="1:68">
@@ -13621,7 +13627,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>7295023</v>
+        <v>7295022</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
@@ -13636,160 +13642,160 @@
         <v>8</v>
       </c>
       <c r="G62" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L62">
         <v>4</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O62" t="s">
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="Q62">
-        <v>2.7</v>
+        <v>1.64</v>
       </c>
       <c r="R62">
-        <v>2.1</v>
+        <v>3.02</v>
       </c>
       <c r="S62">
-        <v>3.7</v>
+        <v>8.67</v>
       </c>
       <c r="T62">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="U62">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="V62">
-        <v>2.75</v>
+        <v>2.16</v>
       </c>
       <c r="W62">
-        <v>1.4</v>
+        <v>1.71</v>
       </c>
       <c r="X62">
-        <v>6.7</v>
+        <v>4.3</v>
       </c>
       <c r="Y62">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="Z62">
-        <v>2.03</v>
+        <v>1.34</v>
       </c>
       <c r="AA62">
-        <v>3.63</v>
+        <v>5.48</v>
       </c>
       <c r="AB62">
-        <v>3.58</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="AC62">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AD62">
-        <v>9</v>
+        <v>26.5</v>
       </c>
       <c r="AE62">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="AF62">
-        <v>3.45</v>
+        <v>5.75</v>
       </c>
       <c r="AG62">
+        <v>1.44</v>
+      </c>
+      <c r="AH62">
+        <v>2.6</v>
+      </c>
+      <c r="AI62">
         <v>1.8</v>
       </c>
-      <c r="AH62">
-        <v>1.91</v>
-      </c>
-      <c r="AI62">
-        <v>1.7</v>
-      </c>
       <c r="AJ62">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AK62">
-        <v>1.3</v>
+        <v>1.07</v>
       </c>
       <c r="AL62">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AM62">
-        <v>1.73</v>
+        <v>3.91</v>
       </c>
       <c r="AN62">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="AO62">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.6</v>
+        <v>2.14</v>
       </c>
       <c r="AQ62">
-        <v>1.43</v>
+        <v>0.83</v>
       </c>
       <c r="AR62">
-        <v>1.32</v>
+        <v>1.51</v>
       </c>
       <c r="AS62">
-        <v>1.33</v>
+        <v>1.12</v>
       </c>
       <c r="AT62">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="AU62">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV62">
         <v>3</v>
       </c>
       <c r="AW62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX62">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AY62">
         <v>10</v>
       </c>
       <c r="AZ62">
+        <v>8</v>
+      </c>
+      <c r="BA62">
+        <v>4</v>
+      </c>
+      <c r="BB62">
+        <v>7</v>
+      </c>
+      <c r="BC62">
         <v>11</v>
       </c>
-      <c r="BA62">
-        <v>8</v>
-      </c>
-      <c r="BB62">
-        <v>2</v>
-      </c>
-      <c r="BC62">
-        <v>10</v>
-      </c>
       <c r="BD62">
-        <v>1.73</v>
+        <v>1.14</v>
       </c>
       <c r="BE62">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="BF62">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="BG62">
         <v>1.18</v>
@@ -13798,16 +13804,16 @@
         <v>4.6</v>
       </c>
       <c r="BI62">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="BJ62">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="BK62">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="BL62">
-        <v>2.37</v>
+        <v>2.22</v>
       </c>
       <c r="BM62">
         <v>1.95</v>
@@ -13816,10 +13822,10 @@
         <v>1.77</v>
       </c>
       <c r="BO62">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="BP62">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="63" spans="1:68">
@@ -13869,7 +13875,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14075,7 +14081,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14487,7 +14493,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -14568,7 +14574,7 @@
         <v>2</v>
       </c>
       <c r="AQ66">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR66">
         <v>2.1</v>
@@ -14693,7 +14699,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -14771,7 +14777,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ67">
         <v>1.71</v>
@@ -14899,7 +14905,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15183,7 +15189,7 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69">
         <v>1.4</v>
@@ -15723,7 +15729,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -15804,7 +15810,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ72">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR72">
         <v>1.23</v>
@@ -15929,7 +15935,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16135,7 +16141,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16341,7 +16347,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16711,7 +16717,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7295036</v>
+        <v>7295037</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -16726,88 +16732,88 @@
         <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H77" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O77" t="s">
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q77">
-        <v>3.6</v>
+        <v>2.62</v>
       </c>
       <c r="R77">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="S77">
-        <v>2.8</v>
+        <v>3.65</v>
       </c>
       <c r="T77">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="U77">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="V77">
-        <v>2.55</v>
+        <v>2.44</v>
       </c>
       <c r="W77">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X77">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="Y77">
         <v>1.12</v>
       </c>
       <c r="Z77">
-        <v>3.05</v>
+        <v>2.06</v>
       </c>
       <c r="AA77">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AB77">
-        <v>2.12</v>
+        <v>3.04</v>
       </c>
       <c r="AC77">
         <v>1.03</v>
       </c>
       <c r="AD77">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE77">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AF77">
-        <v>4.33</v>
+        <v>4.15</v>
       </c>
       <c r="AG77">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="AH77">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AI77">
         <v>1.58</v>
@@ -16816,100 +16822,100 @@
         <v>2.35</v>
       </c>
       <c r="AK77">
-        <v>1.7</v>
+        <v>1.36</v>
       </c>
       <c r="AL77">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM77">
-        <v>1.38</v>
+        <v>1.78</v>
       </c>
       <c r="AN77">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AO77">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="AP77">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="AQ77">
-        <v>1.71</v>
+        <v>1.43</v>
       </c>
       <c r="AR77">
-        <v>1.07</v>
+        <v>1.56</v>
       </c>
       <c r="AS77">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="AT77">
-        <v>2.52</v>
+        <v>2.87</v>
       </c>
       <c r="AU77">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AV77">
+        <v>7</v>
+      </c>
+      <c r="AW77">
+        <v>8</v>
+      </c>
+      <c r="AX77">
         <v>4</v>
       </c>
-      <c r="AW77">
-        <v>6</v>
-      </c>
-      <c r="AX77">
-        <v>8</v>
-      </c>
       <c r="AY77">
+        <v>19</v>
+      </c>
+      <c r="AZ77">
         <v>11</v>
       </c>
-      <c r="AZ77">
+      <c r="BA77">
+        <v>9</v>
+      </c>
+      <c r="BB77">
         <v>12</v>
       </c>
-      <c r="BA77">
-        <v>7</v>
-      </c>
-      <c r="BB77">
-        <v>11</v>
-      </c>
       <c r="BC77">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BD77">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="BE77">
         <v>8.5</v>
       </c>
       <c r="BF77">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="BG77">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="BH77">
-        <v>4.85</v>
+        <v>5.3</v>
       </c>
       <c r="BI77">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="BJ77">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="BK77">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="BL77">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="BM77">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="BN77">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="BO77">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="BP77">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="78" spans="1:68">
@@ -16917,7 +16923,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7295037</v>
+        <v>7295038</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16932,190 +16938,190 @@
         <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H78" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
         <v>3</v>
-      </c>
-      <c r="N78">
-        <v>4</v>
       </c>
       <c r="O78" t="s">
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="Q78">
-        <v>2.62</v>
+        <v>2</v>
       </c>
       <c r="R78">
-        <v>2.29</v>
+        <v>2.65</v>
       </c>
       <c r="S78">
-        <v>3.65</v>
+        <v>5</v>
       </c>
       <c r="T78">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="U78">
-        <v>3.28</v>
+        <v>4.2</v>
       </c>
       <c r="V78">
-        <v>2.44</v>
+        <v>2.15</v>
       </c>
       <c r="W78">
+        <v>1.7</v>
+      </c>
+      <c r="X78">
+        <v>4.5</v>
+      </c>
+      <c r="Y78">
+        <v>1.19</v>
+      </c>
+      <c r="Z78">
         <v>1.52</v>
       </c>
-      <c r="X78">
-        <v>5.7</v>
-      </c>
-      <c r="Y78">
-        <v>1.12</v>
-      </c>
-      <c r="Z78">
-        <v>2.06</v>
-      </c>
       <c r="AA78">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="AB78">
-        <v>3.04</v>
+        <v>4.62</v>
       </c>
       <c r="AC78">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD78">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AE78">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AF78">
-        <v>4.15</v>
+        <v>6</v>
       </c>
       <c r="AG78">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="AH78">
-        <v>2.12</v>
+        <v>2.59</v>
       </c>
       <c r="AI78">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AJ78">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="AK78">
-        <v>1.36</v>
+        <v>1.16</v>
       </c>
       <c r="AL78">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AM78">
-        <v>1.78</v>
+        <v>2.55</v>
       </c>
       <c r="AN78">
-        <v>0.75</v>
+        <v>1.6</v>
       </c>
       <c r="AO78">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AP78">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
-        <v>1.43</v>
+        <v>1.13</v>
       </c>
       <c r="AR78">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="AS78">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT78">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="AU78">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV78">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW78">
+        <v>6</v>
+      </c>
+      <c r="AX78">
+        <v>2</v>
+      </c>
+      <c r="AY78">
+        <v>15</v>
+      </c>
+      <c r="AZ78">
+        <v>6</v>
+      </c>
+      <c r="BA78">
         <v>8</v>
       </c>
-      <c r="AX78">
+      <c r="BB78">
+        <v>6</v>
+      </c>
+      <c r="BC78">
+        <v>14</v>
+      </c>
+      <c r="BD78">
+        <v>1.3</v>
+      </c>
+      <c r="BE78">
+        <v>10</v>
+      </c>
+      <c r="BF78">
         <v>4</v>
       </c>
-      <c r="AY78">
-        <v>19</v>
-      </c>
-      <c r="AZ78">
-        <v>11</v>
-      </c>
-      <c r="BA78">
-        <v>9</v>
-      </c>
-      <c r="BB78">
-        <v>12</v>
-      </c>
-      <c r="BC78">
-        <v>21</v>
-      </c>
-      <c r="BD78">
-        <v>1.67</v>
-      </c>
-      <c r="BE78">
-        <v>8.5</v>
-      </c>
-      <c r="BF78">
-        <v>2.5</v>
-      </c>
       <c r="BG78">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="BH78">
-        <v>5.3</v>
+        <v>6.8</v>
       </c>
       <c r="BI78">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="BJ78">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="BK78">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="BL78">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="BM78">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="BN78">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="BO78">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="BP78">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -17123,7 +17129,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7295038</v>
+        <v>7295039</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17138,25 +17144,25 @@
         <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H79" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79">
         <v>3</v>
@@ -17165,163 +17171,163 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q79">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="R79">
-        <v>2.65</v>
+        <v>2.2</v>
       </c>
       <c r="S79">
+        <v>3.75</v>
+      </c>
+      <c r="T79">
+        <v>1.38</v>
+      </c>
+      <c r="U79">
+        <v>3.1</v>
+      </c>
+      <c r="V79">
+        <v>2.75</v>
+      </c>
+      <c r="W79">
+        <v>1.44</v>
+      </c>
+      <c r="X79">
+        <v>6.5</v>
+      </c>
+      <c r="Y79">
+        <v>1.1</v>
+      </c>
+      <c r="Z79">
+        <v>2.08</v>
+      </c>
+      <c r="AA79">
+        <v>3.4</v>
+      </c>
+      <c r="AB79">
+        <v>3.22</v>
+      </c>
+      <c r="AC79">
+        <v>1.04</v>
+      </c>
+      <c r="AD79">
+        <v>12</v>
+      </c>
+      <c r="AE79">
+        <v>1.28</v>
+      </c>
+      <c r="AF79">
+        <v>3.75</v>
+      </c>
+      <c r="AG79">
+        <v>1.8</v>
+      </c>
+      <c r="AH79">
+        <v>1.9</v>
+      </c>
+      <c r="AI79">
+        <v>1.68</v>
+      </c>
+      <c r="AJ79">
+        <v>2.15</v>
+      </c>
+      <c r="AK79">
+        <v>1.33</v>
+      </c>
+      <c r="AL79">
+        <v>1.26</v>
+      </c>
+      <c r="AM79">
+        <v>1.75</v>
+      </c>
+      <c r="AN79">
+        <v>0.75</v>
+      </c>
+      <c r="AO79">
+        <v>0.25</v>
+      </c>
+      <c r="AP79">
+        <v>0.86</v>
+      </c>
+      <c r="AQ79">
+        <v>0.5</v>
+      </c>
+      <c r="AR79">
+        <v>1.47</v>
+      </c>
+      <c r="AS79">
+        <v>1.34</v>
+      </c>
+      <c r="AT79">
+        <v>2.81</v>
+      </c>
+      <c r="AU79">
+        <v>4</v>
+      </c>
+      <c r="AV79">
+        <v>6</v>
+      </c>
+      <c r="AW79">
+        <v>1</v>
+      </c>
+      <c r="AX79">
         <v>5</v>
       </c>
-      <c r="T79">
-        <v>1.24</v>
-      </c>
-      <c r="U79">
-        <v>4.2</v>
-      </c>
-      <c r="V79">
-        <v>2.15</v>
-      </c>
-      <c r="W79">
-        <v>1.7</v>
-      </c>
-      <c r="X79">
-        <v>4.5</v>
-      </c>
-      <c r="Y79">
-        <v>1.19</v>
-      </c>
-      <c r="Z79">
-        <v>1.52</v>
-      </c>
-      <c r="AA79">
-        <v>4.75</v>
-      </c>
-      <c r="AB79">
-        <v>4.62</v>
-      </c>
-      <c r="AC79">
-        <v>1.01</v>
-      </c>
-      <c r="AD79">
-        <v>26</v>
-      </c>
-      <c r="AE79">
-        <v>1.14</v>
-      </c>
-      <c r="AF79">
-        <v>6</v>
-      </c>
-      <c r="AG79">
-        <v>1.44</v>
-      </c>
-      <c r="AH79">
-        <v>2.59</v>
-      </c>
-      <c r="AI79">
-        <v>1.53</v>
-      </c>
-      <c r="AJ79">
-        <v>2.45</v>
-      </c>
-      <c r="AK79">
+      <c r="AY79">
+        <v>5</v>
+      </c>
+      <c r="AZ79">
+        <v>11</v>
+      </c>
+      <c r="BA79">
+        <v>14</v>
+      </c>
+      <c r="BB79">
+        <v>4</v>
+      </c>
+      <c r="BC79">
+        <v>18</v>
+      </c>
+      <c r="BD79">
+        <v>1.73</v>
+      </c>
+      <c r="BE79">
+        <v>8.5</v>
+      </c>
+      <c r="BF79">
+        <v>2.38</v>
+      </c>
+      <c r="BG79">
         <v>1.16</v>
       </c>
-      <c r="AL79">
-        <v>1.15</v>
-      </c>
-      <c r="AM79">
-        <v>2.55</v>
-      </c>
-      <c r="AN79">
-        <v>1.6</v>
-      </c>
-      <c r="AO79">
-        <v>1</v>
-      </c>
-      <c r="AP79">
-        <v>2</v>
-      </c>
-      <c r="AQ79">
-        <v>1.13</v>
-      </c>
-      <c r="AR79">
-        <v>1.46</v>
-      </c>
-      <c r="AS79">
-        <v>1.29</v>
-      </c>
-      <c r="AT79">
-        <v>2.75</v>
-      </c>
-      <c r="AU79">
-        <v>9</v>
-      </c>
-      <c r="AV79">
-        <v>4</v>
-      </c>
-      <c r="AW79">
-        <v>6</v>
-      </c>
-      <c r="AX79">
-        <v>2</v>
-      </c>
-      <c r="AY79">
-        <v>15</v>
-      </c>
-      <c r="AZ79">
-        <v>6</v>
-      </c>
-      <c r="BA79">
-        <v>8</v>
-      </c>
-      <c r="BB79">
-        <v>6</v>
-      </c>
-      <c r="BC79">
-        <v>14</v>
-      </c>
-      <c r="BD79">
-        <v>1.3</v>
-      </c>
-      <c r="BE79">
-        <v>10</v>
-      </c>
-      <c r="BF79">
-        <v>4</v>
-      </c>
-      <c r="BG79">
-        <v>1.08</v>
-      </c>
       <c r="BH79">
-        <v>6.8</v>
+        <v>4.33</v>
       </c>
       <c r="BI79">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="BJ79">
-        <v>4.5</v>
+        <v>2.93</v>
       </c>
       <c r="BK79">
-        <v>1.3</v>
+        <v>1.56</v>
       </c>
       <c r="BL79">
-        <v>3.3</v>
+        <v>2.38</v>
       </c>
       <c r="BM79">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="BN79">
-        <v>2.05</v>
+        <v>1.77</v>
       </c>
       <c r="BO79">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="BP79">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="80" spans="1:68">
@@ -17329,7 +17335,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7295039</v>
+        <v>7295040</v>
       </c>
       <c r="C80" t="s">
         <v>68</v>
@@ -17344,19 +17350,19 @@
         <v>10</v>
       </c>
       <c r="G80" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H80" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80">
         <v>2</v>
@@ -17371,163 +17377,163 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="Q80">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="R80">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="S80">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="T80">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="U80">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="V80">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="W80">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="X80">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Y80">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="Z80">
-        <v>2.08</v>
+        <v>1.5</v>
       </c>
       <c r="AA80">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="AB80">
-        <v>3.22</v>
+        <v>5.1</v>
       </c>
       <c r="AC80">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD80">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE80">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="AF80">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AG80">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
       <c r="AH80">
-        <v>1.9</v>
+        <v>2.36</v>
       </c>
       <c r="AI80">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AJ80">
         <v>2.15</v>
       </c>
       <c r="AK80">
+        <v>1.15</v>
+      </c>
+      <c r="AL80">
+        <v>1.15</v>
+      </c>
+      <c r="AM80">
+        <v>2.4</v>
+      </c>
+      <c r="AN80">
+        <v>1.5</v>
+      </c>
+      <c r="AO80">
+        <v>1</v>
+      </c>
+      <c r="AP80">
+        <v>1.86</v>
+      </c>
+      <c r="AQ80">
+        <v>0.71</v>
+      </c>
+      <c r="AR80">
+        <v>1.14</v>
+      </c>
+      <c r="AS80">
+        <v>1.01</v>
+      </c>
+      <c r="AT80">
+        <v>2.15</v>
+      </c>
+      <c r="AU80">
+        <v>10</v>
+      </c>
+      <c r="AV80">
+        <v>3</v>
+      </c>
+      <c r="AW80">
+        <v>11</v>
+      </c>
+      <c r="AX80">
+        <v>1</v>
+      </c>
+      <c r="AY80">
+        <v>21</v>
+      </c>
+      <c r="AZ80">
+        <v>4</v>
+      </c>
+      <c r="BA80">
+        <v>17</v>
+      </c>
+      <c r="BB80">
+        <v>2</v>
+      </c>
+      <c r="BC80">
+        <v>19</v>
+      </c>
+      <c r="BD80">
         <v>1.33</v>
       </c>
-      <c r="AL80">
-        <v>1.26</v>
-      </c>
-      <c r="AM80">
-        <v>1.75</v>
-      </c>
-      <c r="AN80">
-        <v>0.75</v>
-      </c>
-      <c r="AO80">
-        <v>0.25</v>
-      </c>
-      <c r="AP80">
-        <v>0.86</v>
-      </c>
-      <c r="AQ80">
-        <v>0.43</v>
-      </c>
-      <c r="AR80">
-        <v>1.47</v>
-      </c>
-      <c r="AS80">
-        <v>1.34</v>
-      </c>
-      <c r="AT80">
-        <v>2.81</v>
-      </c>
-      <c r="AU80">
-        <v>4</v>
-      </c>
-      <c r="AV80">
-        <v>6</v>
-      </c>
-      <c r="AW80">
-        <v>1</v>
-      </c>
-      <c r="AX80">
-        <v>5</v>
-      </c>
-      <c r="AY80">
-        <v>5</v>
-      </c>
-      <c r="AZ80">
-        <v>11</v>
-      </c>
-      <c r="BA80">
-        <v>14</v>
-      </c>
-      <c r="BB80">
-        <v>4</v>
-      </c>
-      <c r="BC80">
-        <v>18</v>
-      </c>
-      <c r="BD80">
-        <v>1.73</v>
-      </c>
       <c r="BE80">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="BF80">
-        <v>2.38</v>
+        <v>3.75</v>
       </c>
       <c r="BG80">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="BH80">
-        <v>4.33</v>
+        <v>4.85</v>
       </c>
       <c r="BI80">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="BJ80">
-        <v>2.93</v>
+        <v>3.45</v>
       </c>
       <c r="BK80">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="BL80">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="BM80">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="BN80">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="BO80">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="BP80">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="81" spans="1:68">
@@ -17535,7 +17541,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7295040</v>
+        <v>7295036</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17550,19 +17556,19 @@
         <v>10</v>
       </c>
       <c r="G81" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H81" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81">
         <v>2</v>
@@ -17577,133 +17583,133 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="Q81">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="R81">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="S81">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="T81">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="U81">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="V81">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="W81">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="X81">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y81">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="Z81">
-        <v>1.5</v>
+        <v>3.05</v>
       </c>
       <c r="AA81">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="AB81">
-        <v>5.1</v>
+        <v>2.12</v>
       </c>
       <c r="AC81">
         <v>1.03</v>
       </c>
       <c r="AD81">
+        <v>15</v>
+      </c>
+      <c r="AE81">
+        <v>1.22</v>
+      </c>
+      <c r="AF81">
+        <v>4.33</v>
+      </c>
+      <c r="AG81">
+        <v>1.68</v>
+      </c>
+      <c r="AH81">
+        <v>2.06</v>
+      </c>
+      <c r="AI81">
+        <v>1.58</v>
+      </c>
+      <c r="AJ81">
+        <v>2.35</v>
+      </c>
+      <c r="AK81">
+        <v>1.7</v>
+      </c>
+      <c r="AL81">
+        <v>1.25</v>
+      </c>
+      <c r="AM81">
+        <v>1.38</v>
+      </c>
+      <c r="AN81">
+        <v>0.4</v>
+      </c>
+      <c r="AO81">
+        <v>2.25</v>
+      </c>
+      <c r="AP81">
+        <v>0.86</v>
+      </c>
+      <c r="AQ81">
+        <v>1.71</v>
+      </c>
+      <c r="AR81">
+        <v>1.07</v>
+      </c>
+      <c r="AS81">
+        <v>1.45</v>
+      </c>
+      <c r="AT81">
+        <v>2.52</v>
+      </c>
+      <c r="AU81">
+        <v>5</v>
+      </c>
+      <c r="AV81">
+        <v>4</v>
+      </c>
+      <c r="AW81">
+        <v>6</v>
+      </c>
+      <c r="AX81">
+        <v>8</v>
+      </c>
+      <c r="AY81">
         <v>11</v>
       </c>
-      <c r="AE81">
-        <v>1.17</v>
-      </c>
-      <c r="AF81">
-        <v>5</v>
-      </c>
-      <c r="AG81">
-        <v>1.52</v>
-      </c>
-      <c r="AH81">
-        <v>2.36</v>
-      </c>
-      <c r="AI81">
-        <v>1.6</v>
-      </c>
-      <c r="AJ81">
-        <v>2.15</v>
-      </c>
-      <c r="AK81">
-        <v>1.15</v>
-      </c>
-      <c r="AL81">
-        <v>1.15</v>
-      </c>
-      <c r="AM81">
-        <v>2.4</v>
-      </c>
-      <c r="AN81">
-        <v>1.5</v>
-      </c>
-      <c r="AO81">
-        <v>1</v>
-      </c>
-      <c r="AP81">
-        <v>1.86</v>
-      </c>
-      <c r="AQ81">
-        <v>0.71</v>
-      </c>
-      <c r="AR81">
-        <v>1.14</v>
-      </c>
-      <c r="AS81">
-        <v>1.01</v>
-      </c>
-      <c r="AT81">
-        <v>2.15</v>
-      </c>
-      <c r="AU81">
-        <v>10</v>
-      </c>
-      <c r="AV81">
-        <v>3</v>
-      </c>
-      <c r="AW81">
+      <c r="AZ81">
+        <v>12</v>
+      </c>
+      <c r="BA81">
+        <v>7</v>
+      </c>
+      <c r="BB81">
         <v>11</v>
       </c>
-      <c r="AX81">
-        <v>1</v>
-      </c>
-      <c r="AY81">
-        <v>21</v>
-      </c>
-      <c r="AZ81">
-        <v>4</v>
-      </c>
-      <c r="BA81">
-        <v>17</v>
-      </c>
-      <c r="BB81">
-        <v>2</v>
-      </c>
       <c r="BC81">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD81">
-        <v>1.33</v>
+        <v>2.25</v>
       </c>
       <c r="BE81">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="BF81">
-        <v>3.75</v>
+        <v>1.83</v>
       </c>
       <c r="BG81">
         <v>1.13</v>
@@ -17718,10 +17724,10 @@
         <v>3.45</v>
       </c>
       <c r="BK81">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="BL81">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="BM81">
         <v>1.85</v>
@@ -17730,10 +17736,10 @@
         <v>1.85</v>
       </c>
       <c r="BO81">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="BP81">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="82" spans="1:68">
@@ -17783,7 +17789,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -17947,7 +17953,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>7295113</v>
+        <v>7295100</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -17959,85 +17965,85 @@
         <v>45441.58333333334</v>
       </c>
       <c r="F83">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G83" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H83" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M83">
         <v>1</v>
       </c>
       <c r="N83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O83" t="s">
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="Q83">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R83">
-        <v>2.95</v>
+        <v>3.19</v>
       </c>
       <c r="S83">
-        <v>7</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="T83">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="U83">
-        <v>4.33</v>
+        <v>4.15</v>
       </c>
       <c r="V83">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="W83">
         <v>1.8</v>
       </c>
       <c r="X83">
-        <v>3.92</v>
+        <v>4.15</v>
       </c>
       <c r="Y83">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="Z83">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AA83">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB83">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AC83">
         <v>1.01</v>
       </c>
       <c r="AD83">
-        <v>29</v>
+        <v>31.5</v>
       </c>
       <c r="AE83">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AF83">
-        <v>7</v>
+        <v>5.85</v>
       </c>
       <c r="AG83">
         <v>1.33</v>
@@ -18046,106 +18052,106 @@
         <v>3</v>
       </c>
       <c r="AI83">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AJ83">
         <v>1.93</v>
       </c>
       <c r="AK83">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AL83">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AM83">
-        <v>4.2</v>
+        <v>4.38</v>
       </c>
       <c r="AN83">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AO83">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="AP83">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ83">
-        <v>0.43</v>
+        <v>0.71</v>
       </c>
       <c r="AR83">
-        <v>1.48</v>
+        <v>1.93</v>
       </c>
       <c r="AS83">
-        <v>1.37</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT83">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="AU83">
+        <v>8</v>
+      </c>
+      <c r="AV83">
+        <v>4</v>
+      </c>
+      <c r="AW83">
+        <v>8</v>
+      </c>
+      <c r="AX83">
+        <v>5</v>
+      </c>
+      <c r="AY83">
+        <v>16</v>
+      </c>
+      <c r="AZ83">
+        <v>9</v>
+      </c>
+      <c r="BA83">
         <v>7</v>
-      </c>
-      <c r="AV83">
-        <v>6</v>
-      </c>
-      <c r="AW83">
-        <v>6</v>
-      </c>
-      <c r="AX83">
-        <v>2</v>
-      </c>
-      <c r="AY83">
-        <v>13</v>
-      </c>
-      <c r="AZ83">
-        <v>8</v>
-      </c>
-      <c r="BA83">
-        <v>4</v>
       </c>
       <c r="BB83">
         <v>5</v>
       </c>
       <c r="BC83">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD83">
-        <v>1.19</v>
+        <v>1.05</v>
       </c>
       <c r="BE83">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BF83">
-        <v>5.65</v>
+        <v>11</v>
       </c>
       <c r="BG83">
+        <v>0</v>
+      </c>
+      <c r="BH83">
+        <v>0</v>
+      </c>
+      <c r="BI83">
         <v>1.11</v>
       </c>
-      <c r="BH83">
-        <v>5.15</v>
-      </c>
-      <c r="BI83">
-        <v>1.25</v>
-      </c>
       <c r="BJ83">
-        <v>3.42</v>
+        <v>5.25</v>
       </c>
       <c r="BK83">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
       <c r="BL83">
-        <v>2.52</v>
+        <v>3.56</v>
       </c>
       <c r="BM83">
-        <v>1.79</v>
+        <v>1.42</v>
       </c>
       <c r="BN83">
-        <v>1.96</v>
+        <v>2.65</v>
       </c>
       <c r="BO83">
-        <v>2.23</v>
+        <v>1.7</v>
       </c>
       <c r="BP83">
-        <v>1.58</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="84" spans="1:68">
@@ -18153,7 +18159,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7295100</v>
+        <v>7295099</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -18168,25 +18174,25 @@
         <v>18</v>
       </c>
       <c r="G84" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H84" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84">
         <v>3</v>
@@ -18195,163 +18201,163 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="Q84">
-        <v>1.58</v>
+        <v>3.08</v>
       </c>
       <c r="R84">
-        <v>3.19</v>
+        <v>2.22</v>
       </c>
       <c r="S84">
-        <v>9.449999999999999</v>
+        <v>3.57</v>
       </c>
       <c r="T84">
-        <v>1.21</v>
+        <v>1.42</v>
       </c>
       <c r="U84">
-        <v>4.15</v>
+        <v>2.97</v>
       </c>
       <c r="V84">
-        <v>2.08</v>
+        <v>3.05</v>
       </c>
       <c r="W84">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="X84">
-        <v>4.15</v>
+        <v>7.6</v>
       </c>
       <c r="Y84">
-        <v>1.21</v>
+        <v>1.07</v>
       </c>
       <c r="Z84">
-        <v>1.21</v>
+        <v>2.36</v>
       </c>
       <c r="AA84">
-        <v>6.1</v>
+        <v>3.12</v>
       </c>
       <c r="AB84">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="AC84">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD84">
-        <v>31.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE84">
-        <v>1.08</v>
+        <v>1.3</v>
       </c>
       <c r="AF84">
-        <v>5.85</v>
+        <v>3.1</v>
       </c>
       <c r="AG84">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AH84">
-        <v>3</v>
+        <v>1.73</v>
       </c>
       <c r="AI84">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="AJ84">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="AK84">
-        <v>1.06</v>
+        <v>1.43</v>
       </c>
       <c r="AL84">
-        <v>1.11</v>
+        <v>1.36</v>
       </c>
       <c r="AM84">
-        <v>4.38</v>
+        <v>1.55</v>
       </c>
       <c r="AN84">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AO84">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="AP84">
-        <v>2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ84">
-        <v>0.71</v>
+        <v>1.75</v>
       </c>
       <c r="AR84">
-        <v>1.93</v>
+        <v>1.53</v>
       </c>
       <c r="AS84">
-        <v>0.9399999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AT84">
-        <v>2.87</v>
+        <v>2.68</v>
       </c>
       <c r="AU84">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW84">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AX84">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY84">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ84">
         <v>9</v>
       </c>
       <c r="BA84">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC84">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD84">
-        <v>1.05</v>
+        <v>1.71</v>
       </c>
       <c r="BE84">
-        <v>19</v>
+        <v>9.1</v>
       </c>
       <c r="BF84">
-        <v>11</v>
+        <v>2.51</v>
       </c>
       <c r="BG84">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="BH84">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="BI84">
-        <v>1.11</v>
+        <v>1.7</v>
       </c>
       <c r="BJ84">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="BK84">
-        <v>1.23</v>
+        <v>1.77</v>
       </c>
       <c r="BL84">
-        <v>3.56</v>
+        <v>1.95</v>
       </c>
       <c r="BM84">
-        <v>1.42</v>
+        <v>1.95</v>
       </c>
       <c r="BN84">
-        <v>2.65</v>
+        <v>1.77</v>
       </c>
       <c r="BO84">
-        <v>1.7</v>
+        <v>3.08</v>
       </c>
       <c r="BP84">
-        <v>2.05</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="85" spans="1:68">
@@ -18359,7 +18365,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7295099</v>
+        <v>7295113</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -18371,193 +18377,193 @@
         <v>45441.58333333334</v>
       </c>
       <c r="F85">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G85" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H85" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85">
         <v>2</v>
       </c>
       <c r="L85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O85" t="s">
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="Q85">
-        <v>3.08</v>
+        <v>1.57</v>
       </c>
       <c r="R85">
-        <v>2.22</v>
+        <v>2.95</v>
       </c>
       <c r="S85">
-        <v>3.57</v>
+        <v>7</v>
       </c>
       <c r="T85">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="U85">
-        <v>2.97</v>
+        <v>4.33</v>
       </c>
       <c r="V85">
-        <v>3.05</v>
+        <v>1.91</v>
       </c>
       <c r="W85">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="X85">
-        <v>7.6</v>
+        <v>3.92</v>
       </c>
       <c r="Y85">
-        <v>1.07</v>
+        <v>1.23</v>
       </c>
       <c r="Z85">
-        <v>2.36</v>
+        <v>1.22</v>
       </c>
       <c r="AA85">
-        <v>3.12</v>
+        <v>6</v>
       </c>
       <c r="AB85">
-        <v>2.8</v>
+        <v>8.6</v>
       </c>
       <c r="AC85">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD85">
-        <v>8.5</v>
+        <v>29</v>
       </c>
       <c r="AE85">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="AF85">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="AG85">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AH85">
-        <v>1.73</v>
+        <v>3</v>
       </c>
       <c r="AI85">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="AJ85">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="AK85">
-        <v>1.43</v>
+        <v>1.04</v>
       </c>
       <c r="AL85">
-        <v>1.36</v>
+        <v>1.1</v>
       </c>
       <c r="AM85">
-        <v>1.55</v>
+        <v>4.2</v>
       </c>
       <c r="AN85">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="AO85">
-        <v>2.6</v>
+        <v>0.2</v>
       </c>
       <c r="AP85">
-        <v>1.13</v>
+        <v>2.14</v>
       </c>
       <c r="AQ85">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AR85">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AS85">
-        <v>1.15</v>
+        <v>1.37</v>
       </c>
       <c r="AT85">
-        <v>2.68</v>
+        <v>2.85</v>
       </c>
       <c r="AU85">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AV85">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW85">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX85">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AY85">
         <v>13</v>
       </c>
       <c r="AZ85">
+        <v>8</v>
+      </c>
+      <c r="BA85">
+        <v>4</v>
+      </c>
+      <c r="BB85">
+        <v>5</v>
+      </c>
+      <c r="BC85">
         <v>9</v>
       </c>
-      <c r="BA85">
-        <v>5</v>
-      </c>
-      <c r="BB85">
-        <v>6</v>
-      </c>
-      <c r="BC85">
-        <v>11</v>
-      </c>
       <c r="BD85">
-        <v>1.71</v>
+        <v>1.19</v>
       </c>
       <c r="BE85">
-        <v>9.1</v>
+        <v>13</v>
       </c>
       <c r="BF85">
-        <v>2.51</v>
+        <v>5.65</v>
       </c>
       <c r="BG85">
-        <v>1.24</v>
+        <v>1.11</v>
       </c>
       <c r="BH85">
-        <v>3.48</v>
+        <v>5.15</v>
       </c>
       <c r="BI85">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="BJ85">
-        <v>2.05</v>
+        <v>3.42</v>
       </c>
       <c r="BK85">
-        <v>1.77</v>
+        <v>1.46</v>
       </c>
       <c r="BL85">
-        <v>1.95</v>
+        <v>2.52</v>
       </c>
       <c r="BM85">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="BN85">
-        <v>1.77</v>
+        <v>1.96</v>
       </c>
       <c r="BO85">
-        <v>3.08</v>
+        <v>2.23</v>
       </c>
       <c r="BP85">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="86" spans="1:68">
@@ -18607,7 +18613,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -18813,7 +18819,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -18977,7 +18983,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7295046</v>
+        <v>7295044</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18992,190 +18998,190 @@
         <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H88" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N88">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O88" t="s">
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>209</v>
+        <v>108</v>
       </c>
       <c r="Q88">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="R88">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="S88">
-        <v>3.99</v>
+        <v>4.75</v>
       </c>
       <c r="T88">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U88">
-        <v>3.23</v>
+        <v>3.3</v>
       </c>
       <c r="V88">
-        <v>2.78</v>
+        <v>2.55</v>
       </c>
       <c r="W88">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="X88">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="Y88">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="Z88">
-        <v>2.12</v>
+        <v>1.67</v>
       </c>
       <c r="AA88">
-        <v>3.23</v>
+        <v>3.63</v>
       </c>
       <c r="AB88">
-        <v>3.02</v>
+        <v>4.2</v>
       </c>
       <c r="AC88">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD88">
-        <v>9.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="AE88">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AF88">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="AG88">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AH88">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="AI88">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="AJ88">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AK88">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AL88">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AM88">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="AN88">
-        <v>0.6</v>
+        <v>1.75</v>
       </c>
       <c r="AO88">
-        <v>0.33</v>
+        <v>1.4</v>
       </c>
       <c r="AP88">
-        <v>0.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>0.43</v>
+        <v>1.14</v>
       </c>
       <c r="AR88">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AS88">
-        <v>1.35</v>
+        <v>0.92</v>
       </c>
       <c r="AT88">
-        <v>2.86</v>
+        <v>2.46</v>
       </c>
       <c r="AU88">
+        <v>5</v>
+      </c>
+      <c r="AV88">
+        <v>4</v>
+      </c>
+      <c r="AW88">
+        <v>5</v>
+      </c>
+      <c r="AX88">
+        <v>4</v>
+      </c>
+      <c r="AY88">
+        <v>10</v>
+      </c>
+      <c r="AZ88">
+        <v>8</v>
+      </c>
+      <c r="BA88">
+        <v>13</v>
+      </c>
+      <c r="BB88">
+        <v>2</v>
+      </c>
+      <c r="BC88">
+        <v>15</v>
+      </c>
+      <c r="BD88">
+        <v>1.44</v>
+      </c>
+      <c r="BE88">
         <v>9</v>
       </c>
-      <c r="AV88">
-        <v>5</v>
-      </c>
-      <c r="AW88">
-        <v>6</v>
-      </c>
-      <c r="AX88">
-        <v>1</v>
-      </c>
-      <c r="AY88">
-        <v>15</v>
-      </c>
-      <c r="AZ88">
-        <v>6</v>
-      </c>
-      <c r="BA88">
-        <v>9</v>
-      </c>
-      <c r="BB88">
-        <v>2</v>
-      </c>
-      <c r="BC88">
-        <v>11</v>
-      </c>
-      <c r="BD88">
-        <v>1.62</v>
-      </c>
-      <c r="BE88">
-        <v>8.5</v>
-      </c>
       <c r="BF88">
-        <v>2.62</v>
+        <v>3.25</v>
       </c>
       <c r="BG88">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="BH88">
-        <v>3.74</v>
+        <v>5.3</v>
       </c>
       <c r="BI88">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="BJ88">
-        <v>2.65</v>
+        <v>3.55</v>
       </c>
       <c r="BK88">
-        <v>1.74</v>
+        <v>1.48</v>
       </c>
       <c r="BL88">
-        <v>2.02</v>
+        <v>2.55</v>
       </c>
       <c r="BM88">
         <v>1.95</v>
       </c>
       <c r="BN88">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="BO88">
-        <v>2.88</v>
+        <v>2.35</v>
       </c>
       <c r="BP88">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="89" spans="1:68">
@@ -19303,7 +19309,7 @@
         <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ89">
         <v>1.43</v>
@@ -19595,7 +19601,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>7295044</v>
+        <v>7295045</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
@@ -19610,190 +19616,190 @@
         <v>11</v>
       </c>
       <c r="G91" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H91" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M91">
         <v>1</v>
       </c>
       <c r="N91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O91" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Q91">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="R91">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="S91">
-        <v>4.75</v>
+        <v>2.06</v>
       </c>
       <c r="T91">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="U91">
-        <v>3.3</v>
+        <v>3.48</v>
       </c>
       <c r="V91">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="W91">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="X91">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="Y91">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="Z91">
-        <v>1.67</v>
+        <v>4.8</v>
       </c>
       <c r="AA91">
-        <v>3.63</v>
+        <v>4</v>
       </c>
       <c r="AB91">
-        <v>4.2</v>
+        <v>1.53</v>
       </c>
       <c r="AC91">
         <v>1.03</v>
       </c>
       <c r="AD91">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE91">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AF91">
-        <v>4.33</v>
+        <v>4.55</v>
       </c>
       <c r="AG91">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="AH91">
-        <v>2.01</v>
+        <v>2.34</v>
       </c>
       <c r="AI91">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="AJ91">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AK91">
-        <v>1.19</v>
+        <v>2.38</v>
       </c>
       <c r="AL91">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AM91">
-        <v>2.2</v>
+        <v>1.16</v>
       </c>
       <c r="AN91">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="AO91">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="AP91">
-        <v>1.6</v>
+        <v>0.86</v>
       </c>
       <c r="AQ91">
-        <v>1.14</v>
+        <v>2.57</v>
       </c>
       <c r="AR91">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="AS91">
-        <v>0.92</v>
+        <v>1.5</v>
       </c>
       <c r="AT91">
-        <v>2.46</v>
+        <v>2.87</v>
       </c>
       <c r="AU91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV91">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX91">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY91">
+        <v>7</v>
+      </c>
+      <c r="AZ91">
+        <v>14</v>
+      </c>
+      <c r="BA91">
+        <v>1</v>
+      </c>
+      <c r="BB91">
+        <v>9</v>
+      </c>
+      <c r="BC91">
         <v>10</v>
       </c>
-      <c r="AZ91">
-        <v>8</v>
-      </c>
-      <c r="BA91">
-        <v>13</v>
-      </c>
-      <c r="BB91">
-        <v>2</v>
-      </c>
-      <c r="BC91">
-        <v>15</v>
-      </c>
       <c r="BD91">
-        <v>1.44</v>
+        <v>3.1</v>
       </c>
       <c r="BE91">
         <v>9</v>
       </c>
       <c r="BF91">
-        <v>3.25</v>
+        <v>1.44</v>
       </c>
       <c r="BG91">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="BH91">
-        <v>5.3</v>
+        <v>4.33</v>
       </c>
       <c r="BI91">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="BJ91">
-        <v>3.55</v>
+        <v>2.93</v>
       </c>
       <c r="BK91">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="BL91">
-        <v>2.55</v>
+        <v>2.19</v>
       </c>
       <c r="BM91">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BN91">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="BO91">
-        <v>2.35</v>
+        <v>2.58</v>
       </c>
       <c r="BP91">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="92" spans="1:68">
@@ -19801,7 +19807,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7295045</v>
+        <v>7295046</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -19816,10 +19822,10 @@
         <v>11</v>
       </c>
       <c r="G92" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H92" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -19831,175 +19837,175 @@
         <v>0</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O92" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="Q92">
+        <v>2.75</v>
+      </c>
+      <c r="R92">
+        <v>2.33</v>
+      </c>
+      <c r="S92">
+        <v>3.99</v>
+      </c>
+      <c r="T92">
+        <v>1.36</v>
+      </c>
+      <c r="U92">
+        <v>3.23</v>
+      </c>
+      <c r="V92">
+        <v>2.78</v>
+      </c>
+      <c r="W92">
+        <v>1.46</v>
+      </c>
+      <c r="X92">
+        <v>6.6</v>
+      </c>
+      <c r="Y92">
+        <v>1.09</v>
+      </c>
+      <c r="Z92">
+        <v>2.12</v>
+      </c>
+      <c r="AA92">
+        <v>3.23</v>
+      </c>
+      <c r="AB92">
+        <v>3.02</v>
+      </c>
+      <c r="AC92">
+        <v>1.01</v>
+      </c>
+      <c r="AD92">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE92">
+        <v>1.24</v>
+      </c>
+      <c r="AF92">
+        <v>3.5</v>
+      </c>
+      <c r="AG92">
+        <v>1.8</v>
+      </c>
+      <c r="AH92">
+        <v>1.9</v>
+      </c>
+      <c r="AI92">
+        <v>1.67</v>
+      </c>
+      <c r="AJ92">
+        <v>2.1</v>
+      </c>
+      <c r="AK92">
+        <v>1.35</v>
+      </c>
+      <c r="AL92">
+        <v>1.26</v>
+      </c>
+      <c r="AM92">
+        <v>1.7</v>
+      </c>
+      <c r="AN92">
+        <v>0.6</v>
+      </c>
+      <c r="AO92">
+        <v>0.33</v>
+      </c>
+      <c r="AP92">
+        <v>0.57</v>
+      </c>
+      <c r="AQ92">
+        <v>0.5</v>
+      </c>
+      <c r="AR92">
+        <v>1.51</v>
+      </c>
+      <c r="AS92">
+        <v>1.35</v>
+      </c>
+      <c r="AT92">
+        <v>2.86</v>
+      </c>
+      <c r="AU92">
+        <v>9</v>
+      </c>
+      <c r="AV92">
         <v>5</v>
       </c>
-      <c r="R92">
-        <v>2.45</v>
-      </c>
-      <c r="S92">
-        <v>2.06</v>
-      </c>
-      <c r="T92">
-        <v>1.28</v>
-      </c>
-      <c r="U92">
-        <v>3.48</v>
-      </c>
-      <c r="V92">
-        <v>2.3</v>
-      </c>
-      <c r="W92">
-        <v>1.58</v>
-      </c>
-      <c r="X92">
-        <v>5.2</v>
-      </c>
-      <c r="Y92">
-        <v>1.14</v>
-      </c>
-      <c r="Z92">
-        <v>4.8</v>
-      </c>
-      <c r="AA92">
-        <v>4</v>
-      </c>
-      <c r="AB92">
-        <v>1.53</v>
-      </c>
-      <c r="AC92">
-        <v>1.03</v>
-      </c>
-      <c r="AD92">
+      <c r="AW92">
+        <v>6</v>
+      </c>
+      <c r="AX92">
+        <v>1</v>
+      </c>
+      <c r="AY92">
+        <v>15</v>
+      </c>
+      <c r="AZ92">
+        <v>6</v>
+      </c>
+      <c r="BA92">
+        <v>9</v>
+      </c>
+      <c r="BB92">
+        <v>2</v>
+      </c>
+      <c r="BC92">
         <v>11</v>
       </c>
-      <c r="AE92">
-        <v>1.14</v>
-      </c>
-      <c r="AF92">
-        <v>4.55</v>
-      </c>
-      <c r="AG92">
-        <v>1.53</v>
-      </c>
-      <c r="AH92">
-        <v>2.34</v>
-      </c>
-      <c r="AI92">
-        <v>1.63</v>
-      </c>
-      <c r="AJ92">
-        <v>2.19</v>
-      </c>
-      <c r="AK92">
-        <v>2.38</v>
-      </c>
-      <c r="AL92">
+      <c r="BD92">
+        <v>1.62</v>
+      </c>
+      <c r="BE92">
+        <v>8.5</v>
+      </c>
+      <c r="BF92">
+        <v>2.62</v>
+      </c>
+      <c r="BG92">
         <v>1.21</v>
       </c>
-      <c r="AM92">
-        <v>1.16</v>
-      </c>
-      <c r="AN92">
-        <v>1.2</v>
-      </c>
-      <c r="AO92">
-        <v>2.4</v>
-      </c>
-      <c r="AP92">
-        <v>0.86</v>
-      </c>
-      <c r="AQ92">
-        <v>2.57</v>
-      </c>
-      <c r="AR92">
-        <v>1.37</v>
-      </c>
-      <c r="AS92">
-        <v>1.5</v>
-      </c>
-      <c r="AT92">
-        <v>2.87</v>
-      </c>
-      <c r="AU92">
-        <v>4</v>
-      </c>
-      <c r="AV92">
-        <v>7</v>
-      </c>
-      <c r="AW92">
-        <v>3</v>
-      </c>
-      <c r="AX92">
-        <v>7</v>
-      </c>
-      <c r="AY92">
-        <v>7</v>
-      </c>
-      <c r="AZ92">
-        <v>14</v>
-      </c>
-      <c r="BA92">
-        <v>1</v>
-      </c>
-      <c r="BB92">
-        <v>9</v>
-      </c>
-      <c r="BC92">
-        <v>10</v>
-      </c>
-      <c r="BD92">
-        <v>3.1</v>
-      </c>
-      <c r="BE92">
-        <v>9</v>
-      </c>
-      <c r="BF92">
-        <v>1.44</v>
-      </c>
-      <c r="BG92">
-        <v>1.16</v>
-      </c>
       <c r="BH92">
-        <v>4.33</v>
+        <v>3.74</v>
       </c>
       <c r="BI92">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="BJ92">
-        <v>2.93</v>
+        <v>2.65</v>
       </c>
       <c r="BK92">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="BL92">
-        <v>2.19</v>
+        <v>2.02</v>
       </c>
       <c r="BM92">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BN92">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="BO92">
-        <v>2.58</v>
+        <v>2.88</v>
       </c>
       <c r="BP92">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="93" spans="1:68">
@@ -20049,7 +20055,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q93">
         <v>2.79</v>
@@ -20130,7 +20136,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ93">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR93">
         <v>1.43</v>
@@ -20255,7 +20261,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20461,7 +20467,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20667,7 +20673,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -20873,7 +20879,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21285,7 +21291,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21491,7 +21497,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21697,7 +21703,7 @@
         <v>116</v>
       </c>
       <c r="P101" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -21903,7 +21909,7 @@
         <v>159</v>
       </c>
       <c r="P102" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q102">
         <v>2.45</v>
@@ -21996,31 +22002,31 @@
         <v>3.28</v>
       </c>
       <c r="AU102">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV102">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW102">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX102">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY102">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ102">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA102">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BB102">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC102">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BD102">
         <v>1.61</v>
@@ -22109,7 +22115,7 @@
         <v>98</v>
       </c>
       <c r="P103" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22727,7 +22733,7 @@
         <v>118</v>
       </c>
       <c r="P106" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q106">
         <v>2.75</v>
@@ -22933,7 +22939,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23090,6 +23096,418 @@
       </c>
       <c r="BP107">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7295060</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45481.58333333334</v>
+      </c>
+      <c r="F108">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s">
+        <v>79</v>
+      </c>
+      <c r="H108" t="s">
+        <v>71</v>
+      </c>
+      <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>3</v>
+      </c>
+      <c r="L108">
+        <v>3</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>4</v>
+      </c>
+      <c r="O108" t="s">
+        <v>162</v>
+      </c>
+      <c r="P108" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q108">
+        <v>4</v>
+      </c>
+      <c r="R108">
+        <v>2.2</v>
+      </c>
+      <c r="S108">
+        <v>2.75</v>
+      </c>
+      <c r="T108">
+        <v>1.36</v>
+      </c>
+      <c r="U108">
+        <v>3</v>
+      </c>
+      <c r="V108">
+        <v>2.75</v>
+      </c>
+      <c r="W108">
+        <v>1.4</v>
+      </c>
+      <c r="X108">
+        <v>7</v>
+      </c>
+      <c r="Y108">
+        <v>1.1</v>
+      </c>
+      <c r="Z108">
+        <v>2.95</v>
+      </c>
+      <c r="AA108">
+        <v>3.21</v>
+      </c>
+      <c r="AB108">
+        <v>2.21</v>
+      </c>
+      <c r="AC108">
+        <v>1.01</v>
+      </c>
+      <c r="AD108">
+        <v>9.5</v>
+      </c>
+      <c r="AE108">
+        <v>1.25</v>
+      </c>
+      <c r="AF108">
+        <v>3.42</v>
+      </c>
+      <c r="AG108">
+        <v>1.96</v>
+      </c>
+      <c r="AH108">
+        <v>1.92</v>
+      </c>
+      <c r="AI108">
+        <v>1.7</v>
+      </c>
+      <c r="AJ108">
+        <v>2.05</v>
+      </c>
+      <c r="AK108">
+        <v>1.68</v>
+      </c>
+      <c r="AL108">
+        <v>1.29</v>
+      </c>
+      <c r="AM108">
+        <v>1.32</v>
+      </c>
+      <c r="AN108">
+        <v>1.5</v>
+      </c>
+      <c r="AO108">
+        <v>2</v>
+      </c>
+      <c r="AP108">
+        <v>1.71</v>
+      </c>
+      <c r="AQ108">
+        <v>1.75</v>
+      </c>
+      <c r="AR108">
+        <v>1.43</v>
+      </c>
+      <c r="AS108">
+        <v>1.18</v>
+      </c>
+      <c r="AT108">
+        <v>2.61</v>
+      </c>
+      <c r="AU108">
+        <v>10</v>
+      </c>
+      <c r="AV108">
+        <v>5</v>
+      </c>
+      <c r="AW108">
+        <v>5</v>
+      </c>
+      <c r="AX108">
+        <v>6</v>
+      </c>
+      <c r="AY108">
+        <v>15</v>
+      </c>
+      <c r="AZ108">
+        <v>11</v>
+      </c>
+      <c r="BA108">
+        <v>9</v>
+      </c>
+      <c r="BB108">
+        <v>8</v>
+      </c>
+      <c r="BC108">
+        <v>17</v>
+      </c>
+      <c r="BD108">
+        <v>2.5</v>
+      </c>
+      <c r="BE108">
+        <v>8.5</v>
+      </c>
+      <c r="BF108">
+        <v>1.67</v>
+      </c>
+      <c r="BG108">
+        <v>1.11</v>
+      </c>
+      <c r="BH108">
+        <v>5.2</v>
+      </c>
+      <c r="BI108">
+        <v>1.24</v>
+      </c>
+      <c r="BJ108">
+        <v>3.48</v>
+      </c>
+      <c r="BK108">
+        <v>1.49</v>
+      </c>
+      <c r="BL108">
+        <v>2.49</v>
+      </c>
+      <c r="BM108">
+        <v>1.85</v>
+      </c>
+      <c r="BN108">
+        <v>1.95</v>
+      </c>
+      <c r="BO108">
+        <v>2.22</v>
+      </c>
+      <c r="BP108">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7295065</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45481.58333333334</v>
+      </c>
+      <c r="F109">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s">
+        <v>81</v>
+      </c>
+      <c r="H109" t="s">
+        <v>85</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>2</v>
+      </c>
+      <c r="O109" t="s">
+        <v>92</v>
+      </c>
+      <c r="P109" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q109">
+        <v>2.38</v>
+      </c>
+      <c r="R109">
+        <v>2.4</v>
+      </c>
+      <c r="S109">
+        <v>4.33</v>
+      </c>
+      <c r="T109">
+        <v>1.29</v>
+      </c>
+      <c r="U109">
+        <v>3.5</v>
+      </c>
+      <c r="V109">
+        <v>2.38</v>
+      </c>
+      <c r="W109">
+        <v>1.53</v>
+      </c>
+      <c r="X109">
+        <v>5.5</v>
+      </c>
+      <c r="Y109">
+        <v>1.14</v>
+      </c>
+      <c r="Z109">
+        <v>1.76</v>
+      </c>
+      <c r="AA109">
+        <v>3.69</v>
+      </c>
+      <c r="AB109">
+        <v>3.8</v>
+      </c>
+      <c r="AC109">
+        <v>1.04</v>
+      </c>
+      <c r="AD109">
+        <v>10</v>
+      </c>
+      <c r="AE109">
+        <v>1.2</v>
+      </c>
+      <c r="AF109">
+        <v>4.33</v>
+      </c>
+      <c r="AG109">
+        <v>1.57</v>
+      </c>
+      <c r="AH109">
+        <v>2.31</v>
+      </c>
+      <c r="AI109">
+        <v>1.57</v>
+      </c>
+      <c r="AJ109">
+        <v>2.25</v>
+      </c>
+      <c r="AK109">
+        <v>1.22</v>
+      </c>
+      <c r="AL109">
+        <v>1.22</v>
+      </c>
+      <c r="AM109">
+        <v>1.95</v>
+      </c>
+      <c r="AN109">
+        <v>1.6</v>
+      </c>
+      <c r="AO109">
+        <v>0.43</v>
+      </c>
+      <c r="AP109">
+        <v>1.5</v>
+      </c>
+      <c r="AQ109">
+        <v>0.5</v>
+      </c>
+      <c r="AR109">
+        <v>1.56</v>
+      </c>
+      <c r="AS109">
+        <v>1.28</v>
+      </c>
+      <c r="AT109">
+        <v>2.84</v>
+      </c>
+      <c r="AU109">
+        <v>5</v>
+      </c>
+      <c r="AV109">
+        <v>4</v>
+      </c>
+      <c r="AW109">
+        <v>10</v>
+      </c>
+      <c r="AX109">
+        <v>6</v>
+      </c>
+      <c r="AY109">
+        <v>15</v>
+      </c>
+      <c r="AZ109">
+        <v>10</v>
+      </c>
+      <c r="BA109">
+        <v>7</v>
+      </c>
+      <c r="BB109">
+        <v>5</v>
+      </c>
+      <c r="BC109">
+        <v>12</v>
+      </c>
+      <c r="BD109">
+        <v>1.5</v>
+      </c>
+      <c r="BE109">
+        <v>9</v>
+      </c>
+      <c r="BF109">
+        <v>2.88</v>
+      </c>
+      <c r="BG109">
+        <v>1.14</v>
+      </c>
+      <c r="BH109">
+        <v>5.1</v>
+      </c>
+      <c r="BI109">
+        <v>1.28</v>
+      </c>
+      <c r="BJ109">
+        <v>3.4</v>
+      </c>
+      <c r="BK109">
+        <v>1.49</v>
+      </c>
+      <c r="BL109">
+        <v>2.5</v>
+      </c>
+      <c r="BM109">
+        <v>1.82</v>
+      </c>
+      <c r="BN109">
+        <v>1.98</v>
+      </c>
+      <c r="BO109">
+        <v>2.25</v>
+      </c>
+      <c r="BP109">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -505,6 +505,9 @@
     <t>['14', '45+4', '59']</t>
   </si>
   <si>
+    <t>['11', '26', '31', '69']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -689,6 +692,9 @@
   </si>
   <si>
     <t>['9']</t>
+  </si>
+  <si>
+    <t>['75']</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP109"/>
+  <dimension ref="A1:BP110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1309,7 +1315,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1515,7 +1521,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1927,7 +1933,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2133,7 +2139,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -3163,7 +3169,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3369,7 +3375,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -3656,7 +3662,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3859,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ14">
         <v>1.14</v>
@@ -3987,7 +3993,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4193,7 +4199,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4399,7 +4405,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4605,7 +4611,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4811,7 +4817,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -5223,7 +5229,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5635,7 +5641,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5841,7 +5847,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6253,7 +6259,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6459,7 +6465,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6665,7 +6671,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6871,7 +6877,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6949,7 +6955,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ29">
         <v>1.83</v>
@@ -7489,7 +7495,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7570,7 +7576,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ32">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR32">
         <v>0.59</v>
@@ -7901,7 +7907,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8107,7 +8113,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8313,7 +8319,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q36">
         <v>2.54</v>
@@ -8725,7 +8731,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -9549,7 +9555,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9836,7 +9842,7 @@
         <v>2</v>
       </c>
       <c r="AQ43">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR43">
         <v>1.98</v>
@@ -9961,7 +9967,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q44">
         <v>4.5</v>
@@ -10657,7 +10663,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ47">
         <v>1.71</v>
@@ -10991,7 +10997,7 @@
         <v>87</v>
       </c>
       <c r="P49" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11403,7 +11409,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11484,7 +11490,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ51">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR51">
         <v>1.86</v>
@@ -11609,7 +11615,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -12021,7 +12027,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12227,7 +12233,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12845,7 +12851,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13051,7 +13057,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13257,7 +13263,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13875,7 +13881,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14081,7 +14087,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14159,7 +14165,7 @@
         <v>0.6</v>
       </c>
       <c r="AP64">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ64">
         <v>1.13</v>
@@ -14493,7 +14499,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -14699,7 +14705,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -14905,7 +14911,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15729,7 +15735,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -15935,7 +15941,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16141,7 +16147,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16222,7 +16228,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ74">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR74">
         <v>1.59</v>
@@ -16347,7 +16353,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16759,7 +16765,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q77">
         <v>2.62</v>
@@ -16837,7 +16843,7 @@
         <v>1.2</v>
       </c>
       <c r="AP77">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ77">
         <v>1.43</v>
@@ -17377,7 +17383,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -17583,7 +17589,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q81">
         <v>3.6</v>
@@ -17789,7 +17795,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18407,7 +18413,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18613,7 +18619,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -18819,7 +18825,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19231,7 +19237,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19437,7 +19443,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q90">
         <v>2.7</v>
@@ -19849,7 +19855,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20055,7 +20061,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q93">
         <v>2.79</v>
@@ -20261,7 +20267,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20467,7 +20473,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20673,7 +20679,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -20751,7 +20757,7 @@
         <v>2.5</v>
       </c>
       <c r="AP96">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ96">
         <v>2.57</v>
@@ -20879,7 +20885,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21291,7 +21297,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21497,7 +21503,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21578,7 +21584,7 @@
         <v>2</v>
       </c>
       <c r="AQ100">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR100">
         <v>1.55</v>
@@ -21703,7 +21709,7 @@
         <v>116</v>
       </c>
       <c r="P101" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -21909,7 +21915,7 @@
         <v>159</v>
       </c>
       <c r="P102" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q102">
         <v>2.45</v>
@@ -22115,7 +22121,7 @@
         <v>98</v>
       </c>
       <c r="P103" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22733,7 +22739,7 @@
         <v>118</v>
       </c>
       <c r="P106" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q106">
         <v>2.75</v>
@@ -22939,7 +22945,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23145,7 +23151,7 @@
         <v>162</v>
       </c>
       <c r="P108" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -23508,6 +23514,212 @@
       </c>
       <c r="BP109">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7295066</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45485.58333333334</v>
+      </c>
+      <c r="F110">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>82</v>
+      </c>
+      <c r="H110" t="s">
+        <v>75</v>
+      </c>
+      <c r="I110">
+        <v>3</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>3</v>
+      </c>
+      <c r="L110">
+        <v>4</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>5</v>
+      </c>
+      <c r="O110" t="s">
+        <v>163</v>
+      </c>
+      <c r="P110" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q110">
+        <v>2.85</v>
+      </c>
+      <c r="R110">
+        <v>2.4</v>
+      </c>
+      <c r="S110">
+        <v>3.25</v>
+      </c>
+      <c r="T110">
+        <v>1.28</v>
+      </c>
+      <c r="U110">
+        <v>3.75</v>
+      </c>
+      <c r="V110">
+        <v>2.3</v>
+      </c>
+      <c r="W110">
+        <v>1.6</v>
+      </c>
+      <c r="X110">
+        <v>5</v>
+      </c>
+      <c r="Y110">
+        <v>1.16</v>
+      </c>
+      <c r="Z110">
+        <v>2.3</v>
+      </c>
+      <c r="AA110">
+        <v>3.5</v>
+      </c>
+      <c r="AB110">
+        <v>2.5</v>
+      </c>
+      <c r="AC110">
+        <v>1.02</v>
+      </c>
+      <c r="AD110">
+        <v>21</v>
+      </c>
+      <c r="AE110">
+        <v>1.18</v>
+      </c>
+      <c r="AF110">
+        <v>5</v>
+      </c>
+      <c r="AG110">
+        <v>1.53</v>
+      </c>
+      <c r="AH110">
+        <v>2.25</v>
+      </c>
+      <c r="AI110">
+        <v>1.48</v>
+      </c>
+      <c r="AJ110">
+        <v>2.65</v>
+      </c>
+      <c r="AK110">
+        <v>1.45</v>
+      </c>
+      <c r="AL110">
+        <v>1.22</v>
+      </c>
+      <c r="AM110">
+        <v>1.65</v>
+      </c>
+      <c r="AN110">
+        <v>0.5</v>
+      </c>
+      <c r="AO110">
+        <v>0.67</v>
+      </c>
+      <c r="AP110">
+        <v>0.86</v>
+      </c>
+      <c r="AQ110">
+        <v>0.57</v>
+      </c>
+      <c r="AR110">
+        <v>1.6</v>
+      </c>
+      <c r="AS110">
+        <v>1.2</v>
+      </c>
+      <c r="AT110">
+        <v>2.8</v>
+      </c>
+      <c r="AU110">
+        <v>0</v>
+      </c>
+      <c r="AV110">
+        <v>0</v>
+      </c>
+      <c r="AW110">
+        <v>3</v>
+      </c>
+      <c r="AX110">
+        <v>3</v>
+      </c>
+      <c r="AY110">
+        <v>3</v>
+      </c>
+      <c r="AZ110">
+        <v>3</v>
+      </c>
+      <c r="BA110">
+        <v>0</v>
+      </c>
+      <c r="BB110">
+        <v>9</v>
+      </c>
+      <c r="BC110">
+        <v>9</v>
+      </c>
+      <c r="BD110">
+        <v>1.69</v>
+      </c>
+      <c r="BE110">
+        <v>7.05</v>
+      </c>
+      <c r="BF110">
+        <v>2.26</v>
+      </c>
+      <c r="BG110">
+        <v>1.14</v>
+      </c>
+      <c r="BH110">
+        <v>4.7</v>
+      </c>
+      <c r="BI110">
+        <v>1.28</v>
+      </c>
+      <c r="BJ110">
+        <v>3.18</v>
+      </c>
+      <c r="BK110">
+        <v>1.55</v>
+      </c>
+      <c r="BL110">
+        <v>2.33</v>
+      </c>
+      <c r="BM110">
+        <v>1.92</v>
+      </c>
+      <c r="BN110">
+        <v>1.8</v>
+      </c>
+      <c r="BO110">
+        <v>2.5</v>
+      </c>
+      <c r="BP110">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -23656,31 +23656,31 @@
         <v>2.8</v>
       </c>
       <c r="AU110">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV110">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AW110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY110">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AZ110">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="BA110">
         <v>0</v>
       </c>
       <c r="BB110">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC110">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD110">
         <v>1.69</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="238">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -508,6 +508,24 @@
     <t>['11', '26', '31', '69']</t>
   </si>
   <si>
+    <t>['15', '17', '47']</t>
+  </si>
+  <si>
+    <t>['46', '67']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['28', '59']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -695,6 +713,21 @@
   </si>
   <si>
     <t>['75']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['24', '63']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['50', '84']</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP110"/>
+  <dimension ref="A1:BP117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1315,7 +1348,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1393,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ2">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1521,7 +1554,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1599,10 +1632,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1808,7 +1841,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ4">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1933,7 +1966,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2011,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>1.71</v>
@@ -2139,7 +2172,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2217,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2629,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ8">
         <v>1.43</v>
@@ -2838,7 +2871,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ9">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3169,7 +3202,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3250,7 +3283,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ11">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3375,7 +3408,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -3993,7 +4026,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4074,7 +4107,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ15">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4199,7 +4232,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4277,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ16">
         <v>1.75</v>
@@ -4405,7 +4438,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4483,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
         <v>1.43</v>
@@ -4611,7 +4644,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4689,7 +4722,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ18">
         <v>1.71</v>
@@ -4817,7 +4850,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -4895,10 +4928,10 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>1.53</v>
@@ -5104,7 +5137,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ20">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR20">
         <v>2.32</v>
@@ -5229,7 +5262,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5307,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ21">
         <v>0.5</v>
@@ -5516,7 +5549,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ22">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>1.3</v>
@@ -5641,7 +5674,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5719,10 +5752,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR23">
         <v>2.02</v>
@@ -5847,7 +5880,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -5928,7 +5961,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ24">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR24">
         <v>2.18</v>
@@ -6131,10 +6164,10 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ25">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
         <v>2.34</v>
@@ -6259,7 +6292,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6465,7 +6498,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6546,7 +6579,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ27">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR27">
         <v>1.08</v>
@@ -6671,7 +6704,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6749,7 +6782,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ28">
         <v>1.71</v>
@@ -6877,7 +6910,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6958,7 +6991,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ29">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <v>1.39</v>
@@ -7161,7 +7194,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ30">
         <v>1.14</v>
@@ -7367,7 +7400,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ31">
         <v>1.75</v>
@@ -7495,7 +7528,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7907,7 +7940,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -7988,7 +8021,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ34">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR34">
         <v>1.56</v>
@@ -8113,7 +8146,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8194,7 +8227,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ35">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR35">
         <v>1.13</v>
@@ -8319,7 +8352,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q36">
         <v>2.54</v>
@@ -8400,7 +8433,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ36">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR36">
         <v>1.19</v>
@@ -8606,7 +8639,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ37">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR37">
         <v>2.03</v>
@@ -8731,7 +8764,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -8809,7 +8842,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <v>1.43</v>
@@ -9221,7 +9254,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
         <v>0.5</v>
@@ -9427,10 +9460,10 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR41">
         <v>1.56</v>
@@ -9555,7 +9588,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9633,7 +9666,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ42">
         <v>1.83</v>
@@ -9839,7 +9872,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ43">
         <v>0.57</v>
@@ -9967,7 +10000,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q44">
         <v>4.5</v>
@@ -10045,10 +10078,10 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ44">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <v>1.32</v>
@@ -10254,7 +10287,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ45">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR45">
         <v>1.4</v>
@@ -10460,7 +10493,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ46">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>1.51</v>
@@ -10872,7 +10905,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ48">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR48">
         <v>1.38</v>
@@ -10997,7 +11030,7 @@
         <v>87</v>
       </c>
       <c r="P49" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11075,7 +11108,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ49">
         <v>1.75</v>
@@ -11281,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ50">
         <v>0.83</v>
@@ -11409,7 +11442,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11615,7 +11648,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -11696,7 +11729,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ52">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR52">
         <v>1.4</v>
@@ -12027,7 +12060,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12233,7 +12266,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12314,7 +12347,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ55">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR55">
         <v>1.29</v>
@@ -12517,7 +12550,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ56">
         <v>1.43</v>
@@ -12723,7 +12756,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ57">
         <v>1.14</v>
@@ -12851,7 +12884,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -12929,7 +12962,7 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
         <v>1.71</v>
@@ -13057,7 +13090,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13135,10 +13168,10 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ59">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR59">
         <v>1.19</v>
@@ -13263,7 +13296,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13344,7 +13377,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ60">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR60">
         <v>1.09</v>
@@ -13547,10 +13580,10 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR61">
         <v>1.32</v>
@@ -13881,7 +13914,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -13959,7 +13992,7 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ63">
         <v>1.71</v>
@@ -14087,7 +14120,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14168,7 +14201,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ64">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR64">
         <v>1.5</v>
@@ -14374,7 +14407,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ65">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -14499,7 +14532,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -14577,7 +14610,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ66">
         <v>0.5</v>
@@ -14705,7 +14738,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -14911,7 +14944,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -14989,7 +15022,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ68">
         <v>1.83</v>
@@ -15198,7 +15231,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ69">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR69">
         <v>1.61</v>
@@ -15404,7 +15437,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ70">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR70">
         <v>1.23</v>
@@ -15735,7 +15768,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -15813,7 +15846,7 @@
         <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ72">
         <v>1.75</v>
@@ -15941,7 +15974,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16147,7 +16180,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16225,7 +16258,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
         <v>0.57</v>
@@ -16353,7 +16386,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16434,7 +16467,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ75">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR75">
         <v>1.51</v>
@@ -16637,7 +16670,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ76">
         <v>0.83</v>
@@ -16765,7 +16798,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q77">
         <v>2.62</v>
@@ -16846,7 +16879,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ77">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR77">
         <v>1.56</v>
@@ -17049,10 +17082,10 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ78">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR78">
         <v>1.46</v>
@@ -17383,7 +17416,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -17464,7 +17497,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ80">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR80">
         <v>1.14</v>
@@ -17589,7 +17622,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q81">
         <v>3.6</v>
@@ -17667,7 +17700,7 @@
         <v>2.25</v>
       </c>
       <c r="AP81">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ81">
         <v>1.71</v>
@@ -17795,7 +17828,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -17873,10 +17906,10 @@
         <v>1.75</v>
       </c>
       <c r="AP82">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ82">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR82">
         <v>2.05</v>
@@ -18079,10 +18112,10 @@
         <v>0.8</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ83">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR83">
         <v>1.93</v>
@@ -18285,7 +18318,7 @@
         <v>2.6</v>
       </c>
       <c r="AP84">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ84">
         <v>1.75</v>
@@ -18413,7 +18446,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18619,7 +18652,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -18825,7 +18858,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19237,7 +19270,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19443,7 +19476,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q90">
         <v>2.7</v>
@@ -19521,7 +19554,7 @@
         <v>1.8</v>
       </c>
       <c r="AP90">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
         <v>1.71</v>
@@ -19730,7 +19763,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ91">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR91">
         <v>1.37</v>
@@ -19855,7 +19888,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20061,7 +20094,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q93">
         <v>2.79</v>
@@ -20267,7 +20300,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20345,10 +20378,10 @@
         <v>0.86</v>
       </c>
       <c r="AP94">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ94">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR94">
         <v>1.46</v>
@@ -20473,7 +20506,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20551,10 +20584,10 @@
         <v>2.2</v>
       </c>
       <c r="AP95">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ95">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR95">
         <v>1.17</v>
@@ -20679,7 +20712,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -20760,7 +20793,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ96">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR96">
         <v>1.75</v>
@@ -20885,7 +20918,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -20963,10 +20996,10 @@
         <v>0.67</v>
       </c>
       <c r="AP97">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ97">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR97">
         <v>1.11</v>
@@ -21169,10 +21202,10 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ98">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR98">
         <v>1.97</v>
@@ -21297,7 +21330,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21375,10 +21408,10 @@
         <v>2</v>
       </c>
       <c r="AP99">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ99">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR99">
         <v>1.54</v>
@@ -21503,7 +21536,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21581,7 +21614,7 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ100">
         <v>0.57</v>
@@ -21709,7 +21742,7 @@
         <v>116</v>
       </c>
       <c r="P101" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -21787,7 +21820,7 @@
         <v>0.25</v>
       </c>
       <c r="AP101">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ101">
         <v>0.83</v>
@@ -21915,7 +21948,7 @@
         <v>159</v>
       </c>
       <c r="P102" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q102">
         <v>2.45</v>
@@ -22121,7 +22154,7 @@
         <v>98</v>
       </c>
       <c r="P103" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22739,7 +22772,7 @@
         <v>118</v>
       </c>
       <c r="P106" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q106">
         <v>2.75</v>
@@ -22945,7 +22978,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23151,7 +23184,7 @@
         <v>162</v>
       </c>
       <c r="P108" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -23563,7 +23596,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -23720,6 +23753,1448 @@
       </c>
       <c r="BP110">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7295069</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45486.5</v>
+      </c>
+      <c r="F111">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>74</v>
+      </c>
+      <c r="H111" t="s">
+        <v>81</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>3</v>
+      </c>
+      <c r="L111">
+        <v>3</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>4</v>
+      </c>
+      <c r="O111" t="s">
+        <v>164</v>
+      </c>
+      <c r="P111" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q111">
+        <v>2.63</v>
+      </c>
+      <c r="R111">
+        <v>2.3</v>
+      </c>
+      <c r="S111">
+        <v>3.75</v>
+      </c>
+      <c r="T111">
+        <v>1.3</v>
+      </c>
+      <c r="U111">
+        <v>3.4</v>
+      </c>
+      <c r="V111">
+        <v>2.5</v>
+      </c>
+      <c r="W111">
+        <v>1.5</v>
+      </c>
+      <c r="X111">
+        <v>6</v>
+      </c>
+      <c r="Y111">
+        <v>1.13</v>
+      </c>
+      <c r="Z111">
+        <v>2.52</v>
+      </c>
+      <c r="AA111">
+        <v>5.08</v>
+      </c>
+      <c r="AB111">
+        <v>1.94</v>
+      </c>
+      <c r="AC111">
+        <v>1.03</v>
+      </c>
+      <c r="AD111">
+        <v>16</v>
+      </c>
+      <c r="AE111">
+        <v>1.18</v>
+      </c>
+      <c r="AF111">
+        <v>4.48</v>
+      </c>
+      <c r="AG111">
+        <v>1.66</v>
+      </c>
+      <c r="AH111">
+        <v>2.23</v>
+      </c>
+      <c r="AI111">
+        <v>1.57</v>
+      </c>
+      <c r="AJ111">
+        <v>2.25</v>
+      </c>
+      <c r="AK111">
+        <v>1.36</v>
+      </c>
+      <c r="AL111">
+        <v>1.22</v>
+      </c>
+      <c r="AM111">
+        <v>1.75</v>
+      </c>
+      <c r="AN111">
+        <v>0.67</v>
+      </c>
+      <c r="AO111">
+        <v>1.43</v>
+      </c>
+      <c r="AP111">
+        <v>1</v>
+      </c>
+      <c r="AQ111">
+        <v>1.25</v>
+      </c>
+      <c r="AR111">
+        <v>1.13</v>
+      </c>
+      <c r="AS111">
+        <v>1.33</v>
+      </c>
+      <c r="AT111">
+        <v>2.46</v>
+      </c>
+      <c r="AU111">
+        <v>11</v>
+      </c>
+      <c r="AV111">
+        <v>3</v>
+      </c>
+      <c r="AW111">
+        <v>5</v>
+      </c>
+      <c r="AX111">
+        <v>3</v>
+      </c>
+      <c r="AY111">
+        <v>16</v>
+      </c>
+      <c r="AZ111">
+        <v>6</v>
+      </c>
+      <c r="BA111">
+        <v>10</v>
+      </c>
+      <c r="BB111">
+        <v>2</v>
+      </c>
+      <c r="BC111">
+        <v>12</v>
+      </c>
+      <c r="BD111">
+        <v>1.64</v>
+      </c>
+      <c r="BE111">
+        <v>8</v>
+      </c>
+      <c r="BF111">
+        <v>2.75</v>
+      </c>
+      <c r="BG111">
+        <v>1.11</v>
+      </c>
+      <c r="BH111">
+        <v>6</v>
+      </c>
+      <c r="BI111">
+        <v>1.24</v>
+      </c>
+      <c r="BJ111">
+        <v>3.85</v>
+      </c>
+      <c r="BK111">
+        <v>1.43</v>
+      </c>
+      <c r="BL111">
+        <v>2.7</v>
+      </c>
+      <c r="BM111">
+        <v>1.73</v>
+      </c>
+      <c r="BN111">
+        <v>2</v>
+      </c>
+      <c r="BO111">
+        <v>2.2</v>
+      </c>
+      <c r="BP111">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7295067</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45486.5</v>
+      </c>
+      <c r="F112">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>71</v>
+      </c>
+      <c r="H112" t="s">
+        <v>72</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112" t="s">
+        <v>87</v>
+      </c>
+      <c r="P112" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q112">
+        <v>3.6</v>
+      </c>
+      <c r="R112">
+        <v>2.25</v>
+      </c>
+      <c r="S112">
+        <v>2.75</v>
+      </c>
+      <c r="T112">
+        <v>1.33</v>
+      </c>
+      <c r="U112">
+        <v>3.25</v>
+      </c>
+      <c r="V112">
+        <v>2.63</v>
+      </c>
+      <c r="W112">
+        <v>1.44</v>
+      </c>
+      <c r="X112">
+        <v>6.5</v>
+      </c>
+      <c r="Y112">
+        <v>1.11</v>
+      </c>
+      <c r="Z112">
+        <v>1.58</v>
+      </c>
+      <c r="AA112">
+        <v>4.86</v>
+      </c>
+      <c r="AB112">
+        <v>3.72</v>
+      </c>
+      <c r="AC112">
+        <v>1.01</v>
+      </c>
+      <c r="AD112">
+        <v>9.9</v>
+      </c>
+      <c r="AE112">
+        <v>1.2</v>
+      </c>
+      <c r="AF112">
+        <v>3.9</v>
+      </c>
+      <c r="AG112">
+        <v>1.82</v>
+      </c>
+      <c r="AH112">
+        <v>2</v>
+      </c>
+      <c r="AI112">
+        <v>1.62</v>
+      </c>
+      <c r="AJ112">
+        <v>2.2</v>
+      </c>
+      <c r="AK112">
+        <v>1.7</v>
+      </c>
+      <c r="AL112">
+        <v>1.3</v>
+      </c>
+      <c r="AM112">
+        <v>1.36</v>
+      </c>
+      <c r="AN112">
+        <v>1.6</v>
+      </c>
+      <c r="AO112">
+        <v>2.17</v>
+      </c>
+      <c r="AP112">
+        <v>1.5</v>
+      </c>
+      <c r="AQ112">
+        <v>2</v>
+      </c>
+      <c r="AR112">
+        <v>1.22</v>
+      </c>
+      <c r="AS112">
+        <v>1.56</v>
+      </c>
+      <c r="AT112">
+        <v>2.78</v>
+      </c>
+      <c r="AU112">
+        <v>7</v>
+      </c>
+      <c r="AV112">
+        <v>4</v>
+      </c>
+      <c r="AW112">
+        <v>2</v>
+      </c>
+      <c r="AX112">
+        <v>5</v>
+      </c>
+      <c r="AY112">
+        <v>9</v>
+      </c>
+      <c r="AZ112">
+        <v>9</v>
+      </c>
+      <c r="BA112">
+        <v>9</v>
+      </c>
+      <c r="BB112">
+        <v>4</v>
+      </c>
+      <c r="BC112">
+        <v>13</v>
+      </c>
+      <c r="BD112">
+        <v>2.18</v>
+      </c>
+      <c r="BE112">
+        <v>7.5</v>
+      </c>
+      <c r="BF112">
+        <v>1.97</v>
+      </c>
+      <c r="BG112">
+        <v>1.18</v>
+      </c>
+      <c r="BH112">
+        <v>4.5</v>
+      </c>
+      <c r="BI112">
+        <v>1.34</v>
+      </c>
+      <c r="BJ112">
+        <v>3.1</v>
+      </c>
+      <c r="BK112">
+        <v>1.61</v>
+      </c>
+      <c r="BL112">
+        <v>2.23</v>
+      </c>
+      <c r="BM112">
+        <v>2</v>
+      </c>
+      <c r="BN112">
+        <v>1.73</v>
+      </c>
+      <c r="BO112">
+        <v>2.7</v>
+      </c>
+      <c r="BP112">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7295071</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45486.5</v>
+      </c>
+      <c r="F113">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s">
+        <v>76</v>
+      </c>
+      <c r="H113" t="s">
+        <v>79</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>2</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+      <c r="O113" t="s">
+        <v>165</v>
+      </c>
+      <c r="P113" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q113">
+        <v>1.8</v>
+      </c>
+      <c r="R113">
+        <v>2.75</v>
+      </c>
+      <c r="S113">
+        <v>6</v>
+      </c>
+      <c r="T113">
+        <v>1.22</v>
+      </c>
+      <c r="U113">
+        <v>4</v>
+      </c>
+      <c r="V113">
+        <v>2</v>
+      </c>
+      <c r="W113">
+        <v>1.73</v>
+      </c>
+      <c r="X113">
+        <v>4.33</v>
+      </c>
+      <c r="Y113">
+        <v>1.2</v>
+      </c>
+      <c r="Z113">
+        <v>1.32</v>
+      </c>
+      <c r="AA113">
+        <v>7.24</v>
+      </c>
+      <c r="AB113">
+        <v>4.67</v>
+      </c>
+      <c r="AC113">
+        <v>1.02</v>
+      </c>
+      <c r="AD113">
+        <v>29</v>
+      </c>
+      <c r="AE113">
+        <v>1.08</v>
+      </c>
+      <c r="AF113">
+        <v>6.05</v>
+      </c>
+      <c r="AG113">
+        <v>1.3</v>
+      </c>
+      <c r="AH113">
+        <v>3.12</v>
+      </c>
+      <c r="AI113">
+        <v>1.62</v>
+      </c>
+      <c r="AJ113">
+        <v>2.2</v>
+      </c>
+      <c r="AK113">
+        <v>1.08</v>
+      </c>
+      <c r="AL113">
+        <v>1.12</v>
+      </c>
+      <c r="AM113">
+        <v>3.2</v>
+      </c>
+      <c r="AN113">
+        <v>2</v>
+      </c>
+      <c r="AO113">
+        <v>0.71</v>
+      </c>
+      <c r="AP113">
+        <v>2.13</v>
+      </c>
+      <c r="AQ113">
+        <v>0.63</v>
+      </c>
+      <c r="AR113">
+        <v>1.52</v>
+      </c>
+      <c r="AS113">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT113">
+        <v>2.46</v>
+      </c>
+      <c r="AU113">
+        <v>9</v>
+      </c>
+      <c r="AV113">
+        <v>2</v>
+      </c>
+      <c r="AW113">
+        <v>6</v>
+      </c>
+      <c r="AX113">
+        <v>5</v>
+      </c>
+      <c r="AY113">
+        <v>15</v>
+      </c>
+      <c r="AZ113">
+        <v>7</v>
+      </c>
+      <c r="BA113">
+        <v>6</v>
+      </c>
+      <c r="BB113">
+        <v>5</v>
+      </c>
+      <c r="BC113">
+        <v>11</v>
+      </c>
+      <c r="BD113">
+        <v>1.1</v>
+      </c>
+      <c r="BE113">
+        <v>14</v>
+      </c>
+      <c r="BF113">
+        <v>9</v>
+      </c>
+      <c r="BG113">
+        <v>1.12</v>
+      </c>
+      <c r="BH113">
+        <v>5.7</v>
+      </c>
+      <c r="BI113">
+        <v>1.2</v>
+      </c>
+      <c r="BJ113">
+        <v>4.3</v>
+      </c>
+      <c r="BK113">
+        <v>1.36</v>
+      </c>
+      <c r="BL113">
+        <v>3</v>
+      </c>
+      <c r="BM113">
+        <v>1.62</v>
+      </c>
+      <c r="BN113">
+        <v>2.2</v>
+      </c>
+      <c r="BO113">
+        <v>2.05</v>
+      </c>
+      <c r="BP113">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7295068</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45486.5</v>
+      </c>
+      <c r="F114">
+        <v>14</v>
+      </c>
+      <c r="G114" t="s">
+        <v>70</v>
+      </c>
+      <c r="H114" t="s">
+        <v>83</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>2</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+      <c r="O114" t="s">
+        <v>166</v>
+      </c>
+      <c r="P114" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q114">
+        <v>2.95</v>
+      </c>
+      <c r="R114">
+        <v>2.25</v>
+      </c>
+      <c r="S114">
+        <v>3.4</v>
+      </c>
+      <c r="T114">
+        <v>1.36</v>
+      </c>
+      <c r="U114">
+        <v>3.2</v>
+      </c>
+      <c r="V114">
+        <v>2.7</v>
+      </c>
+      <c r="W114">
+        <v>1.47</v>
+      </c>
+      <c r="X114">
+        <v>6.5</v>
+      </c>
+      <c r="Y114">
+        <v>1.1</v>
+      </c>
+      <c r="Z114">
+        <v>2.35</v>
+      </c>
+      <c r="AA114">
+        <v>3.4</v>
+      </c>
+      <c r="AB114">
+        <v>2.85</v>
+      </c>
+      <c r="AC114">
+        <v>1.04</v>
+      </c>
+      <c r="AD114">
+        <v>13</v>
+      </c>
+      <c r="AE114">
+        <v>1.26</v>
+      </c>
+      <c r="AF114">
+        <v>4</v>
+      </c>
+      <c r="AG114">
+        <v>1.77</v>
+      </c>
+      <c r="AH114">
+        <v>2.05</v>
+      </c>
+      <c r="AI114">
+        <v>1.65</v>
+      </c>
+      <c r="AJ114">
+        <v>2.25</v>
+      </c>
+      <c r="AK114">
+        <v>1.42</v>
+      </c>
+      <c r="AL114">
+        <v>1.25</v>
+      </c>
+      <c r="AM114">
+        <v>1.63</v>
+      </c>
+      <c r="AN114">
+        <v>0.86</v>
+      </c>
+      <c r="AO114">
+        <v>1.13</v>
+      </c>
+      <c r="AP114">
+        <v>0.75</v>
+      </c>
+      <c r="AQ114">
+        <v>1.33</v>
+      </c>
+      <c r="AR114">
+        <v>1.21</v>
+      </c>
+      <c r="AS114">
+        <v>1.23</v>
+      </c>
+      <c r="AT114">
+        <v>2.44</v>
+      </c>
+      <c r="AU114">
+        <v>6</v>
+      </c>
+      <c r="AV114">
+        <v>6</v>
+      </c>
+      <c r="AW114">
+        <v>3</v>
+      </c>
+      <c r="AX114">
+        <v>4</v>
+      </c>
+      <c r="AY114">
+        <v>9</v>
+      </c>
+      <c r="AZ114">
+        <v>10</v>
+      </c>
+      <c r="BA114">
+        <v>6</v>
+      </c>
+      <c r="BB114">
+        <v>7</v>
+      </c>
+      <c r="BC114">
+        <v>13</v>
+      </c>
+      <c r="BD114">
+        <v>1.95</v>
+      </c>
+      <c r="BE114">
+        <v>8.5</v>
+      </c>
+      <c r="BF114">
+        <v>2</v>
+      </c>
+      <c r="BG114">
+        <v>1.09</v>
+      </c>
+      <c r="BH114">
+        <v>5.6</v>
+      </c>
+      <c r="BI114">
+        <v>1.22</v>
+      </c>
+      <c r="BJ114">
+        <v>3.65</v>
+      </c>
+      <c r="BK114">
+        <v>1.41</v>
+      </c>
+      <c r="BL114">
+        <v>2.69</v>
+      </c>
+      <c r="BM114">
+        <v>1.7</v>
+      </c>
+      <c r="BN114">
+        <v>2.05</v>
+      </c>
+      <c r="BO114">
+        <v>2.05</v>
+      </c>
+      <c r="BP114">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7295070</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45486.5</v>
+      </c>
+      <c r="F115">
+        <v>14</v>
+      </c>
+      <c r="G115" t="s">
+        <v>85</v>
+      </c>
+      <c r="H115" t="s">
+        <v>78</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="O115" t="s">
+        <v>167</v>
+      </c>
+      <c r="P115" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q115">
+        <v>5</v>
+      </c>
+      <c r="R115">
+        <v>2.63</v>
+      </c>
+      <c r="S115">
+        <v>2</v>
+      </c>
+      <c r="T115">
+        <v>1.22</v>
+      </c>
+      <c r="U115">
+        <v>4</v>
+      </c>
+      <c r="V115">
+        <v>2.1</v>
+      </c>
+      <c r="W115">
+        <v>1.67</v>
+      </c>
+      <c r="X115">
+        <v>4.5</v>
+      </c>
+      <c r="Y115">
+        <v>1.18</v>
+      </c>
+      <c r="Z115">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="AA115">
+        <v>4.91</v>
+      </c>
+      <c r="AB115">
+        <v>1.27</v>
+      </c>
+      <c r="AC115">
+        <v>1.02</v>
+      </c>
+      <c r="AD115">
+        <v>26</v>
+      </c>
+      <c r="AE115">
+        <v>1.13</v>
+      </c>
+      <c r="AF115">
+        <v>6</v>
+      </c>
+      <c r="AG115">
+        <v>1.45</v>
+      </c>
+      <c r="AH115">
+        <v>2.5</v>
+      </c>
+      <c r="AI115">
+        <v>1.53</v>
+      </c>
+      <c r="AJ115">
+        <v>2.38</v>
+      </c>
+      <c r="AK115">
+        <v>2.65</v>
+      </c>
+      <c r="AL115">
+        <v>1.18</v>
+      </c>
+      <c r="AM115">
+        <v>1.15</v>
+      </c>
+      <c r="AN115">
+        <v>1</v>
+      </c>
+      <c r="AO115">
+        <v>2.57</v>
+      </c>
+      <c r="AP115">
+        <v>1.29</v>
+      </c>
+      <c r="AQ115">
+        <v>2.25</v>
+      </c>
+      <c r="AR115">
+        <v>1.47</v>
+      </c>
+      <c r="AS115">
+        <v>1.51</v>
+      </c>
+      <c r="AT115">
+        <v>2.98</v>
+      </c>
+      <c r="AU115">
+        <v>5</v>
+      </c>
+      <c r="AV115">
+        <v>7</v>
+      </c>
+      <c r="AW115">
+        <v>2</v>
+      </c>
+      <c r="AX115">
+        <v>7</v>
+      </c>
+      <c r="AY115">
+        <v>7</v>
+      </c>
+      <c r="AZ115">
+        <v>14</v>
+      </c>
+      <c r="BA115">
+        <v>2</v>
+      </c>
+      <c r="BB115">
+        <v>16</v>
+      </c>
+      <c r="BC115">
+        <v>18</v>
+      </c>
+      <c r="BD115">
+        <v>2.9</v>
+      </c>
+      <c r="BE115">
+        <v>9</v>
+      </c>
+      <c r="BF115">
+        <v>1.5</v>
+      </c>
+      <c r="BG115">
+        <v>1.12</v>
+      </c>
+      <c r="BH115">
+        <v>5</v>
+      </c>
+      <c r="BI115">
+        <v>1.26</v>
+      </c>
+      <c r="BJ115">
+        <v>3.34</v>
+      </c>
+      <c r="BK115">
+        <v>1.49</v>
+      </c>
+      <c r="BL115">
+        <v>2.44</v>
+      </c>
+      <c r="BM115">
+        <v>1.95</v>
+      </c>
+      <c r="BN115">
+        <v>1.75</v>
+      </c>
+      <c r="BO115">
+        <v>2.32</v>
+      </c>
+      <c r="BP115">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7295072</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45486.59375</v>
+      </c>
+      <c r="F116">
+        <v>14</v>
+      </c>
+      <c r="G116" t="s">
+        <v>84</v>
+      </c>
+      <c r="H116" t="s">
+        <v>80</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>168</v>
+      </c>
+      <c r="P116" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q116">
+        <v>1.7</v>
+      </c>
+      <c r="R116">
+        <v>2.8</v>
+      </c>
+      <c r="S116">
+        <v>7.5</v>
+      </c>
+      <c r="T116">
+        <v>1.25</v>
+      </c>
+      <c r="U116">
+        <v>4</v>
+      </c>
+      <c r="V116">
+        <v>2.15</v>
+      </c>
+      <c r="W116">
+        <v>1.68</v>
+      </c>
+      <c r="X116">
+        <v>4.75</v>
+      </c>
+      <c r="Y116">
+        <v>1.18</v>
+      </c>
+      <c r="Z116">
+        <v>1.27</v>
+      </c>
+      <c r="AA116">
+        <v>6</v>
+      </c>
+      <c r="AB116">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC116">
+        <v>1.01</v>
+      </c>
+      <c r="AD116">
+        <v>23</v>
+      </c>
+      <c r="AE116">
+        <v>1.15</v>
+      </c>
+      <c r="AF116">
+        <v>5.5</v>
+      </c>
+      <c r="AG116">
+        <v>1.42</v>
+      </c>
+      <c r="AH116">
+        <v>2.59</v>
+      </c>
+      <c r="AI116">
+        <v>1.85</v>
+      </c>
+      <c r="AJ116">
+        <v>1.95</v>
+      </c>
+      <c r="AK116">
+        <v>1.03</v>
+      </c>
+      <c r="AL116">
+        <v>1.1</v>
+      </c>
+      <c r="AM116">
+        <v>3.75</v>
+      </c>
+      <c r="AN116">
+        <v>2</v>
+      </c>
+      <c r="AO116">
+        <v>1.4</v>
+      </c>
+      <c r="AP116">
+        <v>1.89</v>
+      </c>
+      <c r="AQ116">
+        <v>1.33</v>
+      </c>
+      <c r="AR116">
+        <v>1.92</v>
+      </c>
+      <c r="AS116">
+        <v>1.23</v>
+      </c>
+      <c r="AT116">
+        <v>3.15</v>
+      </c>
+      <c r="AU116">
+        <v>9</v>
+      </c>
+      <c r="AV116">
+        <v>4</v>
+      </c>
+      <c r="AW116">
+        <v>5</v>
+      </c>
+      <c r="AX116">
+        <v>3</v>
+      </c>
+      <c r="AY116">
+        <v>14</v>
+      </c>
+      <c r="AZ116">
+        <v>7</v>
+      </c>
+      <c r="BA116">
+        <v>12</v>
+      </c>
+      <c r="BB116">
+        <v>3</v>
+      </c>
+      <c r="BC116">
+        <v>15</v>
+      </c>
+      <c r="BD116">
+        <v>1.18</v>
+      </c>
+      <c r="BE116">
+        <v>13</v>
+      </c>
+      <c r="BF116">
+        <v>4.8</v>
+      </c>
+      <c r="BG116">
+        <v>1.09</v>
+      </c>
+      <c r="BH116">
+        <v>6.5</v>
+      </c>
+      <c r="BI116">
+        <v>1.16</v>
+      </c>
+      <c r="BJ116">
+        <v>4.35</v>
+      </c>
+      <c r="BK116">
+        <v>1.31</v>
+      </c>
+      <c r="BL116">
+        <v>3.04</v>
+      </c>
+      <c r="BM116">
+        <v>1.77</v>
+      </c>
+      <c r="BN116">
+        <v>1.95</v>
+      </c>
+      <c r="BO116">
+        <v>2</v>
+      </c>
+      <c r="BP116">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7295073</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45486.70833333334</v>
+      </c>
+      <c r="F117">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s">
+        <v>73</v>
+      </c>
+      <c r="H117" t="s">
+        <v>77</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>2</v>
+      </c>
+      <c r="N117">
+        <v>3</v>
+      </c>
+      <c r="O117" t="s">
+        <v>169</v>
+      </c>
+      <c r="P117" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q117">
+        <v>2.6</v>
+      </c>
+      <c r="R117">
+        <v>2.2</v>
+      </c>
+      <c r="S117">
+        <v>4.2</v>
+      </c>
+      <c r="T117">
+        <v>1.4</v>
+      </c>
+      <c r="U117">
+        <v>3</v>
+      </c>
+      <c r="V117">
+        <v>2.85</v>
+      </c>
+      <c r="W117">
+        <v>1.42</v>
+      </c>
+      <c r="X117">
+        <v>7</v>
+      </c>
+      <c r="Y117">
+        <v>1.09</v>
+      </c>
+      <c r="Z117">
+        <v>1.9</v>
+      </c>
+      <c r="AA117">
+        <v>3.62</v>
+      </c>
+      <c r="AB117">
+        <v>3.52</v>
+      </c>
+      <c r="AC117">
+        <v>1.05</v>
+      </c>
+      <c r="AD117">
+        <v>12</v>
+      </c>
+      <c r="AE117">
+        <v>1.3</v>
+      </c>
+      <c r="AF117">
+        <v>3.6</v>
+      </c>
+      <c r="AG117">
+        <v>1.87</v>
+      </c>
+      <c r="AH117">
+        <v>1.85</v>
+      </c>
+      <c r="AI117">
+        <v>1.78</v>
+      </c>
+      <c r="AJ117">
+        <v>2</v>
+      </c>
+      <c r="AK117">
+        <v>1.28</v>
+      </c>
+      <c r="AL117">
+        <v>1.24</v>
+      </c>
+      <c r="AM117">
+        <v>1.88</v>
+      </c>
+      <c r="AN117">
+        <v>1.13</v>
+      </c>
+      <c r="AO117">
+        <v>1.83</v>
+      </c>
+      <c r="AP117">
+        <v>1</v>
+      </c>
+      <c r="AQ117">
+        <v>2</v>
+      </c>
+      <c r="AR117">
+        <v>1.45</v>
+      </c>
+      <c r="AS117">
+        <v>1.13</v>
+      </c>
+      <c r="AT117">
+        <v>2.58</v>
+      </c>
+      <c r="AU117">
+        <v>6</v>
+      </c>
+      <c r="AV117">
+        <v>4</v>
+      </c>
+      <c r="AW117">
+        <v>5</v>
+      </c>
+      <c r="AX117">
+        <v>1</v>
+      </c>
+      <c r="AY117">
+        <v>11</v>
+      </c>
+      <c r="AZ117">
+        <v>5</v>
+      </c>
+      <c r="BA117">
+        <v>3</v>
+      </c>
+      <c r="BB117">
+        <v>9</v>
+      </c>
+      <c r="BC117">
+        <v>12</v>
+      </c>
+      <c r="BD117">
+        <v>1.75</v>
+      </c>
+      <c r="BE117">
+        <v>8.5</v>
+      </c>
+      <c r="BF117">
+        <v>2.25</v>
+      </c>
+      <c r="BG117">
+        <v>1.22</v>
+      </c>
+      <c r="BH117">
+        <v>3.64</v>
+      </c>
+      <c r="BI117">
+        <v>1.44</v>
+      </c>
+      <c r="BJ117">
+        <v>2.57</v>
+      </c>
+      <c r="BK117">
+        <v>1.73</v>
+      </c>
+      <c r="BL117">
+        <v>2</v>
+      </c>
+      <c r="BM117">
+        <v>2.27</v>
+      </c>
+      <c r="BN117">
+        <v>1.56</v>
+      </c>
+      <c r="BO117">
+        <v>3.04</v>
+      </c>
+      <c r="BP117">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -524,6 +524,9 @@
   </si>
   <si>
     <t>['63']</t>
+  </si>
+  <si>
+    <t>['12', '53', '66']</t>
   </si>
   <si>
     <t>['39', '90+2']</t>
@@ -1089,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP117"/>
+  <dimension ref="A1:BP118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1348,7 +1351,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1554,7 +1557,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1966,7 +1969,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2172,7 +2175,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -3074,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ10">
         <v>1.83</v>
@@ -3202,7 +3205,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3408,7 +3411,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -3901,7 +3904,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ14">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4026,7 +4029,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4232,7 +4235,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4438,7 +4441,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4644,7 +4647,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4850,7 +4853,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -5262,7 +5265,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5674,7 +5677,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5880,7 +5883,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6292,7 +6295,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6373,7 +6376,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>2.06</v>
@@ -6498,7 +6501,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6704,7 +6707,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6910,7 +6913,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -7197,7 +7200,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ30">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>2.08</v>
@@ -7528,7 +7531,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7940,7 +7943,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8018,7 +8021,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ34">
         <v>2</v>
@@ -8146,7 +8149,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8352,7 +8355,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q36">
         <v>2.54</v>
@@ -8764,7 +8767,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -9588,7 +9591,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -10000,7 +10003,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q44">
         <v>4.5</v>
@@ -10284,7 +10287,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ45">
         <v>1.25</v>
@@ -11030,7 +11033,7 @@
         <v>87</v>
       </c>
       <c r="P49" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11442,7 +11445,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11648,7 +11651,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -12060,7 +12063,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12266,7 +12269,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12759,7 +12762,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.51</v>
@@ -12884,7 +12887,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13090,7 +13093,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13296,7 +13299,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13786,7 +13789,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ62">
         <v>0.83</v>
@@ -13914,7 +13917,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14120,7 +14123,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14532,7 +14535,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -14738,7 +14741,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -14944,7 +14947,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15643,7 +15646,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ71">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR71">
         <v>1.62</v>
@@ -15768,7 +15771,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -15974,7 +15977,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16180,7 +16183,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16386,7 +16389,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16464,7 +16467,7 @@
         <v>2.5</v>
       </c>
       <c r="AP75">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ75">
         <v>2</v>
@@ -16798,7 +16801,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q77">
         <v>2.62</v>
@@ -17416,7 +17419,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -17622,7 +17625,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q81">
         <v>3.6</v>
@@ -17828,7 +17831,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18446,7 +18449,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18524,7 +18527,7 @@
         <v>0.2</v>
       </c>
       <c r="AP85">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ85">
         <v>0.5</v>
@@ -18652,7 +18655,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -18858,7 +18861,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19145,7 +19148,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR88">
         <v>1.54</v>
@@ -19270,7 +19273,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19476,7 +19479,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q90">
         <v>2.7</v>
@@ -19888,7 +19891,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20094,7 +20097,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q93">
         <v>2.79</v>
@@ -20300,7 +20303,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20506,7 +20509,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20712,7 +20715,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -20918,7 +20921,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21330,7 +21333,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21536,7 +21539,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21742,7 +21745,7 @@
         <v>116</v>
       </c>
       <c r="P101" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -21948,7 +21951,7 @@
         <v>159</v>
       </c>
       <c r="P102" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q102">
         <v>2.45</v>
@@ -22026,7 +22029,7 @@
         <v>2</v>
       </c>
       <c r="AP102">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ102">
         <v>1.71</v>
@@ -22154,7 +22157,7 @@
         <v>98</v>
       </c>
       <c r="P103" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22772,7 +22775,7 @@
         <v>118</v>
       </c>
       <c r="P106" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q106">
         <v>2.75</v>
@@ -22978,7 +22981,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23059,7 +23062,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ107">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR107">
         <v>1.41</v>
@@ -23184,7 +23187,7 @@
         <v>162</v>
       </c>
       <c r="P108" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -23596,7 +23599,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -23802,7 +23805,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24420,7 +24423,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q114">
         <v>2.95</v>
@@ -24626,7 +24629,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -24832,7 +24835,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -25038,7 +25041,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25195,6 +25198,212 @@
       </c>
       <c r="BP117">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7295074</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45492.58333333334</v>
+      </c>
+      <c r="F118">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
+        <v>78</v>
+      </c>
+      <c r="H118" t="s">
+        <v>70</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>3</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>4</v>
+      </c>
+      <c r="O118" t="s">
+        <v>170</v>
+      </c>
+      <c r="P118" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q118">
+        <v>1.5</v>
+      </c>
+      <c r="R118">
+        <v>3</v>
+      </c>
+      <c r="S118">
+        <v>8.5</v>
+      </c>
+      <c r="T118">
+        <v>1.18</v>
+      </c>
+      <c r="U118">
+        <v>4.33</v>
+      </c>
+      <c r="V118">
+        <v>1.85</v>
+      </c>
+      <c r="W118">
+        <v>1.85</v>
+      </c>
+      <c r="X118">
+        <v>3.72</v>
+      </c>
+      <c r="Y118">
+        <v>1.25</v>
+      </c>
+      <c r="Z118">
+        <v>1.17</v>
+      </c>
+      <c r="AA118">
+        <v>8.5</v>
+      </c>
+      <c r="AB118">
+        <v>13</v>
+      </c>
+      <c r="AC118">
+        <v>1.01</v>
+      </c>
+      <c r="AD118">
+        <v>36</v>
+      </c>
+      <c r="AE118">
+        <v>1.09</v>
+      </c>
+      <c r="AF118">
+        <v>7</v>
+      </c>
+      <c r="AG118">
+        <v>1.3</v>
+      </c>
+      <c r="AH118">
+        <v>3.21</v>
+      </c>
+      <c r="AI118">
+        <v>1.75</v>
+      </c>
+      <c r="AJ118">
+        <v>1.93</v>
+      </c>
+      <c r="AK118">
+        <v>1.03</v>
+      </c>
+      <c r="AL118">
+        <v>1.08</v>
+      </c>
+      <c r="AM118">
+        <v>5</v>
+      </c>
+      <c r="AN118">
+        <v>2.14</v>
+      </c>
+      <c r="AO118">
+        <v>1.14</v>
+      </c>
+      <c r="AP118">
+        <v>2.25</v>
+      </c>
+      <c r="AQ118">
+        <v>1</v>
+      </c>
+      <c r="AR118">
+        <v>1.59</v>
+      </c>
+      <c r="AS118">
+        <v>0.9</v>
+      </c>
+      <c r="AT118">
+        <v>2.49</v>
+      </c>
+      <c r="AU118">
+        <v>9</v>
+      </c>
+      <c r="AV118">
+        <v>3</v>
+      </c>
+      <c r="AW118">
+        <v>6</v>
+      </c>
+      <c r="AX118">
+        <v>3</v>
+      </c>
+      <c r="AY118">
+        <v>15</v>
+      </c>
+      <c r="AZ118">
+        <v>6</v>
+      </c>
+      <c r="BA118">
+        <v>6</v>
+      </c>
+      <c r="BB118">
+        <v>1</v>
+      </c>
+      <c r="BC118">
+        <v>7</v>
+      </c>
+      <c r="BD118">
+        <v>1.08</v>
+      </c>
+      <c r="BE118">
+        <v>13</v>
+      </c>
+      <c r="BF118">
+        <v>8.5</v>
+      </c>
+      <c r="BG118">
+        <v>1.13</v>
+      </c>
+      <c r="BH118">
+        <v>4.75</v>
+      </c>
+      <c r="BI118">
+        <v>1.28</v>
+      </c>
+      <c r="BJ118">
+        <v>3.2</v>
+      </c>
+      <c r="BK118">
+        <v>1.53</v>
+      </c>
+      <c r="BL118">
+        <v>2.34</v>
+      </c>
+      <c r="BM118">
+        <v>1.95</v>
+      </c>
+      <c r="BN118">
+        <v>1.77</v>
+      </c>
+      <c r="BO118">
+        <v>2.41</v>
+      </c>
+      <c r="BP118">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="244">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,6 +529,12 @@
     <t>['12', '53', '66']</t>
   </si>
   <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['20', '64']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -731,6 +737,15 @@
   </si>
   <si>
     <t>['50', '84']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['22', '34', '83']</t>
+  </si>
+  <si>
+    <t>['49']</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP118"/>
+  <dimension ref="A1:BP123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1351,7 +1366,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1557,7 +1572,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1841,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ4">
         <v>1.25</v>
@@ -1969,7 +1984,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2050,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2175,7 +2190,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -3080,7 +3095,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ10">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3205,7 +3220,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3286,7 +3301,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3411,7 +3426,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -3489,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ12">
         <v>1.71</v>
@@ -3695,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ13">
         <v>0.57</v>
@@ -3901,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4029,7 +4044,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4107,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ15">
         <v>2</v>
@@ -4235,7 +4250,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4316,7 +4331,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ16">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4441,7 +4456,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4647,7 +4662,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4728,7 +4743,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ18">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR18">
         <v>1.5</v>
@@ -4853,7 +4868,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -5137,7 +5152,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ20">
         <v>0.63</v>
@@ -5265,7 +5280,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5677,7 +5692,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5883,7 +5898,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6295,7 +6310,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6373,7 +6388,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6501,7 +6516,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6579,7 +6594,7 @@
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ27">
         <v>1.25</v>
@@ -6707,7 +6722,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6913,7 +6928,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6991,10 +7006,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR29">
         <v>1.39</v>
@@ -7406,7 +7421,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ31">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR31">
         <v>1.22</v>
@@ -7531,7 +7546,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7609,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ32">
         <v>0.57</v>
@@ -7818,7 +7833,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ33">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR33">
         <v>1.11</v>
@@ -7943,7 +7958,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8149,7 +8164,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8355,7 +8370,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q36">
         <v>2.54</v>
@@ -8433,7 +8448,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ36">
         <v>0.63</v>
@@ -8639,7 +8654,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ37">
         <v>1.33</v>
@@ -8767,7 +8782,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -9054,7 +9069,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ39">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR39">
         <v>2.11</v>
@@ -9591,7 +9606,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9672,7 +9687,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ42">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR42">
         <v>1.44</v>
@@ -10003,7 +10018,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q44">
         <v>4.5</v>
@@ -10699,7 +10714,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ47">
         <v>1.71</v>
@@ -10905,10 +10920,10 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ48">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR48">
         <v>1.38</v>
@@ -11033,7 +11048,7 @@
         <v>87</v>
       </c>
       <c r="P49" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11114,7 +11129,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ49">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR49">
         <v>1.24</v>
@@ -11320,7 +11335,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ50">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR50">
         <v>1.33</v>
@@ -11445,7 +11460,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11523,7 +11538,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ51">
         <v>0.57</v>
@@ -11651,7 +11666,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -11935,10 +11950,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ53">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR53">
         <v>1.7</v>
@@ -12063,7 +12078,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12144,7 +12159,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ54">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR54">
         <v>1.82</v>
@@ -12269,7 +12284,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12347,7 +12362,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ55">
         <v>1.33</v>
@@ -12887,7 +12902,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -12968,7 +12983,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR58">
         <v>1.38</v>
@@ -13093,7 +13108,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13299,7 +13314,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13380,7 +13395,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ60">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR60">
         <v>1.09</v>
@@ -13792,7 +13807,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ62">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR62">
         <v>1.51</v>
@@ -13917,7 +13932,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14123,7 +14138,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14201,7 +14216,7 @@
         <v>0.6</v>
       </c>
       <c r="AP64">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ64">
         <v>1.33</v>
@@ -14407,7 +14422,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ65">
         <v>0.63</v>
@@ -14535,7 +14550,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -14741,7 +14756,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -14822,7 +14837,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ67">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR67">
         <v>1.44</v>
@@ -14947,7 +14962,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15028,7 +15043,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ68">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR68">
         <v>1.55</v>
@@ -15231,7 +15246,7 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ69">
         <v>1.33</v>
@@ -15437,7 +15452,7 @@
         <v>3</v>
       </c>
       <c r="AP70">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ70">
         <v>2.25</v>
@@ -15771,7 +15786,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -15852,7 +15867,7 @@
         <v>1</v>
       </c>
       <c r="AQ72">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR72">
         <v>1.23</v>
@@ -15977,7 +15992,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16055,7 +16070,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ73">
         <v>1.43</v>
@@ -16183,7 +16198,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16389,7 +16404,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16470,7 +16485,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ75">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR75">
         <v>1.51</v>
@@ -16676,7 +16691,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ76">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR76">
         <v>1.37</v>
@@ -16801,7 +16816,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q77">
         <v>2.62</v>
@@ -16879,7 +16894,7 @@
         <v>1.2</v>
       </c>
       <c r="AP77">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ77">
         <v>1.25</v>
@@ -17291,7 +17306,7 @@
         <v>0.25</v>
       </c>
       <c r="AP79">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ79">
         <v>0.5</v>
@@ -17419,7 +17434,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -17625,7 +17640,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q81">
         <v>3.6</v>
@@ -17831,7 +17846,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18324,7 +18339,7 @@
         <v>1</v>
       </c>
       <c r="AQ84">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR84">
         <v>1.53</v>
@@ -18449,7 +18464,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18655,7 +18670,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -18733,10 +18748,10 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ86">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR86">
         <v>1.09</v>
@@ -18861,7 +18876,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -18939,10 +18954,10 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ87">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR87">
         <v>1.72</v>
@@ -19145,7 +19160,7 @@
         <v>1.4</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -19273,7 +19288,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19479,7 +19494,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q90">
         <v>2.7</v>
@@ -19763,7 +19778,7 @@
         <v>2.4</v>
       </c>
       <c r="AP91">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ91">
         <v>2.25</v>
@@ -19891,7 +19906,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20097,7 +20112,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q93">
         <v>2.79</v>
@@ -20178,7 +20193,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ93">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR93">
         <v>1.43</v>
@@ -20303,7 +20318,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20509,7 +20524,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20590,7 +20605,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR95">
         <v>1.17</v>
@@ -20715,7 +20730,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -20793,7 +20808,7 @@
         <v>2.5</v>
       </c>
       <c r="AP96">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ96">
         <v>2.25</v>
@@ -20921,7 +20936,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21333,7 +21348,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21539,7 +21554,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21745,7 +21760,7 @@
         <v>116</v>
       </c>
       <c r="P101" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -21826,7 +21841,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ101">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR101">
         <v>1.41</v>
@@ -21951,7 +21966,7 @@
         <v>159</v>
       </c>
       <c r="P102" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q102">
         <v>2.45</v>
@@ -22032,7 +22047,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ102">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR102">
         <v>1.54</v>
@@ -22157,7 +22172,7 @@
         <v>98</v>
       </c>
       <c r="P103" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22238,7 +22253,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ103">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR103">
         <v>1.67</v>
@@ -22441,10 +22456,10 @@
         <v>0.8</v>
       </c>
       <c r="AP104">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ104">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR104">
         <v>1.2</v>
@@ -22647,7 +22662,7 @@
         <v>2</v>
       </c>
       <c r="AP105">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ105">
         <v>1.71</v>
@@ -22775,7 +22790,7 @@
         <v>118</v>
       </c>
       <c r="P106" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q106">
         <v>2.75</v>
@@ -22853,7 +22868,7 @@
         <v>1.17</v>
       </c>
       <c r="AP106">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ106">
         <v>1.43</v>
@@ -22981,7 +22996,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23187,7 +23202,7 @@
         <v>162</v>
       </c>
       <c r="P108" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -23268,7 +23283,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ108">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR108">
         <v>1.43</v>
@@ -23471,7 +23486,7 @@
         <v>0.43</v>
       </c>
       <c r="AP109">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ109">
         <v>0.5</v>
@@ -23599,7 +23614,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -23677,7 +23692,7 @@
         <v>0.67</v>
       </c>
       <c r="AP110">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ110">
         <v>0.57</v>
@@ -23805,7 +23820,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24423,7 +24438,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q114">
         <v>2.95</v>
@@ -24629,7 +24644,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -24835,7 +24850,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -25041,7 +25056,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25122,7 +25137,7 @@
         <v>1</v>
       </c>
       <c r="AQ117">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR117">
         <v>1.45</v>
@@ -25361,10 +25376,10 @@
         <v>6</v>
       </c>
       <c r="BB118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC118">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD118">
         <v>1.08</v>
@@ -25404,6 +25419,1036 @@
       </c>
       <c r="BP118">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7295075</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45493.54166666666</v>
+      </c>
+      <c r="F119">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s">
+        <v>82</v>
+      </c>
+      <c r="H119" t="s">
+        <v>84</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119" t="s">
+        <v>171</v>
+      </c>
+      <c r="P119" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q119">
+        <v>4.2</v>
+      </c>
+      <c r="R119">
+        <v>2.55</v>
+      </c>
+      <c r="S119">
+        <v>2.25</v>
+      </c>
+      <c r="T119">
+        <v>1.26</v>
+      </c>
+      <c r="U119">
+        <v>4</v>
+      </c>
+      <c r="V119">
+        <v>2.15</v>
+      </c>
+      <c r="W119">
+        <v>1.68</v>
+      </c>
+      <c r="X119">
+        <v>4.5</v>
+      </c>
+      <c r="Y119">
+        <v>1.19</v>
+      </c>
+      <c r="Z119">
+        <v>4</v>
+      </c>
+      <c r="AA119">
+        <v>4</v>
+      </c>
+      <c r="AB119">
+        <v>1.7</v>
+      </c>
+      <c r="AC119">
+        <v>1.02</v>
+      </c>
+      <c r="AD119">
+        <v>23</v>
+      </c>
+      <c r="AE119">
+        <v>1.09</v>
+      </c>
+      <c r="AF119">
+        <v>5.8</v>
+      </c>
+      <c r="AG119">
+        <v>1.41</v>
+      </c>
+      <c r="AH119">
+        <v>2.62</v>
+      </c>
+      <c r="AI119">
+        <v>1.47</v>
+      </c>
+      <c r="AJ119">
+        <v>2.65</v>
+      </c>
+      <c r="AK119">
+        <v>2.05</v>
+      </c>
+      <c r="AL119">
+        <v>1.22</v>
+      </c>
+      <c r="AM119">
+        <v>1.16</v>
+      </c>
+      <c r="AN119">
+        <v>0.86</v>
+      </c>
+      <c r="AO119">
+        <v>1.71</v>
+      </c>
+      <c r="AP119">
+        <v>0.88</v>
+      </c>
+      <c r="AQ119">
+        <v>1.63</v>
+      </c>
+      <c r="AR119">
+        <v>1.6</v>
+      </c>
+      <c r="AS119">
+        <v>1.64</v>
+      </c>
+      <c r="AT119">
+        <v>3.24</v>
+      </c>
+      <c r="AU119">
+        <v>8</v>
+      </c>
+      <c r="AV119">
+        <v>2</v>
+      </c>
+      <c r="AW119">
+        <v>7</v>
+      </c>
+      <c r="AX119">
+        <v>4</v>
+      </c>
+      <c r="AY119">
+        <v>15</v>
+      </c>
+      <c r="AZ119">
+        <v>6</v>
+      </c>
+      <c r="BA119">
+        <v>6</v>
+      </c>
+      <c r="BB119">
+        <v>7</v>
+      </c>
+      <c r="BC119">
+        <v>13</v>
+      </c>
+      <c r="BD119">
+        <v>2.6</v>
+      </c>
+      <c r="BE119">
+        <v>8.5</v>
+      </c>
+      <c r="BF119">
+        <v>1.62</v>
+      </c>
+      <c r="BG119">
+        <v>1.09</v>
+      </c>
+      <c r="BH119">
+        <v>6.4</v>
+      </c>
+      <c r="BI119">
+        <v>1.23</v>
+      </c>
+      <c r="BJ119">
+        <v>3.85</v>
+      </c>
+      <c r="BK119">
+        <v>1.42</v>
+      </c>
+      <c r="BL119">
+        <v>2.7</v>
+      </c>
+      <c r="BM119">
+        <v>1.77</v>
+      </c>
+      <c r="BN119">
+        <v>1.95</v>
+      </c>
+      <c r="BO119">
+        <v>2.18</v>
+      </c>
+      <c r="BP119">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7295079</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45493.63541666666</v>
+      </c>
+      <c r="F120">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>72</v>
+      </c>
+      <c r="H120" t="s">
+        <v>77</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>2</v>
+      </c>
+      <c r="K120">
+        <v>3</v>
+      </c>
+      <c r="L120">
+        <v>2</v>
+      </c>
+      <c r="M120">
+        <v>3</v>
+      </c>
+      <c r="N120">
+        <v>5</v>
+      </c>
+      <c r="O120" t="s">
+        <v>172</v>
+      </c>
+      <c r="P120" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q120">
+        <v>1.75</v>
+      </c>
+      <c r="R120">
+        <v>2.55</v>
+      </c>
+      <c r="S120">
+        <v>6.2</v>
+      </c>
+      <c r="T120">
+        <v>1.28</v>
+      </c>
+      <c r="U120">
+        <v>3.6</v>
+      </c>
+      <c r="V120">
+        <v>2.4</v>
+      </c>
+      <c r="W120">
+        <v>1.57</v>
+      </c>
+      <c r="X120">
+        <v>5.5</v>
+      </c>
+      <c r="Y120">
+        <v>1.14</v>
+      </c>
+      <c r="Z120">
+        <v>1.4</v>
+      </c>
+      <c r="AA120">
+        <v>4.85</v>
+      </c>
+      <c r="AB120">
+        <v>6</v>
+      </c>
+      <c r="AC120">
+        <v>1.02</v>
+      </c>
+      <c r="AD120">
+        <v>19</v>
+      </c>
+      <c r="AE120">
+        <v>1.19</v>
+      </c>
+      <c r="AF120">
+        <v>4.75</v>
+      </c>
+      <c r="AG120">
+        <v>1.62</v>
+      </c>
+      <c r="AH120">
+        <v>2.3</v>
+      </c>
+      <c r="AI120">
+        <v>1.75</v>
+      </c>
+      <c r="AJ120">
+        <v>2.05</v>
+      </c>
+      <c r="AK120">
+        <v>1.06</v>
+      </c>
+      <c r="AL120">
+        <v>1.16</v>
+      </c>
+      <c r="AM120">
+        <v>2.75</v>
+      </c>
+      <c r="AN120">
+        <v>1.75</v>
+      </c>
+      <c r="AO120">
+        <v>2</v>
+      </c>
+      <c r="AP120">
+        <v>1.56</v>
+      </c>
+      <c r="AQ120">
+        <v>2.13</v>
+      </c>
+      <c r="AR120">
+        <v>1.74</v>
+      </c>
+      <c r="AS120">
+        <v>1.08</v>
+      </c>
+      <c r="AT120">
+        <v>2.82</v>
+      </c>
+      <c r="AU120">
+        <v>7</v>
+      </c>
+      <c r="AV120">
+        <v>6</v>
+      </c>
+      <c r="AW120">
+        <v>2</v>
+      </c>
+      <c r="AX120">
+        <v>5</v>
+      </c>
+      <c r="AY120">
+        <v>9</v>
+      </c>
+      <c r="AZ120">
+        <v>11</v>
+      </c>
+      <c r="BA120">
+        <v>4</v>
+      </c>
+      <c r="BB120">
+        <v>5</v>
+      </c>
+      <c r="BC120">
+        <v>9</v>
+      </c>
+      <c r="BD120">
+        <v>1.53</v>
+      </c>
+      <c r="BE120">
+        <v>8.5</v>
+      </c>
+      <c r="BF120">
+        <v>2.88</v>
+      </c>
+      <c r="BG120">
+        <v>1.18</v>
+      </c>
+      <c r="BH120">
+        <v>4.5</v>
+      </c>
+      <c r="BI120">
+        <v>1.35</v>
+      </c>
+      <c r="BJ120">
+        <v>3.05</v>
+      </c>
+      <c r="BK120">
+        <v>1.62</v>
+      </c>
+      <c r="BL120">
+        <v>2.23</v>
+      </c>
+      <c r="BM120">
+        <v>1.95</v>
+      </c>
+      <c r="BN120">
+        <v>1.77</v>
+      </c>
+      <c r="BO120">
+        <v>2.7</v>
+      </c>
+      <c r="BP120">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7295076</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45494.39583333334</v>
+      </c>
+      <c r="F121">
+        <v>15</v>
+      </c>
+      <c r="G121" t="s">
+        <v>81</v>
+      </c>
+      <c r="H121" t="s">
+        <v>73</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
+      </c>
+      <c r="O121" t="s">
+        <v>87</v>
+      </c>
+      <c r="P121" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q121">
+        <v>2.63</v>
+      </c>
+      <c r="R121">
+        <v>2.2</v>
+      </c>
+      <c r="S121">
+        <v>4</v>
+      </c>
+      <c r="T121">
+        <v>1.36</v>
+      </c>
+      <c r="U121">
+        <v>3</v>
+      </c>
+      <c r="V121">
+        <v>2.75</v>
+      </c>
+      <c r="W121">
+        <v>1.4</v>
+      </c>
+      <c r="X121">
+        <v>7</v>
+      </c>
+      <c r="Y121">
+        <v>1.1</v>
+      </c>
+      <c r="Z121">
+        <v>2.17</v>
+      </c>
+      <c r="AA121">
+        <v>3.5</v>
+      </c>
+      <c r="AB121">
+        <v>3.1</v>
+      </c>
+      <c r="AC121">
+        <v>1.04</v>
+      </c>
+      <c r="AD121">
+        <v>13</v>
+      </c>
+      <c r="AE121">
+        <v>1.28</v>
+      </c>
+      <c r="AF121">
+        <v>3.75</v>
+      </c>
+      <c r="AG121">
+        <v>1.84</v>
+      </c>
+      <c r="AH121">
+        <v>1.93</v>
+      </c>
+      <c r="AI121">
+        <v>1.7</v>
+      </c>
+      <c r="AJ121">
+        <v>2.05</v>
+      </c>
+      <c r="AK121">
+        <v>1.3</v>
+      </c>
+      <c r="AL121">
+        <v>1.25</v>
+      </c>
+      <c r="AM121">
+        <v>1.83</v>
+      </c>
+      <c r="AN121">
+        <v>1.5</v>
+      </c>
+      <c r="AO121">
+        <v>0.83</v>
+      </c>
+      <c r="AP121">
+        <v>1.29</v>
+      </c>
+      <c r="AQ121">
+        <v>1.14</v>
+      </c>
+      <c r="AR121">
+        <v>1.59</v>
+      </c>
+      <c r="AS121">
+        <v>1.32</v>
+      </c>
+      <c r="AT121">
+        <v>2.91</v>
+      </c>
+      <c r="AU121">
+        <v>3</v>
+      </c>
+      <c r="AV121">
+        <v>9</v>
+      </c>
+      <c r="AW121">
+        <v>6</v>
+      </c>
+      <c r="AX121">
+        <v>6</v>
+      </c>
+      <c r="AY121">
+        <v>9</v>
+      </c>
+      <c r="AZ121">
+        <v>15</v>
+      </c>
+      <c r="BA121">
+        <v>7</v>
+      </c>
+      <c r="BB121">
+        <v>5</v>
+      </c>
+      <c r="BC121">
+        <v>12</v>
+      </c>
+      <c r="BD121">
+        <v>1.62</v>
+      </c>
+      <c r="BE121">
+        <v>8.5</v>
+      </c>
+      <c r="BF121">
+        <v>2.6</v>
+      </c>
+      <c r="BG121">
+        <v>1.12</v>
+      </c>
+      <c r="BH121">
+        <v>5</v>
+      </c>
+      <c r="BI121">
+        <v>1.29</v>
+      </c>
+      <c r="BJ121">
+        <v>3.45</v>
+      </c>
+      <c r="BK121">
+        <v>1.5</v>
+      </c>
+      <c r="BL121">
+        <v>2.45</v>
+      </c>
+      <c r="BM121">
+        <v>1.88</v>
+      </c>
+      <c r="BN121">
+        <v>1.92</v>
+      </c>
+      <c r="BO121">
+        <v>2.43</v>
+      </c>
+      <c r="BP121">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7295077</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45494.5</v>
+      </c>
+      <c r="F122">
+        <v>15</v>
+      </c>
+      <c r="G122" t="s">
+        <v>83</v>
+      </c>
+      <c r="H122" t="s">
+        <v>71</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122" t="s">
+        <v>87</v>
+      </c>
+      <c r="P122" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q122">
+        <v>3.25</v>
+      </c>
+      <c r="R122">
+        <v>2.1</v>
+      </c>
+      <c r="S122">
+        <v>3.25</v>
+      </c>
+      <c r="T122">
+        <v>1.4</v>
+      </c>
+      <c r="U122">
+        <v>2.75</v>
+      </c>
+      <c r="V122">
+        <v>3</v>
+      </c>
+      <c r="W122">
+        <v>1.36</v>
+      </c>
+      <c r="X122">
+        <v>8</v>
+      </c>
+      <c r="Y122">
+        <v>1.08</v>
+      </c>
+      <c r="Z122">
+        <v>2.55</v>
+      </c>
+      <c r="AA122">
+        <v>3.2</v>
+      </c>
+      <c r="AB122">
+        <v>2.6</v>
+      </c>
+      <c r="AC122">
+        <v>1.05</v>
+      </c>
+      <c r="AD122">
+        <v>11</v>
+      </c>
+      <c r="AE122">
+        <v>1.33</v>
+      </c>
+      <c r="AF122">
+        <v>3.4</v>
+      </c>
+      <c r="AG122">
+        <v>1.97</v>
+      </c>
+      <c r="AH122">
+        <v>1.83</v>
+      </c>
+      <c r="AI122">
+        <v>1.75</v>
+      </c>
+      <c r="AJ122">
+        <v>2</v>
+      </c>
+      <c r="AK122">
+        <v>1.5</v>
+      </c>
+      <c r="AL122">
+        <v>1.28</v>
+      </c>
+      <c r="AM122">
+        <v>1.52</v>
+      </c>
+      <c r="AN122">
+        <v>0.83</v>
+      </c>
+      <c r="AO122">
+        <v>1.75</v>
+      </c>
+      <c r="AP122">
+        <v>0.71</v>
+      </c>
+      <c r="AQ122">
+        <v>1.89</v>
+      </c>
+      <c r="AR122">
+        <v>1.15</v>
+      </c>
+      <c r="AS122">
+        <v>1.18</v>
+      </c>
+      <c r="AT122">
+        <v>2.33</v>
+      </c>
+      <c r="AU122">
+        <v>3</v>
+      </c>
+      <c r="AV122">
+        <v>5</v>
+      </c>
+      <c r="AW122">
+        <v>4</v>
+      </c>
+      <c r="AX122">
+        <v>5</v>
+      </c>
+      <c r="AY122">
+        <v>7</v>
+      </c>
+      <c r="AZ122">
+        <v>10</v>
+      </c>
+      <c r="BA122">
+        <v>5</v>
+      </c>
+      <c r="BB122">
+        <v>7</v>
+      </c>
+      <c r="BC122">
+        <v>12</v>
+      </c>
+      <c r="BD122">
+        <v>2</v>
+      </c>
+      <c r="BE122">
+        <v>8.5</v>
+      </c>
+      <c r="BF122">
+        <v>2</v>
+      </c>
+      <c r="BG122">
+        <v>1.11</v>
+      </c>
+      <c r="BH122">
+        <v>5.2</v>
+      </c>
+      <c r="BI122">
+        <v>1.29</v>
+      </c>
+      <c r="BJ122">
+        <v>3.45</v>
+      </c>
+      <c r="BK122">
+        <v>1.5</v>
+      </c>
+      <c r="BL122">
+        <v>2.45</v>
+      </c>
+      <c r="BM122">
+        <v>1.85</v>
+      </c>
+      <c r="BN122">
+        <v>1.85</v>
+      </c>
+      <c r="BO122">
+        <v>2.43</v>
+      </c>
+      <c r="BP122">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7295078</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45494.5</v>
+      </c>
+      <c r="F123">
+        <v>15</v>
+      </c>
+      <c r="G123" t="s">
+        <v>80</v>
+      </c>
+      <c r="H123" t="s">
+        <v>76</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+      <c r="O123" t="s">
+        <v>130</v>
+      </c>
+      <c r="P123" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q123">
+        <v>3.75</v>
+      </c>
+      <c r="R123">
+        <v>2.38</v>
+      </c>
+      <c r="S123">
+        <v>2.5</v>
+      </c>
+      <c r="T123">
+        <v>1.29</v>
+      </c>
+      <c r="U123">
+        <v>3.5</v>
+      </c>
+      <c r="V123">
+        <v>2.38</v>
+      </c>
+      <c r="W123">
+        <v>1.53</v>
+      </c>
+      <c r="X123">
+        <v>5.5</v>
+      </c>
+      <c r="Y123">
+        <v>1.14</v>
+      </c>
+      <c r="Z123">
+        <v>3.15</v>
+      </c>
+      <c r="AA123">
+        <v>3.55</v>
+      </c>
+      <c r="AB123">
+        <v>2.05</v>
+      </c>
+      <c r="AC123">
+        <v>1.02</v>
+      </c>
+      <c r="AD123">
+        <v>17</v>
+      </c>
+      <c r="AE123">
+        <v>1.19</v>
+      </c>
+      <c r="AF123">
+        <v>4.75</v>
+      </c>
+      <c r="AG123">
+        <v>1.58</v>
+      </c>
+      <c r="AH123">
+        <v>2.38</v>
+      </c>
+      <c r="AI123">
+        <v>1.53</v>
+      </c>
+      <c r="AJ123">
+        <v>2.38</v>
+      </c>
+      <c r="AK123">
+        <v>1.83</v>
+      </c>
+      <c r="AL123">
+        <v>1.22</v>
+      </c>
+      <c r="AM123">
+        <v>1.32</v>
+      </c>
+      <c r="AN123">
+        <v>0.86</v>
+      </c>
+      <c r="AO123">
+        <v>1.83</v>
+      </c>
+      <c r="AP123">
+        <v>1.13</v>
+      </c>
+      <c r="AQ123">
+        <v>1.57</v>
+      </c>
+      <c r="AR123">
+        <v>1.3</v>
+      </c>
+      <c r="AS123">
+        <v>1.22</v>
+      </c>
+      <c r="AT123">
+        <v>2.52</v>
+      </c>
+      <c r="AU123">
+        <v>3</v>
+      </c>
+      <c r="AV123">
+        <v>5</v>
+      </c>
+      <c r="AW123">
+        <v>5</v>
+      </c>
+      <c r="AX123">
+        <v>4</v>
+      </c>
+      <c r="AY123">
+        <v>8</v>
+      </c>
+      <c r="AZ123">
+        <v>9</v>
+      </c>
+      <c r="BA123">
+        <v>5</v>
+      </c>
+      <c r="BB123">
+        <v>12</v>
+      </c>
+      <c r="BC123">
+        <v>17</v>
+      </c>
+      <c r="BD123">
+        <v>2.38</v>
+      </c>
+      <c r="BE123">
+        <v>8.5</v>
+      </c>
+      <c r="BF123">
+        <v>1.73</v>
+      </c>
+      <c r="BG123">
+        <v>1.12</v>
+      </c>
+      <c r="BH123">
+        <v>4.95</v>
+      </c>
+      <c r="BI123">
+        <v>1.29</v>
+      </c>
+      <c r="BJ123">
+        <v>3.45</v>
+      </c>
+      <c r="BK123">
+        <v>1.5</v>
+      </c>
+      <c r="BL123">
+        <v>2.45</v>
+      </c>
+      <c r="BM123">
+        <v>1.8</v>
+      </c>
+      <c r="BN123">
+        <v>1.91</v>
+      </c>
+      <c r="BO123">
+        <v>2.43</v>
+      </c>
+      <c r="BP123">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="248">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -535,6 +535,12 @@
     <t>['20', '64']</t>
   </si>
   <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['15', '37']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -746,6 +752,12 @@
   </si>
   <si>
     <t>['49']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['3', '69']</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP123"/>
+  <dimension ref="A1:BP125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1366,7 +1378,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1572,7 +1584,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1650,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ3">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1984,7 +1996,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2190,7 +2202,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2886,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ9">
         <v>1.33</v>
@@ -3220,7 +3232,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3426,7 +3438,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -3713,7 +3725,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ13">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4044,7 +4056,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4250,7 +4262,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4456,7 +4468,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4534,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ17">
         <v>1.43</v>
@@ -4662,7 +4674,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4868,7 +4880,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -5280,7 +5292,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5692,7 +5704,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5773,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR23">
         <v>2.02</v>
@@ -5898,7 +5910,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -5976,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ24">
         <v>1.25</v>
@@ -6310,7 +6322,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6516,7 +6528,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6722,7 +6734,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6928,7 +6940,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -7546,7 +7558,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7627,7 +7639,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ32">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR32">
         <v>0.59</v>
@@ -7958,7 +7970,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8164,7 +8176,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8245,7 +8257,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ35">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR35">
         <v>1.13</v>
@@ -8370,7 +8382,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q36">
         <v>2.54</v>
@@ -8782,7 +8794,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -9066,7 +9078,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ39">
         <v>1.63</v>
@@ -9272,7 +9284,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ40">
         <v>0.5</v>
@@ -9606,7 +9618,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9893,7 +9905,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ43">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR43">
         <v>1.98</v>
@@ -10018,7 +10030,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q44">
         <v>4.5</v>
@@ -11048,7 +11060,7 @@
         <v>87</v>
       </c>
       <c r="P49" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11460,7 +11472,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11541,7 +11553,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ51">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR51">
         <v>1.86</v>
@@ -11666,7 +11678,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -11747,7 +11759,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ52">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR52">
         <v>1.4</v>
@@ -12078,7 +12090,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12156,7 +12168,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ54">
         <v>1.89</v>
@@ -12284,7 +12296,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12902,7 +12914,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13108,7 +13120,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13314,7 +13326,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13598,7 +13610,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ61">
         <v>1.25</v>
@@ -13932,7 +13944,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14138,7 +14150,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14550,7 +14562,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -14756,7 +14768,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -14962,7 +14974,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15455,7 +15467,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ70">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR70">
         <v>1.23</v>
@@ -15658,7 +15670,7 @@
         <v>1.5</v>
       </c>
       <c r="AP71">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -15786,7 +15798,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -15992,7 +16004,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16198,7 +16210,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16279,7 +16291,7 @@
         <v>1</v>
       </c>
       <c r="AQ74">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR74">
         <v>1.59</v>
@@ -16404,7 +16416,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16688,7 +16700,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ76">
         <v>1.14</v>
@@ -16816,7 +16828,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q77">
         <v>2.62</v>
@@ -17434,7 +17446,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -17640,7 +17652,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q81">
         <v>3.6</v>
@@ -17846,7 +17858,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18464,7 +18476,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18670,7 +18682,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -18876,7 +18888,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19288,7 +19300,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19494,7 +19506,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q90">
         <v>2.7</v>
@@ -19781,7 +19793,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ91">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR91">
         <v>1.37</v>
@@ -19906,7 +19918,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -19984,7 +19996,7 @@
         <v>0.33</v>
       </c>
       <c r="AP92">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ92">
         <v>0.5</v>
@@ -20112,7 +20124,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q93">
         <v>2.79</v>
@@ -20318,7 +20330,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20524,7 +20536,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20730,7 +20742,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -20811,7 +20823,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ96">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR96">
         <v>1.75</v>
@@ -20936,7 +20948,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21348,7 +21360,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21554,7 +21566,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21635,7 +21647,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ100">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR100">
         <v>1.55</v>
@@ -21760,7 +21772,7 @@
         <v>116</v>
       </c>
       <c r="P101" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -21966,7 +21978,7 @@
         <v>159</v>
       </c>
       <c r="P102" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q102">
         <v>2.45</v>
@@ -22172,7 +22184,7 @@
         <v>98</v>
       </c>
       <c r="P103" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22250,7 +22262,7 @@
         <v>1.6</v>
       </c>
       <c r="AP103">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ103">
         <v>1.57</v>
@@ -22790,7 +22802,7 @@
         <v>118</v>
       </c>
       <c r="P106" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q106">
         <v>2.75</v>
@@ -22996,7 +23008,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23202,7 +23214,7 @@
         <v>162</v>
       </c>
       <c r="P108" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -23614,7 +23626,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -23695,7 +23707,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ110">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR110">
         <v>1.6</v>
@@ -23820,7 +23832,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24104,7 +24116,7 @@
         <v>2.17</v>
       </c>
       <c r="AP112">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ112">
         <v>2</v>
@@ -24438,7 +24450,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q114">
         <v>2.95</v>
@@ -24644,7 +24656,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -24725,7 +24737,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ115">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR115">
         <v>1.47</v>
@@ -24850,7 +24862,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -25056,7 +25068,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25468,7 +25480,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q119">
         <v>4.2</v>
@@ -25674,7 +25686,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q120">
         <v>1.75</v>
@@ -25880,7 +25892,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q121">
         <v>2.63</v>
@@ -26449,6 +26461,418 @@
       </c>
       <c r="BP123">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7295085</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45500.45833333334</v>
+      </c>
+      <c r="F124">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>77</v>
+      </c>
+      <c r="H124" t="s">
+        <v>78</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>173</v>
+      </c>
+      <c r="P124" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q124">
+        <v>4.2</v>
+      </c>
+      <c r="R124">
+        <v>2.25</v>
+      </c>
+      <c r="S124">
+        <v>2.3</v>
+      </c>
+      <c r="T124">
+        <v>1.3</v>
+      </c>
+      <c r="U124">
+        <v>3.2</v>
+      </c>
+      <c r="V124">
+        <v>2.45</v>
+      </c>
+      <c r="W124">
+        <v>1.48</v>
+      </c>
+      <c r="X124">
+        <v>5.8</v>
+      </c>
+      <c r="Y124">
+        <v>1.12</v>
+      </c>
+      <c r="Z124">
+        <v>3.86</v>
+      </c>
+      <c r="AA124">
+        <v>3.8</v>
+      </c>
+      <c r="AB124">
+        <v>1.85</v>
+      </c>
+      <c r="AC124">
+        <v>1.04</v>
+      </c>
+      <c r="AD124">
+        <v>10</v>
+      </c>
+      <c r="AE124">
+        <v>1.2</v>
+      </c>
+      <c r="AF124">
+        <v>4.33</v>
+      </c>
+      <c r="AG124">
+        <v>1.64</v>
+      </c>
+      <c r="AH124">
+        <v>2.08</v>
+      </c>
+      <c r="AI124">
+        <v>1.62</v>
+      </c>
+      <c r="AJ124">
+        <v>2.1</v>
+      </c>
+      <c r="AK124">
+        <v>2</v>
+      </c>
+      <c r="AL124">
+        <v>1.2</v>
+      </c>
+      <c r="AM124">
+        <v>1.22</v>
+      </c>
+      <c r="AN124">
+        <v>0.57</v>
+      </c>
+      <c r="AO124">
+        <v>2.25</v>
+      </c>
+      <c r="AP124">
+        <v>0.63</v>
+      </c>
+      <c r="AQ124">
+        <v>2.11</v>
+      </c>
+      <c r="AR124">
+        <v>1.57</v>
+      </c>
+      <c r="AS124">
+        <v>1.59</v>
+      </c>
+      <c r="AT124">
+        <v>3.16</v>
+      </c>
+      <c r="AU124">
+        <v>4</v>
+      </c>
+      <c r="AV124">
+        <v>4</v>
+      </c>
+      <c r="AW124">
+        <v>1</v>
+      </c>
+      <c r="AX124">
+        <v>2</v>
+      </c>
+      <c r="AY124">
+        <v>5</v>
+      </c>
+      <c r="AZ124">
+        <v>6</v>
+      </c>
+      <c r="BA124">
+        <v>8</v>
+      </c>
+      <c r="BB124">
+        <v>1</v>
+      </c>
+      <c r="BC124">
+        <v>9</v>
+      </c>
+      <c r="BD124">
+        <v>2.4</v>
+      </c>
+      <c r="BE124">
+        <v>8.5</v>
+      </c>
+      <c r="BF124">
+        <v>1.73</v>
+      </c>
+      <c r="BG124">
+        <v>1.16</v>
+      </c>
+      <c r="BH124">
+        <v>4.3</v>
+      </c>
+      <c r="BI124">
+        <v>1.32</v>
+      </c>
+      <c r="BJ124">
+        <v>3.1</v>
+      </c>
+      <c r="BK124">
+        <v>1.55</v>
+      </c>
+      <c r="BL124">
+        <v>2.3</v>
+      </c>
+      <c r="BM124">
+        <v>1.95</v>
+      </c>
+      <c r="BN124">
+        <v>1.77</v>
+      </c>
+      <c r="BO124">
+        <v>2.6</v>
+      </c>
+      <c r="BP124">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7295084</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45500.54166666666</v>
+      </c>
+      <c r="F125">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>71</v>
+      </c>
+      <c r="H125" t="s">
+        <v>75</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>3</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>2</v>
+      </c>
+      <c r="N125">
+        <v>4</v>
+      </c>
+      <c r="O125" t="s">
+        <v>174</v>
+      </c>
+      <c r="P125" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q125">
+        <v>2.75</v>
+      </c>
+      <c r="R125">
+        <v>2.2</v>
+      </c>
+      <c r="S125">
+        <v>3.75</v>
+      </c>
+      <c r="T125">
+        <v>1.4</v>
+      </c>
+      <c r="U125">
+        <v>2.75</v>
+      </c>
+      <c r="V125">
+        <v>2.75</v>
+      </c>
+      <c r="W125">
+        <v>1.4</v>
+      </c>
+      <c r="X125">
+        <v>8</v>
+      </c>
+      <c r="Y125">
+        <v>1.08</v>
+      </c>
+      <c r="Z125">
+        <v>1.95</v>
+      </c>
+      <c r="AA125">
+        <v>3.5</v>
+      </c>
+      <c r="AB125">
+        <v>3.6</v>
+      </c>
+      <c r="AC125">
+        <v>1.05</v>
+      </c>
+      <c r="AD125">
+        <v>12</v>
+      </c>
+      <c r="AE125">
+        <v>1.3</v>
+      </c>
+      <c r="AF125">
+        <v>3.6</v>
+      </c>
+      <c r="AG125">
+        <v>1.88</v>
+      </c>
+      <c r="AH125">
+        <v>1.98</v>
+      </c>
+      <c r="AI125">
+        <v>1.7</v>
+      </c>
+      <c r="AJ125">
+        <v>2.05</v>
+      </c>
+      <c r="AK125">
+        <v>1.33</v>
+      </c>
+      <c r="AL125">
+        <v>1.26</v>
+      </c>
+      <c r="AM125">
+        <v>1.75</v>
+      </c>
+      <c r="AN125">
+        <v>1.5</v>
+      </c>
+      <c r="AO125">
+        <v>0.57</v>
+      </c>
+      <c r="AP125">
+        <v>1.43</v>
+      </c>
+      <c r="AQ125">
+        <v>0.63</v>
+      </c>
+      <c r="AR125">
+        <v>1.26</v>
+      </c>
+      <c r="AS125">
+        <v>1.29</v>
+      </c>
+      <c r="AT125">
+        <v>2.55</v>
+      </c>
+      <c r="AU125">
+        <v>4</v>
+      </c>
+      <c r="AV125">
+        <v>6</v>
+      </c>
+      <c r="AW125">
+        <v>4</v>
+      </c>
+      <c r="AX125">
+        <v>5</v>
+      </c>
+      <c r="AY125">
+        <v>8</v>
+      </c>
+      <c r="AZ125">
+        <v>11</v>
+      </c>
+      <c r="BA125">
+        <v>4</v>
+      </c>
+      <c r="BB125">
+        <v>6</v>
+      </c>
+      <c r="BC125">
+        <v>10</v>
+      </c>
+      <c r="BD125">
+        <v>1.95</v>
+      </c>
+      <c r="BE125">
+        <v>8</v>
+      </c>
+      <c r="BF125">
+        <v>2.1</v>
+      </c>
+      <c r="BG125">
+        <v>1.16</v>
+      </c>
+      <c r="BH125">
+        <v>4.33</v>
+      </c>
+      <c r="BI125">
+        <v>1.33</v>
+      </c>
+      <c r="BJ125">
+        <v>2.93</v>
+      </c>
+      <c r="BK125">
+        <v>1.64</v>
+      </c>
+      <c r="BL125">
+        <v>2.19</v>
+      </c>
+      <c r="BM125">
+        <v>2.05</v>
+      </c>
+      <c r="BN125">
+        <v>1.7</v>
+      </c>
+      <c r="BO125">
+        <v>2.58</v>
+      </c>
+      <c r="BP125">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="253">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -541,6 +541,15 @@
     <t>['15', '37']</t>
   </si>
   <si>
+    <t>['47', '90+6']</t>
+  </si>
+  <si>
+    <t>['38', '43']</t>
+  </si>
+  <si>
+    <t>['24', '34', '38', '90+4']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -758,6 +767,12 @@
   </si>
   <si>
     <t>['3', '69']</t>
+  </si>
+  <si>
+    <t>['16', '38']</t>
+  </si>
+  <si>
+    <t>['23', '47', '73']</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP125"/>
+  <dimension ref="A1:BP130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1378,7 +1393,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1456,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1584,7 +1599,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1871,7 +1886,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ4">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1996,7 +2011,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2202,7 +2217,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2283,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2692,10 +2707,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ8">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3232,7 +3247,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3438,7 +3453,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q12">
         <v>2.95</v>
@@ -4056,7 +4071,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4137,7 +4152,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4262,7 +4277,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4468,7 +4483,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4549,7 +4564,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ17">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR17">
         <v>0.83</v>
@@ -4674,7 +4689,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4752,7 +4767,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ18">
         <v>1.63</v>
@@ -4880,7 +4895,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -4961,7 +4976,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR19">
         <v>1.53</v>
@@ -5167,7 +5182,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ20">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR20">
         <v>2.32</v>
@@ -5292,7 +5307,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5370,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>0.5</v>
@@ -5704,7 +5719,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5910,7 +5925,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -5991,7 +6006,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ24">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR24">
         <v>2.18</v>
@@ -6322,7 +6337,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6528,7 +6543,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6609,7 +6624,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ27">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR27">
         <v>1.08</v>
@@ -6734,7 +6749,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6812,7 +6827,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>1.71</v>
@@ -6940,7 +6955,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -7430,7 +7445,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ31">
         <v>1.89</v>
@@ -7558,7 +7573,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7970,7 +7985,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8051,7 +8066,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR34">
         <v>1.56</v>
@@ -8176,7 +8191,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8382,7 +8397,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q36">
         <v>2.54</v>
@@ -8463,7 +8478,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ36">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR36">
         <v>1.19</v>
@@ -8669,7 +8684,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR37">
         <v>2.03</v>
@@ -8794,7 +8809,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -8875,7 +8890,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR38">
         <v>1.7</v>
@@ -9618,7 +9633,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9696,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
         <v>1.57</v>
@@ -10030,7 +10045,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q44">
         <v>4.5</v>
@@ -10108,10 +10123,10 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR44">
         <v>1.32</v>
@@ -10317,7 +10332,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ45">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR45">
         <v>1.4</v>
@@ -11060,7 +11075,7 @@
         <v>87</v>
       </c>
       <c r="P49" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11138,7 +11153,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
         <v>1.89</v>
@@ -11344,7 +11359,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ50">
         <v>1.14</v>
@@ -11472,7 +11487,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11678,7 +11693,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -12090,7 +12105,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12296,7 +12311,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12377,7 +12392,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ55">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR55">
         <v>1.29</v>
@@ -12580,10 +12595,10 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR56">
         <v>1.62</v>
@@ -12914,7 +12929,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13120,7 +13135,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13198,10 +13213,10 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR59">
         <v>1.19</v>
@@ -13326,7 +13341,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13613,7 +13628,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ61">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR61">
         <v>1.32</v>
@@ -13944,7 +13959,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14022,7 +14037,7 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ63">
         <v>1.71</v>
@@ -14150,7 +14165,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14437,7 +14452,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ65">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -14562,7 +14577,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -14768,7 +14783,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -14974,7 +14989,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15052,7 +15067,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68">
         <v>1.57</v>
@@ -15261,7 +15276,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ69">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR69">
         <v>1.61</v>
@@ -15798,7 +15813,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16004,7 +16019,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16085,7 +16100,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ73">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR73">
         <v>1.73</v>
@@ -16210,7 +16225,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16416,7 +16431,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16828,7 +16843,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q77">
         <v>2.62</v>
@@ -16909,7 +16924,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ77">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR77">
         <v>1.56</v>
@@ -17112,7 +17127,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ78">
         <v>1.33</v>
@@ -17446,7 +17461,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -17527,7 +17542,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ80">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR80">
         <v>1.14</v>
@@ -17652,7 +17667,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q81">
         <v>3.6</v>
@@ -17730,7 +17745,7 @@
         <v>2.25</v>
       </c>
       <c r="AP81">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ81">
         <v>1.71</v>
@@ -17858,7 +17873,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -17939,7 +17954,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ82">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR82">
         <v>2.05</v>
@@ -18145,7 +18160,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ83">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR83">
         <v>1.93</v>
@@ -18476,7 +18491,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18682,7 +18697,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -18888,7 +18903,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19300,7 +19315,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19381,7 +19396,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ89">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR89">
         <v>1.44</v>
@@ -19506,7 +19521,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q90">
         <v>2.7</v>
@@ -19918,7 +19933,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20124,7 +20139,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q93">
         <v>2.79</v>
@@ -20330,7 +20345,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20408,7 +20423,7 @@
         <v>0.86</v>
       </c>
       <c r="AP94">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ94">
         <v>1.33</v>
@@ -20536,7 +20551,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20742,7 +20757,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -20948,7 +20963,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21026,10 +21041,10 @@
         <v>0.67</v>
       </c>
       <c r="AP97">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ97">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR97">
         <v>1.11</v>
@@ -21235,7 +21250,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ98">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR98">
         <v>1.97</v>
@@ -21360,7 +21375,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21441,7 +21456,7 @@
         <v>1</v>
       </c>
       <c r="AQ99">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR99">
         <v>1.54</v>
@@ -21566,7 +21581,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21644,7 +21659,7 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ100">
         <v>0.63</v>
@@ -21772,7 +21787,7 @@
         <v>116</v>
       </c>
       <c r="P101" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -21850,7 +21865,7 @@
         <v>0.25</v>
       </c>
       <c r="AP101">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ101">
         <v>1.14</v>
@@ -21978,7 +21993,7 @@
         <v>159</v>
       </c>
       <c r="P102" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q102">
         <v>2.45</v>
@@ -22184,7 +22199,7 @@
         <v>98</v>
       </c>
       <c r="P103" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22802,7 +22817,7 @@
         <v>118</v>
       </c>
       <c r="P106" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q106">
         <v>2.75</v>
@@ -22883,7 +22898,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ106">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR106">
         <v>1.31</v>
@@ -23008,7 +23023,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23214,7 +23229,7 @@
         <v>162</v>
       </c>
       <c r="P108" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -23626,7 +23641,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -23832,7 +23847,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -23913,7 +23928,7 @@
         <v>1</v>
       </c>
       <c r="AQ111">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR111">
         <v>1.13</v>
@@ -24119,7 +24134,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ112">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR112">
         <v>1.22</v>
@@ -24322,10 +24337,10 @@
         <v>0.71</v>
       </c>
       <c r="AP113">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ113">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR113">
         <v>1.52</v>
@@ -24450,7 +24465,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q114">
         <v>2.95</v>
@@ -24528,7 +24543,7 @@
         <v>1.13</v>
       </c>
       <c r="AP114">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ114">
         <v>1.33</v>
@@ -24656,7 +24671,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -24734,7 +24749,7 @@
         <v>2.57</v>
       </c>
       <c r="AP115">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ115">
         <v>2.11</v>
@@ -24862,7 +24877,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -24943,7 +24958,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ116">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR116">
         <v>1.92</v>
@@ -25068,7 +25083,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25480,7 +25495,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q119">
         <v>4.2</v>
@@ -25686,7 +25701,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q120">
         <v>1.75</v>
@@ -25892,7 +25907,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q121">
         <v>2.63</v>
@@ -26510,7 +26525,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26716,7 +26731,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -26873,6 +26888,1036 @@
       </c>
       <c r="BP125">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7295086</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45501.5</v>
+      </c>
+      <c r="F126">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>74</v>
+      </c>
+      <c r="H126" t="s">
+        <v>82</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>2</v>
+      </c>
+      <c r="K126">
+        <v>2</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>2</v>
+      </c>
+      <c r="N126">
+        <v>4</v>
+      </c>
+      <c r="O126" t="s">
+        <v>175</v>
+      </c>
+      <c r="P126" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q126">
+        <v>2.4</v>
+      </c>
+      <c r="R126">
+        <v>2.5</v>
+      </c>
+      <c r="S126">
+        <v>4</v>
+      </c>
+      <c r="T126">
+        <v>1.25</v>
+      </c>
+      <c r="U126">
+        <v>3.75</v>
+      </c>
+      <c r="V126">
+        <v>2.2</v>
+      </c>
+      <c r="W126">
+        <v>1.62</v>
+      </c>
+      <c r="X126">
+        <v>5</v>
+      </c>
+      <c r="Y126">
+        <v>1.17</v>
+      </c>
+      <c r="Z126">
+        <v>1.8</v>
+      </c>
+      <c r="AA126">
+        <v>3.75</v>
+      </c>
+      <c r="AB126">
+        <v>3.4</v>
+      </c>
+      <c r="AC126">
+        <v>1.02</v>
+      </c>
+      <c r="AD126">
+        <v>12</v>
+      </c>
+      <c r="AE126">
+        <v>1.12</v>
+      </c>
+      <c r="AF126">
+        <v>5</v>
+      </c>
+      <c r="AG126">
+        <v>1.45</v>
+      </c>
+      <c r="AH126">
+        <v>2.55</v>
+      </c>
+      <c r="AI126">
+        <v>1.5</v>
+      </c>
+      <c r="AJ126">
+        <v>2.5</v>
+      </c>
+      <c r="AK126">
+        <v>1.28</v>
+      </c>
+      <c r="AL126">
+        <v>1.24</v>
+      </c>
+      <c r="AM126">
+        <v>1.95</v>
+      </c>
+      <c r="AN126">
+        <v>1</v>
+      </c>
+      <c r="AO126">
+        <v>1.43</v>
+      </c>
+      <c r="AP126">
+        <v>1</v>
+      </c>
+      <c r="AQ126">
+        <v>1.38</v>
+      </c>
+      <c r="AR126">
+        <v>1.29</v>
+      </c>
+      <c r="AS126">
+        <v>1.34</v>
+      </c>
+      <c r="AT126">
+        <v>2.63</v>
+      </c>
+      <c r="AU126">
+        <v>7</v>
+      </c>
+      <c r="AV126">
+        <v>3</v>
+      </c>
+      <c r="AW126">
+        <v>5</v>
+      </c>
+      <c r="AX126">
+        <v>2</v>
+      </c>
+      <c r="AY126">
+        <v>12</v>
+      </c>
+      <c r="AZ126">
+        <v>5</v>
+      </c>
+      <c r="BA126">
+        <v>9</v>
+      </c>
+      <c r="BB126">
+        <v>1</v>
+      </c>
+      <c r="BC126">
+        <v>10</v>
+      </c>
+      <c r="BD126">
+        <v>1.47</v>
+      </c>
+      <c r="BE126">
+        <v>7.7</v>
+      </c>
+      <c r="BF126">
+        <v>3.54</v>
+      </c>
+      <c r="BG126">
+        <v>1.11</v>
+      </c>
+      <c r="BH126">
+        <v>6.1</v>
+      </c>
+      <c r="BI126">
+        <v>1.22</v>
+      </c>
+      <c r="BJ126">
+        <v>3.65</v>
+      </c>
+      <c r="BK126">
+        <v>1.41</v>
+      </c>
+      <c r="BL126">
+        <v>2.6</v>
+      </c>
+      <c r="BM126">
+        <v>1.9</v>
+      </c>
+      <c r="BN126">
+        <v>1.9</v>
+      </c>
+      <c r="BO126">
+        <v>2.17</v>
+      </c>
+      <c r="BP126">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7295087</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45501.5</v>
+      </c>
+      <c r="F127">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>70</v>
+      </c>
+      <c r="H127" t="s">
+        <v>81</v>
+      </c>
+      <c r="I127">
+        <v>2</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127" t="s">
+        <v>176</v>
+      </c>
+      <c r="P127" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q127">
+        <v>3.1</v>
+      </c>
+      <c r="R127">
+        <v>2.3</v>
+      </c>
+      <c r="S127">
+        <v>3</v>
+      </c>
+      <c r="T127">
+        <v>1.3</v>
+      </c>
+      <c r="U127">
+        <v>3.4</v>
+      </c>
+      <c r="V127">
+        <v>2.5</v>
+      </c>
+      <c r="W127">
+        <v>1.5</v>
+      </c>
+      <c r="X127">
+        <v>6</v>
+      </c>
+      <c r="Y127">
+        <v>1.13</v>
+      </c>
+      <c r="Z127">
+        <v>2.55</v>
+      </c>
+      <c r="AA127">
+        <v>3.3</v>
+      </c>
+      <c r="AB127">
+        <v>2.35</v>
+      </c>
+      <c r="AC127">
+        <v>1.03</v>
+      </c>
+      <c r="AD127">
+        <v>15</v>
+      </c>
+      <c r="AE127">
+        <v>1.2</v>
+      </c>
+      <c r="AF127">
+        <v>4.5</v>
+      </c>
+      <c r="AG127">
+        <v>1.6</v>
+      </c>
+      <c r="AH127">
+        <v>2.2</v>
+      </c>
+      <c r="AI127">
+        <v>1.53</v>
+      </c>
+      <c r="AJ127">
+        <v>2.38</v>
+      </c>
+      <c r="AK127">
+        <v>1.55</v>
+      </c>
+      <c r="AL127">
+        <v>1.25</v>
+      </c>
+      <c r="AM127">
+        <v>1.5</v>
+      </c>
+      <c r="AN127">
+        <v>0.75</v>
+      </c>
+      <c r="AO127">
+        <v>1.25</v>
+      </c>
+      <c r="AP127">
+        <v>1</v>
+      </c>
+      <c r="AQ127">
+        <v>1.11</v>
+      </c>
+      <c r="AR127">
+        <v>1.22</v>
+      </c>
+      <c r="AS127">
+        <v>1.26</v>
+      </c>
+      <c r="AT127">
+        <v>2.48</v>
+      </c>
+      <c r="AU127">
+        <v>5</v>
+      </c>
+      <c r="AV127">
+        <v>5</v>
+      </c>
+      <c r="AW127">
+        <v>4</v>
+      </c>
+      <c r="AX127">
+        <v>9</v>
+      </c>
+      <c r="AY127">
+        <v>9</v>
+      </c>
+      <c r="AZ127">
+        <v>14</v>
+      </c>
+      <c r="BA127">
+        <v>3</v>
+      </c>
+      <c r="BB127">
+        <v>6</v>
+      </c>
+      <c r="BC127">
+        <v>9</v>
+      </c>
+      <c r="BD127">
+        <v>2.14</v>
+      </c>
+      <c r="BE127">
+        <v>6.75</v>
+      </c>
+      <c r="BF127">
+        <v>2.09</v>
+      </c>
+      <c r="BG127">
+        <v>1.11</v>
+      </c>
+      <c r="BH127">
+        <v>5.25</v>
+      </c>
+      <c r="BI127">
+        <v>1.24</v>
+      </c>
+      <c r="BJ127">
+        <v>3.48</v>
+      </c>
+      <c r="BK127">
+        <v>1.46</v>
+      </c>
+      <c r="BL127">
+        <v>2.52</v>
+      </c>
+      <c r="BM127">
+        <v>1.76</v>
+      </c>
+      <c r="BN127">
+        <v>2.02</v>
+      </c>
+      <c r="BO127">
+        <v>2.18</v>
+      </c>
+      <c r="BP127">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7295088</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45501.5</v>
+      </c>
+      <c r="F128">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>85</v>
+      </c>
+      <c r="H128" t="s">
+        <v>80</v>
+      </c>
+      <c r="I128">
+        <v>3</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>4</v>
+      </c>
+      <c r="L128">
+        <v>4</v>
+      </c>
+      <c r="M128">
+        <v>3</v>
+      </c>
+      <c r="N128">
+        <v>7</v>
+      </c>
+      <c r="O128" t="s">
+        <v>177</v>
+      </c>
+      <c r="P128" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q128">
+        <v>2.5</v>
+      </c>
+      <c r="R128">
+        <v>2.25</v>
+      </c>
+      <c r="S128">
+        <v>4</v>
+      </c>
+      <c r="T128">
+        <v>1.33</v>
+      </c>
+      <c r="U128">
+        <v>3.25</v>
+      </c>
+      <c r="V128">
+        <v>2.63</v>
+      </c>
+      <c r="W128">
+        <v>1.44</v>
+      </c>
+      <c r="X128">
+        <v>6.5</v>
+      </c>
+      <c r="Y128">
+        <v>1.11</v>
+      </c>
+      <c r="Z128">
+        <v>1.85</v>
+      </c>
+      <c r="AA128">
+        <v>3.4</v>
+      </c>
+      <c r="AB128">
+        <v>3.5</v>
+      </c>
+      <c r="AC128">
+        <v>1.04</v>
+      </c>
+      <c r="AD128">
+        <v>13</v>
+      </c>
+      <c r="AE128">
+        <v>1.26</v>
+      </c>
+      <c r="AF128">
+        <v>4</v>
+      </c>
+      <c r="AG128">
+        <v>1.7</v>
+      </c>
+      <c r="AH128">
+        <v>2</v>
+      </c>
+      <c r="AI128">
+        <v>1.67</v>
+      </c>
+      <c r="AJ128">
+        <v>2.1</v>
+      </c>
+      <c r="AK128">
+        <v>1.3</v>
+      </c>
+      <c r="AL128">
+        <v>1.24</v>
+      </c>
+      <c r="AM128">
+        <v>1.87</v>
+      </c>
+      <c r="AN128">
+        <v>1.29</v>
+      </c>
+      <c r="AO128">
+        <v>1.33</v>
+      </c>
+      <c r="AP128">
+        <v>1.5</v>
+      </c>
+      <c r="AQ128">
+        <v>1.14</v>
+      </c>
+      <c r="AR128">
+        <v>1.41</v>
+      </c>
+      <c r="AS128">
+        <v>1.19</v>
+      </c>
+      <c r="AT128">
+        <v>2.6</v>
+      </c>
+      <c r="AU128">
+        <v>7</v>
+      </c>
+      <c r="AV128">
+        <v>10</v>
+      </c>
+      <c r="AW128">
+        <v>11</v>
+      </c>
+      <c r="AX128">
+        <v>8</v>
+      </c>
+      <c r="AY128">
+        <v>18</v>
+      </c>
+      <c r="AZ128">
+        <v>18</v>
+      </c>
+      <c r="BA128">
+        <v>7</v>
+      </c>
+      <c r="BB128">
+        <v>3</v>
+      </c>
+      <c r="BC128">
+        <v>10</v>
+      </c>
+      <c r="BD128">
+        <v>1.56</v>
+      </c>
+      <c r="BE128">
+        <v>7.2</v>
+      </c>
+      <c r="BF128">
+        <v>3.2</v>
+      </c>
+      <c r="BG128">
+        <v>1.12</v>
+      </c>
+      <c r="BH128">
+        <v>4.9</v>
+      </c>
+      <c r="BI128">
+        <v>1.27</v>
+      </c>
+      <c r="BJ128">
+        <v>3.28</v>
+      </c>
+      <c r="BK128">
+        <v>1.5</v>
+      </c>
+      <c r="BL128">
+        <v>2.46</v>
+      </c>
+      <c r="BM128">
+        <v>1.82</v>
+      </c>
+      <c r="BN128">
+        <v>1.98</v>
+      </c>
+      <c r="BO128">
+        <v>2.27</v>
+      </c>
+      <c r="BP128">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7295089</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45501.5</v>
+      </c>
+      <c r="F129">
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>73</v>
+      </c>
+      <c r="H129" t="s">
+        <v>79</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129" t="s">
+        <v>87</v>
+      </c>
+      <c r="P129" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q129">
+        <v>2.1</v>
+      </c>
+      <c r="R129">
+        <v>2.4</v>
+      </c>
+      <c r="S129">
+        <v>5</v>
+      </c>
+      <c r="T129">
+        <v>1.3</v>
+      </c>
+      <c r="U129">
+        <v>3.4</v>
+      </c>
+      <c r="V129">
+        <v>2.5</v>
+      </c>
+      <c r="W129">
+        <v>1.5</v>
+      </c>
+      <c r="X129">
+        <v>6</v>
+      </c>
+      <c r="Y129">
+        <v>1.13</v>
+      </c>
+      <c r="Z129">
+        <v>1.53</v>
+      </c>
+      <c r="AA129">
+        <v>3.9</v>
+      </c>
+      <c r="AB129">
+        <v>4.75</v>
+      </c>
+      <c r="AC129">
+        <v>1.03</v>
+      </c>
+      <c r="AD129">
+        <v>17</v>
+      </c>
+      <c r="AE129">
+        <v>1.2</v>
+      </c>
+      <c r="AF129">
+        <v>4.5</v>
+      </c>
+      <c r="AG129">
+        <v>1.62</v>
+      </c>
+      <c r="AH129">
+        <v>2.15</v>
+      </c>
+      <c r="AI129">
+        <v>1.7</v>
+      </c>
+      <c r="AJ129">
+        <v>2.05</v>
+      </c>
+      <c r="AK129">
+        <v>1.16</v>
+      </c>
+      <c r="AL129">
+        <v>1.19</v>
+      </c>
+      <c r="AM129">
+        <v>2.4</v>
+      </c>
+      <c r="AN129">
+        <v>1</v>
+      </c>
+      <c r="AO129">
+        <v>0.63</v>
+      </c>
+      <c r="AP129">
+        <v>1</v>
+      </c>
+      <c r="AQ129">
+        <v>0.67</v>
+      </c>
+      <c r="AR129">
+        <v>1.47</v>
+      </c>
+      <c r="AS129">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT129">
+        <v>2.41</v>
+      </c>
+      <c r="AU129">
+        <v>5</v>
+      </c>
+      <c r="AV129">
+        <v>4</v>
+      </c>
+      <c r="AW129">
+        <v>11</v>
+      </c>
+      <c r="AX129">
+        <v>5</v>
+      </c>
+      <c r="AY129">
+        <v>16</v>
+      </c>
+      <c r="AZ129">
+        <v>9</v>
+      </c>
+      <c r="BA129">
+        <v>10</v>
+      </c>
+      <c r="BB129">
+        <v>5</v>
+      </c>
+      <c r="BC129">
+        <v>15</v>
+      </c>
+      <c r="BD129">
+        <v>1.27</v>
+      </c>
+      <c r="BE129">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF129">
+        <v>5.2</v>
+      </c>
+      <c r="BG129">
+        <v>1.09</v>
+      </c>
+      <c r="BH129">
+        <v>5.6</v>
+      </c>
+      <c r="BI129">
+        <v>1.21</v>
+      </c>
+      <c r="BJ129">
+        <v>3.74</v>
+      </c>
+      <c r="BK129">
+        <v>1.41</v>
+      </c>
+      <c r="BL129">
+        <v>2.69</v>
+      </c>
+      <c r="BM129">
+        <v>1.85</v>
+      </c>
+      <c r="BN129">
+        <v>1.95</v>
+      </c>
+      <c r="BO129">
+        <v>2.16</v>
+      </c>
+      <c r="BP129">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7295083</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45501.59375</v>
+      </c>
+      <c r="F130">
+        <v>16</v>
+      </c>
+      <c r="G130" t="s">
+        <v>76</v>
+      </c>
+      <c r="H130" t="s">
+        <v>72</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130" t="s">
+        <v>130</v>
+      </c>
+      <c r="P130" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q130">
+        <v>3</v>
+      </c>
+      <c r="R130">
+        <v>2.5</v>
+      </c>
+      <c r="S130">
+        <v>3</v>
+      </c>
+      <c r="T130">
+        <v>1.25</v>
+      </c>
+      <c r="U130">
+        <v>3.75</v>
+      </c>
+      <c r="V130">
+        <v>2.2</v>
+      </c>
+      <c r="W130">
+        <v>1.62</v>
+      </c>
+      <c r="X130">
+        <v>5</v>
+      </c>
+      <c r="Y130">
+        <v>1.17</v>
+      </c>
+      <c r="Z130">
+        <v>2.45</v>
+      </c>
+      <c r="AA130">
+        <v>3.4</v>
+      </c>
+      <c r="AB130">
+        <v>2.4</v>
+      </c>
+      <c r="AC130">
+        <v>1.01</v>
+      </c>
+      <c r="AD130">
+        <v>23</v>
+      </c>
+      <c r="AE130">
+        <v>1.15</v>
+      </c>
+      <c r="AF130">
+        <v>5.5</v>
+      </c>
+      <c r="AG130">
+        <v>1.45</v>
+      </c>
+      <c r="AH130">
+        <v>2.55</v>
+      </c>
+      <c r="AI130">
+        <v>1.44</v>
+      </c>
+      <c r="AJ130">
+        <v>2.63</v>
+      </c>
+      <c r="AK130">
+        <v>1.55</v>
+      </c>
+      <c r="AL130">
+        <v>1.22</v>
+      </c>
+      <c r="AM130">
+        <v>1.53</v>
+      </c>
+      <c r="AN130">
+        <v>2.13</v>
+      </c>
+      <c r="AO130">
+        <v>2</v>
+      </c>
+      <c r="AP130">
+        <v>2.22</v>
+      </c>
+      <c r="AQ130">
+        <v>1.75</v>
+      </c>
+      <c r="AR130">
+        <v>1.58</v>
+      </c>
+      <c r="AS130">
+        <v>1.51</v>
+      </c>
+      <c r="AT130">
+        <v>3.09</v>
+      </c>
+      <c r="AU130">
+        <v>5</v>
+      </c>
+      <c r="AV130">
+        <v>6</v>
+      </c>
+      <c r="AW130">
+        <v>5</v>
+      </c>
+      <c r="AX130">
+        <v>6</v>
+      </c>
+      <c r="AY130">
+        <v>10</v>
+      </c>
+      <c r="AZ130">
+        <v>12</v>
+      </c>
+      <c r="BA130">
+        <v>3</v>
+      </c>
+      <c r="BB130">
+        <v>8</v>
+      </c>
+      <c r="BC130">
+        <v>11</v>
+      </c>
+      <c r="BD130">
+        <v>1.83</v>
+      </c>
+      <c r="BE130">
+        <v>8.5</v>
+      </c>
+      <c r="BF130">
+        <v>2.2</v>
+      </c>
+      <c r="BG130">
+        <v>1.11</v>
+      </c>
+      <c r="BH130">
+        <v>5.15</v>
+      </c>
+      <c r="BI130">
+        <v>1.27</v>
+      </c>
+      <c r="BJ130">
+        <v>3.55</v>
+      </c>
+      <c r="BK130">
+        <v>1.48</v>
+      </c>
+      <c r="BL130">
+        <v>2.55</v>
+      </c>
+      <c r="BM130">
+        <v>1.82</v>
+      </c>
+      <c r="BN130">
+        <v>1.98</v>
+      </c>
+      <c r="BO130">
+        <v>2.35</v>
+      </c>
+      <c r="BP130">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -550,6 +550,24 @@
     <t>['24', '34', '38', '90+4']</t>
   </si>
   <si>
+    <t>['45+1', '55', '62', '74']</t>
+  </si>
+  <si>
+    <t>['38', '90+2']</t>
+  </si>
+  <si>
+    <t>['44', '49']</t>
+  </si>
+  <si>
+    <t>['60', '72', '84']</t>
+  </si>
+  <si>
+    <t>['13', '68']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -773,6 +791,15 @@
   </si>
   <si>
     <t>['23', '47', '73']</t>
+  </si>
+  <si>
+    <t>['20', '50']</t>
+  </si>
+  <si>
+    <t>['20', '21', '63']</t>
+  </si>
+  <si>
+    <t>['26', '66', '86']</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP130"/>
+  <dimension ref="A1:BP137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1393,7 +1420,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1474,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1599,7 +1626,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1677,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ3">
         <v>2.11</v>
@@ -2011,7 +2038,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2092,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2217,7 +2244,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2501,10 +2528,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3119,10 +3146,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ10">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3247,7 +3274,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3325,10 +3352,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ11">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3453,7 +3480,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q12">
         <v>5.5</v>
@@ -3531,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ12">
         <v>1.75</v>
@@ -3737,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3943,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ14">
         <v>0.63</v>
@@ -4071,7 +4098,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q15">
         <v>2.95</v>
@@ -4152,7 +4179,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ15">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4277,7 +4304,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4483,7 +4510,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4561,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ17">
         <v>1.38</v>
@@ -4689,7 +4716,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4770,7 +4797,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ18">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR18">
         <v>1.5</v>
@@ -4895,7 +4922,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -4976,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>1.53</v>
@@ -5307,7 +5334,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5388,7 +5415,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR21">
         <v>1.91</v>
@@ -5591,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>1.33</v>
@@ -5719,7 +5746,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5925,7 +5952,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6337,7 +6364,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6543,7 +6570,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6621,7 +6648,7 @@
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ27">
         <v>1.11</v>
@@ -6827,10 +6854,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ28">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.11</v>
@@ -6955,7 +6982,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q29">
         <v>3.6</v>
@@ -7161,7 +7188,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7239,10 +7266,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ30">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR30">
         <v>1.39</v>
@@ -7779,7 +7806,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7860,7 +7887,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -7985,7 +8012,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8063,7 +8090,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ34">
         <v>1.75</v>
@@ -8191,7 +8218,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8269,7 +8296,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>2.11</v>
@@ -8478,7 +8505,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ36">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>2.03</v>
@@ -8809,7 +8836,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q38">
         <v>2.54</v>
@@ -8887,7 +8914,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ38">
         <v>0.67</v>
@@ -9015,7 +9042,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9299,10 +9326,10 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ40">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR40">
         <v>1.33</v>
@@ -9508,7 +9535,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ41">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR41">
         <v>2.11</v>
@@ -9633,7 +9660,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9714,7 +9741,7 @@
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
         <v>1.44</v>
@@ -10126,7 +10153,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ44">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <v>1.38</v>
@@ -10329,7 +10356,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ45">
         <v>1.33</v>
@@ -10535,10 +10562,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ46">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR46">
         <v>1.46</v>
@@ -10663,7 +10690,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10947,7 +10974,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ48">
         <v>1.11</v>
@@ -11075,7 +11102,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q49">
         <v>4.5</v>
@@ -11362,7 +11389,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ50">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.33</v>
@@ -11487,7 +11514,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11693,7 +11720,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -11771,7 +11798,7 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ52">
         <v>2.11</v>
@@ -11977,10 +12004,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ53">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR53">
         <v>1.7</v>
@@ -12105,7 +12132,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12311,7 +12338,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12389,10 +12416,10 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ55">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.29</v>
@@ -12929,7 +12956,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13010,7 +13037,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR58">
         <v>1.38</v>
@@ -13135,7 +13162,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13341,7 +13368,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13419,10 +13446,10 @@
         <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR60">
         <v>1.09</v>
@@ -13625,7 +13652,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ61">
         <v>1.11</v>
@@ -13753,7 +13780,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q62">
         <v>1.67</v>
@@ -13834,7 +13861,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ62">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR62">
         <v>2.1</v>
@@ -13959,7 +13986,7 @@
         <v>116</v>
       </c>
       <c r="P63" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14040,7 +14067,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ63">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -14165,7 +14192,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14243,7 +14270,7 @@
         <v>0.6</v>
       </c>
       <c r="AP64">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ64">
         <v>1.33</v>
@@ -14655,10 +14682,10 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ66">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.51</v>
@@ -14783,7 +14810,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -14861,10 +14888,10 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ67">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR67">
         <v>1.44</v>
@@ -14989,7 +15016,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15070,7 +15097,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ68">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR68">
         <v>1.55</v>
@@ -15273,10 +15300,10 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ69">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>1.61</v>
@@ -15479,7 +15506,7 @@
         <v>3</v>
       </c>
       <c r="AP70">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ70">
         <v>2.11</v>
@@ -15813,7 +15840,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16019,7 +16046,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16225,7 +16252,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16431,7 +16458,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16509,10 +16536,10 @@
         <v>2.5</v>
       </c>
       <c r="AP75">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ75">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR75">
         <v>1.51</v>
@@ -16715,10 +16742,10 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ76">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR76">
         <v>1.37</v>
@@ -16843,7 +16870,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -16921,7 +16948,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ77">
         <v>0.67</v>
@@ -17130,7 +17157,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ78">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR78">
         <v>1.47</v>
@@ -17255,7 +17282,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17336,7 +17363,7 @@
         <v>1</v>
       </c>
       <c r="AQ79">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR79">
         <v>1.07</v>
@@ -17461,7 +17488,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q80">
         <v>2.62</v>
@@ -17539,7 +17566,7 @@
         <v>1.2</v>
       </c>
       <c r="AP80">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ80">
         <v>1.11</v>
@@ -17873,7 +17900,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18491,7 +18518,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18569,10 +18596,10 @@
         <v>0.2</v>
       </c>
       <c r="AP85">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ85">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR85">
         <v>1.48</v>
@@ -18697,7 +18724,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -18775,10 +18802,10 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ86">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR86">
         <v>1.09</v>
@@ -18903,7 +18930,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -18984,7 +19011,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ87">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR87">
         <v>1.72</v>
@@ -19109,7 +19136,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19190,7 +19217,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ88">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR88">
         <v>1.51</v>
@@ -19393,7 +19420,7 @@
         <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ89">
         <v>1</v>
@@ -19727,7 +19754,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -19808,7 +19835,7 @@
         <v>1</v>
       </c>
       <c r="AQ91">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR91">
         <v>1.59</v>
@@ -19933,7 +19960,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20011,7 +20038,7 @@
         <v>1.4</v>
       </c>
       <c r="AP92">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ92">
         <v>1.38</v>
@@ -20139,7 +20166,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q93">
         <v>2.79</v>
@@ -20217,7 +20244,7 @@
         <v>2.17</v>
       </c>
       <c r="AP93">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ93">
         <v>1.89</v>
@@ -20345,7 +20372,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20551,7 +20578,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20632,7 +20659,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR95">
         <v>1.17</v>
@@ -20963,7 +20990,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -21041,7 +21068,7 @@
         <v>2.5</v>
       </c>
       <c r="AP97">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ97">
         <v>2.11</v>
@@ -21169,7 +21196,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21375,7 +21402,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21581,7 +21608,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21787,7 +21814,7 @@
         <v>117</v>
       </c>
       <c r="P101" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -21868,7 +21895,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ101">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR101">
         <v>1.41</v>
@@ -21993,7 +22020,7 @@
         <v>159</v>
       </c>
       <c r="P102" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q102">
         <v>2.45</v>
@@ -22071,10 +22098,10 @@
         <v>2</v>
       </c>
       <c r="AP102">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ102">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR102">
         <v>1.54</v>
@@ -22280,7 +22307,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ103">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR103">
         <v>1.74</v>
@@ -22483,10 +22510,10 @@
         <v>0.8</v>
       </c>
       <c r="AP104">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ104">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR104">
         <v>1.2</v>
@@ -22611,7 +22638,7 @@
         <v>116</v>
       </c>
       <c r="P105" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q105">
         <v>2.75</v>
@@ -22817,7 +22844,7 @@
         <v>98</v>
       </c>
       <c r="P106" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -22898,7 +22925,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ106">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -23023,7 +23050,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23101,7 +23128,7 @@
         <v>1.33</v>
       </c>
       <c r="AP107">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ107">
         <v>1</v>
@@ -23307,10 +23334,10 @@
         <v>0.43</v>
       </c>
       <c r="AP108">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ108">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR108">
         <v>1.56</v>
@@ -23435,7 +23462,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23513,7 +23540,7 @@
         <v>2</v>
       </c>
       <c r="AP109">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ109">
         <v>1.89</v>
@@ -23641,7 +23668,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -23719,7 +23746,7 @@
         <v>0.67</v>
       </c>
       <c r="AP110">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ110">
         <v>0.63</v>
@@ -23925,7 +23952,7 @@
         <v>2.17</v>
       </c>
       <c r="AP111">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ111">
         <v>1.75</v>
@@ -24053,7 +24080,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q112">
         <v>2.95</v>
@@ -24259,7 +24286,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q113">
         <v>2.63</v>
@@ -24465,7 +24492,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -24877,7 +24904,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -24958,7 +24985,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ116">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR116">
         <v>1.92</v>
@@ -25083,7 +25110,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25164,7 +25191,7 @@
         <v>1</v>
       </c>
       <c r="AQ117">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR117">
         <v>1.45</v>
@@ -25367,7 +25394,7 @@
         <v>1.14</v>
       </c>
       <c r="AP118">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ118">
         <v>1</v>
@@ -25495,7 +25522,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q119">
         <v>4.2</v>
@@ -25573,10 +25600,10 @@
         <v>1.71</v>
       </c>
       <c r="AP119">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ119">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR119">
         <v>1.6</v>
@@ -25701,7 +25728,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q120">
         <v>1.75</v>
@@ -25782,7 +25809,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ120">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR120">
         <v>1.74</v>
@@ -25907,7 +25934,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q121">
         <v>2.63</v>
@@ -25985,10 +26012,10 @@
         <v>0.83</v>
       </c>
       <c r="AP121">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ121">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR121">
         <v>1.59</v>
@@ -26194,7 +26221,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ122">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR122">
         <v>1.3</v>
@@ -26397,7 +26424,7 @@
         <v>1.75</v>
       </c>
       <c r="AP123">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ123">
         <v>1.89</v>
@@ -26525,7 +26552,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26731,7 +26758,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -26809,7 +26836,7 @@
         <v>0.57</v>
       </c>
       <c r="AP125">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ125">
         <v>0.63</v>
@@ -26937,7 +26964,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27349,7 +27376,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27430,7 +27457,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ128">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR128">
         <v>1.41</v>
@@ -27918,6 +27945,1448 @@
       </c>
       <c r="BP130">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7295096</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45507.54166666666</v>
+      </c>
+      <c r="F131">
+        <v>17</v>
+      </c>
+      <c r="G131" t="s">
+        <v>78</v>
+      </c>
+      <c r="H131" t="s">
+        <v>83</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>2</v>
+      </c>
+      <c r="L131">
+        <v>4</v>
+      </c>
+      <c r="M131">
+        <v>2</v>
+      </c>
+      <c r="N131">
+        <v>6</v>
+      </c>
+      <c r="O131" t="s">
+        <v>178</v>
+      </c>
+      <c r="P131" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q131">
+        <v>1.62</v>
+      </c>
+      <c r="R131">
+        <v>2.8</v>
+      </c>
+      <c r="S131">
+        <v>7</v>
+      </c>
+      <c r="T131">
+        <v>1.22</v>
+      </c>
+      <c r="U131">
+        <v>3.8</v>
+      </c>
+      <c r="V131">
+        <v>2.1</v>
+      </c>
+      <c r="W131">
+        <v>1.65</v>
+      </c>
+      <c r="X131">
+        <v>4.6</v>
+      </c>
+      <c r="Y131">
+        <v>1.18</v>
+      </c>
+      <c r="Z131">
+        <v>1.2</v>
+      </c>
+      <c r="AA131">
+        <v>6.5</v>
+      </c>
+      <c r="AB131">
+        <v>11</v>
+      </c>
+      <c r="AC131">
+        <v>1.02</v>
+      </c>
+      <c r="AD131">
+        <v>25</v>
+      </c>
+      <c r="AE131">
+        <v>1.12</v>
+      </c>
+      <c r="AF131">
+        <v>5.75</v>
+      </c>
+      <c r="AG131">
+        <v>1.39</v>
+      </c>
+      <c r="AH131">
+        <v>2.68</v>
+      </c>
+      <c r="AI131">
+        <v>1.85</v>
+      </c>
+      <c r="AJ131">
+        <v>1.8</v>
+      </c>
+      <c r="AK131">
+        <v>1.04</v>
+      </c>
+      <c r="AL131">
+        <v>1.11</v>
+      </c>
+      <c r="AM131">
+        <v>4</v>
+      </c>
+      <c r="AN131">
+        <v>2.25</v>
+      </c>
+      <c r="AO131">
+        <v>1.14</v>
+      </c>
+      <c r="AP131">
+        <v>2.33</v>
+      </c>
+      <c r="AQ131">
+        <v>1</v>
+      </c>
+      <c r="AR131">
+        <v>1.65</v>
+      </c>
+      <c r="AS131">
+        <v>1.33</v>
+      </c>
+      <c r="AT131">
+        <v>2.98</v>
+      </c>
+      <c r="AU131">
+        <v>11</v>
+      </c>
+      <c r="AV131">
+        <v>7</v>
+      </c>
+      <c r="AW131">
+        <v>7</v>
+      </c>
+      <c r="AX131">
+        <v>5</v>
+      </c>
+      <c r="AY131">
+        <v>18</v>
+      </c>
+      <c r="AZ131">
+        <v>12</v>
+      </c>
+      <c r="BA131">
+        <v>11</v>
+      </c>
+      <c r="BB131">
+        <v>2</v>
+      </c>
+      <c r="BC131">
+        <v>13</v>
+      </c>
+      <c r="BD131">
+        <v>1.14</v>
+      </c>
+      <c r="BE131">
+        <v>12</v>
+      </c>
+      <c r="BF131">
+        <v>6.5</v>
+      </c>
+      <c r="BG131">
+        <v>1.11</v>
+      </c>
+      <c r="BH131">
+        <v>5.8</v>
+      </c>
+      <c r="BI131">
+        <v>1.23</v>
+      </c>
+      <c r="BJ131">
+        <v>3.9</v>
+      </c>
+      <c r="BK131">
+        <v>1.5</v>
+      </c>
+      <c r="BL131">
+        <v>2.45</v>
+      </c>
+      <c r="BM131">
+        <v>1.85</v>
+      </c>
+      <c r="BN131">
+        <v>1.95</v>
+      </c>
+      <c r="BO131">
+        <v>2.43</v>
+      </c>
+      <c r="BP131">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7295097</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45508.5</v>
+      </c>
+      <c r="F132">
+        <v>17</v>
+      </c>
+      <c r="G132" t="s">
+        <v>71</v>
+      </c>
+      <c r="H132" t="s">
+        <v>77</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132" t="s">
+        <v>87</v>
+      </c>
+      <c r="P132" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q132">
+        <v>2.63</v>
+      </c>
+      <c r="R132">
+        <v>2.1</v>
+      </c>
+      <c r="S132">
+        <v>4.33</v>
+      </c>
+      <c r="T132">
+        <v>1.4</v>
+      </c>
+      <c r="U132">
+        <v>2.75</v>
+      </c>
+      <c r="V132">
+        <v>3</v>
+      </c>
+      <c r="W132">
+        <v>1.36</v>
+      </c>
+      <c r="X132">
+        <v>8</v>
+      </c>
+      <c r="Y132">
+        <v>1.08</v>
+      </c>
+      <c r="Z132">
+        <v>1.96</v>
+      </c>
+      <c r="AA132">
+        <v>3.54</v>
+      </c>
+      <c r="AB132">
+        <v>3.69</v>
+      </c>
+      <c r="AC132">
+        <v>1.05</v>
+      </c>
+      <c r="AD132">
+        <v>11</v>
+      </c>
+      <c r="AE132">
+        <v>1.33</v>
+      </c>
+      <c r="AF132">
+        <v>3.3</v>
+      </c>
+      <c r="AG132">
+        <v>2</v>
+      </c>
+      <c r="AH132">
+        <v>1.81</v>
+      </c>
+      <c r="AI132">
+        <v>1.8</v>
+      </c>
+      <c r="AJ132">
+        <v>1.95</v>
+      </c>
+      <c r="AK132">
+        <v>1.28</v>
+      </c>
+      <c r="AL132">
+        <v>1.3</v>
+      </c>
+      <c r="AM132">
+        <v>1.81</v>
+      </c>
+      <c r="AN132">
+        <v>1.43</v>
+      </c>
+      <c r="AO132">
+        <v>2.13</v>
+      </c>
+      <c r="AP132">
+        <v>1.38</v>
+      </c>
+      <c r="AQ132">
+        <v>2</v>
+      </c>
+      <c r="AR132">
+        <v>1.23</v>
+      </c>
+      <c r="AS132">
+        <v>1.12</v>
+      </c>
+      <c r="AT132">
+        <v>2.35</v>
+      </c>
+      <c r="AU132">
+        <v>2</v>
+      </c>
+      <c r="AV132">
+        <v>0</v>
+      </c>
+      <c r="AW132">
+        <v>7</v>
+      </c>
+      <c r="AX132">
+        <v>2</v>
+      </c>
+      <c r="AY132">
+        <v>9</v>
+      </c>
+      <c r="AZ132">
+        <v>2</v>
+      </c>
+      <c r="BA132">
+        <v>4</v>
+      </c>
+      <c r="BB132">
+        <v>1</v>
+      </c>
+      <c r="BC132">
+        <v>5</v>
+      </c>
+      <c r="BD132">
+        <v>1.95</v>
+      </c>
+      <c r="BE132">
+        <v>8</v>
+      </c>
+      <c r="BF132">
+        <v>2.05</v>
+      </c>
+      <c r="BG132">
+        <v>1.18</v>
+      </c>
+      <c r="BH132">
+        <v>4.05</v>
+      </c>
+      <c r="BI132">
+        <v>1.35</v>
+      </c>
+      <c r="BJ132">
+        <v>3.05</v>
+      </c>
+      <c r="BK132">
+        <v>1.62</v>
+      </c>
+      <c r="BL132">
+        <v>2.23</v>
+      </c>
+      <c r="BM132">
+        <v>2.05</v>
+      </c>
+      <c r="BN132">
+        <v>1.7</v>
+      </c>
+      <c r="BO132">
+        <v>2.7</v>
+      </c>
+      <c r="BP132">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7295094</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45508.5</v>
+      </c>
+      <c r="F133">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>82</v>
+      </c>
+      <c r="H133" t="s">
+        <v>84</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>2</v>
+      </c>
+      <c r="K133">
+        <v>3</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>3</v>
+      </c>
+      <c r="N133">
+        <v>5</v>
+      </c>
+      <c r="O133" t="s">
+        <v>179</v>
+      </c>
+      <c r="P133" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q133">
+        <v>3.5</v>
+      </c>
+      <c r="R133">
+        <v>2.4</v>
+      </c>
+      <c r="S133">
+        <v>2.63</v>
+      </c>
+      <c r="T133">
+        <v>1.29</v>
+      </c>
+      <c r="U133">
+        <v>3.5</v>
+      </c>
+      <c r="V133">
+        <v>2.25</v>
+      </c>
+      <c r="W133">
+        <v>1.57</v>
+      </c>
+      <c r="X133">
+        <v>5.5</v>
+      </c>
+      <c r="Y133">
+        <v>1.14</v>
+      </c>
+      <c r="Z133">
+        <v>3.71</v>
+      </c>
+      <c r="AA133">
+        <v>4.07</v>
+      </c>
+      <c r="AB133">
+        <v>1.82</v>
+      </c>
+      <c r="AC133">
+        <v>1.02</v>
+      </c>
+      <c r="AD133">
+        <v>19</v>
+      </c>
+      <c r="AE133">
+        <v>1.18</v>
+      </c>
+      <c r="AF133">
+        <v>5</v>
+      </c>
+      <c r="AG133">
+        <v>1.55</v>
+      </c>
+      <c r="AH133">
+        <v>2.3</v>
+      </c>
+      <c r="AI133">
+        <v>1.5</v>
+      </c>
+      <c r="AJ133">
+        <v>2.5</v>
+      </c>
+      <c r="AK133">
+        <v>1.78</v>
+      </c>
+      <c r="AL133">
+        <v>1.22</v>
+      </c>
+      <c r="AM133">
+        <v>1.38</v>
+      </c>
+      <c r="AN133">
+        <v>1.29</v>
+      </c>
+      <c r="AO133">
+        <v>1.63</v>
+      </c>
+      <c r="AP133">
+        <v>1.13</v>
+      </c>
+      <c r="AQ133">
+        <v>1.78</v>
+      </c>
+      <c r="AR133">
+        <v>1.53</v>
+      </c>
+      <c r="AS133">
+        <v>1.54</v>
+      </c>
+      <c r="AT133">
+        <v>3.07</v>
+      </c>
+      <c r="AU133">
+        <v>6</v>
+      </c>
+      <c r="AV133">
+        <v>8</v>
+      </c>
+      <c r="AW133">
+        <v>6</v>
+      </c>
+      <c r="AX133">
+        <v>3</v>
+      </c>
+      <c r="AY133">
+        <v>12</v>
+      </c>
+      <c r="AZ133">
+        <v>11</v>
+      </c>
+      <c r="BA133">
+        <v>3</v>
+      </c>
+      <c r="BB133">
+        <v>6</v>
+      </c>
+      <c r="BC133">
+        <v>9</v>
+      </c>
+      <c r="BD133">
+        <v>2.3</v>
+      </c>
+      <c r="BE133">
+        <v>9</v>
+      </c>
+      <c r="BF133">
+        <v>1.73</v>
+      </c>
+      <c r="BG133">
+        <v>0</v>
+      </c>
+      <c r="BH133">
+        <v>0</v>
+      </c>
+      <c r="BI133">
+        <v>1.11</v>
+      </c>
+      <c r="BJ133">
+        <v>5.2</v>
+      </c>
+      <c r="BK133">
+        <v>1.23</v>
+      </c>
+      <c r="BL133">
+        <v>3.95</v>
+      </c>
+      <c r="BM133">
+        <v>1.4</v>
+      </c>
+      <c r="BN133">
+        <v>2.85</v>
+      </c>
+      <c r="BO133">
+        <v>1.8</v>
+      </c>
+      <c r="BP133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7295095</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45508.5</v>
+      </c>
+      <c r="F134">
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
+        <v>79</v>
+      </c>
+      <c r="H134" t="s">
+        <v>74</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>2</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>3</v>
+      </c>
+      <c r="O134" t="s">
+        <v>180</v>
+      </c>
+      <c r="P134" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q134">
+        <v>4.33</v>
+      </c>
+      <c r="R134">
+        <v>2.4</v>
+      </c>
+      <c r="S134">
+        <v>2.38</v>
+      </c>
+      <c r="T134">
+        <v>1.29</v>
+      </c>
+      <c r="U134">
+        <v>3.5</v>
+      </c>
+      <c r="V134">
+        <v>2.25</v>
+      </c>
+      <c r="W134">
+        <v>1.57</v>
+      </c>
+      <c r="X134">
+        <v>5.5</v>
+      </c>
+      <c r="Y134">
+        <v>1.14</v>
+      </c>
+      <c r="Z134">
+        <v>3.07</v>
+      </c>
+      <c r="AA134">
+        <v>3.65</v>
+      </c>
+      <c r="AB134">
+        <v>2.17</v>
+      </c>
+      <c r="AC134">
+        <v>1.02</v>
+      </c>
+      <c r="AD134">
+        <v>19</v>
+      </c>
+      <c r="AE134">
+        <v>1.19</v>
+      </c>
+      <c r="AF134">
+        <v>4.75</v>
+      </c>
+      <c r="AG134">
+        <v>1.58</v>
+      </c>
+      <c r="AH134">
+        <v>2.38</v>
+      </c>
+      <c r="AI134">
+        <v>1.57</v>
+      </c>
+      <c r="AJ134">
+        <v>2.25</v>
+      </c>
+      <c r="AK134">
+        <v>1.98</v>
+      </c>
+      <c r="AL134">
+        <v>1.22</v>
+      </c>
+      <c r="AM134">
+        <v>1.26</v>
+      </c>
+      <c r="AN134">
+        <v>1.71</v>
+      </c>
+      <c r="AO134">
+        <v>1.71</v>
+      </c>
+      <c r="AP134">
+        <v>1.88</v>
+      </c>
+      <c r="AQ134">
+        <v>1.5</v>
+      </c>
+      <c r="AR134">
+        <v>1.43</v>
+      </c>
+      <c r="AS134">
+        <v>1.32</v>
+      </c>
+      <c r="AT134">
+        <v>2.75</v>
+      </c>
+      <c r="AU134">
+        <v>7</v>
+      </c>
+      <c r="AV134">
+        <v>5</v>
+      </c>
+      <c r="AW134">
+        <v>2</v>
+      </c>
+      <c r="AX134">
+        <v>5</v>
+      </c>
+      <c r="AY134">
+        <v>9</v>
+      </c>
+      <c r="AZ134">
+        <v>10</v>
+      </c>
+      <c r="BA134">
+        <v>1</v>
+      </c>
+      <c r="BB134">
+        <v>8</v>
+      </c>
+      <c r="BC134">
+        <v>9</v>
+      </c>
+      <c r="BD134">
+        <v>2.88</v>
+      </c>
+      <c r="BE134">
+        <v>9</v>
+      </c>
+      <c r="BF134">
+        <v>1.53</v>
+      </c>
+      <c r="BG134">
+        <v>1.08</v>
+      </c>
+      <c r="BH134">
+        <v>7</v>
+      </c>
+      <c r="BI134">
+        <v>1.14</v>
+      </c>
+      <c r="BJ134">
+        <v>4.7</v>
+      </c>
+      <c r="BK134">
+        <v>1.32</v>
+      </c>
+      <c r="BL134">
+        <v>3.2</v>
+      </c>
+      <c r="BM134">
+        <v>1.56</v>
+      </c>
+      <c r="BN134">
+        <v>2.33</v>
+      </c>
+      <c r="BO134">
+        <v>2</v>
+      </c>
+      <c r="BP134">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7295090</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45508.5</v>
+      </c>
+      <c r="F135">
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>80</v>
+      </c>
+      <c r="H135" t="s">
+        <v>76</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>3</v>
+      </c>
+      <c r="M135">
+        <v>3</v>
+      </c>
+      <c r="N135">
+        <v>6</v>
+      </c>
+      <c r="O135" t="s">
+        <v>181</v>
+      </c>
+      <c r="P135" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q135">
+        <v>3.5</v>
+      </c>
+      <c r="R135">
+        <v>2.38</v>
+      </c>
+      <c r="S135">
+        <v>2.75</v>
+      </c>
+      <c r="T135">
+        <v>1.3</v>
+      </c>
+      <c r="U135">
+        <v>3.4</v>
+      </c>
+      <c r="V135">
+        <v>2.38</v>
+      </c>
+      <c r="W135">
+        <v>1.53</v>
+      </c>
+      <c r="X135">
+        <v>6</v>
+      </c>
+      <c r="Y135">
+        <v>1.13</v>
+      </c>
+      <c r="Z135">
+        <v>2.8</v>
+      </c>
+      <c r="AA135">
+        <v>3.68</v>
+      </c>
+      <c r="AB135">
+        <v>2.31</v>
+      </c>
+      <c r="AC135">
+        <v>1.03</v>
+      </c>
+      <c r="AD135">
+        <v>12</v>
+      </c>
+      <c r="AE135">
+        <v>1.16</v>
+      </c>
+      <c r="AF135">
+        <v>4.4</v>
+      </c>
+      <c r="AG135">
+        <v>1.65</v>
+      </c>
+      <c r="AH135">
+        <v>2.1</v>
+      </c>
+      <c r="AI135">
+        <v>1.53</v>
+      </c>
+      <c r="AJ135">
+        <v>2.38</v>
+      </c>
+      <c r="AK135">
+        <v>1.67</v>
+      </c>
+      <c r="AL135">
+        <v>1.28</v>
+      </c>
+      <c r="AM135">
+        <v>1.27</v>
+      </c>
+      <c r="AN135">
+        <v>0.71</v>
+      </c>
+      <c r="AO135">
+        <v>1.57</v>
+      </c>
+      <c r="AP135">
+        <v>0.75</v>
+      </c>
+      <c r="AQ135">
+        <v>1.5</v>
+      </c>
+      <c r="AR135">
+        <v>1.14</v>
+      </c>
+      <c r="AS135">
+        <v>1.26</v>
+      </c>
+      <c r="AT135">
+        <v>2.4</v>
+      </c>
+      <c r="AU135">
+        <v>5</v>
+      </c>
+      <c r="AV135">
+        <v>8</v>
+      </c>
+      <c r="AW135">
+        <v>4</v>
+      </c>
+      <c r="AX135">
+        <v>5</v>
+      </c>
+      <c r="AY135">
+        <v>9</v>
+      </c>
+      <c r="AZ135">
+        <v>13</v>
+      </c>
+      <c r="BA135">
+        <v>9</v>
+      </c>
+      <c r="BB135">
+        <v>5</v>
+      </c>
+      <c r="BC135">
+        <v>14</v>
+      </c>
+      <c r="BD135">
+        <v>2.2</v>
+      </c>
+      <c r="BE135">
+        <v>8.5</v>
+      </c>
+      <c r="BF135">
+        <v>1.83</v>
+      </c>
+      <c r="BG135">
+        <v>1.08</v>
+      </c>
+      <c r="BH135">
+        <v>7</v>
+      </c>
+      <c r="BI135">
+        <v>1.16</v>
+      </c>
+      <c r="BJ135">
+        <v>4.35</v>
+      </c>
+      <c r="BK135">
+        <v>1.42</v>
+      </c>
+      <c r="BL135">
+        <v>2.7</v>
+      </c>
+      <c r="BM135">
+        <v>1.7</v>
+      </c>
+      <c r="BN135">
+        <v>2.05</v>
+      </c>
+      <c r="BO135">
+        <v>2.18</v>
+      </c>
+      <c r="BP135">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7295093</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45508.5</v>
+      </c>
+      <c r="F136">
+        <v>17</v>
+      </c>
+      <c r="G136" t="s">
+        <v>81</v>
+      </c>
+      <c r="H136" t="s">
+        <v>85</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>3</v>
+      </c>
+      <c r="O136" t="s">
+        <v>182</v>
+      </c>
+      <c r="P136" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q136">
+        <v>2.38</v>
+      </c>
+      <c r="R136">
+        <v>2.5</v>
+      </c>
+      <c r="S136">
+        <v>3.75</v>
+      </c>
+      <c r="T136">
+        <v>1.25</v>
+      </c>
+      <c r="U136">
+        <v>3.75</v>
+      </c>
+      <c r="V136">
+        <v>2.1</v>
+      </c>
+      <c r="W136">
+        <v>1.67</v>
+      </c>
+      <c r="X136">
+        <v>4.5</v>
+      </c>
+      <c r="Y136">
+        <v>1.18</v>
+      </c>
+      <c r="Z136">
+        <v>1.88</v>
+      </c>
+      <c r="AA136">
+        <v>4.11</v>
+      </c>
+      <c r="AB136">
+        <v>3.46</v>
+      </c>
+      <c r="AC136">
+        <v>1.01</v>
+      </c>
+      <c r="AD136">
+        <v>23</v>
+      </c>
+      <c r="AE136">
+        <v>1.14</v>
+      </c>
+      <c r="AF136">
+        <v>6</v>
+      </c>
+      <c r="AG136">
+        <v>1.42</v>
+      </c>
+      <c r="AH136">
+        <v>2.65</v>
+      </c>
+      <c r="AI136">
+        <v>1.44</v>
+      </c>
+      <c r="AJ136">
+        <v>2.63</v>
+      </c>
+      <c r="AK136">
+        <v>1.28</v>
+      </c>
+      <c r="AL136">
+        <v>1.19</v>
+      </c>
+      <c r="AM136">
+        <v>1.98</v>
+      </c>
+      <c r="AN136">
+        <v>0.88</v>
+      </c>
+      <c r="AO136">
+        <v>0.5</v>
+      </c>
+      <c r="AP136">
+        <v>1.11</v>
+      </c>
+      <c r="AQ136">
+        <v>0.44</v>
+      </c>
+      <c r="AR136">
+        <v>1.63</v>
+      </c>
+      <c r="AS136">
+        <v>1.29</v>
+      </c>
+      <c r="AT136">
+        <v>2.92</v>
+      </c>
+      <c r="AU136">
+        <v>6</v>
+      </c>
+      <c r="AV136">
+        <v>6</v>
+      </c>
+      <c r="AW136">
+        <v>5</v>
+      </c>
+      <c r="AX136">
+        <v>2</v>
+      </c>
+      <c r="AY136">
+        <v>11</v>
+      </c>
+      <c r="AZ136">
+        <v>8</v>
+      </c>
+      <c r="BA136">
+        <v>3</v>
+      </c>
+      <c r="BB136">
+        <v>3</v>
+      </c>
+      <c r="BC136">
+        <v>6</v>
+      </c>
+      <c r="BD136">
+        <v>1.5</v>
+      </c>
+      <c r="BE136">
+        <v>9</v>
+      </c>
+      <c r="BF136">
+        <v>3</v>
+      </c>
+      <c r="BG136">
+        <v>1.14</v>
+      </c>
+      <c r="BH136">
+        <v>5.2</v>
+      </c>
+      <c r="BI136">
+        <v>1.29</v>
+      </c>
+      <c r="BJ136">
+        <v>3.45</v>
+      </c>
+      <c r="BK136">
+        <v>1.5</v>
+      </c>
+      <c r="BL136">
+        <v>2.45</v>
+      </c>
+      <c r="BM136">
+        <v>1.9</v>
+      </c>
+      <c r="BN136">
+        <v>1.9</v>
+      </c>
+      <c r="BO136">
+        <v>2.43</v>
+      </c>
+      <c r="BP136">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7295092</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45508.59375</v>
+      </c>
+      <c r="F137">
+        <v>17</v>
+      </c>
+      <c r="G137" t="s">
+        <v>75</v>
+      </c>
+      <c r="H137" t="s">
+        <v>73</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137" t="s">
+        <v>183</v>
+      </c>
+      <c r="P137" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q137">
+        <v>2.63</v>
+      </c>
+      <c r="R137">
+        <v>2.25</v>
+      </c>
+      <c r="S137">
+        <v>3.75</v>
+      </c>
+      <c r="T137">
+        <v>1.33</v>
+      </c>
+      <c r="U137">
+        <v>3.25</v>
+      </c>
+      <c r="V137">
+        <v>2.63</v>
+      </c>
+      <c r="W137">
+        <v>1.44</v>
+      </c>
+      <c r="X137">
+        <v>6.5</v>
+      </c>
+      <c r="Y137">
+        <v>1.11</v>
+      </c>
+      <c r="Z137">
+        <v>2.02</v>
+      </c>
+      <c r="AA137">
+        <v>3.57</v>
+      </c>
+      <c r="AB137">
+        <v>3.49</v>
+      </c>
+      <c r="AC137">
+        <v>1.01</v>
+      </c>
+      <c r="AD137">
+        <v>10.5</v>
+      </c>
+      <c r="AE137">
+        <v>1.2</v>
+      </c>
+      <c r="AF137">
+        <v>3.9</v>
+      </c>
+      <c r="AG137">
+        <v>1.73</v>
+      </c>
+      <c r="AH137">
+        <v>2</v>
+      </c>
+      <c r="AI137">
+        <v>1.62</v>
+      </c>
+      <c r="AJ137">
+        <v>2.2</v>
+      </c>
+      <c r="AK137">
+        <v>1.22</v>
+      </c>
+      <c r="AL137">
+        <v>1.3</v>
+      </c>
+      <c r="AM137">
+        <v>1.75</v>
+      </c>
+      <c r="AN137">
+        <v>1.86</v>
+      </c>
+      <c r="AO137">
+        <v>1.14</v>
+      </c>
+      <c r="AP137">
+        <v>2</v>
+      </c>
+      <c r="AQ137">
+        <v>1</v>
+      </c>
+      <c r="AR137">
+        <v>1.4</v>
+      </c>
+      <c r="AS137">
+        <v>1.38</v>
+      </c>
+      <c r="AT137">
+        <v>2.78</v>
+      </c>
+      <c r="AU137">
+        <v>10</v>
+      </c>
+      <c r="AV137">
+        <v>3</v>
+      </c>
+      <c r="AW137">
+        <v>10</v>
+      </c>
+      <c r="AX137">
+        <v>2</v>
+      </c>
+      <c r="AY137">
+        <v>20</v>
+      </c>
+      <c r="AZ137">
+        <v>5</v>
+      </c>
+      <c r="BA137">
+        <v>8</v>
+      </c>
+      <c r="BB137">
+        <v>2</v>
+      </c>
+      <c r="BC137">
+        <v>10</v>
+      </c>
+      <c r="BD137">
+        <v>1.62</v>
+      </c>
+      <c r="BE137">
+        <v>8.5</v>
+      </c>
+      <c r="BF137">
+        <v>2.75</v>
+      </c>
+      <c r="BG137">
+        <v>1.25</v>
+      </c>
+      <c r="BH137">
+        <v>3.7</v>
+      </c>
+      <c r="BI137">
+        <v>1.47</v>
+      </c>
+      <c r="BJ137">
+        <v>2.55</v>
+      </c>
+      <c r="BK137">
+        <v>1.8</v>
+      </c>
+      <c r="BL137">
+        <v>2</v>
+      </c>
+      <c r="BM137">
+        <v>2.38</v>
+      </c>
+      <c r="BN137">
+        <v>1.54</v>
+      </c>
+      <c r="BO137">
+        <v>3.25</v>
+      </c>
+      <c r="BP137">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="264">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -568,6 +568,9 @@
     <t>['64']</t>
   </si>
   <si>
+    <t>['66', '75']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -800,6 +803,9 @@
   </si>
   <si>
     <t>['26', '66', '86']</t>
+  </si>
+  <si>
+    <t>['5', '45+2']</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP137"/>
+  <dimension ref="A1:BP138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1420,7 +1426,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1626,7 +1632,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1913,7 +1919,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ4">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2038,7 +2044,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2244,7 +2250,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -3274,7 +3280,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3480,7 +3486,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q12">
         <v>5.5</v>
@@ -4098,7 +4104,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q15">
         <v>2.95</v>
@@ -4304,7 +4310,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4510,7 +4516,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4716,7 +4722,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4922,7 +4928,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -5334,7 +5340,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5746,7 +5752,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5952,7 +5958,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6033,7 +6039,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ24">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR24">
         <v>2.18</v>
@@ -6364,7 +6370,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6570,7 +6576,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6651,7 +6657,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ27">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR27">
         <v>1.08</v>
@@ -6982,7 +6988,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q29">
         <v>3.6</v>
@@ -7188,7 +7194,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7806,7 +7812,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7884,7 +7890,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ33">
         <v>1.5</v>
@@ -8012,7 +8018,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8218,7 +8224,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8836,7 +8842,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q38">
         <v>2.54</v>
@@ -9042,7 +9048,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9660,7 +9666,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -10690,7 +10696,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10977,7 +10983,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ48">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -11102,7 +11108,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q49">
         <v>4.5</v>
@@ -11180,7 +11186,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ49">
         <v>1.75</v>
@@ -11514,7 +11520,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11720,7 +11726,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -12132,7 +12138,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12338,7 +12344,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12622,7 +12628,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ56">
         <v>1.38</v>
@@ -12956,7 +12962,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13162,7 +13168,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13368,7 +13374,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13655,7 +13661,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ61">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR61">
         <v>1.32</v>
@@ -13780,7 +13786,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q62">
         <v>1.67</v>
@@ -13986,7 +13992,7 @@
         <v>116</v>
       </c>
       <c r="P63" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14192,7 +14198,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14810,7 +14816,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -15016,7 +15022,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15094,7 +15100,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ68">
         <v>1.5</v>
@@ -15840,7 +15846,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16046,7 +16052,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16252,7 +16258,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16458,7 +16464,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16870,7 +16876,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -17282,7 +17288,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17488,7 +17494,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q80">
         <v>2.62</v>
@@ -17569,7 +17575,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ80">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR80">
         <v>1.56</v>
@@ -17900,7 +17906,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18518,7 +18524,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18724,7 +18730,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -18930,7 +18936,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19136,7 +19142,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19754,7 +19760,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -19960,7 +19966,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20166,7 +20172,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q93">
         <v>2.79</v>
@@ -20372,7 +20378,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20450,7 +20456,7 @@
         <v>0.86</v>
       </c>
       <c r="AP94">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ94">
         <v>1.33</v>
@@ -20578,7 +20584,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20865,7 +20871,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ96">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR96">
         <v>1.97</v>
@@ -20990,7 +20996,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -21196,7 +21202,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21402,7 +21408,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21608,7 +21614,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21814,7 +21820,7 @@
         <v>117</v>
       </c>
       <c r="P101" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -21892,7 +21898,7 @@
         <v>0.25</v>
       </c>
       <c r="AP101">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ101">
         <v>1</v>
@@ -22020,7 +22026,7 @@
         <v>159</v>
       </c>
       <c r="P102" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q102">
         <v>2.45</v>
@@ -22638,7 +22644,7 @@
         <v>116</v>
       </c>
       <c r="P105" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q105">
         <v>2.75</v>
@@ -22844,7 +22850,7 @@
         <v>98</v>
       </c>
       <c r="P106" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23050,7 +23056,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23462,7 +23468,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23668,7 +23674,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -24080,7 +24086,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q112">
         <v>2.95</v>
@@ -24286,7 +24292,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q113">
         <v>2.63</v>
@@ -24367,7 +24373,7 @@
         <v>1</v>
       </c>
       <c r="AQ113">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR113">
         <v>1.13</v>
@@ -24492,7 +24498,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -24570,7 +24576,7 @@
         <v>2.57</v>
       </c>
       <c r="AP114">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ114">
         <v>2.11</v>
@@ -24904,7 +24910,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -25110,7 +25116,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25522,7 +25528,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q119">
         <v>4.2</v>
@@ -25728,7 +25734,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q120">
         <v>1.75</v>
@@ -25934,7 +25940,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q121">
         <v>2.63</v>
@@ -26552,7 +26558,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26758,7 +26764,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -26964,7 +26970,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27251,7 +27257,7 @@
         <v>1</v>
       </c>
       <c r="AQ127">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR127">
         <v>1.22</v>
@@ -27376,7 +27382,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27454,7 +27460,7 @@
         <v>1.33</v>
       </c>
       <c r="AP128">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ128">
         <v>1</v>
@@ -27994,7 +28000,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28406,7 +28412,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28818,7 +28824,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29024,7 +29030,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q136">
         <v>2.38</v>
@@ -29387,6 +29393,212 @@
       </c>
       <c r="BP137">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7295098</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45513.58333333334</v>
+      </c>
+      <c r="F138">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s">
+        <v>85</v>
+      </c>
+      <c r="H138" t="s">
+        <v>82</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>2</v>
+      </c>
+      <c r="K138">
+        <v>2</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>2</v>
+      </c>
+      <c r="N138">
+        <v>4</v>
+      </c>
+      <c r="O138" t="s">
+        <v>184</v>
+      </c>
+      <c r="P138" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q138">
+        <v>2.7</v>
+      </c>
+      <c r="R138">
+        <v>2.3</v>
+      </c>
+      <c r="S138">
+        <v>3.2</v>
+      </c>
+      <c r="T138">
+        <v>1.25</v>
+      </c>
+      <c r="U138">
+        <v>3.45</v>
+      </c>
+      <c r="V138">
+        <v>2.2</v>
+      </c>
+      <c r="W138">
+        <v>1.6</v>
+      </c>
+      <c r="X138">
+        <v>4.5</v>
+      </c>
+      <c r="Y138">
+        <v>1.17</v>
+      </c>
+      <c r="Z138">
+        <v>2.36</v>
+      </c>
+      <c r="AA138">
+        <v>3.56</v>
+      </c>
+      <c r="AB138">
+        <v>2.82</v>
+      </c>
+      <c r="AC138">
+        <v>1.03</v>
+      </c>
+      <c r="AD138">
+        <v>11</v>
+      </c>
+      <c r="AE138">
+        <v>1.17</v>
+      </c>
+      <c r="AF138">
+        <v>5</v>
+      </c>
+      <c r="AG138">
+        <v>1.53</v>
+      </c>
+      <c r="AH138">
+        <v>2.25</v>
+      </c>
+      <c r="AI138">
+        <v>1.42</v>
+      </c>
+      <c r="AJ138">
+        <v>2.6</v>
+      </c>
+      <c r="AK138">
+        <v>1.4</v>
+      </c>
+      <c r="AL138">
+        <v>1.22</v>
+      </c>
+      <c r="AM138">
+        <v>1.62</v>
+      </c>
+      <c r="AN138">
+        <v>1.5</v>
+      </c>
+      <c r="AO138">
+        <v>1.11</v>
+      </c>
+      <c r="AP138">
+        <v>1.44</v>
+      </c>
+      <c r="AQ138">
+        <v>1.1</v>
+      </c>
+      <c r="AR138">
+        <v>1.48</v>
+      </c>
+      <c r="AS138">
+        <v>1.3</v>
+      </c>
+      <c r="AT138">
+        <v>2.78</v>
+      </c>
+      <c r="AU138">
+        <v>8</v>
+      </c>
+      <c r="AV138">
+        <v>5</v>
+      </c>
+      <c r="AW138">
+        <v>6</v>
+      </c>
+      <c r="AX138">
+        <v>4</v>
+      </c>
+      <c r="AY138">
+        <v>14</v>
+      </c>
+      <c r="AZ138">
+        <v>9</v>
+      </c>
+      <c r="BA138">
+        <v>7</v>
+      </c>
+      <c r="BB138">
+        <v>6</v>
+      </c>
+      <c r="BC138">
+        <v>13</v>
+      </c>
+      <c r="BD138">
+        <v>1.85</v>
+      </c>
+      <c r="BE138">
+        <v>7</v>
+      </c>
+      <c r="BF138">
+        <v>2.44</v>
+      </c>
+      <c r="BG138">
+        <v>0</v>
+      </c>
+      <c r="BH138">
+        <v>0</v>
+      </c>
+      <c r="BI138">
+        <v>1.2</v>
+      </c>
+      <c r="BJ138">
+        <v>3.9</v>
+      </c>
+      <c r="BK138">
+        <v>1.37</v>
+      </c>
+      <c r="BL138">
+        <v>2.75</v>
+      </c>
+      <c r="BM138">
+        <v>1.66</v>
+      </c>
+      <c r="BN138">
+        <v>2.09</v>
+      </c>
+      <c r="BO138">
+        <v>2.08</v>
+      </c>
+      <c r="BP138">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="265">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -807,6 +807,9 @@
   <si>
     <t>['5', '45+2']</t>
   </si>
+  <si>
+    <t>['58']</t>
+  </si>
 </sst>
 </file>
 
@@ -1167,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP138"/>
+  <dimension ref="A1:BP140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1713,7 +1716,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ3">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2740,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ8">
         <v>1.38</v>
@@ -2949,7 +2952,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -4182,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>1.5</v>
@@ -4800,7 +4803,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ18">
         <v>1.78</v>
@@ -5627,7 +5630,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR22">
         <v>1.3</v>
@@ -5833,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>2.02</v>
@@ -6245,7 +6248,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR25">
         <v>2.34</v>
@@ -7066,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
         <v>0.63</v>
@@ -7684,7 +7687,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ32">
         <v>1.89</v>
@@ -8305,7 +8308,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR35">
         <v>1.13</v>
@@ -8717,7 +8720,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR37">
         <v>1.56</v>
@@ -10156,7 +10159,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>2</v>
@@ -10365,7 +10368,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ45">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
         <v>1.51</v>
@@ -11392,7 +11395,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11807,7 +11810,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ52">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR52">
         <v>1.4</v>
@@ -14070,7 +14073,7 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ63">
         <v>1.5</v>
@@ -14279,7 +14282,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ64">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR64">
         <v>1.5</v>
@@ -14482,7 +14485,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
         <v>0.67</v>
@@ -15515,7 +15518,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ70">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR70">
         <v>1.23</v>
@@ -17160,7 +17163,7 @@
         <v>0.25</v>
       </c>
       <c r="AP78">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ78">
         <v>0.44</v>
@@ -17778,10 +17781,10 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ81">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR81">
         <v>1.46</v>
@@ -19632,10 +19635,10 @@
         <v>2.4</v>
       </c>
       <c r="AP90">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR90">
         <v>1.37</v>
@@ -20459,7 +20462,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ94">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR94">
         <v>1.46</v>
@@ -21077,7 +21080,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ97">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR97">
         <v>1.75</v>
@@ -21692,7 +21695,7 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ100">
         <v>0.63</v>
@@ -22722,7 +22725,7 @@
         <v>1.17</v>
       </c>
       <c r="AP105">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ105">
         <v>1.38</v>
@@ -24167,7 +24170,7 @@
         <v>1</v>
       </c>
       <c r="AQ112">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR112">
         <v>1.21</v>
@@ -24579,7 +24582,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ114">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR114">
         <v>1.47</v>
@@ -24782,7 +24785,7 @@
         <v>0.71</v>
       </c>
       <c r="AP115">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ115">
         <v>0.67</v>
@@ -26224,7 +26227,7 @@
         <v>1.83</v>
       </c>
       <c r="AP122">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ122">
         <v>1.5</v>
@@ -26639,7 +26642,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ124">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR124">
         <v>1.57</v>
@@ -27872,7 +27875,7 @@
         <v>2</v>
       </c>
       <c r="AP130">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ130">
         <v>1.75</v>
@@ -29599,6 +29602,418 @@
       </c>
       <c r="BP138">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7295101</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45514.45833333334</v>
+      </c>
+      <c r="F139">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
+        <v>83</v>
+      </c>
+      <c r="H139" t="s">
+        <v>80</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>1</v>
+      </c>
+      <c r="O139" t="s">
+        <v>87</v>
+      </c>
+      <c r="P139" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q139">
+        <v>2.88</v>
+      </c>
+      <c r="R139">
+        <v>2.1</v>
+      </c>
+      <c r="S139">
+        <v>3.4</v>
+      </c>
+      <c r="T139">
+        <v>1.36</v>
+      </c>
+      <c r="U139">
+        <v>2.85</v>
+      </c>
+      <c r="V139">
+        <v>2.65</v>
+      </c>
+      <c r="W139">
+        <v>1.42</v>
+      </c>
+      <c r="X139">
+        <v>6</v>
+      </c>
+      <c r="Y139">
+        <v>1.11</v>
+      </c>
+      <c r="Z139">
+        <v>2.38</v>
+      </c>
+      <c r="AA139">
+        <v>3.3</v>
+      </c>
+      <c r="AB139">
+        <v>2.8</v>
+      </c>
+      <c r="AC139">
+        <v>1.01</v>
+      </c>
+      <c r="AD139">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE139">
+        <v>1.24</v>
+      </c>
+      <c r="AF139">
+        <v>3.5</v>
+      </c>
+      <c r="AG139">
+        <v>1.8</v>
+      </c>
+      <c r="AH139">
+        <v>1.91</v>
+      </c>
+      <c r="AI139">
+        <v>1.62</v>
+      </c>
+      <c r="AJ139">
+        <v>2.1</v>
+      </c>
+      <c r="AK139">
+        <v>1.4</v>
+      </c>
+      <c r="AL139">
+        <v>1.25</v>
+      </c>
+      <c r="AM139">
+        <v>1.57</v>
+      </c>
+      <c r="AN139">
+        <v>1.13</v>
+      </c>
+      <c r="AO139">
+        <v>1.33</v>
+      </c>
+      <c r="AP139">
+        <v>1</v>
+      </c>
+      <c r="AQ139">
+        <v>1.5</v>
+      </c>
+      <c r="AR139">
+        <v>1.24</v>
+      </c>
+      <c r="AS139">
+        <v>1.24</v>
+      </c>
+      <c r="AT139">
+        <v>2.48</v>
+      </c>
+      <c r="AU139">
+        <v>6</v>
+      </c>
+      <c r="AV139">
+        <v>7</v>
+      </c>
+      <c r="AW139">
+        <v>8</v>
+      </c>
+      <c r="AX139">
+        <v>4</v>
+      </c>
+      <c r="AY139">
+        <v>14</v>
+      </c>
+      <c r="AZ139">
+        <v>11</v>
+      </c>
+      <c r="BA139">
+        <v>9</v>
+      </c>
+      <c r="BB139">
+        <v>2</v>
+      </c>
+      <c r="BC139">
+        <v>11</v>
+      </c>
+      <c r="BD139">
+        <v>1.8</v>
+      </c>
+      <c r="BE139">
+        <v>8.5</v>
+      </c>
+      <c r="BF139">
+        <v>2.25</v>
+      </c>
+      <c r="BG139">
+        <v>0</v>
+      </c>
+      <c r="BH139">
+        <v>0</v>
+      </c>
+      <c r="BI139">
+        <v>1.2</v>
+      </c>
+      <c r="BJ139">
+        <v>3.84</v>
+      </c>
+      <c r="BK139">
+        <v>1.42</v>
+      </c>
+      <c r="BL139">
+        <v>2.7</v>
+      </c>
+      <c r="BM139">
+        <v>1.77</v>
+      </c>
+      <c r="BN139">
+        <v>1.95</v>
+      </c>
+      <c r="BO139">
+        <v>2.03</v>
+      </c>
+      <c r="BP139">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7295105</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45514.54166666666</v>
+      </c>
+      <c r="F140">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s">
+        <v>76</v>
+      </c>
+      <c r="H140" t="s">
+        <v>78</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="O140" t="s">
+        <v>93</v>
+      </c>
+      <c r="P140" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q140">
+        <v>3.52</v>
+      </c>
+      <c r="R140">
+        <v>2.49</v>
+      </c>
+      <c r="S140">
+        <v>2.45</v>
+      </c>
+      <c r="T140">
+        <v>1.22</v>
+      </c>
+      <c r="U140">
+        <v>4</v>
+      </c>
+      <c r="V140">
+        <v>2.07</v>
+      </c>
+      <c r="W140">
+        <v>1.71</v>
+      </c>
+      <c r="X140">
+        <v>4.4</v>
+      </c>
+      <c r="Y140">
+        <v>1.19</v>
+      </c>
+      <c r="Z140">
+        <v>3.12</v>
+      </c>
+      <c r="AA140">
+        <v>3.83</v>
+      </c>
+      <c r="AB140">
+        <v>2.08</v>
+      </c>
+      <c r="AC140">
+        <v>1.02</v>
+      </c>
+      <c r="AD140">
+        <v>24.5</v>
+      </c>
+      <c r="AE140">
+        <v>1.1</v>
+      </c>
+      <c r="AF140">
+        <v>5.55</v>
+      </c>
+      <c r="AG140">
+        <v>1.4</v>
+      </c>
+      <c r="AH140">
+        <v>2.75</v>
+      </c>
+      <c r="AI140">
+        <v>1.41</v>
+      </c>
+      <c r="AJ140">
+        <v>2.77</v>
+      </c>
+      <c r="AK140">
+        <v>1.82</v>
+      </c>
+      <c r="AL140">
+        <v>1.24</v>
+      </c>
+      <c r="AM140">
+        <v>1.34</v>
+      </c>
+      <c r="AN140">
+        <v>2.22</v>
+      </c>
+      <c r="AO140">
+        <v>2.11</v>
+      </c>
+      <c r="AP140">
+        <v>2.1</v>
+      </c>
+      <c r="AQ140">
+        <v>2</v>
+      </c>
+      <c r="AR140">
+        <v>1.54</v>
+      </c>
+      <c r="AS140">
+        <v>1.53</v>
+      </c>
+      <c r="AT140">
+        <v>3.07</v>
+      </c>
+      <c r="AU140">
+        <v>6</v>
+      </c>
+      <c r="AV140">
+        <v>4</v>
+      </c>
+      <c r="AW140">
+        <v>6</v>
+      </c>
+      <c r="AX140">
+        <v>4</v>
+      </c>
+      <c r="AY140">
+        <v>12</v>
+      </c>
+      <c r="AZ140">
+        <v>8</v>
+      </c>
+      <c r="BA140">
+        <v>10</v>
+      </c>
+      <c r="BB140">
+        <v>1</v>
+      </c>
+      <c r="BC140">
+        <v>11</v>
+      </c>
+      <c r="BD140">
+        <v>2.4</v>
+      </c>
+      <c r="BE140">
+        <v>8.5</v>
+      </c>
+      <c r="BF140">
+        <v>1.73</v>
+      </c>
+      <c r="BG140">
+        <v>1.15</v>
+      </c>
+      <c r="BH140">
+        <v>5.1</v>
+      </c>
+      <c r="BI140">
+        <v>1.28</v>
+      </c>
+      <c r="BJ140">
+        <v>3.5</v>
+      </c>
+      <c r="BK140">
+        <v>1.5</v>
+      </c>
+      <c r="BL140">
+        <v>2.48</v>
+      </c>
+      <c r="BM140">
+        <v>1.9</v>
+      </c>
+      <c r="BN140">
+        <v>1.9</v>
+      </c>
+      <c r="BO140">
+        <v>2.14</v>
+      </c>
+      <c r="BP140">
+        <v>1.69</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="266">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -571,6 +571,9 @@
     <t>['66', '75']</t>
   </si>
   <si>
+    <t>['10']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -599,9 +602,6 @@
   </si>
   <si>
     <t>['70']</t>
-  </si>
-  <si>
-    <t>['10']</t>
   </si>
   <si>
     <t>['25', '58']</t>
@@ -809,6 +809,9 @@
   </si>
   <si>
     <t>['58']</t>
+  </si>
+  <si>
+    <t>['45+1', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP140"/>
+  <dimension ref="A1:BP143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1429,7 +1432,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1635,7 +1638,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -2047,7 +2050,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2253,7 +2256,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2331,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ6">
         <v>0.67</v>
@@ -2746,7 +2749,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ8">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2949,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ9">
         <v>1.5</v>
@@ -3283,7 +3286,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3489,7 +3492,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>5.5</v>
@@ -3570,7 +3573,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ12">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3982,7 +3985,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ14">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4107,7 +4110,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q15">
         <v>2.95</v>
@@ -4313,7 +4316,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4519,7 +4522,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4600,7 +4603,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ17">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>0.83</v>
@@ -4725,7 +4728,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4931,7 +4934,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="Q19">
         <v>2.2</v>
@@ -5833,7 +5836,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ23">
         <v>2</v>
@@ -6039,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ24">
         <v>1.1</v>
@@ -7072,7 +7075,7 @@
         <v>1</v>
       </c>
       <c r="AQ29">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR29">
         <v>0.59</v>
@@ -8102,7 +8105,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ34">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR34">
         <v>1.56</v>
@@ -8717,7 +8720,7 @@
         <v>0.33</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ37">
         <v>1.5</v>
@@ -9132,7 +9135,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR39">
         <v>1.7</v>
@@ -9541,7 +9544,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ41">
         <v>1.78</v>
@@ -9956,7 +9959,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ43">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR43">
         <v>1.98</v>
@@ -11192,7 +11195,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ49">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR49">
         <v>1.32</v>
@@ -11604,7 +11607,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ51">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR51">
         <v>1.86</v>
@@ -12219,7 +12222,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ54">
         <v>1.89</v>
@@ -12634,7 +12637,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ56">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR56">
         <v>1.62</v>
@@ -13043,7 +13046,7 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ58">
         <v>1.78</v>
@@ -13252,7 +13255,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR59">
         <v>1.19</v>
@@ -15721,7 +15724,7 @@
         <v>1.5</v>
       </c>
       <c r="AP71">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -15927,7 +15930,7 @@
         <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ72">
         <v>1.89</v>
@@ -16136,7 +16139,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ73">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR73">
         <v>1.73</v>
@@ -16342,7 +16345,7 @@
         <v>1</v>
       </c>
       <c r="AQ74">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR74">
         <v>1.59</v>
@@ -17990,7 +17993,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ82">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR82">
         <v>2.05</v>
@@ -19223,7 +19226,7 @@
         <v>0.33</v>
       </c>
       <c r="AP88">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ88">
         <v>0.44</v>
@@ -20050,7 +20053,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ92">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR92">
         <v>1.44</v>
@@ -20665,7 +20668,7 @@
         <v>2.2</v>
       </c>
       <c r="AP95">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ95">
         <v>2</v>
@@ -21492,7 +21495,7 @@
         <v>1</v>
       </c>
       <c r="AQ99">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR99">
         <v>1.54</v>
@@ -21698,7 +21701,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ100">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR100">
         <v>1.55</v>
@@ -22728,7 +22731,7 @@
         <v>1</v>
       </c>
       <c r="AQ105">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR105">
         <v>1.31</v>
@@ -22931,7 +22934,7 @@
         <v>1.6</v>
       </c>
       <c r="AP106">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ106">
         <v>1.5</v>
@@ -23758,7 +23761,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ110">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR110">
         <v>1.6</v>
@@ -23964,7 +23967,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ111">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR111">
         <v>1.22</v>
@@ -24373,7 +24376,7 @@
         <v>1.43</v>
       </c>
       <c r="AP113">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ113">
         <v>1.1</v>
@@ -26639,7 +26642,7 @@
         <v>2.25</v>
       </c>
       <c r="AP124">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ124">
         <v>2</v>
@@ -26848,7 +26851,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ125">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR125">
         <v>1.26</v>
@@ -27051,10 +27054,10 @@
         <v>1.43</v>
       </c>
       <c r="AP126">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ126">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR126">
         <v>1.29</v>
@@ -27878,7 +27881,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ130">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR130">
         <v>1.58</v>
@@ -30014,6 +30017,624 @@
       </c>
       <c r="BP140">
         <v>1.69</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7295102</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45515.5</v>
+      </c>
+      <c r="F141">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s">
+        <v>77</v>
+      </c>
+      <c r="H141" t="s">
+        <v>75</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="O141" t="s">
+        <v>147</v>
+      </c>
+      <c r="P141" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q141">
+        <v>2.75</v>
+      </c>
+      <c r="R141">
+        <v>2.25</v>
+      </c>
+      <c r="S141">
+        <v>3.6</v>
+      </c>
+      <c r="T141">
+        <v>1.33</v>
+      </c>
+      <c r="U141">
+        <v>3.25</v>
+      </c>
+      <c r="V141">
+        <v>2.63</v>
+      </c>
+      <c r="W141">
+        <v>1.44</v>
+      </c>
+      <c r="X141">
+        <v>7</v>
+      </c>
+      <c r="Y141">
+        <v>1.1</v>
+      </c>
+      <c r="Z141">
+        <v>2.21</v>
+      </c>
+      <c r="AA141">
+        <v>3.6</v>
+      </c>
+      <c r="AB141">
+        <v>3.13</v>
+      </c>
+      <c r="AC141">
+        <v>1.05</v>
+      </c>
+      <c r="AD141">
+        <v>9.5</v>
+      </c>
+      <c r="AE141">
+        <v>1.25</v>
+      </c>
+      <c r="AF141">
+        <v>3.8</v>
+      </c>
+      <c r="AG141">
+        <v>1.75</v>
+      </c>
+      <c r="AH141">
+        <v>1.96</v>
+      </c>
+      <c r="AI141">
+        <v>1.62</v>
+      </c>
+      <c r="AJ141">
+        <v>2.2</v>
+      </c>
+      <c r="AK141">
+        <v>1.35</v>
+      </c>
+      <c r="AL141">
+        <v>1.25</v>
+      </c>
+      <c r="AM141">
+        <v>1.65</v>
+      </c>
+      <c r="AN141">
+        <v>0.63</v>
+      </c>
+      <c r="AO141">
+        <v>0.63</v>
+      </c>
+      <c r="AP141">
+        <v>0.89</v>
+      </c>
+      <c r="AQ141">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR141">
+        <v>1.48</v>
+      </c>
+      <c r="AS141">
+        <v>1.32</v>
+      </c>
+      <c r="AT141">
+        <v>2.8</v>
+      </c>
+      <c r="AU141">
+        <v>4</v>
+      </c>
+      <c r="AV141">
+        <v>5</v>
+      </c>
+      <c r="AW141">
+        <v>1</v>
+      </c>
+      <c r="AX141">
+        <v>6</v>
+      </c>
+      <c r="AY141">
+        <v>5</v>
+      </c>
+      <c r="AZ141">
+        <v>11</v>
+      </c>
+      <c r="BA141">
+        <v>2</v>
+      </c>
+      <c r="BB141">
+        <v>1</v>
+      </c>
+      <c r="BC141">
+        <v>3</v>
+      </c>
+      <c r="BD141">
+        <v>1.67</v>
+      </c>
+      <c r="BE141">
+        <v>8</v>
+      </c>
+      <c r="BF141">
+        <v>2.5</v>
+      </c>
+      <c r="BG141">
+        <v>1.24</v>
+      </c>
+      <c r="BH141">
+        <v>3.48</v>
+      </c>
+      <c r="BI141">
+        <v>1.48</v>
+      </c>
+      <c r="BJ141">
+        <v>2.51</v>
+      </c>
+      <c r="BK141">
+        <v>2</v>
+      </c>
+      <c r="BL141">
+        <v>1.8</v>
+      </c>
+      <c r="BM141">
+        <v>2.33</v>
+      </c>
+      <c r="BN141">
+        <v>1.55</v>
+      </c>
+      <c r="BO141">
+        <v>3.14</v>
+      </c>
+      <c r="BP141">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7295104</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45515.5</v>
+      </c>
+      <c r="F142">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s">
+        <v>70</v>
+      </c>
+      <c r="H142" t="s">
+        <v>81</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>115</v>
+      </c>
+      <c r="P142" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q142">
+        <v>3</v>
+      </c>
+      <c r="R142">
+        <v>2.4</v>
+      </c>
+      <c r="S142">
+        <v>3</v>
+      </c>
+      <c r="T142">
+        <v>1.25</v>
+      </c>
+      <c r="U142">
+        <v>3.75</v>
+      </c>
+      <c r="V142">
+        <v>2.2</v>
+      </c>
+      <c r="W142">
+        <v>1.62</v>
+      </c>
+      <c r="X142">
+        <v>5</v>
+      </c>
+      <c r="Y142">
+        <v>1.17</v>
+      </c>
+      <c r="Z142">
+        <v>2.45</v>
+      </c>
+      <c r="AA142">
+        <v>3.85</v>
+      </c>
+      <c r="AB142">
+        <v>2.61</v>
+      </c>
+      <c r="AC142">
+        <v>1.02</v>
+      </c>
+      <c r="AD142">
+        <v>10</v>
+      </c>
+      <c r="AE142">
+        <v>1.17</v>
+      </c>
+      <c r="AF142">
+        <v>5</v>
+      </c>
+      <c r="AG142">
+        <v>1.46</v>
+      </c>
+      <c r="AH142">
+        <v>2.52</v>
+      </c>
+      <c r="AI142">
+        <v>1.44</v>
+      </c>
+      <c r="AJ142">
+        <v>2.63</v>
+      </c>
+      <c r="AK142">
+        <v>1.48</v>
+      </c>
+      <c r="AL142">
+        <v>1.22</v>
+      </c>
+      <c r="AM142">
+        <v>1.53</v>
+      </c>
+      <c r="AN142">
+        <v>1</v>
+      </c>
+      <c r="AO142">
+        <v>1.38</v>
+      </c>
+      <c r="AP142">
+        <v>1</v>
+      </c>
+      <c r="AQ142">
+        <v>1.33</v>
+      </c>
+      <c r="AR142">
+        <v>1.22</v>
+      </c>
+      <c r="AS142">
+        <v>1.26</v>
+      </c>
+      <c r="AT142">
+        <v>2.48</v>
+      </c>
+      <c r="AU142">
+        <v>4</v>
+      </c>
+      <c r="AV142">
+        <v>6</v>
+      </c>
+      <c r="AW142">
+        <v>0</v>
+      </c>
+      <c r="AX142">
+        <v>10</v>
+      </c>
+      <c r="AY142">
+        <v>4</v>
+      </c>
+      <c r="AZ142">
+        <v>16</v>
+      </c>
+      <c r="BA142">
+        <v>5</v>
+      </c>
+      <c r="BB142">
+        <v>10</v>
+      </c>
+      <c r="BC142">
+        <v>15</v>
+      </c>
+      <c r="BD142">
+        <v>2.2</v>
+      </c>
+      <c r="BE142">
+        <v>8.5</v>
+      </c>
+      <c r="BF142">
+        <v>1.91</v>
+      </c>
+      <c r="BG142">
+        <v>1.17</v>
+      </c>
+      <c r="BH142">
+        <v>4.8</v>
+      </c>
+      <c r="BI142">
+        <v>1.3</v>
+      </c>
+      <c r="BJ142">
+        <v>3.25</v>
+      </c>
+      <c r="BK142">
+        <v>1.5</v>
+      </c>
+      <c r="BL142">
+        <v>2.45</v>
+      </c>
+      <c r="BM142">
+        <v>1.95</v>
+      </c>
+      <c r="BN142">
+        <v>1.85</v>
+      </c>
+      <c r="BO142">
+        <v>2.27</v>
+      </c>
+      <c r="BP142">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7295103</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45515.59375</v>
+      </c>
+      <c r="F143">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s">
+        <v>74</v>
+      </c>
+      <c r="H143" t="s">
+        <v>72</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143" t="s">
+        <v>185</v>
+      </c>
+      <c r="P143" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q143">
+        <v>3.4</v>
+      </c>
+      <c r="R143">
+        <v>2.3</v>
+      </c>
+      <c r="S143">
+        <v>2.88</v>
+      </c>
+      <c r="T143">
+        <v>1.3</v>
+      </c>
+      <c r="U143">
+        <v>3.4</v>
+      </c>
+      <c r="V143">
+        <v>2.5</v>
+      </c>
+      <c r="W143">
+        <v>1.5</v>
+      </c>
+      <c r="X143">
+        <v>6</v>
+      </c>
+      <c r="Y143">
+        <v>1.13</v>
+      </c>
+      <c r="Z143">
+        <v>3.15</v>
+      </c>
+      <c r="AA143">
+        <v>3.72</v>
+      </c>
+      <c r="AB143">
+        <v>2.16</v>
+      </c>
+      <c r="AC143">
+        <v>1.04</v>
+      </c>
+      <c r="AD143">
+        <v>10</v>
+      </c>
+      <c r="AE143">
+        <v>1.2</v>
+      </c>
+      <c r="AF143">
+        <v>4.33</v>
+      </c>
+      <c r="AG143">
+        <v>1.62</v>
+      </c>
+      <c r="AH143">
+        <v>2.16</v>
+      </c>
+      <c r="AI143">
+        <v>1.57</v>
+      </c>
+      <c r="AJ143">
+        <v>2.25</v>
+      </c>
+      <c r="AK143">
+        <v>1.62</v>
+      </c>
+      <c r="AL143">
+        <v>1.22</v>
+      </c>
+      <c r="AM143">
+        <v>1.38</v>
+      </c>
+      <c r="AN143">
+        <v>1</v>
+      </c>
+      <c r="AO143">
+        <v>1.75</v>
+      </c>
+      <c r="AP143">
+        <v>0.89</v>
+      </c>
+      <c r="AQ143">
+        <v>1.89</v>
+      </c>
+      <c r="AR143">
+        <v>1.35</v>
+      </c>
+      <c r="AS143">
+        <v>1.52</v>
+      </c>
+      <c r="AT143">
+        <v>2.87</v>
+      </c>
+      <c r="AU143">
+        <v>4</v>
+      </c>
+      <c r="AV143">
+        <v>4</v>
+      </c>
+      <c r="AW143">
+        <v>3</v>
+      </c>
+      <c r="AX143">
+        <v>5</v>
+      </c>
+      <c r="AY143">
+        <v>7</v>
+      </c>
+      <c r="AZ143">
+        <v>9</v>
+      </c>
+      <c r="BA143">
+        <v>2</v>
+      </c>
+      <c r="BB143">
+        <v>3</v>
+      </c>
+      <c r="BC143">
+        <v>5</v>
+      </c>
+      <c r="BD143">
+        <v>2</v>
+      </c>
+      <c r="BE143">
+        <v>8.5</v>
+      </c>
+      <c r="BF143">
+        <v>2</v>
+      </c>
+      <c r="BG143">
+        <v>1.1</v>
+      </c>
+      <c r="BH143">
+        <v>5.45</v>
+      </c>
+      <c r="BI143">
+        <v>1.26</v>
+      </c>
+      <c r="BJ143">
+        <v>3.65</v>
+      </c>
+      <c r="BK143">
+        <v>1.47</v>
+      </c>
+      <c r="BL143">
+        <v>2.6</v>
+      </c>
+      <c r="BM143">
+        <v>1.82</v>
+      </c>
+      <c r="BN143">
+        <v>1.98</v>
+      </c>
+      <c r="BO143">
+        <v>2.16</v>
+      </c>
+      <c r="BP143">
+        <v>1.68</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="266">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,9 @@
     <t>['10']</t>
   </si>
   <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -740,9 +743,6 @@
   </si>
   <si>
     <t>['6', '37']</t>
-  </si>
-  <si>
-    <t>['90+3']</t>
   </si>
   <si>
     <t>['79', '90+7']</t>
@@ -1173,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP143"/>
+  <dimension ref="A1:BP144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1432,7 +1432,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ3">
         <v>2</v>
@@ -2050,7 +2050,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2256,7 +2256,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -3286,7 +3286,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3492,7 +3492,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q12">
         <v>5.5</v>
@@ -4110,7 +4110,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q15">
         <v>2.95</v>
@@ -4316,7 +4316,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4522,7 +4522,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ17">
         <v>1.33</v>
@@ -4728,7 +4728,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5015,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR19">
         <v>1.53</v>
@@ -5346,7 +5346,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5758,7 +5758,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5964,7 +5964,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6376,7 +6376,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6582,7 +6582,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6994,7 +6994,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q29">
         <v>3.6</v>
@@ -7200,7 +7200,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7818,7 +7818,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -8024,7 +8024,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8230,7 +8230,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8517,7 +8517,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR36">
         <v>2.03</v>
@@ -8848,7 +8848,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q38">
         <v>2.54</v>
@@ -9054,7 +9054,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9338,7 +9338,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ40">
         <v>0.44</v>
@@ -9672,7 +9672,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -10702,7 +10702,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -11114,7 +11114,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q49">
         <v>4.5</v>
@@ -11526,7 +11526,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11732,7 +11732,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -12144,7 +12144,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12350,7 +12350,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12431,7 +12431,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR55">
         <v>1.29</v>
@@ -12968,7 +12968,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13174,7 +13174,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13380,7 +13380,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13664,7 +13664,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ61">
         <v>1.1</v>
@@ -13792,7 +13792,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q62">
         <v>1.67</v>
@@ -13998,7 +13998,7 @@
         <v>116</v>
       </c>
       <c r="P63" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14204,7 +14204,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14822,7 +14822,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -15028,7 +15028,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15315,7 +15315,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR69">
         <v>1.61</v>
@@ -15852,7 +15852,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16058,7 +16058,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16264,7 +16264,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16470,7 +16470,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16754,7 +16754,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -16882,7 +16882,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -17294,7 +17294,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17500,7 +17500,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q80">
         <v>2.62</v>
@@ -17912,7 +17912,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18530,7 +18530,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18736,7 +18736,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -18942,7 +18942,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19148,7 +19148,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19766,7 +19766,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -19972,7 +19972,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20178,7 +20178,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q93">
         <v>2.79</v>
@@ -20384,7 +20384,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20590,7 +20590,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -21002,7 +21002,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -21208,7 +21208,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21414,7 +21414,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21620,7 +21620,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21826,7 +21826,7 @@
         <v>117</v>
       </c>
       <c r="P101" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -22032,7 +22032,7 @@
         <v>159</v>
       </c>
       <c r="P102" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="Q102">
         <v>2.45</v>
@@ -23964,7 +23964,7 @@
         <v>2.17</v>
       </c>
       <c r="AP111">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ111">
         <v>1.89</v>
@@ -24997,7 +24997,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR116">
         <v>1.92</v>
@@ -26848,7 +26848,7 @@
         <v>0.57</v>
       </c>
       <c r="AP125">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ125">
         <v>0.5600000000000001</v>
@@ -27469,7 +27469,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ128">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR128">
         <v>1.41</v>
@@ -28087,7 +28087,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ131">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR131">
         <v>1.65</v>
@@ -28290,7 +28290,7 @@
         <v>2.13</v>
       </c>
       <c r="AP132">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ132">
         <v>2</v>
@@ -29036,7 +29036,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q136">
         <v>2.38</v>
@@ -30635,6 +30635,212 @@
       </c>
       <c r="BP143">
         <v>1.68</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7295055</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45518.58333333334</v>
+      </c>
+      <c r="F144">
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>71</v>
+      </c>
+      <c r="H144" t="s">
+        <v>83</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144" t="s">
+        <v>186</v>
+      </c>
+      <c r="P144" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q144">
+        <v>2.35</v>
+      </c>
+      <c r="R144">
+        <v>2.25</v>
+      </c>
+      <c r="S144">
+        <v>4.75</v>
+      </c>
+      <c r="T144">
+        <v>1.4</v>
+      </c>
+      <c r="U144">
+        <v>3</v>
+      </c>
+      <c r="V144">
+        <v>2.9</v>
+      </c>
+      <c r="W144">
+        <v>1.4</v>
+      </c>
+      <c r="X144">
+        <v>7.5</v>
+      </c>
+      <c r="Y144">
+        <v>1.08</v>
+      </c>
+      <c r="Z144">
+        <v>1.61</v>
+      </c>
+      <c r="AA144">
+        <v>3.7</v>
+      </c>
+      <c r="AB144">
+        <v>4.6</v>
+      </c>
+      <c r="AC144">
+        <v>1.05</v>
+      </c>
+      <c r="AD144">
+        <v>12</v>
+      </c>
+      <c r="AE144">
+        <v>1.32</v>
+      </c>
+      <c r="AF144">
+        <v>3.4</v>
+      </c>
+      <c r="AG144">
+        <v>1.83</v>
+      </c>
+      <c r="AH144">
+        <v>1.85</v>
+      </c>
+      <c r="AI144">
+        <v>1.9</v>
+      </c>
+      <c r="AJ144">
+        <v>1.9</v>
+      </c>
+      <c r="AK144">
+        <v>1.2</v>
+      </c>
+      <c r="AL144">
+        <v>1.22</v>
+      </c>
+      <c r="AM144">
+        <v>2.15</v>
+      </c>
+      <c r="AN144">
+        <v>1.38</v>
+      </c>
+      <c r="AO144">
+        <v>1</v>
+      </c>
+      <c r="AP144">
+        <v>1.56</v>
+      </c>
+      <c r="AQ144">
+        <v>0.89</v>
+      </c>
+      <c r="AR144">
+        <v>1.23</v>
+      </c>
+      <c r="AS144">
+        <v>1.34</v>
+      </c>
+      <c r="AT144">
+        <v>2.57</v>
+      </c>
+      <c r="AU144">
+        <v>8</v>
+      </c>
+      <c r="AV144">
+        <v>4</v>
+      </c>
+      <c r="AW144">
+        <v>2</v>
+      </c>
+      <c r="AX144">
+        <v>7</v>
+      </c>
+      <c r="AY144">
+        <v>10</v>
+      </c>
+      <c r="AZ144">
+        <v>11</v>
+      </c>
+      <c r="BA144">
+        <v>6</v>
+      </c>
+      <c r="BB144">
+        <v>1</v>
+      </c>
+      <c r="BC144">
+        <v>7</v>
+      </c>
+      <c r="BD144">
+        <v>1.4</v>
+      </c>
+      <c r="BE144">
+        <v>9</v>
+      </c>
+      <c r="BF144">
+        <v>3.4</v>
+      </c>
+      <c r="BG144">
+        <v>1.17</v>
+      </c>
+      <c r="BH144">
+        <v>4.8</v>
+      </c>
+      <c r="BI144">
+        <v>1.3</v>
+      </c>
+      <c r="BJ144">
+        <v>3.25</v>
+      </c>
+      <c r="BK144">
+        <v>1.56</v>
+      </c>
+      <c r="BL144">
+        <v>2.33</v>
+      </c>
+      <c r="BM144">
+        <v>1.95</v>
+      </c>
+      <c r="BN144">
+        <v>1.85</v>
+      </c>
+      <c r="BO144">
+        <v>2.55</v>
+      </c>
+      <c r="BP144">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="268">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,9 @@
     <t>['90+3']</t>
   </si>
   <si>
+    <t>['6', '71', '90+4']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -812,6 +815,9 @@
   </si>
   <si>
     <t>['45+1', '90+1']</t>
+  </si>
+  <si>
+    <t>['5', '37']</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP144"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1432,7 +1438,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1638,7 +1644,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -2050,7 +2056,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2256,7 +2262,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -3286,7 +3292,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3492,7 +3498,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q12">
         <v>5.5</v>
@@ -3982,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ14">
         <v>0.5600000000000001</v>
@@ -4110,7 +4116,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q15">
         <v>2.95</v>
@@ -4191,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4316,7 +4322,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4522,7 +4528,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4728,7 +4734,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5346,7 +5352,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5758,7 +5764,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5964,7 +5970,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6376,7 +6382,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6582,7 +6588,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6994,7 +7000,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q29">
         <v>3.6</v>
@@ -7200,7 +7206,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7818,7 +7824,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7899,7 +7905,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -8024,7 +8030,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8230,7 +8236,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8848,7 +8854,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q38">
         <v>2.54</v>
@@ -8926,7 +8932,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ38">
         <v>0.67</v>
@@ -9054,7 +9060,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9672,7 +9678,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -10577,7 +10583,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ46">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>1.46</v>
@@ -10702,7 +10708,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -11114,7 +11120,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q49">
         <v>4.5</v>
@@ -11526,7 +11532,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11732,7 +11738,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -12016,7 +12022,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ53">
         <v>1.5</v>
@@ -12144,7 +12150,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12350,7 +12356,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12968,7 +12974,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13174,7 +13180,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13380,7 +13386,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13792,7 +13798,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q62">
         <v>1.67</v>
@@ -13998,7 +14004,7 @@
         <v>116</v>
       </c>
       <c r="P63" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14079,7 +14085,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -14204,7 +14210,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14822,7 +14828,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -15028,7 +15034,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15312,7 +15318,7 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ69">
         <v>0.89</v>
@@ -15852,7 +15858,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16058,7 +16064,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16264,7 +16270,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16470,7 +16476,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16882,7 +16888,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -17294,7 +17300,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17375,7 +17381,7 @@
         <v>1</v>
       </c>
       <c r="AQ79">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR79">
         <v>1.07</v>
@@ -17500,7 +17506,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q80">
         <v>2.62</v>
@@ -17912,7 +17918,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18530,7 +18536,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18736,7 +18742,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -18942,7 +18948,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19148,7 +19154,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19432,7 +19438,7 @@
         <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ89">
         <v>1</v>
@@ -19766,7 +19772,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -19847,7 +19853,7 @@
         <v>1</v>
       </c>
       <c r="AQ91">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR91">
         <v>1.59</v>
@@ -19972,7 +19978,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20178,7 +20184,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q93">
         <v>2.79</v>
@@ -20384,7 +20390,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20590,7 +20596,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -21002,7 +21008,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -21208,7 +21214,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21414,7 +21420,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21620,7 +21626,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21826,7 +21832,7 @@
         <v>117</v>
       </c>
       <c r="P101" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -22319,7 +22325,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ103">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR103">
         <v>1.74</v>
@@ -22650,7 +22656,7 @@
         <v>116</v>
       </c>
       <c r="P105" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q105">
         <v>2.75</v>
@@ -22856,7 +22862,7 @@
         <v>98</v>
       </c>
       <c r="P106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23062,7 +23068,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23346,7 +23352,7 @@
         <v>0.43</v>
       </c>
       <c r="AP108">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ108">
         <v>0.44</v>
@@ -23474,7 +23480,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23680,7 +23686,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -24092,7 +24098,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q112">
         <v>2.95</v>
@@ -24298,7 +24304,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q113">
         <v>2.63</v>
@@ -24504,7 +24510,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -24916,7 +24922,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -25122,7 +25128,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25534,7 +25540,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q119">
         <v>4.2</v>
@@ -25740,7 +25746,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q120">
         <v>1.75</v>
@@ -25946,7 +25952,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q121">
         <v>2.63</v>
@@ -26024,7 +26030,7 @@
         <v>0.83</v>
       </c>
       <c r="AP121">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ121">
         <v>1</v>
@@ -26564,7 +26570,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26770,7 +26776,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -26976,7 +26982,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27388,7 +27394,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -28006,7 +28012,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28418,7 +28424,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28496,7 +28502,7 @@
         <v>1.63</v>
       </c>
       <c r="AP133">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ133">
         <v>1.78</v>
@@ -28705,7 +28711,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ134">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR134">
         <v>1.43</v>
@@ -28830,7 +28836,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29036,7 +29042,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q136">
         <v>2.38</v>
@@ -29448,7 +29454,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q138">
         <v>2.7</v>
@@ -29860,7 +29866,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q140">
         <v>3.52</v>
@@ -30478,7 +30484,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q143">
         <v>3.4</v>
@@ -30841,6 +30847,212 @@
       </c>
       <c r="BP144">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7295112</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45521.54166666666</v>
+      </c>
+      <c r="F145">
+        <v>19</v>
+      </c>
+      <c r="G145" t="s">
+        <v>82</v>
+      </c>
+      <c r="H145" t="s">
+        <v>74</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>2</v>
+      </c>
+      <c r="K145">
+        <v>3</v>
+      </c>
+      <c r="L145">
+        <v>3</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145">
+        <v>5</v>
+      </c>
+      <c r="O145" t="s">
+        <v>187</v>
+      </c>
+      <c r="P145" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q145">
+        <v>2.65</v>
+      </c>
+      <c r="R145">
+        <v>2.3</v>
+      </c>
+      <c r="S145">
+        <v>3.3</v>
+      </c>
+      <c r="T145">
+        <v>1.23</v>
+      </c>
+      <c r="U145">
+        <v>3.4</v>
+      </c>
+      <c r="V145">
+        <v>2.25</v>
+      </c>
+      <c r="W145">
+        <v>1.58</v>
+      </c>
+      <c r="X145">
+        <v>4.9</v>
+      </c>
+      <c r="Y145">
+        <v>1.14</v>
+      </c>
+      <c r="Z145">
+        <v>2.2</v>
+      </c>
+      <c r="AA145">
+        <v>3.5</v>
+      </c>
+      <c r="AB145">
+        <v>2.7</v>
+      </c>
+      <c r="AC145">
+        <v>1.03</v>
+      </c>
+      <c r="AD145">
+        <v>18.5</v>
+      </c>
+      <c r="AE145">
+        <v>1.17</v>
+      </c>
+      <c r="AF145">
+        <v>5.1</v>
+      </c>
+      <c r="AG145">
+        <v>1.53</v>
+      </c>
+      <c r="AH145">
+        <v>2.35</v>
+      </c>
+      <c r="AI145">
+        <v>1.5</v>
+      </c>
+      <c r="AJ145">
+        <v>2.55</v>
+      </c>
+      <c r="AK145">
+        <v>1.4</v>
+      </c>
+      <c r="AL145">
+        <v>1.26</v>
+      </c>
+      <c r="AM145">
+        <v>1.61</v>
+      </c>
+      <c r="AN145">
+        <v>1.13</v>
+      </c>
+      <c r="AO145">
+        <v>1.5</v>
+      </c>
+      <c r="AP145">
+        <v>1.33</v>
+      </c>
+      <c r="AQ145">
+        <v>1.33</v>
+      </c>
+      <c r="AR145">
+        <v>1.52</v>
+      </c>
+      <c r="AS145">
+        <v>1.38</v>
+      </c>
+      <c r="AT145">
+        <v>2.9</v>
+      </c>
+      <c r="AU145">
+        <v>14</v>
+      </c>
+      <c r="AV145">
+        <v>6</v>
+      </c>
+      <c r="AW145">
+        <v>11</v>
+      </c>
+      <c r="AX145">
+        <v>6</v>
+      </c>
+      <c r="AY145">
+        <v>25</v>
+      </c>
+      <c r="AZ145">
+        <v>12</v>
+      </c>
+      <c r="BA145">
+        <v>11</v>
+      </c>
+      <c r="BB145">
+        <v>7</v>
+      </c>
+      <c r="BC145">
+        <v>18</v>
+      </c>
+      <c r="BD145">
+        <v>1.8</v>
+      </c>
+      <c r="BE145">
+        <v>8.5</v>
+      </c>
+      <c r="BF145">
+        <v>2.3</v>
+      </c>
+      <c r="BG145">
+        <v>1.11</v>
+      </c>
+      <c r="BH145">
+        <v>5.8</v>
+      </c>
+      <c r="BI145">
+        <v>1.16</v>
+      </c>
+      <c r="BJ145">
+        <v>4.3</v>
+      </c>
+      <c r="BK145">
+        <v>1.28</v>
+      </c>
+      <c r="BL145">
+        <v>3.35</v>
+      </c>
+      <c r="BM145">
+        <v>1.51</v>
+      </c>
+      <c r="BN145">
+        <v>2.37</v>
+      </c>
+      <c r="BO145">
+        <v>1.87</v>
+      </c>
+      <c r="BP145">
+        <v>1.83</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="274">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,6 +580,12 @@
     <t>['6', '71', '90+4']</t>
   </si>
   <si>
+    <t>['27', '62']</t>
+  </si>
+  <si>
+    <t>['26', '35']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -818,6 +824,18 @@
   </si>
   <si>
     <t>['5', '37']</t>
+  </si>
+  <si>
+    <t>['44', '69', '80', '83']</t>
+  </si>
+  <si>
+    <t>['35', '81']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['80']</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1438,7 +1456,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1519,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1644,7 +1662,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1722,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ3">
         <v>2</v>
@@ -2056,7 +2074,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2137,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2262,7 +2280,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2546,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ7">
         <v>0.44</v>
@@ -2958,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ9">
         <v>1.5</v>
@@ -3167,7 +3185,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3292,7 +3310,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3498,7 +3516,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q12">
         <v>5.5</v>
@@ -3576,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>1.89</v>
@@ -3782,10 +3800,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4116,7 +4134,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q15">
         <v>2.95</v>
@@ -4322,7 +4340,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4528,7 +4546,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4606,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ17">
         <v>1.33</v>
@@ -4734,7 +4752,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4815,7 +4833,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ18">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR18">
         <v>1.5</v>
@@ -5021,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR19">
         <v>1.53</v>
@@ -5352,7 +5370,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5636,7 +5654,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ22">
         <v>1.5</v>
@@ -5764,7 +5782,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5970,7 +5988,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6048,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ24">
         <v>1.1</v>
@@ -6382,7 +6400,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6463,7 +6481,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR26">
         <v>2.06</v>
@@ -6588,7 +6606,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6666,7 +6684,7 @@
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
         <v>1.1</v>
@@ -6875,7 +6893,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR28">
         <v>1.11</v>
@@ -7000,7 +7018,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q29">
         <v>3.6</v>
@@ -7206,7 +7224,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7284,7 +7302,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ30">
         <v>2</v>
@@ -7493,7 +7511,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR31">
         <v>2.08</v>
@@ -7824,7 +7842,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -8030,7 +8048,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8236,7 +8254,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8314,7 +8332,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ35">
         <v>2</v>
@@ -8523,7 +8541,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ36">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR36">
         <v>2.03</v>
@@ -8854,7 +8872,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q38">
         <v>2.54</v>
@@ -9060,7 +9078,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9344,7 +9362,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ40">
         <v>0.44</v>
@@ -9550,10 +9568,10 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ41">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR41">
         <v>2.11</v>
@@ -9678,7 +9696,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9759,7 +9777,7 @@
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR42">
         <v>1.44</v>
@@ -10580,7 +10598,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ46">
         <v>1.33</v>
@@ -10708,7 +10726,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -11120,7 +11138,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q49">
         <v>4.5</v>
@@ -11407,7 +11425,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR50">
         <v>1.33</v>
@@ -11532,7 +11550,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11738,7 +11756,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -12025,7 +12043,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ53">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR53">
         <v>1.7</v>
@@ -12150,7 +12168,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12228,7 +12246,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ54">
         <v>1.89</v>
@@ -12356,7 +12374,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12434,10 +12452,10 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR55">
         <v>1.29</v>
@@ -12849,7 +12867,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR57">
         <v>1.51</v>
@@ -12974,7 +12992,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13055,7 +13073,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ58">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR58">
         <v>1.38</v>
@@ -13180,7 +13198,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13386,7 +13404,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13464,7 +13482,7 @@
         <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ60">
         <v>2</v>
@@ -13670,7 +13688,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ61">
         <v>1.1</v>
@@ -13798,7 +13816,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q62">
         <v>1.67</v>
@@ -14004,7 +14022,7 @@
         <v>116</v>
       </c>
       <c r="P63" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14210,7 +14228,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14288,7 +14306,7 @@
         <v>0.6</v>
       </c>
       <c r="AP64">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ64">
         <v>1.5</v>
@@ -14703,7 +14721,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR66">
         <v>1.51</v>
@@ -14828,7 +14846,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -14909,7 +14927,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ67">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR67">
         <v>1.44</v>
@@ -15034,7 +15052,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15115,7 +15133,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ68">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR68">
         <v>1.55</v>
@@ -15321,7 +15339,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ69">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR69">
         <v>1.61</v>
@@ -15524,7 +15542,7 @@
         <v>3</v>
       </c>
       <c r="AP70">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
         <v>2</v>
@@ -15730,10 +15748,10 @@
         <v>1.5</v>
       </c>
       <c r="AP71">
+        <v>0.8</v>
+      </c>
+      <c r="AQ71">
         <v>0.89</v>
-      </c>
-      <c r="AQ71">
-        <v>1</v>
       </c>
       <c r="AR71">
         <v>1.62</v>
@@ -15858,7 +15876,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16064,7 +16082,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16270,7 +16288,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16476,7 +16494,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16760,10 +16778,10 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR76">
         <v>1.37</v>
@@ -16888,7 +16906,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -16966,7 +16984,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ77">
         <v>0.67</v>
@@ -17300,7 +17318,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17506,7 +17524,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q80">
         <v>2.62</v>
@@ -17584,7 +17602,7 @@
         <v>1.2</v>
       </c>
       <c r="AP80">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ80">
         <v>1.1</v>
@@ -17918,7 +17936,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18536,7 +18554,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18742,7 +18760,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -18820,10 +18838,10 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ86">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR86">
         <v>1.09</v>
@@ -18948,7 +18966,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19029,7 +19047,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ87">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR87">
         <v>1.72</v>
@@ -19154,7 +19172,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19232,7 +19250,7 @@
         <v>0.33</v>
       </c>
       <c r="AP88">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ88">
         <v>0.44</v>
@@ -19441,7 +19459,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR89">
         <v>1.54</v>
@@ -19772,7 +19790,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -19978,7 +19996,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20184,7 +20202,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q93">
         <v>2.79</v>
@@ -20262,7 +20280,7 @@
         <v>2.17</v>
       </c>
       <c r="AP93">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ93">
         <v>1.89</v>
@@ -20390,7 +20408,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20596,7 +20614,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -21008,7 +21026,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -21086,7 +21104,7 @@
         <v>2.5</v>
       </c>
       <c r="AP97">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ97">
         <v>2</v>
@@ -21214,7 +21232,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21420,7 +21438,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21626,7 +21644,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21832,7 +21850,7 @@
         <v>117</v>
       </c>
       <c r="P101" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -21913,7 +21931,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR101">
         <v>1.41</v>
@@ -22119,7 +22137,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ102">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR102">
         <v>1.54</v>
@@ -22528,10 +22546,10 @@
         <v>0.8</v>
       </c>
       <c r="AP104">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR104">
         <v>1.2</v>
@@ -22656,7 +22674,7 @@
         <v>116</v>
       </c>
       <c r="P105" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q105">
         <v>2.75</v>
@@ -22862,7 +22880,7 @@
         <v>98</v>
       </c>
       <c r="P106" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -22940,10 +22958,10 @@
         <v>1.6</v>
       </c>
       <c r="AP106">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ106">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -23068,7 +23086,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23146,10 +23164,10 @@
         <v>1.33</v>
       </c>
       <c r="AP107">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ107">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR107">
         <v>1.41</v>
@@ -23480,7 +23498,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23686,7 +23704,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -23764,7 +23782,7 @@
         <v>0.67</v>
       </c>
       <c r="AP110">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ110">
         <v>0.5600000000000001</v>
@@ -23970,7 +23988,7 @@
         <v>2.17</v>
       </c>
       <c r="AP111">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ111">
         <v>1.89</v>
@@ -24098,7 +24116,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q112">
         <v>2.95</v>
@@ -24304,7 +24322,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q113">
         <v>2.63</v>
@@ -24510,7 +24528,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -24922,7 +24940,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -25003,7 +25021,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ116">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR116">
         <v>1.92</v>
@@ -25128,7 +25146,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25415,7 +25433,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ118">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR118">
         <v>1.59</v>
@@ -25540,7 +25558,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q119">
         <v>4.2</v>
@@ -25618,10 +25636,10 @@
         <v>1.71</v>
       </c>
       <c r="AP119">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ119">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR119">
         <v>1.6</v>
@@ -25746,7 +25764,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q120">
         <v>1.75</v>
@@ -25952,7 +25970,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q121">
         <v>2.63</v>
@@ -26033,7 +26051,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ121">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR121">
         <v>1.59</v>
@@ -26239,7 +26257,7 @@
         <v>1</v>
       </c>
       <c r="AQ122">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR122">
         <v>1.3</v>
@@ -26442,7 +26460,7 @@
         <v>1.75</v>
       </c>
       <c r="AP123">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ123">
         <v>1.89</v>
@@ -26570,7 +26588,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26648,7 +26666,7 @@
         <v>2.25</v>
       </c>
       <c r="AP124">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ124">
         <v>2</v>
@@ -26776,7 +26794,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -26854,7 +26872,7 @@
         <v>0.57</v>
       </c>
       <c r="AP125">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ125">
         <v>0.5600000000000001</v>
@@ -26982,7 +27000,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27394,7 +27412,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27475,7 +27493,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ128">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR128">
         <v>1.41</v>
@@ -28012,7 +28030,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28093,7 +28111,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ131">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR131">
         <v>1.65</v>
@@ -28296,7 +28314,7 @@
         <v>2.13</v>
       </c>
       <c r="AP132">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ132">
         <v>2</v>
@@ -28424,7 +28442,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28505,7 +28523,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ133">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR133">
         <v>1.53</v>
@@ -28836,7 +28854,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -28914,10 +28932,10 @@
         <v>1.57</v>
       </c>
       <c r="AP135">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ135">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR135">
         <v>1.14</v>
@@ -29042,7 +29060,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q136">
         <v>2.38</v>
@@ -29120,7 +29138,7 @@
         <v>0.5</v>
       </c>
       <c r="AP136">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ136">
         <v>0.44</v>
@@ -29326,10 +29344,10 @@
         <v>1.14</v>
       </c>
       <c r="AP137">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ137">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR137">
         <v>1.4</v>
@@ -29454,7 +29472,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q138">
         <v>2.7</v>
@@ -29866,7 +29884,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q140">
         <v>3.52</v>
@@ -30150,7 +30168,7 @@
         <v>0.63</v>
       </c>
       <c r="AP141">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ141">
         <v>0.5600000000000001</v>
@@ -30484,7 +30502,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q143">
         <v>3.4</v>
@@ -30768,10 +30786,10 @@
         <v>1</v>
       </c>
       <c r="AP144">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ144">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR144">
         <v>1.23</v>
@@ -30896,7 +30914,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q145">
         <v>2.65</v>
@@ -31053,6 +31071,1036 @@
       </c>
       <c r="BP145">
         <v>1.83</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7295107</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45522.39583333334</v>
+      </c>
+      <c r="F146">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>71</v>
+      </c>
+      <c r="H146" t="s">
+        <v>84</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>4</v>
+      </c>
+      <c r="N146">
+        <v>4</v>
+      </c>
+      <c r="O146" t="s">
+        <v>87</v>
+      </c>
+      <c r="P146" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q146">
+        <v>3.25</v>
+      </c>
+      <c r="R146">
+        <v>2.2</v>
+      </c>
+      <c r="S146">
+        <v>3.1</v>
+      </c>
+      <c r="T146">
+        <v>1.36</v>
+      </c>
+      <c r="U146">
+        <v>3</v>
+      </c>
+      <c r="V146">
+        <v>2.75</v>
+      </c>
+      <c r="W146">
+        <v>1.4</v>
+      </c>
+      <c r="X146">
+        <v>7</v>
+      </c>
+      <c r="Y146">
+        <v>1.1</v>
+      </c>
+      <c r="Z146">
+        <v>2.69</v>
+      </c>
+      <c r="AA146">
+        <v>3.35</v>
+      </c>
+      <c r="AB146">
+        <v>2.44</v>
+      </c>
+      <c r="AC146">
+        <v>1.02</v>
+      </c>
+      <c r="AD146">
+        <v>10</v>
+      </c>
+      <c r="AE146">
+        <v>1.25</v>
+      </c>
+      <c r="AF146">
+        <v>3.6</v>
+      </c>
+      <c r="AG146">
+        <v>1.85</v>
+      </c>
+      <c r="AH146">
+        <v>2.01</v>
+      </c>
+      <c r="AI146">
+        <v>1.67</v>
+      </c>
+      <c r="AJ146">
+        <v>2.1</v>
+      </c>
+      <c r="AK146">
+        <v>1.53</v>
+      </c>
+      <c r="AL146">
+        <v>1.3</v>
+      </c>
+      <c r="AM146">
+        <v>1.48</v>
+      </c>
+      <c r="AN146">
+        <v>1.56</v>
+      </c>
+      <c r="AO146">
+        <v>1.78</v>
+      </c>
+      <c r="AP146">
+        <v>1.4</v>
+      </c>
+      <c r="AQ146">
+        <v>1.9</v>
+      </c>
+      <c r="AR146">
+        <v>1.29</v>
+      </c>
+      <c r="AS146">
+        <v>1.55</v>
+      </c>
+      <c r="AT146">
+        <v>2.84</v>
+      </c>
+      <c r="AU146">
+        <v>3</v>
+      </c>
+      <c r="AV146">
+        <v>8</v>
+      </c>
+      <c r="AW146">
+        <v>4</v>
+      </c>
+      <c r="AX146">
+        <v>5</v>
+      </c>
+      <c r="AY146">
+        <v>7</v>
+      </c>
+      <c r="AZ146">
+        <v>13</v>
+      </c>
+      <c r="BA146">
+        <v>7</v>
+      </c>
+      <c r="BB146">
+        <v>2</v>
+      </c>
+      <c r="BC146">
+        <v>9</v>
+      </c>
+      <c r="BD146">
+        <v>2.1</v>
+      </c>
+      <c r="BE146">
+        <v>8.5</v>
+      </c>
+      <c r="BF146">
+        <v>1.95</v>
+      </c>
+      <c r="BG146">
+        <v>1.1</v>
+      </c>
+      <c r="BH146">
+        <v>5.4</v>
+      </c>
+      <c r="BI146">
+        <v>1.23</v>
+      </c>
+      <c r="BJ146">
+        <v>3.56</v>
+      </c>
+      <c r="BK146">
+        <v>1.38</v>
+      </c>
+      <c r="BL146">
+        <v>2.8</v>
+      </c>
+      <c r="BM146">
+        <v>1.9</v>
+      </c>
+      <c r="BN146">
+        <v>1.9</v>
+      </c>
+      <c r="BO146">
+        <v>2.15</v>
+      </c>
+      <c r="BP146">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7295111</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45522.5</v>
+      </c>
+      <c r="F147">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>81</v>
+      </c>
+      <c r="H147" t="s">
+        <v>83</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>4</v>
+      </c>
+      <c r="O147" t="s">
+        <v>188</v>
+      </c>
+      <c r="P147" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q147">
+        <v>2.2</v>
+      </c>
+      <c r="R147">
+        <v>2.4</v>
+      </c>
+      <c r="S147">
+        <v>4.75</v>
+      </c>
+      <c r="T147">
+        <v>1.29</v>
+      </c>
+      <c r="U147">
+        <v>3.5</v>
+      </c>
+      <c r="V147">
+        <v>2.38</v>
+      </c>
+      <c r="W147">
+        <v>1.53</v>
+      </c>
+      <c r="X147">
+        <v>5.5</v>
+      </c>
+      <c r="Y147">
+        <v>1.14</v>
+      </c>
+      <c r="Z147">
+        <v>1.5</v>
+      </c>
+      <c r="AA147">
+        <v>3.79</v>
+      </c>
+      <c r="AB147">
+        <v>4.35</v>
+      </c>
+      <c r="AC147">
+        <v>1.01</v>
+      </c>
+      <c r="AD147">
+        <v>12</v>
+      </c>
+      <c r="AE147">
+        <v>1.18</v>
+      </c>
+      <c r="AF147">
+        <v>4.33</v>
+      </c>
+      <c r="AG147">
+        <v>1.57</v>
+      </c>
+      <c r="AH147">
+        <v>2.15</v>
+      </c>
+      <c r="AI147">
+        <v>1.62</v>
+      </c>
+      <c r="AJ147">
+        <v>2.2</v>
+      </c>
+      <c r="AK147">
+        <v>1.22</v>
+      </c>
+      <c r="AL147">
+        <v>1.22</v>
+      </c>
+      <c r="AM147">
+        <v>2.15</v>
+      </c>
+      <c r="AN147">
+        <v>1.11</v>
+      </c>
+      <c r="AO147">
+        <v>0.89</v>
+      </c>
+      <c r="AP147">
+        <v>1.1</v>
+      </c>
+      <c r="AQ147">
+        <v>0.9</v>
+      </c>
+      <c r="AR147">
+        <v>1.58</v>
+      </c>
+      <c r="AS147">
+        <v>1.32</v>
+      </c>
+      <c r="AT147">
+        <v>2.9</v>
+      </c>
+      <c r="AU147">
+        <v>7</v>
+      </c>
+      <c r="AV147">
+        <v>6</v>
+      </c>
+      <c r="AW147">
+        <v>3</v>
+      </c>
+      <c r="AX147">
+        <v>7</v>
+      </c>
+      <c r="AY147">
+        <v>10</v>
+      </c>
+      <c r="AZ147">
+        <v>13</v>
+      </c>
+      <c r="BA147">
+        <v>10</v>
+      </c>
+      <c r="BB147">
+        <v>3</v>
+      </c>
+      <c r="BC147">
+        <v>13</v>
+      </c>
+      <c r="BD147">
+        <v>1.44</v>
+      </c>
+      <c r="BE147">
+        <v>9.5</v>
+      </c>
+      <c r="BF147">
+        <v>3.2</v>
+      </c>
+      <c r="BG147">
+        <v>1.11</v>
+      </c>
+      <c r="BH147">
+        <v>5.15</v>
+      </c>
+      <c r="BI147">
+        <v>1.25</v>
+      </c>
+      <c r="BJ147">
+        <v>3.42</v>
+      </c>
+      <c r="BK147">
+        <v>1.46</v>
+      </c>
+      <c r="BL147">
+        <v>2.52</v>
+      </c>
+      <c r="BM147">
+        <v>1.8</v>
+      </c>
+      <c r="BN147">
+        <v>2</v>
+      </c>
+      <c r="BO147">
+        <v>2.3</v>
+      </c>
+      <c r="BP147">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7295106</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45522.5</v>
+      </c>
+      <c r="F148">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s">
+        <v>80</v>
+      </c>
+      <c r="H148" t="s">
+        <v>70</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148" t="s">
+        <v>96</v>
+      </c>
+      <c r="P148" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q148">
+        <v>2.45</v>
+      </c>
+      <c r="R148">
+        <v>2.3</v>
+      </c>
+      <c r="S148">
+        <v>4.33</v>
+      </c>
+      <c r="T148">
+        <v>1.33</v>
+      </c>
+      <c r="U148">
+        <v>3</v>
+      </c>
+      <c r="V148">
+        <v>2.45</v>
+      </c>
+      <c r="W148">
+        <v>1.48</v>
+      </c>
+      <c r="X148">
+        <v>5.5</v>
+      </c>
+      <c r="Y148">
+        <v>1.11</v>
+      </c>
+      <c r="Z148">
+        <v>1.76</v>
+      </c>
+      <c r="AA148">
+        <v>3.74</v>
+      </c>
+      <c r="AB148">
+        <v>3.99</v>
+      </c>
+      <c r="AC148">
+        <v>1.05</v>
+      </c>
+      <c r="AD148">
+        <v>10.5</v>
+      </c>
+      <c r="AE148">
+        <v>1.21</v>
+      </c>
+      <c r="AF148">
+        <v>3.75</v>
+      </c>
+      <c r="AG148">
+        <v>1.8</v>
+      </c>
+      <c r="AH148">
+        <v>2.05</v>
+      </c>
+      <c r="AI148">
+        <v>1.62</v>
+      </c>
+      <c r="AJ148">
+        <v>2.1</v>
+      </c>
+      <c r="AK148">
+        <v>1.24</v>
+      </c>
+      <c r="AL148">
+        <v>1.22</v>
+      </c>
+      <c r="AM148">
+        <v>2</v>
+      </c>
+      <c r="AN148">
+        <v>0.75</v>
+      </c>
+      <c r="AO148">
+        <v>1</v>
+      </c>
+      <c r="AP148">
+        <v>1</v>
+      </c>
+      <c r="AQ148">
+        <v>0.89</v>
+      </c>
+      <c r="AR148">
+        <v>1.15</v>
+      </c>
+      <c r="AS148">
+        <v>0.88</v>
+      </c>
+      <c r="AT148">
+        <v>2.03</v>
+      </c>
+      <c r="AU148">
+        <v>6</v>
+      </c>
+      <c r="AV148">
+        <v>2</v>
+      </c>
+      <c r="AW148">
+        <v>7</v>
+      </c>
+      <c r="AX148">
+        <v>9</v>
+      </c>
+      <c r="AY148">
+        <v>13</v>
+      </c>
+      <c r="AZ148">
+        <v>11</v>
+      </c>
+      <c r="BA148">
+        <v>4</v>
+      </c>
+      <c r="BB148">
+        <v>11</v>
+      </c>
+      <c r="BC148">
+        <v>15</v>
+      </c>
+      <c r="BD148">
+        <v>1.5</v>
+      </c>
+      <c r="BE148">
+        <v>9</v>
+      </c>
+      <c r="BF148">
+        <v>3.1</v>
+      </c>
+      <c r="BG148">
+        <v>1.1</v>
+      </c>
+      <c r="BH148">
+        <v>5.45</v>
+      </c>
+      <c r="BI148">
+        <v>1.22</v>
+      </c>
+      <c r="BJ148">
+        <v>3.64</v>
+      </c>
+      <c r="BK148">
+        <v>1.43</v>
+      </c>
+      <c r="BL148">
+        <v>2.62</v>
+      </c>
+      <c r="BM148">
+        <v>1.9</v>
+      </c>
+      <c r="BN148">
+        <v>1.9</v>
+      </c>
+      <c r="BO148">
+        <v>2.1</v>
+      </c>
+      <c r="BP148">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7295108</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45522.5</v>
+      </c>
+      <c r="F149">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>77</v>
+      </c>
+      <c r="H149" t="s">
+        <v>73</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
+        <v>1</v>
+      </c>
+      <c r="O149" t="s">
+        <v>87</v>
+      </c>
+      <c r="P149" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q149">
+        <v>2.83</v>
+      </c>
+      <c r="R149">
+        <v>2.05</v>
+      </c>
+      <c r="S149">
+        <v>3.98</v>
+      </c>
+      <c r="T149">
+        <v>1.45</v>
+      </c>
+      <c r="U149">
+        <v>2.8</v>
+      </c>
+      <c r="V149">
+        <v>3</v>
+      </c>
+      <c r="W149">
+        <v>1.38</v>
+      </c>
+      <c r="X149">
+        <v>7.5</v>
+      </c>
+      <c r="Y149">
+        <v>1.08</v>
+      </c>
+      <c r="Z149">
+        <v>2.16</v>
+      </c>
+      <c r="AA149">
+        <v>3.24</v>
+      </c>
+      <c r="AB149">
+        <v>3.19</v>
+      </c>
+      <c r="AC149">
+        <v>1.03</v>
+      </c>
+      <c r="AD149">
+        <v>8</v>
+      </c>
+      <c r="AE149">
+        <v>1.31</v>
+      </c>
+      <c r="AF149">
+        <v>3.04</v>
+      </c>
+      <c r="AG149">
+        <v>1.94</v>
+      </c>
+      <c r="AH149">
+        <v>1.79</v>
+      </c>
+      <c r="AI149">
+        <v>1.81</v>
+      </c>
+      <c r="AJ149">
+        <v>1.93</v>
+      </c>
+      <c r="AK149">
+        <v>1.35</v>
+      </c>
+      <c r="AL149">
+        <v>1.28</v>
+      </c>
+      <c r="AM149">
+        <v>1.68</v>
+      </c>
+      <c r="AN149">
+        <v>0.89</v>
+      </c>
+      <c r="AO149">
+        <v>1</v>
+      </c>
+      <c r="AP149">
+        <v>0.8</v>
+      </c>
+      <c r="AQ149">
+        <v>1.22</v>
+      </c>
+      <c r="AR149">
+        <v>1.41</v>
+      </c>
+      <c r="AS149">
+        <v>1.3</v>
+      </c>
+      <c r="AT149">
+        <v>2.71</v>
+      </c>
+      <c r="AU149">
+        <v>4</v>
+      </c>
+      <c r="AV149">
+        <v>2</v>
+      </c>
+      <c r="AW149">
+        <v>7</v>
+      </c>
+      <c r="AX149">
+        <v>2</v>
+      </c>
+      <c r="AY149">
+        <v>11</v>
+      </c>
+      <c r="AZ149">
+        <v>4</v>
+      </c>
+      <c r="BA149">
+        <v>7</v>
+      </c>
+      <c r="BB149">
+        <v>2</v>
+      </c>
+      <c r="BC149">
+        <v>9</v>
+      </c>
+      <c r="BD149">
+        <v>1.5</v>
+      </c>
+      <c r="BE149">
+        <v>8.5</v>
+      </c>
+      <c r="BF149">
+        <v>3</v>
+      </c>
+      <c r="BG149">
+        <v>1.24</v>
+      </c>
+      <c r="BH149">
+        <v>3.48</v>
+      </c>
+      <c r="BI149">
+        <v>1.47</v>
+      </c>
+      <c r="BJ149">
+        <v>2.5</v>
+      </c>
+      <c r="BK149">
+        <v>1.92</v>
+      </c>
+      <c r="BL149">
+        <v>1.88</v>
+      </c>
+      <c r="BM149">
+        <v>2.33</v>
+      </c>
+      <c r="BN149">
+        <v>1.53</v>
+      </c>
+      <c r="BO149">
+        <v>3.15</v>
+      </c>
+      <c r="BP149">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7295110</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45522.59375</v>
+      </c>
+      <c r="F150">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>75</v>
+      </c>
+      <c r="H150" t="s">
+        <v>76</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="O150" t="s">
+        <v>189</v>
+      </c>
+      <c r="P150" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q150">
+        <v>2.75</v>
+      </c>
+      <c r="R150">
+        <v>2.4</v>
+      </c>
+      <c r="S150">
+        <v>2.9</v>
+      </c>
+      <c r="T150">
+        <v>1.29</v>
+      </c>
+      <c r="U150">
+        <v>3.4</v>
+      </c>
+      <c r="V150">
+        <v>2.25</v>
+      </c>
+      <c r="W150">
+        <v>1.64</v>
+      </c>
+      <c r="X150">
+        <v>4.75</v>
+      </c>
+      <c r="Y150">
+        <v>1.15</v>
+      </c>
+      <c r="Z150">
+        <v>2.49</v>
+      </c>
+      <c r="AA150">
+        <v>3.53</v>
+      </c>
+      <c r="AB150">
+        <v>2.52</v>
+      </c>
+      <c r="AC150">
+        <v>1.02</v>
+      </c>
+      <c r="AD150">
+        <v>10</v>
+      </c>
+      <c r="AE150">
+        <v>1.12</v>
+      </c>
+      <c r="AF150">
+        <v>5.2</v>
+      </c>
+      <c r="AG150">
+        <v>1.5</v>
+      </c>
+      <c r="AH150">
+        <v>2.4</v>
+      </c>
+      <c r="AI150">
+        <v>1.47</v>
+      </c>
+      <c r="AJ150">
+        <v>2.7</v>
+      </c>
+      <c r="AK150">
+        <v>1.42</v>
+      </c>
+      <c r="AL150">
+        <v>1.28</v>
+      </c>
+      <c r="AM150">
+        <v>1.47</v>
+      </c>
+      <c r="AN150">
+        <v>2</v>
+      </c>
+      <c r="AO150">
+        <v>1.5</v>
+      </c>
+      <c r="AP150">
+        <v>2.11</v>
+      </c>
+      <c r="AQ150">
+        <v>1.33</v>
+      </c>
+      <c r="AR150">
+        <v>1.52</v>
+      </c>
+      <c r="AS150">
+        <v>1.33</v>
+      </c>
+      <c r="AT150">
+        <v>2.85</v>
+      </c>
+      <c r="AU150">
+        <v>3</v>
+      </c>
+      <c r="AV150">
+        <v>5</v>
+      </c>
+      <c r="AW150">
+        <v>3</v>
+      </c>
+      <c r="AX150">
+        <v>7</v>
+      </c>
+      <c r="AY150">
+        <v>6</v>
+      </c>
+      <c r="AZ150">
+        <v>12</v>
+      </c>
+      <c r="BA150">
+        <v>4</v>
+      </c>
+      <c r="BB150">
+        <v>4</v>
+      </c>
+      <c r="BC150">
+        <v>8</v>
+      </c>
+      <c r="BD150">
+        <v>1.8</v>
+      </c>
+      <c r="BE150">
+        <v>8.5</v>
+      </c>
+      <c r="BF150">
+        <v>2.3</v>
+      </c>
+      <c r="BG150">
+        <v>1.12</v>
+      </c>
+      <c r="BH150">
+        <v>4.95</v>
+      </c>
+      <c r="BI150">
+        <v>1.27</v>
+      </c>
+      <c r="BJ150">
+        <v>3.28</v>
+      </c>
+      <c r="BK150">
+        <v>1.53</v>
+      </c>
+      <c r="BL150">
+        <v>2.42</v>
+      </c>
+      <c r="BM150">
+        <v>1.98</v>
+      </c>
+      <c r="BN150">
+        <v>1.82</v>
+      </c>
+      <c r="BO150">
+        <v>2.32</v>
+      </c>
+      <c r="BP150">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -31440,10 +31440,10 @@
         <v>10</v>
       </c>
       <c r="BB147">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC147">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD147">
         <v>1.44</v>
@@ -32058,10 +32058,10 @@
         <v>4</v>
       </c>
       <c r="BB150">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC150">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD150">
         <v>1.8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="275">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -584,6 +584,9 @@
   </si>
   <si>
     <t>['26', '35']</t>
+  </si>
+  <si>
+    <t>['18', '45+1', '72', '78']</t>
   </si>
   <si>
     <t>['39', '90+2']</t>
@@ -1197,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP150"/>
+  <dimension ref="A1:BP151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1456,7 +1459,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1662,7 +1665,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -2074,7 +2077,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2280,7 +2283,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2564,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ7">
         <v>0.44</v>
@@ -3310,7 +3313,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3516,7 +3519,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q12">
         <v>5.5</v>
@@ -4134,7 +4137,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q15">
         <v>2.95</v>
@@ -4215,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4340,7 +4343,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4546,7 +4549,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4752,7 +4755,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5370,7 +5373,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5654,7 +5657,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ22">
         <v>1.5</v>
@@ -5782,7 +5785,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5988,7 +5991,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6400,7 +6403,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6606,7 +6609,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -7018,7 +7021,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q29">
         <v>3.6</v>
@@ -7224,7 +7227,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7842,7 +7845,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7923,7 +7926,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -8048,7 +8051,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8254,7 +8257,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8332,7 +8335,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ35">
         <v>2</v>
@@ -8872,7 +8875,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q38">
         <v>2.54</v>
@@ -9078,7 +9081,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9696,7 +9699,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -10601,7 +10604,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR46">
         <v>1.46</v>
@@ -10726,7 +10729,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -11138,7 +11141,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q49">
         <v>4.5</v>
@@ -11550,7 +11553,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11756,7 +11759,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -12168,7 +12171,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12374,7 +12377,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12992,7 +12995,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13198,7 +13201,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13404,7 +13407,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13482,7 +13485,7 @@
         <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ60">
         <v>2</v>
@@ -13816,7 +13819,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q62">
         <v>1.67</v>
@@ -14022,7 +14025,7 @@
         <v>116</v>
       </c>
       <c r="P63" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14103,7 +14106,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ63">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -14228,7 +14231,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14846,7 +14849,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -15052,7 +15055,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15876,7 +15879,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16082,7 +16085,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16288,7 +16291,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16494,7 +16497,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16906,7 +16909,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -16984,7 +16987,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ77">
         <v>0.67</v>
@@ -17318,7 +17321,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17399,7 +17402,7 @@
         <v>1</v>
       </c>
       <c r="AQ79">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR79">
         <v>1.07</v>
@@ -17524,7 +17527,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q80">
         <v>2.62</v>
@@ -17936,7 +17939,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18554,7 +18557,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18760,7 +18763,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -18966,7 +18969,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19172,7 +19175,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19790,7 +19793,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -19871,7 +19874,7 @@
         <v>1</v>
       </c>
       <c r="AQ91">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR91">
         <v>1.59</v>
@@ -19996,7 +19999,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20202,7 +20205,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q93">
         <v>2.79</v>
@@ -20280,7 +20283,7 @@
         <v>2.17</v>
       </c>
       <c r="AP93">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ93">
         <v>1.89</v>
@@ -20408,7 +20411,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20614,7 +20617,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -21026,7 +21029,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -21232,7 +21235,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21438,7 +21441,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21644,7 +21647,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21850,7 +21853,7 @@
         <v>117</v>
       </c>
       <c r="P101" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -22343,7 +22346,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ103">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR103">
         <v>1.74</v>
@@ -22674,7 +22677,7 @@
         <v>116</v>
       </c>
       <c r="P105" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q105">
         <v>2.75</v>
@@ -22880,7 +22883,7 @@
         <v>98</v>
       </c>
       <c r="P106" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23086,7 +23089,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23164,7 +23167,7 @@
         <v>1.33</v>
       </c>
       <c r="AP107">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ107">
         <v>0.89</v>
@@ -23498,7 +23501,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23704,7 +23707,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -24116,7 +24119,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q112">
         <v>2.95</v>
@@ -24322,7 +24325,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q113">
         <v>2.63</v>
@@ -24528,7 +24531,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -24940,7 +24943,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -25146,7 +25149,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25558,7 +25561,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q119">
         <v>4.2</v>
@@ -25764,7 +25767,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q120">
         <v>1.75</v>
@@ -25970,7 +25973,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q121">
         <v>2.63</v>
@@ -26588,7 +26591,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26794,7 +26797,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27000,7 +27003,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27412,7 +27415,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -28030,7 +28033,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28442,7 +28445,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28729,7 +28732,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ134">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR134">
         <v>1.43</v>
@@ -28854,7 +28857,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29060,7 +29063,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q136">
         <v>2.38</v>
@@ -29344,7 +29347,7 @@
         <v>1.14</v>
       </c>
       <c r="AP137">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ137">
         <v>1.22</v>
@@ -29472,7 +29475,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q138">
         <v>2.7</v>
@@ -29884,7 +29887,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q140">
         <v>3.52</v>
@@ -30502,7 +30505,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q143">
         <v>3.4</v>
@@ -30914,7 +30917,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q145">
         <v>2.65</v>
@@ -30995,7 +30998,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ145">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR145">
         <v>1.52</v>
@@ -31120,7 +31123,7 @@
         <v>87</v>
       </c>
       <c r="P146" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31326,7 +31329,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q147">
         <v>2.2</v>
@@ -31738,7 +31741,7 @@
         <v>87</v>
       </c>
       <c r="P149" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q149">
         <v>2.83</v>
@@ -31944,7 +31947,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32022,7 +32025,7 @@
         <v>1.5</v>
       </c>
       <c r="AP150">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ150">
         <v>1.33</v>
@@ -32101,6 +32104,212 @@
       </c>
       <c r="BP150">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7295081</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45525.58333333334</v>
+      </c>
+      <c r="F151">
+        <v>15</v>
+      </c>
+      <c r="G151" t="s">
+        <v>75</v>
+      </c>
+      <c r="H151" t="s">
+        <v>74</v>
+      </c>
+      <c r="I151">
+        <v>2</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>2</v>
+      </c>
+      <c r="L151">
+        <v>4</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>4</v>
+      </c>
+      <c r="O151" t="s">
+        <v>190</v>
+      </c>
+      <c r="P151" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q151">
+        <v>2.63</v>
+      </c>
+      <c r="R151">
+        <v>2.4</v>
+      </c>
+      <c r="S151">
+        <v>3.5</v>
+      </c>
+      <c r="T151">
+        <v>1.29</v>
+      </c>
+      <c r="U151">
+        <v>3.5</v>
+      </c>
+      <c r="V151">
+        <v>2.25</v>
+      </c>
+      <c r="W151">
+        <v>1.57</v>
+      </c>
+      <c r="X151">
+        <v>5.5</v>
+      </c>
+      <c r="Y151">
+        <v>1.14</v>
+      </c>
+      <c r="Z151">
+        <v>2.05</v>
+      </c>
+      <c r="AA151">
+        <v>3.5</v>
+      </c>
+      <c r="AB151">
+        <v>3.25</v>
+      </c>
+      <c r="AC151">
+        <v>1.02</v>
+      </c>
+      <c r="AD151">
+        <v>19</v>
+      </c>
+      <c r="AE151">
+        <v>1.18</v>
+      </c>
+      <c r="AF151">
+        <v>5</v>
+      </c>
+      <c r="AG151">
+        <v>1.6</v>
+      </c>
+      <c r="AH151">
+        <v>2.2</v>
+      </c>
+      <c r="AI151">
+        <v>1.5</v>
+      </c>
+      <c r="AJ151">
+        <v>2.5</v>
+      </c>
+      <c r="AK151">
+        <v>1.36</v>
+      </c>
+      <c r="AL151">
+        <v>1.22</v>
+      </c>
+      <c r="AM151">
+        <v>1.75</v>
+      </c>
+      <c r="AN151">
+        <v>2.11</v>
+      </c>
+      <c r="AO151">
+        <v>1.33</v>
+      </c>
+      <c r="AP151">
+        <v>2.2</v>
+      </c>
+      <c r="AQ151">
+        <v>1.2</v>
+      </c>
+      <c r="AR151">
+        <v>1.45</v>
+      </c>
+      <c r="AS151">
+        <v>1.38</v>
+      </c>
+      <c r="AT151">
+        <v>2.83</v>
+      </c>
+      <c r="AU151">
+        <v>2</v>
+      </c>
+      <c r="AV151">
+        <v>0</v>
+      </c>
+      <c r="AW151">
+        <v>3</v>
+      </c>
+      <c r="AX151">
+        <v>0</v>
+      </c>
+      <c r="AY151">
+        <v>5</v>
+      </c>
+      <c r="AZ151">
+        <v>0</v>
+      </c>
+      <c r="BA151">
+        <v>5</v>
+      </c>
+      <c r="BB151">
+        <v>2</v>
+      </c>
+      <c r="BC151">
+        <v>7</v>
+      </c>
+      <c r="BD151">
+        <v>1.73</v>
+      </c>
+      <c r="BE151">
+        <v>8.5</v>
+      </c>
+      <c r="BF151">
+        <v>2.4</v>
+      </c>
+      <c r="BG151">
+        <v>1.1</v>
+      </c>
+      <c r="BH151">
+        <v>5.35</v>
+      </c>
+      <c r="BI151">
+        <v>1.29</v>
+      </c>
+      <c r="BJ151">
+        <v>3.45</v>
+      </c>
+      <c r="BK151">
+        <v>1.5</v>
+      </c>
+      <c r="BL151">
+        <v>2.45</v>
+      </c>
+      <c r="BM151">
+        <v>1.8</v>
+      </c>
+      <c r="BN151">
+        <v>1.91</v>
+      </c>
+      <c r="BO151">
+        <v>2.43</v>
+      </c>
+      <c r="BP151">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="276">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -587,6 +587,9 @@
   </si>
   <si>
     <t>['18', '45+1', '72', '78']</t>
+  </si>
+  <si>
+    <t>['19', '38', '72', '74', '79', '84']</t>
   </si>
   <si>
     <t>['39', '90+2']</t>
@@ -1200,7 +1203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP151"/>
+  <dimension ref="A1:BP152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1459,7 +1462,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1665,7 +1668,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -2077,7 +2080,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2283,7 +2286,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2776,7 +2779,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ8">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3185,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ10">
         <v>1.33</v>
@@ -3313,7 +3316,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3519,7 +3522,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q12">
         <v>5.5</v>
@@ -4137,7 +4140,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q15">
         <v>2.95</v>
@@ -4343,7 +4346,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4549,7 +4552,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4630,7 +4633,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR17">
         <v>0.83</v>
@@ -4755,7 +4758,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5373,7 +5376,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5785,7 +5788,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5991,7 +5994,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6403,7 +6406,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6609,7 +6612,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -7021,7 +7024,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q29">
         <v>3.6</v>
@@ -7227,7 +7230,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7845,7 +7848,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -8051,7 +8054,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8129,7 +8132,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ34">
         <v>1.89</v>
@@ -8257,7 +8260,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8875,7 +8878,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q38">
         <v>2.54</v>
@@ -9081,7 +9084,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9162,7 +9165,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR39">
         <v>1.7</v>
@@ -9699,7 +9702,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -10729,7 +10732,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -11013,7 +11016,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ48">
         <v>1.1</v>
@@ -11141,7 +11144,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q49">
         <v>4.5</v>
@@ -11553,7 +11556,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11759,7 +11762,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -12171,7 +12174,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12377,7 +12380,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12664,7 +12667,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ56">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR56">
         <v>1.62</v>
@@ -12995,7 +12998,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13201,7 +13204,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13407,7 +13410,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13819,7 +13822,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q62">
         <v>1.67</v>
@@ -14025,7 +14028,7 @@
         <v>116</v>
       </c>
       <c r="P63" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14231,7 +14234,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14721,7 +14724,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ66">
         <v>1.22</v>
@@ -14849,7 +14852,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -15055,7 +15058,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15879,7 +15882,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16085,7 +16088,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16166,7 +16169,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ73">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR73">
         <v>1.73</v>
@@ -16291,7 +16294,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16497,7 +16500,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16575,7 +16578,7 @@
         <v>2.5</v>
       </c>
       <c r="AP75">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ75">
         <v>2</v>
@@ -16909,7 +16912,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -17321,7 +17324,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17527,7 +17530,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q80">
         <v>2.62</v>
@@ -17939,7 +17942,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18557,7 +18560,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18635,7 +18638,7 @@
         <v>0.2</v>
       </c>
       <c r="AP85">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ85">
         <v>0.44</v>
@@ -18763,7 +18766,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -18969,7 +18972,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19175,7 +19178,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19793,7 +19796,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -19999,7 +20002,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20080,7 +20083,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ92">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR92">
         <v>1.44</v>
@@ -20205,7 +20208,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q93">
         <v>2.79</v>
@@ -20411,7 +20414,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20617,7 +20620,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -21029,7 +21032,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -21235,7 +21238,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21441,7 +21444,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21647,7 +21650,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21853,7 +21856,7 @@
         <v>117</v>
       </c>
       <c r="P101" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -22137,7 +22140,7 @@
         <v>2</v>
       </c>
       <c r="AP102">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ102">
         <v>1.9</v>
@@ -22677,7 +22680,7 @@
         <v>116</v>
       </c>
       <c r="P105" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q105">
         <v>2.75</v>
@@ -22758,7 +22761,7 @@
         <v>1</v>
       </c>
       <c r="AQ105">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR105">
         <v>1.31</v>
@@ -22883,7 +22886,7 @@
         <v>98</v>
       </c>
       <c r="P106" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23089,7 +23092,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23501,7 +23504,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23707,7 +23710,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -24119,7 +24122,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q112">
         <v>2.95</v>
@@ -24325,7 +24328,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q113">
         <v>2.63</v>
@@ -24531,7 +24534,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -24943,7 +24946,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -25149,7 +25152,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25433,7 +25436,7 @@
         <v>1.14</v>
       </c>
       <c r="AP118">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ118">
         <v>0.89</v>
@@ -25561,7 +25564,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q119">
         <v>4.2</v>
@@ -25767,7 +25770,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q120">
         <v>1.75</v>
@@ -25973,7 +25976,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q121">
         <v>2.63</v>
@@ -26591,7 +26594,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26797,7 +26800,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27003,7 +27006,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27084,7 +27087,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ126">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR126">
         <v>1.29</v>
@@ -27415,7 +27418,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -28033,7 +28036,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28111,7 +28114,7 @@
         <v>1.14</v>
       </c>
       <c r="AP131">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ131">
         <v>0.9</v>
@@ -28445,7 +28448,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28857,7 +28860,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29063,7 +29066,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q136">
         <v>2.38</v>
@@ -29475,7 +29478,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q138">
         <v>2.7</v>
@@ -29887,7 +29890,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q140">
         <v>3.52</v>
@@ -30380,7 +30383,7 @@
         <v>1</v>
       </c>
       <c r="AQ142">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR142">
         <v>1.22</v>
@@ -30505,7 +30508,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q143">
         <v>3.4</v>
@@ -30917,7 +30920,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q145">
         <v>2.65</v>
@@ -31123,7 +31126,7 @@
         <v>87</v>
       </c>
       <c r="P146" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31329,7 +31332,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q147">
         <v>2.2</v>
@@ -31741,7 +31744,7 @@
         <v>87</v>
       </c>
       <c r="P149" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q149">
         <v>2.83</v>
@@ -31947,7 +31950,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32310,6 +32313,212 @@
       </c>
       <c r="BP151">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7295121</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F152">
+        <v>20</v>
+      </c>
+      <c r="G152" t="s">
+        <v>78</v>
+      </c>
+      <c r="H152" t="s">
+        <v>81</v>
+      </c>
+      <c r="I152">
+        <v>2</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>2</v>
+      </c>
+      <c r="L152">
+        <v>6</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>6</v>
+      </c>
+      <c r="O152" t="s">
+        <v>191</v>
+      </c>
+      <c r="P152" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q152">
+        <v>1.65</v>
+      </c>
+      <c r="R152">
+        <v>2.9</v>
+      </c>
+      <c r="S152">
+        <v>6.25</v>
+      </c>
+      <c r="T152">
+        <v>1.15</v>
+      </c>
+      <c r="U152">
+        <v>4.75</v>
+      </c>
+      <c r="V152">
+        <v>1.8</v>
+      </c>
+      <c r="W152">
+        <v>1.91</v>
+      </c>
+      <c r="X152">
+        <v>3.4</v>
+      </c>
+      <c r="Y152">
+        <v>1.29</v>
+      </c>
+      <c r="Z152">
+        <v>1.25</v>
+      </c>
+      <c r="AA152">
+        <v>5.5</v>
+      </c>
+      <c r="AB152">
+        <v>7</v>
+      </c>
+      <c r="AC152">
+        <v>1.01</v>
+      </c>
+      <c r="AD152">
+        <v>38</v>
+      </c>
+      <c r="AE152">
+        <v>1.09</v>
+      </c>
+      <c r="AF152">
+        <v>7.7</v>
+      </c>
+      <c r="AG152">
+        <v>1.32</v>
+      </c>
+      <c r="AH152">
+        <v>3.09</v>
+      </c>
+      <c r="AI152">
+        <v>1.52</v>
+      </c>
+      <c r="AJ152">
+        <v>2.4</v>
+      </c>
+      <c r="AK152">
+        <v>1.1</v>
+      </c>
+      <c r="AL152">
+        <v>1.14</v>
+      </c>
+      <c r="AM152">
+        <v>3.2</v>
+      </c>
+      <c r="AN152">
+        <v>2.33</v>
+      </c>
+      <c r="AO152">
+        <v>1.33</v>
+      </c>
+      <c r="AP152">
+        <v>2.4</v>
+      </c>
+      <c r="AQ152">
+        <v>1.2</v>
+      </c>
+      <c r="AR152">
+        <v>1.75</v>
+      </c>
+      <c r="AS152">
+        <v>1.35</v>
+      </c>
+      <c r="AT152">
+        <v>3.1</v>
+      </c>
+      <c r="AU152">
+        <v>9</v>
+      </c>
+      <c r="AV152">
+        <v>6</v>
+      </c>
+      <c r="AW152">
+        <v>1</v>
+      </c>
+      <c r="AX152">
+        <v>4</v>
+      </c>
+      <c r="AY152">
+        <v>10</v>
+      </c>
+      <c r="AZ152">
+        <v>10</v>
+      </c>
+      <c r="BA152">
+        <v>3</v>
+      </c>
+      <c r="BB152">
+        <v>9</v>
+      </c>
+      <c r="BC152">
+        <v>12</v>
+      </c>
+      <c r="BD152">
+        <v>1.29</v>
+      </c>
+      <c r="BE152">
+        <v>10</v>
+      </c>
+      <c r="BF152">
+        <v>4.33</v>
+      </c>
+      <c r="BG152">
+        <v>1.12</v>
+      </c>
+      <c r="BH152">
+        <v>5.25</v>
+      </c>
+      <c r="BI152">
+        <v>1.25</v>
+      </c>
+      <c r="BJ152">
+        <v>3.6</v>
+      </c>
+      <c r="BK152">
+        <v>1.4</v>
+      </c>
+      <c r="BL152">
+        <v>2.7</v>
+      </c>
+      <c r="BM152">
+        <v>2</v>
+      </c>
+      <c r="BN152">
+        <v>1.8</v>
+      </c>
+      <c r="BO152">
+        <v>2</v>
+      </c>
+      <c r="BP152">
+        <v>1.73</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="281">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,18 @@
     <t>['19', '38', '72', '74', '79', '84']</t>
   </si>
   <si>
+    <t>['22', '68', '73']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['6', '36', '58', '61', '82']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -686,9 +698,6 @@
   </si>
   <si>
     <t>['38', '47', '62']</t>
-  </si>
-  <si>
-    <t>['90+5']</t>
   </si>
   <si>
     <t>['5', '8', '38', '90+1']</t>
@@ -842,6 +851,12 @@
   </si>
   <si>
     <t>['80']</t>
+  </si>
+  <si>
+    <t>['29', '74']</t>
+  </si>
+  <si>
+    <t>['26', '65', '85']</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP152"/>
+  <dimension ref="A1:BP158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1462,7 +1477,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1540,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ2">
         <v>0.9</v>
@@ -1668,7 +1683,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1952,10 +1967,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ4">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2080,7 +2095,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2286,7 +2301,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2364,10 +2379,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ6">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2776,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ8">
         <v>1.2</v>
@@ -2985,7 +3000,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3316,7 +3331,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3522,7 +3537,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q12">
         <v>5.5</v>
@@ -4015,7 +4030,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ14">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4140,7 +4155,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q15">
         <v>2.95</v>
@@ -4218,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ15">
         <v>1.2</v>
@@ -4346,7 +4361,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4427,7 +4442,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ16">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4552,7 +4567,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4758,7 +4773,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4836,7 +4851,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ18">
         <v>1.9</v>
@@ -5248,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ20">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR20">
         <v>2.32</v>
@@ -5376,7 +5391,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5454,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ21">
         <v>0.44</v>
@@ -5663,7 +5678,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR22">
         <v>1.3</v>
@@ -5788,7 +5803,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5866,7 +5881,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ23">
         <v>2</v>
@@ -5994,7 +6009,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6075,7 +6090,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ24">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>2.18</v>
@@ -6281,7 +6296,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ25">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR25">
         <v>2.34</v>
@@ -6406,7 +6421,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6484,7 +6499,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ26">
         <v>0.89</v>
@@ -6612,7 +6627,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6693,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.08</v>
@@ -6899,7 +6914,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ28">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR28">
         <v>1.11</v>
@@ -7024,7 +7039,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q29">
         <v>3.6</v>
@@ -7102,10 +7117,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ29">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR29">
         <v>0.59</v>
@@ -7230,7 +7245,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7720,10 +7735,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ32">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR32">
         <v>1.22</v>
@@ -7848,7 +7863,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7926,7 +7941,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ33">
         <v>1.2</v>
@@ -8054,7 +8069,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8260,7 +8275,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8544,7 +8559,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ36">
         <v>0.9</v>
@@ -8750,10 +8765,10 @@
         <v>0.33</v>
       </c>
       <c r="AP37">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ37">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR37">
         <v>1.56</v>
@@ -8878,7 +8893,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q38">
         <v>2.54</v>
@@ -8959,7 +8974,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ38">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR38">
         <v>1.19</v>
@@ -9084,7 +9099,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9702,7 +9717,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9780,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ42">
         <v>1.33</v>
@@ -9989,7 +10004,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ43">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR43">
         <v>1.98</v>
@@ -10192,7 +10207,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ44">
         <v>2</v>
@@ -10401,7 +10416,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR45">
         <v>1.51</v>
@@ -10732,7 +10747,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10810,10 +10825,10 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ47">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR47">
         <v>1.24</v>
@@ -11019,7 +11034,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ48">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -11144,7 +11159,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q49">
         <v>4.5</v>
@@ -11222,7 +11237,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ49">
         <v>1.89</v>
@@ -11428,10 +11443,10 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ50">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR50">
         <v>1.33</v>
@@ -11556,7 +11571,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11634,10 +11649,10 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ51">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR51">
         <v>1.86</v>
@@ -11762,7 +11777,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -12174,7 +12189,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12255,7 +12270,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ54">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR54">
         <v>1.82</v>
@@ -12380,7 +12395,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12664,7 +12679,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ56">
         <v>1.2</v>
@@ -12998,7 +13013,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13076,7 +13091,7 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ58">
         <v>1.9</v>
@@ -13204,7 +13219,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13282,7 +13297,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ59">
         <v>1.89</v>
@@ -13410,7 +13425,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13697,7 +13712,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ61">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>1.32</v>
@@ -13822,7 +13837,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="Q62">
         <v>1.67</v>
@@ -14028,7 +14043,7 @@
         <v>116</v>
       </c>
       <c r="P63" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14106,7 +14121,7 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ63">
         <v>1.2</v>
@@ -14234,7 +14249,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14315,7 +14330,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ64">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR64">
         <v>1.5</v>
@@ -14518,10 +14533,10 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ65">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -14727,7 +14742,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ66">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR66">
         <v>1.51</v>
@@ -14852,7 +14867,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -15058,7 +15073,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15136,7 +15151,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ68">
         <v>1.33</v>
@@ -15882,7 +15897,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -15960,10 +15975,10 @@
         <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ72">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR72">
         <v>1.23</v>
@@ -16088,7 +16103,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16166,7 +16181,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ73">
         <v>1.2</v>
@@ -16294,7 +16309,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16375,7 +16390,7 @@
         <v>1</v>
       </c>
       <c r="AQ74">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR74">
         <v>1.59</v>
@@ -16500,7 +16515,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16787,7 +16802,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ76">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR76">
         <v>1.37</v>
@@ -16912,7 +16927,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -16993,7 +17008,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ77">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR77">
         <v>1.14</v>
@@ -17196,7 +17211,7 @@
         <v>0.25</v>
       </c>
       <c r="AP78">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ78">
         <v>0.44</v>
@@ -17324,7 +17339,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17402,7 +17417,7 @@
         <v>2.25</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ79">
         <v>1.2</v>
@@ -17530,7 +17545,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q80">
         <v>2.62</v>
@@ -17611,7 +17626,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ80">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR80">
         <v>1.56</v>
@@ -17814,10 +17829,10 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ81">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR81">
         <v>1.46</v>
@@ -17942,7 +17957,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18229,7 +18244,7 @@
         <v>1</v>
       </c>
       <c r="AQ83">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR83">
         <v>1.53</v>
@@ -18435,7 +18450,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ84">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR84">
         <v>1.93</v>
@@ -18560,7 +18575,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18766,7 +18781,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -18972,7 +18987,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19050,7 +19065,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ87">
         <v>1.33</v>
@@ -19178,7 +19193,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19668,7 +19683,7 @@
         <v>2.4</v>
       </c>
       <c r="AP90">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ90">
         <v>2</v>
@@ -19796,7 +19811,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20002,7 +20017,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20208,7 +20223,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="Q93">
         <v>2.79</v>
@@ -20289,7 +20304,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ93">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR93">
         <v>1.43</v>
@@ -20414,7 +20429,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20492,10 +20507,10 @@
         <v>0.86</v>
       </c>
       <c r="AP94">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ94">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR94">
         <v>1.46</v>
@@ -20620,7 +20635,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20698,7 +20713,7 @@
         <v>2.2</v>
       </c>
       <c r="AP95">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ95">
         <v>2</v>
@@ -20907,7 +20922,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ96">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR96">
         <v>1.97</v>
@@ -21032,7 +21047,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -21238,7 +21253,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21316,10 +21331,10 @@
         <v>0.67</v>
       </c>
       <c r="AP98">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ98">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR98">
         <v>1.11</v>
@@ -21444,7 +21459,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21650,7 +21665,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21728,10 +21743,10 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ100">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR100">
         <v>1.55</v>
@@ -21856,7 +21871,7 @@
         <v>117</v>
       </c>
       <c r="P101" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -21934,10 +21949,10 @@
         <v>0.25</v>
       </c>
       <c r="AP101">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ101">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR101">
         <v>1.41</v>
@@ -22346,7 +22361,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ103">
         <v>1.2</v>
@@ -22555,7 +22570,7 @@
         <v>1</v>
       </c>
       <c r="AQ104">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR104">
         <v>1.2</v>
@@ -22680,7 +22695,7 @@
         <v>116</v>
       </c>
       <c r="P105" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q105">
         <v>2.75</v>
@@ -22758,7 +22773,7 @@
         <v>1.17</v>
       </c>
       <c r="AP105">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ105">
         <v>1.2</v>
@@ -22886,7 +22901,7 @@
         <v>98</v>
       </c>
       <c r="P106" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23092,7 +23107,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23504,7 +23519,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23585,7 +23600,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ109">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR109">
         <v>1.43</v>
@@ -23710,7 +23725,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -23791,7 +23806,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ110">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR110">
         <v>1.6</v>
@@ -24122,7 +24137,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q112">
         <v>2.95</v>
@@ -24200,10 +24215,10 @@
         <v>1.13</v>
       </c>
       <c r="AP112">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ112">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR112">
         <v>1.21</v>
@@ -24328,7 +24343,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q113">
         <v>2.63</v>
@@ -24406,10 +24421,10 @@
         <v>1.43</v>
       </c>
       <c r="AP113">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ113">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR113">
         <v>1.13</v>
@@ -24534,7 +24549,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -24612,7 +24627,7 @@
         <v>2.57</v>
       </c>
       <c r="AP114">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ114">
         <v>2</v>
@@ -24818,10 +24833,10 @@
         <v>0.71</v>
       </c>
       <c r="AP115">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ115">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR115">
         <v>1.52</v>
@@ -24946,7 +24961,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -25152,7 +25167,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25564,7 +25579,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q119">
         <v>4.2</v>
@@ -25770,7 +25785,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q120">
         <v>1.75</v>
@@ -25848,7 +25863,7 @@
         <v>2</v>
       </c>
       <c r="AP120">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ120">
         <v>2</v>
@@ -25976,7 +25991,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q121">
         <v>2.63</v>
@@ -26057,7 +26072,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ121">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR121">
         <v>1.59</v>
@@ -26260,7 +26275,7 @@
         <v>1.83</v>
       </c>
       <c r="AP122">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ122">
         <v>1.33</v>
@@ -26469,7 +26484,7 @@
         <v>1</v>
       </c>
       <c r="AQ123">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR123">
         <v>1.15</v>
@@ -26594,7 +26609,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26800,7 +26815,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -26881,7 +26896,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ125">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR125">
         <v>1.26</v>
@@ -27006,7 +27021,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27084,7 +27099,7 @@
         <v>1.43</v>
       </c>
       <c r="AP126">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ126">
         <v>1.2</v>
@@ -27290,10 +27305,10 @@
         <v>1.25</v>
       </c>
       <c r="AP127">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ127">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR127">
         <v>1.22</v>
@@ -27418,7 +27433,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27496,7 +27511,7 @@
         <v>1.33</v>
       </c>
       <c r="AP128">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ128">
         <v>0.9</v>
@@ -27705,7 +27720,7 @@
         <v>1</v>
       </c>
       <c r="AQ129">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR129">
         <v>1.47</v>
@@ -27908,7 +27923,7 @@
         <v>2</v>
       </c>
       <c r="AP130">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ130">
         <v>1.89</v>
@@ -28036,7 +28051,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28448,7 +28463,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28860,7 +28875,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29066,7 +29081,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q136">
         <v>2.38</v>
@@ -29353,7 +29368,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ137">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR137">
         <v>1.4</v>
@@ -29478,7 +29493,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q138">
         <v>2.7</v>
@@ -29556,10 +29571,10 @@
         <v>1.11</v>
       </c>
       <c r="AP138">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ138">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR138">
         <v>1.48</v>
@@ -29762,10 +29777,10 @@
         <v>1.33</v>
       </c>
       <c r="AP139">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ139">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR139">
         <v>1.24</v>
@@ -29890,7 +29905,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q140">
         <v>3.52</v>
@@ -29968,7 +29983,7 @@
         <v>2.11</v>
       </c>
       <c r="AP140">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ140">
         <v>2</v>
@@ -30177,7 +30192,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ141">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR141">
         <v>1.48</v>
@@ -30380,7 +30395,7 @@
         <v>1.38</v>
       </c>
       <c r="AP142">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ142">
         <v>1.2</v>
@@ -30508,7 +30523,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q143">
         <v>3.4</v>
@@ -30586,7 +30601,7 @@
         <v>1.75</v>
       </c>
       <c r="AP143">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ143">
         <v>1.89</v>
@@ -30920,7 +30935,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q145">
         <v>2.65</v>
@@ -31126,7 +31141,7 @@
         <v>87</v>
       </c>
       <c r="P146" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31332,7 +31347,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q147">
         <v>2.2</v>
@@ -31744,7 +31759,7 @@
         <v>87</v>
       </c>
       <c r="P149" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q149">
         <v>2.83</v>
@@ -31825,7 +31840,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ149">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR149">
         <v>1.41</v>
@@ -31950,7 +31965,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32519,6 +32534,1242 @@
       </c>
       <c r="BP152">
         <v>1.73</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7295120</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45529.39583333334</v>
+      </c>
+      <c r="F153">
+        <v>20</v>
+      </c>
+      <c r="G153" t="s">
+        <v>74</v>
+      </c>
+      <c r="H153" t="s">
+        <v>73</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>1</v>
+      </c>
+      <c r="O153" t="s">
+        <v>87</v>
+      </c>
+      <c r="P153" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q153">
+        <v>2.5</v>
+      </c>
+      <c r="R153">
+        <v>2.15</v>
+      </c>
+      <c r="S153">
+        <v>3.9</v>
+      </c>
+      <c r="T153">
+        <v>1.35</v>
+      </c>
+      <c r="U153">
+        <v>2.95</v>
+      </c>
+      <c r="V153">
+        <v>2.5</v>
+      </c>
+      <c r="W153">
+        <v>1.45</v>
+      </c>
+      <c r="X153">
+        <v>6.25</v>
+      </c>
+      <c r="Y153">
+        <v>1.1</v>
+      </c>
+      <c r="Z153">
+        <v>1.85</v>
+      </c>
+      <c r="AA153">
+        <v>3.4</v>
+      </c>
+      <c r="AB153">
+        <v>3.5</v>
+      </c>
+      <c r="AC153">
+        <v>1.05</v>
+      </c>
+      <c r="AD153">
+        <v>9.5</v>
+      </c>
+      <c r="AE153">
+        <v>1.25</v>
+      </c>
+      <c r="AF153">
+        <v>3.8</v>
+      </c>
+      <c r="AG153">
+        <v>1.7</v>
+      </c>
+      <c r="AH153">
+        <v>1.95</v>
+      </c>
+      <c r="AI153">
+        <v>1.62</v>
+      </c>
+      <c r="AJ153">
+        <v>2.1</v>
+      </c>
+      <c r="AK153">
+        <v>1.28</v>
+      </c>
+      <c r="AL153">
+        <v>1.3</v>
+      </c>
+      <c r="AM153">
+        <v>1.82</v>
+      </c>
+      <c r="AN153">
+        <v>0.89</v>
+      </c>
+      <c r="AO153">
+        <v>1.22</v>
+      </c>
+      <c r="AP153">
+        <v>0.8</v>
+      </c>
+      <c r="AQ153">
+        <v>1.4</v>
+      </c>
+      <c r="AR153">
+        <v>1.32</v>
+      </c>
+      <c r="AS153">
+        <v>1.23</v>
+      </c>
+      <c r="AT153">
+        <v>2.55</v>
+      </c>
+      <c r="AU153">
+        <v>3</v>
+      </c>
+      <c r="AV153">
+        <v>3</v>
+      </c>
+      <c r="AW153">
+        <v>9</v>
+      </c>
+      <c r="AX153">
+        <v>2</v>
+      </c>
+      <c r="AY153">
+        <v>12</v>
+      </c>
+      <c r="AZ153">
+        <v>5</v>
+      </c>
+      <c r="BA153">
+        <v>12</v>
+      </c>
+      <c r="BB153">
+        <v>0</v>
+      </c>
+      <c r="BC153">
+        <v>12</v>
+      </c>
+      <c r="BD153">
+        <v>1.57</v>
+      </c>
+      <c r="BE153">
+        <v>8.5</v>
+      </c>
+      <c r="BF153">
+        <v>2.75</v>
+      </c>
+      <c r="BG153">
+        <v>1.18</v>
+      </c>
+      <c r="BH153">
+        <v>4.5</v>
+      </c>
+      <c r="BI153">
+        <v>1.34</v>
+      </c>
+      <c r="BJ153">
+        <v>3.1</v>
+      </c>
+      <c r="BK153">
+        <v>1.61</v>
+      </c>
+      <c r="BL153">
+        <v>2.23</v>
+      </c>
+      <c r="BM153">
+        <v>2.02</v>
+      </c>
+      <c r="BN153">
+        <v>1.74</v>
+      </c>
+      <c r="BO153">
+        <v>2.7</v>
+      </c>
+      <c r="BP153">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7295115</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45529.5</v>
+      </c>
+      <c r="F154">
+        <v>20</v>
+      </c>
+      <c r="G154" t="s">
+        <v>72</v>
+      </c>
+      <c r="H154" t="s">
+        <v>80</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>3</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>3</v>
+      </c>
+      <c r="O154" t="s">
+        <v>192</v>
+      </c>
+      <c r="P154" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q154">
+        <v>1.83</v>
+      </c>
+      <c r="R154">
+        <v>2.65</v>
+      </c>
+      <c r="S154">
+        <v>6.5</v>
+      </c>
+      <c r="T154">
+        <v>1.28</v>
+      </c>
+      <c r="U154">
+        <v>3.4</v>
+      </c>
+      <c r="V154">
+        <v>2.25</v>
+      </c>
+      <c r="W154">
+        <v>1.57</v>
+      </c>
+      <c r="X154">
+        <v>5</v>
+      </c>
+      <c r="Y154">
+        <v>1.16</v>
+      </c>
+      <c r="Z154">
+        <v>1.33</v>
+      </c>
+      <c r="AA154">
+        <v>4.6</v>
+      </c>
+      <c r="AB154">
+        <v>6.5</v>
+      </c>
+      <c r="AC154">
+        <v>1.03</v>
+      </c>
+      <c r="AD154">
+        <v>11</v>
+      </c>
+      <c r="AE154">
+        <v>1.18</v>
+      </c>
+      <c r="AF154">
+        <v>4.75</v>
+      </c>
+      <c r="AG154">
+        <v>1.51</v>
+      </c>
+      <c r="AH154">
+        <v>2.39</v>
+      </c>
+      <c r="AI154">
+        <v>1.8</v>
+      </c>
+      <c r="AJ154">
+        <v>2</v>
+      </c>
+      <c r="AK154">
+        <v>1.02</v>
+      </c>
+      <c r="AL154">
+        <v>1.16</v>
+      </c>
+      <c r="AM154">
+        <v>3.1</v>
+      </c>
+      <c r="AN154">
+        <v>1.56</v>
+      </c>
+      <c r="AO154">
+        <v>1.5</v>
+      </c>
+      <c r="AP154">
+        <v>1.7</v>
+      </c>
+      <c r="AQ154">
+        <v>1.36</v>
+      </c>
+      <c r="AR154">
+        <v>1.72</v>
+      </c>
+      <c r="AS154">
+        <v>1.26</v>
+      </c>
+      <c r="AT154">
+        <v>2.98</v>
+      </c>
+      <c r="AU154">
+        <v>8</v>
+      </c>
+      <c r="AV154">
+        <v>5</v>
+      </c>
+      <c r="AW154">
+        <v>5</v>
+      </c>
+      <c r="AX154">
+        <v>4</v>
+      </c>
+      <c r="AY154">
+        <v>13</v>
+      </c>
+      <c r="AZ154">
+        <v>9</v>
+      </c>
+      <c r="BA154">
+        <v>3</v>
+      </c>
+      <c r="BB154">
+        <v>6</v>
+      </c>
+      <c r="BC154">
+        <v>9</v>
+      </c>
+      <c r="BD154">
+        <v>1.2</v>
+      </c>
+      <c r="BE154">
+        <v>11</v>
+      </c>
+      <c r="BF154">
+        <v>5</v>
+      </c>
+      <c r="BG154">
+        <v>1.13</v>
+      </c>
+      <c r="BH154">
+        <v>5</v>
+      </c>
+      <c r="BI154">
+        <v>1.24</v>
+      </c>
+      <c r="BJ154">
+        <v>3.85</v>
+      </c>
+      <c r="BK154">
+        <v>1.43</v>
+      </c>
+      <c r="BL154">
+        <v>2.7</v>
+      </c>
+      <c r="BM154">
+        <v>1.77</v>
+      </c>
+      <c r="BN154">
+        <v>1.95</v>
+      </c>
+      <c r="BO154">
+        <v>2.2</v>
+      </c>
+      <c r="BP154">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7295117</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45529.5</v>
+      </c>
+      <c r="F155">
+        <v>20</v>
+      </c>
+      <c r="G155" t="s">
+        <v>85</v>
+      </c>
+      <c r="H155" t="s">
+        <v>79</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>1</v>
+      </c>
+      <c r="O155" t="s">
+        <v>193</v>
+      </c>
+      <c r="P155" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q155">
+        <v>2.15</v>
+      </c>
+      <c r="R155">
+        <v>2.55</v>
+      </c>
+      <c r="S155">
+        <v>4.5</v>
+      </c>
+      <c r="T155">
+        <v>1.22</v>
+      </c>
+      <c r="U155">
+        <v>3.7</v>
+      </c>
+      <c r="V155">
+        <v>2.1</v>
+      </c>
+      <c r="W155">
+        <v>1.65</v>
+      </c>
+      <c r="X155">
+        <v>4.5</v>
+      </c>
+      <c r="Y155">
+        <v>1.19</v>
+      </c>
+      <c r="Z155">
+        <v>1.6</v>
+      </c>
+      <c r="AA155">
+        <v>4</v>
+      </c>
+      <c r="AB155">
+        <v>4.2</v>
+      </c>
+      <c r="AC155">
+        <v>1.01</v>
+      </c>
+      <c r="AD155">
+        <v>23</v>
+      </c>
+      <c r="AE155">
+        <v>1.14</v>
+      </c>
+      <c r="AF155">
+        <v>5.5</v>
+      </c>
+      <c r="AG155">
+        <v>1.4</v>
+      </c>
+      <c r="AH155">
+        <v>2.73</v>
+      </c>
+      <c r="AI155">
+        <v>1.5</v>
+      </c>
+      <c r="AJ155">
+        <v>2.6</v>
+      </c>
+      <c r="AK155">
+        <v>1.2</v>
+      </c>
+      <c r="AL155">
+        <v>1.18</v>
+      </c>
+      <c r="AM155">
+        <v>2.3</v>
+      </c>
+      <c r="AN155">
+        <v>1.44</v>
+      </c>
+      <c r="AO155">
+        <v>0.67</v>
+      </c>
+      <c r="AP155">
+        <v>1.6</v>
+      </c>
+      <c r="AQ155">
+        <v>0.6</v>
+      </c>
+      <c r="AR155">
+        <v>1.53</v>
+      </c>
+      <c r="AS155">
+        <v>0.96</v>
+      </c>
+      <c r="AT155">
+        <v>2.49</v>
+      </c>
+      <c r="AU155">
+        <v>5</v>
+      </c>
+      <c r="AV155">
+        <v>0</v>
+      </c>
+      <c r="AW155">
+        <v>11</v>
+      </c>
+      <c r="AX155">
+        <v>6</v>
+      </c>
+      <c r="AY155">
+        <v>16</v>
+      </c>
+      <c r="AZ155">
+        <v>6</v>
+      </c>
+      <c r="BA155">
+        <v>9</v>
+      </c>
+      <c r="BB155">
+        <v>4</v>
+      </c>
+      <c r="BC155">
+        <v>13</v>
+      </c>
+      <c r="BD155">
+        <v>1.33</v>
+      </c>
+      <c r="BE155">
+        <v>10</v>
+      </c>
+      <c r="BF155">
+        <v>3.75</v>
+      </c>
+      <c r="BG155">
+        <v>1.13</v>
+      </c>
+      <c r="BH155">
+        <v>5</v>
+      </c>
+      <c r="BI155">
+        <v>1.22</v>
+      </c>
+      <c r="BJ155">
+        <v>4</v>
+      </c>
+      <c r="BK155">
+        <v>1.4</v>
+      </c>
+      <c r="BL155">
+        <v>2.8</v>
+      </c>
+      <c r="BM155">
+        <v>1.68</v>
+      </c>
+      <c r="BN155">
+        <v>2.1</v>
+      </c>
+      <c r="BO155">
+        <v>2.12</v>
+      </c>
+      <c r="BP155">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7295118</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45529.5</v>
+      </c>
+      <c r="F156">
+        <v>20</v>
+      </c>
+      <c r="G156" t="s">
+        <v>76</v>
+      </c>
+      <c r="H156" t="s">
+        <v>82</v>
+      </c>
+      <c r="I156">
+        <v>2</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>3</v>
+      </c>
+      <c r="L156">
+        <v>5</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156">
+        <v>7</v>
+      </c>
+      <c r="O156" t="s">
+        <v>194</v>
+      </c>
+      <c r="P156" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q156">
+        <v>2.1</v>
+      </c>
+      <c r="R156">
+        <v>2.6</v>
+      </c>
+      <c r="S156">
+        <v>4.5</v>
+      </c>
+      <c r="T156">
+        <v>1.22</v>
+      </c>
+      <c r="U156">
+        <v>3.7</v>
+      </c>
+      <c r="V156">
+        <v>2.1</v>
+      </c>
+      <c r="W156">
+        <v>1.67</v>
+      </c>
+      <c r="X156">
+        <v>4.33</v>
+      </c>
+      <c r="Y156">
+        <v>1.2</v>
+      </c>
+      <c r="Z156">
+        <v>1.61</v>
+      </c>
+      <c r="AA156">
+        <v>4</v>
+      </c>
+      <c r="AB156">
+        <v>3.9</v>
+      </c>
+      <c r="AC156">
+        <v>1.01</v>
+      </c>
+      <c r="AD156">
+        <v>26</v>
+      </c>
+      <c r="AE156">
+        <v>1.13</v>
+      </c>
+      <c r="AF156">
+        <v>5.75</v>
+      </c>
+      <c r="AG156">
+        <v>1.4</v>
+      </c>
+      <c r="AH156">
+        <v>2.73</v>
+      </c>
+      <c r="AI156">
+        <v>1.47</v>
+      </c>
+      <c r="AJ156">
+        <v>2.65</v>
+      </c>
+      <c r="AK156">
+        <v>1.2</v>
+      </c>
+      <c r="AL156">
+        <v>1.17</v>
+      </c>
+      <c r="AM156">
+        <v>2.3</v>
+      </c>
+      <c r="AN156">
+        <v>2.1</v>
+      </c>
+      <c r="AO156">
+        <v>1.1</v>
+      </c>
+      <c r="AP156">
+        <v>2.18</v>
+      </c>
+      <c r="AQ156">
+        <v>1</v>
+      </c>
+      <c r="AR156">
+        <v>1.5</v>
+      </c>
+      <c r="AS156">
+        <v>1.29</v>
+      </c>
+      <c r="AT156">
+        <v>2.79</v>
+      </c>
+      <c r="AU156">
+        <v>12</v>
+      </c>
+      <c r="AV156">
+        <v>4</v>
+      </c>
+      <c r="AW156">
+        <v>9</v>
+      </c>
+      <c r="AX156">
+        <v>4</v>
+      </c>
+      <c r="AY156">
+        <v>21</v>
+      </c>
+      <c r="AZ156">
+        <v>8</v>
+      </c>
+      <c r="BA156">
+        <v>9</v>
+      </c>
+      <c r="BB156">
+        <v>2</v>
+      </c>
+      <c r="BC156">
+        <v>11</v>
+      </c>
+      <c r="BD156">
+        <v>1.4</v>
+      </c>
+      <c r="BE156">
+        <v>9.5</v>
+      </c>
+      <c r="BF156">
+        <v>3.25</v>
+      </c>
+      <c r="BG156">
+        <v>1.12</v>
+      </c>
+      <c r="BH156">
+        <v>5.25</v>
+      </c>
+      <c r="BI156">
+        <v>1.25</v>
+      </c>
+      <c r="BJ156">
+        <v>3.6</v>
+      </c>
+      <c r="BK156">
+        <v>1.32</v>
+      </c>
+      <c r="BL156">
+        <v>3.2</v>
+      </c>
+      <c r="BM156">
+        <v>1.77</v>
+      </c>
+      <c r="BN156">
+        <v>1.95</v>
+      </c>
+      <c r="BO156">
+        <v>2.05</v>
+      </c>
+      <c r="BP156">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7295119</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45529.5</v>
+      </c>
+      <c r="F157">
+        <v>20</v>
+      </c>
+      <c r="G157" t="s">
+        <v>83</v>
+      </c>
+      <c r="H157" t="s">
+        <v>71</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>1</v>
+      </c>
+      <c r="O157" t="s">
+        <v>195</v>
+      </c>
+      <c r="P157" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q157">
+        <v>3.4</v>
+      </c>
+      <c r="R157">
+        <v>2.05</v>
+      </c>
+      <c r="S157">
+        <v>2.9</v>
+      </c>
+      <c r="T157">
+        <v>1.42</v>
+      </c>
+      <c r="U157">
+        <v>2.62</v>
+      </c>
+      <c r="V157">
+        <v>2.9</v>
+      </c>
+      <c r="W157">
+        <v>1.36</v>
+      </c>
+      <c r="X157">
+        <v>7</v>
+      </c>
+      <c r="Y157">
+        <v>1.08</v>
+      </c>
+      <c r="Z157">
+        <v>2.75</v>
+      </c>
+      <c r="AA157">
+        <v>3.1</v>
+      </c>
+      <c r="AB157">
+        <v>2.3</v>
+      </c>
+      <c r="AC157">
+        <v>1.06</v>
+      </c>
+      <c r="AD157">
+        <v>8.5</v>
+      </c>
+      <c r="AE157">
+        <v>1.35</v>
+      </c>
+      <c r="AF157">
+        <v>3.1</v>
+      </c>
+      <c r="AG157">
+        <v>1.95</v>
+      </c>
+      <c r="AH157">
+        <v>1.7</v>
+      </c>
+      <c r="AI157">
+        <v>1.75</v>
+      </c>
+      <c r="AJ157">
+        <v>1.95</v>
+      </c>
+      <c r="AK157">
+        <v>1.55</v>
+      </c>
+      <c r="AL157">
+        <v>1.3</v>
+      </c>
+      <c r="AM157">
+        <v>1.4</v>
+      </c>
+      <c r="AN157">
+        <v>1</v>
+      </c>
+      <c r="AO157">
+        <v>1.89</v>
+      </c>
+      <c r="AP157">
+        <v>1.2</v>
+      </c>
+      <c r="AQ157">
+        <v>1.7</v>
+      </c>
+      <c r="AR157">
+        <v>1.29</v>
+      </c>
+      <c r="AS157">
+        <v>1.21</v>
+      </c>
+      <c r="AT157">
+        <v>2.5</v>
+      </c>
+      <c r="AU157">
+        <v>4</v>
+      </c>
+      <c r="AV157">
+        <v>3</v>
+      </c>
+      <c r="AW157">
+        <v>7</v>
+      </c>
+      <c r="AX157">
+        <v>3</v>
+      </c>
+      <c r="AY157">
+        <v>11</v>
+      </c>
+      <c r="AZ157">
+        <v>6</v>
+      </c>
+      <c r="BA157">
+        <v>5</v>
+      </c>
+      <c r="BB157">
+        <v>3</v>
+      </c>
+      <c r="BC157">
+        <v>8</v>
+      </c>
+      <c r="BD157">
+        <v>2.25</v>
+      </c>
+      <c r="BE157">
+        <v>8.5</v>
+      </c>
+      <c r="BF157">
+        <v>1.8</v>
+      </c>
+      <c r="BG157">
+        <v>1.18</v>
+      </c>
+      <c r="BH157">
+        <v>4.5</v>
+      </c>
+      <c r="BI157">
+        <v>1.3</v>
+      </c>
+      <c r="BJ157">
+        <v>3.3</v>
+      </c>
+      <c r="BK157">
+        <v>1.55</v>
+      </c>
+      <c r="BL157">
+        <v>2.38</v>
+      </c>
+      <c r="BM157">
+        <v>1.98</v>
+      </c>
+      <c r="BN157">
+        <v>1.82</v>
+      </c>
+      <c r="BO157">
+        <v>2.5</v>
+      </c>
+      <c r="BP157">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7295116</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45529.59375</v>
+      </c>
+      <c r="F158">
+        <v>20</v>
+      </c>
+      <c r="G158" t="s">
+        <v>70</v>
+      </c>
+      <c r="H158" t="s">
+        <v>75</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>3</v>
+      </c>
+      <c r="N158">
+        <v>4</v>
+      </c>
+      <c r="O158" t="s">
+        <v>86</v>
+      </c>
+      <c r="P158" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q158">
+        <v>3.5</v>
+      </c>
+      <c r="R158">
+        <v>2.3</v>
+      </c>
+      <c r="S158">
+        <v>2.6</v>
+      </c>
+      <c r="T158">
+        <v>1.3</v>
+      </c>
+      <c r="U158">
+        <v>3.2</v>
+      </c>
+      <c r="V158">
+        <v>2.35</v>
+      </c>
+      <c r="W158">
+        <v>1.53</v>
+      </c>
+      <c r="X158">
+        <v>5.6</v>
+      </c>
+      <c r="Y158">
+        <v>1.12</v>
+      </c>
+      <c r="Z158">
+        <v>2.8</v>
+      </c>
+      <c r="AA158">
+        <v>3.7</v>
+      </c>
+      <c r="AB158">
+        <v>2.25</v>
+      </c>
+      <c r="AC158">
+        <v>1.04</v>
+      </c>
+      <c r="AD158">
+        <v>10</v>
+      </c>
+      <c r="AE158">
+        <v>1.2</v>
+      </c>
+      <c r="AF158">
+        <v>4.33</v>
+      </c>
+      <c r="AG158">
+        <v>1.6</v>
+      </c>
+      <c r="AH158">
+        <v>2.2</v>
+      </c>
+      <c r="AI158">
+        <v>1.55</v>
+      </c>
+      <c r="AJ158">
+        <v>2.4</v>
+      </c>
+      <c r="AK158">
+        <v>1.68</v>
+      </c>
+      <c r="AL158">
+        <v>1.3</v>
+      </c>
+      <c r="AM158">
+        <v>1.35</v>
+      </c>
+      <c r="AN158">
+        <v>1</v>
+      </c>
+      <c r="AO158">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP158">
+        <v>0.91</v>
+      </c>
+      <c r="AQ158">
+        <v>0.8</v>
+      </c>
+      <c r="AR158">
+        <v>1.18</v>
+      </c>
+      <c r="AS158">
+        <v>1.33</v>
+      </c>
+      <c r="AT158">
+        <v>2.51</v>
+      </c>
+      <c r="AU158">
+        <v>0</v>
+      </c>
+      <c r="AV158">
+        <v>8</v>
+      </c>
+      <c r="AW158">
+        <v>5</v>
+      </c>
+      <c r="AX158">
+        <v>6</v>
+      </c>
+      <c r="AY158">
+        <v>5</v>
+      </c>
+      <c r="AZ158">
+        <v>14</v>
+      </c>
+      <c r="BA158">
+        <v>0</v>
+      </c>
+      <c r="BB158">
+        <v>8</v>
+      </c>
+      <c r="BC158">
+        <v>8</v>
+      </c>
+      <c r="BD158">
+        <v>2.6</v>
+      </c>
+      <c r="BE158">
+        <v>8.5</v>
+      </c>
+      <c r="BF158">
+        <v>1.67</v>
+      </c>
+      <c r="BG158">
+        <v>1.16</v>
+      </c>
+      <c r="BH158">
+        <v>4.4</v>
+      </c>
+      <c r="BI158">
+        <v>1.32</v>
+      </c>
+      <c r="BJ158">
+        <v>2.98</v>
+      </c>
+      <c r="BK158">
+        <v>1.59</v>
+      </c>
+      <c r="BL158">
+        <v>2.21</v>
+      </c>
+      <c r="BM158">
+        <v>2</v>
+      </c>
+      <c r="BN158">
+        <v>1.8</v>
+      </c>
+      <c r="BO158">
+        <v>2.58</v>
+      </c>
+      <c r="BP158">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -33706,22 +33706,22 @@
         <v>2.51</v>
       </c>
       <c r="AU158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV158">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW158">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX158">
         <v>6</v>
       </c>
       <c r="AY158">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ158">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA158">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -32264,22 +32264,22 @@
         <v>2.83</v>
       </c>
       <c r="AU151">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV151">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW151">
+        <v>7</v>
+      </c>
+      <c r="AX151">
         <v>3</v>
       </c>
-      <c r="AX151">
-        <v>0</v>
-      </c>
       <c r="AY151">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AZ151">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BA151">
         <v>5</v>
@@ -33315,10 +33315,10 @@
         <v>9</v>
       </c>
       <c r="BB156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC156">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD156">
         <v>1.4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="282">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -602,6 +602,9 @@
   </si>
   <si>
     <t>['85']</t>
+  </si>
+  <si>
+    <t>['65', '88']</t>
   </si>
   <si>
     <t>['39', '90+2']</t>
@@ -1218,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP158"/>
+  <dimension ref="A1:BP159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1477,7 +1480,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1683,7 +1686,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -2095,7 +2098,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2301,7 +2304,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2997,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
         <v>1.36</v>
@@ -3331,7 +3334,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3537,7 +3540,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q12">
         <v>5.5</v>
@@ -4155,7 +4158,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q15">
         <v>2.95</v>
@@ -4236,7 +4239,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ15">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4361,7 +4364,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4567,7 +4570,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4773,7 +4776,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5391,7 +5394,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5803,7 +5806,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6009,7 +6012,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6087,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6421,7 +6424,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6627,7 +6630,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -7039,7 +7042,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q29">
         <v>3.6</v>
@@ -7245,7 +7248,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7863,7 +7866,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7944,7 +7947,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ33">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -8069,7 +8072,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8275,7 +8278,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8893,7 +8896,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q38">
         <v>2.54</v>
@@ -9099,7 +9102,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9589,7 +9592,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>1.9</v>
@@ -9717,7 +9720,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -10622,7 +10625,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ46">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR46">
         <v>1.46</v>
@@ -10747,7 +10750,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -11159,7 +11162,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q49">
         <v>4.5</v>
@@ -11571,7 +11574,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11777,7 +11780,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -12189,7 +12192,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12267,7 +12270,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
         <v>1.7</v>
@@ -12395,7 +12398,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -13013,7 +13016,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13219,7 +13222,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13425,7 +13428,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -14043,7 +14046,7 @@
         <v>116</v>
       </c>
       <c r="P63" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14124,7 +14127,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ63">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -14249,7 +14252,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14867,7 +14870,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -15073,7 +15076,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15769,7 +15772,7 @@
         <v>1.5</v>
       </c>
       <c r="AP71">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ71">
         <v>0.89</v>
@@ -15897,7 +15900,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16103,7 +16106,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16309,7 +16312,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16515,7 +16518,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16927,7 +16930,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -17339,7 +17342,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17420,7 +17423,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ79">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR79">
         <v>1.07</v>
@@ -17545,7 +17548,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q80">
         <v>2.62</v>
@@ -17957,7 +17960,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18575,7 +18578,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18781,7 +18784,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -18987,7 +18990,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19193,7 +19196,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19271,7 +19274,7 @@
         <v>0.33</v>
       </c>
       <c r="AP88">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ88">
         <v>0.44</v>
@@ -19811,7 +19814,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -19892,7 +19895,7 @@
         <v>1</v>
       </c>
       <c r="AQ91">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR91">
         <v>1.59</v>
@@ -20017,7 +20020,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20429,7 +20432,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20635,7 +20638,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -21047,7 +21050,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -21253,7 +21256,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21459,7 +21462,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21665,7 +21668,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21871,7 +21874,7 @@
         <v>117</v>
       </c>
       <c r="P101" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -22364,7 +22367,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ103">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR103">
         <v>1.74</v>
@@ -22695,7 +22698,7 @@
         <v>116</v>
       </c>
       <c r="P105" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q105">
         <v>2.75</v>
@@ -22901,7 +22904,7 @@
         <v>98</v>
       </c>
       <c r="P106" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -22979,7 +22982,7 @@
         <v>1.6</v>
       </c>
       <c r="AP106">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ106">
         <v>1.33</v>
@@ -23107,7 +23110,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23519,7 +23522,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23725,7 +23728,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -24137,7 +24140,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q112">
         <v>2.95</v>
@@ -24343,7 +24346,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q113">
         <v>2.63</v>
@@ -24549,7 +24552,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -24961,7 +24964,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -25167,7 +25170,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25579,7 +25582,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q119">
         <v>4.2</v>
@@ -25785,7 +25788,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q120">
         <v>1.75</v>
@@ -25991,7 +25994,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q121">
         <v>2.63</v>
@@ -26609,7 +26612,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26687,7 +26690,7 @@
         <v>2.25</v>
       </c>
       <c r="AP124">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ124">
         <v>2</v>
@@ -26815,7 +26818,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27021,7 +27024,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27433,7 +27436,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -28051,7 +28054,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28463,7 +28466,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28750,7 +28753,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ134">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR134">
         <v>1.43</v>
@@ -28875,7 +28878,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29081,7 +29084,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q136">
         <v>2.38</v>
@@ -29493,7 +29496,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q138">
         <v>2.7</v>
@@ -29905,7 +29908,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q140">
         <v>3.52</v>
@@ -30189,7 +30192,7 @@
         <v>0.63</v>
       </c>
       <c r="AP141">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ141">
         <v>0.8</v>
@@ -30523,7 +30526,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q143">
         <v>3.4</v>
@@ -30935,7 +30938,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q145">
         <v>2.65</v>
@@ -31016,7 +31019,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ145">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR145">
         <v>1.52</v>
@@ -31141,7 +31144,7 @@
         <v>87</v>
       </c>
       <c r="P146" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31347,7 +31350,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q147">
         <v>2.2</v>
@@ -31759,7 +31762,7 @@
         <v>87</v>
       </c>
       <c r="P149" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q149">
         <v>2.83</v>
@@ -31837,7 +31840,7 @@
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ149">
         <v>1.4</v>
@@ -31965,7 +31968,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32252,7 +32255,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ151">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR151">
         <v>1.45</v>
@@ -33201,7 +33204,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q156">
         <v>2.1</v>
@@ -33613,7 +33616,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -33770,6 +33773,212 @@
       </c>
       <c r="BP158">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7295124</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45534.58333333334</v>
+      </c>
+      <c r="F159">
+        <v>21</v>
+      </c>
+      <c r="G159" t="s">
+        <v>77</v>
+      </c>
+      <c r="H159" t="s">
+        <v>74</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>2</v>
+      </c>
+      <c r="O159" t="s">
+        <v>196</v>
+      </c>
+      <c r="P159" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q159">
+        <v>2.63</v>
+      </c>
+      <c r="R159">
+        <v>2.1</v>
+      </c>
+      <c r="S159">
+        <v>4.5</v>
+      </c>
+      <c r="T159">
+        <v>1.44</v>
+      </c>
+      <c r="U159">
+        <v>2.63</v>
+      </c>
+      <c r="V159">
+        <v>3.25</v>
+      </c>
+      <c r="W159">
+        <v>1.33</v>
+      </c>
+      <c r="X159">
+        <v>9</v>
+      </c>
+      <c r="Y159">
+        <v>1.07</v>
+      </c>
+      <c r="Z159">
+        <v>2.3</v>
+      </c>
+      <c r="AA159">
+        <v>3.45</v>
+      </c>
+      <c r="AB159">
+        <v>2.95</v>
+      </c>
+      <c r="AC159">
+        <v>1.02</v>
+      </c>
+      <c r="AD159">
+        <v>8.6</v>
+      </c>
+      <c r="AE159">
+        <v>1.3</v>
+      </c>
+      <c r="AF159">
+        <v>3.1</v>
+      </c>
+      <c r="AG159">
+        <v>2</v>
+      </c>
+      <c r="AH159">
+        <v>1.81</v>
+      </c>
+      <c r="AI159">
+        <v>1.95</v>
+      </c>
+      <c r="AJ159">
+        <v>1.8</v>
+      </c>
+      <c r="AK159">
+        <v>1.32</v>
+      </c>
+      <c r="AL159">
+        <v>1.3</v>
+      </c>
+      <c r="AM159">
+        <v>1.8</v>
+      </c>
+      <c r="AN159">
+        <v>0.8</v>
+      </c>
+      <c r="AO159">
+        <v>1.2</v>
+      </c>
+      <c r="AP159">
+        <v>1</v>
+      </c>
+      <c r="AQ159">
+        <v>1.09</v>
+      </c>
+      <c r="AR159">
+        <v>1.39</v>
+      </c>
+      <c r="AS159">
+        <v>1.32</v>
+      </c>
+      <c r="AT159">
+        <v>2.71</v>
+      </c>
+      <c r="AU159">
+        <v>5</v>
+      </c>
+      <c r="AV159">
+        <v>2</v>
+      </c>
+      <c r="AW159">
+        <v>5</v>
+      </c>
+      <c r="AX159">
+        <v>5</v>
+      </c>
+      <c r="AY159">
+        <v>10</v>
+      </c>
+      <c r="AZ159">
+        <v>7</v>
+      </c>
+      <c r="BA159">
+        <v>2</v>
+      </c>
+      <c r="BB159">
+        <v>2</v>
+      </c>
+      <c r="BC159">
+        <v>4</v>
+      </c>
+      <c r="BD159">
+        <v>1.4</v>
+      </c>
+      <c r="BE159">
+        <v>9</v>
+      </c>
+      <c r="BF159">
+        <v>3.25</v>
+      </c>
+      <c r="BG159">
+        <v>1.14</v>
+      </c>
+      <c r="BH159">
+        <v>4.65</v>
+      </c>
+      <c r="BI159">
+        <v>1.29</v>
+      </c>
+      <c r="BJ159">
+        <v>3.45</v>
+      </c>
+      <c r="BK159">
+        <v>1.5</v>
+      </c>
+      <c r="BL159">
+        <v>2.45</v>
+      </c>
+      <c r="BM159">
+        <v>1.85</v>
+      </c>
+      <c r="BN159">
+        <v>1.85</v>
+      </c>
+      <c r="BO159">
+        <v>2.43</v>
+      </c>
+      <c r="BP159">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="282">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1221,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP159"/>
+  <dimension ref="A1:BP160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ3">
         <v>2</v>
@@ -3827,7 +3827,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ13">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ17">
         <v>1.2</v>
@@ -6505,7 +6505,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ26">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR26">
         <v>2.06</v>
@@ -7535,7 +7535,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ31">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR31">
         <v>2.08</v>
@@ -9386,7 +9386,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ40">
         <v>0.44</v>
@@ -12891,7 +12891,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR57">
         <v>1.51</v>
@@ -13712,7 +13712,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ61">
         <v>1</v>
@@ -15775,7 +15775,7 @@
         <v>1</v>
       </c>
       <c r="AQ71">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR71">
         <v>1.62</v>
@@ -16802,7 +16802,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ76">
         <v>1.4</v>
@@ -19483,7 +19483,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ89">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR89">
         <v>1.54</v>
@@ -23191,7 +23191,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ107">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR107">
         <v>1.41</v>
@@ -24012,7 +24012,7 @@
         <v>2.17</v>
       </c>
       <c r="AP111">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ111">
         <v>1.89</v>
@@ -25457,7 +25457,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ118">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR118">
         <v>1.59</v>
@@ -26896,7 +26896,7 @@
         <v>0.57</v>
       </c>
       <c r="AP125">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ125">
         <v>0.8</v>
@@ -28338,7 +28338,7 @@
         <v>2.13</v>
       </c>
       <c r="AP132">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ132">
         <v>2</v>
@@ -30810,7 +30810,7 @@
         <v>1</v>
       </c>
       <c r="AP144">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ144">
         <v>0.9</v>
@@ -31222,7 +31222,7 @@
         <v>1.78</v>
       </c>
       <c r="AP146">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ146">
         <v>1.9</v>
@@ -31637,7 +31637,7 @@
         <v>1</v>
       </c>
       <c r="AQ148">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR148">
         <v>1.15</v>
@@ -33979,6 +33979,212 @@
       </c>
       <c r="BP159">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7295127</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45535.54166666666</v>
+      </c>
+      <c r="F160">
+        <v>21</v>
+      </c>
+      <c r="G160" t="s">
+        <v>71</v>
+      </c>
+      <c r="H160" t="s">
+        <v>70</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>2</v>
+      </c>
+      <c r="O160" t="s">
+        <v>90</v>
+      </c>
+      <c r="P160" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q160">
+        <v>2</v>
+      </c>
+      <c r="R160">
+        <v>2.3</v>
+      </c>
+      <c r="S160">
+        <v>5.5</v>
+      </c>
+      <c r="T160">
+        <v>1.32</v>
+      </c>
+      <c r="U160">
+        <v>3.1</v>
+      </c>
+      <c r="V160">
+        <v>2.6</v>
+      </c>
+      <c r="W160">
+        <v>1.42</v>
+      </c>
+      <c r="X160">
+        <v>6</v>
+      </c>
+      <c r="Y160">
+        <v>1.09</v>
+      </c>
+      <c r="Z160">
+        <v>1.5</v>
+      </c>
+      <c r="AA160">
+        <v>4</v>
+      </c>
+      <c r="AB160">
+        <v>5.75</v>
+      </c>
+      <c r="AC160">
+        <v>1.01</v>
+      </c>
+      <c r="AD160">
+        <v>11</v>
+      </c>
+      <c r="AE160">
+        <v>1.22</v>
+      </c>
+      <c r="AF160">
+        <v>3.8</v>
+      </c>
+      <c r="AG160">
+        <v>1.78</v>
+      </c>
+      <c r="AH160">
+        <v>1.95</v>
+      </c>
+      <c r="AI160">
+        <v>1.9</v>
+      </c>
+      <c r="AJ160">
+        <v>1.9</v>
+      </c>
+      <c r="AK160">
+        <v>1.15</v>
+      </c>
+      <c r="AL160">
+        <v>1.23</v>
+      </c>
+      <c r="AM160">
+        <v>2.45</v>
+      </c>
+      <c r="AN160">
+        <v>1.4</v>
+      </c>
+      <c r="AO160">
+        <v>0.89</v>
+      </c>
+      <c r="AP160">
+        <v>1.55</v>
+      </c>
+      <c r="AQ160">
+        <v>0.8</v>
+      </c>
+      <c r="AR160">
+        <v>1.27</v>
+      </c>
+      <c r="AS160">
+        <v>0.92</v>
+      </c>
+      <c r="AT160">
+        <v>2.19</v>
+      </c>
+      <c r="AU160">
+        <v>7</v>
+      </c>
+      <c r="AV160">
+        <v>2</v>
+      </c>
+      <c r="AW160">
+        <v>5</v>
+      </c>
+      <c r="AX160">
+        <v>4</v>
+      </c>
+      <c r="AY160">
+        <v>12</v>
+      </c>
+      <c r="AZ160">
+        <v>6</v>
+      </c>
+      <c r="BA160">
+        <v>6</v>
+      </c>
+      <c r="BB160">
+        <v>3</v>
+      </c>
+      <c r="BC160">
+        <v>9</v>
+      </c>
+      <c r="BD160">
+        <v>1.33</v>
+      </c>
+      <c r="BE160">
+        <v>9.5</v>
+      </c>
+      <c r="BF160">
+        <v>4</v>
+      </c>
+      <c r="BG160">
+        <v>1.22</v>
+      </c>
+      <c r="BH160">
+        <v>4</v>
+      </c>
+      <c r="BI160">
+        <v>1.42</v>
+      </c>
+      <c r="BJ160">
+        <v>2.75</v>
+      </c>
+      <c r="BK160">
+        <v>1.74</v>
+      </c>
+      <c r="BL160">
+        <v>2.02</v>
+      </c>
+      <c r="BM160">
+        <v>2.23</v>
+      </c>
+      <c r="BN160">
+        <v>1.61</v>
+      </c>
+      <c r="BO160">
+        <v>3</v>
+      </c>
+      <c r="BP160">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -607,6 +607,15 @@
     <t>['65', '88']</t>
   </si>
   <si>
+    <t>['16', '30']</t>
+  </si>
+  <si>
+    <t>['15', '46']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -860,6 +869,18 @@
   </si>
   <si>
     <t>['26', '65', '85']</t>
+  </si>
+  <si>
+    <t>['84', '86']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['38', '75']</t>
+  </si>
+  <si>
+    <t>['10', '62', '78']</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP160"/>
+  <dimension ref="A1:BP166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1480,7 +1501,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1561,7 +1582,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ2">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1686,7 +1707,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1767,7 +1788,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2098,7 +2119,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2304,7 +2325,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2588,10 +2609,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ7">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2797,7 +2818,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ8">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3209,7 +3230,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3334,7 +3355,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3412,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ11">
         <v>2</v>
@@ -3540,7 +3561,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q12">
         <v>5.5</v>
@@ -3621,7 +3642,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4030,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ14">
         <v>0.8</v>
@@ -4158,7 +4179,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q15">
         <v>2.95</v>
@@ -4364,7 +4385,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4442,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ16">
         <v>1.7</v>
@@ -4570,7 +4591,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4651,7 +4672,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ17">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR17">
         <v>0.83</v>
@@ -4776,7 +4797,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5063,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR19">
         <v>1.53</v>
@@ -5394,7 +5415,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5475,7 +5496,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ21">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR21">
         <v>1.91</v>
@@ -5678,7 +5699,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ22">
         <v>1.36</v>
@@ -5806,7 +5827,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5887,7 +5908,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR23">
         <v>2.02</v>
@@ -6012,7 +6033,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6296,7 +6317,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ25">
         <v>1.36</v>
@@ -6424,7 +6445,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6630,7 +6651,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6914,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ28">
         <v>1.4</v>
@@ -7042,7 +7063,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q29">
         <v>3.6</v>
@@ -7248,7 +7269,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7532,7 +7553,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ31">
         <v>0.8</v>
@@ -7866,7 +7887,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -8072,7 +8093,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8153,7 +8174,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ34">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR34">
         <v>1.56</v>
@@ -8278,7 +8299,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8356,10 +8377,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR35">
         <v>1.13</v>
@@ -8565,7 +8586,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ36">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR36">
         <v>2.03</v>
@@ -8896,7 +8917,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q38">
         <v>2.54</v>
@@ -8974,7 +8995,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ38">
         <v>0.6</v>
@@ -9102,7 +9123,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9183,7 +9204,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR39">
         <v>1.7</v>
@@ -9389,7 +9410,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ40">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR40">
         <v>1.33</v>
@@ -9720,7 +9741,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9801,7 +9822,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR42">
         <v>1.44</v>
@@ -10004,7 +10025,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ43">
         <v>0.8</v>
@@ -10416,7 +10437,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ45">
         <v>1.36</v>
@@ -10750,7 +10771,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -11162,7 +11183,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q49">
         <v>4.5</v>
@@ -11243,7 +11264,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ49">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR49">
         <v>1.32</v>
@@ -11574,7 +11595,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11780,7 +11801,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -11858,10 +11879,10 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ52">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR52">
         <v>1.4</v>
@@ -12064,10 +12085,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ53">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR53">
         <v>1.7</v>
@@ -12192,7 +12213,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12398,7 +12419,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12479,7 +12500,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR55">
         <v>1.29</v>
@@ -12685,7 +12706,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ56">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR56">
         <v>1.62</v>
@@ -13016,7 +13037,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13222,7 +13243,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13303,7 +13324,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ59">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR59">
         <v>1.19</v>
@@ -13428,7 +13449,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13506,7 +13527,7 @@
         <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ60">
         <v>2</v>
@@ -13918,10 +13939,10 @@
         <v>0.33</v>
       </c>
       <c r="AP62">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ62">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR62">
         <v>2.1</v>
@@ -14046,7 +14067,7 @@
         <v>116</v>
       </c>
       <c r="P63" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14252,7 +14273,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14870,7 +14891,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -14948,7 +14969,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ67">
         <v>1.9</v>
@@ -15076,7 +15097,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15157,7 +15178,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ68">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR68">
         <v>1.55</v>
@@ -15360,10 +15381,10 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ69">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR69">
         <v>1.61</v>
@@ -15569,7 +15590,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR70">
         <v>1.23</v>
@@ -15900,7 +15921,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16106,7 +16127,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16187,7 +16208,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ73">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR73">
         <v>1.73</v>
@@ -16312,7 +16333,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16518,7 +16539,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16930,7 +16951,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -17008,7 +17029,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ77">
         <v>0.6</v>
@@ -17217,7 +17238,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ78">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR78">
         <v>1.47</v>
@@ -17342,7 +17363,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17548,7 +17569,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q80">
         <v>2.62</v>
@@ -17960,7 +17981,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18038,10 +18059,10 @@
         <v>1.75</v>
       </c>
       <c r="AP82">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ82">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR82">
         <v>2.05</v>
@@ -18450,7 +18471,7 @@
         <v>0.8</v>
       </c>
       <c r="AP84">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ84">
         <v>0.6</v>
@@ -18578,7 +18599,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18659,7 +18680,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ85">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR85">
         <v>1.48</v>
@@ -18784,7 +18805,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -18990,7 +19011,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19071,7 +19092,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ87">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR87">
         <v>1.72</v>
@@ -19196,7 +19217,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19277,7 +19298,7 @@
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR88">
         <v>1.51</v>
@@ -19480,7 +19501,7 @@
         <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ89">
         <v>0.8</v>
@@ -19689,7 +19710,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ90">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR90">
         <v>1.37</v>
@@ -19814,7 +19835,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20020,7 +20041,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20098,10 +20119,10 @@
         <v>1.4</v>
       </c>
       <c r="AP92">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ92">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR92">
         <v>1.44</v>
@@ -20304,7 +20325,7 @@
         <v>2.17</v>
       </c>
       <c r="AP93">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ93">
         <v>1.7</v>
@@ -20432,7 +20453,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20638,7 +20659,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20922,7 +20943,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ96">
         <v>1</v>
@@ -21050,7 +21071,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -21131,7 +21152,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ97">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR97">
         <v>1.75</v>
@@ -21256,7 +21277,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21462,7 +21483,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21543,7 +21564,7 @@
         <v>1</v>
       </c>
       <c r="AQ99">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR99">
         <v>1.54</v>
@@ -21668,7 +21689,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21874,7 +21895,7 @@
         <v>117</v>
       </c>
       <c r="P101" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -22698,7 +22719,7 @@
         <v>116</v>
       </c>
       <c r="P105" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q105">
         <v>2.75</v>
@@ -22779,7 +22800,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ105">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR105">
         <v>1.31</v>
@@ -22904,7 +22925,7 @@
         <v>98</v>
       </c>
       <c r="P106" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -22985,7 +23006,7 @@
         <v>1</v>
       </c>
       <c r="AQ106">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -23110,7 +23131,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23188,7 +23209,7 @@
         <v>1.33</v>
       </c>
       <c r="AP107">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ107">
         <v>0.8</v>
@@ -23394,10 +23415,10 @@
         <v>0.43</v>
       </c>
       <c r="AP108">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ108">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR108">
         <v>1.56</v>
@@ -23522,7 +23543,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23600,7 +23621,7 @@
         <v>2</v>
       </c>
       <c r="AP109">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ109">
         <v>1.7</v>
@@ -23728,7 +23749,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -24015,7 +24036,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ111">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR111">
         <v>1.22</v>
@@ -24140,7 +24161,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q112">
         <v>2.95</v>
@@ -24346,7 +24367,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q113">
         <v>2.63</v>
@@ -24552,7 +24573,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -24633,7 +24654,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ114">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR114">
         <v>1.47</v>
@@ -24964,7 +24985,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -25042,10 +25063,10 @@
         <v>1.4</v>
       </c>
       <c r="AP116">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ116">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR116">
         <v>1.92</v>
@@ -25170,7 +25191,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25582,7 +25603,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q119">
         <v>4.2</v>
@@ -25788,7 +25809,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q120">
         <v>1.75</v>
@@ -25994,7 +26015,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q121">
         <v>2.63</v>
@@ -26072,7 +26093,7 @@
         <v>0.83</v>
       </c>
       <c r="AP121">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ121">
         <v>1.4</v>
@@ -26281,7 +26302,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ122">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR122">
         <v>1.3</v>
@@ -26612,7 +26633,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26693,7 +26714,7 @@
         <v>1</v>
       </c>
       <c r="AQ124">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR124">
         <v>1.57</v>
@@ -26818,7 +26839,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27024,7 +27045,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27105,7 +27126,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ126">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR126">
         <v>1.29</v>
@@ -27436,7 +27457,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27517,7 +27538,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ128">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR128">
         <v>1.41</v>
@@ -27929,7 +27950,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ130">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR130">
         <v>1.58</v>
@@ -28054,7 +28075,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28135,7 +28156,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ131">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR131">
         <v>1.65</v>
@@ -28466,7 +28487,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28544,7 +28565,7 @@
         <v>1.63</v>
       </c>
       <c r="AP133">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ133">
         <v>1.9</v>
@@ -28750,7 +28771,7 @@
         <v>1.71</v>
       </c>
       <c r="AP134">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ134">
         <v>1.09</v>
@@ -28878,7 +28899,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -28959,7 +28980,7 @@
         <v>1</v>
       </c>
       <c r="AQ135">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR135">
         <v>1.14</v>
@@ -29084,7 +29105,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q136">
         <v>2.38</v>
@@ -29165,7 +29186,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ136">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR136">
         <v>1.63</v>
@@ -29368,7 +29389,7 @@
         <v>1.14</v>
       </c>
       <c r="AP137">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ137">
         <v>1.4</v>
@@ -29496,7 +29517,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q138">
         <v>2.7</v>
@@ -29908,7 +29929,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q140">
         <v>3.52</v>
@@ -29989,7 +30010,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ140">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR140">
         <v>1.54</v>
@@ -30401,7 +30422,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ142">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR142">
         <v>1.22</v>
@@ -30526,7 +30547,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q143">
         <v>3.4</v>
@@ -30607,7 +30628,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ143">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR143">
         <v>1.35</v>
@@ -30813,7 +30834,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ144">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR144">
         <v>1.23</v>
@@ -30938,7 +30959,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q145">
         <v>2.65</v>
@@ -31016,7 +31037,7 @@
         <v>1.5</v>
       </c>
       <c r="AP145">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ145">
         <v>1.09</v>
@@ -31144,7 +31165,7 @@
         <v>87</v>
       </c>
       <c r="P146" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31350,7 +31371,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q147">
         <v>2.2</v>
@@ -31431,7 +31452,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ147">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR147">
         <v>1.58</v>
@@ -31762,7 +31783,7 @@
         <v>87</v>
       </c>
       <c r="P149" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q149">
         <v>2.83</v>
@@ -31968,7 +31989,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32046,10 +32067,10 @@
         <v>1.5</v>
       </c>
       <c r="AP150">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ150">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR150">
         <v>1.52</v>
@@ -32252,7 +32273,7 @@
         <v>1.33</v>
       </c>
       <c r="AP151">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ151">
         <v>1.09</v>
@@ -32461,7 +32482,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ152">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR152">
         <v>1.75</v>
@@ -33204,7 +33225,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q156">
         <v>2.1</v>
@@ -33616,7 +33637,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -34185,6 +34206,1242 @@
       </c>
       <c r="BP160">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7295126</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="F161">
+        <v>21</v>
+      </c>
+      <c r="G161" t="s">
+        <v>73</v>
+      </c>
+      <c r="H161" t="s">
+        <v>76</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>2</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>2</v>
+      </c>
+      <c r="N161">
+        <v>4</v>
+      </c>
+      <c r="O161" t="s">
+        <v>197</v>
+      </c>
+      <c r="P161" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q161">
+        <v>3.1</v>
+      </c>
+      <c r="R161">
+        <v>2.25</v>
+      </c>
+      <c r="S161">
+        <v>3</v>
+      </c>
+      <c r="T161">
+        <v>1.33</v>
+      </c>
+      <c r="U161">
+        <v>3</v>
+      </c>
+      <c r="V161">
+        <v>2.4</v>
+      </c>
+      <c r="W161">
+        <v>1.5</v>
+      </c>
+      <c r="X161">
+        <v>5.5</v>
+      </c>
+      <c r="Y161">
+        <v>1.11</v>
+      </c>
+      <c r="Z161">
+        <v>2.38</v>
+      </c>
+      <c r="AA161">
+        <v>3.4</v>
+      </c>
+      <c r="AB161">
+        <v>2.6</v>
+      </c>
+      <c r="AC161">
+        <v>1.02</v>
+      </c>
+      <c r="AD161">
+        <v>10</v>
+      </c>
+      <c r="AE161">
+        <v>1.22</v>
+      </c>
+      <c r="AF161">
+        <v>3.8</v>
+      </c>
+      <c r="AG161">
+        <v>1.75</v>
+      </c>
+      <c r="AH161">
+        <v>1.95</v>
+      </c>
+      <c r="AI161">
+        <v>1.6</v>
+      </c>
+      <c r="AJ161">
+        <v>2.2</v>
+      </c>
+      <c r="AK161">
+        <v>1.53</v>
+      </c>
+      <c r="AL161">
+        <v>1.3</v>
+      </c>
+      <c r="AM161">
+        <v>1.48</v>
+      </c>
+      <c r="AN161">
+        <v>1</v>
+      </c>
+      <c r="AO161">
+        <v>1.33</v>
+      </c>
+      <c r="AP161">
+        <v>1</v>
+      </c>
+      <c r="AQ161">
+        <v>1.3</v>
+      </c>
+      <c r="AR161">
+        <v>1.5</v>
+      </c>
+      <c r="AS161">
+        <v>1.33</v>
+      </c>
+      <c r="AT161">
+        <v>2.83</v>
+      </c>
+      <c r="AU161">
+        <v>7</v>
+      </c>
+      <c r="AV161">
+        <v>7</v>
+      </c>
+      <c r="AW161">
+        <v>5</v>
+      </c>
+      <c r="AX161">
+        <v>7</v>
+      </c>
+      <c r="AY161">
+        <v>12</v>
+      </c>
+      <c r="AZ161">
+        <v>14</v>
+      </c>
+      <c r="BA161">
+        <v>2</v>
+      </c>
+      <c r="BB161">
+        <v>12</v>
+      </c>
+      <c r="BC161">
+        <v>14</v>
+      </c>
+      <c r="BD161">
+        <v>2.1</v>
+      </c>
+      <c r="BE161">
+        <v>8.5</v>
+      </c>
+      <c r="BF161">
+        <v>1.91</v>
+      </c>
+      <c r="BG161">
+        <v>1.15</v>
+      </c>
+      <c r="BH161">
+        <v>4.75</v>
+      </c>
+      <c r="BI161">
+        <v>1.29</v>
+      </c>
+      <c r="BJ161">
+        <v>3.3</v>
+      </c>
+      <c r="BK161">
+        <v>1.49</v>
+      </c>
+      <c r="BL161">
+        <v>2.48</v>
+      </c>
+      <c r="BM161">
+        <v>1.88</v>
+      </c>
+      <c r="BN161">
+        <v>1.92</v>
+      </c>
+      <c r="BO161">
+        <v>2.2</v>
+      </c>
+      <c r="BP161">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7295125</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="F162">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>75</v>
+      </c>
+      <c r="H162" t="s">
+        <v>72</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>2</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>3</v>
+      </c>
+      <c r="O162" t="s">
+        <v>97</v>
+      </c>
+      <c r="P162" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q162">
+        <v>2.82</v>
+      </c>
+      <c r="R162">
+        <v>2.32</v>
+      </c>
+      <c r="S162">
+        <v>3.25</v>
+      </c>
+      <c r="T162">
+        <v>1.29</v>
+      </c>
+      <c r="U162">
+        <v>3.4</v>
+      </c>
+      <c r="V162">
+        <v>2.25</v>
+      </c>
+      <c r="W162">
+        <v>1.57</v>
+      </c>
+      <c r="X162">
+        <v>4.75</v>
+      </c>
+      <c r="Y162">
+        <v>1.15</v>
+      </c>
+      <c r="Z162">
+        <v>2.38</v>
+      </c>
+      <c r="AA162">
+        <v>3.6</v>
+      </c>
+      <c r="AB162">
+        <v>2.5</v>
+      </c>
+      <c r="AC162">
+        <v>1.03</v>
+      </c>
+      <c r="AD162">
+        <v>12</v>
+      </c>
+      <c r="AE162">
+        <v>1.17</v>
+      </c>
+      <c r="AF162">
+        <v>4.5</v>
+      </c>
+      <c r="AG162">
+        <v>1.55</v>
+      </c>
+      <c r="AH162">
+        <v>2.3</v>
+      </c>
+      <c r="AI162">
+        <v>1.5</v>
+      </c>
+      <c r="AJ162">
+        <v>2.4</v>
+      </c>
+      <c r="AK162">
+        <v>1.45</v>
+      </c>
+      <c r="AL162">
+        <v>1.3</v>
+      </c>
+      <c r="AM162">
+        <v>1.55</v>
+      </c>
+      <c r="AN162">
+        <v>2.2</v>
+      </c>
+      <c r="AO162">
+        <v>1.89</v>
+      </c>
+      <c r="AP162">
+        <v>2.27</v>
+      </c>
+      <c r="AQ162">
+        <v>1.7</v>
+      </c>
+      <c r="AR162">
+        <v>1.43</v>
+      </c>
+      <c r="AS162">
+        <v>1.47</v>
+      </c>
+      <c r="AT162">
+        <v>2.9</v>
+      </c>
+      <c r="AU162">
+        <v>7</v>
+      </c>
+      <c r="AV162">
+        <v>2</v>
+      </c>
+      <c r="AW162">
+        <v>4</v>
+      </c>
+      <c r="AX162">
+        <v>3</v>
+      </c>
+      <c r="AY162">
+        <v>11</v>
+      </c>
+      <c r="AZ162">
+        <v>5</v>
+      </c>
+      <c r="BA162">
+        <v>6</v>
+      </c>
+      <c r="BB162">
+        <v>2</v>
+      </c>
+      <c r="BC162">
+        <v>8</v>
+      </c>
+      <c r="BD162">
+        <v>1.8</v>
+      </c>
+      <c r="BE162">
+        <v>8</v>
+      </c>
+      <c r="BF162">
+        <v>2.38</v>
+      </c>
+      <c r="BG162">
+        <v>1.25</v>
+      </c>
+      <c r="BH162">
+        <v>3.6</v>
+      </c>
+      <c r="BI162">
+        <v>1.42</v>
+      </c>
+      <c r="BJ162">
+        <v>2.62</v>
+      </c>
+      <c r="BK162">
+        <v>1.68</v>
+      </c>
+      <c r="BL162">
+        <v>2.14</v>
+      </c>
+      <c r="BM162">
+        <v>2.09</v>
+      </c>
+      <c r="BN162">
+        <v>1.72</v>
+      </c>
+      <c r="BO162">
+        <v>2.62</v>
+      </c>
+      <c r="BP162">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7295122</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="F163">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>80</v>
+      </c>
+      <c r="H163" t="s">
+        <v>85</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>2</v>
+      </c>
+      <c r="O163" t="s">
+        <v>96</v>
+      </c>
+      <c r="P163" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q163">
+        <v>2.55</v>
+      </c>
+      <c r="R163">
+        <v>2.2</v>
+      </c>
+      <c r="S163">
+        <v>3.65</v>
+      </c>
+      <c r="T163">
+        <v>1.3</v>
+      </c>
+      <c r="U163">
+        <v>3.34</v>
+      </c>
+      <c r="V163">
+        <v>2.41</v>
+      </c>
+      <c r="W163">
+        <v>1.53</v>
+      </c>
+      <c r="X163">
+        <v>5.6</v>
+      </c>
+      <c r="Y163">
+        <v>1.12</v>
+      </c>
+      <c r="Z163">
+        <v>1.91</v>
+      </c>
+      <c r="AA163">
+        <v>3.6</v>
+      </c>
+      <c r="AB163">
+        <v>3.3</v>
+      </c>
+      <c r="AC163">
+        <v>1.01</v>
+      </c>
+      <c r="AD163">
+        <v>11</v>
+      </c>
+      <c r="AE163">
+        <v>1.17</v>
+      </c>
+      <c r="AF163">
+        <v>4.2</v>
+      </c>
+      <c r="AG163">
+        <v>1.6</v>
+      </c>
+      <c r="AH163">
+        <v>2.2</v>
+      </c>
+      <c r="AI163">
+        <v>1.53</v>
+      </c>
+      <c r="AJ163">
+        <v>2.3</v>
+      </c>
+      <c r="AK163">
+        <v>1.3</v>
+      </c>
+      <c r="AL163">
+        <v>1.3</v>
+      </c>
+      <c r="AM163">
+        <v>1.78</v>
+      </c>
+      <c r="AN163">
+        <v>1</v>
+      </c>
+      <c r="AO163">
+        <v>0.44</v>
+      </c>
+      <c r="AP163">
+        <v>1</v>
+      </c>
+      <c r="AQ163">
+        <v>0.5</v>
+      </c>
+      <c r="AR163">
+        <v>1.21</v>
+      </c>
+      <c r="AS163">
+        <v>1.25</v>
+      </c>
+      <c r="AT163">
+        <v>2.46</v>
+      </c>
+      <c r="AU163">
+        <v>3</v>
+      </c>
+      <c r="AV163">
+        <v>5</v>
+      </c>
+      <c r="AW163">
+        <v>8</v>
+      </c>
+      <c r="AX163">
+        <v>7</v>
+      </c>
+      <c r="AY163">
+        <v>11</v>
+      </c>
+      <c r="AZ163">
+        <v>12</v>
+      </c>
+      <c r="BA163">
+        <v>7</v>
+      </c>
+      <c r="BB163">
+        <v>6</v>
+      </c>
+      <c r="BC163">
+        <v>13</v>
+      </c>
+      <c r="BD163">
+        <v>1.73</v>
+      </c>
+      <c r="BE163">
+        <v>8.5</v>
+      </c>
+      <c r="BF163">
+        <v>2.38</v>
+      </c>
+      <c r="BG163">
+        <v>1.15</v>
+      </c>
+      <c r="BH163">
+        <v>4.75</v>
+      </c>
+      <c r="BI163">
+        <v>1.27</v>
+      </c>
+      <c r="BJ163">
+        <v>3.55</v>
+      </c>
+      <c r="BK163">
+        <v>1.48</v>
+      </c>
+      <c r="BL163">
+        <v>2.55</v>
+      </c>
+      <c r="BM163">
+        <v>1.82</v>
+      </c>
+      <c r="BN163">
+        <v>1.98</v>
+      </c>
+      <c r="BO163">
+        <v>2.35</v>
+      </c>
+      <c r="BP163">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7295128</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="F164">
+        <v>21</v>
+      </c>
+      <c r="G164" t="s">
+        <v>79</v>
+      </c>
+      <c r="H164" t="s">
+        <v>83</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>2</v>
+      </c>
+      <c r="L164">
+        <v>2</v>
+      </c>
+      <c r="M164">
+        <v>2</v>
+      </c>
+      <c r="N164">
+        <v>4</v>
+      </c>
+      <c r="O164" t="s">
+        <v>198</v>
+      </c>
+      <c r="P164" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q164">
+        <v>2.85</v>
+      </c>
+      <c r="R164">
+        <v>2.25</v>
+      </c>
+      <c r="S164">
+        <v>3.15</v>
+      </c>
+      <c r="T164">
+        <v>1.3</v>
+      </c>
+      <c r="U164">
+        <v>3.34</v>
+      </c>
+      <c r="V164">
+        <v>2.39</v>
+      </c>
+      <c r="W164">
+        <v>1.54</v>
+      </c>
+      <c r="X164">
+        <v>5.55</v>
+      </c>
+      <c r="Y164">
+        <v>1.13</v>
+      </c>
+      <c r="Z164">
+        <v>2.3</v>
+      </c>
+      <c r="AA164">
+        <v>3.5</v>
+      </c>
+      <c r="AB164">
+        <v>2.62</v>
+      </c>
+      <c r="AC164">
+        <v>1.04</v>
+      </c>
+      <c r="AD164">
+        <v>10</v>
+      </c>
+      <c r="AE164">
+        <v>1.16</v>
+      </c>
+      <c r="AF164">
+        <v>4.3</v>
+      </c>
+      <c r="AG164">
+        <v>1.57</v>
+      </c>
+      <c r="AH164">
+        <v>2.25</v>
+      </c>
+      <c r="AI164">
+        <v>1.58</v>
+      </c>
+      <c r="AJ164">
+        <v>2.35</v>
+      </c>
+      <c r="AK164">
+        <v>1.4</v>
+      </c>
+      <c r="AL164">
+        <v>1.22</v>
+      </c>
+      <c r="AM164">
+        <v>1.55</v>
+      </c>
+      <c r="AN164">
+        <v>1.88</v>
+      </c>
+      <c r="AO164">
+        <v>0.9</v>
+      </c>
+      <c r="AP164">
+        <v>1.78</v>
+      </c>
+      <c r="AQ164">
+        <v>0.91</v>
+      </c>
+      <c r="AR164">
+        <v>1.41</v>
+      </c>
+      <c r="AS164">
+        <v>1.35</v>
+      </c>
+      <c r="AT164">
+        <v>2.76</v>
+      </c>
+      <c r="AU164">
+        <v>5</v>
+      </c>
+      <c r="AV164">
+        <v>4</v>
+      </c>
+      <c r="AW164">
+        <v>8</v>
+      </c>
+      <c r="AX164">
+        <v>8</v>
+      </c>
+      <c r="AY164">
+        <v>13</v>
+      </c>
+      <c r="AZ164">
+        <v>12</v>
+      </c>
+      <c r="BA164">
+        <v>2</v>
+      </c>
+      <c r="BB164">
+        <v>3</v>
+      </c>
+      <c r="BC164">
+        <v>5</v>
+      </c>
+      <c r="BD164">
+        <v>1.91</v>
+      </c>
+      <c r="BE164">
+        <v>8.5</v>
+      </c>
+      <c r="BF164">
+        <v>2.1</v>
+      </c>
+      <c r="BG164">
+        <v>1.12</v>
+      </c>
+      <c r="BH164">
+        <v>5.25</v>
+      </c>
+      <c r="BI164">
+        <v>1.25</v>
+      </c>
+      <c r="BJ164">
+        <v>3.6</v>
+      </c>
+      <c r="BK164">
+        <v>1.4</v>
+      </c>
+      <c r="BL164">
+        <v>2.7</v>
+      </c>
+      <c r="BM164">
+        <v>1.7</v>
+      </c>
+      <c r="BN164">
+        <v>2.05</v>
+      </c>
+      <c r="BO164">
+        <v>2.01</v>
+      </c>
+      <c r="BP164">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7295129</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="F165">
+        <v>21</v>
+      </c>
+      <c r="G165" t="s">
+        <v>82</v>
+      </c>
+      <c r="H165" t="s">
+        <v>78</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>1</v>
+      </c>
+      <c r="O165" t="s">
+        <v>87</v>
+      </c>
+      <c r="P165" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q165">
+        <v>4.33</v>
+      </c>
+      <c r="R165">
+        <v>2.5</v>
+      </c>
+      <c r="S165">
+        <v>2.1</v>
+      </c>
+      <c r="T165">
+        <v>1.22</v>
+      </c>
+      <c r="U165">
+        <v>4</v>
+      </c>
+      <c r="V165">
+        <v>2.05</v>
+      </c>
+      <c r="W165">
+        <v>1.7</v>
+      </c>
+      <c r="X165">
+        <v>4.1</v>
+      </c>
+      <c r="Y165">
+        <v>1.19</v>
+      </c>
+      <c r="Z165">
+        <v>4</v>
+      </c>
+      <c r="AA165">
+        <v>4.33</v>
+      </c>
+      <c r="AB165">
+        <v>1.62</v>
+      </c>
+      <c r="AC165">
+        <v>1.01</v>
+      </c>
+      <c r="AD165">
+        <v>17</v>
+      </c>
+      <c r="AE165">
+        <v>1.08</v>
+      </c>
+      <c r="AF165">
+        <v>6.5</v>
+      </c>
+      <c r="AG165">
+        <v>1.36</v>
+      </c>
+      <c r="AH165">
+        <v>2.9</v>
+      </c>
+      <c r="AI165">
+        <v>1.44</v>
+      </c>
+      <c r="AJ165">
+        <v>2.7</v>
+      </c>
+      <c r="AK165">
+        <v>2.2</v>
+      </c>
+      <c r="AL165">
+        <v>1.22</v>
+      </c>
+      <c r="AM165">
+        <v>1.11</v>
+      </c>
+      <c r="AN165">
+        <v>1.33</v>
+      </c>
+      <c r="AO165">
+        <v>2</v>
+      </c>
+      <c r="AP165">
+        <v>1.2</v>
+      </c>
+      <c r="AQ165">
+        <v>2.09</v>
+      </c>
+      <c r="AR165">
+        <v>1.66</v>
+      </c>
+      <c r="AS165">
+        <v>1.47</v>
+      </c>
+      <c r="AT165">
+        <v>3.13</v>
+      </c>
+      <c r="AU165">
+        <v>8</v>
+      </c>
+      <c r="AV165">
+        <v>3</v>
+      </c>
+      <c r="AW165">
+        <v>4</v>
+      </c>
+      <c r="AX165">
+        <v>4</v>
+      </c>
+      <c r="AY165">
+        <v>12</v>
+      </c>
+      <c r="AZ165">
+        <v>7</v>
+      </c>
+      <c r="BA165">
+        <v>6</v>
+      </c>
+      <c r="BB165">
+        <v>1</v>
+      </c>
+      <c r="BC165">
+        <v>7</v>
+      </c>
+      <c r="BD165">
+        <v>2.88</v>
+      </c>
+      <c r="BE165">
+        <v>9</v>
+      </c>
+      <c r="BF165">
+        <v>1.53</v>
+      </c>
+      <c r="BG165">
+        <v>1.12</v>
+      </c>
+      <c r="BH165">
+        <v>5.25</v>
+      </c>
+      <c r="BI165">
+        <v>1.19</v>
+      </c>
+      <c r="BJ165">
+        <v>4.35</v>
+      </c>
+      <c r="BK165">
+        <v>1.35</v>
+      </c>
+      <c r="BL165">
+        <v>3</v>
+      </c>
+      <c r="BM165">
+        <v>1.77</v>
+      </c>
+      <c r="BN165">
+        <v>1.95</v>
+      </c>
+      <c r="BO165">
+        <v>2</v>
+      </c>
+      <c r="BP165">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7295123</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45536.59375</v>
+      </c>
+      <c r="F166">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>84</v>
+      </c>
+      <c r="H166" t="s">
+        <v>81</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>3</v>
+      </c>
+      <c r="N166">
+        <v>4</v>
+      </c>
+      <c r="O166" t="s">
+        <v>199</v>
+      </c>
+      <c r="P166" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q166">
+        <v>1.8</v>
+      </c>
+      <c r="R166">
+        <v>2.63</v>
+      </c>
+      <c r="S166">
+        <v>5.5</v>
+      </c>
+      <c r="T166">
+        <v>1.2</v>
+      </c>
+      <c r="U166">
+        <v>4</v>
+      </c>
+      <c r="V166">
+        <v>1.85</v>
+      </c>
+      <c r="W166">
+        <v>1.83</v>
+      </c>
+      <c r="X166">
+        <v>3.8</v>
+      </c>
+      <c r="Y166">
+        <v>1.22</v>
+      </c>
+      <c r="Z166">
+        <v>1.35</v>
+      </c>
+      <c r="AA166">
+        <v>5.5</v>
+      </c>
+      <c r="AB166">
+        <v>6</v>
+      </c>
+      <c r="AC166">
+        <v>1.01</v>
+      </c>
+      <c r="AD166">
+        <v>33</v>
+      </c>
+      <c r="AE166">
+        <v>1.06</v>
+      </c>
+      <c r="AF166">
+        <v>7.5</v>
+      </c>
+      <c r="AG166">
+        <v>1.3</v>
+      </c>
+      <c r="AH166">
+        <v>3.2</v>
+      </c>
+      <c r="AI166">
+        <v>1.47</v>
+      </c>
+      <c r="AJ166">
+        <v>2.63</v>
+      </c>
+      <c r="AK166">
+        <v>1.15</v>
+      </c>
+      <c r="AL166">
+        <v>1.17</v>
+      </c>
+      <c r="AM166">
+        <v>2.7</v>
+      </c>
+      <c r="AN166">
+        <v>1.89</v>
+      </c>
+      <c r="AO166">
+        <v>1.2</v>
+      </c>
+      <c r="AP166">
+        <v>1.7</v>
+      </c>
+      <c r="AQ166">
+        <v>1.36</v>
+      </c>
+      <c r="AR166">
+        <v>1.95</v>
+      </c>
+      <c r="AS166">
+        <v>1.35</v>
+      </c>
+      <c r="AT166">
+        <v>3.3</v>
+      </c>
+      <c r="AU166">
+        <v>6</v>
+      </c>
+      <c r="AV166">
+        <v>6</v>
+      </c>
+      <c r="AW166">
+        <v>5</v>
+      </c>
+      <c r="AX166">
+        <v>2</v>
+      </c>
+      <c r="AY166">
+        <v>11</v>
+      </c>
+      <c r="AZ166">
+        <v>8</v>
+      </c>
+      <c r="BA166">
+        <v>9</v>
+      </c>
+      <c r="BB166">
+        <v>1</v>
+      </c>
+      <c r="BC166">
+        <v>10</v>
+      </c>
+      <c r="BD166">
+        <v>1.33</v>
+      </c>
+      <c r="BE166">
+        <v>10</v>
+      </c>
+      <c r="BF166">
+        <v>3.75</v>
+      </c>
+      <c r="BG166">
+        <v>1.11</v>
+      </c>
+      <c r="BH166">
+        <v>5.5</v>
+      </c>
+      <c r="BI166">
+        <v>1.27</v>
+      </c>
+      <c r="BJ166">
+        <v>3.55</v>
+      </c>
+      <c r="BK166">
+        <v>1.48</v>
+      </c>
+      <c r="BL166">
+        <v>2.55</v>
+      </c>
+      <c r="BM166">
+        <v>1.8</v>
+      </c>
+      <c r="BN166">
+        <v>2</v>
+      </c>
+      <c r="BO166">
+        <v>2.35</v>
+      </c>
+      <c r="BP166">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -35172,22 +35172,22 @@
         <v>3.13</v>
       </c>
       <c r="AU165">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AV165">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW165">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AX165">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY165">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="AZ165">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BA165">
         <v>6</v>
@@ -35396,13 +35396,13 @@
         <v>8</v>
       </c>
       <c r="BA166">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB166">
         <v>1</v>
       </c>
       <c r="BC166">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD166">
         <v>1.33</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -607,10 +607,10 @@
     <t>['65', '88']</t>
   </si>
   <si>
-    <t>['16', '30']</t>
+    <t>['15', '46']</t>
   </si>
   <si>
-    <t>['15', '46']</t>
+    <t>['16', '30']</t>
   </si>
   <si>
     <t>['57']</t>
@@ -871,13 +871,13 @@
     <t>['26', '65', '85']</t>
   </si>
   <si>
-    <t>['84', '86']</t>
+    <t>['38', '75']</t>
   </si>
   <si>
     <t>['5']</t>
   </si>
   <si>
-    <t>['38', '75']</t>
+    <t>['84', '86']</t>
   </si>
   <si>
     <t>['10', '62', '78']</t>
@@ -34213,7 +34213,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>7295126</v>
+        <v>7295122</v>
       </c>
       <c r="C161" t="s">
         <v>68</v>
@@ -34228,160 +34228,160 @@
         <v>21</v>
       </c>
       <c r="G161" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H161" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J161">
         <v>0</v>
       </c>
       <c r="K161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N161">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O161" t="s">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c r="P161" t="s">
-        <v>285</v>
+        <v>157</v>
       </c>
       <c r="Q161">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="R161">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S161">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="T161">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U161">
-        <v>3</v>
+        <v>3.34</v>
       </c>
       <c r="V161">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="W161">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X161">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y161">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="Z161">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="AA161">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AB161">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="AC161">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD161">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE161">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AF161">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="AG161">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AH161">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AI161">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AJ161">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AK161">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="AL161">
         <v>1.3</v>
       </c>
       <c r="AM161">
-        <v>1.48</v>
+        <v>1.78</v>
       </c>
       <c r="AN161">
         <v>1</v>
       </c>
       <c r="AO161">
-        <v>1.33</v>
+        <v>0.44</v>
       </c>
       <c r="AP161">
         <v>1</v>
       </c>
       <c r="AQ161">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="AR161">
-        <v>1.5</v>
+        <v>1.21</v>
       </c>
       <c r="AS161">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT161">
-        <v>2.83</v>
+        <v>2.46</v>
       </c>
       <c r="AU161">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV161">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW161">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX161">
         <v>7</v>
       </c>
       <c r="AY161">
+        <v>11</v>
+      </c>
+      <c r="AZ161">
         <v>12</v>
       </c>
-      <c r="AZ161">
-        <v>14</v>
-      </c>
       <c r="BA161">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BB161">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BC161">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD161">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="BE161">
         <v>8.5</v>
       </c>
       <c r="BF161">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="BG161">
         <v>1.15</v>
@@ -34390,28 +34390,28 @@
         <v>4.75</v>
       </c>
       <c r="BI161">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="BJ161">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="BK161">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="BL161">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="BM161">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="BN161">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="BO161">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="BP161">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="162" spans="1:68">
@@ -34419,7 +34419,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>7295125</v>
+        <v>7295129</v>
       </c>
       <c r="C162" t="s">
         <v>68</v>
@@ -34434,190 +34434,190 @@
         <v>21</v>
       </c>
       <c r="G162" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H162" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I162">
         <v>0</v>
       </c>
       <c r="J162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M162">
         <v>1</v>
       </c>
       <c r="N162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O162" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="P162" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="Q162">
-        <v>2.82</v>
+        <v>4.33</v>
       </c>
       <c r="R162">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="S162">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="T162">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="U162">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="V162">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="W162">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="X162">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="Y162">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="Z162">
-        <v>2.38</v>
+        <v>4</v>
       </c>
       <c r="AA162">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="AB162">
-        <v>2.5</v>
+        <v>1.62</v>
       </c>
       <c r="AC162">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD162">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE162">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AF162">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="AG162">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="AH162">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="AI162">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AJ162">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AK162">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="AL162">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AM162">
-        <v>1.55</v>
+        <v>1.11</v>
       </c>
       <c r="AN162">
-        <v>2.2</v>
+        <v>1.33</v>
       </c>
       <c r="AO162">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AP162">
-        <v>2.27</v>
+        <v>1.2</v>
       </c>
       <c r="AQ162">
-        <v>1.7</v>
+        <v>2.09</v>
       </c>
       <c r="AR162">
-        <v>1.43</v>
+        <v>1.66</v>
       </c>
       <c r="AS162">
         <v>1.47</v>
       </c>
       <c r="AT162">
-        <v>2.9</v>
+        <v>3.13</v>
       </c>
       <c r="AU162">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AV162">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AW162">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AX162">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY162">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AZ162">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BA162">
         <v>6</v>
       </c>
       <c r="BB162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC162">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD162">
-        <v>1.8</v>
+        <v>2.88</v>
       </c>
       <c r="BE162">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF162">
-        <v>2.38</v>
+        <v>1.53</v>
       </c>
       <c r="BG162">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="BH162">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="BI162">
-        <v>1.42</v>
+        <v>1.19</v>
       </c>
       <c r="BJ162">
-        <v>2.62</v>
+        <v>4.35</v>
       </c>
       <c r="BK162">
-        <v>1.68</v>
+        <v>1.35</v>
       </c>
       <c r="BL162">
-        <v>2.14</v>
+        <v>3</v>
       </c>
       <c r="BM162">
-        <v>2.09</v>
+        <v>1.77</v>
       </c>
       <c r="BN162">
-        <v>1.72</v>
+        <v>1.95</v>
       </c>
       <c r="BO162">
-        <v>2.62</v>
+        <v>2</v>
       </c>
       <c r="BP162">
-        <v>1.42</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="163" spans="1:68">
@@ -34625,7 +34625,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>7295122</v>
+        <v>7295128</v>
       </c>
       <c r="C163" t="s">
         <v>68</v>
@@ -34640,43 +34640,43 @@
         <v>21</v>
       </c>
       <c r="G163" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H163" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N163">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O163" t="s">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c r="P163" t="s">
-        <v>157</v>
+        <v>285</v>
       </c>
       <c r="Q163">
-        <v>2.55</v>
+        <v>2.85</v>
       </c>
       <c r="R163">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S163">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="T163">
         <v>1.3</v>
@@ -34685,145 +34685,145 @@
         <v>3.34</v>
       </c>
       <c r="V163">
-        <v>2.41</v>
+        <v>2.39</v>
       </c>
       <c r="W163">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X163">
-        <v>5.6</v>
+        <v>5.55</v>
       </c>
       <c r="Y163">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="Z163">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="AA163">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AB163">
-        <v>3.3</v>
+        <v>2.62</v>
       </c>
       <c r="AC163">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD163">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE163">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AF163">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AG163">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AH163">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AI163">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AJ163">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="AK163">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AL163">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AM163">
+        <v>1.55</v>
+      </c>
+      <c r="AN163">
+        <v>1.88</v>
+      </c>
+      <c r="AO163">
+        <v>0.9</v>
+      </c>
+      <c r="AP163">
         <v>1.78</v>
       </c>
-      <c r="AN163">
-        <v>1</v>
-      </c>
-      <c r="AO163">
-        <v>0.44</v>
-      </c>
-      <c r="AP163">
-        <v>1</v>
-      </c>
       <c r="AQ163">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="AR163">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="AS163">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT163">
-        <v>2.46</v>
+        <v>2.76</v>
       </c>
       <c r="AU163">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV163">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW163">
         <v>8</v>
       </c>
       <c r="AX163">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY163">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ163">
         <v>12</v>
       </c>
       <c r="BA163">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BB163">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC163">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BD163">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="BE163">
         <v>8.5</v>
       </c>
       <c r="BF163">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="BG163">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="BH163">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="BI163">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="BJ163">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="BK163">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="BL163">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="BM163">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="BN163">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="BO163">
-        <v>2.35</v>
+        <v>2.01</v>
       </c>
       <c r="BP163">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="164" spans="1:68">
@@ -34831,7 +34831,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>7295128</v>
+        <v>7295125</v>
       </c>
       <c r="C164" t="s">
         <v>68</v>
@@ -34846,190 +34846,190 @@
         <v>21</v>
       </c>
       <c r="G164" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H164" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164">
         <v>1</v>
       </c>
       <c r="K164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L164">
         <v>2</v>
       </c>
       <c r="M164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N164">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O164" t="s">
-        <v>198</v>
+        <v>97</v>
       </c>
       <c r="P164" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q164">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="R164">
+        <v>2.32</v>
+      </c>
+      <c r="S164">
+        <v>3.25</v>
+      </c>
+      <c r="T164">
+        <v>1.29</v>
+      </c>
+      <c r="U164">
+        <v>3.4</v>
+      </c>
+      <c r="V164">
         <v>2.25</v>
       </c>
-      <c r="S164">
-        <v>3.15</v>
-      </c>
-      <c r="T164">
+      <c r="W164">
+        <v>1.57</v>
+      </c>
+      <c r="X164">
+        <v>4.75</v>
+      </c>
+      <c r="Y164">
+        <v>1.15</v>
+      </c>
+      <c r="Z164">
+        <v>2.38</v>
+      </c>
+      <c r="AA164">
+        <v>3.6</v>
+      </c>
+      <c r="AB164">
+        <v>2.5</v>
+      </c>
+      <c r="AC164">
+        <v>1.03</v>
+      </c>
+      <c r="AD164">
+        <v>12</v>
+      </c>
+      <c r="AE164">
+        <v>1.17</v>
+      </c>
+      <c r="AF164">
+        <v>4.5</v>
+      </c>
+      <c r="AG164">
+        <v>1.55</v>
+      </c>
+      <c r="AH164">
+        <v>2.3</v>
+      </c>
+      <c r="AI164">
+        <v>1.5</v>
+      </c>
+      <c r="AJ164">
+        <v>2.4</v>
+      </c>
+      <c r="AK164">
+        <v>1.45</v>
+      </c>
+      <c r="AL164">
         <v>1.3</v>
-      </c>
-      <c r="U164">
-        <v>3.34</v>
-      </c>
-      <c r="V164">
-        <v>2.39</v>
-      </c>
-      <c r="W164">
-        <v>1.54</v>
-      </c>
-      <c r="X164">
-        <v>5.55</v>
-      </c>
-      <c r="Y164">
-        <v>1.13</v>
-      </c>
-      <c r="Z164">
-        <v>2.3</v>
-      </c>
-      <c r="AA164">
-        <v>3.5</v>
-      </c>
-      <c r="AB164">
-        <v>2.62</v>
-      </c>
-      <c r="AC164">
-        <v>1.04</v>
-      </c>
-      <c r="AD164">
-        <v>10</v>
-      </c>
-      <c r="AE164">
-        <v>1.16</v>
-      </c>
-      <c r="AF164">
-        <v>4.3</v>
-      </c>
-      <c r="AG164">
-        <v>1.57</v>
-      </c>
-      <c r="AH164">
-        <v>2.25</v>
-      </c>
-      <c r="AI164">
-        <v>1.58</v>
-      </c>
-      <c r="AJ164">
-        <v>2.35</v>
-      </c>
-      <c r="AK164">
-        <v>1.4</v>
-      </c>
-      <c r="AL164">
-        <v>1.22</v>
       </c>
       <c r="AM164">
         <v>1.55</v>
       </c>
       <c r="AN164">
-        <v>1.88</v>
+        <v>2.2</v>
       </c>
       <c r="AO164">
-        <v>0.9</v>
+        <v>1.89</v>
       </c>
       <c r="AP164">
-        <v>1.78</v>
+        <v>2.27</v>
       </c>
       <c r="AQ164">
-        <v>0.91</v>
+        <v>1.7</v>
       </c>
       <c r="AR164">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="AS164">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="AT164">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="AU164">
+        <v>7</v>
+      </c>
+      <c r="AV164">
+        <v>2</v>
+      </c>
+      <c r="AW164">
+        <v>4</v>
+      </c>
+      <c r="AX164">
+        <v>3</v>
+      </c>
+      <c r="AY164">
+        <v>11</v>
+      </c>
+      <c r="AZ164">
         <v>5</v>
       </c>
-      <c r="AV164">
-        <v>4</v>
-      </c>
-      <c r="AW164">
+      <c r="BA164">
+        <v>6</v>
+      </c>
+      <c r="BB164">
+        <v>2</v>
+      </c>
+      <c r="BC164">
         <v>8</v>
       </c>
-      <c r="AX164">
+      <c r="BD164">
+        <v>1.8</v>
+      </c>
+      <c r="BE164">
         <v>8</v>
       </c>
-      <c r="AY164">
-        <v>13</v>
-      </c>
-      <c r="AZ164">
-        <v>12</v>
-      </c>
-      <c r="BA164">
-        <v>2</v>
-      </c>
-      <c r="BB164">
-        <v>3</v>
-      </c>
-      <c r="BC164">
-        <v>5</v>
-      </c>
-      <c r="BD164">
-        <v>1.91</v>
-      </c>
-      <c r="BE164">
-        <v>8.5</v>
-      </c>
       <c r="BF164">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="BG164">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="BH164">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="BI164">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="BJ164">
-        <v>3.6</v>
+        <v>2.62</v>
       </c>
       <c r="BK164">
-        <v>1.4</v>
+        <v>1.68</v>
       </c>
       <c r="BL164">
-        <v>2.7</v>
+        <v>2.14</v>
       </c>
       <c r="BM164">
-        <v>1.7</v>
+        <v>2.09</v>
       </c>
       <c r="BN164">
-        <v>2.05</v>
+        <v>1.72</v>
       </c>
       <c r="BO164">
-        <v>2.01</v>
+        <v>2.62</v>
       </c>
       <c r="BP164">
-        <v>1.78</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="165" spans="1:68">
@@ -35037,7 +35037,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>7295129</v>
+        <v>7295126</v>
       </c>
       <c r="C165" t="s">
         <v>68</v>
@@ -35052,190 +35052,190 @@
         <v>21</v>
       </c>
       <c r="G165" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H165" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J165">
         <v>0</v>
       </c>
       <c r="K165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O165" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="Q165">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="R165">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S165">
+        <v>3</v>
+      </c>
+      <c r="T165">
+        <v>1.33</v>
+      </c>
+      <c r="U165">
+        <v>3</v>
+      </c>
+      <c r="V165">
+        <v>2.4</v>
+      </c>
+      <c r="W165">
+        <v>1.5</v>
+      </c>
+      <c r="X165">
+        <v>5.5</v>
+      </c>
+      <c r="Y165">
+        <v>1.11</v>
+      </c>
+      <c r="Z165">
+        <v>2.38</v>
+      </c>
+      <c r="AA165">
+        <v>3.4</v>
+      </c>
+      <c r="AB165">
+        <v>2.6</v>
+      </c>
+      <c r="AC165">
+        <v>1.02</v>
+      </c>
+      <c r="AD165">
+        <v>10</v>
+      </c>
+      <c r="AE165">
+        <v>1.22</v>
+      </c>
+      <c r="AF165">
+        <v>3.8</v>
+      </c>
+      <c r="AG165">
+        <v>1.75</v>
+      </c>
+      <c r="AH165">
+        <v>1.95</v>
+      </c>
+      <c r="AI165">
+        <v>1.6</v>
+      </c>
+      <c r="AJ165">
+        <v>2.2</v>
+      </c>
+      <c r="AK165">
+        <v>1.53</v>
+      </c>
+      <c r="AL165">
+        <v>1.3</v>
+      </c>
+      <c r="AM165">
+        <v>1.48</v>
+      </c>
+      <c r="AN165">
+        <v>1</v>
+      </c>
+      <c r="AO165">
+        <v>1.33</v>
+      </c>
+      <c r="AP165">
+        <v>1</v>
+      </c>
+      <c r="AQ165">
+        <v>1.3</v>
+      </c>
+      <c r="AR165">
+        <v>1.5</v>
+      </c>
+      <c r="AS165">
+        <v>1.33</v>
+      </c>
+      <c r="AT165">
+        <v>2.83</v>
+      </c>
+      <c r="AU165">
+        <v>7</v>
+      </c>
+      <c r="AV165">
+        <v>7</v>
+      </c>
+      <c r="AW165">
+        <v>5</v>
+      </c>
+      <c r="AX165">
+        <v>7</v>
+      </c>
+      <c r="AY165">
+        <v>12</v>
+      </c>
+      <c r="AZ165">
+        <v>14</v>
+      </c>
+      <c r="BA165">
+        <v>2</v>
+      </c>
+      <c r="BB165">
+        <v>12</v>
+      </c>
+      <c r="BC165">
+        <v>14</v>
+      </c>
+      <c r="BD165">
         <v>2.1</v>
       </c>
-      <c r="T165">
-        <v>1.22</v>
-      </c>
-      <c r="U165">
-        <v>4</v>
-      </c>
-      <c r="V165">
-        <v>2.05</v>
-      </c>
-      <c r="W165">
-        <v>1.7</v>
-      </c>
-      <c r="X165">
-        <v>4.1</v>
-      </c>
-      <c r="Y165">
-        <v>1.19</v>
-      </c>
-      <c r="Z165">
-        <v>4</v>
-      </c>
-      <c r="AA165">
-        <v>4.33</v>
-      </c>
-      <c r="AB165">
-        <v>1.62</v>
-      </c>
-      <c r="AC165">
-        <v>1.01</v>
-      </c>
-      <c r="AD165">
-        <v>17</v>
-      </c>
-      <c r="AE165">
-        <v>1.08</v>
-      </c>
-      <c r="AF165">
-        <v>6.5</v>
-      </c>
-      <c r="AG165">
-        <v>1.36</v>
-      </c>
-      <c r="AH165">
-        <v>2.9</v>
-      </c>
-      <c r="AI165">
-        <v>1.44</v>
-      </c>
-      <c r="AJ165">
-        <v>2.7</v>
-      </c>
-      <c r="AK165">
+      <c r="BE165">
+        <v>8.5</v>
+      </c>
+      <c r="BF165">
+        <v>1.91</v>
+      </c>
+      <c r="BG165">
+        <v>1.15</v>
+      </c>
+      <c r="BH165">
+        <v>4.75</v>
+      </c>
+      <c r="BI165">
+        <v>1.29</v>
+      </c>
+      <c r="BJ165">
+        <v>3.3</v>
+      </c>
+      <c r="BK165">
+        <v>1.49</v>
+      </c>
+      <c r="BL165">
+        <v>2.48</v>
+      </c>
+      <c r="BM165">
+        <v>1.88</v>
+      </c>
+      <c r="BN165">
+        <v>1.92</v>
+      </c>
+      <c r="BO165">
         <v>2.2</v>
       </c>
-      <c r="AL165">
-        <v>1.22</v>
-      </c>
-      <c r="AM165">
-        <v>1.11</v>
-      </c>
-      <c r="AN165">
-        <v>1.33</v>
-      </c>
-      <c r="AO165">
-        <v>2</v>
-      </c>
-      <c r="AP165">
-        <v>1.2</v>
-      </c>
-      <c r="AQ165">
-        <v>2.09</v>
-      </c>
-      <c r="AR165">
-        <v>1.66</v>
-      </c>
-      <c r="AS165">
-        <v>1.47</v>
-      </c>
-      <c r="AT165">
-        <v>3.13</v>
-      </c>
-      <c r="AU165">
-        <v>-1</v>
-      </c>
-      <c r="AV165">
-        <v>-1</v>
-      </c>
-      <c r="AW165">
-        <v>-1</v>
-      </c>
-      <c r="AX165">
-        <v>-1</v>
-      </c>
-      <c r="AY165">
-        <v>-1</v>
-      </c>
-      <c r="AZ165">
-        <v>-1</v>
-      </c>
-      <c r="BA165">
-        <v>6</v>
-      </c>
-      <c r="BB165">
-        <v>1</v>
-      </c>
-      <c r="BC165">
-        <v>7</v>
-      </c>
-      <c r="BD165">
-        <v>2.88</v>
-      </c>
-      <c r="BE165">
-        <v>9</v>
-      </c>
-      <c r="BF165">
-        <v>1.53</v>
-      </c>
-      <c r="BG165">
-        <v>1.12</v>
-      </c>
-      <c r="BH165">
-        <v>5.25</v>
-      </c>
-      <c r="BI165">
-        <v>1.19</v>
-      </c>
-      <c r="BJ165">
-        <v>4.35</v>
-      </c>
-      <c r="BK165">
-        <v>1.35</v>
-      </c>
-      <c r="BL165">
-        <v>3</v>
-      </c>
-      <c r="BM165">
-        <v>1.77</v>
-      </c>
-      <c r="BN165">
-        <v>1.95</v>
-      </c>
-      <c r="BO165">
-        <v>2</v>
-      </c>
       <c r="BP165">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="166" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="290">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -614,6 +614,9 @@
   </si>
   <si>
     <t>['57']</t>
+  </si>
+  <si>
+    <t>['54', '64', '68']</t>
   </si>
   <si>
     <t>['39', '90+2']</t>
@@ -1242,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP166"/>
+  <dimension ref="A1:BP167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1501,7 +1504,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1707,7 +1710,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -2119,7 +2122,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2325,7 +2328,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -3024,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3227,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ10">
         <v>1.3</v>
@@ -3355,7 +3358,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3561,7 +3564,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q12">
         <v>5.5</v>
@@ -4179,7 +4182,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q15">
         <v>2.95</v>
@@ -4385,7 +4388,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4591,7 +4594,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4797,7 +4800,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5415,7 +5418,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5702,7 +5705,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ22">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR22">
         <v>1.3</v>
@@ -5827,7 +5830,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6033,7 +6036,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6320,7 +6323,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ25">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR25">
         <v>2.34</v>
@@ -6445,7 +6448,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6651,7 +6654,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -7063,7 +7066,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q29">
         <v>3.6</v>
@@ -7269,7 +7272,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7887,7 +7890,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -8093,7 +8096,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8171,7 +8174,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ34">
         <v>1.7</v>
@@ -8299,7 +8302,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8792,7 +8795,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ37">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR37">
         <v>1.56</v>
@@ -8917,7 +8920,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q38">
         <v>2.54</v>
@@ -9123,7 +9126,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9741,7 +9744,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -10440,7 +10443,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ45">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR45">
         <v>1.51</v>
@@ -10771,7 +10774,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -11055,7 +11058,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11183,7 +11186,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q49">
         <v>4.5</v>
@@ -11595,7 +11598,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11801,7 +11804,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -12213,7 +12216,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12419,7 +12422,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -13037,7 +13040,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13243,7 +13246,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13449,7 +13452,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -14067,7 +14070,7 @@
         <v>116</v>
       </c>
       <c r="P63" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14273,7 +14276,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14354,7 +14357,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ64">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR64">
         <v>1.5</v>
@@ -14763,7 +14766,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ66">
         <v>1.4</v>
@@ -14891,7 +14894,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -15097,7 +15100,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15921,7 +15924,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16127,7 +16130,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16333,7 +16336,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16539,7 +16542,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16617,7 +16620,7 @@
         <v>2.5</v>
       </c>
       <c r="AP75">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ75">
         <v>2</v>
@@ -16951,7 +16954,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -17363,7 +17366,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17569,7 +17572,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q80">
         <v>2.62</v>
@@ -17856,7 +17859,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ81">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR81">
         <v>1.46</v>
@@ -17981,7 +17984,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18599,7 +18602,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18677,7 +18680,7 @@
         <v>0.2</v>
       </c>
       <c r="AP85">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ85">
         <v>0.5</v>
@@ -18805,7 +18808,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -19011,7 +19014,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19217,7 +19220,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19835,7 +19838,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20041,7 +20044,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20453,7 +20456,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20534,7 +20537,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ94">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR94">
         <v>1.46</v>
@@ -20659,7 +20662,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -21071,7 +21074,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -21277,7 +21280,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21483,7 +21486,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21689,7 +21692,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21895,7 +21898,7 @@
         <v>117</v>
       </c>
       <c r="P101" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -22179,7 +22182,7 @@
         <v>2</v>
       </c>
       <c r="AP102">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ102">
         <v>1.9</v>
@@ -22719,7 +22722,7 @@
         <v>116</v>
       </c>
       <c r="P105" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q105">
         <v>2.75</v>
@@ -22925,7 +22928,7 @@
         <v>98</v>
       </c>
       <c r="P106" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23131,7 +23134,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23543,7 +23546,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23749,7 +23752,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -24161,7 +24164,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q112">
         <v>2.95</v>
@@ -24242,7 +24245,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ112">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR112">
         <v>1.21</v>
@@ -24367,7 +24370,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q113">
         <v>2.63</v>
@@ -24573,7 +24576,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -24985,7 +24988,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -25191,7 +25194,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25475,7 +25478,7 @@
         <v>1.14</v>
       </c>
       <c r="AP118">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ118">
         <v>0.8</v>
@@ -25603,7 +25606,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q119">
         <v>4.2</v>
@@ -25809,7 +25812,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q120">
         <v>1.75</v>
@@ -26015,7 +26018,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q121">
         <v>2.63</v>
@@ -26633,7 +26636,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26839,7 +26842,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27045,7 +27048,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27457,7 +27460,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -28075,7 +28078,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28153,7 +28156,7 @@
         <v>1.14</v>
       </c>
       <c r="AP131">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ131">
         <v>0.91</v>
@@ -28487,7 +28490,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28899,7 +28902,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29105,7 +29108,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q136">
         <v>2.38</v>
@@ -29517,7 +29520,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q138">
         <v>2.7</v>
@@ -29804,7 +29807,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ139">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR139">
         <v>1.24</v>
@@ -29929,7 +29932,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q140">
         <v>3.52</v>
@@ -30547,7 +30550,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q143">
         <v>3.4</v>
@@ -30959,7 +30962,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q145">
         <v>2.65</v>
@@ -31165,7 +31168,7 @@
         <v>87</v>
       </c>
       <c r="P146" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31371,7 +31374,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q147">
         <v>2.2</v>
@@ -31783,7 +31786,7 @@
         <v>87</v>
       </c>
       <c r="P149" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q149">
         <v>2.83</v>
@@ -31989,7 +31992,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32479,7 +32482,7 @@
         <v>1.33</v>
       </c>
       <c r="AP152">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ152">
         <v>1.36</v>
@@ -32894,7 +32897,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ154">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR154">
         <v>1.72</v>
@@ -33225,7 +33228,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q156">
         <v>2.1</v>
@@ -33637,7 +33640,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -34461,7 +34464,7 @@
         <v>87</v>
       </c>
       <c r="P162" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -34667,7 +34670,7 @@
         <v>197</v>
       </c>
       <c r="P163" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q163">
         <v>2.85</v>
@@ -34873,7 +34876,7 @@
         <v>97</v>
       </c>
       <c r="P164" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q164">
         <v>2.82</v>
@@ -35079,7 +35082,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35285,7 +35288,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q166">
         <v>1.8</v>
@@ -35442,6 +35445,212 @@
       </c>
       <c r="BP166">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7295135</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45548.58333333334</v>
+      </c>
+      <c r="F167">
+        <v>22</v>
+      </c>
+      <c r="G167" t="s">
+        <v>78</v>
+      </c>
+      <c r="H167" t="s">
+        <v>80</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>3</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>3</v>
+      </c>
+      <c r="O167" t="s">
+        <v>200</v>
+      </c>
+      <c r="P167" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q167">
+        <v>1.67</v>
+      </c>
+      <c r="R167">
+        <v>2.88</v>
+      </c>
+      <c r="S167">
+        <v>7.5</v>
+      </c>
+      <c r="T167">
+        <v>1.2</v>
+      </c>
+      <c r="U167">
+        <v>4.33</v>
+      </c>
+      <c r="V167">
+        <v>2</v>
+      </c>
+      <c r="W167">
+        <v>1.73</v>
+      </c>
+      <c r="X167">
+        <v>4.33</v>
+      </c>
+      <c r="Y167">
+        <v>1.2</v>
+      </c>
+      <c r="Z167">
+        <v>1.25</v>
+      </c>
+      <c r="AA167">
+        <v>6.5</v>
+      </c>
+      <c r="AB167">
+        <v>10</v>
+      </c>
+      <c r="AC167">
+        <v>1.01</v>
+      </c>
+      <c r="AD167">
+        <v>29.5</v>
+      </c>
+      <c r="AE167">
+        <v>1.12</v>
+      </c>
+      <c r="AF167">
+        <v>6.45</v>
+      </c>
+      <c r="AG167">
+        <v>1.35</v>
+      </c>
+      <c r="AH167">
+        <v>2.94</v>
+      </c>
+      <c r="AI167">
+        <v>1.75</v>
+      </c>
+      <c r="AJ167">
+        <v>2</v>
+      </c>
+      <c r="AK167">
+        <v>1.08</v>
+      </c>
+      <c r="AL167">
+        <v>1.13</v>
+      </c>
+      <c r="AM167">
+        <v>3.75</v>
+      </c>
+      <c r="AN167">
+        <v>2.4</v>
+      </c>
+      <c r="AO167">
+        <v>1.36</v>
+      </c>
+      <c r="AP167">
+        <v>2.45</v>
+      </c>
+      <c r="AQ167">
+        <v>1.25</v>
+      </c>
+      <c r="AR167">
+        <v>1.73</v>
+      </c>
+      <c r="AS167">
+        <v>1.26</v>
+      </c>
+      <c r="AT167">
+        <v>2.99</v>
+      </c>
+      <c r="AU167">
+        <v>8</v>
+      </c>
+      <c r="AV167">
+        <v>3</v>
+      </c>
+      <c r="AW167">
+        <v>5</v>
+      </c>
+      <c r="AX167">
+        <v>5</v>
+      </c>
+      <c r="AY167">
+        <v>13</v>
+      </c>
+      <c r="AZ167">
+        <v>8</v>
+      </c>
+      <c r="BA167">
+        <v>8</v>
+      </c>
+      <c r="BB167">
+        <v>6</v>
+      </c>
+      <c r="BC167">
+        <v>14</v>
+      </c>
+      <c r="BD167">
+        <v>1.12</v>
+      </c>
+      <c r="BE167">
+        <v>13</v>
+      </c>
+      <c r="BF167">
+        <v>7</v>
+      </c>
+      <c r="BG167">
+        <v>1.15</v>
+      </c>
+      <c r="BH167">
+        <v>4.75</v>
+      </c>
+      <c r="BI167">
+        <v>1.29</v>
+      </c>
+      <c r="BJ167">
+        <v>3.4</v>
+      </c>
+      <c r="BK167">
+        <v>1.44</v>
+      </c>
+      <c r="BL167">
+        <v>2.6</v>
+      </c>
+      <c r="BM167">
+        <v>1.77</v>
+      </c>
+      <c r="BN167">
+        <v>1.95</v>
+      </c>
+      <c r="BO167">
+        <v>2.1</v>
+      </c>
+      <c r="BP167">
+        <v>1.67</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="292">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -619,6 +619,9 @@
     <t>['54', '64', '68']</t>
   </si>
   <si>
+    <t>['15', '28', '32', '52', '57', '60']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -884,6 +887,9 @@
   </si>
   <si>
     <t>['10', '62', '78']</t>
+  </si>
+  <si>
+    <t>['1']</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP167"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1504,7 +1510,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1710,7 +1716,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1994,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2122,7 +2128,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2328,7 +2334,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2818,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ8">
         <v>1.36</v>
@@ -3358,7 +3364,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3439,7 +3445,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3564,7 +3570,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q12">
         <v>5.5</v>
@@ -4182,7 +4188,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q15">
         <v>2.95</v>
@@ -4388,7 +4394,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4469,7 +4475,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ16">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4594,7 +4600,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4800,7 +4806,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4878,7 +4884,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ18">
         <v>1.9</v>
@@ -5290,7 +5296,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ20">
         <v>0.6</v>
@@ -5418,7 +5424,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5830,7 +5836,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6036,7 +6042,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6448,7 +6454,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6526,7 +6532,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ26">
         <v>0.8</v>
@@ -6654,7 +6660,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -7066,7 +7072,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q29">
         <v>3.6</v>
@@ -7272,7 +7278,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7353,7 +7359,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR30">
         <v>1.39</v>
@@ -7762,10 +7768,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ32">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR32">
         <v>1.22</v>
@@ -7890,7 +7896,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -8096,7 +8102,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8302,7 +8308,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8586,7 +8592,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ36">
         <v>0.91</v>
@@ -8920,7 +8926,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q38">
         <v>2.54</v>
@@ -9126,7 +9132,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9744,7 +9750,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -10237,7 +10243,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR44">
         <v>1.38</v>
@@ -10774,7 +10780,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10855,7 +10861,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ47">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR47">
         <v>1.24</v>
@@ -11186,7 +11192,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q49">
         <v>4.5</v>
@@ -11470,7 +11476,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ50">
         <v>1.4</v>
@@ -11598,7 +11604,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11676,7 +11682,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ51">
         <v>0.8</v>
@@ -11804,7 +11810,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -12216,7 +12222,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12297,7 +12303,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR54">
         <v>1.82</v>
@@ -12422,7 +12428,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -13040,7 +13046,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13246,7 +13252,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13452,7 +13458,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13533,7 +13539,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ60">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR60">
         <v>1.09</v>
@@ -14070,7 +14076,7 @@
         <v>116</v>
       </c>
       <c r="P63" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14148,7 +14154,7 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ63">
         <v>1.09</v>
@@ -14276,7 +14282,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14894,7 +14900,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -15100,7 +15106,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15924,7 +15930,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16005,7 +16011,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ72">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR72">
         <v>1.23</v>
@@ -16130,7 +16136,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16208,7 +16214,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ73">
         <v>1.36</v>
@@ -16336,7 +16342,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16542,7 +16548,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16623,7 +16629,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ75">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR75">
         <v>1.51</v>
@@ -16954,7 +16960,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -17366,7 +17372,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17572,7 +17578,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q80">
         <v>2.62</v>
@@ -17856,7 +17862,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ81">
         <v>1.25</v>
@@ -17984,7 +17990,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18271,7 +18277,7 @@
         <v>1</v>
       </c>
       <c r="AQ83">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR83">
         <v>1.53</v>
@@ -18602,7 +18608,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18808,7 +18814,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -19014,7 +19020,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19092,7 +19098,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ87">
         <v>1.3</v>
@@ -19220,7 +19226,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19838,7 +19844,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20044,7 +20050,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20331,7 +20337,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ93">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR93">
         <v>1.43</v>
@@ -20456,7 +20462,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20662,7 +20668,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20743,7 +20749,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ95">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR95">
         <v>1.17</v>
@@ -21074,7 +21080,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -21280,7 +21286,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21486,7 +21492,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21692,7 +21698,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21770,7 +21776,7 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ100">
         <v>0.8</v>
@@ -21898,7 +21904,7 @@
         <v>117</v>
       </c>
       <c r="P101" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -22388,7 +22394,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ103">
         <v>1.09</v>
@@ -22722,7 +22728,7 @@
         <v>116</v>
       </c>
       <c r="P105" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q105">
         <v>2.75</v>
@@ -22928,7 +22934,7 @@
         <v>98</v>
       </c>
       <c r="P106" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23134,7 +23140,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23546,7 +23552,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23627,7 +23633,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ109">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR109">
         <v>1.43</v>
@@ -23752,7 +23758,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -24164,7 +24170,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q112">
         <v>2.95</v>
@@ -24370,7 +24376,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q113">
         <v>2.63</v>
@@ -24576,7 +24582,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -24860,7 +24866,7 @@
         <v>0.71</v>
       </c>
       <c r="AP115">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ115">
         <v>0.6</v>
@@ -24988,7 +24994,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -25194,7 +25200,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25275,7 +25281,7 @@
         <v>1</v>
       </c>
       <c r="AQ117">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR117">
         <v>1.45</v>
@@ -25606,7 +25612,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q119">
         <v>4.2</v>
@@ -25812,7 +25818,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q120">
         <v>1.75</v>
@@ -25890,10 +25896,10 @@
         <v>2</v>
       </c>
       <c r="AP120">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ120">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR120">
         <v>1.74</v>
@@ -26018,7 +26024,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q121">
         <v>2.63</v>
@@ -26511,7 +26517,7 @@
         <v>1</v>
       </c>
       <c r="AQ123">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR123">
         <v>1.15</v>
@@ -26636,7 +26642,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26842,7 +26848,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27048,7 +27054,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27460,7 +27466,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27950,7 +27956,7 @@
         <v>2</v>
       </c>
       <c r="AP130">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ130">
         <v>1.7</v>
@@ -28078,7 +28084,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28365,7 +28371,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ132">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR132">
         <v>1.23</v>
@@ -28490,7 +28496,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28902,7 +28908,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29108,7 +29114,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q136">
         <v>2.38</v>
@@ -29520,7 +29526,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q138">
         <v>2.7</v>
@@ -29932,7 +29938,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q140">
         <v>3.52</v>
@@ -30010,7 +30016,7 @@
         <v>2.11</v>
       </c>
       <c r="AP140">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ140">
         <v>2.09</v>
@@ -30550,7 +30556,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q143">
         <v>3.4</v>
@@ -30962,7 +30968,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q145">
         <v>2.65</v>
@@ -31168,7 +31174,7 @@
         <v>87</v>
       </c>
       <c r="P146" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31374,7 +31380,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q147">
         <v>2.2</v>
@@ -31786,7 +31792,7 @@
         <v>87</v>
       </c>
       <c r="P149" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q149">
         <v>2.83</v>
@@ -31992,7 +31998,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32894,7 +32900,7 @@
         <v>1.5</v>
       </c>
       <c r="AP154">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ154">
         <v>1.25</v>
@@ -33228,7 +33234,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q156">
         <v>2.1</v>
@@ -33306,7 +33312,7 @@
         <v>1.1</v>
       </c>
       <c r="AP156">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ156">
         <v>1</v>
@@ -33515,7 +33521,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ157">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR157">
         <v>1.29</v>
@@ -33640,7 +33646,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -34464,7 +34470,7 @@
         <v>87</v>
       </c>
       <c r="P162" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -34670,7 +34676,7 @@
         <v>197</v>
       </c>
       <c r="P163" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q163">
         <v>2.85</v>
@@ -34876,7 +34882,7 @@
         <v>97</v>
       </c>
       <c r="P164" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q164">
         <v>2.82</v>
@@ -35082,7 +35088,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35288,7 +35294,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q166">
         <v>1.8</v>
@@ -35651,6 +35657,418 @@
       </c>
       <c r="BP167">
         <v>1.67</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7295137</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F168">
+        <v>22</v>
+      </c>
+      <c r="G168" t="s">
+        <v>76</v>
+      </c>
+      <c r="H168" t="s">
+        <v>77</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>1</v>
+      </c>
+      <c r="O168" t="s">
+        <v>110</v>
+      </c>
+      <c r="P168" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q168">
+        <v>2.25</v>
+      </c>
+      <c r="R168">
+        <v>2.38</v>
+      </c>
+      <c r="S168">
+        <v>4.75</v>
+      </c>
+      <c r="T168">
+        <v>1.3</v>
+      </c>
+      <c r="U168">
+        <v>3.4</v>
+      </c>
+      <c r="V168">
+        <v>2.5</v>
+      </c>
+      <c r="W168">
+        <v>1.5</v>
+      </c>
+      <c r="X168">
+        <v>6</v>
+      </c>
+      <c r="Y168">
+        <v>1.13</v>
+      </c>
+      <c r="Z168">
+        <v>1.67</v>
+      </c>
+      <c r="AA168">
+        <v>4</v>
+      </c>
+      <c r="AB168">
+        <v>4.7</v>
+      </c>
+      <c r="AC168">
+        <v>1.03</v>
+      </c>
+      <c r="AD168">
+        <v>17</v>
+      </c>
+      <c r="AE168">
+        <v>1.17</v>
+      </c>
+      <c r="AF168">
+        <v>4.25</v>
+      </c>
+      <c r="AG168">
+        <v>1.6</v>
+      </c>
+      <c r="AH168">
+        <v>2.2</v>
+      </c>
+      <c r="AI168">
+        <v>1.67</v>
+      </c>
+      <c r="AJ168">
+        <v>2.1</v>
+      </c>
+      <c r="AK168">
+        <v>1.19</v>
+      </c>
+      <c r="AL168">
+        <v>1.24</v>
+      </c>
+      <c r="AM168">
+        <v>2.18</v>
+      </c>
+      <c r="AN168">
+        <v>2.18</v>
+      </c>
+      <c r="AO168">
+        <v>2</v>
+      </c>
+      <c r="AP168">
+        <v>2.25</v>
+      </c>
+      <c r="AQ168">
+        <v>1.8</v>
+      </c>
+      <c r="AR168">
+        <v>1.59</v>
+      </c>
+      <c r="AS168">
+        <v>1.03</v>
+      </c>
+      <c r="AT168">
+        <v>2.62</v>
+      </c>
+      <c r="AU168">
+        <v>4</v>
+      </c>
+      <c r="AV168">
+        <v>2</v>
+      </c>
+      <c r="AW168">
+        <v>5</v>
+      </c>
+      <c r="AX168">
+        <v>3</v>
+      </c>
+      <c r="AY168">
+        <v>9</v>
+      </c>
+      <c r="AZ168">
+        <v>5</v>
+      </c>
+      <c r="BA168">
+        <v>3</v>
+      </c>
+      <c r="BB168">
+        <v>2</v>
+      </c>
+      <c r="BC168">
+        <v>5</v>
+      </c>
+      <c r="BD168">
+        <v>1.67</v>
+      </c>
+      <c r="BE168">
+        <v>8.5</v>
+      </c>
+      <c r="BF168">
+        <v>2.5</v>
+      </c>
+      <c r="BG168">
+        <v>1.22</v>
+      </c>
+      <c r="BH168">
+        <v>3.8</v>
+      </c>
+      <c r="BI168">
+        <v>1.4</v>
+      </c>
+      <c r="BJ168">
+        <v>2.7</v>
+      </c>
+      <c r="BK168">
+        <v>1.65</v>
+      </c>
+      <c r="BL168">
+        <v>2.1</v>
+      </c>
+      <c r="BM168">
+        <v>1.98</v>
+      </c>
+      <c r="BN168">
+        <v>1.82</v>
+      </c>
+      <c r="BO168">
+        <v>2.6</v>
+      </c>
+      <c r="BP168">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7295131</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45549.54166666666</v>
+      </c>
+      <c r="F169">
+        <v>22</v>
+      </c>
+      <c r="G169" t="s">
+        <v>72</v>
+      </c>
+      <c r="H169" t="s">
+        <v>71</v>
+      </c>
+      <c r="I169">
+        <v>3</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>4</v>
+      </c>
+      <c r="L169">
+        <v>6</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>7</v>
+      </c>
+      <c r="O169" t="s">
+        <v>201</v>
+      </c>
+      <c r="P169" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q169">
+        <v>2.25</v>
+      </c>
+      <c r="R169">
+        <v>2.3</v>
+      </c>
+      <c r="S169">
+        <v>5</v>
+      </c>
+      <c r="T169">
+        <v>1.36</v>
+      </c>
+      <c r="U169">
+        <v>3</v>
+      </c>
+      <c r="V169">
+        <v>2.63</v>
+      </c>
+      <c r="W169">
+        <v>1.44</v>
+      </c>
+      <c r="X169">
+        <v>7</v>
+      </c>
+      <c r="Y169">
+        <v>1.1</v>
+      </c>
+      <c r="Z169">
+        <v>1.67</v>
+      </c>
+      <c r="AA169">
+        <v>3.85</v>
+      </c>
+      <c r="AB169">
+        <v>4.8</v>
+      </c>
+      <c r="AC169">
+        <v>1.04</v>
+      </c>
+      <c r="AD169">
+        <v>13</v>
+      </c>
+      <c r="AE169">
+        <v>1.28</v>
+      </c>
+      <c r="AF169">
+        <v>3.75</v>
+      </c>
+      <c r="AG169">
+        <v>1.73</v>
+      </c>
+      <c r="AH169">
+        <v>1.81</v>
+      </c>
+      <c r="AI169">
+        <v>1.8</v>
+      </c>
+      <c r="AJ169">
+        <v>1.95</v>
+      </c>
+      <c r="AK169">
+        <v>1.18</v>
+      </c>
+      <c r="AL169">
+        <v>1.2</v>
+      </c>
+      <c r="AM169">
+        <v>2.25</v>
+      </c>
+      <c r="AN169">
+        <v>1.7</v>
+      </c>
+      <c r="AO169">
+        <v>1.7</v>
+      </c>
+      <c r="AP169">
+        <v>1.82</v>
+      </c>
+      <c r="AQ169">
+        <v>1.55</v>
+      </c>
+      <c r="AR169">
+        <v>1.73</v>
+      </c>
+      <c r="AS169">
+        <v>1.18</v>
+      </c>
+      <c r="AT169">
+        <v>2.91</v>
+      </c>
+      <c r="AU169">
+        <v>12</v>
+      </c>
+      <c r="AV169">
+        <v>4</v>
+      </c>
+      <c r="AW169">
+        <v>5</v>
+      </c>
+      <c r="AX169">
+        <v>4</v>
+      </c>
+      <c r="AY169">
+        <v>17</v>
+      </c>
+      <c r="AZ169">
+        <v>8</v>
+      </c>
+      <c r="BA169">
+        <v>12</v>
+      </c>
+      <c r="BB169">
+        <v>5</v>
+      </c>
+      <c r="BC169">
+        <v>17</v>
+      </c>
+      <c r="BD169">
+        <v>1.53</v>
+      </c>
+      <c r="BE169">
+        <v>8.5</v>
+      </c>
+      <c r="BF169">
+        <v>2.88</v>
+      </c>
+      <c r="BG169">
+        <v>1.25</v>
+      </c>
+      <c r="BH169">
+        <v>3.6</v>
+      </c>
+      <c r="BI169">
+        <v>1.42</v>
+      </c>
+      <c r="BJ169">
+        <v>2.62</v>
+      </c>
+      <c r="BK169">
+        <v>1.67</v>
+      </c>
+      <c r="BL169">
+        <v>2.1</v>
+      </c>
+      <c r="BM169">
+        <v>2</v>
+      </c>
+      <c r="BN169">
+        <v>1.8</v>
+      </c>
+      <c r="BO169">
+        <v>2.6</v>
+      </c>
+      <c r="BP169">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="295">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -622,6 +622,12 @@
     <t>['15', '28', '32', '52', '57', '60']</t>
   </si>
   <si>
+    <t>['9', '64']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -796,9 +802,6 @@
     <t>['81']</t>
   </si>
   <si>
-    <t>['9']</t>
-  </si>
-  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -890,6 +893,12 @@
   </si>
   <si>
     <t>['1']</t>
+  </si>
+  <si>
+    <t>['30', '90+2']</t>
+  </si>
+  <si>
+    <t>['61', '80']</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1510,7 +1519,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1588,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ2">
         <v>0.91</v>
@@ -1716,7 +1725,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -2128,7 +2137,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2209,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2334,7 +2343,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2412,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ6">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3364,7 +3373,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3570,7 +3579,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q12">
         <v>5.5</v>
@@ -3854,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>0.8</v>
@@ -4063,7 +4072,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ14">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4188,7 +4197,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q15">
         <v>2.95</v>
@@ -4266,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ15">
         <v>1.09</v>
@@ -4394,7 +4403,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4600,7 +4609,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4806,7 +4815,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4887,7 +4896,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ18">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR18">
         <v>1.5</v>
@@ -5299,7 +5308,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ20">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR20">
         <v>2.32</v>
@@ -5424,7 +5433,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5502,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ21">
         <v>0.5</v>
@@ -5836,7 +5845,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5914,7 +5923,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ23">
         <v>2.09</v>
@@ -6042,7 +6051,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6454,7 +6463,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6660,7 +6669,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6947,7 +6956,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ28">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR28">
         <v>1.11</v>
@@ -7072,7 +7081,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q29">
         <v>3.6</v>
@@ -7150,10 +7159,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ29">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR29">
         <v>0.59</v>
@@ -7278,7 +7287,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7356,7 +7365,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
         <v>1.8</v>
@@ -7896,7 +7905,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7974,7 +7983,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ33">
         <v>1.09</v>
@@ -8102,7 +8111,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8308,7 +8317,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8798,7 +8807,7 @@
         <v>0.33</v>
       </c>
       <c r="AP37">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ37">
         <v>1.25</v>
@@ -8926,7 +8935,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q38">
         <v>2.54</v>
@@ -9007,7 +9016,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ38">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR38">
         <v>1.19</v>
@@ -9132,7 +9141,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9625,7 +9634,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR41">
         <v>2.11</v>
@@ -9750,7 +9759,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9828,7 +9837,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ42">
         <v>1.3</v>
@@ -10037,7 +10046,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ43">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR43">
         <v>1.98</v>
@@ -10240,7 +10249,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ44">
         <v>1.8</v>
@@ -10652,7 +10661,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
         <v>1.09</v>
@@ -10780,7 +10789,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10858,7 +10867,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ47">
         <v>1.55</v>
@@ -11192,7 +11201,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q49">
         <v>4.5</v>
@@ -11270,7 +11279,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ49">
         <v>1.7</v>
@@ -11479,7 +11488,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ50">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR50">
         <v>1.33</v>
@@ -11604,7 +11613,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11685,7 +11694,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ51">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR51">
         <v>1.86</v>
@@ -11810,7 +11819,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -12222,7 +12231,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12428,7 +12437,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12712,7 +12721,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ56">
         <v>1.36</v>
@@ -13046,7 +13055,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13124,10 +13133,10 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ58">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR58">
         <v>1.38</v>
@@ -13252,7 +13261,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13330,7 +13339,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ59">
         <v>1.7</v>
@@ -13458,7 +13467,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -14076,7 +14085,7 @@
         <v>116</v>
       </c>
       <c r="P63" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14282,7 +14291,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14360,7 +14369,7 @@
         <v>0.6</v>
       </c>
       <c r="AP64">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
         <v>1.25</v>
@@ -14566,10 +14575,10 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ65">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -14775,7 +14784,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ66">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR66">
         <v>1.51</v>
@@ -14900,7 +14909,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -14981,7 +14990,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ67">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR67">
         <v>1.44</v>
@@ -15106,7 +15115,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15184,7 +15193,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ68">
         <v>1.3</v>
@@ -15930,7 +15939,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16008,7 +16017,7 @@
         <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ72">
         <v>1.55</v>
@@ -16136,7 +16145,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16342,7 +16351,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16423,7 +16432,7 @@
         <v>1</v>
       </c>
       <c r="AQ74">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR74">
         <v>1.59</v>
@@ -16548,7 +16557,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16835,7 +16844,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ76">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR76">
         <v>1.37</v>
@@ -16960,7 +16969,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -17041,7 +17050,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ77">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR77">
         <v>1.14</v>
@@ -17244,7 +17253,7 @@
         <v>0.25</v>
       </c>
       <c r="AP78">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ78">
         <v>0.5</v>
@@ -17372,7 +17381,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17450,7 +17459,7 @@
         <v>2.25</v>
       </c>
       <c r="AP79">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ79">
         <v>1.09</v>
@@ -17578,7 +17587,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q80">
         <v>2.62</v>
@@ -17656,7 +17665,7 @@
         <v>1.2</v>
       </c>
       <c r="AP80">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ80">
         <v>1</v>
@@ -17990,7 +17999,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18483,7 +18492,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ84">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR84">
         <v>1.93</v>
@@ -18608,7 +18617,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18814,7 +18823,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -18895,7 +18904,7 @@
         <v>1</v>
       </c>
       <c r="AQ86">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR86">
         <v>1.09</v>
@@ -19020,7 +19029,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19226,7 +19235,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19716,7 +19725,7 @@
         <v>2.4</v>
       </c>
       <c r="AP90">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ90">
         <v>2.09</v>
@@ -19844,7 +19853,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20050,7 +20059,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20462,7 +20471,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20540,7 +20549,7 @@
         <v>0.86</v>
       </c>
       <c r="AP94">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ94">
         <v>1.25</v>
@@ -20668,7 +20677,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20746,7 +20755,7 @@
         <v>2.2</v>
       </c>
       <c r="AP95">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ95">
         <v>1.8</v>
@@ -21080,7 +21089,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -21158,7 +21167,7 @@
         <v>2.5</v>
       </c>
       <c r="AP97">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ97">
         <v>2.09</v>
@@ -21286,7 +21295,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21364,10 +21373,10 @@
         <v>0.67</v>
       </c>
       <c r="AP98">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ98">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR98">
         <v>1.11</v>
@@ -21492,7 +21501,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21698,7 +21707,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21779,7 +21788,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ100">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR100">
         <v>1.55</v>
@@ -21904,7 +21913,7 @@
         <v>117</v>
       </c>
       <c r="P101" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -21982,10 +21991,10 @@
         <v>0.25</v>
       </c>
       <c r="AP101">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ101">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR101">
         <v>1.41</v>
@@ -22191,7 +22200,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ102">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR102">
         <v>1.54</v>
@@ -22603,7 +22612,7 @@
         <v>1</v>
       </c>
       <c r="AQ104">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR104">
         <v>1.2</v>
@@ -22728,7 +22737,7 @@
         <v>116</v>
       </c>
       <c r="P105" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q105">
         <v>2.75</v>
@@ -22806,7 +22815,7 @@
         <v>1.17</v>
       </c>
       <c r="AP105">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ105">
         <v>1.36</v>
@@ -22934,7 +22943,7 @@
         <v>98</v>
       </c>
       <c r="P106" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23140,7 +23149,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23552,7 +23561,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23758,7 +23767,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -23836,10 +23845,10 @@
         <v>0.67</v>
       </c>
       <c r="AP110">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ110">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR110">
         <v>1.6</v>
@@ -24170,7 +24179,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q112">
         <v>2.95</v>
@@ -24248,7 +24257,7 @@
         <v>1.13</v>
       </c>
       <c r="AP112">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ112">
         <v>1.25</v>
@@ -24376,7 +24385,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q113">
         <v>2.63</v>
@@ -24454,7 +24463,7 @@
         <v>1.43</v>
       </c>
       <c r="AP113">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ113">
         <v>1</v>
@@ -24582,7 +24591,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -24660,7 +24669,7 @@
         <v>2.57</v>
       </c>
       <c r="AP114">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ114">
         <v>2.09</v>
@@ -24869,7 +24878,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ115">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR115">
         <v>1.52</v>
@@ -24994,7 +25003,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -25200,7 +25209,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25612,7 +25621,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q119">
         <v>4.2</v>
@@ -25690,10 +25699,10 @@
         <v>1.71</v>
       </c>
       <c r="AP119">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ119">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR119">
         <v>1.6</v>
@@ -25818,7 +25827,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q120">
         <v>1.75</v>
@@ -26024,7 +26033,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q121">
         <v>2.63</v>
@@ -26105,7 +26114,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ121">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR121">
         <v>1.59</v>
@@ -26308,7 +26317,7 @@
         <v>1.83</v>
       </c>
       <c r="AP122">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ122">
         <v>1.3</v>
@@ -26642,7 +26651,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26848,7 +26857,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -26929,7 +26938,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ125">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR125">
         <v>1.26</v>
@@ -27054,7 +27063,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27132,7 +27141,7 @@
         <v>1.43</v>
       </c>
       <c r="AP126">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ126">
         <v>1.36</v>
@@ -27338,7 +27347,7 @@
         <v>1.25</v>
       </c>
       <c r="AP127">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ127">
         <v>1</v>
@@ -27466,7 +27475,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27544,7 +27553,7 @@
         <v>1.33</v>
       </c>
       <c r="AP128">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ128">
         <v>0.91</v>
@@ -27753,7 +27762,7 @@
         <v>1</v>
       </c>
       <c r="AQ129">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR129">
         <v>1.47</v>
@@ -28084,7 +28093,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28496,7 +28505,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28577,7 +28586,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ133">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR133">
         <v>1.53</v>
@@ -28908,7 +28917,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29114,7 +29123,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q136">
         <v>2.38</v>
@@ -29192,7 +29201,7 @@
         <v>0.5</v>
       </c>
       <c r="AP136">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ136">
         <v>0.5</v>
@@ -29401,7 +29410,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ137">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR137">
         <v>1.4</v>
@@ -29526,7 +29535,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q138">
         <v>2.7</v>
@@ -29604,7 +29613,7 @@
         <v>1.11</v>
       </c>
       <c r="AP138">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ138">
         <v>1</v>
@@ -29810,7 +29819,7 @@
         <v>1.33</v>
       </c>
       <c r="AP139">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ139">
         <v>1.25</v>
@@ -29938,7 +29947,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q140">
         <v>3.52</v>
@@ -30225,7 +30234,7 @@
         <v>1</v>
       </c>
       <c r="AQ141">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR141">
         <v>1.48</v>
@@ -30428,7 +30437,7 @@
         <v>1.38</v>
       </c>
       <c r="AP142">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ142">
         <v>1.36</v>
@@ -30556,7 +30565,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q143">
         <v>3.4</v>
@@ -30634,7 +30643,7 @@
         <v>1.75</v>
       </c>
       <c r="AP143">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ143">
         <v>1.7</v>
@@ -30968,7 +30977,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q145">
         <v>2.65</v>
@@ -31174,7 +31183,7 @@
         <v>87</v>
       </c>
       <c r="P146" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31255,7 +31264,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ146">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR146">
         <v>1.29</v>
@@ -31380,7 +31389,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q147">
         <v>2.2</v>
@@ -31458,7 +31467,7 @@
         <v>0.89</v>
       </c>
       <c r="AP147">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ147">
         <v>0.91</v>
@@ -31792,7 +31801,7 @@
         <v>87</v>
       </c>
       <c r="P149" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q149">
         <v>2.83</v>
@@ -31873,7 +31882,7 @@
         <v>1</v>
       </c>
       <c r="AQ149">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR149">
         <v>1.41</v>
@@ -31998,7 +32007,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32694,10 +32703,10 @@
         <v>1.22</v>
       </c>
       <c r="AP153">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ153">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR153">
         <v>1.32</v>
@@ -33106,10 +33115,10 @@
         <v>0.67</v>
       </c>
       <c r="AP155">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ155">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR155">
         <v>1.53</v>
@@ -33234,7 +33243,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q156">
         <v>2.1</v>
@@ -33518,7 +33527,7 @@
         <v>1.89</v>
       </c>
       <c r="AP157">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ157">
         <v>1.55</v>
@@ -33646,7 +33655,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -33724,10 +33733,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP158">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ158">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR158">
         <v>1.18</v>
@@ -34470,7 +34479,7 @@
         <v>87</v>
       </c>
       <c r="P162" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -34676,7 +34685,7 @@
         <v>197</v>
       </c>
       <c r="P163" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q163">
         <v>2.85</v>
@@ -34882,7 +34891,7 @@
         <v>97</v>
       </c>
       <c r="P164" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q164">
         <v>2.82</v>
@@ -35088,7 +35097,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35294,7 +35303,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q166">
         <v>1.8</v>
@@ -35912,7 +35921,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q169">
         <v>2.25</v>
@@ -36069,6 +36078,1036 @@
       </c>
       <c r="BP169">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7295132</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45550.39583333334</v>
+      </c>
+      <c r="F170">
+        <v>22</v>
+      </c>
+      <c r="G170" t="s">
+        <v>70</v>
+      </c>
+      <c r="H170" t="s">
+        <v>73</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>1</v>
+      </c>
+      <c r="O170" t="s">
+        <v>141</v>
+      </c>
+      <c r="P170" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q170">
+        <v>3.4</v>
+      </c>
+      <c r="R170">
+        <v>2.2</v>
+      </c>
+      <c r="S170">
+        <v>3</v>
+      </c>
+      <c r="T170">
+        <v>1.36</v>
+      </c>
+      <c r="U170">
+        <v>3</v>
+      </c>
+      <c r="V170">
+        <v>2.75</v>
+      </c>
+      <c r="W170">
+        <v>1.4</v>
+      </c>
+      <c r="X170">
+        <v>8</v>
+      </c>
+      <c r="Y170">
+        <v>1.08</v>
+      </c>
+      <c r="Z170">
+        <v>2.87</v>
+      </c>
+      <c r="AA170">
+        <v>3.35</v>
+      </c>
+      <c r="AB170">
+        <v>2.32</v>
+      </c>
+      <c r="AC170">
+        <v>1.01</v>
+      </c>
+      <c r="AD170">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE170">
+        <v>1.26</v>
+      </c>
+      <c r="AF170">
+        <v>3.34</v>
+      </c>
+      <c r="AG170">
+        <v>1.88</v>
+      </c>
+      <c r="AH170">
+        <v>1.98</v>
+      </c>
+      <c r="AI170">
+        <v>1.7</v>
+      </c>
+      <c r="AJ170">
+        <v>2.05</v>
+      </c>
+      <c r="AK170">
+        <v>1.58</v>
+      </c>
+      <c r="AL170">
+        <v>1.3</v>
+      </c>
+      <c r="AM170">
+        <v>1.4</v>
+      </c>
+      <c r="AN170">
+        <v>0.91</v>
+      </c>
+      <c r="AO170">
+        <v>1.4</v>
+      </c>
+      <c r="AP170">
+        <v>1.08</v>
+      </c>
+      <c r="AQ170">
+        <v>1.27</v>
+      </c>
+      <c r="AR170">
+        <v>1.14</v>
+      </c>
+      <c r="AS170">
+        <v>1.18</v>
+      </c>
+      <c r="AT170">
+        <v>2.32</v>
+      </c>
+      <c r="AU170">
+        <v>6</v>
+      </c>
+      <c r="AV170">
+        <v>4</v>
+      </c>
+      <c r="AW170">
+        <v>2</v>
+      </c>
+      <c r="AX170">
+        <v>9</v>
+      </c>
+      <c r="AY170">
+        <v>8</v>
+      </c>
+      <c r="AZ170">
+        <v>13</v>
+      </c>
+      <c r="BA170">
+        <v>4</v>
+      </c>
+      <c r="BB170">
+        <v>4</v>
+      </c>
+      <c r="BC170">
+        <v>8</v>
+      </c>
+      <c r="BD170">
+        <v>2.1</v>
+      </c>
+      <c r="BE170">
+        <v>8</v>
+      </c>
+      <c r="BF170">
+        <v>1.95</v>
+      </c>
+      <c r="BG170">
+        <v>1.25</v>
+      </c>
+      <c r="BH170">
+        <v>3.6</v>
+      </c>
+      <c r="BI170">
+        <v>1.42</v>
+      </c>
+      <c r="BJ170">
+        <v>2.62</v>
+      </c>
+      <c r="BK170">
+        <v>1.68</v>
+      </c>
+      <c r="BL170">
+        <v>2.13</v>
+      </c>
+      <c r="BM170">
+        <v>1.95</v>
+      </c>
+      <c r="BN170">
+        <v>1.77</v>
+      </c>
+      <c r="BO170">
+        <v>2.62</v>
+      </c>
+      <c r="BP170">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7295136</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45550.5</v>
+      </c>
+      <c r="F171">
+        <v>22</v>
+      </c>
+      <c r="G171" t="s">
+        <v>83</v>
+      </c>
+      <c r="H171" t="s">
+        <v>82</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171" t="s">
+        <v>87</v>
+      </c>
+      <c r="P171" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q171">
+        <v>2.88</v>
+      </c>
+      <c r="R171">
+        <v>2.38</v>
+      </c>
+      <c r="S171">
+        <v>3.25</v>
+      </c>
+      <c r="T171">
+        <v>1.3</v>
+      </c>
+      <c r="U171">
+        <v>3.4</v>
+      </c>
+      <c r="V171">
+        <v>2.38</v>
+      </c>
+      <c r="W171">
+        <v>1.53</v>
+      </c>
+      <c r="X171">
+        <v>6</v>
+      </c>
+      <c r="Y171">
+        <v>1.13</v>
+      </c>
+      <c r="Z171">
+        <v>2.24</v>
+      </c>
+      <c r="AA171">
+        <v>3.5</v>
+      </c>
+      <c r="AB171">
+        <v>2.89</v>
+      </c>
+      <c r="AC171">
+        <v>1.01</v>
+      </c>
+      <c r="AD171">
+        <v>12</v>
+      </c>
+      <c r="AE171">
+        <v>1.18</v>
+      </c>
+      <c r="AF171">
+        <v>4.33</v>
+      </c>
+      <c r="AG171">
+        <v>1.57</v>
+      </c>
+      <c r="AH171">
+        <v>2.25</v>
+      </c>
+      <c r="AI171">
+        <v>1.53</v>
+      </c>
+      <c r="AJ171">
+        <v>2.38</v>
+      </c>
+      <c r="AK171">
+        <v>1.44</v>
+      </c>
+      <c r="AL171">
+        <v>1.29</v>
+      </c>
+      <c r="AM171">
+        <v>1.6</v>
+      </c>
+      <c r="AN171">
+        <v>1.2</v>
+      </c>
+      <c r="AO171">
+        <v>1</v>
+      </c>
+      <c r="AP171">
+        <v>1.18</v>
+      </c>
+      <c r="AQ171">
+        <v>1</v>
+      </c>
+      <c r="AR171">
+        <v>1.29</v>
+      </c>
+      <c r="AS171">
+        <v>1.26</v>
+      </c>
+      <c r="AT171">
+        <v>2.55</v>
+      </c>
+      <c r="AU171">
+        <v>6</v>
+      </c>
+      <c r="AV171">
+        <v>3</v>
+      </c>
+      <c r="AW171">
+        <v>11</v>
+      </c>
+      <c r="AX171">
+        <v>5</v>
+      </c>
+      <c r="AY171">
+        <v>17</v>
+      </c>
+      <c r="AZ171">
+        <v>8</v>
+      </c>
+      <c r="BA171">
+        <v>11</v>
+      </c>
+      <c r="BB171">
+        <v>0</v>
+      </c>
+      <c r="BC171">
+        <v>11</v>
+      </c>
+      <c r="BD171">
+        <v>1.91</v>
+      </c>
+      <c r="BE171">
+        <v>8.5</v>
+      </c>
+      <c r="BF171">
+        <v>2.2</v>
+      </c>
+      <c r="BG171">
+        <v>1.13</v>
+      </c>
+      <c r="BH171">
+        <v>5</v>
+      </c>
+      <c r="BI171">
+        <v>1.29</v>
+      </c>
+      <c r="BJ171">
+        <v>3.4</v>
+      </c>
+      <c r="BK171">
+        <v>1.44</v>
+      </c>
+      <c r="BL171">
+        <v>2.6</v>
+      </c>
+      <c r="BM171">
+        <v>1.88</v>
+      </c>
+      <c r="BN171">
+        <v>1.92</v>
+      </c>
+      <c r="BO171">
+        <v>2.05</v>
+      </c>
+      <c r="BP171">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7295134</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45550.5</v>
+      </c>
+      <c r="F172">
+        <v>22</v>
+      </c>
+      <c r="G172" t="s">
+        <v>85</v>
+      </c>
+      <c r="H172" t="s">
+        <v>84</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>2</v>
+      </c>
+      <c r="L172">
+        <v>2</v>
+      </c>
+      <c r="M172">
+        <v>2</v>
+      </c>
+      <c r="N172">
+        <v>4</v>
+      </c>
+      <c r="O172" t="s">
+        <v>202</v>
+      </c>
+      <c r="P172" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q172">
+        <v>3.75</v>
+      </c>
+      <c r="R172">
+        <v>2.5</v>
+      </c>
+      <c r="S172">
+        <v>2.4</v>
+      </c>
+      <c r="T172">
+        <v>1.25</v>
+      </c>
+      <c r="U172">
+        <v>3.75</v>
+      </c>
+      <c r="V172">
+        <v>2.2</v>
+      </c>
+      <c r="W172">
+        <v>1.62</v>
+      </c>
+      <c r="X172">
+        <v>5</v>
+      </c>
+      <c r="Y172">
+        <v>1.17</v>
+      </c>
+      <c r="Z172">
+        <v>3.2</v>
+      </c>
+      <c r="AA172">
+        <v>3.7</v>
+      </c>
+      <c r="AB172">
+        <v>2</v>
+      </c>
+      <c r="AC172">
+        <v>1.01</v>
+      </c>
+      <c r="AD172">
+        <v>13</v>
+      </c>
+      <c r="AE172">
+        <v>1.15</v>
+      </c>
+      <c r="AF172">
+        <v>5.25</v>
+      </c>
+      <c r="AG172">
+        <v>1.58</v>
+      </c>
+      <c r="AH172">
+        <v>2.25</v>
+      </c>
+      <c r="AI172">
+        <v>1.5</v>
+      </c>
+      <c r="AJ172">
+        <v>2.5</v>
+      </c>
+      <c r="AK172">
+        <v>1.88</v>
+      </c>
+      <c r="AL172">
+        <v>1.19</v>
+      </c>
+      <c r="AM172">
+        <v>1.22</v>
+      </c>
+      <c r="AN172">
+        <v>1.6</v>
+      </c>
+      <c r="AO172">
+        <v>1.9</v>
+      </c>
+      <c r="AP172">
+        <v>1.55</v>
+      </c>
+      <c r="AQ172">
+        <v>1.82</v>
+      </c>
+      <c r="AR172">
+        <v>1.57</v>
+      </c>
+      <c r="AS172">
+        <v>1.57</v>
+      </c>
+      <c r="AT172">
+        <v>3.14</v>
+      </c>
+      <c r="AU172">
+        <v>3</v>
+      </c>
+      <c r="AV172">
+        <v>6</v>
+      </c>
+      <c r="AW172">
+        <v>2</v>
+      </c>
+      <c r="AX172">
+        <v>2</v>
+      </c>
+      <c r="AY172">
+        <v>5</v>
+      </c>
+      <c r="AZ172">
+        <v>8</v>
+      </c>
+      <c r="BA172">
+        <v>3</v>
+      </c>
+      <c r="BB172">
+        <v>2</v>
+      </c>
+      <c r="BC172">
+        <v>5</v>
+      </c>
+      <c r="BD172">
+        <v>2.4</v>
+      </c>
+      <c r="BE172">
+        <v>8.5</v>
+      </c>
+      <c r="BF172">
+        <v>1.67</v>
+      </c>
+      <c r="BG172">
+        <v>1.12</v>
+      </c>
+      <c r="BH172">
+        <v>5.25</v>
+      </c>
+      <c r="BI172">
+        <v>1.25</v>
+      </c>
+      <c r="BJ172">
+        <v>3.6</v>
+      </c>
+      <c r="BK172">
+        <v>1.4</v>
+      </c>
+      <c r="BL172">
+        <v>2.7</v>
+      </c>
+      <c r="BM172">
+        <v>1.8</v>
+      </c>
+      <c r="BN172">
+        <v>2</v>
+      </c>
+      <c r="BO172">
+        <v>1.96</v>
+      </c>
+      <c r="BP172">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7295133</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45550.5</v>
+      </c>
+      <c r="F173">
+        <v>22</v>
+      </c>
+      <c r="G173" t="s">
+        <v>81</v>
+      </c>
+      <c r="H173" t="s">
+        <v>79</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>2</v>
+      </c>
+      <c r="O173" t="s">
+        <v>87</v>
+      </c>
+      <c r="P173" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q173">
+        <v>2.2</v>
+      </c>
+      <c r="R173">
+        <v>2.6</v>
+      </c>
+      <c r="S173">
+        <v>4.33</v>
+      </c>
+      <c r="T173">
+        <v>1.22</v>
+      </c>
+      <c r="U173">
+        <v>4</v>
+      </c>
+      <c r="V173">
+        <v>2.1</v>
+      </c>
+      <c r="W173">
+        <v>1.67</v>
+      </c>
+      <c r="X173">
+        <v>4.5</v>
+      </c>
+      <c r="Y173">
+        <v>1.18</v>
+      </c>
+      <c r="Z173">
+        <v>1.68</v>
+      </c>
+      <c r="AA173">
+        <v>4.05</v>
+      </c>
+      <c r="AB173">
+        <v>4.2</v>
+      </c>
+      <c r="AC173">
+        <v>1.01</v>
+      </c>
+      <c r="AD173">
+        <v>17</v>
+      </c>
+      <c r="AE173">
+        <v>1.12</v>
+      </c>
+      <c r="AF173">
+        <v>5.75</v>
+      </c>
+      <c r="AG173">
+        <v>1.58</v>
+      </c>
+      <c r="AH173">
+        <v>2.25</v>
+      </c>
+      <c r="AI173">
+        <v>1.44</v>
+      </c>
+      <c r="AJ173">
+        <v>2.63</v>
+      </c>
+      <c r="AK173">
+        <v>1.17</v>
+      </c>
+      <c r="AL173">
+        <v>1.18</v>
+      </c>
+      <c r="AM173">
+        <v>2.04</v>
+      </c>
+      <c r="AN173">
+        <v>1.1</v>
+      </c>
+      <c r="AO173">
+        <v>0.6</v>
+      </c>
+      <c r="AP173">
+        <v>1</v>
+      </c>
+      <c r="AQ173">
+        <v>0.82</v>
+      </c>
+      <c r="AR173">
+        <v>1.57</v>
+      </c>
+      <c r="AS173">
+        <v>0.92</v>
+      </c>
+      <c r="AT173">
+        <v>2.49</v>
+      </c>
+      <c r="AU173">
+        <v>4</v>
+      </c>
+      <c r="AV173">
+        <v>6</v>
+      </c>
+      <c r="AW173">
+        <v>6</v>
+      </c>
+      <c r="AX173">
+        <v>5</v>
+      </c>
+      <c r="AY173">
+        <v>10</v>
+      </c>
+      <c r="AZ173">
+        <v>11</v>
+      </c>
+      <c r="BA173">
+        <v>7</v>
+      </c>
+      <c r="BB173">
+        <v>1</v>
+      </c>
+      <c r="BC173">
+        <v>8</v>
+      </c>
+      <c r="BD173">
+        <v>1.33</v>
+      </c>
+      <c r="BE173">
+        <v>10</v>
+      </c>
+      <c r="BF173">
+        <v>4</v>
+      </c>
+      <c r="BG173">
+        <v>1.1</v>
+      </c>
+      <c r="BH173">
+        <v>5.75</v>
+      </c>
+      <c r="BI173">
+        <v>1.2</v>
+      </c>
+      <c r="BJ173">
+        <v>4</v>
+      </c>
+      <c r="BK173">
+        <v>1.33</v>
+      </c>
+      <c r="BL173">
+        <v>3</v>
+      </c>
+      <c r="BM173">
+        <v>1.52</v>
+      </c>
+      <c r="BN173">
+        <v>2.39</v>
+      </c>
+      <c r="BO173">
+        <v>2.05</v>
+      </c>
+      <c r="BP173">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7295130</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45550.59375</v>
+      </c>
+      <c r="F174">
+        <v>22</v>
+      </c>
+      <c r="G174" t="s">
+        <v>74</v>
+      </c>
+      <c r="H174" t="s">
+        <v>75</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>2</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174" t="s">
+        <v>203</v>
+      </c>
+      <c r="P174" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q174">
+        <v>3.1</v>
+      </c>
+      <c r="R174">
+        <v>2.38</v>
+      </c>
+      <c r="S174">
+        <v>3</v>
+      </c>
+      <c r="T174">
+        <v>1.29</v>
+      </c>
+      <c r="U174">
+        <v>3.5</v>
+      </c>
+      <c r="V174">
+        <v>2.38</v>
+      </c>
+      <c r="W174">
+        <v>1.53</v>
+      </c>
+      <c r="X174">
+        <v>5.5</v>
+      </c>
+      <c r="Y174">
+        <v>1.14</v>
+      </c>
+      <c r="Z174">
+        <v>2.54</v>
+      </c>
+      <c r="AA174">
+        <v>3.5</v>
+      </c>
+      <c r="AB174">
+        <v>2.47</v>
+      </c>
+      <c r="AC174">
+        <v>1.04</v>
+      </c>
+      <c r="AD174">
+        <v>10</v>
+      </c>
+      <c r="AE174">
+        <v>1.2</v>
+      </c>
+      <c r="AF174">
+        <v>4.5</v>
+      </c>
+      <c r="AG174">
+        <v>1.52</v>
+      </c>
+      <c r="AH174">
+        <v>2.36</v>
+      </c>
+      <c r="AI174">
+        <v>1.5</v>
+      </c>
+      <c r="AJ174">
+        <v>2.5</v>
+      </c>
+      <c r="AK174">
+        <v>1.54</v>
+      </c>
+      <c r="AL174">
+        <v>1.27</v>
+      </c>
+      <c r="AM174">
+        <v>1.48</v>
+      </c>
+      <c r="AN174">
+        <v>0.8</v>
+      </c>
+      <c r="AO174">
+        <v>0.8</v>
+      </c>
+      <c r="AP174">
+        <v>0.82</v>
+      </c>
+      <c r="AQ174">
+        <v>0.82</v>
+      </c>
+      <c r="AR174">
+        <v>1.34</v>
+      </c>
+      <c r="AS174">
+        <v>1.4</v>
+      </c>
+      <c r="AT174">
+        <v>2.74</v>
+      </c>
+      <c r="AU174">
+        <v>3</v>
+      </c>
+      <c r="AV174">
+        <v>3</v>
+      </c>
+      <c r="AW174">
+        <v>4</v>
+      </c>
+      <c r="AX174">
+        <v>6</v>
+      </c>
+      <c r="AY174">
+        <v>7</v>
+      </c>
+      <c r="AZ174">
+        <v>9</v>
+      </c>
+      <c r="BA174">
+        <v>5</v>
+      </c>
+      <c r="BB174">
+        <v>5</v>
+      </c>
+      <c r="BC174">
+        <v>10</v>
+      </c>
+      <c r="BD174">
+        <v>2.1</v>
+      </c>
+      <c r="BE174">
+        <v>8</v>
+      </c>
+      <c r="BF174">
+        <v>1.91</v>
+      </c>
+      <c r="BG174">
+        <v>1.22</v>
+      </c>
+      <c r="BH174">
+        <v>3.8</v>
+      </c>
+      <c r="BI174">
+        <v>1.38</v>
+      </c>
+      <c r="BJ174">
+        <v>2.8</v>
+      </c>
+      <c r="BK174">
+        <v>1.65</v>
+      </c>
+      <c r="BL174">
+        <v>2.1</v>
+      </c>
+      <c r="BM174">
+        <v>2.05</v>
+      </c>
+      <c r="BN174">
+        <v>1.7</v>
+      </c>
+      <c r="BO174">
+        <v>2.5</v>
+      </c>
+      <c r="BP174">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="297">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -628,6 +628,9 @@
     <t>['9']</t>
   </si>
   <si>
+    <t>['82', '90+6']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -899,6 +902,9 @@
   </si>
   <si>
     <t>['61', '80']</t>
+  </si>
+  <si>
+    <t>['7', '23', '48', '60']</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP174"/>
+  <dimension ref="A1:BP176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1519,7 +1525,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1725,7 +1731,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -2137,7 +2143,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2343,7 +2349,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -3373,7 +3379,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3451,10 +3457,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ11">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3579,7 +3585,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q12">
         <v>5.5</v>
@@ -3660,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4197,7 +4203,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q15">
         <v>2.95</v>
@@ -4403,7 +4409,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4481,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ16">
         <v>1.55</v>
@@ -4609,7 +4615,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4815,7 +4821,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5433,7 +5439,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5845,7 +5851,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6051,7 +6057,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6335,7 +6341,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ25">
         <v>1.25</v>
@@ -6463,7 +6469,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6669,7 +6675,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6953,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ28">
         <v>1.27</v>
@@ -7081,7 +7087,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q29">
         <v>3.6</v>
@@ -7287,7 +7293,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7368,7 +7374,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR30">
         <v>1.39</v>
@@ -7571,7 +7577,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ31">
         <v>0.8</v>
@@ -7905,7 +7911,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -8111,7 +8117,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8192,7 +8198,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ34">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR34">
         <v>1.56</v>
@@ -8317,7 +8323,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8935,7 +8941,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q38">
         <v>2.54</v>
@@ -9141,7 +9147,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9759,7 +9765,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -10043,7 +10049,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ43">
         <v>0.82</v>
@@ -10252,7 +10258,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ44">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR44">
         <v>1.38</v>
@@ -10455,7 +10461,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ45">
         <v>1.25</v>
@@ -10789,7 +10795,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -11201,7 +11207,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q49">
         <v>4.5</v>
@@ -11282,7 +11288,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ49">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR49">
         <v>1.32</v>
@@ -11613,7 +11619,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11819,7 +11825,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -11897,7 +11903,7 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ52">
         <v>2.09</v>
@@ -12231,7 +12237,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12437,7 +12443,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -13055,7 +13061,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13261,7 +13267,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13342,7 +13348,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ59">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR59">
         <v>1.19</v>
@@ -13467,7 +13473,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13548,7 +13554,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ60">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR60">
         <v>1.09</v>
@@ -13957,7 +13963,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ62">
         <v>0.5</v>
@@ -14085,7 +14091,7 @@
         <v>116</v>
       </c>
       <c r="P63" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14291,7 +14297,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14909,7 +14915,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -14987,7 +14993,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ67">
         <v>1.82</v>
@@ -15115,7 +15121,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15939,7 +15945,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16145,7 +16151,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16351,7 +16357,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16557,7 +16563,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16638,7 +16644,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ75">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR75">
         <v>1.51</v>
@@ -16969,7 +16975,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -17381,7 +17387,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17587,7 +17593,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q80">
         <v>2.62</v>
@@ -17999,7 +18005,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18077,10 +18083,10 @@
         <v>1.75</v>
       </c>
       <c r="AP82">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ82">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR82">
         <v>2.05</v>
@@ -18489,7 +18495,7 @@
         <v>0.8</v>
       </c>
       <c r="AP84">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ84">
         <v>0.82</v>
@@ -18617,7 +18623,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18823,7 +18829,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -19029,7 +19035,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19235,7 +19241,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19853,7 +19859,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20059,7 +20065,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20137,7 +20143,7 @@
         <v>1.4</v>
       </c>
       <c r="AP92">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ92">
         <v>1.36</v>
@@ -20471,7 +20477,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20677,7 +20683,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20758,7 +20764,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ95">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR95">
         <v>1.17</v>
@@ -20961,7 +20967,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ96">
         <v>1</v>
@@ -21089,7 +21095,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -21295,7 +21301,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21501,7 +21507,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21582,7 +21588,7 @@
         <v>1</v>
       </c>
       <c r="AQ99">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR99">
         <v>1.54</v>
@@ -21707,7 +21713,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21913,7 +21919,7 @@
         <v>117</v>
       </c>
       <c r="P101" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -22737,7 +22743,7 @@
         <v>116</v>
       </c>
       <c r="P105" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q105">
         <v>2.75</v>
@@ -22943,7 +22949,7 @@
         <v>98</v>
       </c>
       <c r="P106" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23149,7 +23155,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23639,7 +23645,7 @@
         <v>2</v>
       </c>
       <c r="AP109">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ109">
         <v>1.55</v>
@@ -23767,7 +23773,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -24054,7 +24060,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ111">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR111">
         <v>1.22</v>
@@ -24179,7 +24185,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q112">
         <v>2.95</v>
@@ -24385,7 +24391,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q113">
         <v>2.63</v>
@@ -24591,7 +24597,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -25003,7 +25009,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -25081,7 +25087,7 @@
         <v>1.4</v>
       </c>
       <c r="AP116">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ116">
         <v>0.91</v>
@@ -25209,7 +25215,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25290,7 +25296,7 @@
         <v>1</v>
       </c>
       <c r="AQ117">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR117">
         <v>1.45</v>
@@ -25621,7 +25627,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q119">
         <v>4.2</v>
@@ -25827,7 +25833,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q120">
         <v>1.75</v>
@@ -25908,7 +25914,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ120">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR120">
         <v>1.74</v>
@@ -26033,7 +26039,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q121">
         <v>2.63</v>
@@ -26651,7 +26657,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26857,7 +26863,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27063,7 +27069,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27475,7 +27481,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27968,7 +27974,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ130">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR130">
         <v>1.58</v>
@@ -28093,7 +28099,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28380,7 +28386,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ132">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR132">
         <v>1.23</v>
@@ -28505,7 +28511,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28789,7 +28795,7 @@
         <v>1.71</v>
       </c>
       <c r="AP134">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ134">
         <v>1.09</v>
@@ -28917,7 +28923,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29123,7 +29129,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q136">
         <v>2.38</v>
@@ -29535,7 +29541,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q138">
         <v>2.7</v>
@@ -29947,7 +29953,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q140">
         <v>3.52</v>
@@ -30565,7 +30571,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q143">
         <v>3.4</v>
@@ -30646,7 +30652,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ143">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR143">
         <v>1.35</v>
@@ -30977,7 +30983,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q145">
         <v>2.65</v>
@@ -31183,7 +31189,7 @@
         <v>87</v>
       </c>
       <c r="P146" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31389,7 +31395,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q147">
         <v>2.2</v>
@@ -31801,7 +31807,7 @@
         <v>87</v>
       </c>
       <c r="P149" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q149">
         <v>2.83</v>
@@ -32007,7 +32013,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -33243,7 +33249,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q156">
         <v>2.1</v>
@@ -33655,7 +33661,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -34479,7 +34485,7 @@
         <v>87</v>
       </c>
       <c r="P162" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -34685,7 +34691,7 @@
         <v>197</v>
       </c>
       <c r="P163" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q163">
         <v>2.85</v>
@@ -34763,7 +34769,7 @@
         <v>0.9</v>
       </c>
       <c r="AP163">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ163">
         <v>0.91</v>
@@ -34891,7 +34897,7 @@
         <v>97</v>
       </c>
       <c r="P164" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q164">
         <v>2.82</v>
@@ -34972,7 +34978,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ164">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR164">
         <v>1.43</v>
@@ -35097,7 +35103,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35303,7 +35309,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q166">
         <v>1.8</v>
@@ -35381,7 +35387,7 @@
         <v>1.2</v>
       </c>
       <c r="AP166">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ166">
         <v>1.36</v>
@@ -35796,7 +35802,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ168">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR168">
         <v>1.59</v>
@@ -35921,7 +35927,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q169">
         <v>2.25</v>
@@ -36539,7 +36545,7 @@
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q172">
         <v>3.75</v>
@@ -36745,7 +36751,7 @@
         <v>87</v>
       </c>
       <c r="P173" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q173">
         <v>2.2</v>
@@ -37108,6 +37114,418 @@
       </c>
       <c r="BP174">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7295109</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45553.54166666666</v>
+      </c>
+      <c r="F175">
+        <v>19</v>
+      </c>
+      <c r="G175" t="s">
+        <v>79</v>
+      </c>
+      <c r="H175" t="s">
+        <v>72</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>2</v>
+      </c>
+      <c r="K175">
+        <v>2</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>4</v>
+      </c>
+      <c r="N175">
+        <v>4</v>
+      </c>
+      <c r="O175" t="s">
+        <v>87</v>
+      </c>
+      <c r="P175" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q175">
+        <v>5.05</v>
+      </c>
+      <c r="R175">
+        <v>2.51</v>
+      </c>
+      <c r="S175">
+        <v>2.01</v>
+      </c>
+      <c r="T175">
+        <v>1.26</v>
+      </c>
+      <c r="U175">
+        <v>3.64</v>
+      </c>
+      <c r="V175">
+        <v>2.22</v>
+      </c>
+      <c r="W175">
+        <v>1.62</v>
+      </c>
+      <c r="X175">
+        <v>4.9</v>
+      </c>
+      <c r="Y175">
+        <v>1.16</v>
+      </c>
+      <c r="Z175">
+        <v>5</v>
+      </c>
+      <c r="AA175">
+        <v>4.2</v>
+      </c>
+      <c r="AB175">
+        <v>1.55</v>
+      </c>
+      <c r="AC175">
+        <v>1.01</v>
+      </c>
+      <c r="AD175">
+        <v>21</v>
+      </c>
+      <c r="AE175">
+        <v>1.16</v>
+      </c>
+      <c r="AF175">
+        <v>5.5</v>
+      </c>
+      <c r="AG175">
+        <v>1.5</v>
+      </c>
+      <c r="AH175">
+        <v>2.4</v>
+      </c>
+      <c r="AI175">
+        <v>1.6</v>
+      </c>
+      <c r="AJ175">
+        <v>2.27</v>
+      </c>
+      <c r="AK175">
+        <v>2.43</v>
+      </c>
+      <c r="AL175">
+        <v>1.2</v>
+      </c>
+      <c r="AM175">
+        <v>1.15</v>
+      </c>
+      <c r="AN175">
+        <v>1.78</v>
+      </c>
+      <c r="AO175">
+        <v>1.7</v>
+      </c>
+      <c r="AP175">
+        <v>1.6</v>
+      </c>
+      <c r="AQ175">
+        <v>1.82</v>
+      </c>
+      <c r="AR175">
+        <v>1.42</v>
+      </c>
+      <c r="AS175">
+        <v>1.39</v>
+      </c>
+      <c r="AT175">
+        <v>2.81</v>
+      </c>
+      <c r="AU175">
+        <v>4</v>
+      </c>
+      <c r="AV175">
+        <v>8</v>
+      </c>
+      <c r="AW175">
+        <v>5</v>
+      </c>
+      <c r="AX175">
+        <v>6</v>
+      </c>
+      <c r="AY175">
+        <v>9</v>
+      </c>
+      <c r="AZ175">
+        <v>14</v>
+      </c>
+      <c r="BA175">
+        <v>2</v>
+      </c>
+      <c r="BB175">
+        <v>6</v>
+      </c>
+      <c r="BC175">
+        <v>8</v>
+      </c>
+      <c r="BD175">
+        <v>3.4</v>
+      </c>
+      <c r="BE175">
+        <v>10</v>
+      </c>
+      <c r="BF175">
+        <v>1.43</v>
+      </c>
+      <c r="BG175">
+        <v>1.1</v>
+      </c>
+      <c r="BH175">
+        <v>5.55</v>
+      </c>
+      <c r="BI175">
+        <v>1.22</v>
+      </c>
+      <c r="BJ175">
+        <v>3.65</v>
+      </c>
+      <c r="BK175">
+        <v>1.42</v>
+      </c>
+      <c r="BL175">
+        <v>2.65</v>
+      </c>
+      <c r="BM175">
+        <v>1.77</v>
+      </c>
+      <c r="BN175">
+        <v>1.95</v>
+      </c>
+      <c r="BO175">
+        <v>2.14</v>
+      </c>
+      <c r="BP175">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7295114</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45553.58333333334</v>
+      </c>
+      <c r="F176">
+        <v>20</v>
+      </c>
+      <c r="G176" t="s">
+        <v>84</v>
+      </c>
+      <c r="H176" t="s">
+        <v>77</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>2</v>
+      </c>
+      <c r="O176" t="s">
+        <v>204</v>
+      </c>
+      <c r="P176" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q176">
+        <v>2</v>
+      </c>
+      <c r="R176">
+        <v>2.38</v>
+      </c>
+      <c r="S176">
+        <v>5</v>
+      </c>
+      <c r="T176">
+        <v>1.28</v>
+      </c>
+      <c r="U176">
+        <v>3.44</v>
+      </c>
+      <c r="V176">
+        <v>2.34</v>
+      </c>
+      <c r="W176">
+        <v>1.56</v>
+      </c>
+      <c r="X176">
+        <v>5.4</v>
+      </c>
+      <c r="Y176">
+        <v>1.13</v>
+      </c>
+      <c r="Z176">
+        <v>1.6</v>
+      </c>
+      <c r="AA176">
+        <v>4.2</v>
+      </c>
+      <c r="AB176">
+        <v>4.5</v>
+      </c>
+      <c r="AC176">
+        <v>1.01</v>
+      </c>
+      <c r="AD176">
+        <v>15</v>
+      </c>
+      <c r="AE176">
+        <v>1.17</v>
+      </c>
+      <c r="AF176">
+        <v>5</v>
+      </c>
+      <c r="AG176">
+        <v>1.55</v>
+      </c>
+      <c r="AH176">
+        <v>2.3</v>
+      </c>
+      <c r="AI176">
+        <v>1.65</v>
+      </c>
+      <c r="AJ176">
+        <v>2.2</v>
+      </c>
+      <c r="AK176">
+        <v>1.19</v>
+      </c>
+      <c r="AL176">
+        <v>1.23</v>
+      </c>
+      <c r="AM176">
+        <v>2.3</v>
+      </c>
+      <c r="AN176">
+        <v>1.7</v>
+      </c>
+      <c r="AO176">
+        <v>1.8</v>
+      </c>
+      <c r="AP176">
+        <v>1.82</v>
+      </c>
+      <c r="AQ176">
+        <v>1.64</v>
+      </c>
+      <c r="AR176">
+        <v>1.89</v>
+      </c>
+      <c r="AS176">
+        <v>0.99</v>
+      </c>
+      <c r="AT176">
+        <v>2.88</v>
+      </c>
+      <c r="AU176">
+        <v>6</v>
+      </c>
+      <c r="AV176">
+        <v>2</v>
+      </c>
+      <c r="AW176">
+        <v>5</v>
+      </c>
+      <c r="AX176">
+        <v>4</v>
+      </c>
+      <c r="AY176">
+        <v>11</v>
+      </c>
+      <c r="AZ176">
+        <v>6</v>
+      </c>
+      <c r="BA176">
+        <v>5</v>
+      </c>
+      <c r="BB176">
+        <v>4</v>
+      </c>
+      <c r="BC176">
+        <v>9</v>
+      </c>
+      <c r="BD176">
+        <v>1.51</v>
+      </c>
+      <c r="BE176">
+        <v>9.4</v>
+      </c>
+      <c r="BF176">
+        <v>3.08</v>
+      </c>
+      <c r="BG176">
+        <v>1.15</v>
+      </c>
+      <c r="BH176">
+        <v>4.5</v>
+      </c>
+      <c r="BI176">
+        <v>1.31</v>
+      </c>
+      <c r="BJ176">
+        <v>3.04</v>
+      </c>
+      <c r="BK176">
+        <v>1.57</v>
+      </c>
+      <c r="BL176">
+        <v>2.25</v>
+      </c>
+      <c r="BM176">
+        <v>1.92</v>
+      </c>
+      <c r="BN176">
+        <v>1.88</v>
+      </c>
+      <c r="BO176">
+        <v>2.52</v>
+      </c>
+      <c r="BP176">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="300">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -631,6 +631,12 @@
     <t>['82', '90+6']</t>
   </si>
   <si>
+    <t>['6', '27']</t>
+  </si>
+  <si>
+    <t>['11', '16', '33', '45+2', '88']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -905,6 +911,9 @@
   </si>
   <si>
     <t>['7', '23', '48', '60']</t>
+  </si>
+  <si>
+    <t>['31']</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP176"/>
+  <dimension ref="A1:BP178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1525,7 +1534,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1731,7 +1740,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -2143,7 +2152,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2349,7 +2358,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2842,7 +2851,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ8">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3379,7 +3388,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3585,7 +3594,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q12">
         <v>5.5</v>
@@ -3663,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ12">
         <v>1.82</v>
@@ -4075,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ14">
         <v>0.82</v>
@@ -4203,7 +4212,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q15">
         <v>2.95</v>
@@ -4284,7 +4293,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ15">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4409,7 +4418,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4615,7 +4624,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4696,7 +4705,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ17">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR17">
         <v>0.83</v>
@@ -4821,7 +4830,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5439,7 +5448,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5851,7 +5860,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6057,7 +6066,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6469,7 +6478,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6675,7 +6684,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6753,7 +6762,7 @@
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -7087,7 +7096,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q29">
         <v>3.6</v>
@@ -7293,7 +7302,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7911,7 +7920,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7992,7 +8001,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ33">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -8117,7 +8126,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8323,7 +8332,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8941,7 +8950,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q38">
         <v>2.54</v>
@@ -9019,7 +9028,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ38">
         <v>0.82</v>
@@ -9147,7 +9156,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9228,7 +9237,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR39">
         <v>1.7</v>
@@ -9765,7 +9774,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -10670,7 +10679,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.46</v>
@@ -10795,7 +10804,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -11207,7 +11216,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q49">
         <v>4.5</v>
@@ -11619,7 +11628,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11825,7 +11834,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -12109,7 +12118,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ53">
         <v>1.3</v>
@@ -12237,7 +12246,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12443,7 +12452,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12521,7 +12530,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ55">
         <v>0.91</v>
@@ -12730,7 +12739,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ56">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR56">
         <v>1.62</v>
@@ -13061,7 +13070,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13267,7 +13276,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13473,7 +13482,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -14091,7 +14100,7 @@
         <v>116</v>
       </c>
       <c r="P63" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14172,7 +14181,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ63">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -14297,7 +14306,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14915,7 +14924,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -15121,7 +15130,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15405,7 +15414,7 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ69">
         <v>0.91</v>
@@ -15611,7 +15620,7 @@
         <v>3</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ70">
         <v>2.09</v>
@@ -15945,7 +15954,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16151,7 +16160,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16232,7 +16241,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ73">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR73">
         <v>1.73</v>
@@ -16357,7 +16366,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16563,7 +16572,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16975,7 +16984,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -17387,7 +17396,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17468,7 +17477,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ79">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>1.07</v>
@@ -17593,7 +17602,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q80">
         <v>2.62</v>
@@ -18005,7 +18014,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18623,7 +18632,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18829,7 +18838,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -18907,7 +18916,7 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ86">
         <v>1.82</v>
@@ -19035,7 +19044,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19241,7 +19250,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19525,7 +19534,7 @@
         <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ89">
         <v>0.8</v>
@@ -19859,7 +19868,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -19940,7 +19949,7 @@
         <v>1</v>
       </c>
       <c r="AQ91">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR91">
         <v>1.59</v>
@@ -20065,7 +20074,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20146,7 +20155,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ92">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR92">
         <v>1.44</v>
@@ -20477,7 +20486,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20683,7 +20692,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -21095,7 +21104,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -21301,7 +21310,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21507,7 +21516,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21713,7 +21722,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21919,7 +21928,7 @@
         <v>117</v>
       </c>
       <c r="P101" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -22412,7 +22421,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ103">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR103">
         <v>1.74</v>
@@ -22615,7 +22624,7 @@
         <v>0.8</v>
       </c>
       <c r="AP104">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ104">
         <v>1.27</v>
@@ -22743,7 +22752,7 @@
         <v>116</v>
       </c>
       <c r="P105" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q105">
         <v>2.75</v>
@@ -22824,7 +22833,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ105">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR105">
         <v>1.31</v>
@@ -22949,7 +22958,7 @@
         <v>98</v>
       </c>
       <c r="P106" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23155,7 +23164,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23439,7 +23448,7 @@
         <v>0.43</v>
       </c>
       <c r="AP108">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ108">
         <v>0.5</v>
@@ -23773,7 +23782,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -24185,7 +24194,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q112">
         <v>2.95</v>
@@ -24391,7 +24400,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q113">
         <v>2.63</v>
@@ -24597,7 +24606,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -25009,7 +25018,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -25215,7 +25224,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25627,7 +25636,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q119">
         <v>4.2</v>
@@ -25833,7 +25842,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q120">
         <v>1.75</v>
@@ -26039,7 +26048,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q121">
         <v>2.63</v>
@@ -26117,7 +26126,7 @@
         <v>0.83</v>
       </c>
       <c r="AP121">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ121">
         <v>1.27</v>
@@ -26529,7 +26538,7 @@
         <v>1.75</v>
       </c>
       <c r="AP123">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ123">
         <v>1.55</v>
@@ -26657,7 +26666,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26863,7 +26872,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27069,7 +27078,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27150,7 +27159,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ126">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR126">
         <v>1.29</v>
@@ -27481,7 +27490,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -28099,7 +28108,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28511,7 +28520,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28589,7 +28598,7 @@
         <v>1.63</v>
       </c>
       <c r="AP133">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ133">
         <v>1.82</v>
@@ -28798,7 +28807,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ134">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR134">
         <v>1.43</v>
@@ -28923,7 +28932,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29001,7 +29010,7 @@
         <v>1.57</v>
       </c>
       <c r="AP135">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ135">
         <v>1.3</v>
@@ -29129,7 +29138,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q136">
         <v>2.38</v>
@@ -29541,7 +29550,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q138">
         <v>2.7</v>
@@ -29953,7 +29962,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q140">
         <v>3.52</v>
@@ -30446,7 +30455,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ142">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR142">
         <v>1.22</v>
@@ -30571,7 +30580,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q143">
         <v>3.4</v>
@@ -30983,7 +30992,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q145">
         <v>2.65</v>
@@ -31061,10 +31070,10 @@
         <v>1.5</v>
       </c>
       <c r="AP145">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ145">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR145">
         <v>1.52</v>
@@ -31189,7 +31198,7 @@
         <v>87</v>
       </c>
       <c r="P146" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31395,7 +31404,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q147">
         <v>2.2</v>
@@ -31679,7 +31688,7 @@
         <v>1</v>
       </c>
       <c r="AP148">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ148">
         <v>0.8</v>
@@ -31807,7 +31816,7 @@
         <v>87</v>
       </c>
       <c r="P149" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q149">
         <v>2.83</v>
@@ -32013,7 +32022,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32300,7 +32309,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ151">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR151">
         <v>1.45</v>
@@ -32506,7 +32515,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ152">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR152">
         <v>1.75</v>
@@ -33249,7 +33258,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q156">
         <v>2.1</v>
@@ -33661,7 +33670,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -33948,7 +33957,7 @@
         <v>1</v>
       </c>
       <c r="AQ159">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR159">
         <v>1.39</v>
@@ -34357,7 +34366,7 @@
         <v>0.44</v>
       </c>
       <c r="AP161">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ161">
         <v>0.5</v>
@@ -34485,7 +34494,7 @@
         <v>87</v>
       </c>
       <c r="P162" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -34563,7 +34572,7 @@
         <v>2</v>
       </c>
       <c r="AP162">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ162">
         <v>2.09</v>
@@ -34691,7 +34700,7 @@
         <v>197</v>
       </c>
       <c r="P163" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q163">
         <v>2.85</v>
@@ -34897,7 +34906,7 @@
         <v>97</v>
       </c>
       <c r="P164" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q164">
         <v>2.82</v>
@@ -35103,7 +35112,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35309,7 +35318,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q166">
         <v>1.8</v>
@@ -35390,7 +35399,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ166">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR166">
         <v>1.95</v>
@@ -35927,7 +35936,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q169">
         <v>2.25</v>
@@ -36545,7 +36554,7 @@
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q172">
         <v>3.75</v>
@@ -36751,7 +36760,7 @@
         <v>87</v>
       </c>
       <c r="P173" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q173">
         <v>2.2</v>
@@ -37163,7 +37172,7 @@
         <v>87</v>
       </c>
       <c r="P175" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q175">
         <v>5.05</v>
@@ -37526,6 +37535,418 @@
       </c>
       <c r="BP176">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7295141</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F177">
+        <v>23</v>
+      </c>
+      <c r="G177" t="s">
+        <v>82</v>
+      </c>
+      <c r="H177" t="s">
+        <v>81</v>
+      </c>
+      <c r="I177">
+        <v>2</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>3</v>
+      </c>
+      <c r="L177">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>3</v>
+      </c>
+      <c r="O177" t="s">
+        <v>205</v>
+      </c>
+      <c r="P177" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q177">
+        <v>2.39</v>
+      </c>
+      <c r="R177">
+        <v>2.49</v>
+      </c>
+      <c r="S177">
+        <v>3.65</v>
+      </c>
+      <c r="T177">
+        <v>1.23</v>
+      </c>
+      <c r="U177">
+        <v>3.92</v>
+      </c>
+      <c r="V177">
+        <v>2.08</v>
+      </c>
+      <c r="W177">
+        <v>1.7</v>
+      </c>
+      <c r="X177">
+        <v>4.45</v>
+      </c>
+      <c r="Y177">
+        <v>1.18</v>
+      </c>
+      <c r="Z177">
+        <v>2.55</v>
+      </c>
+      <c r="AA177">
+        <v>3.6</v>
+      </c>
+      <c r="AB177">
+        <v>2.55</v>
+      </c>
+      <c r="AC177">
+        <v>1.02</v>
+      </c>
+      <c r="AD177">
+        <v>22</v>
+      </c>
+      <c r="AE177">
+        <v>1.14</v>
+      </c>
+      <c r="AF177">
+        <v>5.75</v>
+      </c>
+      <c r="AG177">
+        <v>1.4</v>
+      </c>
+      <c r="AH177">
+        <v>2.73</v>
+      </c>
+      <c r="AI177">
+        <v>1.45</v>
+      </c>
+      <c r="AJ177">
+        <v>2.7</v>
+      </c>
+      <c r="AK177">
+        <v>1.31</v>
+      </c>
+      <c r="AL177">
+        <v>1.23</v>
+      </c>
+      <c r="AM177">
+        <v>1.86</v>
+      </c>
+      <c r="AN177">
+        <v>1.2</v>
+      </c>
+      <c r="AO177">
+        <v>1.36</v>
+      </c>
+      <c r="AP177">
+        <v>1.36</v>
+      </c>
+      <c r="AQ177">
+        <v>1.25</v>
+      </c>
+      <c r="AR177">
+        <v>1.66</v>
+      </c>
+      <c r="AS177">
+        <v>1.33</v>
+      </c>
+      <c r="AT177">
+        <v>2.99</v>
+      </c>
+      <c r="AU177">
+        <v>7</v>
+      </c>
+      <c r="AV177">
+        <v>4</v>
+      </c>
+      <c r="AW177">
+        <v>4</v>
+      </c>
+      <c r="AX177">
+        <v>4</v>
+      </c>
+      <c r="AY177">
+        <v>11</v>
+      </c>
+      <c r="AZ177">
+        <v>8</v>
+      </c>
+      <c r="BA177">
+        <v>4</v>
+      </c>
+      <c r="BB177">
+        <v>7</v>
+      </c>
+      <c r="BC177">
+        <v>11</v>
+      </c>
+      <c r="BD177">
+        <v>1.67</v>
+      </c>
+      <c r="BE177">
+        <v>8.5</v>
+      </c>
+      <c r="BF177">
+        <v>2.6</v>
+      </c>
+      <c r="BG177">
+        <v>1.11</v>
+      </c>
+      <c r="BH177">
+        <v>5.5</v>
+      </c>
+      <c r="BI177">
+        <v>1.22</v>
+      </c>
+      <c r="BJ177">
+        <v>3.8</v>
+      </c>
+      <c r="BK177">
+        <v>1.3</v>
+      </c>
+      <c r="BL177">
+        <v>3.2</v>
+      </c>
+      <c r="BM177">
+        <v>1.8</v>
+      </c>
+      <c r="BN177">
+        <v>2</v>
+      </c>
+      <c r="BO177">
+        <v>1.94</v>
+      </c>
+      <c r="BP177">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7295138</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45556.54166666666</v>
+      </c>
+      <c r="F178">
+        <v>23</v>
+      </c>
+      <c r="G178" t="s">
+        <v>80</v>
+      </c>
+      <c r="H178" t="s">
+        <v>74</v>
+      </c>
+      <c r="I178">
+        <v>4</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>4</v>
+      </c>
+      <c r="L178">
+        <v>5</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>5</v>
+      </c>
+      <c r="O178" t="s">
+        <v>206</v>
+      </c>
+      <c r="P178" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q178">
+        <v>3.1</v>
+      </c>
+      <c r="R178">
+        <v>2.1</v>
+      </c>
+      <c r="S178">
+        <v>3.1</v>
+      </c>
+      <c r="T178">
+        <v>1.35</v>
+      </c>
+      <c r="U178">
+        <v>3.05</v>
+      </c>
+      <c r="V178">
+        <v>2.61</v>
+      </c>
+      <c r="W178">
+        <v>1.46</v>
+      </c>
+      <c r="X178">
+        <v>6.3</v>
+      </c>
+      <c r="Y178">
+        <v>1.1</v>
+      </c>
+      <c r="Z178">
+        <v>2.6</v>
+      </c>
+      <c r="AA178">
+        <v>3.3</v>
+      </c>
+      <c r="AB178">
+        <v>2.6</v>
+      </c>
+      <c r="AC178">
+        <v>1.02</v>
+      </c>
+      <c r="AD178">
+        <v>10</v>
+      </c>
+      <c r="AE178">
+        <v>1.2</v>
+      </c>
+      <c r="AF178">
+        <v>4</v>
+      </c>
+      <c r="AG178">
+        <v>1.7</v>
+      </c>
+      <c r="AH178">
+        <v>2.05</v>
+      </c>
+      <c r="AI178">
+        <v>1.6</v>
+      </c>
+      <c r="AJ178">
+        <v>2.3</v>
+      </c>
+      <c r="AK178">
+        <v>1.51</v>
+      </c>
+      <c r="AL178">
+        <v>1.3</v>
+      </c>
+      <c r="AM178">
+        <v>1.5</v>
+      </c>
+      <c r="AN178">
+        <v>1</v>
+      </c>
+      <c r="AO178">
+        <v>1.09</v>
+      </c>
+      <c r="AP178">
+        <v>1.18</v>
+      </c>
+      <c r="AQ178">
+        <v>1</v>
+      </c>
+      <c r="AR178">
+        <v>1.23</v>
+      </c>
+      <c r="AS178">
+        <v>1.27</v>
+      </c>
+      <c r="AT178">
+        <v>2.5</v>
+      </c>
+      <c r="AU178">
+        <v>10</v>
+      </c>
+      <c r="AV178">
+        <v>4</v>
+      </c>
+      <c r="AW178">
+        <v>10</v>
+      </c>
+      <c r="AX178">
+        <v>12</v>
+      </c>
+      <c r="AY178">
+        <v>20</v>
+      </c>
+      <c r="AZ178">
+        <v>16</v>
+      </c>
+      <c r="BA178">
+        <v>5</v>
+      </c>
+      <c r="BB178">
+        <v>7</v>
+      </c>
+      <c r="BC178">
+        <v>12</v>
+      </c>
+      <c r="BD178">
+        <v>2.1</v>
+      </c>
+      <c r="BE178">
+        <v>8.5</v>
+      </c>
+      <c r="BF178">
+        <v>1.91</v>
+      </c>
+      <c r="BG178">
+        <v>1.12</v>
+      </c>
+      <c r="BH178">
+        <v>5.25</v>
+      </c>
+      <c r="BI178">
+        <v>1.25</v>
+      </c>
+      <c r="BJ178">
+        <v>3.6</v>
+      </c>
+      <c r="BK178">
+        <v>1.35</v>
+      </c>
+      <c r="BL178">
+        <v>2.95</v>
+      </c>
+      <c r="BM178">
+        <v>1.77</v>
+      </c>
+      <c r="BN178">
+        <v>1.95</v>
+      </c>
+      <c r="BO178">
+        <v>2.07</v>
+      </c>
+      <c r="BP178">
+        <v>1.67</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="301">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -635,6 +635,9 @@
   </si>
   <si>
     <t>['11', '16', '33', '45+2', '88']</t>
+  </si>
+  <si>
+    <t>['19', '27', '45+3', '90+6']</t>
   </si>
   <si>
     <t>['39', '90+2']</t>
@@ -1275,7 +1278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP178"/>
+  <dimension ref="A1:BP179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1534,7 +1537,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1740,7 +1743,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1821,7 +1824,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ3">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2152,7 +2155,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2358,7 +2361,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -3388,7 +3391,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3594,7 +3597,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q12">
         <v>5.5</v>
@@ -4212,7 +4215,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q15">
         <v>2.95</v>
@@ -4418,7 +4421,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4496,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ16">
         <v>1.55</v>
@@ -4624,7 +4627,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4830,7 +4833,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5448,7 +5451,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5860,7 +5863,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5941,7 +5944,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ23">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR23">
         <v>2.02</v>
@@ -6066,7 +6069,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6350,7 +6353,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ25">
         <v>1.25</v>
@@ -6478,7 +6481,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6684,7 +6687,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -7096,7 +7099,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q29">
         <v>3.6</v>
@@ -7302,7 +7305,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7586,7 +7589,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ31">
         <v>0.8</v>
@@ -7920,7 +7923,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -8126,7 +8129,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8332,7 +8335,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8413,7 +8416,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ35">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR35">
         <v>1.13</v>
@@ -8950,7 +8953,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q38">
         <v>2.54</v>
@@ -9156,7 +9159,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9774,7 +9777,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -10058,7 +10061,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ43">
         <v>0.82</v>
@@ -10804,7 +10807,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -11216,7 +11219,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q49">
         <v>4.5</v>
@@ -11628,7 +11631,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11834,7 +11837,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -11915,7 +11918,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ52">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR52">
         <v>1.4</v>
@@ -12246,7 +12249,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12452,7 +12455,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -13070,7 +13073,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13276,7 +13279,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13482,7 +13485,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13972,7 +13975,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ62">
         <v>0.5</v>
@@ -14100,7 +14103,7 @@
         <v>116</v>
       </c>
       <c r="P63" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14306,7 +14309,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14924,7 +14927,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -15130,7 +15133,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15623,7 +15626,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ70">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR70">
         <v>1.23</v>
@@ -15954,7 +15957,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16160,7 +16163,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16366,7 +16369,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16572,7 +16575,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16984,7 +16987,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -17396,7 +17399,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17602,7 +17605,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q80">
         <v>2.62</v>
@@ -18014,7 +18017,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18092,7 +18095,7 @@
         <v>1.75</v>
       </c>
       <c r="AP82">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ82">
         <v>1.82</v>
@@ -18504,7 +18507,7 @@
         <v>0.8</v>
       </c>
       <c r="AP84">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ84">
         <v>0.82</v>
@@ -18632,7 +18635,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18838,7 +18841,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -19044,7 +19047,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19250,7 +19253,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19743,7 +19746,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ90">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR90">
         <v>1.37</v>
@@ -19868,7 +19871,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20074,7 +20077,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20486,7 +20489,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20692,7 +20695,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20976,7 +20979,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ96">
         <v>1</v>
@@ -21104,7 +21107,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -21185,7 +21188,7 @@
         <v>1</v>
       </c>
       <c r="AQ97">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR97">
         <v>1.75</v>
@@ -21310,7 +21313,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21516,7 +21519,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21722,7 +21725,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21928,7 +21931,7 @@
         <v>117</v>
       </c>
       <c r="P101" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -22752,7 +22755,7 @@
         <v>116</v>
       </c>
       <c r="P105" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q105">
         <v>2.75</v>
@@ -22958,7 +22961,7 @@
         <v>98</v>
       </c>
       <c r="P106" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23164,7 +23167,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23782,7 +23785,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -24194,7 +24197,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q112">
         <v>2.95</v>
@@ -24400,7 +24403,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q113">
         <v>2.63</v>
@@ -24606,7 +24609,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -24687,7 +24690,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ114">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR114">
         <v>1.47</v>
@@ -25018,7 +25021,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -25096,7 +25099,7 @@
         <v>1.4</v>
       </c>
       <c r="AP116">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ116">
         <v>0.91</v>
@@ -25224,7 +25227,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25636,7 +25639,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q119">
         <v>4.2</v>
@@ -25842,7 +25845,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q120">
         <v>1.75</v>
@@ -26048,7 +26051,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q121">
         <v>2.63</v>
@@ -26666,7 +26669,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26747,7 +26750,7 @@
         <v>1</v>
       </c>
       <c r="AQ124">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR124">
         <v>1.57</v>
@@ -26872,7 +26875,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27078,7 +27081,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27490,7 +27493,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -28108,7 +28111,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28520,7 +28523,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28932,7 +28935,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29138,7 +29141,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q136">
         <v>2.38</v>
@@ -29550,7 +29553,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q138">
         <v>2.7</v>
@@ -29962,7 +29965,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q140">
         <v>3.52</v>
@@ -30043,7 +30046,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ140">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR140">
         <v>1.54</v>
@@ -30580,7 +30583,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q143">
         <v>3.4</v>
@@ -30992,7 +30995,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q145">
         <v>2.65</v>
@@ -31198,7 +31201,7 @@
         <v>87</v>
       </c>
       <c r="P146" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31404,7 +31407,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q147">
         <v>2.2</v>
@@ -31816,7 +31819,7 @@
         <v>87</v>
       </c>
       <c r="P149" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q149">
         <v>2.83</v>
@@ -32022,7 +32025,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -33258,7 +33261,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q156">
         <v>2.1</v>
@@ -33670,7 +33673,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -34494,7 +34497,7 @@
         <v>87</v>
       </c>
       <c r="P162" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -34575,7 +34578,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ162">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR162">
         <v>1.66</v>
@@ -34700,7 +34703,7 @@
         <v>197</v>
       </c>
       <c r="P163" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q163">
         <v>2.85</v>
@@ -34906,7 +34909,7 @@
         <v>97</v>
       </c>
       <c r="P164" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q164">
         <v>2.82</v>
@@ -35112,7 +35115,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35318,7 +35321,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q166">
         <v>1.8</v>
@@ -35396,7 +35399,7 @@
         <v>1.2</v>
       </c>
       <c r="AP166">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ166">
         <v>1.25</v>
@@ -35936,7 +35939,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q169">
         <v>2.25</v>
@@ -36554,7 +36557,7 @@
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q172">
         <v>3.75</v>
@@ -36760,7 +36763,7 @@
         <v>87</v>
       </c>
       <c r="P173" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q173">
         <v>2.2</v>
@@ -37172,7 +37175,7 @@
         <v>87</v>
       </c>
       <c r="P175" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q175">
         <v>5.05</v>
@@ -37456,7 +37459,7 @@
         <v>1.8</v>
       </c>
       <c r="AP176">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ176">
         <v>1.64</v>
@@ -37584,7 +37587,7 @@
         <v>205</v>
       </c>
       <c r="P177" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q177">
         <v>2.39</v>
@@ -37947,6 +37950,212 @@
       </c>
       <c r="BP178">
         <v>1.67</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7295139</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45557.39583333334</v>
+      </c>
+      <c r="F179">
+        <v>23</v>
+      </c>
+      <c r="G179" t="s">
+        <v>84</v>
+      </c>
+      <c r="H179" t="s">
+        <v>78</v>
+      </c>
+      <c r="I179">
+        <v>3</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>3</v>
+      </c>
+      <c r="L179">
+        <v>4</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>5</v>
+      </c>
+      <c r="O179" t="s">
+        <v>207</v>
+      </c>
+      <c r="P179" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q179">
+        <v>3.2</v>
+      </c>
+      <c r="R179">
+        <v>2.5</v>
+      </c>
+      <c r="S179">
+        <v>2.75</v>
+      </c>
+      <c r="T179">
+        <v>1.22</v>
+      </c>
+      <c r="U179">
+        <v>4</v>
+      </c>
+      <c r="V179">
+        <v>2.1</v>
+      </c>
+      <c r="W179">
+        <v>1.67</v>
+      </c>
+      <c r="X179">
+        <v>4.5</v>
+      </c>
+      <c r="Y179">
+        <v>1.18</v>
+      </c>
+      <c r="Z179">
+        <v>2.9</v>
+      </c>
+      <c r="AA179">
+        <v>3.75</v>
+      </c>
+      <c r="AB179">
+        <v>2.15</v>
+      </c>
+      <c r="AC179">
+        <v>1.01</v>
+      </c>
+      <c r="AD179">
+        <v>17</v>
+      </c>
+      <c r="AE179">
+        <v>1.08</v>
+      </c>
+      <c r="AF179">
+        <v>6.5</v>
+      </c>
+      <c r="AG179">
+        <v>1.38</v>
+      </c>
+      <c r="AH179">
+        <v>2.81</v>
+      </c>
+      <c r="AI179">
+        <v>1.4</v>
+      </c>
+      <c r="AJ179">
+        <v>2.75</v>
+      </c>
+      <c r="AK179">
+        <v>1.57</v>
+      </c>
+      <c r="AL179">
+        <v>1.29</v>
+      </c>
+      <c r="AM179">
+        <v>1.44</v>
+      </c>
+      <c r="AN179">
+        <v>1.82</v>
+      </c>
+      <c r="AO179">
+        <v>2.09</v>
+      </c>
+      <c r="AP179">
+        <v>1.92</v>
+      </c>
+      <c r="AQ179">
+        <v>1.92</v>
+      </c>
+      <c r="AR179">
+        <v>1.85</v>
+      </c>
+      <c r="AS179">
+        <v>1.47</v>
+      </c>
+      <c r="AT179">
+        <v>3.32</v>
+      </c>
+      <c r="AU179">
+        <v>10</v>
+      </c>
+      <c r="AV179">
+        <v>9</v>
+      </c>
+      <c r="AW179">
+        <v>3</v>
+      </c>
+      <c r="AX179">
+        <v>8</v>
+      </c>
+      <c r="AY179">
+        <v>13</v>
+      </c>
+      <c r="AZ179">
+        <v>17</v>
+      </c>
+      <c r="BA179">
+        <v>5</v>
+      </c>
+      <c r="BB179">
+        <v>9</v>
+      </c>
+      <c r="BC179">
+        <v>14</v>
+      </c>
+      <c r="BD179">
+        <v>1.78</v>
+      </c>
+      <c r="BE179">
+        <v>7.5</v>
+      </c>
+      <c r="BF179">
+        <v>2.43</v>
+      </c>
+      <c r="BG179">
+        <v>1.08</v>
+      </c>
+      <c r="BH179">
+        <v>5.2</v>
+      </c>
+      <c r="BI179">
+        <v>1.22</v>
+      </c>
+      <c r="BJ179">
+        <v>4</v>
+      </c>
+      <c r="BK179">
+        <v>1.4</v>
+      </c>
+      <c r="BL179">
+        <v>2.8</v>
+      </c>
+      <c r="BM179">
+        <v>1.9</v>
+      </c>
+      <c r="BN179">
+        <v>1.9</v>
+      </c>
+      <c r="BO179">
+        <v>2.11</v>
+      </c>
+      <c r="BP179">
+        <v>1.69</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="305">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -631,13 +631,25 @@
     <t>['82', '90+6']</t>
   </si>
   <si>
+    <t>['11', '16', '33', '45+2', '88']</t>
+  </si>
+  <si>
     <t>['6', '27']</t>
   </si>
   <si>
-    <t>['11', '16', '33', '45+2', '88']</t>
+    <t>['25', '36', '44']</t>
+  </si>
+  <si>
+    <t>['12', '37', '61', '88']</t>
   </si>
   <si>
     <t>['19', '27', '45+3', '90+6']</t>
+  </si>
+  <si>
+    <t>['14', '42', '55']</t>
+  </si>
+  <si>
+    <t>['79']</t>
   </si>
   <si>
     <t>['39', '90+2']</t>
@@ -880,9 +892,6 @@
     <t>['35', '81']</t>
   </si>
   <si>
-    <t>['79']</t>
-  </si>
-  <si>
     <t>['80']</t>
   </si>
   <si>
@@ -917,6 +926,9 @@
   </si>
   <si>
     <t>['31']</t>
+  </si>
+  <si>
+    <t>['79', '84']</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP179"/>
+  <dimension ref="A1:BP184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1537,7 +1549,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1618,7 +1630,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ2">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1743,7 +1755,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1821,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ3">
         <v>1.92</v>
@@ -2155,7 +2167,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2233,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ5">
         <v>1.82</v>
@@ -2361,7 +2373,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2645,10 +2657,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ7">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3266,7 +3278,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ10">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3391,7 +3403,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3469,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ11">
         <v>1.64</v>
@@ -3597,7 +3609,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q12">
         <v>5.5</v>
@@ -3678,7 +3690,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ12">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3884,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4215,7 +4227,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q15">
         <v>2.95</v>
@@ -4421,7 +4433,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4627,7 +4639,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4705,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ17">
         <v>1.25</v>
@@ -4833,7 +4845,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5117,10 +5129,10 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ19">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR19">
         <v>1.53</v>
@@ -5451,7 +5463,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5532,7 +5544,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR21">
         <v>1.91</v>
@@ -5735,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ22">
         <v>1.25</v>
@@ -5863,7 +5875,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6069,7 +6081,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6481,7 +6493,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6562,7 +6574,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ26">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR26">
         <v>2.06</v>
@@ -6687,7 +6699,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6971,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ28">
         <v>1.27</v>
@@ -7099,7 +7111,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q29">
         <v>3.6</v>
@@ -7305,7 +7317,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7592,7 +7604,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ31">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR31">
         <v>2.08</v>
@@ -7923,7 +7935,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -8129,7 +8141,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8210,7 +8222,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ34">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR34">
         <v>1.56</v>
@@ -8335,7 +8347,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8413,7 +8425,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ35">
         <v>1.92</v>
@@ -8622,7 +8634,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ36">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR36">
         <v>2.03</v>
@@ -8953,7 +8965,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q38">
         <v>2.54</v>
@@ -9159,7 +9171,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9237,7 +9249,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ39">
         <v>1.25</v>
@@ -9443,10 +9455,10 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ40">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR40">
         <v>1.33</v>
@@ -9777,7 +9789,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9858,7 +9870,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ42">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR42">
         <v>1.44</v>
@@ -10473,7 +10485,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ45">
         <v>1.25</v>
@@ -10807,7 +10819,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -11219,7 +11231,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q49">
         <v>4.5</v>
@@ -11300,7 +11312,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ49">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR49">
         <v>1.32</v>
@@ -11631,7 +11643,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11837,7 +11849,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -11915,7 +11927,7 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ52">
         <v>1.92</v>
@@ -12124,7 +12136,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ53">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR53">
         <v>1.7</v>
@@ -12249,7 +12261,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12455,7 +12467,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12536,7 +12548,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ55">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR55">
         <v>1.29</v>
@@ -12945,10 +12957,10 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ57">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR57">
         <v>1.51</v>
@@ -13073,7 +13085,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13279,7 +13291,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13360,7 +13372,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ59">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR59">
         <v>1.19</v>
@@ -13485,7 +13497,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13563,7 +13575,7 @@
         <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ60">
         <v>1.64</v>
@@ -13769,7 +13781,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ61">
         <v>1</v>
@@ -13978,7 +13990,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ62">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR62">
         <v>2.1</v>
@@ -14103,7 +14115,7 @@
         <v>116</v>
       </c>
       <c r="P63" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14309,7 +14321,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14927,7 +14939,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -15005,7 +15017,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ67">
         <v>1.82</v>
@@ -15133,7 +15145,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15214,7 +15226,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ68">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR68">
         <v>1.55</v>
@@ -15420,7 +15432,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ69">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR69">
         <v>1.61</v>
@@ -15832,7 +15844,7 @@
         <v>1</v>
       </c>
       <c r="AQ71">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR71">
         <v>1.62</v>
@@ -15957,7 +15969,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16163,7 +16175,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16369,7 +16381,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16447,7 +16459,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ74">
         <v>0.82</v>
@@ -16575,7 +16587,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16859,7 +16871,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ76">
         <v>1.27</v>
@@ -16987,7 +16999,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -17065,7 +17077,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ77">
         <v>0.82</v>
@@ -17274,7 +17286,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ78">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR78">
         <v>1.47</v>
@@ -17399,7 +17411,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17605,7 +17617,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q80">
         <v>2.62</v>
@@ -18017,7 +18029,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18098,7 +18110,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ82">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR82">
         <v>2.05</v>
@@ -18301,7 +18313,7 @@
         <v>2.6</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ83">
         <v>1.55</v>
@@ -18635,7 +18647,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18716,7 +18728,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ85">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR85">
         <v>1.48</v>
@@ -18841,7 +18853,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -19047,7 +19059,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19128,7 +19140,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ87">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR87">
         <v>1.72</v>
@@ -19253,7 +19265,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19334,7 +19346,7 @@
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR88">
         <v>1.51</v>
@@ -19540,7 +19552,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ89">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR89">
         <v>1.54</v>
@@ -19871,7 +19883,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -19949,7 +19961,7 @@
         <v>1.8</v>
       </c>
       <c r="AP91">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ91">
         <v>1</v>
@@ -20077,7 +20089,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20155,7 +20167,7 @@
         <v>1.4</v>
       </c>
       <c r="AP92">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ92">
         <v>1.25</v>
@@ -20361,7 +20373,7 @@
         <v>2.17</v>
       </c>
       <c r="AP93">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ93">
         <v>1.55</v>
@@ -20489,7 +20501,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20695,7 +20707,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -21107,7 +21119,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -21313,7 +21325,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21519,7 +21531,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21597,10 +21609,10 @@
         <v>2</v>
       </c>
       <c r="AP99">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ99">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR99">
         <v>1.54</v>
@@ -21725,7 +21737,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21931,7 +21943,7 @@
         <v>117</v>
       </c>
       <c r="P101" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -22755,7 +22767,7 @@
         <v>116</v>
       </c>
       <c r="P105" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q105">
         <v>2.75</v>
@@ -22961,7 +22973,7 @@
         <v>98</v>
       </c>
       <c r="P106" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23042,7 +23054,7 @@
         <v>1</v>
       </c>
       <c r="AQ106">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -23167,7 +23179,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23245,10 +23257,10 @@
         <v>1.33</v>
       </c>
       <c r="AP107">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ107">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR107">
         <v>1.41</v>
@@ -23454,7 +23466,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ108">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR108">
         <v>1.56</v>
@@ -23657,7 +23669,7 @@
         <v>2</v>
       </c>
       <c r="AP109">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ109">
         <v>1.55</v>
@@ -23785,7 +23797,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -24069,10 +24081,10 @@
         <v>2.17</v>
       </c>
       <c r="AP111">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ111">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR111">
         <v>1.22</v>
@@ -24197,7 +24209,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q112">
         <v>2.95</v>
@@ -24403,7 +24415,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q113">
         <v>2.63</v>
@@ -24609,7 +24621,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -25021,7 +25033,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -25102,7 +25114,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ116">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR116">
         <v>1.92</v>
@@ -25227,7 +25239,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25305,7 +25317,7 @@
         <v>1.83</v>
       </c>
       <c r="AP117">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ117">
         <v>1.64</v>
@@ -25514,7 +25526,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ118">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR118">
         <v>1.59</v>
@@ -25639,7 +25651,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q119">
         <v>4.2</v>
@@ -25845,7 +25857,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q120">
         <v>1.75</v>
@@ -26051,7 +26063,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q121">
         <v>2.63</v>
@@ -26338,7 +26350,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ122">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR122">
         <v>1.3</v>
@@ -26669,7 +26681,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26875,7 +26887,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -26953,7 +26965,7 @@
         <v>0.57</v>
       </c>
       <c r="AP125">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ125">
         <v>0.82</v>
@@ -27081,7 +27093,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27493,7 +27505,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27574,7 +27586,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ128">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR128">
         <v>1.41</v>
@@ -27777,7 +27789,7 @@
         <v>0.63</v>
       </c>
       <c r="AP129">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ129">
         <v>0.82</v>
@@ -27986,7 +27998,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ130">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR130">
         <v>1.58</v>
@@ -28111,7 +28123,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28192,7 +28204,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ131">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR131">
         <v>1.65</v>
@@ -28395,7 +28407,7 @@
         <v>2.13</v>
       </c>
       <c r="AP132">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ132">
         <v>1.64</v>
@@ -28523,7 +28535,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28807,7 +28819,7 @@
         <v>1.71</v>
       </c>
       <c r="AP134">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ134">
         <v>1</v>
@@ -28935,7 +28947,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29016,7 +29028,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ135">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR135">
         <v>1.14</v>
@@ -29141,7 +29153,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q136">
         <v>2.38</v>
@@ -29222,7 +29234,7 @@
         <v>1</v>
       </c>
       <c r="AQ136">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR136">
         <v>1.63</v>
@@ -29425,7 +29437,7 @@
         <v>1.14</v>
       </c>
       <c r="AP137">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ137">
         <v>1.27</v>
@@ -29553,7 +29565,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q138">
         <v>2.7</v>
@@ -29965,7 +29977,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q140">
         <v>3.52</v>
@@ -30583,7 +30595,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q143">
         <v>3.4</v>
@@ -30664,7 +30676,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ143">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR143">
         <v>1.35</v>
@@ -30867,10 +30879,10 @@
         <v>1</v>
       </c>
       <c r="AP144">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ144">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR144">
         <v>1.23</v>
@@ -30995,7 +31007,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q145">
         <v>2.65</v>
@@ -31201,7 +31213,7 @@
         <v>87</v>
       </c>
       <c r="P146" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31279,7 +31291,7 @@
         <v>1.78</v>
       </c>
       <c r="AP146">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ146">
         <v>1.82</v>
@@ -31407,7 +31419,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q147">
         <v>2.2</v>
@@ -31488,7 +31500,7 @@
         <v>1</v>
       </c>
       <c r="AQ147">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR147">
         <v>1.58</v>
@@ -31694,7 +31706,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ148">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR148">
         <v>1.15</v>
@@ -31819,7 +31831,7 @@
         <v>87</v>
       </c>
       <c r="P149" t="s">
-        <v>288</v>
+        <v>211</v>
       </c>
       <c r="Q149">
         <v>2.83</v>
@@ -32025,7 +32037,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32103,10 +32115,10 @@
         <v>1.5</v>
       </c>
       <c r="AP150">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ150">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR150">
         <v>1.52</v>
@@ -32309,7 +32321,7 @@
         <v>1.33</v>
       </c>
       <c r="AP151">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ151">
         <v>1</v>
@@ -33261,7 +33273,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q156">
         <v>2.1</v>
@@ -33673,7 +33685,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -34163,10 +34175,10 @@
         <v>0.89</v>
       </c>
       <c r="AP160">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ160">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR160">
         <v>1.27</v>
@@ -34372,7 +34384,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ161">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR161">
         <v>1.21</v>
@@ -34497,7 +34509,7 @@
         <v>87</v>
       </c>
       <c r="P162" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -34703,7 +34715,7 @@
         <v>197</v>
       </c>
       <c r="P163" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q163">
         <v>2.85</v>
@@ -34781,10 +34793,10 @@
         <v>0.9</v>
       </c>
       <c r="AP163">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ163">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR163">
         <v>1.41</v>
@@ -34909,7 +34921,7 @@
         <v>97</v>
       </c>
       <c r="P164" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q164">
         <v>2.82</v>
@@ -34987,10 +34999,10 @@
         <v>1.89</v>
       </c>
       <c r="AP164">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ164">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR164">
         <v>1.43</v>
@@ -35115,7 +35127,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35193,10 +35205,10 @@
         <v>1.33</v>
       </c>
       <c r="AP165">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ165">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR165">
         <v>1.5</v>
@@ -35321,7 +35333,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q166">
         <v>1.8</v>
@@ -35939,7 +35951,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q169">
         <v>2.25</v>
@@ -36557,7 +36569,7 @@
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q172">
         <v>3.75</v>
@@ -36763,7 +36775,7 @@
         <v>87</v>
       </c>
       <c r="P173" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q173">
         <v>2.2</v>
@@ -37175,7 +37187,7 @@
         <v>87</v>
       </c>
       <c r="P175" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q175">
         <v>5.05</v>
@@ -37253,10 +37265,10 @@
         <v>1.7</v>
       </c>
       <c r="AP175">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ175">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR175">
         <v>1.42</v>
@@ -37545,7 +37557,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>7295141</v>
+        <v>7295138</v>
       </c>
       <c r="C177" t="s">
         <v>68</v>
@@ -37554,196 +37566,196 @@
         <v>69</v>
       </c>
       <c r="E177" s="2">
-        <v>45556.45833333334</v>
+        <v>45555.875</v>
       </c>
       <c r="F177">
         <v>23</v>
       </c>
       <c r="G177" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H177" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K177">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L177">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N177">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O177" t="s">
         <v>205</v>
       </c>
       <c r="P177" t="s">
-        <v>300</v>
+        <v>87</v>
       </c>
       <c r="Q177">
-        <v>2.39</v>
+        <v>3.1</v>
       </c>
       <c r="R177">
-        <v>2.49</v>
+        <v>2.1</v>
       </c>
       <c r="S177">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="T177">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="U177">
-        <v>3.92</v>
+        <v>3.05</v>
       </c>
       <c r="V177">
-        <v>2.08</v>
+        <v>2.61</v>
       </c>
       <c r="W177">
-        <v>1.7</v>
+        <v>1.46</v>
       </c>
       <c r="X177">
-        <v>4.45</v>
+        <v>6.3</v>
       </c>
       <c r="Y177">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="Z177">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="AA177">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AB177">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="AC177">
         <v>1.02</v>
       </c>
       <c r="AD177">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="AE177">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AF177">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="AG177">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AH177">
-        <v>2.73</v>
+        <v>2.05</v>
       </c>
       <c r="AI177">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AJ177">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="AK177">
-        <v>1.31</v>
+        <v>1.51</v>
       </c>
       <c r="AL177">
+        <v>1.3</v>
+      </c>
+      <c r="AM177">
+        <v>1.5</v>
+      </c>
+      <c r="AN177">
+        <v>1</v>
+      </c>
+      <c r="AO177">
+        <v>1.09</v>
+      </c>
+      <c r="AP177">
+        <v>1.18</v>
+      </c>
+      <c r="AQ177">
+        <v>1</v>
+      </c>
+      <c r="AR177">
         <v>1.23</v>
       </c>
-      <c r="AM177">
-        <v>1.86</v>
-      </c>
-      <c r="AN177">
-        <v>1.2</v>
-      </c>
-      <c r="AO177">
-        <v>1.36</v>
-      </c>
-      <c r="AP177">
-        <v>1.36</v>
-      </c>
-      <c r="AQ177">
-        <v>1.25</v>
-      </c>
-      <c r="AR177">
-        <v>1.66</v>
-      </c>
       <c r="AS177">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AT177">
-        <v>2.99</v>
+        <v>2.5</v>
       </c>
       <c r="AU177">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV177">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW177">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX177">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AY177">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ177">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA177">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB177">
         <v>7</v>
       </c>
       <c r="BC177">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD177">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="BE177">
         <v>8.5</v>
       </c>
       <c r="BF177">
-        <v>2.6</v>
+        <v>1.91</v>
       </c>
       <c r="BG177">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="BH177">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="BI177">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="BJ177">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="BK177">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="BL177">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="BM177">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="BN177">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BO177">
-        <v>1.94</v>
+        <v>2.07</v>
       </c>
       <c r="BP177">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="178" spans="1:68">
@@ -37751,7 +37763,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>7295138</v>
+        <v>7295141</v>
       </c>
       <c r="C178" t="s">
         <v>68</v>
@@ -37760,196 +37772,196 @@
         <v>69</v>
       </c>
       <c r="E178" s="2">
-        <v>45556.54166666666</v>
+        <v>45556.45833333334</v>
       </c>
       <c r="F178">
         <v>23</v>
       </c>
       <c r="G178" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H178" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I178">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K178">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L178">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N178">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O178" t="s">
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>87</v>
+        <v>303</v>
       </c>
       <c r="Q178">
-        <v>3.1</v>
+        <v>2.39</v>
       </c>
       <c r="R178">
-        <v>2.1</v>
+        <v>2.49</v>
       </c>
       <c r="S178">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="T178">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="U178">
-        <v>3.05</v>
+        <v>3.92</v>
       </c>
       <c r="V178">
-        <v>2.61</v>
+        <v>2.08</v>
       </c>
       <c r="W178">
-        <v>1.46</v>
+        <v>1.7</v>
       </c>
       <c r="X178">
-        <v>6.3</v>
+        <v>4.45</v>
       </c>
       <c r="Y178">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="Z178">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="AA178">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AB178">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="AC178">
         <v>1.02</v>
       </c>
       <c r="AD178">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AE178">
+        <v>1.14</v>
+      </c>
+      <c r="AF178">
+        <v>5.75</v>
+      </c>
+      <c r="AG178">
+        <v>1.4</v>
+      </c>
+      <c r="AH178">
+        <v>2.73</v>
+      </c>
+      <c r="AI178">
+        <v>1.45</v>
+      </c>
+      <c r="AJ178">
+        <v>2.7</v>
+      </c>
+      <c r="AK178">
+        <v>1.31</v>
+      </c>
+      <c r="AL178">
+        <v>1.23</v>
+      </c>
+      <c r="AM178">
+        <v>1.86</v>
+      </c>
+      <c r="AN178">
         <v>1.2</v>
       </c>
-      <c r="AF178">
-        <v>4</v>
-      </c>
-      <c r="AG178">
-        <v>1.7</v>
-      </c>
-      <c r="AH178">
-        <v>2.05</v>
-      </c>
-      <c r="AI178">
-        <v>1.6</v>
-      </c>
-      <c r="AJ178">
-        <v>2.3</v>
-      </c>
-      <c r="AK178">
-        <v>1.51</v>
-      </c>
-      <c r="AL178">
-        <v>1.3</v>
-      </c>
-      <c r="AM178">
-        <v>1.5</v>
-      </c>
-      <c r="AN178">
-        <v>1</v>
-      </c>
       <c r="AO178">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="AP178">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="AQ178">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR178">
-        <v>1.23</v>
+        <v>1.66</v>
       </c>
       <c r="AS178">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AT178">
-        <v>2.5</v>
+        <v>2.99</v>
       </c>
       <c r="AU178">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV178">
         <v>4</v>
       </c>
       <c r="AW178">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX178">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AY178">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AZ178">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BA178">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB178">
         <v>7</v>
       </c>
       <c r="BC178">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD178">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="BE178">
         <v>8.5</v>
       </c>
       <c r="BF178">
-        <v>1.91</v>
+        <v>2.6</v>
       </c>
       <c r="BG178">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="BH178">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="BI178">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="BJ178">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="BK178">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="BL178">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="BM178">
+        <v>1.8</v>
+      </c>
+      <c r="BN178">
+        <v>2</v>
+      </c>
+      <c r="BO178">
+        <v>1.94</v>
+      </c>
+      <c r="BP178">
         <v>1.77</v>
-      </c>
-      <c r="BN178">
-        <v>1.95</v>
-      </c>
-      <c r="BO178">
-        <v>2.07</v>
-      </c>
-      <c r="BP178">
-        <v>1.67</v>
       </c>
     </row>
     <row r="179" spans="1:68">
@@ -37957,7 +37969,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>7295139</v>
+        <v>7295143</v>
       </c>
       <c r="C179" t="s">
         <v>68</v>
@@ -37966,16 +37978,16 @@
         <v>69</v>
       </c>
       <c r="E179" s="2">
-        <v>45557.39583333334</v>
+        <v>45556.875</v>
       </c>
       <c r="F179">
         <v>23</v>
       </c>
       <c r="G179" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H179" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I179">
         <v>3</v>
@@ -37987,175 +37999,1205 @@
         <v>3</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N179">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O179" t="s">
         <v>207</v>
       </c>
       <c r="P179" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q179">
+        <v>2.42</v>
+      </c>
+      <c r="R179">
+        <v>2.37</v>
+      </c>
+      <c r="S179">
+        <v>4.51</v>
+      </c>
+      <c r="T179">
+        <v>1.33</v>
+      </c>
+      <c r="U179">
+        <v>3.3</v>
+      </c>
+      <c r="V179">
+        <v>2.66</v>
+      </c>
+      <c r="W179">
+        <v>1.48</v>
+      </c>
+      <c r="X179">
+        <v>5.5</v>
+      </c>
+      <c r="Y179">
+        <v>1.11</v>
+      </c>
+      <c r="Z179">
+        <v>1.8</v>
+      </c>
+      <c r="AA179">
+        <v>3.8</v>
+      </c>
+      <c r="AB179">
+        <v>3.9</v>
+      </c>
+      <c r="AC179">
+        <v>1.04</v>
+      </c>
+      <c r="AD179">
+        <v>10.5</v>
+      </c>
+      <c r="AE179">
+        <v>1.23</v>
+      </c>
+      <c r="AF179">
+        <v>4.05</v>
+      </c>
+      <c r="AG179">
+        <v>1.7</v>
+      </c>
+      <c r="AH179">
+        <v>2.17</v>
+      </c>
+      <c r="AI179">
+        <v>1.68</v>
+      </c>
+      <c r="AJ179">
+        <v>2.15</v>
+      </c>
+      <c r="AK179">
+        <v>1.18</v>
+      </c>
+      <c r="AL179">
+        <v>1.27</v>
+      </c>
+      <c r="AM179">
+        <v>1.87</v>
+      </c>
+      <c r="AN179">
+        <v>1</v>
+      </c>
+      <c r="AO179">
+        <v>0.5</v>
+      </c>
+      <c r="AP179">
+        <v>1.17</v>
+      </c>
+      <c r="AQ179">
+        <v>0.45</v>
+      </c>
+      <c r="AR179">
+        <v>1.5</v>
+      </c>
+      <c r="AS179">
+        <v>1.28</v>
+      </c>
+      <c r="AT179">
+        <v>2.78</v>
+      </c>
+      <c r="AU179">
+        <v>-1</v>
+      </c>
+      <c r="AV179">
+        <v>-1</v>
+      </c>
+      <c r="AW179">
+        <v>-1</v>
+      </c>
+      <c r="AX179">
+        <v>-1</v>
+      </c>
+      <c r="AY179">
+        <v>-1</v>
+      </c>
+      <c r="AZ179">
+        <v>-1</v>
+      </c>
+      <c r="BA179">
+        <v>-1</v>
+      </c>
+      <c r="BB179">
+        <v>-1</v>
+      </c>
+      <c r="BC179">
+        <v>-1</v>
+      </c>
+      <c r="BD179">
+        <v>1.67</v>
+      </c>
+      <c r="BE179">
+        <v>8.5</v>
+      </c>
+      <c r="BF179">
+        <v>2.6</v>
+      </c>
+      <c r="BG179">
+        <v>1.18</v>
+      </c>
+      <c r="BH179">
+        <v>4.6</v>
+      </c>
+      <c r="BI179">
+        <v>1.34</v>
+      </c>
+      <c r="BJ179">
+        <v>3.1</v>
+      </c>
+      <c r="BK179">
+        <v>1.49</v>
+      </c>
+      <c r="BL179">
+        <v>2.45</v>
+      </c>
+      <c r="BM179">
+        <v>1.95</v>
+      </c>
+      <c r="BN179">
+        <v>1.77</v>
+      </c>
+      <c r="BO179">
+        <v>2.37</v>
+      </c>
+      <c r="BP179">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7295142</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45556.875</v>
+      </c>
+      <c r="F180">
+        <v>23</v>
+      </c>
+      <c r="G180" t="s">
+        <v>75</v>
+      </c>
+      <c r="H180" t="s">
+        <v>83</v>
+      </c>
+      <c r="I180">
+        <v>2</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>2</v>
+      </c>
+      <c r="L180">
+        <v>4</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>4</v>
+      </c>
+      <c r="O180" t="s">
+        <v>208</v>
+      </c>
+      <c r="P180" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q180">
+        <v>1.83</v>
+      </c>
+      <c r="R180">
+        <v>2.5</v>
+      </c>
+      <c r="S180">
+        <v>5.5</v>
+      </c>
+      <c r="T180">
+        <v>1.28</v>
+      </c>
+      <c r="U180">
+        <v>3.3</v>
+      </c>
+      <c r="V180">
+        <v>2.35</v>
+      </c>
+      <c r="W180">
+        <v>1.53</v>
+      </c>
+      <c r="X180">
+        <v>5</v>
+      </c>
+      <c r="Y180">
+        <v>1.13</v>
+      </c>
+      <c r="Z180">
+        <v>1.47</v>
+      </c>
+      <c r="AA180">
+        <v>4.5</v>
+      </c>
+      <c r="AB180">
+        <v>6</v>
+      </c>
+      <c r="AC180">
+        <v>1.03</v>
+      </c>
+      <c r="AD180">
+        <v>11</v>
+      </c>
+      <c r="AE180">
+        <v>1.2</v>
+      </c>
+      <c r="AF180">
+        <v>4.5</v>
+      </c>
+      <c r="AG180">
+        <v>1.65</v>
+      </c>
+      <c r="AH180">
+        <v>2.25</v>
+      </c>
+      <c r="AI180">
+        <v>1.73</v>
+      </c>
+      <c r="AJ180">
+        <v>2</v>
+      </c>
+      <c r="AK180">
+        <v>1.14</v>
+      </c>
+      <c r="AL180">
+        <v>1.19</v>
+      </c>
+      <c r="AM180">
+        <v>2.55</v>
+      </c>
+      <c r="AN180">
+        <v>2.27</v>
+      </c>
+      <c r="AO180">
+        <v>0.91</v>
+      </c>
+      <c r="AP180">
+        <v>2.33</v>
+      </c>
+      <c r="AQ180">
+        <v>0.83</v>
+      </c>
+      <c r="AR180">
+        <v>1.46</v>
+      </c>
+      <c r="AS180">
+        <v>1.36</v>
+      </c>
+      <c r="AT180">
+        <v>2.82</v>
+      </c>
+      <c r="AU180">
+        <v>8</v>
+      </c>
+      <c r="AV180">
+        <v>3</v>
+      </c>
+      <c r="AW180">
+        <v>12</v>
+      </c>
+      <c r="AX180">
+        <v>1</v>
+      </c>
+      <c r="AY180">
+        <v>20</v>
+      </c>
+      <c r="AZ180">
+        <v>4</v>
+      </c>
+      <c r="BA180">
+        <v>13</v>
+      </c>
+      <c r="BB180">
+        <v>1</v>
+      </c>
+      <c r="BC180">
+        <v>14</v>
+      </c>
+      <c r="BD180">
+        <v>1.2</v>
+      </c>
+      <c r="BE180">
+        <v>11</v>
+      </c>
+      <c r="BF180">
+        <v>5.5</v>
+      </c>
+      <c r="BG180">
+        <v>1.2</v>
+      </c>
+      <c r="BH180">
+        <v>4.25</v>
+      </c>
+      <c r="BI180">
+        <v>1.31</v>
+      </c>
+      <c r="BJ180">
+        <v>3.15</v>
+      </c>
+      <c r="BK180">
+        <v>1.55</v>
+      </c>
+      <c r="BL180">
+        <v>2.3</v>
+      </c>
+      <c r="BM180">
+        <v>2.05</v>
+      </c>
+      <c r="BN180">
+        <v>1.7</v>
+      </c>
+      <c r="BO180">
+        <v>2.52</v>
+      </c>
+      <c r="BP180">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7295145</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45556.875</v>
+      </c>
+      <c r="F181">
+        <v>23</v>
+      </c>
+      <c r="G181" t="s">
+        <v>79</v>
+      </c>
+      <c r="H181" t="s">
+        <v>70</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+      <c r="O181" t="s">
+        <v>87</v>
+      </c>
+      <c r="P181" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q181">
+        <v>2.75</v>
+      </c>
+      <c r="R181">
+        <v>2.25</v>
+      </c>
+      <c r="S181">
+        <v>3.6</v>
+      </c>
+      <c r="T181">
+        <v>1.33</v>
+      </c>
+      <c r="U181">
+        <v>3.25</v>
+      </c>
+      <c r="V181">
+        <v>2.63</v>
+      </c>
+      <c r="W181">
+        <v>1.44</v>
+      </c>
+      <c r="X181">
+        <v>7</v>
+      </c>
+      <c r="Y181">
+        <v>1.1</v>
+      </c>
+      <c r="Z181">
+        <v>2.15</v>
+      </c>
+      <c r="AA181">
+        <v>3.5</v>
+      </c>
+      <c r="AB181">
+        <v>3</v>
+      </c>
+      <c r="AC181">
+        <v>1.01</v>
+      </c>
+      <c r="AD181">
+        <v>11</v>
+      </c>
+      <c r="AE181">
+        <v>1.2</v>
+      </c>
+      <c r="AF181">
+        <v>4</v>
+      </c>
+      <c r="AG181">
+        <v>1.76</v>
+      </c>
+      <c r="AH181">
+        <v>2.06</v>
+      </c>
+      <c r="AI181">
+        <v>1.67</v>
+      </c>
+      <c r="AJ181">
+        <v>2.1</v>
+      </c>
+      <c r="AK181">
+        <v>1.36</v>
+      </c>
+      <c r="AL181">
+        <v>1.28</v>
+      </c>
+      <c r="AM181">
+        <v>1.71</v>
+      </c>
+      <c r="AN181">
+        <v>1.6</v>
+      </c>
+      <c r="AO181">
+        <v>0.8</v>
+      </c>
+      <c r="AP181">
+        <v>1.55</v>
+      </c>
+      <c r="AQ181">
+        <v>0.82</v>
+      </c>
+      <c r="AR181">
+        <v>1.39</v>
+      </c>
+      <c r="AS181">
+        <v>0.89</v>
+      </c>
+      <c r="AT181">
+        <v>2.28</v>
+      </c>
+      <c r="AU181">
+        <v>4</v>
+      </c>
+      <c r="AV181">
+        <v>2</v>
+      </c>
+      <c r="AW181">
+        <v>4</v>
+      </c>
+      <c r="AX181">
+        <v>5</v>
+      </c>
+      <c r="AY181">
+        <v>8</v>
+      </c>
+      <c r="AZ181">
+        <v>7</v>
+      </c>
+      <c r="BA181">
+        <v>3</v>
+      </c>
+      <c r="BB181">
+        <v>5</v>
+      </c>
+      <c r="BC181">
+        <v>8</v>
+      </c>
+      <c r="BD181">
+        <v>1.8</v>
+      </c>
+      <c r="BE181">
+        <v>8.5</v>
+      </c>
+      <c r="BF181">
+        <v>2.3</v>
+      </c>
+      <c r="BG181">
+        <v>1.08</v>
+      </c>
+      <c r="BH181">
+        <v>5.15</v>
+      </c>
+      <c r="BI181">
+        <v>1.29</v>
+      </c>
+      <c r="BJ181">
+        <v>3.45</v>
+      </c>
+      <c r="BK181">
+        <v>1.38</v>
+      </c>
+      <c r="BL181">
+        <v>2.8</v>
+      </c>
+      <c r="BM181">
+        <v>1.85</v>
+      </c>
+      <c r="BN181">
+        <v>1.85</v>
+      </c>
+      <c r="BO181">
+        <v>2.1</v>
+      </c>
+      <c r="BP181">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7295139</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45556.875</v>
+      </c>
+      <c r="F182">
+        <v>23</v>
+      </c>
+      <c r="G182" t="s">
+        <v>84</v>
+      </c>
+      <c r="H182" t="s">
+        <v>78</v>
+      </c>
+      <c r="I182">
+        <v>3</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>3</v>
+      </c>
+      <c r="L182">
+        <v>4</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>5</v>
+      </c>
+      <c r="O182" t="s">
+        <v>209</v>
+      </c>
+      <c r="P182" t="s">
         <v>199</v>
       </c>
-      <c r="Q179">
+      <c r="Q182">
         <v>3.2</v>
       </c>
-      <c r="R179">
+      <c r="R182">
         <v>2.5</v>
       </c>
-      <c r="S179">
+      <c r="S182">
         <v>2.75</v>
       </c>
-      <c r="T179">
+      <c r="T182">
         <v>1.22</v>
       </c>
-      <c r="U179">
+      <c r="U182">
         <v>4</v>
       </c>
-      <c r="V179">
+      <c r="V182">
         <v>2.1</v>
       </c>
-      <c r="W179">
+      <c r="W182">
         <v>1.67</v>
       </c>
-      <c r="X179">
+      <c r="X182">
         <v>4.5</v>
       </c>
-      <c r="Y179">
+      <c r="Y182">
         <v>1.18</v>
       </c>
-      <c r="Z179">
+      <c r="Z182">
         <v>2.9</v>
       </c>
-      <c r="AA179">
+      <c r="AA182">
         <v>3.75</v>
       </c>
-      <c r="AB179">
+      <c r="AB182">
         <v>2.15</v>
       </c>
-      <c r="AC179">
+      <c r="AC182">
         <v>1.01</v>
       </c>
-      <c r="AD179">
+      <c r="AD182">
         <v>17</v>
       </c>
-      <c r="AE179">
+      <c r="AE182">
         <v>1.08</v>
       </c>
-      <c r="AF179">
+      <c r="AF182">
         <v>6.5</v>
       </c>
-      <c r="AG179">
+      <c r="AG182">
         <v>1.38</v>
       </c>
-      <c r="AH179">
+      <c r="AH182">
         <v>2.81</v>
       </c>
-      <c r="AI179">
+      <c r="AI182">
         <v>1.4</v>
       </c>
-      <c r="AJ179">
+      <c r="AJ182">
         <v>2.75</v>
       </c>
-      <c r="AK179">
+      <c r="AK182">
         <v>1.57</v>
       </c>
-      <c r="AL179">
+      <c r="AL182">
         <v>1.29</v>
       </c>
-      <c r="AM179">
+      <c r="AM182">
         <v>1.44</v>
       </c>
-      <c r="AN179">
+      <c r="AN182">
         <v>1.82</v>
       </c>
-      <c r="AO179">
+      <c r="AO182">
         <v>2.09</v>
       </c>
-      <c r="AP179">
+      <c r="AP182">
         <v>1.92</v>
       </c>
-      <c r="AQ179">
+      <c r="AQ182">
         <v>1.92</v>
       </c>
-      <c r="AR179">
+      <c r="AR182">
         <v>1.85</v>
       </c>
-      <c r="AS179">
+      <c r="AS182">
         <v>1.47</v>
       </c>
-      <c r="AT179">
+      <c r="AT182">
         <v>3.32</v>
       </c>
-      <c r="AU179">
+      <c r="AU182">
+        <v>-1</v>
+      </c>
+      <c r="AV182">
+        <v>-1</v>
+      </c>
+      <c r="AW182">
+        <v>-1</v>
+      </c>
+      <c r="AX182">
+        <v>-1</v>
+      </c>
+      <c r="AY182">
+        <v>-1</v>
+      </c>
+      <c r="AZ182">
+        <v>-1</v>
+      </c>
+      <c r="BA182">
+        <v>-1</v>
+      </c>
+      <c r="BB182">
+        <v>-1</v>
+      </c>
+      <c r="BC182">
+        <v>-1</v>
+      </c>
+      <c r="BD182">
+        <v>1.78</v>
+      </c>
+      <c r="BE182">
+        <v>7.5</v>
+      </c>
+      <c r="BF182">
+        <v>2.43</v>
+      </c>
+      <c r="BG182">
+        <v>1.08</v>
+      </c>
+      <c r="BH182">
+        <v>5.2</v>
+      </c>
+      <c r="BI182">
+        <v>1.22</v>
+      </c>
+      <c r="BJ182">
+        <v>4</v>
+      </c>
+      <c r="BK182">
+        <v>1.4</v>
+      </c>
+      <c r="BL182">
+        <v>2.8</v>
+      </c>
+      <c r="BM182">
+        <v>1.9</v>
+      </c>
+      <c r="BN182">
+        <v>1.9</v>
+      </c>
+      <c r="BO182">
+        <v>2.11</v>
+      </c>
+      <c r="BP182">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7295140</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45556.875</v>
+      </c>
+      <c r="F183">
+        <v>23</v>
+      </c>
+      <c r="G183" t="s">
+        <v>71</v>
+      </c>
+      <c r="H183" t="s">
+        <v>76</v>
+      </c>
+      <c r="I183">
+        <v>2</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>2</v>
+      </c>
+      <c r="L183">
+        <v>3</v>
+      </c>
+      <c r="M183">
+        <v>2</v>
+      </c>
+      <c r="N183">
+        <v>5</v>
+      </c>
+      <c r="O183" t="s">
+        <v>210</v>
+      </c>
+      <c r="P183" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q183">
+        <v>2.8</v>
+      </c>
+      <c r="R183">
+        <v>2.1</v>
+      </c>
+      <c r="S183">
+        <v>3.4</v>
+      </c>
+      <c r="T183">
+        <v>1.34</v>
+      </c>
+      <c r="U183">
+        <v>3.1</v>
+      </c>
+      <c r="V183">
+        <v>2.58</v>
+      </c>
+      <c r="W183">
+        <v>1.47</v>
+      </c>
+      <c r="X183">
+        <v>6.25</v>
+      </c>
+      <c r="Y183">
+        <v>1.1</v>
+      </c>
+      <c r="Z183">
+        <v>2.45</v>
+      </c>
+      <c r="AA183">
+        <v>3.55</v>
+      </c>
+      <c r="AB183">
+        <v>2.85</v>
+      </c>
+      <c r="AC183">
+        <v>1.01</v>
+      </c>
+      <c r="AD183">
+        <v>11</v>
+      </c>
+      <c r="AE183">
+        <v>1.2</v>
+      </c>
+      <c r="AF183">
+        <v>4</v>
+      </c>
+      <c r="AG183">
+        <v>1.76</v>
+      </c>
+      <c r="AH183">
+        <v>2.07</v>
+      </c>
+      <c r="AI183">
+        <v>1.62</v>
+      </c>
+      <c r="AJ183">
+        <v>2.2</v>
+      </c>
+      <c r="AK183">
+        <v>1.42</v>
+      </c>
+      <c r="AL183">
+        <v>1.26</v>
+      </c>
+      <c r="AM183">
+        <v>1.63</v>
+      </c>
+      <c r="AN183">
+        <v>1.55</v>
+      </c>
+      <c r="AO183">
+        <v>1.3</v>
+      </c>
+      <c r="AP183">
+        <v>1.67</v>
+      </c>
+      <c r="AQ183">
+        <v>1.18</v>
+      </c>
+      <c r="AR183">
+        <v>1.29</v>
+      </c>
+      <c r="AS183">
+        <v>1.39</v>
+      </c>
+      <c r="AT183">
+        <v>2.68</v>
+      </c>
+      <c r="AU183">
+        <v>2</v>
+      </c>
+      <c r="AV183">
+        <v>11</v>
+      </c>
+      <c r="AW183">
+        <v>7</v>
+      </c>
+      <c r="AX183">
+        <v>8</v>
+      </c>
+      <c r="AY183">
+        <v>9</v>
+      </c>
+      <c r="AZ183">
+        <v>19</v>
+      </c>
+      <c r="BA183">
+        <v>7</v>
+      </c>
+      <c r="BB183">
+        <v>6</v>
+      </c>
+      <c r="BC183">
+        <v>13</v>
+      </c>
+      <c r="BD183">
+        <v>1.91</v>
+      </c>
+      <c r="BE183">
+        <v>8.5</v>
+      </c>
+      <c r="BF183">
+        <v>2.1</v>
+      </c>
+      <c r="BG183">
+        <v>1.18</v>
+      </c>
+      <c r="BH183">
+        <v>4.33</v>
+      </c>
+      <c r="BI183">
+        <v>1.33</v>
+      </c>
+      <c r="BJ183">
+        <v>3</v>
+      </c>
+      <c r="BK183">
+        <v>1.48</v>
+      </c>
+      <c r="BL183">
+        <v>2.47</v>
+      </c>
+      <c r="BM183">
+        <v>1.98</v>
+      </c>
+      <c r="BN183">
+        <v>1.82</v>
+      </c>
+      <c r="BO183">
+        <v>2.35</v>
+      </c>
+      <c r="BP183">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7295144</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45557.875</v>
+      </c>
+      <c r="F184">
+        <v>23</v>
+      </c>
+      <c r="G184" t="s">
+        <v>77</v>
+      </c>
+      <c r="H184" t="s">
+        <v>72</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>2</v>
+      </c>
+      <c r="O184" t="s">
+        <v>211</v>
+      </c>
+      <c r="P184" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q184">
+        <v>3.75</v>
+      </c>
+      <c r="R184">
+        <v>2.2</v>
+      </c>
+      <c r="S184">
+        <v>2.75</v>
+      </c>
+      <c r="T184">
+        <v>1.36</v>
+      </c>
+      <c r="U184">
+        <v>3</v>
+      </c>
+      <c r="V184">
+        <v>2.75</v>
+      </c>
+      <c r="W184">
+        <v>1.4</v>
+      </c>
+      <c r="X184">
+        <v>7</v>
+      </c>
+      <c r="Y184">
+        <v>1.1</v>
+      </c>
+      <c r="Z184">
+        <v>3.15</v>
+      </c>
+      <c r="AA184">
+        <v>3.3</v>
+      </c>
+      <c r="AB184">
+        <v>2</v>
+      </c>
+      <c r="AC184">
+        <v>1.02</v>
+      </c>
+      <c r="AD184">
         <v>10</v>
       </c>
-      <c r="AV179">
-        <v>9</v>
-      </c>
-      <c r="AW179">
+      <c r="AE184">
+        <v>1.2</v>
+      </c>
+      <c r="AF184">
+        <v>4</v>
+      </c>
+      <c r="AG184">
+        <v>1.75</v>
+      </c>
+      <c r="AH184">
+        <v>1.95</v>
+      </c>
+      <c r="AI184">
+        <v>1.7</v>
+      </c>
+      <c r="AJ184">
+        <v>2.05</v>
+      </c>
+      <c r="AK184">
+        <v>1.73</v>
+      </c>
+      <c r="AL184">
+        <v>1.3</v>
+      </c>
+      <c r="AM184">
+        <v>1.33</v>
+      </c>
+      <c r="AN184">
+        <v>1</v>
+      </c>
+      <c r="AO184">
+        <v>1.82</v>
+      </c>
+      <c r="AP184">
+        <v>1</v>
+      </c>
+      <c r="AQ184">
+        <v>1.75</v>
+      </c>
+      <c r="AR184">
+        <v>1.39</v>
+      </c>
+      <c r="AS184">
+        <v>1.44</v>
+      </c>
+      <c r="AT184">
+        <v>2.83</v>
+      </c>
+      <c r="AU184">
+        <v>2</v>
+      </c>
+      <c r="AV184">
+        <v>2</v>
+      </c>
+      <c r="AW184">
         <v>3</v>
       </c>
-      <c r="AX179">
-        <v>8</v>
-      </c>
-      <c r="AY179">
-        <v>13</v>
-      </c>
-      <c r="AZ179">
-        <v>17</v>
-      </c>
-      <c r="BA179">
+      <c r="AX184">
+        <v>2</v>
+      </c>
+      <c r="AY184">
         <v>5</v>
       </c>
-      <c r="BB179">
-        <v>9</v>
-      </c>
-      <c r="BC179">
-        <v>14</v>
-      </c>
-      <c r="BD179">
-        <v>1.78</v>
-      </c>
-      <c r="BE179">
-        <v>7.5</v>
-      </c>
-      <c r="BF179">
-        <v>2.43</v>
-      </c>
-      <c r="BG179">
-        <v>1.08</v>
-      </c>
-      <c r="BH179">
-        <v>5.2</v>
-      </c>
-      <c r="BI179">
-        <v>1.22</v>
-      </c>
-      <c r="BJ179">
+      <c r="AZ184">
         <v>4</v>
       </c>
-      <c r="BK179">
-        <v>1.4</v>
-      </c>
-      <c r="BL179">
-        <v>2.8</v>
-      </c>
-      <c r="BM179">
-        <v>1.9</v>
-      </c>
-      <c r="BN179">
-        <v>1.9</v>
-      </c>
-      <c r="BO179">
-        <v>2.11</v>
-      </c>
-      <c r="BP179">
-        <v>1.69</v>
+      <c r="BA184">
+        <v>1</v>
+      </c>
+      <c r="BB184">
+        <v>6</v>
+      </c>
+      <c r="BC184">
+        <v>7</v>
+      </c>
+      <c r="BD184">
+        <v>2.06</v>
+      </c>
+      <c r="BE184">
+        <v>8.5</v>
+      </c>
+      <c r="BF184">
+        <v>2.04</v>
+      </c>
+      <c r="BG184">
+        <v>1.21</v>
+      </c>
+      <c r="BH184">
+        <v>3.44</v>
+      </c>
+      <c r="BI184">
+        <v>1.5</v>
+      </c>
+      <c r="BJ184">
+        <v>2.46</v>
+      </c>
+      <c r="BK184">
+        <v>1.83</v>
+      </c>
+      <c r="BL184">
+        <v>1.97</v>
+      </c>
+      <c r="BM184">
+        <v>2.25</v>
+      </c>
+      <c r="BN184">
+        <v>1.6</v>
+      </c>
+      <c r="BO184">
+        <v>2.97</v>
+      </c>
+      <c r="BP184">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="307">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -652,6 +652,9 @@
     <t>['79']</t>
   </si>
   <si>
+    <t>['6', '24', '73', '76', '90+2']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -929,6 +932,9 @@
   </si>
   <si>
     <t>['79', '84']</t>
+  </si>
+  <si>
+    <t>['56', '85', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP184"/>
+  <dimension ref="A1:BP187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1549,7 +1555,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1755,7 +1761,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -2039,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2167,7 +2173,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2248,7 +2254,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ5">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2373,7 +2379,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -3403,7 +3409,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3609,7 +3615,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q12">
         <v>5.5</v>
@@ -3893,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ13">
         <v>0.82</v>
@@ -4227,7 +4233,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q15">
         <v>2.95</v>
@@ -4305,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4433,7 +4439,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4514,7 +4520,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ16">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4639,7 +4645,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4845,7 +4851,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4926,7 +4932,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ18">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR18">
         <v>1.5</v>
@@ -5335,7 +5341,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ20">
         <v>0.82</v>
@@ -5463,7 +5469,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5875,7 +5881,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6081,7 +6087,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6493,7 +6499,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6571,7 +6577,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ26">
         <v>0.82</v>
@@ -6699,7 +6705,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6986,7 +6992,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ28">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR28">
         <v>1.11</v>
@@ -7111,7 +7117,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q29">
         <v>3.6</v>
@@ -7189,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ29">
         <v>0.82</v>
@@ -7317,7 +7323,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7395,7 +7401,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ30">
         <v>1.64</v>
@@ -7810,7 +7816,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ32">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR32">
         <v>1.22</v>
@@ -7935,7 +7941,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -8141,7 +8147,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8347,7 +8353,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8631,7 +8637,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ36">
         <v>0.83</v>
@@ -8965,7 +8971,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q38">
         <v>2.54</v>
@@ -9171,7 +9177,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9664,7 +9670,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR41">
         <v>2.11</v>
@@ -9789,7 +9795,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -10279,7 +10285,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ44">
         <v>1.64</v>
@@ -10691,7 +10697,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10819,7 +10825,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10900,7 +10906,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ47">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR47">
         <v>1.24</v>
@@ -11231,7 +11237,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q49">
         <v>4.5</v>
@@ -11518,7 +11524,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ50">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR50">
         <v>1.33</v>
@@ -11643,7 +11649,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11721,7 +11727,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ51">
         <v>0.82</v>
@@ -11849,7 +11855,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -12261,7 +12267,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12342,7 +12348,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR54">
         <v>1.82</v>
@@ -12467,7 +12473,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -13085,7 +13091,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13166,7 +13172,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ58">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR58">
         <v>1.38</v>
@@ -13291,7 +13297,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13497,7 +13503,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -14115,7 +14121,7 @@
         <v>116</v>
       </c>
       <c r="P63" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14321,7 +14327,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14399,7 +14405,7 @@
         <v>0.6</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ64">
         <v>1.25</v>
@@ -14605,7 +14611,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ65">
         <v>0.82</v>
@@ -14814,7 +14820,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ66">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR66">
         <v>1.51</v>
@@ -14939,7 +14945,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -15020,7 +15026,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ67">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR67">
         <v>1.44</v>
@@ -15145,7 +15151,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15969,7 +15975,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16050,7 +16056,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ72">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR72">
         <v>1.23</v>
@@ -16175,7 +16181,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16253,7 +16259,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ73">
         <v>1.25</v>
@@ -16381,7 +16387,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16587,7 +16593,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16874,7 +16880,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ76">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR76">
         <v>1.37</v>
@@ -16999,7 +17005,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -17283,7 +17289,7 @@
         <v>0.25</v>
       </c>
       <c r="AP78">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ78">
         <v>0.45</v>
@@ -17411,7 +17417,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17617,7 +17623,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q80">
         <v>2.62</v>
@@ -17695,7 +17701,7 @@
         <v>1.2</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ80">
         <v>1</v>
@@ -18029,7 +18035,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18316,7 +18322,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ83">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR83">
         <v>1.53</v>
@@ -18647,7 +18653,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18853,7 +18859,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -18934,7 +18940,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ86">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR86">
         <v>1.09</v>
@@ -19059,7 +19065,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19137,7 +19143,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ87">
         <v>1.18</v>
@@ -19265,7 +19271,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19755,7 +19761,7 @@
         <v>2.4</v>
       </c>
       <c r="AP90">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ90">
         <v>1.92</v>
@@ -19883,7 +19889,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20089,7 +20095,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20376,7 +20382,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ93">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR93">
         <v>1.43</v>
@@ -20501,7 +20507,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20707,7 +20713,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -21119,7 +21125,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -21197,7 +21203,7 @@
         <v>2.5</v>
       </c>
       <c r="AP97">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ97">
         <v>1.92</v>
@@ -21325,7 +21331,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21531,7 +21537,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21737,7 +21743,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21943,7 +21949,7 @@
         <v>117</v>
       </c>
       <c r="P101" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -22024,7 +22030,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ101">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR101">
         <v>1.41</v>
@@ -22230,7 +22236,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ102">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR102">
         <v>1.54</v>
@@ -22433,7 +22439,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ103">
         <v>1</v>
@@ -22642,7 +22648,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ104">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR104">
         <v>1.2</v>
@@ -22767,7 +22773,7 @@
         <v>116</v>
       </c>
       <c r="P105" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q105">
         <v>2.75</v>
@@ -22845,7 +22851,7 @@
         <v>1.17</v>
       </c>
       <c r="AP105">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ105">
         <v>1.25</v>
@@ -22973,7 +22979,7 @@
         <v>98</v>
       </c>
       <c r="P106" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23179,7 +23185,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23672,7 +23678,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ109">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR109">
         <v>1.43</v>
@@ -23797,7 +23803,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -23875,7 +23881,7 @@
         <v>0.67</v>
       </c>
       <c r="AP110">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ110">
         <v>0.82</v>
@@ -24209,7 +24215,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q112">
         <v>2.95</v>
@@ -24415,7 +24421,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q113">
         <v>2.63</v>
@@ -24621,7 +24627,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -25033,7 +25039,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -25239,7 +25245,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25651,7 +25657,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q119">
         <v>4.2</v>
@@ -25729,10 +25735,10 @@
         <v>1.71</v>
       </c>
       <c r="AP119">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ119">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR119">
         <v>1.6</v>
@@ -25857,7 +25863,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q120">
         <v>1.75</v>
@@ -25935,7 +25941,7 @@
         <v>2</v>
       </c>
       <c r="AP120">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ120">
         <v>1.64</v>
@@ -26063,7 +26069,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q121">
         <v>2.63</v>
@@ -26144,7 +26150,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ121">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR121">
         <v>1.59</v>
@@ -26347,7 +26353,7 @@
         <v>1.83</v>
       </c>
       <c r="AP122">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ122">
         <v>1.18</v>
@@ -26556,7 +26562,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ123">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR123">
         <v>1.15</v>
@@ -26681,7 +26687,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26887,7 +26893,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27093,7 +27099,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27505,7 +27511,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -28123,7 +28129,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28535,7 +28541,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28616,7 +28622,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ133">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR133">
         <v>1.53</v>
@@ -28947,7 +28953,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29153,7 +29159,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q136">
         <v>2.38</v>
@@ -29231,7 +29237,7 @@
         <v>0.5</v>
       </c>
       <c r="AP136">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ136">
         <v>0.45</v>
@@ -29440,7 +29446,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ137">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR137">
         <v>1.4</v>
@@ -29565,7 +29571,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q138">
         <v>2.7</v>
@@ -29849,7 +29855,7 @@
         <v>1.33</v>
       </c>
       <c r="AP139">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ139">
         <v>1.25</v>
@@ -29977,7 +29983,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q140">
         <v>3.52</v>
@@ -30595,7 +30601,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q143">
         <v>3.4</v>
@@ -31007,7 +31013,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q145">
         <v>2.65</v>
@@ -31213,7 +31219,7 @@
         <v>87</v>
       </c>
       <c r="P146" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31294,7 +31300,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ146">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR146">
         <v>1.29</v>
@@ -31419,7 +31425,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q147">
         <v>2.2</v>
@@ -31497,7 +31503,7 @@
         <v>0.89</v>
       </c>
       <c r="AP147">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ147">
         <v>0.83</v>
@@ -31912,7 +31918,7 @@
         <v>1</v>
       </c>
       <c r="AQ149">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR149">
         <v>1.41</v>
@@ -32037,7 +32043,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32736,7 +32742,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ153">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR153">
         <v>1.32</v>
@@ -32939,7 +32945,7 @@
         <v>1.5</v>
       </c>
       <c r="AP154">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ154">
         <v>1.25</v>
@@ -33273,7 +33279,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q156">
         <v>2.1</v>
@@ -33557,10 +33563,10 @@
         <v>1.89</v>
       </c>
       <c r="AP157">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ157">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR157">
         <v>1.29</v>
@@ -33685,7 +33691,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -34509,7 +34515,7 @@
         <v>87</v>
       </c>
       <c r="P162" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -34715,7 +34721,7 @@
         <v>197</v>
       </c>
       <c r="P163" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q163">
         <v>2.85</v>
@@ -34921,7 +34927,7 @@
         <v>97</v>
       </c>
       <c r="P164" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q164">
         <v>2.82</v>
@@ -35127,7 +35133,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35333,7 +35339,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q166">
         <v>1.8</v>
@@ -35951,7 +35957,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q169">
         <v>2.25</v>
@@ -36029,10 +36035,10 @@
         <v>1.7</v>
       </c>
       <c r="AP169">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ169">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR169">
         <v>1.73</v>
@@ -36238,7 +36244,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ170">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR170">
         <v>1.14</v>
@@ -36441,7 +36447,7 @@
         <v>1</v>
       </c>
       <c r="AP171">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ171">
         <v>1</v>
@@ -36569,7 +36575,7 @@
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q172">
         <v>3.75</v>
@@ -36650,7 +36656,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ172">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR172">
         <v>1.57</v>
@@ -36775,7 +36781,7 @@
         <v>87</v>
       </c>
       <c r="P173" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q173">
         <v>2.2</v>
@@ -36853,7 +36859,7 @@
         <v>0.6</v>
       </c>
       <c r="AP173">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ173">
         <v>0.82</v>
@@ -37187,7 +37193,7 @@
         <v>87</v>
       </c>
       <c r="P175" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q175">
         <v>5.05</v>
@@ -37805,7 +37811,7 @@
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q178">
         <v>2.39</v>
@@ -38835,7 +38841,7 @@
         <v>210</v>
       </c>
       <c r="P183" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q183">
         <v>2.8</v>
@@ -39041,7 +39047,7 @@
         <v>211</v>
       </c>
       <c r="P184" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39198,6 +39204,624 @@
       </c>
       <c r="BP184">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7295150</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45563.375</v>
+      </c>
+      <c r="F185">
+        <v>24</v>
+      </c>
+      <c r="G185" t="s">
+        <v>72</v>
+      </c>
+      <c r="H185" t="s">
+        <v>73</v>
+      </c>
+      <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>2</v>
+      </c>
+      <c r="L185">
+        <v>5</v>
+      </c>
+      <c r="M185">
+        <v>3</v>
+      </c>
+      <c r="N185">
+        <v>8</v>
+      </c>
+      <c r="O185" t="s">
+        <v>212</v>
+      </c>
+      <c r="P185" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q185">
+        <v>1.91</v>
+      </c>
+      <c r="R185">
+        <v>2.4</v>
+      </c>
+      <c r="S185">
+        <v>6</v>
+      </c>
+      <c r="T185">
+        <v>1.3</v>
+      </c>
+      <c r="U185">
+        <v>3.4</v>
+      </c>
+      <c r="V185">
+        <v>2.3</v>
+      </c>
+      <c r="W185">
+        <v>1.57</v>
+      </c>
+      <c r="X185">
+        <v>5</v>
+      </c>
+      <c r="Y185">
+        <v>1.14</v>
+      </c>
+      <c r="Z185">
+        <v>1.43</v>
+      </c>
+      <c r="AA185">
+        <v>4.75</v>
+      </c>
+      <c r="AB185">
+        <v>6.85</v>
+      </c>
+      <c r="AC185">
+        <v>1.01</v>
+      </c>
+      <c r="AD185">
+        <v>13</v>
+      </c>
+      <c r="AE185">
+        <v>1.14</v>
+      </c>
+      <c r="AF185">
+        <v>4.8</v>
+      </c>
+      <c r="AG185">
+        <v>1.63</v>
+      </c>
+      <c r="AH185">
+        <v>2.24</v>
+      </c>
+      <c r="AI185">
+        <v>1.73</v>
+      </c>
+      <c r="AJ185">
+        <v>2.1</v>
+      </c>
+      <c r="AK185">
+        <v>1.13</v>
+      </c>
+      <c r="AL185">
+        <v>1.19</v>
+      </c>
+      <c r="AM185">
+        <v>2.5</v>
+      </c>
+      <c r="AN185">
+        <v>1.82</v>
+      </c>
+      <c r="AO185">
+        <v>1.27</v>
+      </c>
+      <c r="AP185">
+        <v>1.92</v>
+      </c>
+      <c r="AQ185">
+        <v>1.17</v>
+      </c>
+      <c r="AR185">
+        <v>1.79</v>
+      </c>
+      <c r="AS185">
+        <v>1.22</v>
+      </c>
+      <c r="AT185">
+        <v>3.01</v>
+      </c>
+      <c r="AU185">
+        <v>6</v>
+      </c>
+      <c r="AV185">
+        <v>3</v>
+      </c>
+      <c r="AW185">
+        <v>6</v>
+      </c>
+      <c r="AX185">
+        <v>2</v>
+      </c>
+      <c r="AY185">
+        <v>12</v>
+      </c>
+      <c r="AZ185">
+        <v>5</v>
+      </c>
+      <c r="BA185">
+        <v>4</v>
+      </c>
+      <c r="BB185">
+        <v>0</v>
+      </c>
+      <c r="BC185">
+        <v>4</v>
+      </c>
+      <c r="BD185">
+        <v>1.25</v>
+      </c>
+      <c r="BE185">
+        <v>10</v>
+      </c>
+      <c r="BF185">
+        <v>4.5</v>
+      </c>
+      <c r="BG185">
+        <v>1.13</v>
+      </c>
+      <c r="BH185">
+        <v>4.33</v>
+      </c>
+      <c r="BI185">
+        <v>1.28</v>
+      </c>
+      <c r="BJ185">
+        <v>2.97</v>
+      </c>
+      <c r="BK185">
+        <v>1.57</v>
+      </c>
+      <c r="BL185">
+        <v>2.23</v>
+      </c>
+      <c r="BM185">
+        <v>2</v>
+      </c>
+      <c r="BN185">
+        <v>1.73</v>
+      </c>
+      <c r="BO185">
+        <v>2.48</v>
+      </c>
+      <c r="BP185">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7295147</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45563.54166666666</v>
+      </c>
+      <c r="F186">
+        <v>24</v>
+      </c>
+      <c r="G186" t="s">
+        <v>83</v>
+      </c>
+      <c r="H186" t="s">
+        <v>84</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186" t="s">
+        <v>87</v>
+      </c>
+      <c r="P186" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q186">
+        <v>4.33</v>
+      </c>
+      <c r="R186">
+        <v>2.3</v>
+      </c>
+      <c r="S186">
+        <v>2.3</v>
+      </c>
+      <c r="T186">
+        <v>1.3</v>
+      </c>
+      <c r="U186">
+        <v>3.2</v>
+      </c>
+      <c r="V186">
+        <v>2.38</v>
+      </c>
+      <c r="W186">
+        <v>1.53</v>
+      </c>
+      <c r="X186">
+        <v>5.6</v>
+      </c>
+      <c r="Y186">
+        <v>1.12</v>
+      </c>
+      <c r="Z186">
+        <v>3.7</v>
+      </c>
+      <c r="AA186">
+        <v>3.75</v>
+      </c>
+      <c r="AB186">
+        <v>1.88</v>
+      </c>
+      <c r="AC186">
+        <v>1.01</v>
+      </c>
+      <c r="AD186">
+        <v>11</v>
+      </c>
+      <c r="AE186">
+        <v>1.14</v>
+      </c>
+      <c r="AF186">
+        <v>4.8</v>
+      </c>
+      <c r="AG186">
+        <v>1.64</v>
+      </c>
+      <c r="AH186">
+        <v>2.12</v>
+      </c>
+      <c r="AI186">
+        <v>1.6</v>
+      </c>
+      <c r="AJ186">
+        <v>2.38</v>
+      </c>
+      <c r="AK186">
+        <v>1.9</v>
+      </c>
+      <c r="AL186">
+        <v>1.27</v>
+      </c>
+      <c r="AM186">
+        <v>1.24</v>
+      </c>
+      <c r="AN186">
+        <v>1.18</v>
+      </c>
+      <c r="AO186">
+        <v>1.82</v>
+      </c>
+      <c r="AP186">
+        <v>1.08</v>
+      </c>
+      <c r="AQ186">
+        <v>1.92</v>
+      </c>
+      <c r="AR186">
+        <v>1.37</v>
+      </c>
+      <c r="AS186">
+        <v>1.55</v>
+      </c>
+      <c r="AT186">
+        <v>2.92</v>
+      </c>
+      <c r="AU186">
+        <v>-1</v>
+      </c>
+      <c r="AV186">
+        <v>-1</v>
+      </c>
+      <c r="AW186">
+        <v>-1</v>
+      </c>
+      <c r="AX186">
+        <v>-1</v>
+      </c>
+      <c r="AY186">
+        <v>-1</v>
+      </c>
+      <c r="AZ186">
+        <v>-1</v>
+      </c>
+      <c r="BA186">
+        <v>-1</v>
+      </c>
+      <c r="BB186">
+        <v>-1</v>
+      </c>
+      <c r="BC186">
+        <v>-1</v>
+      </c>
+      <c r="BD186">
+        <v>2.88</v>
+      </c>
+      <c r="BE186">
+        <v>9</v>
+      </c>
+      <c r="BF186">
+        <v>1.53</v>
+      </c>
+      <c r="BG186">
+        <v>1.13</v>
+      </c>
+      <c r="BH186">
+        <v>5</v>
+      </c>
+      <c r="BI186">
+        <v>1.25</v>
+      </c>
+      <c r="BJ186">
+        <v>3.6</v>
+      </c>
+      <c r="BK186">
+        <v>1.34</v>
+      </c>
+      <c r="BL186">
+        <v>3</v>
+      </c>
+      <c r="BM186">
+        <v>1.61</v>
+      </c>
+      <c r="BN186">
+        <v>2.17</v>
+      </c>
+      <c r="BO186">
+        <v>2.05</v>
+      </c>
+      <c r="BP186">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7295149</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45563.625</v>
+      </c>
+      <c r="F187">
+        <v>24</v>
+      </c>
+      <c r="G187" t="s">
+        <v>81</v>
+      </c>
+      <c r="H187" t="s">
+        <v>71</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187" t="s">
+        <v>87</v>
+      </c>
+      <c r="P187" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q187">
+        <v>2.88</v>
+      </c>
+      <c r="R187">
+        <v>2.25</v>
+      </c>
+      <c r="S187">
+        <v>3.5</v>
+      </c>
+      <c r="T187">
+        <v>1.33</v>
+      </c>
+      <c r="U187">
+        <v>3.25</v>
+      </c>
+      <c r="V187">
+        <v>2.63</v>
+      </c>
+      <c r="W187">
+        <v>1.44</v>
+      </c>
+      <c r="X187">
+        <v>6.5</v>
+      </c>
+      <c r="Y187">
+        <v>1.11</v>
+      </c>
+      <c r="Z187">
+        <v>2.25</v>
+      </c>
+      <c r="AA187">
+        <v>3.45</v>
+      </c>
+      <c r="AB187">
+        <v>2.8</v>
+      </c>
+      <c r="AC187">
+        <v>1.02</v>
+      </c>
+      <c r="AD187">
+        <v>10</v>
+      </c>
+      <c r="AE187">
+        <v>1.18</v>
+      </c>
+      <c r="AF187">
+        <v>3.78</v>
+      </c>
+      <c r="AG187">
+        <v>1.71</v>
+      </c>
+      <c r="AH187">
+        <v>2.15</v>
+      </c>
+      <c r="AI187">
+        <v>1.62</v>
+      </c>
+      <c r="AJ187">
+        <v>2.2</v>
+      </c>
+      <c r="AK187">
+        <v>1.41</v>
+      </c>
+      <c r="AL187">
+        <v>1.28</v>
+      </c>
+      <c r="AM187">
+        <v>1.63</v>
+      </c>
+      <c r="AN187">
+        <v>1</v>
+      </c>
+      <c r="AO187">
+        <v>1.55</v>
+      </c>
+      <c r="AP187">
+        <v>0.92</v>
+      </c>
+      <c r="AQ187">
+        <v>1.67</v>
+      </c>
+      <c r="AR187">
+        <v>1.57</v>
+      </c>
+      <c r="AS187">
+        <v>1.17</v>
+      </c>
+      <c r="AT187">
+        <v>2.74</v>
+      </c>
+      <c r="AU187">
+        <v>-1</v>
+      </c>
+      <c r="AV187">
+        <v>-1</v>
+      </c>
+      <c r="AW187">
+        <v>-1</v>
+      </c>
+      <c r="AX187">
+        <v>-1</v>
+      </c>
+      <c r="AY187">
+        <v>-1</v>
+      </c>
+      <c r="AZ187">
+        <v>-1</v>
+      </c>
+      <c r="BA187">
+        <v>-1</v>
+      </c>
+      <c r="BB187">
+        <v>-1</v>
+      </c>
+      <c r="BC187">
+        <v>-1</v>
+      </c>
+      <c r="BD187">
+        <v>1.73</v>
+      </c>
+      <c r="BE187">
+        <v>8.5</v>
+      </c>
+      <c r="BF187">
+        <v>2.38</v>
+      </c>
+      <c r="BG187">
+        <v>1.1</v>
+      </c>
+      <c r="BH187">
+        <v>4.75</v>
+      </c>
+      <c r="BI187">
+        <v>1.24</v>
+      </c>
+      <c r="BJ187">
+        <v>3.22</v>
+      </c>
+      <c r="BK187">
+        <v>1.48</v>
+      </c>
+      <c r="BL187">
+        <v>2.4</v>
+      </c>
+      <c r="BM187">
+        <v>2</v>
+      </c>
+      <c r="BN187">
+        <v>1.8</v>
+      </c>
+      <c r="BO187">
+        <v>2.3</v>
+      </c>
+      <c r="BP187">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="309">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -655,6 +655,9 @@
     <t>['6', '24', '73', '76', '90+2']</t>
   </si>
   <si>
+    <t>['25', '29', '45', '63']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -935,6 +938,9 @@
   </si>
   <si>
     <t>['56', '85', '90+4']</t>
+  </si>
+  <si>
+    <t>['45+1', '46', '59', '66']</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP187"/>
+  <dimension ref="A1:BP191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1555,7 +1561,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1761,7 +1767,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -2173,7 +2179,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2379,7 +2385,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2457,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ6">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3078,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3281,10 +3287,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ10">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3409,7 +3415,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3615,7 +3621,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q12">
         <v>5.5</v>
@@ -4105,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ14">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4233,7 +4239,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q15">
         <v>2.95</v>
@@ -4439,7 +4445,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4645,7 +4651,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4851,7 +4857,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5344,7 +5350,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ20">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR20">
         <v>2.32</v>
@@ -5469,7 +5475,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5756,7 +5762,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ22">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR22">
         <v>1.3</v>
@@ -5881,7 +5887,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5959,7 +5965,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ23">
         <v>1.92</v>
@@ -6087,7 +6093,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6374,7 +6380,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ25">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR25">
         <v>2.34</v>
@@ -6499,7 +6505,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6705,7 +6711,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -7117,7 +7123,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q29">
         <v>3.6</v>
@@ -7198,7 +7204,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ29">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>0.59</v>
@@ -7323,7 +7329,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7941,7 +7947,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -8019,7 +8025,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -8147,7 +8153,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8225,7 +8231,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ34">
         <v>1.75</v>
@@ -8353,7 +8359,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8843,10 +8849,10 @@
         <v>0.33</v>
       </c>
       <c r="AP37">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ37">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR37">
         <v>1.56</v>
@@ -8971,7 +8977,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q38">
         <v>2.54</v>
@@ -9049,10 +9055,10 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ38">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR38">
         <v>1.19</v>
@@ -9177,7 +9183,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9795,7 +9801,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9876,7 +9882,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ42">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR42">
         <v>1.44</v>
@@ -10082,7 +10088,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ43">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>1.98</v>
@@ -10494,7 +10500,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ45">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR45">
         <v>1.51</v>
@@ -10825,7 +10831,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -11109,7 +11115,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11237,7 +11243,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q49">
         <v>4.5</v>
@@ -11315,7 +11321,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ49">
         <v>1.75</v>
@@ -11649,7 +11655,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11730,7 +11736,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ51">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.86</v>
@@ -11855,7 +11861,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -12139,10 +12145,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ53">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR53">
         <v>1.7</v>
@@ -12267,7 +12273,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12473,7 +12479,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12757,7 +12763,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ56">
         <v>1.25</v>
@@ -13091,7 +13097,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13169,7 +13175,7 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ58">
         <v>1.92</v>
@@ -13297,7 +13303,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13503,7 +13509,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -14121,7 +14127,7 @@
         <v>116</v>
       </c>
       <c r="P63" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14327,7 +14333,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14408,7 +14414,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ64">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR64">
         <v>1.5</v>
@@ -14614,7 +14620,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ65">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -14817,7 +14823,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ66">
         <v>1.17</v>
@@ -14945,7 +14951,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -15151,7 +15157,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15229,10 +15235,10 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ68">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR68">
         <v>1.55</v>
@@ -15435,7 +15441,7 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ69">
         <v>0.83</v>
@@ -15975,7 +15981,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16053,7 +16059,7 @@
         <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ72">
         <v>1.67</v>
@@ -16181,7 +16187,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16387,7 +16393,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16468,7 +16474,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ74">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR74">
         <v>1.59</v>
@@ -16593,7 +16599,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16671,7 +16677,7 @@
         <v>2.5</v>
       </c>
       <c r="AP75">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ75">
         <v>1.64</v>
@@ -17005,7 +17011,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -17086,7 +17092,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ77">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR77">
         <v>1.14</v>
@@ -17417,7 +17423,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17623,7 +17629,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q80">
         <v>2.62</v>
@@ -17910,7 +17916,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ81">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR81">
         <v>1.46</v>
@@ -18035,7 +18041,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18528,7 +18534,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ84">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR84">
         <v>1.93</v>
@@ -18653,7 +18659,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18731,7 +18737,7 @@
         <v>0.2</v>
       </c>
       <c r="AP85">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ85">
         <v>0.45</v>
@@ -18859,7 +18865,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -19065,7 +19071,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19146,7 +19152,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ87">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR87">
         <v>1.72</v>
@@ -19271,7 +19277,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19555,7 +19561,7 @@
         <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ89">
         <v>0.82</v>
@@ -19889,7 +19895,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20095,7 +20101,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20507,7 +20513,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20585,10 +20591,10 @@
         <v>0.86</v>
       </c>
       <c r="AP94">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ94">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR94">
         <v>1.46</v>
@@ -20713,7 +20719,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20791,7 +20797,7 @@
         <v>2.2</v>
       </c>
       <c r="AP95">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ95">
         <v>1.64</v>
@@ -21125,7 +21131,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -21331,7 +21337,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21412,7 +21418,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ98">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR98">
         <v>1.11</v>
@@ -21537,7 +21543,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21743,7 +21749,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21824,7 +21830,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ100">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR100">
         <v>1.55</v>
@@ -21949,7 +21955,7 @@
         <v>117</v>
       </c>
       <c r="P101" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -22027,7 +22033,7 @@
         <v>0.25</v>
       </c>
       <c r="AP101">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ101">
         <v>1.17</v>
@@ -22233,7 +22239,7 @@
         <v>2</v>
       </c>
       <c r="AP102">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ102">
         <v>1.92</v>
@@ -22773,7 +22779,7 @@
         <v>116</v>
       </c>
       <c r="P105" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q105">
         <v>2.75</v>
@@ -22979,7 +22985,7 @@
         <v>98</v>
       </c>
       <c r="P106" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23060,7 +23066,7 @@
         <v>1</v>
       </c>
       <c r="AQ106">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -23185,7 +23191,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23469,7 +23475,7 @@
         <v>0.43</v>
       </c>
       <c r="AP108">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ108">
         <v>0.45</v>
@@ -23803,7 +23809,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -23884,7 +23890,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ110">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR110">
         <v>1.6</v>
@@ -24215,7 +24221,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q112">
         <v>2.95</v>
@@ -24296,7 +24302,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ112">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR112">
         <v>1.21</v>
@@ -24421,7 +24427,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q113">
         <v>2.63</v>
@@ -24499,7 +24505,7 @@
         <v>1.43</v>
       </c>
       <c r="AP113">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ113">
         <v>1</v>
@@ -24627,7 +24633,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -24705,7 +24711,7 @@
         <v>2.57</v>
       </c>
       <c r="AP114">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ114">
         <v>1.92</v>
@@ -24914,7 +24920,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ115">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR115">
         <v>1.52</v>
@@ -25039,7 +25045,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -25245,7 +25251,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25529,7 +25535,7 @@
         <v>1.14</v>
       </c>
       <c r="AP118">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ118">
         <v>0.82</v>
@@ -25657,7 +25663,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q119">
         <v>4.2</v>
@@ -25863,7 +25869,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q120">
         <v>1.75</v>
@@ -26069,7 +26075,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q121">
         <v>2.63</v>
@@ -26147,7 +26153,7 @@
         <v>0.83</v>
       </c>
       <c r="AP121">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ121">
         <v>1.17</v>
@@ -26356,7 +26362,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ122">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR122">
         <v>1.3</v>
@@ -26687,7 +26693,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26893,7 +26899,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -26974,7 +26980,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ125">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR125">
         <v>1.26</v>
@@ -27099,7 +27105,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27177,7 +27183,7 @@
         <v>1.43</v>
       </c>
       <c r="AP126">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ126">
         <v>1.25</v>
@@ -27511,7 +27517,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27589,7 +27595,7 @@
         <v>1.33</v>
       </c>
       <c r="AP128">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ128">
         <v>0.83</v>
@@ -27798,7 +27804,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ129">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR129">
         <v>1.47</v>
@@ -28129,7 +28135,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28207,7 +28213,7 @@
         <v>1.14</v>
       </c>
       <c r="AP131">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ131">
         <v>0.83</v>
@@ -28541,7 +28547,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28619,7 +28625,7 @@
         <v>1.63</v>
       </c>
       <c r="AP133">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ133">
         <v>1.92</v>
@@ -28953,7 +28959,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29034,7 +29040,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ135">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR135">
         <v>1.14</v>
@@ -29159,7 +29165,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q136">
         <v>2.38</v>
@@ -29571,7 +29577,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q138">
         <v>2.7</v>
@@ -29649,7 +29655,7 @@
         <v>1.11</v>
       </c>
       <c r="AP138">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ138">
         <v>1</v>
@@ -29858,7 +29864,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ139">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR139">
         <v>1.24</v>
@@ -29983,7 +29989,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q140">
         <v>3.52</v>
@@ -30270,7 +30276,7 @@
         <v>1</v>
       </c>
       <c r="AQ141">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR141">
         <v>1.48</v>
@@ -30601,7 +30607,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q143">
         <v>3.4</v>
@@ -30679,7 +30685,7 @@
         <v>1.75</v>
       </c>
       <c r="AP143">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ143">
         <v>1.75</v>
@@ -31013,7 +31019,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q145">
         <v>2.65</v>
@@ -31091,7 +31097,7 @@
         <v>1.5</v>
       </c>
       <c r="AP145">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ145">
         <v>1</v>
@@ -31219,7 +31225,7 @@
         <v>87</v>
       </c>
       <c r="P146" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31425,7 +31431,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q147">
         <v>2.2</v>
@@ -32043,7 +32049,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32124,7 +32130,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ150">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR150">
         <v>1.52</v>
@@ -32533,7 +32539,7 @@
         <v>1.33</v>
       </c>
       <c r="AP152">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ152">
         <v>1.25</v>
@@ -32739,7 +32745,7 @@
         <v>1.22</v>
       </c>
       <c r="AP153">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ153">
         <v>1.17</v>
@@ -32948,7 +32954,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ154">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR154">
         <v>1.72</v>
@@ -33151,10 +33157,10 @@
         <v>0.67</v>
       </c>
       <c r="AP155">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ155">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR155">
         <v>1.53</v>
@@ -33279,7 +33285,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q156">
         <v>2.1</v>
@@ -33691,7 +33697,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -33772,7 +33778,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ158">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR158">
         <v>1.18</v>
@@ -34515,7 +34521,7 @@
         <v>87</v>
       </c>
       <c r="P162" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -34593,7 +34599,7 @@
         <v>2</v>
       </c>
       <c r="AP162">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ162">
         <v>1.92</v>
@@ -34721,7 +34727,7 @@
         <v>197</v>
       </c>
       <c r="P163" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q163">
         <v>2.85</v>
@@ -34927,7 +34933,7 @@
         <v>97</v>
       </c>
       <c r="P164" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q164">
         <v>2.82</v>
@@ -35133,7 +35139,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35214,7 +35220,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ165">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR165">
         <v>1.5</v>
@@ -35339,7 +35345,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q166">
         <v>1.8</v>
@@ -35623,10 +35629,10 @@
         <v>1.36</v>
       </c>
       <c r="AP167">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ167">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR167">
         <v>1.73</v>
@@ -35957,7 +35963,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q169">
         <v>2.25</v>
@@ -36575,7 +36581,7 @@
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q172">
         <v>3.75</v>
@@ -36653,7 +36659,7 @@
         <v>1.9</v>
       </c>
       <c r="AP172">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ172">
         <v>1.92</v>
@@ -36781,7 +36787,7 @@
         <v>87</v>
       </c>
       <c r="P173" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q173">
         <v>2.2</v>
@@ -36862,7 +36868,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ173">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR173">
         <v>1.57</v>
@@ -37065,10 +37071,10 @@
         <v>0.8</v>
       </c>
       <c r="AP174">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ174">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR174">
         <v>1.34</v>
@@ -37193,7 +37199,7 @@
         <v>87</v>
       </c>
       <c r="P175" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q175">
         <v>5.05</v>
@@ -37811,7 +37817,7 @@
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q178">
         <v>2.39</v>
@@ -37889,7 +37895,7 @@
         <v>1.36</v>
       </c>
       <c r="AP178">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ178">
         <v>1.25</v>
@@ -38841,7 +38847,7 @@
         <v>210</v>
       </c>
       <c r="P183" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q183">
         <v>2.8</v>
@@ -38922,7 +38928,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ183">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR183">
         <v>1.29</v>
@@ -39047,7 +39053,7 @@
         <v>211</v>
       </c>
       <c r="P184" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39211,7 +39217,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>7295150</v>
+        <v>7295147</v>
       </c>
       <c r="C185" t="s">
         <v>68</v>
@@ -39220,82 +39226,82 @@
         <v>69</v>
       </c>
       <c r="E185" s="2">
-        <v>45563.375</v>
+        <v>45562.875</v>
       </c>
       <c r="F185">
         <v>24</v>
       </c>
       <c r="G185" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H185" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="I185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L185">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N185">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O185" t="s">
-        <v>212</v>
+        <v>87</v>
       </c>
       <c r="P185" t="s">
-        <v>306</v>
+        <v>143</v>
       </c>
       <c r="Q185">
-        <v>1.91</v>
+        <v>4.33</v>
       </c>
       <c r="R185">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S185">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="T185">
         <v>1.3</v>
       </c>
       <c r="U185">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="V185">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="W185">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X185">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="Y185">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="Z185">
-        <v>1.43</v>
+        <v>3.7</v>
       </c>
       <c r="AA185">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="AB185">
-        <v>6.85</v>
+        <v>1.88</v>
       </c>
       <c r="AC185">
         <v>1.01</v>
       </c>
       <c r="AD185">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE185">
         <v>1.14</v>
@@ -39304,112 +39310,112 @@
         <v>4.8</v>
       </c>
       <c r="AG185">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AH185">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="AI185">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="AJ185">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="AK185">
-        <v>1.13</v>
+        <v>1.9</v>
       </c>
       <c r="AL185">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AM185">
-        <v>2.5</v>
+        <v>1.24</v>
       </c>
       <c r="AN185">
+        <v>1.18</v>
+      </c>
+      <c r="AO185">
         <v>1.82</v>
       </c>
-      <c r="AO185">
-        <v>1.27</v>
-      </c>
       <c r="AP185">
+        <v>1.08</v>
+      </c>
+      <c r="AQ185">
         <v>1.92</v>
       </c>
-      <c r="AQ185">
-        <v>1.17</v>
-      </c>
       <c r="AR185">
-        <v>1.79</v>
+        <v>1.37</v>
       </c>
       <c r="AS185">
-        <v>1.22</v>
+        <v>1.55</v>
       </c>
       <c r="AT185">
-        <v>3.01</v>
+        <v>2.92</v>
       </c>
       <c r="AU185">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AV185">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW185">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AX185">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY185">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="AZ185">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BA185">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BB185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BC185">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BD185">
-        <v>1.25</v>
+        <v>2.88</v>
       </c>
       <c r="BE185">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BF185">
-        <v>4.5</v>
+        <v>1.53</v>
       </c>
       <c r="BG185">
         <v>1.13</v>
       </c>
       <c r="BH185">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="BI185">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="BJ185">
-        <v>2.97</v>
+        <v>3.6</v>
       </c>
       <c r="BK185">
-        <v>1.57</v>
+        <v>1.34</v>
       </c>
       <c r="BL185">
-        <v>2.23</v>
+        <v>3</v>
       </c>
       <c r="BM185">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="BN185">
-        <v>1.73</v>
+        <v>2.17</v>
       </c>
       <c r="BO185">
-        <v>2.48</v>
+        <v>2.05</v>
       </c>
       <c r="BP185">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="186" spans="1:68">
@@ -39417,7 +39423,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>7295147</v>
+        <v>7295149</v>
       </c>
       <c r="C186" t="s">
         <v>68</v>
@@ -39426,25 +39432,25 @@
         <v>69</v>
       </c>
       <c r="E186" s="2">
-        <v>45563.54166666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F186">
         <v>24</v>
       </c>
       <c r="G186" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H186" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I186">
         <v>0</v>
       </c>
       <c r="J186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L186">
         <v>0</v>
@@ -39459,97 +39465,97 @@
         <v>87</v>
       </c>
       <c r="P186" t="s">
-        <v>143</v>
+        <v>263</v>
       </c>
       <c r="Q186">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="R186">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S186">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="T186">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U186">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="V186">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="W186">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="X186">
-        <v>5.6</v>
+        <v>6.5</v>
       </c>
       <c r="Y186">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="Z186">
-        <v>3.7</v>
+        <v>2.25</v>
       </c>
       <c r="AA186">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="AB186">
-        <v>1.88</v>
+        <v>2.8</v>
       </c>
       <c r="AC186">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD186">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE186">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AF186">
-        <v>4.8</v>
+        <v>3.78</v>
       </c>
       <c r="AG186">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="AH186">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AI186">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AJ186">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AK186">
-        <v>1.9</v>
+        <v>1.41</v>
       </c>
       <c r="AL186">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AM186">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="AN186">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AO186">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AP186">
-        <v>1.08</v>
+        <v>0.92</v>
       </c>
       <c r="AQ186">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="AR186">
-        <v>1.37</v>
+        <v>1.57</v>
       </c>
       <c r="AS186">
-        <v>1.55</v>
+        <v>1.17</v>
       </c>
       <c r="AT186">
-        <v>2.92</v>
+        <v>2.74</v>
       </c>
       <c r="AU186">
         <v>-1</v>
@@ -39579,43 +39585,43 @@
         <v>-1</v>
       </c>
       <c r="BD186">
-        <v>2.88</v>
+        <v>1.73</v>
       </c>
       <c r="BE186">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF186">
-        <v>1.53</v>
+        <v>2.38</v>
       </c>
       <c r="BG186">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="BH186">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="BI186">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="BJ186">
-        <v>3.6</v>
+        <v>3.22</v>
       </c>
       <c r="BK186">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
       <c r="BL186">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="BM186">
-        <v>1.61</v>
+        <v>2</v>
       </c>
       <c r="BN186">
-        <v>2.17</v>
+        <v>1.8</v>
       </c>
       <c r="BO186">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="BP186">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="187" spans="1:68">
@@ -39623,7 +39629,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>7295149</v>
+        <v>7295150</v>
       </c>
       <c r="C187" t="s">
         <v>68</v>
@@ -39632,196 +39638,1020 @@
         <v>69</v>
       </c>
       <c r="E187" s="2">
-        <v>45563.625</v>
+        <v>45563.375</v>
       </c>
       <c r="F187">
         <v>24</v>
       </c>
       <c r="G187" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H187" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J187">
         <v>0</v>
       </c>
       <c r="K187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L187">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N187">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O187" t="s">
+        <v>212</v>
+      </c>
+      <c r="P187" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q187">
+        <v>1.91</v>
+      </c>
+      <c r="R187">
+        <v>2.4</v>
+      </c>
+      <c r="S187">
+        <v>6</v>
+      </c>
+      <c r="T187">
+        <v>1.3</v>
+      </c>
+      <c r="U187">
+        <v>3.4</v>
+      </c>
+      <c r="V187">
+        <v>2.3</v>
+      </c>
+      <c r="W187">
+        <v>1.57</v>
+      </c>
+      <c r="X187">
+        <v>5</v>
+      </c>
+      <c r="Y187">
+        <v>1.14</v>
+      </c>
+      <c r="Z187">
+        <v>1.43</v>
+      </c>
+      <c r="AA187">
+        <v>4.75</v>
+      </c>
+      <c r="AB187">
+        <v>6.85</v>
+      </c>
+      <c r="AC187">
+        <v>1.01</v>
+      </c>
+      <c r="AD187">
+        <v>13</v>
+      </c>
+      <c r="AE187">
+        <v>1.14</v>
+      </c>
+      <c r="AF187">
+        <v>4.8</v>
+      </c>
+      <c r="AG187">
+        <v>1.63</v>
+      </c>
+      <c r="AH187">
+        <v>2.24</v>
+      </c>
+      <c r="AI187">
+        <v>1.73</v>
+      </c>
+      <c r="AJ187">
+        <v>2.1</v>
+      </c>
+      <c r="AK187">
+        <v>1.13</v>
+      </c>
+      <c r="AL187">
+        <v>1.19</v>
+      </c>
+      <c r="AM187">
+        <v>2.5</v>
+      </c>
+      <c r="AN187">
+        <v>1.82</v>
+      </c>
+      <c r="AO187">
+        <v>1.27</v>
+      </c>
+      <c r="AP187">
+        <v>1.92</v>
+      </c>
+      <c r="AQ187">
+        <v>1.17</v>
+      </c>
+      <c r="AR187">
+        <v>1.79</v>
+      </c>
+      <c r="AS187">
+        <v>1.22</v>
+      </c>
+      <c r="AT187">
+        <v>3.01</v>
+      </c>
+      <c r="AU187">
+        <v>9</v>
+      </c>
+      <c r="AV187">
+        <v>6</v>
+      </c>
+      <c r="AW187">
+        <v>8</v>
+      </c>
+      <c r="AX187">
+        <v>3</v>
+      </c>
+      <c r="AY187">
+        <v>17</v>
+      </c>
+      <c r="AZ187">
+        <v>9</v>
+      </c>
+      <c r="BA187">
+        <v>4</v>
+      </c>
+      <c r="BB187">
+        <v>0</v>
+      </c>
+      <c r="BC187">
+        <v>4</v>
+      </c>
+      <c r="BD187">
+        <v>1.25</v>
+      </c>
+      <c r="BE187">
+        <v>10</v>
+      </c>
+      <c r="BF187">
+        <v>4.5</v>
+      </c>
+      <c r="BG187">
+        <v>1.13</v>
+      </c>
+      <c r="BH187">
+        <v>4.33</v>
+      </c>
+      <c r="BI187">
+        <v>1.28</v>
+      </c>
+      <c r="BJ187">
+        <v>2.97</v>
+      </c>
+      <c r="BK187">
+        <v>1.57</v>
+      </c>
+      <c r="BL187">
+        <v>2.23</v>
+      </c>
+      <c r="BM187">
+        <v>2</v>
+      </c>
+      <c r="BN187">
+        <v>1.73</v>
+      </c>
+      <c r="BO187">
+        <v>2.48</v>
+      </c>
+      <c r="BP187">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7295151</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45564.39583333334</v>
+      </c>
+      <c r="F188">
+        <v>24</v>
+      </c>
+      <c r="G188" t="s">
+        <v>82</v>
+      </c>
+      <c r="H188" t="s">
+        <v>80</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188">
+        <v>2</v>
+      </c>
+      <c r="O188" t="s">
+        <v>143</v>
+      </c>
+      <c r="P188" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q188">
+        <v>2.25</v>
+      </c>
+      <c r="R188">
+        <v>2.38</v>
+      </c>
+      <c r="S188">
+        <v>3.8</v>
+      </c>
+      <c r="T188">
+        <v>1.3</v>
+      </c>
+      <c r="U188">
+        <v>3.4</v>
+      </c>
+      <c r="V188">
+        <v>2.38</v>
+      </c>
+      <c r="W188">
+        <v>1.53</v>
+      </c>
+      <c r="X188">
+        <v>5</v>
+      </c>
+      <c r="Y188">
+        <v>1.14</v>
+      </c>
+      <c r="Z188">
+        <v>1.8</v>
+      </c>
+      <c r="AA188">
+        <v>3.6</v>
+      </c>
+      <c r="AB188">
+        <v>3.6</v>
+      </c>
+      <c r="AC188">
+        <v>1.03</v>
+      </c>
+      <c r="AD188">
+        <v>12</v>
+      </c>
+      <c r="AE188">
+        <v>1.14</v>
+      </c>
+      <c r="AF188">
+        <v>4.8</v>
+      </c>
+      <c r="AG188">
+        <v>1.55</v>
+      </c>
+      <c r="AH188">
+        <v>2.2</v>
+      </c>
+      <c r="AI188">
+        <v>1.57</v>
+      </c>
+      <c r="AJ188">
+        <v>2.3</v>
+      </c>
+      <c r="AK188">
+        <v>1.22</v>
+      </c>
+      <c r="AL188">
+        <v>1.25</v>
+      </c>
+      <c r="AM188">
+        <v>1.95</v>
+      </c>
+      <c r="AN188">
+        <v>1.36</v>
+      </c>
+      <c r="AO188">
+        <v>1.25</v>
+      </c>
+      <c r="AP188">
+        <v>1.33</v>
+      </c>
+      <c r="AQ188">
+        <v>1.23</v>
+      </c>
+      <c r="AR188">
+        <v>1.64</v>
+      </c>
+      <c r="AS188">
+        <v>1.24</v>
+      </c>
+      <c r="AT188">
+        <v>2.88</v>
+      </c>
+      <c r="AU188">
+        <v>3</v>
+      </c>
+      <c r="AV188">
+        <v>4</v>
+      </c>
+      <c r="AW188">
+        <v>7</v>
+      </c>
+      <c r="AX188">
+        <v>9</v>
+      </c>
+      <c r="AY188">
+        <v>10</v>
+      </c>
+      <c r="AZ188">
+        <v>13</v>
+      </c>
+      <c r="BA188">
+        <v>9</v>
+      </c>
+      <c r="BB188">
+        <v>14</v>
+      </c>
+      <c r="BC188">
+        <v>23</v>
+      </c>
+      <c r="BD188">
+        <v>1.53</v>
+      </c>
+      <c r="BE188">
+        <v>9.5</v>
+      </c>
+      <c r="BF188">
+        <v>2.88</v>
+      </c>
+      <c r="BG188">
+        <v>0</v>
+      </c>
+      <c r="BH188">
+        <v>0</v>
+      </c>
+      <c r="BI188">
+        <v>1.11</v>
+      </c>
+      <c r="BJ188">
+        <v>4.6</v>
+      </c>
+      <c r="BK188">
+        <v>1.25</v>
+      </c>
+      <c r="BL188">
+        <v>3.14</v>
+      </c>
+      <c r="BM188">
+        <v>1.47</v>
+      </c>
+      <c r="BN188">
+        <v>2.42</v>
+      </c>
+      <c r="BO188">
+        <v>1.82</v>
+      </c>
+      <c r="BP188">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7295146</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45564.5</v>
+      </c>
+      <c r="F189">
+        <v>24</v>
+      </c>
+      <c r="G189" t="s">
+        <v>78</v>
+      </c>
+      <c r="H189" t="s">
+        <v>79</v>
+      </c>
+      <c r="I189">
+        <v>3</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>3</v>
+      </c>
+      <c r="L189">
+        <v>4</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>4</v>
+      </c>
+      <c r="O189" t="s">
+        <v>213</v>
+      </c>
+      <c r="P189" t="s">
         <v>87</v>
       </c>
-      <c r="P187" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q187">
+      <c r="Q189">
+        <v>1.44</v>
+      </c>
+      <c r="R189">
+        <v>3.25</v>
+      </c>
+      <c r="S189">
+        <v>8</v>
+      </c>
+      <c r="T189">
+        <v>1.17</v>
+      </c>
+      <c r="U189">
+        <v>4.5</v>
+      </c>
+      <c r="V189">
+        <v>1.8</v>
+      </c>
+      <c r="W189">
+        <v>1.91</v>
+      </c>
+      <c r="X189">
+        <v>3.4</v>
+      </c>
+      <c r="Y189">
+        <v>1.3</v>
+      </c>
+      <c r="Z189">
+        <v>1.14</v>
+      </c>
+      <c r="AA189">
+        <v>7</v>
+      </c>
+      <c r="AB189">
+        <v>11</v>
+      </c>
+      <c r="AC189">
+        <v>1.01</v>
+      </c>
+      <c r="AD189">
+        <v>15.25</v>
+      </c>
+      <c r="AE189">
+        <v>1.02</v>
+      </c>
+      <c r="AF189">
+        <v>7.3</v>
+      </c>
+      <c r="AG189">
+        <v>1.25</v>
+      </c>
+      <c r="AH189">
+        <v>3.5</v>
+      </c>
+      <c r="AI189">
+        <v>1.73</v>
+      </c>
+      <c r="AJ189">
+        <v>2</v>
+      </c>
+      <c r="AK189">
+        <v>1.02</v>
+      </c>
+      <c r="AL189">
+        <v>1.07</v>
+      </c>
+      <c r="AM189">
+        <v>5</v>
+      </c>
+      <c r="AN189">
+        <v>2.45</v>
+      </c>
+      <c r="AO189">
+        <v>0.82</v>
+      </c>
+      <c r="AP189">
+        <v>2.5</v>
+      </c>
+      <c r="AQ189">
+        <v>0.75</v>
+      </c>
+      <c r="AR189">
+        <v>1.75</v>
+      </c>
+      <c r="AS189">
+        <v>0.96</v>
+      </c>
+      <c r="AT189">
+        <v>2.71</v>
+      </c>
+      <c r="AU189">
+        <v>6</v>
+      </c>
+      <c r="AV189">
+        <v>6</v>
+      </c>
+      <c r="AW189">
+        <v>5</v>
+      </c>
+      <c r="AX189">
+        <v>4</v>
+      </c>
+      <c r="AY189">
+        <v>11</v>
+      </c>
+      <c r="AZ189">
+        <v>10</v>
+      </c>
+      <c r="BA189">
+        <v>10</v>
+      </c>
+      <c r="BB189">
+        <v>6</v>
+      </c>
+      <c r="BC189">
+        <v>16</v>
+      </c>
+      <c r="BD189">
+        <v>1.06</v>
+      </c>
+      <c r="BE189">
+        <v>15</v>
+      </c>
+      <c r="BF189">
+        <v>10</v>
+      </c>
+      <c r="BG189">
+        <v>1.07</v>
+      </c>
+      <c r="BH189">
+        <v>6.7</v>
+      </c>
+      <c r="BI189">
+        <v>1.13</v>
+      </c>
+      <c r="BJ189">
+        <v>4.33</v>
+      </c>
+      <c r="BK189">
+        <v>1.27</v>
+      </c>
+      <c r="BL189">
+        <v>3.04</v>
+      </c>
+      <c r="BM189">
+        <v>1.7</v>
+      </c>
+      <c r="BN189">
+        <v>2.05</v>
+      </c>
+      <c r="BO189">
+        <v>1.87</v>
+      </c>
+      <c r="BP189">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7295148</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45564.5</v>
+      </c>
+      <c r="F190">
+        <v>24</v>
+      </c>
+      <c r="G190" t="s">
+        <v>74</v>
+      </c>
+      <c r="H190" t="s">
+        <v>76</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>4</v>
+      </c>
+      <c r="N190">
+        <v>5</v>
+      </c>
+      <c r="O190" t="s">
+        <v>116</v>
+      </c>
+      <c r="P190" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q190">
+        <v>3.2</v>
+      </c>
+      <c r="R190">
+        <v>2.4</v>
+      </c>
+      <c r="S190">
         <v>2.88</v>
       </c>
-      <c r="R187">
+      <c r="T190">
+        <v>1.29</v>
+      </c>
+      <c r="U190">
+        <v>3.5</v>
+      </c>
+      <c r="V190">
         <v>2.25</v>
       </c>
-      <c r="S187">
+      <c r="W190">
+        <v>1.57</v>
+      </c>
+      <c r="X190">
+        <v>5.5</v>
+      </c>
+      <c r="Y190">
+        <v>1.14</v>
+      </c>
+      <c r="Z190">
+        <v>2.5</v>
+      </c>
+      <c r="AA190">
         <v>3.5</v>
       </c>
-      <c r="T187">
+      <c r="AB190">
+        <v>2.3</v>
+      </c>
+      <c r="AC190">
+        <v>1.02</v>
+      </c>
+      <c r="AD190">
+        <v>19</v>
+      </c>
+      <c r="AE190">
+        <v>1.18</v>
+      </c>
+      <c r="AF190">
+        <v>5</v>
+      </c>
+      <c r="AG190">
+        <v>1.5</v>
+      </c>
+      <c r="AH190">
+        <v>2.4</v>
+      </c>
+      <c r="AI190">
+        <v>1.5</v>
+      </c>
+      <c r="AJ190">
+        <v>2.5</v>
+      </c>
+      <c r="AK190">
+        <v>1.6</v>
+      </c>
+      <c r="AL190">
+        <v>1.29</v>
+      </c>
+      <c r="AM190">
+        <v>1.44</v>
+      </c>
+      <c r="AN190">
+        <v>0.82</v>
+      </c>
+      <c r="AO190">
+        <v>1.18</v>
+      </c>
+      <c r="AP190">
+        <v>0.75</v>
+      </c>
+      <c r="AQ190">
         <v>1.33</v>
       </c>
-      <c r="U187">
-        <v>3.25</v>
-      </c>
-      <c r="V187">
-        <v>2.63</v>
-      </c>
-      <c r="W187">
-        <v>1.44</v>
-      </c>
-      <c r="X187">
-        <v>6.5</v>
-      </c>
-      <c r="Y187">
-        <v>1.11</v>
-      </c>
-      <c r="Z187">
+      <c r="AR190">
+        <v>1.31</v>
+      </c>
+      <c r="AS190">
+        <v>1.39</v>
+      </c>
+      <c r="AT190">
+        <v>2.7</v>
+      </c>
+      <c r="AU190">
+        <v>-1</v>
+      </c>
+      <c r="AV190">
+        <v>-1</v>
+      </c>
+      <c r="AW190">
+        <v>-1</v>
+      </c>
+      <c r="AX190">
+        <v>-1</v>
+      </c>
+      <c r="AY190">
+        <v>-1</v>
+      </c>
+      <c r="AZ190">
+        <v>-1</v>
+      </c>
+      <c r="BA190">
+        <v>-1</v>
+      </c>
+      <c r="BB190">
+        <v>-1</v>
+      </c>
+      <c r="BC190">
+        <v>-1</v>
+      </c>
+      <c r="BD190">
+        <v>2.1</v>
+      </c>
+      <c r="BE190">
+        <v>8.5</v>
+      </c>
+      <c r="BF190">
+        <v>1.95</v>
+      </c>
+      <c r="BG190">
+        <v>1.12</v>
+      </c>
+      <c r="BH190">
+        <v>5.4</v>
+      </c>
+      <c r="BI190">
+        <v>1.18</v>
+      </c>
+      <c r="BJ190">
+        <v>3.74</v>
+      </c>
+      <c r="BK190">
+        <v>1.35</v>
+      </c>
+      <c r="BL190">
+        <v>2.65</v>
+      </c>
+      <c r="BM190">
+        <v>1.7</v>
+      </c>
+      <c r="BN190">
+        <v>2.05</v>
+      </c>
+      <c r="BO190">
+        <v>2.09</v>
+      </c>
+      <c r="BP190">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7295153</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45564.59375</v>
+      </c>
+      <c r="F191">
+        <v>24</v>
+      </c>
+      <c r="G191" t="s">
+        <v>85</v>
+      </c>
+      <c r="H191" t="s">
+        <v>75</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+      <c r="N191">
+        <v>1</v>
+      </c>
+      <c r="O191" t="s">
+        <v>87</v>
+      </c>
+      <c r="P191" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q191">
+        <v>3.4</v>
+      </c>
+      <c r="R191">
+        <v>2.4</v>
+      </c>
+      <c r="S191">
+        <v>2.75</v>
+      </c>
+      <c r="T191">
+        <v>1.29</v>
+      </c>
+      <c r="U191">
+        <v>3.5</v>
+      </c>
+      <c r="V191">
         <v>2.25</v>
       </c>
-      <c r="AA187">
-        <v>3.45</v>
-      </c>
-      <c r="AB187">
+      <c r="W191">
+        <v>1.57</v>
+      </c>
+      <c r="X191">
+        <v>5.5</v>
+      </c>
+      <c r="Y191">
+        <v>1.14</v>
+      </c>
+      <c r="Z191">
         <v>2.8</v>
       </c>
-      <c r="AC187">
+      <c r="AA191">
+        <v>3.4</v>
+      </c>
+      <c r="AB191">
+        <v>2.1</v>
+      </c>
+      <c r="AC191">
         <v>1.02</v>
       </c>
-      <c r="AD187">
-        <v>10</v>
-      </c>
-      <c r="AE187">
+      <c r="AD191">
+        <v>17</v>
+      </c>
+      <c r="AE191">
         <v>1.18</v>
       </c>
-      <c r="AF187">
-        <v>3.78</v>
-      </c>
-      <c r="AG187">
-        <v>1.71</v>
-      </c>
-      <c r="AH187">
-        <v>2.15</v>
-      </c>
-      <c r="AI187">
-        <v>1.62</v>
-      </c>
-      <c r="AJ187">
-        <v>2.2</v>
-      </c>
-      <c r="AK187">
-        <v>1.41</v>
-      </c>
-      <c r="AL187">
-        <v>1.28</v>
-      </c>
-      <c r="AM187">
-        <v>1.63</v>
-      </c>
-      <c r="AN187">
-        <v>1</v>
-      </c>
-      <c r="AO187">
+      <c r="AF191">
+        <v>5</v>
+      </c>
+      <c r="AG191">
+        <v>1.53</v>
+      </c>
+      <c r="AH191">
+        <v>2.25</v>
+      </c>
+      <c r="AI191">
+        <v>1.5</v>
+      </c>
+      <c r="AJ191">
+        <v>2.5</v>
+      </c>
+      <c r="AK191">
+        <v>1.7</v>
+      </c>
+      <c r="AL191">
+        <v>1.25</v>
+      </c>
+      <c r="AM191">
+        <v>1.4</v>
+      </c>
+      <c r="AN191">
         <v>1.55</v>
       </c>
-      <c r="AP187">
-        <v>0.92</v>
-      </c>
-      <c r="AQ187">
+      <c r="AO191">
+        <v>0.82</v>
+      </c>
+      <c r="AP191">
+        <v>1.42</v>
+      </c>
+      <c r="AQ191">
+        <v>1</v>
+      </c>
+      <c r="AR191">
+        <v>1.5</v>
+      </c>
+      <c r="AS191">
+        <v>1.38</v>
+      </c>
+      <c r="AT191">
+        <v>2.88</v>
+      </c>
+      <c r="AU191">
+        <v>11</v>
+      </c>
+      <c r="AV191">
+        <v>4</v>
+      </c>
+      <c r="AW191">
+        <v>3</v>
+      </c>
+      <c r="AX191">
+        <v>4</v>
+      </c>
+      <c r="AY191">
+        <v>14</v>
+      </c>
+      <c r="AZ191">
+        <v>8</v>
+      </c>
+      <c r="BA191">
+        <v>7</v>
+      </c>
+      <c r="BB191">
+        <v>1</v>
+      </c>
+      <c r="BC191">
+        <v>8</v>
+      </c>
+      <c r="BD191">
+        <v>2.5</v>
+      </c>
+      <c r="BE191">
+        <v>8</v>
+      </c>
+      <c r="BF191">
         <v>1.67</v>
       </c>
-      <c r="AR187">
-        <v>1.57</v>
-      </c>
-      <c r="AS187">
-        <v>1.17</v>
-      </c>
-      <c r="AT187">
-        <v>2.74</v>
-      </c>
-      <c r="AU187">
-        <v>-1</v>
-      </c>
-      <c r="AV187">
-        <v>-1</v>
-      </c>
-      <c r="AW187">
-        <v>-1</v>
-      </c>
-      <c r="AX187">
-        <v>-1</v>
-      </c>
-      <c r="AY187">
-        <v>-1</v>
-      </c>
-      <c r="AZ187">
-        <v>-1</v>
-      </c>
-      <c r="BA187">
-        <v>-1</v>
-      </c>
-      <c r="BB187">
-        <v>-1</v>
-      </c>
-      <c r="BC187">
-        <v>-1</v>
-      </c>
-      <c r="BD187">
-        <v>1.73</v>
-      </c>
-      <c r="BE187">
-        <v>8.5</v>
-      </c>
-      <c r="BF187">
-        <v>2.38</v>
-      </c>
-      <c r="BG187">
-        <v>1.1</v>
-      </c>
-      <c r="BH187">
-        <v>4.75</v>
-      </c>
-      <c r="BI187">
-        <v>1.24</v>
-      </c>
-      <c r="BJ187">
-        <v>3.22</v>
-      </c>
-      <c r="BK187">
-        <v>1.48</v>
-      </c>
-      <c r="BL187">
-        <v>2.4</v>
-      </c>
-      <c r="BM187">
-        <v>2</v>
-      </c>
-      <c r="BN187">
-        <v>1.8</v>
-      </c>
-      <c r="BO187">
-        <v>2.3</v>
-      </c>
-      <c r="BP187">
-        <v>1.52</v>
+      <c r="BG191">
+        <v>1.18</v>
+      </c>
+      <c r="BH191">
+        <v>3.74</v>
+      </c>
+      <c r="BI191">
+        <v>1.39</v>
+      </c>
+      <c r="BJ191">
+        <v>2.67</v>
+      </c>
+      <c r="BK191">
+        <v>1.98</v>
+      </c>
+      <c r="BL191">
+        <v>1.82</v>
+      </c>
+      <c r="BM191">
+        <v>2.14</v>
+      </c>
+      <c r="BN191">
+        <v>1.6</v>
+      </c>
+      <c r="BO191">
+        <v>2.73</v>
+      </c>
+      <c r="BP191">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="310">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -942,6 +942,9 @@
   <si>
     <t>['45+1', '46', '59', '66']</t>
   </si>
+  <si>
+    <t>['29', '42', '73']</t>
+  </si>
 </sst>
 </file>
 
@@ -1302,7 +1305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP191"/>
+  <dimension ref="A1:BP192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1639,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>0.83</v>
@@ -3496,7 +3499,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ11">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -5553,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>0.45</v>
@@ -7410,7 +7413,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ30">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR30">
         <v>1.39</v>
@@ -9879,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
         <v>1.33</v>
@@ -10294,7 +10297,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ44">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR44">
         <v>1.38</v>
@@ -10909,7 +10912,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
         <v>1.67</v>
@@ -13381,7 +13384,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
         <v>1.75</v>
@@ -13590,7 +13593,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ60">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR60">
         <v>1.09</v>
@@ -16680,7 +16683,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ75">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR75">
         <v>1.51</v>
@@ -17501,7 +17504,7 @@
         <v>2.25</v>
       </c>
       <c r="AP79">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ79">
         <v>1</v>
@@ -20800,7 +20803,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ95">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR95">
         <v>1.17</v>
@@ -21415,7 +21418,7 @@
         <v>0.67</v>
       </c>
       <c r="AP98">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ98">
         <v>0.75</v>
@@ -24299,7 +24302,7 @@
         <v>1.13</v>
       </c>
       <c r="AP112">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ112">
         <v>1.23</v>
@@ -25332,7 +25335,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ117">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR117">
         <v>1.45</v>
@@ -25950,7 +25953,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ120">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR120">
         <v>1.74</v>
@@ -27389,7 +27392,7 @@
         <v>1.25</v>
       </c>
       <c r="AP127">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ127">
         <v>1</v>
@@ -28422,7 +28425,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ132">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR132">
         <v>1.23</v>
@@ -30479,7 +30482,7 @@
         <v>1.38</v>
       </c>
       <c r="AP142">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ142">
         <v>1.25</v>
@@ -33775,7 +33778,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP158">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ158">
         <v>1</v>
@@ -35838,7 +35841,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ168">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR168">
         <v>1.59</v>
@@ -36247,7 +36250,7 @@
         <v>1.4</v>
       </c>
       <c r="AP170">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ170">
         <v>1.17</v>
@@ -37486,7 +37489,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ176">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR176">
         <v>1.89</v>
@@ -39638,7 +39641,7 @@
         <v>69</v>
       </c>
       <c r="E187" s="2">
-        <v>45563.375</v>
+        <v>45562.875</v>
       </c>
       <c r="F187">
         <v>24</v>
@@ -39764,22 +39767,22 @@
         <v>3.01</v>
       </c>
       <c r="AU187">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV187">
+        <v>3</v>
+      </c>
+      <c r="AW187">
         <v>6</v>
       </c>
-      <c r="AW187">
-        <v>8</v>
-      </c>
       <c r="AX187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY187">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ187">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BA187">
         <v>4</v>
@@ -39835,7 +39838,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>7295151</v>
+        <v>7295146</v>
       </c>
       <c r="C188" t="s">
         <v>68</v>
@@ -39844,196 +39847,196 @@
         <v>69</v>
       </c>
       <c r="E188" s="2">
-        <v>45564.39583333334</v>
+        <v>45563.875</v>
       </c>
       <c r="F188">
         <v>24</v>
       </c>
       <c r="G188" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H188" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J188">
         <v>0</v>
       </c>
       <c r="K188">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L188">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N188">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O188" t="s">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="P188" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Q188">
-        <v>2.25</v>
+        <v>1.44</v>
       </c>
       <c r="R188">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="S188">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="T188">
+        <v>1.17</v>
+      </c>
+      <c r="U188">
+        <v>4.5</v>
+      </c>
+      <c r="V188">
+        <v>1.8</v>
+      </c>
+      <c r="W188">
+        <v>1.91</v>
+      </c>
+      <c r="X188">
+        <v>3.4</v>
+      </c>
+      <c r="Y188">
         <v>1.3</v>
       </c>
-      <c r="U188">
-        <v>3.4</v>
-      </c>
-      <c r="V188">
-        <v>2.38</v>
-      </c>
-      <c r="W188">
-        <v>1.53</v>
-      </c>
-      <c r="X188">
+      <c r="Z188">
+        <v>1.14</v>
+      </c>
+      <c r="AA188">
+        <v>7</v>
+      </c>
+      <c r="AB188">
+        <v>11</v>
+      </c>
+      <c r="AC188">
+        <v>1.01</v>
+      </c>
+      <c r="AD188">
+        <v>15.25</v>
+      </c>
+      <c r="AE188">
+        <v>1.02</v>
+      </c>
+      <c r="AF188">
+        <v>7.3</v>
+      </c>
+      <c r="AG188">
+        <v>1.25</v>
+      </c>
+      <c r="AH188">
+        <v>3.5</v>
+      </c>
+      <c r="AI188">
+        <v>1.73</v>
+      </c>
+      <c r="AJ188">
+        <v>2</v>
+      </c>
+      <c r="AK188">
+        <v>1.02</v>
+      </c>
+      <c r="AL188">
+        <v>1.07</v>
+      </c>
+      <c r="AM188">
         <v>5</v>
       </c>
-      <c r="Y188">
-        <v>1.14</v>
-      </c>
-      <c r="Z188">
-        <v>1.8</v>
-      </c>
-      <c r="AA188">
-        <v>3.6</v>
-      </c>
-      <c r="AB188">
-        <v>3.6</v>
-      </c>
-      <c r="AC188">
-        <v>1.03</v>
-      </c>
-      <c r="AD188">
-        <v>12</v>
-      </c>
-      <c r="AE188">
-        <v>1.14</v>
-      </c>
-      <c r="AF188">
-        <v>4.8</v>
-      </c>
-      <c r="AG188">
-        <v>1.55</v>
-      </c>
-      <c r="AH188">
-        <v>2.2</v>
-      </c>
-      <c r="AI188">
-        <v>1.57</v>
-      </c>
-      <c r="AJ188">
-        <v>2.3</v>
-      </c>
-      <c r="AK188">
-        <v>1.22</v>
-      </c>
-      <c r="AL188">
-        <v>1.25</v>
-      </c>
-      <c r="AM188">
-        <v>1.95</v>
-      </c>
       <c r="AN188">
-        <v>1.36</v>
+        <v>2.45</v>
       </c>
       <c r="AO188">
-        <v>1.25</v>
+        <v>0.82</v>
       </c>
       <c r="AP188">
-        <v>1.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ188">
-        <v>1.23</v>
+        <v>0.75</v>
       </c>
       <c r="AR188">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AS188">
-        <v>1.24</v>
+        <v>0.96</v>
       </c>
       <c r="AT188">
-        <v>2.88</v>
+        <v>2.71</v>
       </c>
       <c r="AU188">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AV188">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW188">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AX188">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AY188">
+        <v>-1</v>
+      </c>
+      <c r="AZ188">
+        <v>-1</v>
+      </c>
+      <c r="BA188">
+        <v>-1</v>
+      </c>
+      <c r="BB188">
+        <v>-1</v>
+      </c>
+      <c r="BC188">
+        <v>-1</v>
+      </c>
+      <c r="BD188">
+        <v>1.06</v>
+      </c>
+      <c r="BE188">
+        <v>15</v>
+      </c>
+      <c r="BF188">
         <v>10</v>
       </c>
-      <c r="AZ188">
-        <v>13</v>
-      </c>
-      <c r="BA188">
-        <v>9</v>
-      </c>
-      <c r="BB188">
-        <v>14</v>
-      </c>
-      <c r="BC188">
-        <v>23</v>
-      </c>
-      <c r="BD188">
-        <v>1.53</v>
-      </c>
-      <c r="BE188">
-        <v>9.5</v>
-      </c>
-      <c r="BF188">
-        <v>2.88</v>
-      </c>
       <c r="BG188">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="BH188">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="BI188">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="BJ188">
-        <v>4.6</v>
+        <v>4.33</v>
       </c>
       <c r="BK188">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="BL188">
-        <v>3.14</v>
+        <v>3.04</v>
       </c>
       <c r="BM188">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="BN188">
-        <v>2.42</v>
+        <v>2.05</v>
       </c>
       <c r="BO188">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="BP188">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="189" spans="1:68">
@@ -40041,7 +40044,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>7295146</v>
+        <v>7295148</v>
       </c>
       <c r="C189" t="s">
         <v>68</v>
@@ -40050,184 +40053,184 @@
         <v>69</v>
       </c>
       <c r="E189" s="2">
-        <v>45564.5</v>
+        <v>45563.875</v>
       </c>
       <c r="F189">
         <v>24</v>
       </c>
       <c r="G189" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H189" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>4</v>
+      </c>
+      <c r="N189">
+        <v>5</v>
+      </c>
+      <c r="O189" t="s">
+        <v>116</v>
+      </c>
+      <c r="P189" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q189">
+        <v>3.2</v>
+      </c>
+      <c r="R189">
+        <v>2.4</v>
+      </c>
+      <c r="S189">
+        <v>2.88</v>
+      </c>
+      <c r="T189">
+        <v>1.29</v>
+      </c>
+      <c r="U189">
+        <v>3.5</v>
+      </c>
+      <c r="V189">
+        <v>2.25</v>
+      </c>
+      <c r="W189">
+        <v>1.57</v>
+      </c>
+      <c r="X189">
+        <v>5.5</v>
+      </c>
+      <c r="Y189">
+        <v>1.14</v>
+      </c>
+      <c r="Z189">
+        <v>2.5</v>
+      </c>
+      <c r="AA189">
+        <v>3.5</v>
+      </c>
+      <c r="AB189">
+        <v>2.3</v>
+      </c>
+      <c r="AC189">
+        <v>1.02</v>
+      </c>
+      <c r="AD189">
+        <v>19</v>
+      </c>
+      <c r="AE189">
+        <v>1.18</v>
+      </c>
+      <c r="AF189">
+        <v>5</v>
+      </c>
+      <c r="AG189">
+        <v>1.5</v>
+      </c>
+      <c r="AH189">
+        <v>2.4</v>
+      </c>
+      <c r="AI189">
+        <v>1.5</v>
+      </c>
+      <c r="AJ189">
+        <v>2.5</v>
+      </c>
+      <c r="AK189">
+        <v>1.6</v>
+      </c>
+      <c r="AL189">
+        <v>1.29</v>
+      </c>
+      <c r="AM189">
+        <v>1.44</v>
+      </c>
+      <c r="AN189">
+        <v>0.82</v>
+      </c>
+      <c r="AO189">
+        <v>1.18</v>
+      </c>
+      <c r="AP189">
+        <v>0.75</v>
+      </c>
+      <c r="AQ189">
+        <v>1.33</v>
+      </c>
+      <c r="AR189">
+        <v>1.31</v>
+      </c>
+      <c r="AS189">
+        <v>1.39</v>
+      </c>
+      <c r="AT189">
+        <v>2.7</v>
+      </c>
+      <c r="AU189">
+        <v>2</v>
+      </c>
+      <c r="AV189">
+        <v>2</v>
+      </c>
+      <c r="AW189">
         <v>3</v>
       </c>
-      <c r="J189">
-        <v>0</v>
-      </c>
-      <c r="K189">
+      <c r="AX189">
         <v>3</v>
       </c>
-      <c r="L189">
+      <c r="AY189">
+        <v>5</v>
+      </c>
+      <c r="AZ189">
+        <v>5</v>
+      </c>
+      <c r="BA189">
+        <v>3</v>
+      </c>
+      <c r="BB189">
         <v>4</v>
       </c>
-      <c r="M189">
-        <v>0</v>
-      </c>
-      <c r="N189">
-        <v>4</v>
-      </c>
-      <c r="O189" t="s">
-        <v>213</v>
-      </c>
-      <c r="P189" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q189">
-        <v>1.44</v>
-      </c>
-      <c r="R189">
-        <v>3.25</v>
-      </c>
-      <c r="S189">
-        <v>8</v>
-      </c>
-      <c r="T189">
-        <v>1.17</v>
-      </c>
-      <c r="U189">
-        <v>4.5</v>
-      </c>
-      <c r="V189">
-        <v>1.8</v>
-      </c>
-      <c r="W189">
-        <v>1.91</v>
-      </c>
-      <c r="X189">
-        <v>3.4</v>
-      </c>
-      <c r="Y189">
-        <v>1.3</v>
-      </c>
-      <c r="Z189">
-        <v>1.14</v>
-      </c>
-      <c r="AA189">
+      <c r="BC189">
         <v>7</v>
       </c>
-      <c r="AB189">
-        <v>11</v>
-      </c>
-      <c r="AC189">
-        <v>1.01</v>
-      </c>
-      <c r="AD189">
-        <v>15.25</v>
-      </c>
-      <c r="AE189">
-        <v>1.02</v>
-      </c>
-      <c r="AF189">
-        <v>7.3</v>
-      </c>
-      <c r="AG189">
-        <v>1.25</v>
-      </c>
-      <c r="AH189">
-        <v>3.5</v>
-      </c>
-      <c r="AI189">
-        <v>1.73</v>
-      </c>
-      <c r="AJ189">
-        <v>2</v>
-      </c>
-      <c r="AK189">
-        <v>1.02</v>
-      </c>
-      <c r="AL189">
-        <v>1.07</v>
-      </c>
-      <c r="AM189">
-        <v>5</v>
-      </c>
-      <c r="AN189">
-        <v>2.45</v>
-      </c>
-      <c r="AO189">
-        <v>0.82</v>
-      </c>
-      <c r="AP189">
-        <v>2.5</v>
-      </c>
-      <c r="AQ189">
-        <v>0.75</v>
-      </c>
-      <c r="AR189">
-        <v>1.75</v>
-      </c>
-      <c r="AS189">
-        <v>0.96</v>
-      </c>
-      <c r="AT189">
-        <v>2.71</v>
-      </c>
-      <c r="AU189">
-        <v>6</v>
-      </c>
-      <c r="AV189">
-        <v>6</v>
-      </c>
-      <c r="AW189">
-        <v>5</v>
-      </c>
-      <c r="AX189">
-        <v>4</v>
-      </c>
-      <c r="AY189">
-        <v>11</v>
-      </c>
-      <c r="AZ189">
-        <v>10</v>
-      </c>
-      <c r="BA189">
-        <v>10</v>
-      </c>
-      <c r="BB189">
-        <v>6</v>
-      </c>
-      <c r="BC189">
-        <v>16</v>
-      </c>
       <c r="BD189">
-        <v>1.06</v>
+        <v>2.1</v>
       </c>
       <c r="BE189">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="BF189">
-        <v>10</v>
+        <v>1.95</v>
       </c>
       <c r="BG189">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="BH189">
-        <v>6.7</v>
+        <v>5.4</v>
       </c>
       <c r="BI189">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="BJ189">
-        <v>4.33</v>
+        <v>3.74</v>
       </c>
       <c r="BK189">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="BL189">
-        <v>3.04</v>
+        <v>2.65</v>
       </c>
       <c r="BM189">
         <v>1.7</v>
@@ -40236,10 +40239,10 @@
         <v>2.05</v>
       </c>
       <c r="BO189">
-        <v>1.87</v>
+        <v>2.09</v>
       </c>
       <c r="BP189">
-        <v>1.87</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="190" spans="1:68">
@@ -40247,7 +40250,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>7295148</v>
+        <v>7295151</v>
       </c>
       <c r="C190" t="s">
         <v>68</v>
@@ -40256,22 +40259,22 @@
         <v>69</v>
       </c>
       <c r="E190" s="2">
-        <v>45564.5</v>
+        <v>45563.875</v>
       </c>
       <c r="F190">
         <v>24</v>
       </c>
       <c r="G190" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H190" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K190">
         <v>1</v>
@@ -40280,172 +40283,172 @@
         <v>1</v>
       </c>
       <c r="M190">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N190">
+        <v>2</v>
+      </c>
+      <c r="O190" t="s">
+        <v>143</v>
+      </c>
+      <c r="P190" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q190">
+        <v>2.25</v>
+      </c>
+      <c r="R190">
+        <v>2.38</v>
+      </c>
+      <c r="S190">
+        <v>3.8</v>
+      </c>
+      <c r="T190">
+        <v>1.3</v>
+      </c>
+      <c r="U190">
+        <v>3.4</v>
+      </c>
+      <c r="V190">
+        <v>2.38</v>
+      </c>
+      <c r="W190">
+        <v>1.53</v>
+      </c>
+      <c r="X190">
         <v>5</v>
-      </c>
-      <c r="O190" t="s">
-        <v>116</v>
-      </c>
-      <c r="P190" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q190">
-        <v>3.2</v>
-      </c>
-      <c r="R190">
-        <v>2.4</v>
-      </c>
-      <c r="S190">
-        <v>2.88</v>
-      </c>
-      <c r="T190">
-        <v>1.29</v>
-      </c>
-      <c r="U190">
-        <v>3.5</v>
-      </c>
-      <c r="V190">
-        <v>2.25</v>
-      </c>
-      <c r="W190">
-        <v>1.57</v>
-      </c>
-      <c r="X190">
-        <v>5.5</v>
       </c>
       <c r="Y190">
         <v>1.14</v>
       </c>
       <c r="Z190">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="AA190">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AB190">
+        <v>3.6</v>
+      </c>
+      <c r="AC190">
+        <v>1.03</v>
+      </c>
+      <c r="AD190">
+        <v>12</v>
+      </c>
+      <c r="AE190">
+        <v>1.14</v>
+      </c>
+      <c r="AF190">
+        <v>4.8</v>
+      </c>
+      <c r="AG190">
+        <v>1.55</v>
+      </c>
+      <c r="AH190">
+        <v>2.2</v>
+      </c>
+      <c r="AI190">
+        <v>1.57</v>
+      </c>
+      <c r="AJ190">
         <v>2.3</v>
       </c>
-      <c r="AC190">
-        <v>1.02</v>
-      </c>
-      <c r="AD190">
-        <v>19</v>
-      </c>
-      <c r="AE190">
-        <v>1.18</v>
-      </c>
-      <c r="AF190">
-        <v>5</v>
-      </c>
-      <c r="AG190">
-        <v>1.5</v>
-      </c>
-      <c r="AH190">
-        <v>2.4</v>
-      </c>
-      <c r="AI190">
-        <v>1.5</v>
-      </c>
-      <c r="AJ190">
-        <v>2.5</v>
-      </c>
       <c r="AK190">
-        <v>1.6</v>
+        <v>1.22</v>
       </c>
       <c r="AL190">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AM190">
-        <v>1.44</v>
+        <v>1.95</v>
       </c>
       <c r="AN190">
-        <v>0.82</v>
+        <v>1.36</v>
       </c>
       <c r="AO190">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AP190">
-        <v>0.75</v>
+        <v>1.33</v>
       </c>
       <c r="AQ190">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR190">
-        <v>1.31</v>
+        <v>1.64</v>
       </c>
       <c r="AS190">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="AT190">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="AU190">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV190">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW190">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX190">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY190">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ190">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA190">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB190">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BC190">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="BD190">
-        <v>2.1</v>
+        <v>1.53</v>
       </c>
       <c r="BE190">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="BF190">
-        <v>1.95</v>
+        <v>2.88</v>
       </c>
       <c r="BG190">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="BH190">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="BI190">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="BJ190">
-        <v>3.74</v>
+        <v>4.6</v>
       </c>
       <c r="BK190">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="BL190">
-        <v>2.65</v>
+        <v>3.14</v>
       </c>
       <c r="BM190">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="BN190">
-        <v>2.05</v>
+        <v>2.42</v>
       </c>
       <c r="BO190">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="BP190">
-        <v>1.69</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="191" spans="1:68">
@@ -40453,7 +40456,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>7295153</v>
+        <v>7295152</v>
       </c>
       <c r="C191" t="s">
         <v>68</v>
@@ -40462,195 +40465,401 @@
         <v>69</v>
       </c>
       <c r="E191" s="2">
-        <v>45564.59375</v>
+        <v>45563.875</v>
       </c>
       <c r="F191">
         <v>24</v>
       </c>
       <c r="G191" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H191" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K191">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N191">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O191" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="P191" t="s">
-        <v>96</v>
+        <v>309</v>
       </c>
       <c r="Q191">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R191">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="S191">
+        <v>2.88</v>
+      </c>
+      <c r="T191">
+        <v>1.4</v>
+      </c>
+      <c r="U191">
         <v>2.75</v>
       </c>
-      <c r="T191">
-        <v>1.29</v>
-      </c>
-      <c r="U191">
-        <v>3.5</v>
-      </c>
       <c r="V191">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="W191">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="X191">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y191">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="Z191">
         <v>2.8</v>
       </c>
       <c r="AA191">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AB191">
+        <v>2.2</v>
+      </c>
+      <c r="AC191">
+        <v>1.03</v>
+      </c>
+      <c r="AD191">
+        <v>9</v>
+      </c>
+      <c r="AE191">
+        <v>1.25</v>
+      </c>
+      <c r="AF191">
+        <v>3.6</v>
+      </c>
+      <c r="AG191">
+        <v>1.85</v>
+      </c>
+      <c r="AH191">
+        <v>1.8</v>
+      </c>
+      <c r="AI191">
+        <v>1.73</v>
+      </c>
+      <c r="AJ191">
         <v>2.1</v>
       </c>
-      <c r="AC191">
-        <v>1.02</v>
-      </c>
-      <c r="AD191">
-        <v>17</v>
-      </c>
-      <c r="AE191">
-        <v>1.18</v>
-      </c>
-      <c r="AF191">
+      <c r="AK191">
+        <v>1.62</v>
+      </c>
+      <c r="AL191">
+        <v>1.31</v>
+      </c>
+      <c r="AM191">
+        <v>1.38</v>
+      </c>
+      <c r="AN191">
+        <v>1.08</v>
+      </c>
+      <c r="AO191">
+        <v>1.64</v>
+      </c>
+      <c r="AP191">
+        <v>1</v>
+      </c>
+      <c r="AQ191">
+        <v>1.75</v>
+      </c>
+      <c r="AR191">
+        <v>1.14</v>
+      </c>
+      <c r="AS191">
+        <v>0.97</v>
+      </c>
+      <c r="AT191">
+        <v>2.11</v>
+      </c>
+      <c r="AU191">
+        <v>3</v>
+      </c>
+      <c r="AV191">
+        <v>2</v>
+      </c>
+      <c r="AW191">
+        <v>0</v>
+      </c>
+      <c r="AX191">
+        <v>2</v>
+      </c>
+      <c r="AY191">
+        <v>3</v>
+      </c>
+      <c r="AZ191">
+        <v>4</v>
+      </c>
+      <c r="BA191">
         <v>5</v>
       </c>
-      <c r="AG191">
-        <v>1.53</v>
-      </c>
-      <c r="AH191">
-        <v>2.25</v>
-      </c>
-      <c r="AI191">
-        <v>1.5</v>
-      </c>
-      <c r="AJ191">
-        <v>2.5</v>
-      </c>
-      <c r="AK191">
-        <v>1.7</v>
-      </c>
-      <c r="AL191">
-        <v>1.25</v>
-      </c>
-      <c r="AM191">
-        <v>1.4</v>
-      </c>
-      <c r="AN191">
-        <v>1.55</v>
-      </c>
-      <c r="AO191">
-        <v>0.82</v>
-      </c>
-      <c r="AP191">
-        <v>1.42</v>
-      </c>
-      <c r="AQ191">
-        <v>1</v>
-      </c>
-      <c r="AR191">
-        <v>1.5</v>
-      </c>
-      <c r="AS191">
-        <v>1.38</v>
-      </c>
-      <c r="AT191">
-        <v>2.88</v>
-      </c>
-      <c r="AU191">
-        <v>11</v>
-      </c>
-      <c r="AV191">
-        <v>4</v>
-      </c>
-      <c r="AW191">
+      <c r="BB191">
         <v>3</v>
-      </c>
-      <c r="AX191">
-        <v>4</v>
-      </c>
-      <c r="AY191">
-        <v>14</v>
-      </c>
-      <c r="AZ191">
-        <v>8</v>
-      </c>
-      <c r="BA191">
-        <v>7</v>
-      </c>
-      <c r="BB191">
-        <v>1</v>
       </c>
       <c r="BC191">
         <v>8</v>
       </c>
       <c r="BD191">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="BE191">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF191">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="BG191">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="BH191">
-        <v>3.74</v>
+        <v>3.14</v>
       </c>
       <c r="BI191">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="BJ191">
-        <v>2.67</v>
+        <v>2.3</v>
       </c>
       <c r="BK191">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="BL191">
         <v>1.82</v>
       </c>
       <c r="BM191">
+        <v>1.95</v>
+      </c>
+      <c r="BN191">
+        <v>1.77</v>
+      </c>
+      <c r="BO191">
+        <v>3.28</v>
+      </c>
+      <c r="BP191">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7295153</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45564.59375</v>
+      </c>
+      <c r="F192">
+        <v>24</v>
+      </c>
+      <c r="G192" t="s">
+        <v>85</v>
+      </c>
+      <c r="H192" t="s">
+        <v>75</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <v>1</v>
+      </c>
+      <c r="O192" t="s">
+        <v>87</v>
+      </c>
+      <c r="P192" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q192">
+        <v>3.4</v>
+      </c>
+      <c r="R192">
+        <v>2.4</v>
+      </c>
+      <c r="S192">
+        <v>2.75</v>
+      </c>
+      <c r="T192">
+        <v>1.29</v>
+      </c>
+      <c r="U192">
+        <v>3.5</v>
+      </c>
+      <c r="V192">
+        <v>2.25</v>
+      </c>
+      <c r="W192">
+        <v>1.57</v>
+      </c>
+      <c r="X192">
+        <v>5.5</v>
+      </c>
+      <c r="Y192">
+        <v>1.14</v>
+      </c>
+      <c r="Z192">
+        <v>2.8</v>
+      </c>
+      <c r="AA192">
+        <v>3.4</v>
+      </c>
+      <c r="AB192">
+        <v>2.1</v>
+      </c>
+      <c r="AC192">
+        <v>1.02</v>
+      </c>
+      <c r="AD192">
+        <v>17</v>
+      </c>
+      <c r="AE192">
+        <v>1.18</v>
+      </c>
+      <c r="AF192">
+        <v>5</v>
+      </c>
+      <c r="AG192">
+        <v>1.53</v>
+      </c>
+      <c r="AH192">
+        <v>2.25</v>
+      </c>
+      <c r="AI192">
+        <v>1.5</v>
+      </c>
+      <c r="AJ192">
+        <v>2.5</v>
+      </c>
+      <c r="AK192">
+        <v>1.7</v>
+      </c>
+      <c r="AL192">
+        <v>1.25</v>
+      </c>
+      <c r="AM192">
+        <v>1.4</v>
+      </c>
+      <c r="AN192">
+        <v>1.55</v>
+      </c>
+      <c r="AO192">
+        <v>0.82</v>
+      </c>
+      <c r="AP192">
+        <v>1.42</v>
+      </c>
+      <c r="AQ192">
+        <v>1</v>
+      </c>
+      <c r="AR192">
+        <v>1.5</v>
+      </c>
+      <c r="AS192">
+        <v>1.38</v>
+      </c>
+      <c r="AT192">
+        <v>2.88</v>
+      </c>
+      <c r="AU192">
+        <v>10</v>
+      </c>
+      <c r="AV192">
+        <v>5</v>
+      </c>
+      <c r="AW192">
+        <v>5</v>
+      </c>
+      <c r="AX192">
+        <v>7</v>
+      </c>
+      <c r="AY192">
+        <v>15</v>
+      </c>
+      <c r="AZ192">
+        <v>12</v>
+      </c>
+      <c r="BA192">
+        <v>7</v>
+      </c>
+      <c r="BB192">
+        <v>1</v>
+      </c>
+      <c r="BC192">
+        <v>8</v>
+      </c>
+      <c r="BD192">
+        <v>2.5</v>
+      </c>
+      <c r="BE192">
+        <v>8</v>
+      </c>
+      <c r="BF192">
+        <v>1.67</v>
+      </c>
+      <c r="BG192">
+        <v>1.18</v>
+      </c>
+      <c r="BH192">
+        <v>3.74</v>
+      </c>
+      <c r="BI192">
+        <v>1.39</v>
+      </c>
+      <c r="BJ192">
+        <v>2.67</v>
+      </c>
+      <c r="BK192">
+        <v>1.98</v>
+      </c>
+      <c r="BL192">
+        <v>1.82</v>
+      </c>
+      <c r="BM192">
         <v>2.14</v>
       </c>
-      <c r="BN191">
+      <c r="BN192">
         <v>1.6</v>
       </c>
-      <c r="BO191">
+      <c r="BO192">
         <v>2.73</v>
       </c>
-      <c r="BP191">
+      <c r="BP192">
         <v>1.33</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -40671,7 +40671,7 @@
         <v>69</v>
       </c>
       <c r="E192" s="2">
-        <v>45564.59375</v>
+        <v>45563.875</v>
       </c>
       <c r="F192">
         <v>24</v>
@@ -40797,22 +40797,22 @@
         <v>2.88</v>
       </c>
       <c r="AU192">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV192">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW192">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX192">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AY192">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ192">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BA192">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -631,19 +631,19 @@
     <t>['82', '90+6']</t>
   </si>
   <si>
+    <t>['6', '27']</t>
+  </si>
+  <si>
     <t>['11', '16', '33', '45+2', '88']</t>
   </si>
   <si>
-    <t>['6', '27']</t>
+    <t>['19', '27', '45+3', '90+6']</t>
   </si>
   <si>
     <t>['25', '36', '44']</t>
   </si>
   <si>
     <t>['12', '37', '61', '88']</t>
-  </si>
-  <si>
-    <t>['19', '27', '45+3', '90+6']</t>
   </si>
   <si>
     <t>['14', '42', '55']</t>
@@ -1669,10 +1669,10 @@
         <v>2</v>
       </c>
       <c r="AY2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA2">
         <v>10</v>
@@ -1875,10 +1875,10 @@
         <v>4</v>
       </c>
       <c r="AY3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA3">
         <v>1</v>
@@ -2081,10 +2081,10 @@
         <v>3</v>
       </c>
       <c r="AY4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA4">
         <v>3</v>
@@ -2287,10 +2287,10 @@
         <v>9</v>
       </c>
       <c r="AY5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ5">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="BA5">
         <v>6</v>
@@ -2493,10 +2493,10 @@
         <v>3</v>
       </c>
       <c r="AY6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA6">
         <v>11</v>
@@ -2699,10 +2699,10 @@
         <v>5</v>
       </c>
       <c r="AY7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA7">
         <v>3</v>
@@ -2905,10 +2905,10 @@
         <v>5</v>
       </c>
       <c r="AY8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AZ8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BA8">
         <v>4</v>
@@ -3111,10 +3111,10 @@
         <v>4</v>
       </c>
       <c r="AY9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA9">
         <v>6</v>
@@ -3317,10 +3317,10 @@
         <v>5</v>
       </c>
       <c r="AY10">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AZ10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA10">
         <v>7</v>
@@ -3523,7 +3523,7 @@
         <v>4</v>
       </c>
       <c r="AY11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ11">
         <v>10</v>
@@ -3729,10 +3729,10 @@
         <v>4</v>
       </c>
       <c r="AY12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA12">
         <v>7</v>
@@ -3935,10 +3935,10 @@
         <v>5</v>
       </c>
       <c r="AY13">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ13">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA13">
         <v>5</v>
@@ -4141,10 +4141,10 @@
         <v>4</v>
       </c>
       <c r="AY14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ14">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="BA14">
         <v>3</v>
@@ -4347,10 +4347,10 @@
         <v>4</v>
       </c>
       <c r="AY15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ15">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA15">
         <v>3</v>
@@ -4553,10 +4553,10 @@
         <v>1</v>
       </c>
       <c r="AY16">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AZ16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA16">
         <v>14</v>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="AY17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ17">
         <v>6</v>
@@ -4965,10 +4965,10 @@
         <v>13</v>
       </c>
       <c r="AY18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ18">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="BA18">
         <v>3</v>
@@ -5171,10 +5171,10 @@
         <v>4</v>
       </c>
       <c r="AY19">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA19">
         <v>6</v>
@@ -5377,10 +5377,10 @@
         <v>3</v>
       </c>
       <c r="AY20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA20">
         <v>9</v>
@@ -5583,10 +5583,10 @@
         <v>6</v>
       </c>
       <c r="AY21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ21">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA21">
         <v>2</v>
@@ -5789,10 +5789,10 @@
         <v>4</v>
       </c>
       <c r="AY22">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ22">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA22">
         <v>4</v>
@@ -5995,10 +5995,10 @@
         <v>5</v>
       </c>
       <c r="AY23">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ23">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA23">
         <v>2</v>
@@ -6201,10 +6201,10 @@
         <v>3</v>
       </c>
       <c r="AY24">
+        <v>22</v>
+      </c>
+      <c r="AZ24">
         <v>15</v>
-      </c>
-      <c r="AZ24">
-        <v>11</v>
       </c>
       <c r="BA24">
         <v>13</v>
@@ -6407,10 +6407,10 @@
         <v>3</v>
       </c>
       <c r="AY25">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AZ25">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA25">
         <v>19</v>
@@ -6613,10 +6613,10 @@
         <v>0</v>
       </c>
       <c r="AY26">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA26">
         <v>5</v>
@@ -6819,10 +6819,10 @@
         <v>5</v>
       </c>
       <c r="AY27">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AZ27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA27">
         <v>6</v>
@@ -7025,10 +7025,10 @@
         <v>5</v>
       </c>
       <c r="AY28">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA28">
         <v>5</v>
@@ -7231,10 +7231,10 @@
         <v>0</v>
       </c>
       <c r="AY29">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AZ29">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA29">
         <v>11</v>
@@ -7437,10 +7437,10 @@
         <v>2</v>
       </c>
       <c r="AY30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA30">
         <v>8</v>
@@ -7643,10 +7643,10 @@
         <v>1</v>
       </c>
       <c r="AY31">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ31">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA31">
         <v>5</v>
@@ -7849,10 +7849,10 @@
         <v>6</v>
       </c>
       <c r="AY32">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ32">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA32">
         <v>4</v>
@@ -8055,10 +8055,10 @@
         <v>4</v>
       </c>
       <c r="AY33">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA33">
         <v>7</v>
@@ -8261,10 +8261,10 @@
         <v>0</v>
       </c>
       <c r="AY34">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA34">
         <v>11</v>
@@ -8467,10 +8467,10 @@
         <v>5</v>
       </c>
       <c r="AY35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ35">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA35">
         <v>3</v>
@@ -8673,10 +8673,10 @@
         <v>6</v>
       </c>
       <c r="AY36">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ36">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA36">
         <v>4</v>
@@ -8879,10 +8879,10 @@
         <v>8</v>
       </c>
       <c r="AY37">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ37">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="BA37">
         <v>5</v>
@@ -9085,10 +9085,10 @@
         <v>5</v>
       </c>
       <c r="AY38">
+        <v>25</v>
+      </c>
+      <c r="AZ38">
         <v>17</v>
-      </c>
-      <c r="AZ38">
-        <v>13</v>
       </c>
       <c r="BA38">
         <v>11</v>
@@ -9291,10 +9291,10 @@
         <v>4</v>
       </c>
       <c r="AY39">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA39">
         <v>8</v>
@@ -9497,10 +9497,10 @@
         <v>4</v>
       </c>
       <c r="AY40">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ40">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA40">
         <v>5</v>
@@ -9703,10 +9703,10 @@
         <v>1</v>
       </c>
       <c r="AY41">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA41">
         <v>2</v>
@@ -9909,10 +9909,10 @@
         <v>12</v>
       </c>
       <c r="AY42">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ42">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="BA42">
         <v>5</v>
@@ -10115,10 +10115,10 @@
         <v>5</v>
       </c>
       <c r="AY43">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AZ43">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA43">
         <v>10</v>
@@ -10321,10 +10321,10 @@
         <v>3</v>
       </c>
       <c r="AY44">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AZ44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA44">
         <v>6</v>
@@ -10527,10 +10527,10 @@
         <v>3</v>
       </c>
       <c r="AY45">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AZ45">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA45">
         <v>6</v>
@@ -10733,10 +10733,10 @@
         <v>4</v>
       </c>
       <c r="AY46">
+        <v>13</v>
+      </c>
+      <c r="AZ46">
         <v>12</v>
-      </c>
-      <c r="AZ46">
-        <v>8</v>
       </c>
       <c r="BA46">
         <v>10</v>
@@ -10939,10 +10939,10 @@
         <v>6</v>
       </c>
       <c r="AY47">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ47">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA47">
         <v>1</v>
@@ -11145,10 +11145,10 @@
         <v>4</v>
       </c>
       <c r="AY48">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ48">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA48">
         <v>11</v>
@@ -11351,10 +11351,10 @@
         <v>7</v>
       </c>
       <c r="AY49">
+        <v>19</v>
+      </c>
+      <c r="AZ49">
         <v>17</v>
-      </c>
-      <c r="AZ49">
-        <v>11</v>
       </c>
       <c r="BA49">
         <v>8</v>
@@ -11557,10 +11557,10 @@
         <v>3</v>
       </c>
       <c r="AY50">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AZ50">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA50">
         <v>11</v>
@@ -11763,10 +11763,10 @@
         <v>6</v>
       </c>
       <c r="AY51">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ51">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA51">
         <v>3</v>
@@ -11969,10 +11969,10 @@
         <v>8</v>
       </c>
       <c r="AY52">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AZ52">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA52">
         <v>5</v>
@@ -12175,10 +12175,10 @@
         <v>3</v>
       </c>
       <c r="AY53">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ53">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA53">
         <v>8</v>
@@ -12381,10 +12381,10 @@
         <v>3</v>
       </c>
       <c r="AY54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ54">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA54">
         <v>6</v>
@@ -12587,10 +12587,10 @@
         <v>5</v>
       </c>
       <c r="AY55">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ55">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA55">
         <v>2</v>
@@ -12793,10 +12793,10 @@
         <v>2</v>
       </c>
       <c r="AY56">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ56">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA56">
         <v>6</v>
@@ -12999,10 +12999,10 @@
         <v>3</v>
       </c>
       <c r="AY57">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ57">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA57">
         <v>3</v>
@@ -13205,10 +13205,10 @@
         <v>9</v>
       </c>
       <c r="AY58">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ58">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA58">
         <v>8</v>
@@ -13411,10 +13411,10 @@
         <v>8</v>
       </c>
       <c r="AY59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ59">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA59">
         <v>1</v>
@@ -13617,10 +13617,10 @@
         <v>3</v>
       </c>
       <c r="AY60">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ60">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA60">
         <v>2</v>
@@ -13823,10 +13823,10 @@
         <v>8</v>
       </c>
       <c r="AY61">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ61">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA61">
         <v>8</v>
@@ -14029,10 +14029,10 @@
         <v>3</v>
       </c>
       <c r="AY62">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ62">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA62">
         <v>6</v>
@@ -14235,10 +14235,10 @@
         <v>4</v>
       </c>
       <c r="AY63">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AZ63">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA63">
         <v>9</v>
@@ -14441,10 +14441,10 @@
         <v>4</v>
       </c>
       <c r="AY64">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ64">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA64">
         <v>10</v>
@@ -14647,10 +14647,10 @@
         <v>2</v>
       </c>
       <c r="AY65">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ65">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA65">
         <v>7</v>
@@ -14853,10 +14853,10 @@
         <v>5</v>
       </c>
       <c r="AY66">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ66">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA66">
         <v>4</v>
@@ -15059,10 +15059,10 @@
         <v>5</v>
       </c>
       <c r="AY67">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ67">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA67">
         <v>6</v>
@@ -15265,10 +15265,10 @@
         <v>4</v>
       </c>
       <c r="AY68">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ68">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA68">
         <v>9</v>
@@ -15471,10 +15471,10 @@
         <v>8</v>
       </c>
       <c r="AY69">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ69">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA69">
         <v>8</v>
@@ -15677,10 +15677,10 @@
         <v>3</v>
       </c>
       <c r="AY70">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ70">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BA70">
         <v>3</v>
@@ -15883,10 +15883,10 @@
         <v>3</v>
       </c>
       <c r="AY71">
+        <v>11</v>
+      </c>
+      <c r="AZ71">
         <v>7</v>
-      </c>
-      <c r="AZ71">
-        <v>6</v>
       </c>
       <c r="BA71">
         <v>6</v>
@@ -16089,10 +16089,10 @@
         <v>4</v>
       </c>
       <c r="AY72">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ72">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA72">
         <v>3</v>
@@ -16295,10 +16295,10 @@
         <v>1</v>
       </c>
       <c r="AY73">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ73">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA73">
         <v>8</v>
@@ -16501,7 +16501,7 @@
         <v>3</v>
       </c>
       <c r="AY74">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ74">
         <v>8</v>
@@ -16707,10 +16707,10 @@
         <v>3</v>
       </c>
       <c r="AY75">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ75">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA75">
         <v>2</v>
@@ -16913,10 +16913,10 @@
         <v>8</v>
       </c>
       <c r="AY76">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ76">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="BA76">
         <v>4</v>
@@ -17119,10 +17119,10 @@
         <v>1</v>
       </c>
       <c r="AY77">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA77">
         <v>17</v>
@@ -17325,10 +17325,10 @@
         <v>5</v>
       </c>
       <c r="AY78">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ78">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA78">
         <v>14</v>
@@ -17531,10 +17531,10 @@
         <v>8</v>
       </c>
       <c r="AY79">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ79">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA79">
         <v>7</v>
@@ -17737,10 +17737,10 @@
         <v>4</v>
       </c>
       <c r="AY80">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ80">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA80">
         <v>9</v>
@@ -17943,10 +17943,10 @@
         <v>2</v>
       </c>
       <c r="AY81">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ81">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BA81">
         <v>8</v>
@@ -18149,10 +18149,10 @@
         <v>3</v>
       </c>
       <c r="AY82">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ82">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA82">
         <v>7</v>
@@ -18355,10 +18355,10 @@
         <v>7</v>
       </c>
       <c r="AY83">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ83">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA83">
         <v>5</v>
@@ -18561,10 +18561,10 @@
         <v>5</v>
       </c>
       <c r="AY84">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AZ84">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA84">
         <v>7</v>
@@ -18767,10 +18767,10 @@
         <v>2</v>
       </c>
       <c r="AY85">
+        <v>16</v>
+      </c>
+      <c r="AZ85">
         <v>13</v>
-      </c>
-      <c r="AZ85">
-        <v>8</v>
       </c>
       <c r="BA85">
         <v>4</v>
@@ -18973,10 +18973,10 @@
         <v>7</v>
       </c>
       <c r="AY86">
+        <v>18</v>
+      </c>
+      <c r="AZ86">
         <v>15</v>
-      </c>
-      <c r="AZ86">
-        <v>12</v>
       </c>
       <c r="BA86">
         <v>5</v>
@@ -19179,7 +19179,7 @@
         <v>4</v>
       </c>
       <c r="AY87">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ87">
         <v>6</v>
@@ -19385,10 +19385,10 @@
         <v>1</v>
       </c>
       <c r="AY88">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ88">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA88">
         <v>9</v>
@@ -19591,10 +19591,10 @@
         <v>4</v>
       </c>
       <c r="AY89">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AZ89">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA89">
         <v>13</v>
@@ -19797,10 +19797,10 @@
         <v>7</v>
       </c>
       <c r="AY90">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ90">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="BA90">
         <v>1</v>
@@ -20003,10 +20003,10 @@
         <v>2</v>
       </c>
       <c r="AY91">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ91">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA91">
         <v>4</v>
@@ -20209,10 +20209,10 @@
         <v>7</v>
       </c>
       <c r="AY92">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ92">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA92">
         <v>3</v>
@@ -20415,10 +20415,10 @@
         <v>5</v>
       </c>
       <c r="AY93">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ93">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA93">
         <v>4</v>
@@ -20621,10 +20621,10 @@
         <v>5</v>
       </c>
       <c r="AY94">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ94">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA94">
         <v>6</v>
@@ -20827,10 +20827,10 @@
         <v>3</v>
       </c>
       <c r="AY95">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ95">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA95">
         <v>5</v>
@@ -21033,10 +21033,10 @@
         <v>5</v>
       </c>
       <c r="AY96">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AZ96">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA96">
         <v>9</v>
@@ -21239,10 +21239,10 @@
         <v>4</v>
       </c>
       <c r="AY97">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ97">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA97">
         <v>6</v>
@@ -21445,10 +21445,10 @@
         <v>4</v>
       </c>
       <c r="AY98">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ98">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA98">
         <v>7</v>
@@ -21651,10 +21651,10 @@
         <v>4</v>
       </c>
       <c r="AY99">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ99">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA99">
         <v>5</v>
@@ -21857,10 +21857,10 @@
         <v>2</v>
       </c>
       <c r="AY100">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ100">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA100">
         <v>3</v>
@@ -22063,10 +22063,10 @@
         <v>4</v>
       </c>
       <c r="AY101">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ101">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA101">
         <v>5</v>
@@ -22269,10 +22269,10 @@
         <v>3</v>
       </c>
       <c r="AY102">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AZ102">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA102">
         <v>13</v>
@@ -22475,7 +22475,7 @@
         <v>5</v>
       </c>
       <c r="AY103">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ103">
         <v>8</v>
@@ -22681,10 +22681,10 @@
         <v>7</v>
       </c>
       <c r="AY104">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ104">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA104">
         <v>5</v>
@@ -22887,10 +22887,10 @@
         <v>5</v>
       </c>
       <c r="AY105">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ105">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BA105">
         <v>2</v>
@@ -23093,10 +23093,10 @@
         <v>5</v>
       </c>
       <c r="AY106">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ106">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA106">
         <v>5</v>
@@ -23299,10 +23299,10 @@
         <v>4</v>
       </c>
       <c r="AY107">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AZ107">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA107">
         <v>6</v>
@@ -23505,10 +23505,10 @@
         <v>6</v>
       </c>
       <c r="AY108">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AZ108">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="BA108">
         <v>7</v>
@@ -23711,10 +23711,10 @@
         <v>6</v>
       </c>
       <c r="AY109">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ109">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA109">
         <v>9</v>
@@ -23917,10 +23917,10 @@
         <v>4</v>
       </c>
       <c r="AY110">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ110">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="BA110">
         <v>0</v>
@@ -24123,10 +24123,10 @@
         <v>5</v>
       </c>
       <c r="AY111">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ111">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA111">
         <v>9</v>
@@ -24329,10 +24329,10 @@
         <v>4</v>
       </c>
       <c r="AY112">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ112">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA112">
         <v>6</v>
@@ -24535,10 +24535,10 @@
         <v>3</v>
       </c>
       <c r="AY113">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ113">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA113">
         <v>10</v>
@@ -24741,10 +24741,10 @@
         <v>7</v>
       </c>
       <c r="AY114">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ114">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="BA114">
         <v>2</v>
@@ -24947,10 +24947,10 @@
         <v>5</v>
       </c>
       <c r="AY115">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ115">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA115">
         <v>6</v>
@@ -25153,10 +25153,10 @@
         <v>3</v>
       </c>
       <c r="AY116">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ116">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA116">
         <v>12</v>
@@ -25359,10 +25359,10 @@
         <v>1</v>
       </c>
       <c r="AY117">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ117">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA117">
         <v>3</v>
@@ -25565,10 +25565,10 @@
         <v>3</v>
       </c>
       <c r="AY118">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ118">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA118">
         <v>6</v>
@@ -25771,10 +25771,10 @@
         <v>4</v>
       </c>
       <c r="AY119">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ119">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA119">
         <v>6</v>
@@ -25977,10 +25977,10 @@
         <v>5</v>
       </c>
       <c r="AY120">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ120">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA120">
         <v>4</v>
@@ -26183,10 +26183,10 @@
         <v>6</v>
       </c>
       <c r="AY121">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ121">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA121">
         <v>7</v>
@@ -26389,10 +26389,10 @@
         <v>4</v>
       </c>
       <c r="AY122">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ122">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BA122">
         <v>5</v>
@@ -26595,10 +26595,10 @@
         <v>5</v>
       </c>
       <c r="AY123">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ123">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA123">
         <v>5</v>
@@ -26801,7 +26801,7 @@
         <v>2</v>
       </c>
       <c r="AY124">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ124">
         <v>6</v>
@@ -27007,10 +27007,10 @@
         <v>5</v>
       </c>
       <c r="AY125">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AZ125">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA125">
         <v>4</v>
@@ -27213,7 +27213,7 @@
         <v>2</v>
       </c>
       <c r="AY126">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ126">
         <v>5</v>
@@ -27419,10 +27419,10 @@
         <v>9</v>
       </c>
       <c r="AY127">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ127">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA127">
         <v>3</v>
@@ -27625,10 +27625,10 @@
         <v>8</v>
       </c>
       <c r="AY128">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AZ128">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA128">
         <v>7</v>
@@ -27831,10 +27831,10 @@
         <v>5</v>
       </c>
       <c r="AY129">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ129">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA129">
         <v>10</v>
@@ -28037,10 +28037,10 @@
         <v>6</v>
       </c>
       <c r="AY130">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ130">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA130">
         <v>3</v>
@@ -28243,10 +28243,10 @@
         <v>5</v>
       </c>
       <c r="AY131">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AZ131">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA131">
         <v>11</v>
@@ -28449,7 +28449,7 @@
         <v>2</v>
       </c>
       <c r="AY132">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ132">
         <v>2</v>
@@ -28655,10 +28655,10 @@
         <v>3</v>
       </c>
       <c r="AY133">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ133">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="BA133">
         <v>3</v>
@@ -28861,10 +28861,10 @@
         <v>5</v>
       </c>
       <c r="AY134">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ134">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA134">
         <v>1</v>
@@ -29067,10 +29067,10 @@
         <v>5</v>
       </c>
       <c r="AY135">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ135">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA135">
         <v>9</v>
@@ -29273,10 +29273,10 @@
         <v>2</v>
       </c>
       <c r="AY136">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ136">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BA136">
         <v>3</v>
@@ -29479,10 +29479,10 @@
         <v>2</v>
       </c>
       <c r="AY137">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AZ137">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA137">
         <v>8</v>
@@ -29685,10 +29685,10 @@
         <v>4</v>
       </c>
       <c r="AY138">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ138">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA138">
         <v>7</v>
@@ -29891,10 +29891,10 @@
         <v>4</v>
       </c>
       <c r="AY139">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AZ139">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA139">
         <v>9</v>
@@ -30097,10 +30097,10 @@
         <v>4</v>
       </c>
       <c r="AY140">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ140">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA140">
         <v>10</v>
@@ -30303,10 +30303,10 @@
         <v>6</v>
       </c>
       <c r="AY141">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ141">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA141">
         <v>2</v>
@@ -30509,10 +30509,10 @@
         <v>10</v>
       </c>
       <c r="AY142">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ142">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="BA142">
         <v>5</v>
@@ -30715,10 +30715,10 @@
         <v>5</v>
       </c>
       <c r="AY143">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ143">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA143">
         <v>2</v>
@@ -30921,10 +30921,10 @@
         <v>7</v>
       </c>
       <c r="AY144">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ144">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA144">
         <v>6</v>
@@ -31127,10 +31127,10 @@
         <v>6</v>
       </c>
       <c r="AY145">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AZ145">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA145">
         <v>11</v>
@@ -31333,10 +31333,10 @@
         <v>5</v>
       </c>
       <c r="AY146">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ146">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA146">
         <v>7</v>
@@ -31539,10 +31539,10 @@
         <v>7</v>
       </c>
       <c r="AY147">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ147">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA147">
         <v>10</v>
@@ -31745,10 +31745,10 @@
         <v>9</v>
       </c>
       <c r="AY148">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ148">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="BA148">
         <v>4</v>
@@ -31951,10 +31951,10 @@
         <v>2</v>
       </c>
       <c r="AY149">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ149">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA149">
         <v>7</v>
@@ -32157,10 +32157,10 @@
         <v>7</v>
       </c>
       <c r="AY150">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ150">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA150">
         <v>4</v>
@@ -32363,7 +32363,7 @@
         <v>3</v>
       </c>
       <c r="AY151">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ151">
         <v>7</v>
@@ -32569,10 +32569,10 @@
         <v>4</v>
       </c>
       <c r="AY152">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ152">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA152">
         <v>3</v>
@@ -32775,10 +32775,10 @@
         <v>2</v>
       </c>
       <c r="AY153">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ153">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA153">
         <v>12</v>
@@ -32981,10 +32981,10 @@
         <v>4</v>
       </c>
       <c r="AY154">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ154">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA154">
         <v>3</v>
@@ -33187,10 +33187,10 @@
         <v>6</v>
       </c>
       <c r="AY155">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ155">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA155">
         <v>9</v>
@@ -33393,10 +33393,10 @@
         <v>4</v>
       </c>
       <c r="AY156">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AZ156">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA156">
         <v>9</v>
@@ -33599,10 +33599,10 @@
         <v>3</v>
       </c>
       <c r="AY157">
+        <v>15</v>
+      </c>
+      <c r="AZ157">
         <v>11</v>
-      </c>
-      <c r="AZ157">
-        <v>6</v>
       </c>
       <c r="BA157">
         <v>5</v>
@@ -33805,10 +33805,10 @@
         <v>6</v>
       </c>
       <c r="AY158">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ158">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA158">
         <v>0</v>
@@ -34011,7 +34011,7 @@
         <v>5</v>
       </c>
       <c r="AY159">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ159">
         <v>7</v>
@@ -34217,10 +34217,10 @@
         <v>4</v>
       </c>
       <c r="AY160">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ160">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA160">
         <v>6</v>
@@ -34423,10 +34423,10 @@
         <v>7</v>
       </c>
       <c r="AY161">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ161">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA161">
         <v>7</v>
@@ -34835,10 +34835,10 @@
         <v>8</v>
       </c>
       <c r="AY163">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ163">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA163">
         <v>2</v>
@@ -35041,10 +35041,10 @@
         <v>3</v>
       </c>
       <c r="AY164">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ164">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA164">
         <v>6</v>
@@ -35247,10 +35247,10 @@
         <v>7</v>
       </c>
       <c r="AY165">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ165">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="BA165">
         <v>2</v>
@@ -35453,10 +35453,10 @@
         <v>2</v>
       </c>
       <c r="AY166">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ166">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA166">
         <v>10</v>
@@ -35659,10 +35659,10 @@
         <v>5</v>
       </c>
       <c r="AY167">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ167">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA167">
         <v>8</v>
@@ -35865,10 +35865,10 @@
         <v>3</v>
       </c>
       <c r="AY168">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ168">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA168">
         <v>3</v>
@@ -36071,10 +36071,10 @@
         <v>4</v>
       </c>
       <c r="AY169">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ169">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA169">
         <v>12</v>
@@ -36280,7 +36280,7 @@
         <v>8</v>
       </c>
       <c r="AZ170">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA170">
         <v>4</v>
@@ -36483,10 +36483,10 @@
         <v>5</v>
       </c>
       <c r="AY171">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AZ171">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA171">
         <v>11</v>
@@ -36689,10 +36689,10 @@
         <v>2</v>
       </c>
       <c r="AY172">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ172">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA172">
         <v>3</v>
@@ -36895,7 +36895,7 @@
         <v>5</v>
       </c>
       <c r="AY173">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ173">
         <v>11</v>
@@ -37101,10 +37101,10 @@
         <v>6</v>
       </c>
       <c r="AY174">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ174">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA174">
         <v>5</v>
@@ -37307,10 +37307,10 @@
         <v>6</v>
       </c>
       <c r="AY175">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ175">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA175">
         <v>2</v>
@@ -37513,10 +37513,10 @@
         <v>4</v>
       </c>
       <c r="AY176">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ176">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA176">
         <v>5</v>
@@ -37572,7 +37572,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>7295138</v>
+        <v>7295141</v>
       </c>
       <c r="C177" t="s">
         <v>68</v>
@@ -37581,196 +37581,196 @@
         <v>69</v>
       </c>
       <c r="E177" s="2">
-        <v>45555.875</v>
+        <v>45556.45833333334</v>
       </c>
       <c r="F177">
         <v>23</v>
       </c>
       <c r="G177" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H177" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I177">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K177">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L177">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N177">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O177" t="s">
         <v>205</v>
       </c>
       <c r="P177" t="s">
-        <v>87</v>
+        <v>305</v>
       </c>
       <c r="Q177">
-        <v>3.1</v>
+        <v>2.39</v>
       </c>
       <c r="R177">
-        <v>2.1</v>
+        <v>2.49</v>
       </c>
       <c r="S177">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="T177">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="U177">
-        <v>3.05</v>
+        <v>3.92</v>
       </c>
       <c r="V177">
-        <v>2.61</v>
+        <v>2.08</v>
       </c>
       <c r="W177">
-        <v>1.46</v>
+        <v>1.7</v>
       </c>
       <c r="X177">
-        <v>6.3</v>
+        <v>4.45</v>
       </c>
       <c r="Y177">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="Z177">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="AA177">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AB177">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="AC177">
         <v>1.02</v>
       </c>
       <c r="AD177">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AE177">
+        <v>1.14</v>
+      </c>
+      <c r="AF177">
+        <v>5.75</v>
+      </c>
+      <c r="AG177">
+        <v>1.4</v>
+      </c>
+      <c r="AH177">
+        <v>2.73</v>
+      </c>
+      <c r="AI177">
+        <v>1.45</v>
+      </c>
+      <c r="AJ177">
+        <v>2.7</v>
+      </c>
+      <c r="AK177">
+        <v>1.31</v>
+      </c>
+      <c r="AL177">
+        <v>1.23</v>
+      </c>
+      <c r="AM177">
+        <v>1.86</v>
+      </c>
+      <c r="AN177">
         <v>1.2</v>
       </c>
-      <c r="AF177">
+      <c r="AO177">
+        <v>1.36</v>
+      </c>
+      <c r="AP177">
+        <v>1.33</v>
+      </c>
+      <c r="AQ177">
+        <v>1.25</v>
+      </c>
+      <c r="AR177">
+        <v>1.66</v>
+      </c>
+      <c r="AS177">
+        <v>1.33</v>
+      </c>
+      <c r="AT177">
+        <v>2.99</v>
+      </c>
+      <c r="AU177">
+        <v>7</v>
+      </c>
+      <c r="AV177">
         <v>4</v>
       </c>
-      <c r="AG177">
-        <v>1.7</v>
-      </c>
-      <c r="AH177">
-        <v>2.05</v>
-      </c>
-      <c r="AI177">
-        <v>1.6</v>
-      </c>
-      <c r="AJ177">
-        <v>2.3</v>
-      </c>
-      <c r="AK177">
-        <v>1.51</v>
-      </c>
-      <c r="AL177">
-        <v>1.3</v>
-      </c>
-      <c r="AM177">
-        <v>1.5</v>
-      </c>
-      <c r="AN177">
-        <v>1</v>
-      </c>
-      <c r="AO177">
-        <v>1.09</v>
-      </c>
-      <c r="AP177">
-        <v>1.18</v>
-      </c>
-      <c r="AQ177">
-        <v>1</v>
-      </c>
-      <c r="AR177">
-        <v>1.23</v>
-      </c>
-      <c r="AS177">
-        <v>1.27</v>
-      </c>
-      <c r="AT177">
-        <v>2.5</v>
-      </c>
-      <c r="AU177">
+      <c r="AW177">
         <v>4</v>
       </c>
-      <c r="AV177">
-        <v>3</v>
-      </c>
-      <c r="AW177">
-        <v>8</v>
-      </c>
       <c r="AX177">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AY177">
+        <v>15</v>
+      </c>
+      <c r="AZ177">
         <v>12</v>
       </c>
-      <c r="AZ177">
-        <v>14</v>
-      </c>
       <c r="BA177">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB177">
         <v>7</v>
       </c>
       <c r="BC177">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD177">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="BE177">
         <v>8.5</v>
       </c>
       <c r="BF177">
-        <v>1.91</v>
+        <v>2.6</v>
       </c>
       <c r="BG177">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="BH177">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="BI177">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="BJ177">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="BK177">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="BL177">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="BM177">
+        <v>1.8</v>
+      </c>
+      <c r="BN177">
+        <v>2</v>
+      </c>
+      <c r="BO177">
+        <v>1.94</v>
+      </c>
+      <c r="BP177">
         <v>1.77</v>
-      </c>
-      <c r="BN177">
-        <v>1.95</v>
-      </c>
-      <c r="BO177">
-        <v>2.07</v>
-      </c>
-      <c r="BP177">
-        <v>1.67</v>
       </c>
     </row>
     <row r="178" spans="1:68">
@@ -37778,7 +37778,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>7295141</v>
+        <v>7295138</v>
       </c>
       <c r="C178" t="s">
         <v>68</v>
@@ -37787,196 +37787,196 @@
         <v>69</v>
       </c>
       <c r="E178" s="2">
-        <v>45556.45833333334</v>
+        <v>45556.54166666666</v>
       </c>
       <c r="F178">
         <v>23</v>
       </c>
       <c r="G178" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H178" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K178">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L178">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N178">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O178" t="s">
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>305</v>
+        <v>87</v>
       </c>
       <c r="Q178">
-        <v>2.39</v>
+        <v>3.1</v>
       </c>
       <c r="R178">
-        <v>2.49</v>
+        <v>2.1</v>
       </c>
       <c r="S178">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="T178">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="U178">
-        <v>3.92</v>
+        <v>3.05</v>
       </c>
       <c r="V178">
-        <v>2.08</v>
+        <v>2.61</v>
       </c>
       <c r="W178">
-        <v>1.7</v>
+        <v>1.46</v>
       </c>
       <c r="X178">
-        <v>4.45</v>
+        <v>6.3</v>
       </c>
       <c r="Y178">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="Z178">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="AA178">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AB178">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="AC178">
         <v>1.02</v>
       </c>
       <c r="AD178">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="AE178">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AF178">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="AG178">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AH178">
-        <v>2.73</v>
+        <v>2.05</v>
       </c>
       <c r="AI178">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AJ178">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="AK178">
-        <v>1.31</v>
+        <v>1.51</v>
       </c>
       <c r="AL178">
+        <v>1.3</v>
+      </c>
+      <c r="AM178">
+        <v>1.5</v>
+      </c>
+      <c r="AN178">
+        <v>1</v>
+      </c>
+      <c r="AO178">
+        <v>1.09</v>
+      </c>
+      <c r="AP178">
+        <v>1.18</v>
+      </c>
+      <c r="AQ178">
+        <v>1</v>
+      </c>
+      <c r="AR178">
         <v>1.23</v>
       </c>
-      <c r="AM178">
-        <v>1.86</v>
-      </c>
-      <c r="AN178">
-        <v>1.2</v>
-      </c>
-      <c r="AO178">
-        <v>1.36</v>
-      </c>
-      <c r="AP178">
-        <v>1.33</v>
-      </c>
-      <c r="AQ178">
-        <v>1.25</v>
-      </c>
-      <c r="AR178">
-        <v>1.66</v>
-      </c>
       <c r="AS178">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AT178">
-        <v>2.99</v>
+        <v>2.5</v>
       </c>
       <c r="AU178">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV178">
         <v>4</v>
       </c>
       <c r="AW178">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX178">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AY178">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="AZ178">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="BA178">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB178">
         <v>7</v>
       </c>
       <c r="BC178">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD178">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="BE178">
         <v>8.5</v>
       </c>
       <c r="BF178">
-        <v>2.6</v>
+        <v>1.91</v>
       </c>
       <c r="BG178">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="BH178">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="BI178">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="BJ178">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="BK178">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="BL178">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="BM178">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="BN178">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BO178">
-        <v>1.94</v>
+        <v>2.07</v>
       </c>
       <c r="BP178">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="179" spans="1:68">
@@ -37984,7 +37984,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>7295143</v>
+        <v>7295139</v>
       </c>
       <c r="C179" t="s">
         <v>68</v>
@@ -37993,16 +37993,16 @@
         <v>69</v>
       </c>
       <c r="E179" s="2">
-        <v>45556.875</v>
+        <v>45557.39583333334</v>
       </c>
       <c r="F179">
         <v>23</v>
       </c>
       <c r="G179" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H179" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I179">
         <v>3</v>
@@ -38014,175 +38014,175 @@
         <v>3</v>
       </c>
       <c r="L179">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N179">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O179" t="s">
         <v>207</v>
       </c>
       <c r="P179" t="s">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c r="Q179">
-        <v>2.42</v>
+        <v>3.2</v>
       </c>
       <c r="R179">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="S179">
-        <v>4.51</v>
+        <v>2.75</v>
       </c>
       <c r="T179">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="U179">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="V179">
-        <v>2.66</v>
+        <v>2.1</v>
       </c>
       <c r="W179">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="X179">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y179">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="Z179">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="AA179">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AB179">
-        <v>3.9</v>
+        <v>2.15</v>
       </c>
       <c r="AC179">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD179">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AE179">
-        <v>1.23</v>
+        <v>1.08</v>
       </c>
       <c r="AF179">
-        <v>4.05</v>
+        <v>6.5</v>
       </c>
       <c r="AG179">
-        <v>1.7</v>
+        <v>1.38</v>
       </c>
       <c r="AH179">
-        <v>2.17</v>
+        <v>2.81</v>
       </c>
       <c r="AI179">
-        <v>1.68</v>
+        <v>1.4</v>
       </c>
       <c r="AJ179">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="AK179">
-        <v>1.18</v>
+        <v>1.57</v>
       </c>
       <c r="AL179">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AM179">
-        <v>1.87</v>
+        <v>1.44</v>
       </c>
       <c r="AN179">
-        <v>1</v>
+        <v>1.82</v>
       </c>
       <c r="AO179">
-        <v>0.5</v>
+        <v>2.09</v>
       </c>
       <c r="AP179">
-        <v>1.17</v>
+        <v>1.92</v>
       </c>
       <c r="AQ179">
-        <v>0.45</v>
+        <v>1.92</v>
       </c>
       <c r="AR179">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="AS179">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="AT179">
-        <v>2.78</v>
+        <v>3.32</v>
       </c>
       <c r="AU179">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AV179">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AW179">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX179">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY179">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="AZ179">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="BA179">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB179">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BC179">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BD179">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="BE179">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF179">
-        <v>2.6</v>
+        <v>2.43</v>
       </c>
       <c r="BG179">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="BH179">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="BI179">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="BJ179">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="BK179">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="BL179">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="BM179">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="BN179">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="BO179">
-        <v>2.37</v>
+        <v>2.11</v>
       </c>
       <c r="BP179">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="180" spans="1:68">
@@ -38190,7 +38190,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>7295142</v>
+        <v>7295143</v>
       </c>
       <c r="C180" t="s">
         <v>68</v>
@@ -38199,34 +38199,34 @@
         <v>69</v>
       </c>
       <c r="E180" s="2">
-        <v>45556.875</v>
+        <v>45557.5</v>
       </c>
       <c r="F180">
         <v>23</v>
       </c>
       <c r="G180" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H180" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J180">
         <v>0</v>
       </c>
       <c r="K180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M180">
         <v>0</v>
       </c>
       <c r="N180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O180" t="s">
         <v>208</v>
@@ -38235,160 +38235,160 @@
         <v>87</v>
       </c>
       <c r="Q180">
-        <v>1.83</v>
+        <v>2.42</v>
       </c>
       <c r="R180">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="S180">
-        <v>5.5</v>
+        <v>4.51</v>
       </c>
       <c r="T180">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="U180">
         <v>3.3</v>
       </c>
       <c r="V180">
-        <v>2.35</v>
+        <v>2.66</v>
       </c>
       <c r="W180">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="X180">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y180">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z180">
-        <v>1.47</v>
+        <v>1.8</v>
       </c>
       <c r="AA180">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="AB180">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="AC180">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD180">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE180">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="AF180">
-        <v>4.5</v>
+        <v>4.05</v>
       </c>
       <c r="AG180">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AH180">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="AI180">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="AJ180">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AK180">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AL180">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AM180">
-        <v>2.55</v>
+        <v>1.87</v>
       </c>
       <c r="AN180">
-        <v>2.27</v>
+        <v>1</v>
       </c>
       <c r="AO180">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="AP180">
-        <v>2.33</v>
+        <v>1.17</v>
       </c>
       <c r="AQ180">
-        <v>0.83</v>
+        <v>0.45</v>
       </c>
       <c r="AR180">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AS180">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AT180">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="AU180">
         <v>8</v>
       </c>
       <c r="AV180">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW180">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AX180">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY180">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ180">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="BA180">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BB180">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BC180">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BD180">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="BE180">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="BF180">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="BG180">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BH180">
-        <v>4.25</v>
+        <v>4.6</v>
       </c>
       <c r="BI180">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="BJ180">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="BK180">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="BL180">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="BM180">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="BN180">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="BO180">
-        <v>2.52</v>
+        <v>2.37</v>
       </c>
       <c r="BP180">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="181" spans="1:68">
@@ -38396,7 +38396,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>7295145</v>
+        <v>7295142</v>
       </c>
       <c r="C181" t="s">
         <v>68</v>
@@ -38405,79 +38405,79 @@
         <v>69</v>
       </c>
       <c r="E181" s="2">
-        <v>45556.875</v>
+        <v>45557.5</v>
       </c>
       <c r="F181">
         <v>23</v>
       </c>
       <c r="G181" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H181" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J181">
         <v>0</v>
       </c>
       <c r="K181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L181">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M181">
         <v>0</v>
       </c>
       <c r="N181">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O181" t="s">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c r="P181" t="s">
         <v>87</v>
       </c>
       <c r="Q181">
-        <v>2.75</v>
+        <v>1.83</v>
       </c>
       <c r="R181">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S181">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="T181">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="U181">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="V181">
-        <v>2.63</v>
+        <v>2.35</v>
       </c>
       <c r="W181">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X181">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y181">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z181">
-        <v>2.15</v>
+        <v>1.47</v>
       </c>
       <c r="AA181">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="AB181">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC181">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD181">
         <v>11</v>
@@ -38486,115 +38486,115 @@
         <v>1.2</v>
       </c>
       <c r="AF181">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AG181">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="AH181">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
       <c r="AI181">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AJ181">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AK181">
+        <v>1.14</v>
+      </c>
+      <c r="AL181">
+        <v>1.19</v>
+      </c>
+      <c r="AM181">
+        <v>2.55</v>
+      </c>
+      <c r="AN181">
+        <v>2.27</v>
+      </c>
+      <c r="AO181">
+        <v>0.91</v>
+      </c>
+      <c r="AP181">
+        <v>2.33</v>
+      </c>
+      <c r="AQ181">
+        <v>0.83</v>
+      </c>
+      <c r="AR181">
+        <v>1.46</v>
+      </c>
+      <c r="AS181">
         <v>1.36</v>
       </c>
-      <c r="AL181">
-        <v>1.28</v>
-      </c>
-      <c r="AM181">
-        <v>1.71</v>
-      </c>
-      <c r="AN181">
-        <v>1.6</v>
-      </c>
-      <c r="AO181">
-        <v>0.8</v>
-      </c>
-      <c r="AP181">
+      <c r="AT181">
+        <v>2.82</v>
+      </c>
+      <c r="AU181">
+        <v>9</v>
+      </c>
+      <c r="AV181">
+        <v>3</v>
+      </c>
+      <c r="AW181">
+        <v>12</v>
+      </c>
+      <c r="AX181">
+        <v>2</v>
+      </c>
+      <c r="AY181">
+        <v>30</v>
+      </c>
+      <c r="AZ181">
+        <v>8</v>
+      </c>
+      <c r="BA181">
+        <v>13</v>
+      </c>
+      <c r="BB181">
+        <v>1</v>
+      </c>
+      <c r="BC181">
+        <v>14</v>
+      </c>
+      <c r="BD181">
+        <v>1.2</v>
+      </c>
+      <c r="BE181">
+        <v>11</v>
+      </c>
+      <c r="BF181">
+        <v>5.5</v>
+      </c>
+      <c r="BG181">
+        <v>1.2</v>
+      </c>
+      <c r="BH181">
+        <v>4.25</v>
+      </c>
+      <c r="BI181">
+        <v>1.31</v>
+      </c>
+      <c r="BJ181">
+        <v>3.15</v>
+      </c>
+      <c r="BK181">
         <v>1.55</v>
       </c>
-      <c r="AQ181">
-        <v>0.82</v>
-      </c>
-      <c r="AR181">
-        <v>1.39</v>
-      </c>
-      <c r="AS181">
-        <v>0.89</v>
-      </c>
-      <c r="AT181">
-        <v>2.28</v>
-      </c>
-      <c r="AU181">
-        <v>4</v>
-      </c>
-      <c r="AV181">
-        <v>2</v>
-      </c>
-      <c r="AW181">
-        <v>4</v>
-      </c>
-      <c r="AX181">
-        <v>5</v>
-      </c>
-      <c r="AY181">
-        <v>8</v>
-      </c>
-      <c r="AZ181">
-        <v>7</v>
-      </c>
-      <c r="BA181">
-        <v>3</v>
-      </c>
-      <c r="BB181">
-        <v>5</v>
-      </c>
-      <c r="BC181">
-        <v>8</v>
-      </c>
-      <c r="BD181">
-        <v>1.8</v>
-      </c>
-      <c r="BE181">
-        <v>8.5</v>
-      </c>
-      <c r="BF181">
+      <c r="BL181">
         <v>2.3</v>
       </c>
-      <c r="BG181">
-        <v>1.08</v>
-      </c>
-      <c r="BH181">
-        <v>5.15</v>
-      </c>
-      <c r="BI181">
-        <v>1.29</v>
-      </c>
-      <c r="BJ181">
-        <v>3.45</v>
-      </c>
-      <c r="BK181">
-        <v>1.38</v>
-      </c>
-      <c r="BL181">
-        <v>2.8</v>
-      </c>
       <c r="BM181">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="BN181">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="BO181">
-        <v>2.1</v>
+        <v>2.52</v>
       </c>
       <c r="BP181">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="182" spans="1:68">
@@ -38602,7 +38602,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>7295139</v>
+        <v>7295145</v>
       </c>
       <c r="C182" t="s">
         <v>68</v>
@@ -38611,196 +38611,196 @@
         <v>69</v>
       </c>
       <c r="E182" s="2">
-        <v>45556.875</v>
+        <v>45557.5</v>
       </c>
       <c r="F182">
         <v>23</v>
       </c>
       <c r="G182" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H182" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+      <c r="O182" t="s">
+        <v>87</v>
+      </c>
+      <c r="P182" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q182">
+        <v>2.75</v>
+      </c>
+      <c r="R182">
+        <v>2.25</v>
+      </c>
+      <c r="S182">
+        <v>3.6</v>
+      </c>
+      <c r="T182">
+        <v>1.33</v>
+      </c>
+      <c r="U182">
+        <v>3.25</v>
+      </c>
+      <c r="V182">
+        <v>2.63</v>
+      </c>
+      <c r="W182">
+        <v>1.44</v>
+      </c>
+      <c r="X182">
+        <v>7</v>
+      </c>
+      <c r="Y182">
+        <v>1.1</v>
+      </c>
+      <c r="Z182">
+        <v>2.15</v>
+      </c>
+      <c r="AA182">
+        <v>3.5</v>
+      </c>
+      <c r="AB182">
         <v>3</v>
-      </c>
-      <c r="J182">
-        <v>0</v>
-      </c>
-      <c r="K182">
-        <v>3</v>
-      </c>
-      <c r="L182">
-        <v>4</v>
-      </c>
-      <c r="M182">
-        <v>1</v>
-      </c>
-      <c r="N182">
-        <v>5</v>
-      </c>
-      <c r="O182" t="s">
-        <v>209</v>
-      </c>
-      <c r="P182" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q182">
-        <v>3.2</v>
-      </c>
-      <c r="R182">
-        <v>2.5</v>
-      </c>
-      <c r="S182">
-        <v>2.75</v>
-      </c>
-      <c r="T182">
-        <v>1.22</v>
-      </c>
-      <c r="U182">
-        <v>4</v>
-      </c>
-      <c r="V182">
-        <v>2.1</v>
-      </c>
-      <c r="W182">
-        <v>1.67</v>
-      </c>
-      <c r="X182">
-        <v>4.5</v>
-      </c>
-      <c r="Y182">
-        <v>1.18</v>
-      </c>
-      <c r="Z182">
-        <v>2.9</v>
-      </c>
-      <c r="AA182">
-        <v>3.75</v>
-      </c>
-      <c r="AB182">
-        <v>2.15</v>
       </c>
       <c r="AC182">
         <v>1.01</v>
       </c>
       <c r="AD182">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE182">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AF182">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AG182">
-        <v>1.38</v>
+        <v>1.76</v>
       </c>
       <c r="AH182">
-        <v>2.81</v>
+        <v>2.06</v>
       </c>
       <c r="AI182">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AJ182">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="AK182">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="AL182">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AM182">
-        <v>1.44</v>
+        <v>1.71</v>
       </c>
       <c r="AN182">
-        <v>1.82</v>
+        <v>1.6</v>
       </c>
       <c r="AO182">
-        <v>2.09</v>
+        <v>0.8</v>
       </c>
       <c r="AP182">
-        <v>1.92</v>
+        <v>1.55</v>
       </c>
       <c r="AQ182">
-        <v>1.92</v>
+        <v>0.82</v>
       </c>
       <c r="AR182">
-        <v>1.85</v>
+        <v>1.39</v>
       </c>
       <c r="AS182">
-        <v>1.47</v>
+        <v>0.89</v>
       </c>
       <c r="AT182">
-        <v>3.32</v>
+        <v>2.28</v>
       </c>
       <c r="AU182">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV182">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW182">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX182">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY182">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ182">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA182">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB182">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC182">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD182">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="BE182">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF182">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="BG182">
         <v>1.08</v>
       </c>
       <c r="BH182">
-        <v>5.2</v>
+        <v>5.15</v>
       </c>
       <c r="BI182">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="BJ182">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="BK182">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="BL182">
         <v>2.8</v>
       </c>
       <c r="BM182">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="BN182">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="BO182">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="BP182">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="183" spans="1:68">
@@ -38817,7 +38817,7 @@
         <v>69</v>
       </c>
       <c r="E183" s="2">
-        <v>45556.875</v>
+        <v>45557.59375</v>
       </c>
       <c r="F183">
         <v>23</v>
@@ -38943,10 +38943,10 @@
         <v>2.68</v>
       </c>
       <c r="AU183">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV183">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW183">
         <v>7</v>
@@ -38955,10 +38955,10 @@
         <v>8</v>
       </c>
       <c r="AY183">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ183">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="BA183">
         <v>7</v>
@@ -39023,7 +39023,7 @@
         <v>69</v>
       </c>
       <c r="E184" s="2">
-        <v>45557.875</v>
+        <v>45558.58333333334</v>
       </c>
       <c r="F184">
         <v>23</v>
@@ -39149,10 +39149,10 @@
         <v>2.83</v>
       </c>
       <c r="AU184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW184">
         <v>3</v>
@@ -39161,10 +39161,10 @@
         <v>2</v>
       </c>
       <c r="AY184">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ184">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA184">
         <v>1</v>
@@ -39220,7 +39220,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>7295147</v>
+        <v>7295150</v>
       </c>
       <c r="C185" t="s">
         <v>68</v>
@@ -39229,82 +39229,82 @@
         <v>69</v>
       </c>
       <c r="E185" s="2">
-        <v>45562.875</v>
+        <v>45563.375</v>
       </c>
       <c r="F185">
         <v>24</v>
       </c>
       <c r="G185" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H185" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L185">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N185">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O185" t="s">
-        <v>87</v>
+        <v>212</v>
       </c>
       <c r="P185" t="s">
-        <v>143</v>
+        <v>307</v>
       </c>
       <c r="Q185">
-        <v>4.33</v>
+        <v>1.91</v>
       </c>
       <c r="R185">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S185">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="T185">
         <v>1.3</v>
       </c>
       <c r="U185">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="V185">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="W185">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X185">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="Y185">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="Z185">
-        <v>3.7</v>
+        <v>1.43</v>
       </c>
       <c r="AA185">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="AB185">
-        <v>1.88</v>
+        <v>6.85</v>
       </c>
       <c r="AC185">
         <v>1.01</v>
       </c>
       <c r="AD185">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE185">
         <v>1.14</v>
@@ -39313,112 +39313,112 @@
         <v>4.8</v>
       </c>
       <c r="AG185">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AH185">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="AI185">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AJ185">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="AK185">
-        <v>1.9</v>
+        <v>1.13</v>
       </c>
       <c r="AL185">
+        <v>1.19</v>
+      </c>
+      <c r="AM185">
+        <v>2.5</v>
+      </c>
+      <c r="AN185">
+        <v>1.82</v>
+      </c>
+      <c r="AO185">
         <v>1.27</v>
       </c>
-      <c r="AM185">
-        <v>1.24</v>
-      </c>
-      <c r="AN185">
-        <v>1.18</v>
-      </c>
-      <c r="AO185">
-        <v>1.82</v>
-      </c>
       <c r="AP185">
-        <v>1.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ185">
-        <v>1.92</v>
+        <v>1.17</v>
       </c>
       <c r="AR185">
-        <v>1.37</v>
+        <v>1.79</v>
       </c>
       <c r="AS185">
-        <v>1.55</v>
+        <v>1.22</v>
       </c>
       <c r="AT185">
-        <v>2.92</v>
+        <v>3.01</v>
       </c>
       <c r="AU185">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV185">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW185">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX185">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY185">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AZ185">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA185">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB185">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BC185">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BD185">
-        <v>2.88</v>
+        <v>1.25</v>
       </c>
       <c r="BE185">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BF185">
-        <v>1.53</v>
+        <v>4.5</v>
       </c>
       <c r="BG185">
         <v>1.13</v>
       </c>
       <c r="BH185">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="BI185">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="BJ185">
-        <v>3.6</v>
+        <v>2.97</v>
       </c>
       <c r="BK185">
-        <v>1.34</v>
+        <v>1.57</v>
       </c>
       <c r="BL185">
-        <v>3</v>
+        <v>2.23</v>
       </c>
       <c r="BM185">
-        <v>1.61</v>
+        <v>2</v>
       </c>
       <c r="BN185">
-        <v>2.17</v>
+        <v>1.73</v>
       </c>
       <c r="BO185">
-        <v>2.05</v>
+        <v>2.48</v>
       </c>
       <c r="BP185">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="186" spans="1:68">
@@ -39426,7 +39426,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>7295149</v>
+        <v>7295147</v>
       </c>
       <c r="C186" t="s">
         <v>68</v>
@@ -39435,25 +39435,25 @@
         <v>69</v>
       </c>
       <c r="E186" s="2">
-        <v>45562.875</v>
+        <v>45563.54166666666</v>
       </c>
       <c r="F186">
         <v>24</v>
       </c>
       <c r="G186" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H186" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I186">
         <v>0</v>
       </c>
       <c r="J186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L186">
         <v>0</v>
@@ -39468,163 +39468,163 @@
         <v>87</v>
       </c>
       <c r="P186" t="s">
-        <v>263</v>
+        <v>143</v>
       </c>
       <c r="Q186">
+        <v>4.33</v>
+      </c>
+      <c r="R186">
+        <v>2.3</v>
+      </c>
+      <c r="S186">
+        <v>2.3</v>
+      </c>
+      <c r="T186">
+        <v>1.3</v>
+      </c>
+      <c r="U186">
+        <v>3.2</v>
+      </c>
+      <c r="V186">
+        <v>2.38</v>
+      </c>
+      <c r="W186">
+        <v>1.53</v>
+      </c>
+      <c r="X186">
+        <v>5.6</v>
+      </c>
+      <c r="Y186">
+        <v>1.12</v>
+      </c>
+      <c r="Z186">
+        <v>3.7</v>
+      </c>
+      <c r="AA186">
+        <v>3.75</v>
+      </c>
+      <c r="AB186">
+        <v>1.88</v>
+      </c>
+      <c r="AC186">
+        <v>1.01</v>
+      </c>
+      <c r="AD186">
+        <v>11</v>
+      </c>
+      <c r="AE186">
+        <v>1.14</v>
+      </c>
+      <c r="AF186">
+        <v>4.8</v>
+      </c>
+      <c r="AG186">
+        <v>1.64</v>
+      </c>
+      <c r="AH186">
+        <v>2.12</v>
+      </c>
+      <c r="AI186">
+        <v>1.6</v>
+      </c>
+      <c r="AJ186">
+        <v>2.38</v>
+      </c>
+      <c r="AK186">
+        <v>1.9</v>
+      </c>
+      <c r="AL186">
+        <v>1.27</v>
+      </c>
+      <c r="AM186">
+        <v>1.24</v>
+      </c>
+      <c r="AN186">
+        <v>1.18</v>
+      </c>
+      <c r="AO186">
+        <v>1.82</v>
+      </c>
+      <c r="AP186">
+        <v>1.08</v>
+      </c>
+      <c r="AQ186">
+        <v>1.92</v>
+      </c>
+      <c r="AR186">
+        <v>1.37</v>
+      </c>
+      <c r="AS186">
+        <v>1.55</v>
+      </c>
+      <c r="AT186">
+        <v>2.92</v>
+      </c>
+      <c r="AU186">
+        <v>7</v>
+      </c>
+      <c r="AV186">
+        <v>4</v>
+      </c>
+      <c r="AW186">
+        <v>5</v>
+      </c>
+      <c r="AX186">
+        <v>2</v>
+      </c>
+      <c r="AY186">
+        <v>17</v>
+      </c>
+      <c r="AZ186">
+        <v>11</v>
+      </c>
+      <c r="BA186">
+        <v>1</v>
+      </c>
+      <c r="BB186">
+        <v>1</v>
+      </c>
+      <c r="BC186">
+        <v>2</v>
+      </c>
+      <c r="BD186">
         <v>2.88</v>
       </c>
-      <c r="R186">
-        <v>2.25</v>
-      </c>
-      <c r="S186">
-        <v>3.5</v>
-      </c>
-      <c r="T186">
-        <v>1.33</v>
-      </c>
-      <c r="U186">
-        <v>3.25</v>
-      </c>
-      <c r="V186">
-        <v>2.63</v>
-      </c>
-      <c r="W186">
-        <v>1.44</v>
-      </c>
-      <c r="X186">
-        <v>6.5</v>
-      </c>
-      <c r="Y186">
-        <v>1.11</v>
-      </c>
-      <c r="Z186">
-        <v>2.25</v>
-      </c>
-      <c r="AA186">
-        <v>3.45</v>
-      </c>
-      <c r="AB186">
-        <v>2.8</v>
-      </c>
-      <c r="AC186">
-        <v>1.02</v>
-      </c>
-      <c r="AD186">
-        <v>10</v>
-      </c>
-      <c r="AE186">
-        <v>1.18</v>
-      </c>
-      <c r="AF186">
-        <v>3.78</v>
-      </c>
-      <c r="AG186">
-        <v>1.71</v>
-      </c>
-      <c r="AH186">
-        <v>2.15</v>
-      </c>
-      <c r="AI186">
-        <v>1.62</v>
-      </c>
-      <c r="AJ186">
-        <v>2.2</v>
-      </c>
-      <c r="AK186">
-        <v>1.41</v>
-      </c>
-      <c r="AL186">
-        <v>1.28</v>
-      </c>
-      <c r="AM186">
-        <v>1.63</v>
-      </c>
-      <c r="AN186">
-        <v>1</v>
-      </c>
-      <c r="AO186">
-        <v>1.55</v>
-      </c>
-      <c r="AP186">
-        <v>0.92</v>
-      </c>
-      <c r="AQ186">
-        <v>1.67</v>
-      </c>
-      <c r="AR186">
-        <v>1.57</v>
-      </c>
-      <c r="AS186">
-        <v>1.17</v>
-      </c>
-      <c r="AT186">
-        <v>2.74</v>
-      </c>
-      <c r="AU186">
-        <v>-1</v>
-      </c>
-      <c r="AV186">
-        <v>-1</v>
-      </c>
-      <c r="AW186">
-        <v>-1</v>
-      </c>
-      <c r="AX186">
-        <v>-1</v>
-      </c>
-      <c r="AY186">
-        <v>-1</v>
-      </c>
-      <c r="AZ186">
-        <v>-1</v>
-      </c>
-      <c r="BA186">
-        <v>-1</v>
-      </c>
-      <c r="BB186">
-        <v>-1</v>
-      </c>
-      <c r="BC186">
-        <v>-1</v>
-      </c>
-      <c r="BD186">
-        <v>1.73</v>
-      </c>
       <c r="BE186">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="BF186">
-        <v>2.38</v>
+        <v>1.53</v>
       </c>
       <c r="BG186">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="BH186">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="BI186">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="BJ186">
-        <v>3.22</v>
+        <v>3.6</v>
       </c>
       <c r="BK186">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="BL186">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="BM186">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="BN186">
-        <v>1.8</v>
+        <v>2.17</v>
       </c>
       <c r="BO186">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="BP186">
-        <v>1.52</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="187" spans="1:68">
@@ -39632,7 +39632,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>7295150</v>
+        <v>7295149</v>
       </c>
       <c r="C187" t="s">
         <v>68</v>
@@ -39641,196 +39641,196 @@
         <v>69</v>
       </c>
       <c r="E187" s="2">
-        <v>45562.875</v>
+        <v>45563.625</v>
       </c>
       <c r="F187">
         <v>24</v>
       </c>
       <c r="G187" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H187" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I187">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J187">
         <v>0</v>
       </c>
       <c r="K187">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L187">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187" t="s">
+        <v>87</v>
+      </c>
+      <c r="P187" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q187">
+        <v>2.88</v>
+      </c>
+      <c r="R187">
+        <v>2.25</v>
+      </c>
+      <c r="S187">
+        <v>3.5</v>
+      </c>
+      <c r="T187">
+        <v>1.33</v>
+      </c>
+      <c r="U187">
+        <v>3.25</v>
+      </c>
+      <c r="V187">
+        <v>2.63</v>
+      </c>
+      <c r="W187">
+        <v>1.44</v>
+      </c>
+      <c r="X187">
+        <v>6.5</v>
+      </c>
+      <c r="Y187">
+        <v>1.11</v>
+      </c>
+      <c r="Z187">
+        <v>2.25</v>
+      </c>
+      <c r="AA187">
+        <v>3.45</v>
+      </c>
+      <c r="AB187">
+        <v>2.8</v>
+      </c>
+      <c r="AC187">
+        <v>1.02</v>
+      </c>
+      <c r="AD187">
+        <v>10</v>
+      </c>
+      <c r="AE187">
+        <v>1.18</v>
+      </c>
+      <c r="AF187">
+        <v>3.78</v>
+      </c>
+      <c r="AG187">
+        <v>1.71</v>
+      </c>
+      <c r="AH187">
+        <v>2.15</v>
+      </c>
+      <c r="AI187">
+        <v>1.62</v>
+      </c>
+      <c r="AJ187">
+        <v>2.2</v>
+      </c>
+      <c r="AK187">
+        <v>1.41</v>
+      </c>
+      <c r="AL187">
+        <v>1.28</v>
+      </c>
+      <c r="AM187">
+        <v>1.63</v>
+      </c>
+      <c r="AN187">
+        <v>1</v>
+      </c>
+      <c r="AO187">
+        <v>1.55</v>
+      </c>
+      <c r="AP187">
+        <v>0.92</v>
+      </c>
+      <c r="AQ187">
+        <v>1.67</v>
+      </c>
+      <c r="AR187">
+        <v>1.57</v>
+      </c>
+      <c r="AS187">
+        <v>1.17</v>
+      </c>
+      <c r="AT187">
+        <v>2.74</v>
+      </c>
+      <c r="AU187">
         <v>3</v>
-      </c>
-      <c r="N187">
-        <v>8</v>
-      </c>
-      <c r="O187" t="s">
-        <v>212</v>
-      </c>
-      <c r="P187" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q187">
-        <v>1.91</v>
-      </c>
-      <c r="R187">
-        <v>2.4</v>
-      </c>
-      <c r="S187">
-        <v>6</v>
-      </c>
-      <c r="T187">
-        <v>1.3</v>
-      </c>
-      <c r="U187">
-        <v>3.4</v>
-      </c>
-      <c r="V187">
-        <v>2.3</v>
-      </c>
-      <c r="W187">
-        <v>1.57</v>
-      </c>
-      <c r="X187">
-        <v>5</v>
-      </c>
-      <c r="Y187">
-        <v>1.14</v>
-      </c>
-      <c r="Z187">
-        <v>1.43</v>
-      </c>
-      <c r="AA187">
-        <v>4.75</v>
-      </c>
-      <c r="AB187">
-        <v>6.85</v>
-      </c>
-      <c r="AC187">
-        <v>1.01</v>
-      </c>
-      <c r="AD187">
-        <v>13</v>
-      </c>
-      <c r="AE187">
-        <v>1.14</v>
-      </c>
-      <c r="AF187">
-        <v>4.8</v>
-      </c>
-      <c r="AG187">
-        <v>1.63</v>
-      </c>
-      <c r="AH187">
-        <v>2.24</v>
-      </c>
-      <c r="AI187">
-        <v>1.73</v>
-      </c>
-      <c r="AJ187">
-        <v>2.1</v>
-      </c>
-      <c r="AK187">
-        <v>1.13</v>
-      </c>
-      <c r="AL187">
-        <v>1.19</v>
-      </c>
-      <c r="AM187">
-        <v>2.5</v>
-      </c>
-      <c r="AN187">
-        <v>1.82</v>
-      </c>
-      <c r="AO187">
-        <v>1.27</v>
-      </c>
-      <c r="AP187">
-        <v>1.92</v>
-      </c>
-      <c r="AQ187">
-        <v>1.17</v>
-      </c>
-      <c r="AR187">
-        <v>1.79</v>
-      </c>
-      <c r="AS187">
-        <v>1.22</v>
-      </c>
-      <c r="AT187">
-        <v>3.01</v>
-      </c>
-      <c r="AU187">
-        <v>6</v>
       </c>
       <c r="AV187">
         <v>3</v>
       </c>
       <c r="AW187">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY187">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ187">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA187">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC187">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD187">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="BE187">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="BF187">
-        <v>4.5</v>
+        <v>2.38</v>
       </c>
       <c r="BG187">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="BH187">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="BI187">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="BJ187">
-        <v>2.97</v>
+        <v>3.22</v>
       </c>
       <c r="BK187">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="BL187">
-        <v>2.23</v>
+        <v>2.4</v>
       </c>
       <c r="BM187">
         <v>2</v>
       </c>
       <c r="BN187">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="BO187">
-        <v>2.48</v>
+        <v>2.3</v>
       </c>
       <c r="BP187">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="188" spans="1:68">
@@ -39838,7 +39838,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>7295146</v>
+        <v>7295151</v>
       </c>
       <c r="C188" t="s">
         <v>68</v>
@@ -39847,196 +39847,196 @@
         <v>69</v>
       </c>
       <c r="E188" s="2">
-        <v>45563.875</v>
+        <v>45564.39583333334</v>
       </c>
       <c r="F188">
         <v>24</v>
       </c>
       <c r="G188" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H188" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188">
+        <v>2</v>
+      </c>
+      <c r="O188" t="s">
+        <v>143</v>
+      </c>
+      <c r="P188" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q188">
+        <v>2.25</v>
+      </c>
+      <c r="R188">
+        <v>2.38</v>
+      </c>
+      <c r="S188">
+        <v>3.8</v>
+      </c>
+      <c r="T188">
+        <v>1.3</v>
+      </c>
+      <c r="U188">
+        <v>3.4</v>
+      </c>
+      <c r="V188">
+        <v>2.38</v>
+      </c>
+      <c r="W188">
+        <v>1.53</v>
+      </c>
+      <c r="X188">
+        <v>5</v>
+      </c>
+      <c r="Y188">
+        <v>1.14</v>
+      </c>
+      <c r="Z188">
+        <v>1.8</v>
+      </c>
+      <c r="AA188">
+        <v>3.6</v>
+      </c>
+      <c r="AB188">
+        <v>3.6</v>
+      </c>
+      <c r="AC188">
+        <v>1.03</v>
+      </c>
+      <c r="AD188">
+        <v>12</v>
+      </c>
+      <c r="AE188">
+        <v>1.14</v>
+      </c>
+      <c r="AF188">
+        <v>4.8</v>
+      </c>
+      <c r="AG188">
+        <v>1.55</v>
+      </c>
+      <c r="AH188">
+        <v>2.2</v>
+      </c>
+      <c r="AI188">
+        <v>1.57</v>
+      </c>
+      <c r="AJ188">
+        <v>2.3</v>
+      </c>
+      <c r="AK188">
+        <v>1.22</v>
+      </c>
+      <c r="AL188">
+        <v>1.25</v>
+      </c>
+      <c r="AM188">
+        <v>1.95</v>
+      </c>
+      <c r="AN188">
+        <v>1.36</v>
+      </c>
+      <c r="AO188">
+        <v>1.25</v>
+      </c>
+      <c r="AP188">
+        <v>1.33</v>
+      </c>
+      <c r="AQ188">
+        <v>1.23</v>
+      </c>
+      <c r="AR188">
+        <v>1.64</v>
+      </c>
+      <c r="AS188">
+        <v>1.24</v>
+      </c>
+      <c r="AT188">
+        <v>2.88</v>
+      </c>
+      <c r="AU188">
         <v>3</v>
       </c>
-      <c r="J188">
-        <v>0</v>
-      </c>
-      <c r="K188">
-        <v>3</v>
-      </c>
-      <c r="L188">
+      <c r="AV188">
         <v>4</v>
       </c>
-      <c r="M188">
-        <v>0</v>
-      </c>
-      <c r="N188">
-        <v>4</v>
-      </c>
-      <c r="O188" t="s">
-        <v>213</v>
-      </c>
-      <c r="P188" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q188">
-        <v>1.44</v>
-      </c>
-      <c r="R188">
-        <v>3.25</v>
-      </c>
-      <c r="S188">
-        <v>8</v>
-      </c>
-      <c r="T188">
-        <v>1.17</v>
-      </c>
-      <c r="U188">
-        <v>4.5</v>
-      </c>
-      <c r="V188">
-        <v>1.8</v>
-      </c>
-      <c r="W188">
-        <v>1.91</v>
-      </c>
-      <c r="X188">
-        <v>3.4</v>
-      </c>
-      <c r="Y188">
-        <v>1.3</v>
-      </c>
-      <c r="Z188">
-        <v>1.14</v>
-      </c>
-      <c r="AA188">
+      <c r="AW188">
         <v>7</v>
       </c>
-      <c r="AB188">
-        <v>11</v>
-      </c>
-      <c r="AC188">
-        <v>1.01</v>
-      </c>
-      <c r="AD188">
-        <v>15.25</v>
-      </c>
-      <c r="AE188">
-        <v>1.02</v>
-      </c>
-      <c r="AF188">
-        <v>7.3</v>
-      </c>
-      <c r="AG188">
+      <c r="AX188">
+        <v>9</v>
+      </c>
+      <c r="AY188">
+        <v>14</v>
+      </c>
+      <c r="AZ188">
+        <v>23</v>
+      </c>
+      <c r="BA188">
+        <v>9</v>
+      </c>
+      <c r="BB188">
+        <v>14</v>
+      </c>
+      <c r="BC188">
+        <v>23</v>
+      </c>
+      <c r="BD188">
+        <v>1.53</v>
+      </c>
+      <c r="BE188">
+        <v>9.5</v>
+      </c>
+      <c r="BF188">
+        <v>2.88</v>
+      </c>
+      <c r="BG188">
+        <v>0</v>
+      </c>
+      <c r="BH188">
+        <v>0</v>
+      </c>
+      <c r="BI188">
+        <v>1.11</v>
+      </c>
+      <c r="BJ188">
+        <v>4.6</v>
+      </c>
+      <c r="BK188">
         <v>1.25</v>
       </c>
-      <c r="AH188">
-        <v>3.5</v>
-      </c>
-      <c r="AI188">
-        <v>1.73</v>
-      </c>
-      <c r="AJ188">
-        <v>2</v>
-      </c>
-      <c r="AK188">
-        <v>1.02</v>
-      </c>
-      <c r="AL188">
-        <v>1.07</v>
-      </c>
-      <c r="AM188">
-        <v>5</v>
-      </c>
-      <c r="AN188">
-        <v>2.45</v>
-      </c>
-      <c r="AO188">
-        <v>0.82</v>
-      </c>
-      <c r="AP188">
-        <v>2.5</v>
-      </c>
-      <c r="AQ188">
-        <v>0.75</v>
-      </c>
-      <c r="AR188">
-        <v>1.75</v>
-      </c>
-      <c r="AS188">
-        <v>0.96</v>
-      </c>
-      <c r="AT188">
-        <v>2.71</v>
-      </c>
-      <c r="AU188">
-        <v>-1</v>
-      </c>
-      <c r="AV188">
-        <v>-1</v>
-      </c>
-      <c r="AW188">
-        <v>-1</v>
-      </c>
-      <c r="AX188">
-        <v>-1</v>
-      </c>
-      <c r="AY188">
-        <v>-1</v>
-      </c>
-      <c r="AZ188">
-        <v>-1</v>
-      </c>
-      <c r="BA188">
-        <v>-1</v>
-      </c>
-      <c r="BB188">
-        <v>-1</v>
-      </c>
-      <c r="BC188">
-        <v>-1</v>
-      </c>
-      <c r="BD188">
-        <v>1.06</v>
-      </c>
-      <c r="BE188">
-        <v>15</v>
-      </c>
-      <c r="BF188">
-        <v>10</v>
-      </c>
-      <c r="BG188">
-        <v>1.07</v>
-      </c>
-      <c r="BH188">
-        <v>6.7</v>
-      </c>
-      <c r="BI188">
-        <v>1.13</v>
-      </c>
-      <c r="BJ188">
-        <v>4.33</v>
-      </c>
-      <c r="BK188">
-        <v>1.27</v>
-      </c>
       <c r="BL188">
-        <v>3.04</v>
+        <v>3.14</v>
       </c>
       <c r="BM188">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="BN188">
-        <v>2.05</v>
+        <v>2.42</v>
       </c>
       <c r="BO188">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="BP188">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="189" spans="1:68">
@@ -40044,7 +40044,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>7295148</v>
+        <v>7295146</v>
       </c>
       <c r="C189" t="s">
         <v>68</v>
@@ -40053,184 +40053,184 @@
         <v>69</v>
       </c>
       <c r="E189" s="2">
-        <v>45563.875</v>
+        <v>45564.5</v>
       </c>
       <c r="F189">
         <v>24</v>
       </c>
       <c r="G189" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H189" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L189">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
         <v>4</v>
       </c>
-      <c r="N189">
+      <c r="O189" t="s">
+        <v>213</v>
+      </c>
+      <c r="P189" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q189">
+        <v>1.44</v>
+      </c>
+      <c r="R189">
+        <v>3.25</v>
+      </c>
+      <c r="S189">
+        <v>8</v>
+      </c>
+      <c r="T189">
+        <v>1.17</v>
+      </c>
+      <c r="U189">
+        <v>4.5</v>
+      </c>
+      <c r="V189">
+        <v>1.8</v>
+      </c>
+      <c r="W189">
+        <v>1.91</v>
+      </c>
+      <c r="X189">
+        <v>3.4</v>
+      </c>
+      <c r="Y189">
+        <v>1.3</v>
+      </c>
+      <c r="Z189">
+        <v>1.14</v>
+      </c>
+      <c r="AA189">
+        <v>7</v>
+      </c>
+      <c r="AB189">
+        <v>11</v>
+      </c>
+      <c r="AC189">
+        <v>1.01</v>
+      </c>
+      <c r="AD189">
+        <v>15.25</v>
+      </c>
+      <c r="AE189">
+        <v>1.02</v>
+      </c>
+      <c r="AF189">
+        <v>7.3</v>
+      </c>
+      <c r="AG189">
+        <v>1.25</v>
+      </c>
+      <c r="AH189">
+        <v>3.5</v>
+      </c>
+      <c r="AI189">
+        <v>1.73</v>
+      </c>
+      <c r="AJ189">
+        <v>2</v>
+      </c>
+      <c r="AK189">
+        <v>1.02</v>
+      </c>
+      <c r="AL189">
+        <v>1.07</v>
+      </c>
+      <c r="AM189">
         <v>5</v>
       </c>
-      <c r="O189" t="s">
-        <v>116</v>
-      </c>
-      <c r="P189" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q189">
-        <v>3.2</v>
-      </c>
-      <c r="R189">
-        <v>2.4</v>
-      </c>
-      <c r="S189">
-        <v>2.88</v>
-      </c>
-      <c r="T189">
-        <v>1.29</v>
-      </c>
-      <c r="U189">
-        <v>3.5</v>
-      </c>
-      <c r="V189">
-        <v>2.25</v>
-      </c>
-      <c r="W189">
-        <v>1.57</v>
-      </c>
-      <c r="X189">
-        <v>5.5</v>
-      </c>
-      <c r="Y189">
-        <v>1.14</v>
-      </c>
-      <c r="Z189">
+      <c r="AN189">
+        <v>2.45</v>
+      </c>
+      <c r="AO189">
+        <v>0.82</v>
+      </c>
+      <c r="AP189">
         <v>2.5</v>
       </c>
-      <c r="AA189">
-        <v>3.5</v>
-      </c>
-      <c r="AB189">
-        <v>2.3</v>
-      </c>
-      <c r="AC189">
-        <v>1.02</v>
-      </c>
-      <c r="AD189">
-        <v>19</v>
-      </c>
-      <c r="AE189">
-        <v>1.18</v>
-      </c>
-      <c r="AF189">
+      <c r="AQ189">
+        <v>0.75</v>
+      </c>
+      <c r="AR189">
+        <v>1.75</v>
+      </c>
+      <c r="AS189">
+        <v>0.96</v>
+      </c>
+      <c r="AT189">
+        <v>2.71</v>
+      </c>
+      <c r="AU189">
+        <v>6</v>
+      </c>
+      <c r="AV189">
+        <v>6</v>
+      </c>
+      <c r="AW189">
         <v>5</v>
       </c>
-      <c r="AG189">
-        <v>1.5</v>
-      </c>
-      <c r="AH189">
-        <v>2.4</v>
-      </c>
-      <c r="AI189">
-        <v>1.5</v>
-      </c>
-      <c r="AJ189">
-        <v>2.5</v>
-      </c>
-      <c r="AK189">
-        <v>1.6</v>
-      </c>
-      <c r="AL189">
-        <v>1.29</v>
-      </c>
-      <c r="AM189">
-        <v>1.44</v>
-      </c>
-      <c r="AN189">
-        <v>0.82</v>
-      </c>
-      <c r="AO189">
-        <v>1.18</v>
-      </c>
-      <c r="AP189">
-        <v>0.75</v>
-      </c>
-      <c r="AQ189">
-        <v>1.33</v>
-      </c>
-      <c r="AR189">
-        <v>1.31</v>
-      </c>
-      <c r="AS189">
-        <v>1.39</v>
-      </c>
-      <c r="AT189">
-        <v>2.7</v>
-      </c>
-      <c r="AU189">
-        <v>2</v>
-      </c>
-      <c r="AV189">
-        <v>2</v>
-      </c>
-      <c r="AW189">
-        <v>3</v>
-      </c>
       <c r="AX189">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY189">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AZ189">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BA189">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BB189">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC189">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BD189">
-        <v>2.1</v>
+        <v>1.06</v>
       </c>
       <c r="BE189">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="BF189">
-        <v>1.95</v>
+        <v>10</v>
       </c>
       <c r="BG189">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="BH189">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
       <c r="BI189">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="BJ189">
-        <v>3.74</v>
+        <v>4.33</v>
       </c>
       <c r="BK189">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="BL189">
-        <v>2.65</v>
+        <v>3.04</v>
       </c>
       <c r="BM189">
         <v>1.7</v>
@@ -40239,10 +40239,10 @@
         <v>2.05</v>
       </c>
       <c r="BO189">
-        <v>2.09</v>
+        <v>1.87</v>
       </c>
       <c r="BP189">
-        <v>1.69</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="190" spans="1:68">
@@ -40250,7 +40250,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>7295151</v>
+        <v>7295148</v>
       </c>
       <c r="C190" t="s">
         <v>68</v>
@@ -40259,22 +40259,22 @@
         <v>69</v>
       </c>
       <c r="E190" s="2">
-        <v>45563.875</v>
+        <v>45564.5</v>
       </c>
       <c r="F190">
         <v>24</v>
       </c>
       <c r="G190" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H190" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K190">
         <v>1</v>
@@ -40283,172 +40283,172 @@
         <v>1</v>
       </c>
       <c r="M190">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N190">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O190" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="P190" t="s">
-        <v>93</v>
+        <v>308</v>
       </c>
       <c r="Q190">
+        <v>3.2</v>
+      </c>
+      <c r="R190">
+        <v>2.4</v>
+      </c>
+      <c r="S190">
+        <v>2.88</v>
+      </c>
+      <c r="T190">
+        <v>1.29</v>
+      </c>
+      <c r="U190">
+        <v>3.5</v>
+      </c>
+      <c r="V190">
         <v>2.25</v>
       </c>
-      <c r="R190">
-        <v>2.38</v>
-      </c>
-      <c r="S190">
-        <v>3.8</v>
-      </c>
-      <c r="T190">
-        <v>1.3</v>
-      </c>
-      <c r="U190">
-        <v>3.4</v>
-      </c>
-      <c r="V190">
-        <v>2.38</v>
-      </c>
       <c r="W190">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X190">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y190">
         <v>1.14</v>
       </c>
       <c r="Z190">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="AA190">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AB190">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="AC190">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD190">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE190">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AF190">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AG190">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AH190">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AI190">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AJ190">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AK190">
-        <v>1.22</v>
+        <v>1.6</v>
       </c>
       <c r="AL190">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AM190">
+        <v>1.44</v>
+      </c>
+      <c r="AN190">
+        <v>0.82</v>
+      </c>
+      <c r="AO190">
+        <v>1.18</v>
+      </c>
+      <c r="AP190">
+        <v>0.75</v>
+      </c>
+      <c r="AQ190">
+        <v>1.33</v>
+      </c>
+      <c r="AR190">
+        <v>1.31</v>
+      </c>
+      <c r="AS190">
+        <v>1.49</v>
+      </c>
+      <c r="AT190">
+        <v>2.8</v>
+      </c>
+      <c r="AU190">
+        <v>3</v>
+      </c>
+      <c r="AV190">
+        <v>6</v>
+      </c>
+      <c r="AW190">
+        <v>5</v>
+      </c>
+      <c r="AX190">
+        <v>3</v>
+      </c>
+      <c r="AY190">
+        <v>9</v>
+      </c>
+      <c r="AZ190">
+        <v>13</v>
+      </c>
+      <c r="BA190">
+        <v>3</v>
+      </c>
+      <c r="BB190">
+        <v>4</v>
+      </c>
+      <c r="BC190">
+        <v>7</v>
+      </c>
+      <c r="BD190">
+        <v>2.1</v>
+      </c>
+      <c r="BE190">
+        <v>8.5</v>
+      </c>
+      <c r="BF190">
         <v>1.95</v>
       </c>
-      <c r="AN190">
-        <v>1.36</v>
-      </c>
-      <c r="AO190">
-        <v>1.25</v>
-      </c>
-      <c r="AP190">
-        <v>1.33</v>
-      </c>
-      <c r="AQ190">
-        <v>1.23</v>
-      </c>
-      <c r="AR190">
-        <v>1.64</v>
-      </c>
-      <c r="AS190">
-        <v>1.24</v>
-      </c>
-      <c r="AT190">
-        <v>2.88</v>
-      </c>
-      <c r="AU190">
-        <v>2</v>
-      </c>
-      <c r="AV190">
-        <v>3</v>
-      </c>
-      <c r="AW190">
-        <v>6</v>
-      </c>
-      <c r="AX190">
-        <v>7</v>
-      </c>
-      <c r="AY190">
-        <v>8</v>
-      </c>
-      <c r="AZ190">
-        <v>10</v>
-      </c>
-      <c r="BA190">
-        <v>9</v>
-      </c>
-      <c r="BB190">
-        <v>14</v>
-      </c>
-      <c r="BC190">
-        <v>23</v>
-      </c>
-      <c r="BD190">
-        <v>1.53</v>
-      </c>
-      <c r="BE190">
-        <v>9.5</v>
-      </c>
-      <c r="BF190">
-        <v>2.88</v>
-      </c>
       <c r="BG190">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="BH190">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="BI190">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="BJ190">
-        <v>4.6</v>
+        <v>3.74</v>
       </c>
       <c r="BK190">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="BL190">
-        <v>3.14</v>
+        <v>2.65</v>
       </c>
       <c r="BM190">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="BN190">
-        <v>2.42</v>
+        <v>2.05</v>
       </c>
       <c r="BO190">
-        <v>1.82</v>
+        <v>2.09</v>
       </c>
       <c r="BP190">
-        <v>1.92</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="191" spans="1:68">
@@ -40465,7 +40465,7 @@
         <v>69</v>
       </c>
       <c r="E191" s="2">
-        <v>45563.875</v>
+        <v>45564.5</v>
       </c>
       <c r="F191">
         <v>24</v>
@@ -40594,19 +40594,19 @@
         <v>3</v>
       </c>
       <c r="AV191">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW191">
         <v>0</v>
       </c>
       <c r="AX191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY191">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AZ191">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BA191">
         <v>5</v>
@@ -40671,7 +40671,7 @@
         <v>69</v>
       </c>
       <c r="E192" s="2">
-        <v>45563.875</v>
+        <v>45564.59375</v>
       </c>
       <c r="F192">
         <v>24</v>
@@ -40797,22 +40797,22 @@
         <v>2.88</v>
       </c>
       <c r="AU192">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV192">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW192">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX192">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY192">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AZ192">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="BA192">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="311">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -656,6 +656,9 @@
   </si>
   <si>
     <t>['25', '29', '45', '63']</t>
+  </si>
+  <si>
+    <t>['45+1', '51']</t>
   </si>
   <si>
     <t>['39', '90+2']</t>
@@ -1305,7 +1308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP192"/>
+  <dimension ref="A1:BP193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1564,7 +1567,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1770,7 +1773,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -2182,7 +2185,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2388,7 +2391,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2675,7 +2678,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ7">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3418,7 +3421,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3496,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ11">
         <v>1.75</v>
@@ -3624,7 +3627,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q12">
         <v>5.5</v>
@@ -4242,7 +4245,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q15">
         <v>2.95</v>
@@ -4448,7 +4451,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4654,7 +4657,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4860,7 +4863,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5478,7 +5481,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5559,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR21">
         <v>1.91</v>
@@ -5890,7 +5893,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6096,7 +6099,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6508,7 +6511,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6714,7 +6717,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6998,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ28">
         <v>1.17</v>
@@ -7126,7 +7129,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q29">
         <v>3.6</v>
@@ -7332,7 +7335,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7950,7 +7953,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -8156,7 +8159,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8362,7 +8365,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8980,7 +8983,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q38">
         <v>2.54</v>
@@ -9186,7 +9189,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9473,7 +9476,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ40">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR40">
         <v>1.33</v>
@@ -9804,7 +9807,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -10500,7 +10503,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ45">
         <v>1.23</v>
@@ -10834,7 +10837,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -11246,7 +11249,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q49">
         <v>4.5</v>
@@ -11658,7 +11661,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11864,7 +11867,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -11942,7 +11945,7 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ52">
         <v>1.92</v>
@@ -12276,7 +12279,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12482,7 +12485,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -13100,7 +13103,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13306,7 +13309,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13512,7 +13515,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -14005,7 +14008,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ62">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR62">
         <v>2.1</v>
@@ -14130,7 +14133,7 @@
         <v>116</v>
       </c>
       <c r="P63" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14336,7 +14339,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14954,7 +14957,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -15032,7 +15035,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ67">
         <v>1.92</v>
@@ -15160,7 +15163,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15984,7 +15987,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16190,7 +16193,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16396,7 +16399,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16602,7 +16605,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -17014,7 +17017,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -17301,7 +17304,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ78">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR78">
         <v>1.47</v>
@@ -17426,7 +17429,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17632,7 +17635,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q80">
         <v>2.62</v>
@@ -18044,7 +18047,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18662,7 +18665,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18743,7 +18746,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ85">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR85">
         <v>1.48</v>
@@ -18868,7 +18871,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -19074,7 +19077,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19280,7 +19283,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19361,7 +19364,7 @@
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR88">
         <v>1.51</v>
@@ -19898,7 +19901,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20104,7 +20107,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20182,7 +20185,7 @@
         <v>1.4</v>
       </c>
       <c r="AP92">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ92">
         <v>1.25</v>
@@ -20516,7 +20519,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20722,7 +20725,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -21134,7 +21137,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -21340,7 +21343,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21546,7 +21549,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21752,7 +21755,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21958,7 +21961,7 @@
         <v>117</v>
       </c>
       <c r="P101" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -22782,7 +22785,7 @@
         <v>116</v>
       </c>
       <c r="P105" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q105">
         <v>2.75</v>
@@ -22988,7 +22991,7 @@
         <v>98</v>
       </c>
       <c r="P106" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23194,7 +23197,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23481,7 +23484,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ108">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR108">
         <v>1.56</v>
@@ -23684,7 +23687,7 @@
         <v>2</v>
       </c>
       <c r="AP109">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ109">
         <v>1.67</v>
@@ -23812,7 +23815,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -24224,7 +24227,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q112">
         <v>2.95</v>
@@ -24430,7 +24433,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q113">
         <v>2.63</v>
@@ -24636,7 +24639,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -25048,7 +25051,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -25254,7 +25257,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25666,7 +25669,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q119">
         <v>4.2</v>
@@ -25872,7 +25875,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q120">
         <v>1.75</v>
@@ -26078,7 +26081,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q121">
         <v>2.63</v>
@@ -26696,7 +26699,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26902,7 +26905,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27108,7 +27111,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27520,7 +27523,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -28138,7 +28141,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28550,7 +28553,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28834,7 +28837,7 @@
         <v>1.71</v>
       </c>
       <c r="AP134">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ134">
         <v>1</v>
@@ -28962,7 +28965,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29168,7 +29171,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q136">
         <v>2.38</v>
@@ -29249,7 +29252,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ136">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR136">
         <v>1.63</v>
@@ -29580,7 +29583,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q138">
         <v>2.7</v>
@@ -29992,7 +29995,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q140">
         <v>3.52</v>
@@ -30610,7 +30613,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q143">
         <v>3.4</v>
@@ -31022,7 +31025,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q145">
         <v>2.65</v>
@@ -31228,7 +31231,7 @@
         <v>87</v>
       </c>
       <c r="P146" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31434,7 +31437,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q147">
         <v>2.2</v>
@@ -32052,7 +32055,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -33288,7 +33291,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q156">
         <v>2.1</v>
@@ -33700,7 +33703,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -34399,7 +34402,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ161">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR161">
         <v>1.21</v>
@@ -34524,7 +34527,7 @@
         <v>87</v>
       </c>
       <c r="P162" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -34730,7 +34733,7 @@
         <v>197</v>
       </c>
       <c r="P163" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q163">
         <v>2.85</v>
@@ -34808,7 +34811,7 @@
         <v>0.9</v>
       </c>
       <c r="AP163">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ163">
         <v>0.83</v>
@@ -34936,7 +34939,7 @@
         <v>97</v>
       </c>
       <c r="P164" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q164">
         <v>2.82</v>
@@ -35142,7 +35145,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35348,7 +35351,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q166">
         <v>1.8</v>
@@ -35966,7 +35969,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q169">
         <v>2.25</v>
@@ -36584,7 +36587,7 @@
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q172">
         <v>3.75</v>
@@ -36790,7 +36793,7 @@
         <v>87</v>
       </c>
       <c r="P173" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q173">
         <v>2.2</v>
@@ -37202,7 +37205,7 @@
         <v>87</v>
       </c>
       <c r="P175" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q175">
         <v>5.05</v>
@@ -37280,7 +37283,7 @@
         <v>1.7</v>
       </c>
       <c r="AP175">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ175">
         <v>1.75</v>
@@ -37614,7 +37617,7 @@
         <v>205</v>
       </c>
       <c r="P177" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q177">
         <v>2.39</v>
@@ -38313,7 +38316,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ180">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR180">
         <v>1.5</v>
@@ -38722,7 +38725,7 @@
         <v>0.8</v>
       </c>
       <c r="AP182">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ182">
         <v>0.82</v>
@@ -38850,7 +38853,7 @@
         <v>210</v>
       </c>
       <c r="P183" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q183">
         <v>2.8</v>
@@ -39056,7 +39059,7 @@
         <v>211</v>
       </c>
       <c r="P184" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39262,7 +39265,7 @@
         <v>212</v>
       </c>
       <c r="P185" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q185">
         <v>1.91</v>
@@ -39674,7 +39677,7 @@
         <v>87</v>
       </c>
       <c r="P187" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q187">
         <v>2.88</v>
@@ -40292,7 +40295,7 @@
         <v>116</v>
       </c>
       <c r="P190" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q190">
         <v>3.2</v>
@@ -40498,7 +40501,7 @@
         <v>101</v>
       </c>
       <c r="P191" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q191">
         <v>3.5</v>
@@ -40861,6 +40864,212 @@
       </c>
       <c r="BP192">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7295080</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45570.41666666666</v>
+      </c>
+      <c r="F193">
+        <v>15</v>
+      </c>
+      <c r="G193" t="s">
+        <v>79</v>
+      </c>
+      <c r="H193" t="s">
+        <v>85</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>2</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>3</v>
+      </c>
+      <c r="O193" t="s">
+        <v>214</v>
+      </c>
+      <c r="P193" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q193">
+        <v>2.7</v>
+      </c>
+      <c r="R193">
+        <v>2.3</v>
+      </c>
+      <c r="S193">
+        <v>3.3</v>
+      </c>
+      <c r="T193">
+        <v>1.28</v>
+      </c>
+      <c r="U193">
+        <v>3.48</v>
+      </c>
+      <c r="V193">
+        <v>2.32</v>
+      </c>
+      <c r="W193">
+        <v>1.57</v>
+      </c>
+      <c r="X193">
+        <v>5.3</v>
+      </c>
+      <c r="Y193">
+        <v>1.14</v>
+      </c>
+      <c r="Z193">
+        <v>2.25</v>
+      </c>
+      <c r="AA193">
+        <v>3.7</v>
+      </c>
+      <c r="AB193">
+        <v>2.62</v>
+      </c>
+      <c r="AC193">
+        <v>1.01</v>
+      </c>
+      <c r="AD193">
+        <v>13</v>
+      </c>
+      <c r="AE193">
+        <v>1.13</v>
+      </c>
+      <c r="AF193">
+        <v>5.2</v>
+      </c>
+      <c r="AG193">
+        <v>1.57</v>
+      </c>
+      <c r="AH193">
+        <v>2.25</v>
+      </c>
+      <c r="AI193">
+        <v>1.45</v>
+      </c>
+      <c r="AJ193">
+        <v>2.5</v>
+      </c>
+      <c r="AK193">
+        <v>1.42</v>
+      </c>
+      <c r="AL193">
+        <v>1.27</v>
+      </c>
+      <c r="AM193">
+        <v>1.62</v>
+      </c>
+      <c r="AN193">
+        <v>1.55</v>
+      </c>
+      <c r="AO193">
+        <v>0.45</v>
+      </c>
+      <c r="AP193">
+        <v>1.67</v>
+      </c>
+      <c r="AQ193">
+        <v>0.42</v>
+      </c>
+      <c r="AR193">
+        <v>1.39</v>
+      </c>
+      <c r="AS193">
+        <v>1.31</v>
+      </c>
+      <c r="AT193">
+        <v>2.7</v>
+      </c>
+      <c r="AU193">
+        <v>7</v>
+      </c>
+      <c r="AV193">
+        <v>7</v>
+      </c>
+      <c r="AW193">
+        <v>7</v>
+      </c>
+      <c r="AX193">
+        <v>6</v>
+      </c>
+      <c r="AY193">
+        <v>19</v>
+      </c>
+      <c r="AZ193">
+        <v>14</v>
+      </c>
+      <c r="BA193">
+        <v>1</v>
+      </c>
+      <c r="BB193">
+        <v>1</v>
+      </c>
+      <c r="BC193">
+        <v>2</v>
+      </c>
+      <c r="BD193">
+        <v>2.05</v>
+      </c>
+      <c r="BE193">
+        <v>8.5</v>
+      </c>
+      <c r="BF193">
+        <v>2</v>
+      </c>
+      <c r="BG193">
+        <v>1.1</v>
+      </c>
+      <c r="BH193">
+        <v>5.7</v>
+      </c>
+      <c r="BI193">
+        <v>1.2</v>
+      </c>
+      <c r="BJ193">
+        <v>4.2</v>
+      </c>
+      <c r="BK193">
+        <v>1.34</v>
+      </c>
+      <c r="BL193">
+        <v>3</v>
+      </c>
+      <c r="BM193">
+        <v>1.85</v>
+      </c>
+      <c r="BN193">
+        <v>1.95</v>
+      </c>
+      <c r="BO193">
+        <v>2.03</v>
+      </c>
+      <c r="BP193">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="311">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1308,7 +1308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP193"/>
+  <dimension ref="A1:BP195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1854,7 +1854,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ3">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ5">
         <v>1.92</v>
@@ -2678,7 +2678,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ7">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -5147,7 +5147,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ19">
         <v>0.83</v>
@@ -5353,7 +5353,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ20">
         <v>0.75</v>
@@ -5562,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR21">
         <v>1.91</v>
@@ -5974,7 +5974,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ23">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR23">
         <v>2.02</v>
@@ -6589,7 +6589,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ26">
         <v>0.82</v>
@@ -8446,7 +8446,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ35">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR35">
         <v>1.13</v>
@@ -8649,7 +8649,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ36">
         <v>0.83</v>
@@ -9267,7 +9267,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ39">
         <v>1.25</v>
@@ -9476,7 +9476,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ40">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR40">
         <v>1.33</v>
@@ -11739,7 +11739,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -11948,7 +11948,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ52">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR52">
         <v>1.4</v>
@@ -12975,7 +12975,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ57">
         <v>0.82</v>
@@ -14008,7 +14008,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ62">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR62">
         <v>2.1</v>
@@ -15656,7 +15656,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ70">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR70">
         <v>1.23</v>
@@ -16271,7 +16271,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ73">
         <v>1.25</v>
@@ -16477,7 +16477,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ74">
         <v>1</v>
@@ -17304,7 +17304,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ78">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR78">
         <v>1.47</v>
@@ -18331,7 +18331,7 @@
         <v>2.6</v>
       </c>
       <c r="AP83">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ83">
         <v>1.67</v>
@@ -18746,7 +18746,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ85">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR85">
         <v>1.48</v>
@@ -19155,7 +19155,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ87">
         <v>1.33</v>
@@ -19364,7 +19364,7 @@
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR88">
         <v>1.51</v>
@@ -19776,7 +19776,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ90">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR90">
         <v>1.37</v>
@@ -19979,7 +19979,7 @@
         <v>1.8</v>
       </c>
       <c r="AP91">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ91">
         <v>1</v>
@@ -21218,7 +21218,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ97">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR97">
         <v>1.75</v>
@@ -21627,7 +21627,7 @@
         <v>2</v>
       </c>
       <c r="AP99">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ99">
         <v>1.75</v>
@@ -22451,7 +22451,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ103">
         <v>1</v>
@@ -23484,7 +23484,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ108">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR108">
         <v>1.56</v>
@@ -24720,7 +24720,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ114">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR114">
         <v>1.47</v>
@@ -25335,7 +25335,7 @@
         <v>1.83</v>
       </c>
       <c r="AP117">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ117">
         <v>1.75</v>
@@ -25953,7 +25953,7 @@
         <v>2</v>
       </c>
       <c r="AP120">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ120">
         <v>1.75</v>
@@ -26780,7 +26780,7 @@
         <v>1</v>
       </c>
       <c r="AQ124">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR124">
         <v>1.57</v>
@@ -27807,7 +27807,7 @@
         <v>0.63</v>
       </c>
       <c r="AP129">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ129">
         <v>0.75</v>
@@ -29252,7 +29252,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ136">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR136">
         <v>1.63</v>
@@ -30076,7 +30076,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ140">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR140">
         <v>1.54</v>
@@ -32957,7 +32957,7 @@
         <v>1.5</v>
       </c>
       <c r="AP154">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ154">
         <v>1.23</v>
@@ -34402,7 +34402,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ161">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR161">
         <v>1.21</v>
@@ -34608,7 +34608,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ162">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR162">
         <v>1.66</v>
@@ -35223,7 +35223,7 @@
         <v>1.33</v>
       </c>
       <c r="AP165">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ165">
         <v>1.33</v>
@@ -36047,7 +36047,7 @@
         <v>1.7</v>
       </c>
       <c r="AP169">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ169">
         <v>1.67</v>
@@ -38110,7 +38110,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ179">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR179">
         <v>1.85</v>
@@ -38313,10 +38313,10 @@
         <v>0.5</v>
       </c>
       <c r="AP180">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ180">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR180">
         <v>1.5</v>
@@ -39343,7 +39343,7 @@
         <v>1.27</v>
       </c>
       <c r="AP185">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ185">
         <v>1.17</v>
@@ -40994,7 +40994,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ193">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR193">
         <v>1.39</v>
@@ -41070,6 +41070,418 @@
       </c>
       <c r="BP193">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7295161</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45584.45833333334</v>
+      </c>
+      <c r="F194">
+        <v>25</v>
+      </c>
+      <c r="G194" t="s">
+        <v>72</v>
+      </c>
+      <c r="H194" t="s">
+        <v>85</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+      <c r="N194">
+        <v>1</v>
+      </c>
+      <c r="O194" t="s">
+        <v>87</v>
+      </c>
+      <c r="P194" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q194">
+        <v>1.83</v>
+      </c>
+      <c r="R194">
+        <v>2.75</v>
+      </c>
+      <c r="S194">
+        <v>6</v>
+      </c>
+      <c r="T194">
+        <v>1.22</v>
+      </c>
+      <c r="U194">
+        <v>4</v>
+      </c>
+      <c r="V194">
+        <v>2</v>
+      </c>
+      <c r="W194">
+        <v>1.73</v>
+      </c>
+      <c r="X194">
+        <v>4.33</v>
+      </c>
+      <c r="Y194">
+        <v>1.2</v>
+      </c>
+      <c r="Z194">
+        <v>1.35</v>
+      </c>
+      <c r="AA194">
+        <v>4.6</v>
+      </c>
+      <c r="AB194">
+        <v>6</v>
+      </c>
+      <c r="AC194">
+        <v>1.01</v>
+      </c>
+      <c r="AD194">
+        <v>11.25</v>
+      </c>
+      <c r="AE194">
+        <v>1.12</v>
+      </c>
+      <c r="AF194">
+        <v>6.5</v>
+      </c>
+      <c r="AG194">
+        <v>1.36</v>
+      </c>
+      <c r="AH194">
+        <v>2.9</v>
+      </c>
+      <c r="AI194">
+        <v>1.57</v>
+      </c>
+      <c r="AJ194">
+        <v>2.25</v>
+      </c>
+      <c r="AK194">
+        <v>1.08</v>
+      </c>
+      <c r="AL194">
+        <v>1.12</v>
+      </c>
+      <c r="AM194">
+        <v>3.1</v>
+      </c>
+      <c r="AN194">
+        <v>1.92</v>
+      </c>
+      <c r="AO194">
+        <v>0.42</v>
+      </c>
+      <c r="AP194">
+        <v>1.77</v>
+      </c>
+      <c r="AQ194">
+        <v>0.62</v>
+      </c>
+      <c r="AR194">
+        <v>1.81</v>
+      </c>
+      <c r="AS194">
+        <v>1.34</v>
+      </c>
+      <c r="AT194">
+        <v>3.15</v>
+      </c>
+      <c r="AU194">
+        <v>4</v>
+      </c>
+      <c r="AV194">
+        <v>5</v>
+      </c>
+      <c r="AW194">
+        <v>6</v>
+      </c>
+      <c r="AX194">
+        <v>1</v>
+      </c>
+      <c r="AY194">
+        <v>17</v>
+      </c>
+      <c r="AZ194">
+        <v>7</v>
+      </c>
+      <c r="BA194">
+        <v>11</v>
+      </c>
+      <c r="BB194">
+        <v>1</v>
+      </c>
+      <c r="BC194">
+        <v>12</v>
+      </c>
+      <c r="BD194">
+        <v>0</v>
+      </c>
+      <c r="BE194">
+        <v>0</v>
+      </c>
+      <c r="BF194">
+        <v>0</v>
+      </c>
+      <c r="BG194">
+        <v>0</v>
+      </c>
+      <c r="BH194">
+        <v>0</v>
+      </c>
+      <c r="BI194">
+        <v>0</v>
+      </c>
+      <c r="BJ194">
+        <v>0</v>
+      </c>
+      <c r="BK194">
+        <v>0</v>
+      </c>
+      <c r="BL194">
+        <v>0</v>
+      </c>
+      <c r="BM194">
+        <v>0</v>
+      </c>
+      <c r="BN194">
+        <v>0</v>
+      </c>
+      <c r="BO194">
+        <v>0</v>
+      </c>
+      <c r="BP194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7295157</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45584.54166666666</v>
+      </c>
+      <c r="F195">
+        <v>25</v>
+      </c>
+      <c r="G195" t="s">
+        <v>73</v>
+      </c>
+      <c r="H195" t="s">
+        <v>78</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+      <c r="O195" t="s">
+        <v>87</v>
+      </c>
+      <c r="P195" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q195">
+        <v>4.5</v>
+      </c>
+      <c r="R195">
+        <v>2.38</v>
+      </c>
+      <c r="S195">
+        <v>2.3</v>
+      </c>
+      <c r="T195">
+        <v>1.3</v>
+      </c>
+      <c r="U195">
+        <v>3.4</v>
+      </c>
+      <c r="V195">
+        <v>2.5</v>
+      </c>
+      <c r="W195">
+        <v>1.5</v>
+      </c>
+      <c r="X195">
+        <v>6</v>
+      </c>
+      <c r="Y195">
+        <v>1.13</v>
+      </c>
+      <c r="Z195">
+        <v>3.9</v>
+      </c>
+      <c r="AA195">
+        <v>3.7</v>
+      </c>
+      <c r="AB195">
+        <v>1.67</v>
+      </c>
+      <c r="AC195">
+        <v>3.2</v>
+      </c>
+      <c r="AD195">
+        <v>1.35</v>
+      </c>
+      <c r="AE195">
+        <v>1.15</v>
+      </c>
+      <c r="AF195">
+        <v>4.1</v>
+      </c>
+      <c r="AG195">
+        <v>1.61</v>
+      </c>
+      <c r="AH195">
+        <v>2.15</v>
+      </c>
+      <c r="AI195">
+        <v>1.62</v>
+      </c>
+      <c r="AJ195">
+        <v>2.2</v>
+      </c>
+      <c r="AK195">
+        <v>1.78</v>
+      </c>
+      <c r="AL195">
+        <v>1.24</v>
+      </c>
+      <c r="AM195">
+        <v>1.33</v>
+      </c>
+      <c r="AN195">
+        <v>1.17</v>
+      </c>
+      <c r="AO195">
+        <v>1.92</v>
+      </c>
+      <c r="AP195">
+        <v>1.15</v>
+      </c>
+      <c r="AQ195">
+        <v>1.85</v>
+      </c>
+      <c r="AR195">
+        <v>1.53</v>
+      </c>
+      <c r="AS195">
+        <v>1.53</v>
+      </c>
+      <c r="AT195">
+        <v>3.06</v>
+      </c>
+      <c r="AU195">
+        <v>5</v>
+      </c>
+      <c r="AV195">
+        <v>3</v>
+      </c>
+      <c r="AW195">
+        <v>2</v>
+      </c>
+      <c r="AX195">
+        <v>4</v>
+      </c>
+      <c r="AY195">
+        <v>11</v>
+      </c>
+      <c r="AZ195">
+        <v>10</v>
+      </c>
+      <c r="BA195">
+        <v>0</v>
+      </c>
+      <c r="BB195">
+        <v>6</v>
+      </c>
+      <c r="BC195">
+        <v>6</v>
+      </c>
+      <c r="BD195">
+        <v>3.05</v>
+      </c>
+      <c r="BE195">
+        <v>7.55</v>
+      </c>
+      <c r="BF195">
+        <v>1.39</v>
+      </c>
+      <c r="BG195">
+        <v>1.12</v>
+      </c>
+      <c r="BH195">
+        <v>4.4</v>
+      </c>
+      <c r="BI195">
+        <v>1.35</v>
+      </c>
+      <c r="BJ195">
+        <v>2.95</v>
+      </c>
+      <c r="BK195">
+        <v>1.61</v>
+      </c>
+      <c r="BL195">
+        <v>2.2</v>
+      </c>
+      <c r="BM195">
+        <v>2.02</v>
+      </c>
+      <c r="BN195">
+        <v>1.72</v>
+      </c>
+      <c r="BO195">
+        <v>2.6</v>
+      </c>
+      <c r="BP195">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="316">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -661,6 +661,12 @@
     <t>['45+1', '51']</t>
   </si>
   <si>
+    <t>['35', '79', '90+5']</t>
+  </si>
+  <si>
+    <t>['50', '78']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -947,6 +953,15 @@
   </si>
   <si>
     <t>['29', '42', '73']</t>
+  </si>
+  <si>
+    <t>['7', '49']</t>
+  </si>
+  <si>
+    <t>['15', '18', '90']</t>
+  </si>
+  <si>
+    <t>['6', '39']</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP195"/>
+  <dimension ref="A1:BP201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1567,7 +1582,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1648,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1773,7 +1788,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1851,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ3">
         <v>1.85</v>
@@ -2185,7 +2200,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2266,7 +2281,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ5">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2391,7 +2406,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2675,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AQ7">
         <v>0.62</v>
@@ -2881,10 +2896,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AQ8">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3421,7 +3436,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3499,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ11">
         <v>1.75</v>
@@ -3627,7 +3642,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q12">
         <v>5.5</v>
@@ -3705,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ12">
         <v>1.75</v>
@@ -3914,7 +3929,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ13">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4245,7 +4260,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q15">
         <v>2.95</v>
@@ -4326,7 +4341,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4451,7 +4466,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4657,7 +4672,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4735,10 +4750,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ17">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR17">
         <v>0.83</v>
@@ -4863,7 +4878,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4941,10 +4956,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AQ18">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>1.5</v>
@@ -5150,7 +5165,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ19">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR19">
         <v>1.53</v>
@@ -5481,7 +5496,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5765,7 +5780,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AQ22">
         <v>1.23</v>
@@ -5893,7 +5908,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6099,7 +6114,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6511,7 +6526,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6592,7 +6607,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ26">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR26">
         <v>2.06</v>
@@ -6717,7 +6732,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6795,7 +6810,7 @@
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -7001,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ28">
         <v>1.17</v>
@@ -7129,7 +7144,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q29">
         <v>3.6</v>
@@ -7335,7 +7350,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7622,7 +7637,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ31">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR31">
         <v>2.08</v>
@@ -7825,7 +7840,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AQ32">
         <v>1.67</v>
@@ -7953,7 +7968,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -8034,7 +8049,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -8159,7 +8174,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8365,7 +8380,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8443,7 +8458,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AQ35">
         <v>1.85</v>
@@ -8652,7 +8667,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ36">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR36">
         <v>2.03</v>
@@ -8983,7 +8998,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q38">
         <v>2.54</v>
@@ -9189,7 +9204,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9270,7 +9285,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ39">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR39">
         <v>1.7</v>
@@ -9473,7 +9488,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ40">
         <v>0.62</v>
@@ -9682,7 +9697,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR41">
         <v>2.11</v>
@@ -9807,7 +9822,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -10503,7 +10518,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ45">
         <v>1.23</v>
@@ -10712,7 +10727,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR46">
         <v>1.46</v>
@@ -10837,7 +10852,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -11249,7 +11264,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q49">
         <v>4.5</v>
@@ -11533,7 +11548,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AQ50">
         <v>1.17</v>
@@ -11661,7 +11676,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11867,7 +11882,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -11945,7 +11960,7 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ52">
         <v>1.85</v>
@@ -12279,7 +12294,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12485,7 +12500,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12563,10 +12578,10 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ55">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR55">
         <v>1.29</v>
@@ -12772,7 +12787,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ56">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR56">
         <v>1.62</v>
@@ -12978,7 +12993,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ57">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR57">
         <v>1.51</v>
@@ -13103,7 +13118,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13184,7 +13199,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ58">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR58">
         <v>1.38</v>
@@ -13309,7 +13324,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13515,7 +13530,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13593,7 +13608,7 @@
         <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AQ60">
         <v>1.75</v>
@@ -13799,7 +13814,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ61">
         <v>1</v>
@@ -14133,7 +14148,7 @@
         <v>116</v>
       </c>
       <c r="P63" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14211,10 +14226,10 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -14339,7 +14354,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14957,7 +14972,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -15035,10 +15050,10 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ67">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR67">
         <v>1.44</v>
@@ -15163,7 +15178,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15450,7 +15465,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ69">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR69">
         <v>1.61</v>
@@ -15653,7 +15668,7 @@
         <v>3</v>
       </c>
       <c r="AP70">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ70">
         <v>1.85</v>
@@ -15862,7 +15877,7 @@
         <v>1</v>
       </c>
       <c r="AQ71">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR71">
         <v>1.62</v>
@@ -15987,7 +16002,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16193,7 +16208,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16274,7 +16289,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ73">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR73">
         <v>1.73</v>
@@ -16399,7 +16414,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16605,7 +16620,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16889,7 +16904,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ76">
         <v>1.17</v>
@@ -17017,7 +17032,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -17095,7 +17110,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AQ77">
         <v>0.75</v>
@@ -17429,7 +17444,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17510,7 +17525,7 @@
         <v>1</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR79">
         <v>1.07</v>
@@ -17635,7 +17650,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q80">
         <v>2.62</v>
@@ -17919,7 +17934,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AQ81">
         <v>1.23</v>
@@ -18047,7 +18062,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18665,7 +18680,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18871,7 +18886,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -18949,10 +18964,10 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ86">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR86">
         <v>1.09</v>
@@ -19077,7 +19092,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19283,7 +19298,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19570,7 +19585,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ89">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR89">
         <v>1.54</v>
@@ -19901,7 +19916,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -19982,7 +19997,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ91">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR91">
         <v>1.59</v>
@@ -20107,7 +20122,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20185,10 +20200,10 @@
         <v>1.4</v>
       </c>
       <c r="AP92">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ92">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR92">
         <v>1.44</v>
@@ -20391,7 +20406,7 @@
         <v>2.17</v>
       </c>
       <c r="AP93">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AQ93">
         <v>1.67</v>
@@ -20519,7 +20534,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20725,7 +20740,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -21137,7 +21152,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -21343,7 +21358,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21549,7 +21564,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21755,7 +21770,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21833,7 +21848,7 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AQ100">
         <v>1</v>
@@ -21961,7 +21976,7 @@
         <v>117</v>
       </c>
       <c r="P101" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -22248,7 +22263,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ102">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR102">
         <v>1.54</v>
@@ -22454,7 +22469,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ103">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR103">
         <v>1.74</v>
@@ -22657,7 +22672,7 @@
         <v>0.8</v>
       </c>
       <c r="AP104">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ104">
         <v>1.17</v>
@@ -22785,7 +22800,7 @@
         <v>116</v>
       </c>
       <c r="P105" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q105">
         <v>2.75</v>
@@ -22866,7 +22881,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ105">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR105">
         <v>1.31</v>
@@ -22991,7 +23006,7 @@
         <v>98</v>
       </c>
       <c r="P106" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23197,7 +23212,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23275,10 +23290,10 @@
         <v>1.33</v>
       </c>
       <c r="AP107">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AQ107">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR107">
         <v>1.41</v>
@@ -23687,7 +23702,7 @@
         <v>2</v>
       </c>
       <c r="AP109">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ109">
         <v>1.67</v>
@@ -23815,7 +23830,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -24099,7 +24114,7 @@
         <v>2.17</v>
       </c>
       <c r="AP111">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ111">
         <v>1.75</v>
@@ -24227,7 +24242,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q112">
         <v>2.95</v>
@@ -24433,7 +24448,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q113">
         <v>2.63</v>
@@ -24639,7 +24654,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -24923,7 +24938,7 @@
         <v>0.71</v>
       </c>
       <c r="AP115">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AQ115">
         <v>0.75</v>
@@ -25051,7 +25066,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -25132,7 +25147,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ116">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR116">
         <v>1.92</v>
@@ -25257,7 +25272,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25544,7 +25559,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ118">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR118">
         <v>1.59</v>
@@ -25669,7 +25684,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q119">
         <v>4.2</v>
@@ -25750,7 +25765,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ119">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR119">
         <v>1.6</v>
@@ -25875,7 +25890,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q120">
         <v>1.75</v>
@@ -26081,7 +26096,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q121">
         <v>2.63</v>
@@ -26571,7 +26586,7 @@
         <v>1.75</v>
       </c>
       <c r="AP123">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ123">
         <v>1.67</v>
@@ -26699,7 +26714,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26905,7 +26920,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -26983,7 +26998,7 @@
         <v>0.57</v>
       </c>
       <c r="AP125">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ125">
         <v>1</v>
@@ -27111,7 +27126,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27192,7 +27207,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ126">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR126">
         <v>1.29</v>
@@ -27523,7 +27538,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27604,7 +27619,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ128">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR128">
         <v>1.41</v>
@@ -28013,7 +28028,7 @@
         <v>2</v>
       </c>
       <c r="AP130">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AQ130">
         <v>1.75</v>
@@ -28141,7 +28156,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28222,7 +28237,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ131">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR131">
         <v>1.65</v>
@@ -28425,7 +28440,7 @@
         <v>2.13</v>
       </c>
       <c r="AP132">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ132">
         <v>1.75</v>
@@ -28553,7 +28568,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28634,7 +28649,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ133">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR133">
         <v>1.53</v>
@@ -28837,10 +28852,10 @@
         <v>1.71</v>
       </c>
       <c r="AP134">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ134">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR134">
         <v>1.43</v>
@@ -28965,7 +28980,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29043,7 +29058,7 @@
         <v>1.57</v>
       </c>
       <c r="AP135">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ135">
         <v>1.33</v>
@@ -29171,7 +29186,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q136">
         <v>2.38</v>
@@ -29455,7 +29470,7 @@
         <v>1.14</v>
       </c>
       <c r="AP137">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AQ137">
         <v>1.17</v>
@@ -29583,7 +29598,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q138">
         <v>2.7</v>
@@ -29995,7 +30010,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q140">
         <v>3.52</v>
@@ -30073,7 +30088,7 @@
         <v>2.11</v>
       </c>
       <c r="AP140">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AQ140">
         <v>1.85</v>
@@ -30488,7 +30503,7 @@
         <v>1</v>
       </c>
       <c r="AQ142">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR142">
         <v>1.22</v>
@@ -30613,7 +30628,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q143">
         <v>3.4</v>
@@ -30897,10 +30912,10 @@
         <v>1</v>
       </c>
       <c r="AP144">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ144">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR144">
         <v>1.23</v>
@@ -31025,7 +31040,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q145">
         <v>2.65</v>
@@ -31106,7 +31121,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ145">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR145">
         <v>1.52</v>
@@ -31231,7 +31246,7 @@
         <v>87</v>
       </c>
       <c r="P146" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31309,10 +31324,10 @@
         <v>1.78</v>
       </c>
       <c r="AP146">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ146">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR146">
         <v>1.29</v>
@@ -31437,7 +31452,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q147">
         <v>2.2</v>
@@ -31518,7 +31533,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ147">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR147">
         <v>1.58</v>
@@ -31721,10 +31736,10 @@
         <v>1</v>
       </c>
       <c r="AP148">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ148">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR148">
         <v>1.15</v>
@@ -32055,7 +32070,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32133,7 +32148,7 @@
         <v>1.5</v>
       </c>
       <c r="AP150">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AQ150">
         <v>1.33</v>
@@ -32339,10 +32354,10 @@
         <v>1.33</v>
       </c>
       <c r="AP151">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AQ151">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR151">
         <v>1.45</v>
@@ -32548,7 +32563,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ152">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR152">
         <v>1.75</v>
@@ -33291,7 +33306,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q156">
         <v>2.1</v>
@@ -33369,7 +33384,7 @@
         <v>1.1</v>
       </c>
       <c r="AP156">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AQ156">
         <v>1</v>
@@ -33703,7 +33718,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -33990,7 +34005,7 @@
         <v>1</v>
       </c>
       <c r="AQ159">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR159">
         <v>1.39</v>
@@ -34193,10 +34208,10 @@
         <v>0.89</v>
       </c>
       <c r="AP160">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ160">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR160">
         <v>1.27</v>
@@ -34399,7 +34414,7 @@
         <v>0.44</v>
       </c>
       <c r="AP161">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ161">
         <v>0.62</v>
@@ -34527,7 +34542,7 @@
         <v>87</v>
       </c>
       <c r="P162" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -34733,7 +34748,7 @@
         <v>197</v>
       </c>
       <c r="P163" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q163">
         <v>2.85</v>
@@ -34811,10 +34826,10 @@
         <v>0.9</v>
       </c>
       <c r="AP163">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ163">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR163">
         <v>1.41</v>
@@ -34939,7 +34954,7 @@
         <v>97</v>
       </c>
       <c r="P164" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q164">
         <v>2.82</v>
@@ -35017,7 +35032,7 @@
         <v>1.89</v>
       </c>
       <c r="AP164">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AQ164">
         <v>1.75</v>
@@ -35145,7 +35160,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35351,7 +35366,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q166">
         <v>1.8</v>
@@ -35432,7 +35447,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ166">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR166">
         <v>1.95</v>
@@ -35841,7 +35856,7 @@
         <v>2</v>
       </c>
       <c r="AP168">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AQ168">
         <v>1.75</v>
@@ -35969,7 +35984,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q169">
         <v>2.25</v>
@@ -36587,7 +36602,7 @@
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q172">
         <v>3.75</v>
@@ -36668,7 +36683,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ172">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR172">
         <v>1.57</v>
@@ -36793,7 +36808,7 @@
         <v>87</v>
       </c>
       <c r="P173" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q173">
         <v>2.2</v>
@@ -37205,7 +37220,7 @@
         <v>87</v>
       </c>
       <c r="P175" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q175">
         <v>5.05</v>
@@ -37283,7 +37298,7 @@
         <v>1.7</v>
       </c>
       <c r="AP175">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ175">
         <v>1.75</v>
@@ -37617,7 +37632,7 @@
         <v>205</v>
       </c>
       <c r="P177" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q177">
         <v>2.39</v>
@@ -37698,7 +37713,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ177">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR177">
         <v>1.66</v>
@@ -37901,10 +37916,10 @@
         <v>1.09</v>
       </c>
       <c r="AP178">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ178">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR178">
         <v>1.23</v>
@@ -38519,10 +38534,10 @@
         <v>0.91</v>
       </c>
       <c r="AP181">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AQ181">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR181">
         <v>1.46</v>
@@ -38725,10 +38740,10 @@
         <v>0.8</v>
       </c>
       <c r="AP182">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ182">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR182">
         <v>1.39</v>
@@ -38853,7 +38868,7 @@
         <v>210</v>
       </c>
       <c r="P183" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q183">
         <v>2.8</v>
@@ -38931,7 +38946,7 @@
         <v>1.3</v>
       </c>
       <c r="AP183">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ183">
         <v>1.33</v>
@@ -39059,7 +39074,7 @@
         <v>211</v>
       </c>
       <c r="P184" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39265,7 +39280,7 @@
         <v>212</v>
       </c>
       <c r="P185" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q185">
         <v>1.91</v>
@@ -39552,7 +39567,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ186">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR186">
         <v>1.37</v>
@@ -39677,7 +39692,7 @@
         <v>87</v>
       </c>
       <c r="P187" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q187">
         <v>2.88</v>
@@ -40295,7 +40310,7 @@
         <v>116</v>
       </c>
       <c r="P190" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q190">
         <v>3.2</v>
@@ -40501,7 +40516,7 @@
         <v>101</v>
       </c>
       <c r="P191" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q191">
         <v>3.5</v>
@@ -40991,7 +41006,7 @@
         <v>0.45</v>
       </c>
       <c r="AP193">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ193">
         <v>0.62</v>
@@ -41086,7 +41101,7 @@
         <v>69</v>
       </c>
       <c r="E194" s="2">
-        <v>45584.45833333334</v>
+        <v>45583.875</v>
       </c>
       <c r="F194">
         <v>25</v>
@@ -41292,7 +41307,7 @@
         <v>69</v>
       </c>
       <c r="E195" s="2">
-        <v>45584.54166666666</v>
+        <v>45583.875</v>
       </c>
       <c r="F195">
         <v>25</v>
@@ -41481,6 +41496,1242 @@
         <v>2.6</v>
       </c>
       <c r="BP195">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7295159</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45585.39583333334</v>
+      </c>
+      <c r="F196">
+        <v>25</v>
+      </c>
+      <c r="G196" t="s">
+        <v>75</v>
+      </c>
+      <c r="H196" t="s">
+        <v>84</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196">
+        <v>2</v>
+      </c>
+      <c r="N196">
+        <v>3</v>
+      </c>
+      <c r="O196" t="s">
+        <v>153</v>
+      </c>
+      <c r="P196" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q196">
+        <v>2.75</v>
+      </c>
+      <c r="R196">
+        <v>2.4</v>
+      </c>
+      <c r="S196">
+        <v>3.4</v>
+      </c>
+      <c r="T196">
+        <v>1.29</v>
+      </c>
+      <c r="U196">
+        <v>3.5</v>
+      </c>
+      <c r="V196">
+        <v>2.25</v>
+      </c>
+      <c r="W196">
+        <v>1.57</v>
+      </c>
+      <c r="X196">
+        <v>5.5</v>
+      </c>
+      <c r="Y196">
+        <v>1.14</v>
+      </c>
+      <c r="Z196">
+        <v>2.18</v>
+      </c>
+      <c r="AA196">
+        <v>3.56</v>
+      </c>
+      <c r="AB196">
+        <v>3.18</v>
+      </c>
+      <c r="AC196">
+        <v>1.02</v>
+      </c>
+      <c r="AD196">
+        <v>19</v>
+      </c>
+      <c r="AE196">
+        <v>1.18</v>
+      </c>
+      <c r="AF196">
+        <v>5</v>
+      </c>
+      <c r="AG196">
+        <v>1.58</v>
+      </c>
+      <c r="AH196">
+        <v>2.37</v>
+      </c>
+      <c r="AI196">
+        <v>1.5</v>
+      </c>
+      <c r="AJ196">
+        <v>2.5</v>
+      </c>
+      <c r="AK196">
+        <v>1.42</v>
+      </c>
+      <c r="AL196">
+        <v>1.22</v>
+      </c>
+      <c r="AM196">
+        <v>1.68</v>
+      </c>
+      <c r="AN196">
+        <v>2.33</v>
+      </c>
+      <c r="AO196">
+        <v>1.92</v>
+      </c>
+      <c r="AP196">
+        <v>2.15</v>
+      </c>
+      <c r="AQ196">
+        <v>2</v>
+      </c>
+      <c r="AR196">
+        <v>1.55</v>
+      </c>
+      <c r="AS196">
+        <v>1.51</v>
+      </c>
+      <c r="AT196">
+        <v>3.06</v>
+      </c>
+      <c r="AU196">
+        <v>3</v>
+      </c>
+      <c r="AV196">
+        <v>7</v>
+      </c>
+      <c r="AW196">
+        <v>8</v>
+      </c>
+      <c r="AX196">
+        <v>4</v>
+      </c>
+      <c r="AY196">
+        <v>14</v>
+      </c>
+      <c r="AZ196">
+        <v>12</v>
+      </c>
+      <c r="BA196">
+        <v>4</v>
+      </c>
+      <c r="BB196">
+        <v>9</v>
+      </c>
+      <c r="BC196">
+        <v>13</v>
+      </c>
+      <c r="BD196">
+        <v>1.49</v>
+      </c>
+      <c r="BE196">
+        <v>7.1</v>
+      </c>
+      <c r="BF196">
+        <v>2.7</v>
+      </c>
+      <c r="BG196">
+        <v>1.2</v>
+      </c>
+      <c r="BH196">
+        <v>4.1</v>
+      </c>
+      <c r="BI196">
+        <v>1.38</v>
+      </c>
+      <c r="BJ196">
+        <v>2.85</v>
+      </c>
+      <c r="BK196">
+        <v>1.67</v>
+      </c>
+      <c r="BL196">
+        <v>2.1</v>
+      </c>
+      <c r="BM196">
+        <v>2.12</v>
+      </c>
+      <c r="BN196">
+        <v>1.66</v>
+      </c>
+      <c r="BO196">
+        <v>2.8</v>
+      </c>
+      <c r="BP196">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7295160</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45585.5</v>
+      </c>
+      <c r="F197">
+        <v>25</v>
+      </c>
+      <c r="G197" t="s">
+        <v>76</v>
+      </c>
+      <c r="H197" t="s">
+        <v>70</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>2</v>
+      </c>
+      <c r="K197">
+        <v>3</v>
+      </c>
+      <c r="L197">
+        <v>3</v>
+      </c>
+      <c r="M197">
+        <v>3</v>
+      </c>
+      <c r="N197">
+        <v>6</v>
+      </c>
+      <c r="O197" t="s">
+        <v>215</v>
+      </c>
+      <c r="P197" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q197">
+        <v>1.8</v>
+      </c>
+      <c r="R197">
+        <v>2.75</v>
+      </c>
+      <c r="S197">
+        <v>6.5</v>
+      </c>
+      <c r="T197">
+        <v>1.22</v>
+      </c>
+      <c r="U197">
+        <v>4</v>
+      </c>
+      <c r="V197">
+        <v>2.1</v>
+      </c>
+      <c r="W197">
+        <v>1.67</v>
+      </c>
+      <c r="X197">
+        <v>4.5</v>
+      </c>
+      <c r="Y197">
+        <v>1.18</v>
+      </c>
+      <c r="Z197">
+        <v>1.28</v>
+      </c>
+      <c r="AA197">
+        <v>6.83</v>
+      </c>
+      <c r="AB197">
+        <v>5.49</v>
+      </c>
+      <c r="AC197">
+        <v>1.01</v>
+      </c>
+      <c r="AD197">
+        <v>26</v>
+      </c>
+      <c r="AE197">
+        <v>1.11</v>
+      </c>
+      <c r="AF197">
+        <v>6.5</v>
+      </c>
+      <c r="AG197">
+        <v>1.44</v>
+      </c>
+      <c r="AH197">
+        <v>2.67</v>
+      </c>
+      <c r="AI197">
+        <v>1.7</v>
+      </c>
+      <c r="AJ197">
+        <v>2.05</v>
+      </c>
+      <c r="AK197">
+        <v>1.02</v>
+      </c>
+      <c r="AL197">
+        <v>1.09</v>
+      </c>
+      <c r="AM197">
+        <v>4</v>
+      </c>
+      <c r="AN197">
+        <v>2.25</v>
+      </c>
+      <c r="AO197">
+        <v>0.82</v>
+      </c>
+      <c r="AP197">
+        <v>2.15</v>
+      </c>
+      <c r="AQ197">
+        <v>0.83</v>
+      </c>
+      <c r="AR197">
+        <v>1.56</v>
+      </c>
+      <c r="AS197">
+        <v>0.89</v>
+      </c>
+      <c r="AT197">
+        <v>2.45</v>
+      </c>
+      <c r="AU197">
+        <v>12</v>
+      </c>
+      <c r="AV197">
+        <v>5</v>
+      </c>
+      <c r="AW197">
+        <v>10</v>
+      </c>
+      <c r="AX197">
+        <v>2</v>
+      </c>
+      <c r="AY197">
+        <v>29</v>
+      </c>
+      <c r="AZ197">
+        <v>8</v>
+      </c>
+      <c r="BA197">
+        <v>8</v>
+      </c>
+      <c r="BB197">
+        <v>2</v>
+      </c>
+      <c r="BC197">
+        <v>10</v>
+      </c>
+      <c r="BD197">
+        <v>1.09</v>
+      </c>
+      <c r="BE197">
+        <v>10</v>
+      </c>
+      <c r="BF197">
+        <v>6.3</v>
+      </c>
+      <c r="BG197">
+        <v>1.09</v>
+      </c>
+      <c r="BH197">
+        <v>5.05</v>
+      </c>
+      <c r="BI197">
+        <v>1.3</v>
+      </c>
+      <c r="BJ197">
+        <v>3.25</v>
+      </c>
+      <c r="BK197">
+        <v>1.55</v>
+      </c>
+      <c r="BL197">
+        <v>2.33</v>
+      </c>
+      <c r="BM197">
+        <v>1.92</v>
+      </c>
+      <c r="BN197">
+        <v>1.8</v>
+      </c>
+      <c r="BO197">
+        <v>2.5</v>
+      </c>
+      <c r="BP197">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7295156</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45585.5</v>
+      </c>
+      <c r="F198">
+        <v>25</v>
+      </c>
+      <c r="G198" t="s">
+        <v>77</v>
+      </c>
+      <c r="H198" t="s">
+        <v>83</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>0</v>
+      </c>
+      <c r="O198" t="s">
+        <v>87</v>
+      </c>
+      <c r="P198" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q198">
+        <v>2.4</v>
+      </c>
+      <c r="R198">
+        <v>2.2</v>
+      </c>
+      <c r="S198">
+        <v>4.75</v>
+      </c>
+      <c r="T198">
+        <v>1.4</v>
+      </c>
+      <c r="U198">
+        <v>2.75</v>
+      </c>
+      <c r="V198">
+        <v>3</v>
+      </c>
+      <c r="W198">
+        <v>1.36</v>
+      </c>
+      <c r="X198">
+        <v>8</v>
+      </c>
+      <c r="Y198">
+        <v>1.08</v>
+      </c>
+      <c r="Z198">
+        <v>1.7</v>
+      </c>
+      <c r="AA198">
+        <v>3.88</v>
+      </c>
+      <c r="AB198">
+        <v>4.86</v>
+      </c>
+      <c r="AC198">
+        <v>1.06</v>
+      </c>
+      <c r="AD198">
+        <v>10</v>
+      </c>
+      <c r="AE198">
+        <v>1.35</v>
+      </c>
+      <c r="AF198">
+        <v>3.25</v>
+      </c>
+      <c r="AG198">
+        <v>1.95</v>
+      </c>
+      <c r="AH198">
+        <v>1.85</v>
+      </c>
+      <c r="AI198">
+        <v>1.91</v>
+      </c>
+      <c r="AJ198">
+        <v>1.91</v>
+      </c>
+      <c r="AK198">
+        <v>1.2</v>
+      </c>
+      <c r="AL198">
+        <v>1.25</v>
+      </c>
+      <c r="AM198">
+        <v>2.05</v>
+      </c>
+      <c r="AN198">
+        <v>1</v>
+      </c>
+      <c r="AO198">
+        <v>0.83</v>
+      </c>
+      <c r="AP198">
+        <v>1</v>
+      </c>
+      <c r="AQ198">
+        <v>0.85</v>
+      </c>
+      <c r="AR198">
+        <v>1.34</v>
+      </c>
+      <c r="AS198">
+        <v>1.31</v>
+      </c>
+      <c r="AT198">
+        <v>2.65</v>
+      </c>
+      <c r="AU198">
+        <v>5</v>
+      </c>
+      <c r="AV198">
+        <v>3</v>
+      </c>
+      <c r="AW198">
+        <v>4</v>
+      </c>
+      <c r="AX198">
+        <v>4</v>
+      </c>
+      <c r="AY198">
+        <v>12</v>
+      </c>
+      <c r="AZ198">
+        <v>9</v>
+      </c>
+      <c r="BA198">
+        <v>7</v>
+      </c>
+      <c r="BB198">
+        <v>3</v>
+      </c>
+      <c r="BC198">
+        <v>10</v>
+      </c>
+      <c r="BD198">
+        <v>1.17</v>
+      </c>
+      <c r="BE198">
+        <v>8.5</v>
+      </c>
+      <c r="BF198">
+        <v>4.85</v>
+      </c>
+      <c r="BG198">
+        <v>1.33</v>
+      </c>
+      <c r="BH198">
+        <v>3.05</v>
+      </c>
+      <c r="BI198">
+        <v>1.6</v>
+      </c>
+      <c r="BJ198">
+        <v>2.22</v>
+      </c>
+      <c r="BK198">
+        <v>2.05</v>
+      </c>
+      <c r="BL198">
+        <v>1.7</v>
+      </c>
+      <c r="BM198">
+        <v>2.7</v>
+      </c>
+      <c r="BN198">
+        <v>1.42</v>
+      </c>
+      <c r="BO198">
+        <v>3.7</v>
+      </c>
+      <c r="BP198">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7295154</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45585.5</v>
+      </c>
+      <c r="F199">
+        <v>25</v>
+      </c>
+      <c r="G199" t="s">
+        <v>80</v>
+      </c>
+      <c r="H199" t="s">
+        <v>81</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>2</v>
+      </c>
+      <c r="K199">
+        <v>2</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>2</v>
+      </c>
+      <c r="N199">
+        <v>2</v>
+      </c>
+      <c r="O199" t="s">
+        <v>87</v>
+      </c>
+      <c r="P199" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q199">
+        <v>2.63</v>
+      </c>
+      <c r="R199">
+        <v>2.4</v>
+      </c>
+      <c r="S199">
+        <v>3.5</v>
+      </c>
+      <c r="T199">
+        <v>1.29</v>
+      </c>
+      <c r="U199">
+        <v>3.5</v>
+      </c>
+      <c r="V199">
+        <v>2.25</v>
+      </c>
+      <c r="W199">
+        <v>1.57</v>
+      </c>
+      <c r="X199">
+        <v>5.5</v>
+      </c>
+      <c r="Y199">
+        <v>1.14</v>
+      </c>
+      <c r="Z199">
+        <v>2.08</v>
+      </c>
+      <c r="AA199">
+        <v>3.88</v>
+      </c>
+      <c r="AB199">
+        <v>3.19</v>
+      </c>
+      <c r="AC199">
+        <v>0</v>
+      </c>
+      <c r="AD199">
+        <v>0</v>
+      </c>
+      <c r="AE199">
+        <v>0</v>
+      </c>
+      <c r="AF199">
+        <v>0</v>
+      </c>
+      <c r="AG199">
+        <v>1.6</v>
+      </c>
+      <c r="AH199">
+        <v>2.34</v>
+      </c>
+      <c r="AI199">
+        <v>1.5</v>
+      </c>
+      <c r="AJ199">
+        <v>2.5</v>
+      </c>
+      <c r="AK199">
+        <v>0</v>
+      </c>
+      <c r="AL199">
+        <v>0</v>
+      </c>
+      <c r="AM199">
+        <v>0</v>
+      </c>
+      <c r="AN199">
+        <v>1.18</v>
+      </c>
+      <c r="AO199">
+        <v>1.25</v>
+      </c>
+      <c r="AP199">
+        <v>1.08</v>
+      </c>
+      <c r="AQ199">
+        <v>1.38</v>
+      </c>
+      <c r="AR199">
+        <v>1.33</v>
+      </c>
+      <c r="AS199">
+        <v>1.34</v>
+      </c>
+      <c r="AT199">
+        <v>2.67</v>
+      </c>
+      <c r="AU199">
+        <v>3</v>
+      </c>
+      <c r="AV199">
+        <v>5</v>
+      </c>
+      <c r="AW199">
+        <v>4</v>
+      </c>
+      <c r="AX199">
+        <v>6</v>
+      </c>
+      <c r="AY199">
+        <v>15</v>
+      </c>
+      <c r="AZ199">
+        <v>12</v>
+      </c>
+      <c r="BA199">
+        <v>11</v>
+      </c>
+      <c r="BB199">
+        <v>5</v>
+      </c>
+      <c r="BC199">
+        <v>16</v>
+      </c>
+      <c r="BD199">
+        <v>0</v>
+      </c>
+      <c r="BE199">
+        <v>0</v>
+      </c>
+      <c r="BF199">
+        <v>0</v>
+      </c>
+      <c r="BG199">
+        <v>0</v>
+      </c>
+      <c r="BH199">
+        <v>0</v>
+      </c>
+      <c r="BI199">
+        <v>0</v>
+      </c>
+      <c r="BJ199">
+        <v>0</v>
+      </c>
+      <c r="BK199">
+        <v>0</v>
+      </c>
+      <c r="BL199">
+        <v>0</v>
+      </c>
+      <c r="BM199">
+        <v>0</v>
+      </c>
+      <c r="BN199">
+        <v>0</v>
+      </c>
+      <c r="BO199">
+        <v>0</v>
+      </c>
+      <c r="BP199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7295158</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45585.5</v>
+      </c>
+      <c r="F200">
+        <v>25</v>
+      </c>
+      <c r="G200" t="s">
+        <v>79</v>
+      </c>
+      <c r="H200" t="s">
+        <v>82</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+      <c r="O200" t="s">
+        <v>87</v>
+      </c>
+      <c r="P200" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q200">
+        <v>3</v>
+      </c>
+      <c r="R200">
+        <v>2.4</v>
+      </c>
+      <c r="S200">
+        <v>3</v>
+      </c>
+      <c r="T200">
+        <v>1.29</v>
+      </c>
+      <c r="U200">
+        <v>3.5</v>
+      </c>
+      <c r="V200">
+        <v>2.25</v>
+      </c>
+      <c r="W200">
+        <v>1.57</v>
+      </c>
+      <c r="X200">
+        <v>5.5</v>
+      </c>
+      <c r="Y200">
+        <v>1.14</v>
+      </c>
+      <c r="Z200">
+        <v>2.64</v>
+      </c>
+      <c r="AA200">
+        <v>3.68</v>
+      </c>
+      <c r="AB200">
+        <v>2.49</v>
+      </c>
+      <c r="AC200">
+        <v>1.02</v>
+      </c>
+      <c r="AD200">
+        <v>17</v>
+      </c>
+      <c r="AE200">
+        <v>1.18</v>
+      </c>
+      <c r="AF200">
+        <v>5</v>
+      </c>
+      <c r="AG200">
+        <v>1.5</v>
+      </c>
+      <c r="AH200">
+        <v>2.41</v>
+      </c>
+      <c r="AI200">
+        <v>1.5</v>
+      </c>
+      <c r="AJ200">
+        <v>2.5</v>
+      </c>
+      <c r="AK200">
+        <v>1.47</v>
+      </c>
+      <c r="AL200">
+        <v>1.24</v>
+      </c>
+      <c r="AM200">
+        <v>1.6</v>
+      </c>
+      <c r="AN200">
+        <v>1.67</v>
+      </c>
+      <c r="AO200">
+        <v>1</v>
+      </c>
+      <c r="AP200">
+        <v>1.62</v>
+      </c>
+      <c r="AQ200">
+        <v>1</v>
+      </c>
+      <c r="AR200">
+        <v>1.42</v>
+      </c>
+      <c r="AS200">
+        <v>1.23</v>
+      </c>
+      <c r="AT200">
+        <v>2.65</v>
+      </c>
+      <c r="AU200">
+        <v>2</v>
+      </c>
+      <c r="AV200">
+        <v>4</v>
+      </c>
+      <c r="AW200">
+        <v>8</v>
+      </c>
+      <c r="AX200">
+        <v>4</v>
+      </c>
+      <c r="AY200">
+        <v>18</v>
+      </c>
+      <c r="AZ200">
+        <v>10</v>
+      </c>
+      <c r="BA200">
+        <v>7</v>
+      </c>
+      <c r="BB200">
+        <v>8</v>
+      </c>
+      <c r="BC200">
+        <v>15</v>
+      </c>
+      <c r="BD200">
+        <v>2.08</v>
+      </c>
+      <c r="BE200">
+        <v>7.05</v>
+      </c>
+      <c r="BF200">
+        <v>1.8</v>
+      </c>
+      <c r="BG200">
+        <v>1.12</v>
+      </c>
+      <c r="BH200">
+        <v>5.8</v>
+      </c>
+      <c r="BI200">
+        <v>1.25</v>
+      </c>
+      <c r="BJ200">
+        <v>3.6</v>
+      </c>
+      <c r="BK200">
+        <v>1.43</v>
+      </c>
+      <c r="BL200">
+        <v>2.65</v>
+      </c>
+      <c r="BM200">
+        <v>1.75</v>
+      </c>
+      <c r="BN200">
+        <v>1.98</v>
+      </c>
+      <c r="BO200">
+        <v>2.2</v>
+      </c>
+      <c r="BP200">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="201" spans="1:68">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>7295155</v>
+      </c>
+      <c r="C201" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45585.59375</v>
+      </c>
+      <c r="F201">
+        <v>25</v>
+      </c>
+      <c r="G201" t="s">
+        <v>71</v>
+      </c>
+      <c r="H201" t="s">
+        <v>74</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>2</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="N201">
+        <v>3</v>
+      </c>
+      <c r="O201" t="s">
+        <v>216</v>
+      </c>
+      <c r="P201" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q201">
+        <v>2.63</v>
+      </c>
+      <c r="R201">
+        <v>2.2</v>
+      </c>
+      <c r="S201">
+        <v>4</v>
+      </c>
+      <c r="T201">
+        <v>1.36</v>
+      </c>
+      <c r="U201">
+        <v>3</v>
+      </c>
+      <c r="V201">
+        <v>2.75</v>
+      </c>
+      <c r="W201">
+        <v>1.4</v>
+      </c>
+      <c r="X201">
+        <v>7</v>
+      </c>
+      <c r="Y201">
+        <v>1.1</v>
+      </c>
+      <c r="Z201">
+        <v>1.83</v>
+      </c>
+      <c r="AA201">
+        <v>3.4</v>
+      </c>
+      <c r="AB201">
+        <v>3.6</v>
+      </c>
+      <c r="AC201">
+        <v>1.04</v>
+      </c>
+      <c r="AD201">
+        <v>13</v>
+      </c>
+      <c r="AE201">
+        <v>1.28</v>
+      </c>
+      <c r="AF201">
+        <v>3.75</v>
+      </c>
+      <c r="AG201">
+        <v>1.75</v>
+      </c>
+      <c r="AH201">
+        <v>1.95</v>
+      </c>
+      <c r="AI201">
+        <v>1.75</v>
+      </c>
+      <c r="AJ201">
+        <v>2</v>
+      </c>
+      <c r="AK201">
+        <v>1.3</v>
+      </c>
+      <c r="AL201">
+        <v>1.25</v>
+      </c>
+      <c r="AM201">
+        <v>1.83</v>
+      </c>
+      <c r="AN201">
+        <v>1.67</v>
+      </c>
+      <c r="AO201">
+        <v>1</v>
+      </c>
+      <c r="AP201">
+        <v>1.77</v>
+      </c>
+      <c r="AQ201">
+        <v>0.92</v>
+      </c>
+      <c r="AR201">
+        <v>1.32</v>
+      </c>
+      <c r="AS201">
+        <v>1.32</v>
+      </c>
+      <c r="AT201">
+        <v>2.64</v>
+      </c>
+      <c r="AU201">
+        <v>7</v>
+      </c>
+      <c r="AV201">
+        <v>4</v>
+      </c>
+      <c r="AW201">
+        <v>5</v>
+      </c>
+      <c r="AX201">
+        <v>5</v>
+      </c>
+      <c r="AY201">
+        <v>17</v>
+      </c>
+      <c r="AZ201">
+        <v>11</v>
+      </c>
+      <c r="BA201">
+        <v>5</v>
+      </c>
+      <c r="BB201">
+        <v>5</v>
+      </c>
+      <c r="BC201">
+        <v>10</v>
+      </c>
+      <c r="BD201">
+        <v>1.57</v>
+      </c>
+      <c r="BE201">
+        <v>7.1</v>
+      </c>
+      <c r="BF201">
+        <v>2.5</v>
+      </c>
+      <c r="BG201">
+        <v>1.13</v>
+      </c>
+      <c r="BH201">
+        <v>4.25</v>
+      </c>
+      <c r="BI201">
+        <v>1.34</v>
+      </c>
+      <c r="BJ201">
+        <v>3</v>
+      </c>
+      <c r="BK201">
+        <v>1.6</v>
+      </c>
+      <c r="BL201">
+        <v>2.22</v>
+      </c>
+      <c r="BM201">
+        <v>2.02</v>
+      </c>
+      <c r="BN201">
+        <v>1.72</v>
+      </c>
+      <c r="BO201">
+        <v>2.6</v>
+      </c>
+      <c r="BP201">
         <v>1.45</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -41101,7 +41101,7 @@
         <v>69</v>
       </c>
       <c r="E194" s="2">
-        <v>45583.875</v>
+        <v>45584.45833333334</v>
       </c>
       <c r="F194">
         <v>25</v>
@@ -41248,10 +41248,10 @@
         <v>11</v>
       </c>
       <c r="BB194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC194">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD194">
         <v>0</v>
@@ -41307,7 +41307,7 @@
         <v>69</v>
       </c>
       <c r="E195" s="2">
-        <v>45583.875</v>
+        <v>45584.54166666666</v>
       </c>
       <c r="F195">
         <v>25</v>
@@ -42475,7 +42475,7 @@
         <v>4</v>
       </c>
       <c r="AY200">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ200">
         <v>10</v>
@@ -42546,7 +42546,7 @@
         <v>45585.59375</v>
       </c>
       <c r="F201">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G201" t="s">
         <v>71</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="317">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -665,6 +665,9 @@
   </si>
   <si>
     <t>['50', '78']</t>
+  </si>
+  <si>
+    <t>['12', '55']</t>
   </si>
   <si>
     <t>['39', '90+2']</t>
@@ -1323,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP201"/>
+  <dimension ref="A1:BP202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1582,7 +1585,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1788,7 +1791,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -2200,7 +2203,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2406,7 +2409,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -3436,7 +3439,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3642,7 +3645,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q12">
         <v>5.5</v>
@@ -4132,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4260,7 +4263,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q15">
         <v>2.95</v>
@@ -4466,7 +4469,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4547,7 +4550,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ16">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4672,7 +4675,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4878,7 +4881,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5496,7 +5499,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5908,7 +5911,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6114,7 +6117,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6526,7 +6529,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6732,7 +6735,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -7144,7 +7147,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q29">
         <v>3.6</v>
@@ -7350,7 +7353,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7843,7 +7846,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ32">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR32">
         <v>1.22</v>
@@ -7968,7 +7971,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -8174,7 +8177,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8380,7 +8383,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8998,7 +9001,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q38">
         <v>2.54</v>
@@ -9076,7 +9079,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ38">
         <v>0.75</v>
@@ -9204,7 +9207,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9822,7 +9825,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -10852,7 +10855,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10933,7 +10936,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR47">
         <v>1.24</v>
@@ -11264,7 +11267,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q49">
         <v>4.5</v>
@@ -11676,7 +11679,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11882,7 +11885,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -12166,7 +12169,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ53">
         <v>1.33</v>
@@ -12294,7 +12297,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12375,7 +12378,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR54">
         <v>1.82</v>
@@ -12500,7 +12503,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -13118,7 +13121,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13324,7 +13327,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13530,7 +13533,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -14148,7 +14151,7 @@
         <v>116</v>
       </c>
       <c r="P63" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14354,7 +14357,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14972,7 +14975,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -15178,7 +15181,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15462,7 +15465,7 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ69">
         <v>0.85</v>
@@ -16002,7 +16005,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16083,7 +16086,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ72">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR72">
         <v>1.23</v>
@@ -16208,7 +16211,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16414,7 +16417,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16620,7 +16623,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -17032,7 +17035,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -17444,7 +17447,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17650,7 +17653,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q80">
         <v>2.62</v>
@@ -18062,7 +18065,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18349,7 +18352,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ83">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR83">
         <v>1.53</v>
@@ -18680,7 +18683,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18886,7 +18889,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -19092,7 +19095,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19298,7 +19301,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19582,7 +19585,7 @@
         <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ89">
         <v>0.83</v>
@@ -19916,7 +19919,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20122,7 +20125,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20409,7 +20412,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ93">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR93">
         <v>1.43</v>
@@ -20534,7 +20537,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20740,7 +20743,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -21152,7 +21155,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -21358,7 +21361,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21564,7 +21567,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21770,7 +21773,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21976,7 +21979,7 @@
         <v>117</v>
       </c>
       <c r="P101" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -22800,7 +22803,7 @@
         <v>116</v>
       </c>
       <c r="P105" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q105">
         <v>2.75</v>
@@ -23006,7 +23009,7 @@
         <v>98</v>
       </c>
       <c r="P106" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23212,7 +23215,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23496,7 +23499,7 @@
         <v>0.43</v>
       </c>
       <c r="AP108">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ108">
         <v>0.62</v>
@@ -23705,7 +23708,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ109">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR109">
         <v>1.43</v>
@@ -23830,7 +23833,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -24242,7 +24245,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q112">
         <v>2.95</v>
@@ -24448,7 +24451,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q113">
         <v>2.63</v>
@@ -24654,7 +24657,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -25066,7 +25069,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -25272,7 +25275,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25684,7 +25687,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q119">
         <v>4.2</v>
@@ -25890,7 +25893,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q120">
         <v>1.75</v>
@@ -26096,7 +26099,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q121">
         <v>2.63</v>
@@ -26174,7 +26177,7 @@
         <v>0.83</v>
       </c>
       <c r="AP121">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ121">
         <v>1.17</v>
@@ -26589,7 +26592,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ123">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR123">
         <v>1.15</v>
@@ -26714,7 +26717,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26920,7 +26923,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27126,7 +27129,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27538,7 +27541,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -28156,7 +28159,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28568,7 +28571,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28646,7 +28649,7 @@
         <v>1.63</v>
       </c>
       <c r="AP133">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ133">
         <v>2</v>
@@ -28980,7 +28983,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29186,7 +29189,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q136">
         <v>2.38</v>
@@ -29598,7 +29601,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q138">
         <v>2.7</v>
@@ -30010,7 +30013,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q140">
         <v>3.52</v>
@@ -30628,7 +30631,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q143">
         <v>3.4</v>
@@ -31040,7 +31043,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q145">
         <v>2.65</v>
@@ -31118,7 +31121,7 @@
         <v>1.5</v>
       </c>
       <c r="AP145">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ145">
         <v>0.92</v>
@@ -31246,7 +31249,7 @@
         <v>87</v>
       </c>
       <c r="P146" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31452,7 +31455,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q147">
         <v>2.2</v>
@@ -32070,7 +32073,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -33306,7 +33309,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q156">
         <v>2.1</v>
@@ -33593,7 +33596,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ157">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR157">
         <v>1.29</v>
@@ -33718,7 +33721,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -34542,7 +34545,7 @@
         <v>87</v>
       </c>
       <c r="P162" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -34620,7 +34623,7 @@
         <v>2</v>
       </c>
       <c r="AP162">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ162">
         <v>1.85</v>
@@ -34748,7 +34751,7 @@
         <v>197</v>
       </c>
       <c r="P163" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q163">
         <v>2.85</v>
@@ -34954,7 +34957,7 @@
         <v>97</v>
       </c>
       <c r="P164" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q164">
         <v>2.82</v>
@@ -35160,7 +35163,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35366,7 +35369,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q166">
         <v>1.8</v>
@@ -35984,7 +35987,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q169">
         <v>2.25</v>
@@ -36065,7 +36068,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ169">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR169">
         <v>1.73</v>
@@ -36602,7 +36605,7 @@
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q172">
         <v>3.75</v>
@@ -36808,7 +36811,7 @@
         <v>87</v>
       </c>
       <c r="P173" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q173">
         <v>2.2</v>
@@ -37220,7 +37223,7 @@
         <v>87</v>
       </c>
       <c r="P175" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q175">
         <v>5.05</v>
@@ -37632,7 +37635,7 @@
         <v>205</v>
       </c>
       <c r="P177" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q177">
         <v>2.39</v>
@@ -37710,7 +37713,7 @@
         <v>1.36</v>
       </c>
       <c r="AP177">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ177">
         <v>1.38</v>
@@ -38868,7 +38871,7 @@
         <v>210</v>
       </c>
       <c r="P183" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q183">
         <v>2.8</v>
@@ -39074,7 +39077,7 @@
         <v>211</v>
       </c>
       <c r="P184" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39280,7 +39283,7 @@
         <v>212</v>
       </c>
       <c r="P185" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q185">
         <v>1.91</v>
@@ -39692,7 +39695,7 @@
         <v>87</v>
       </c>
       <c r="P187" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q187">
         <v>2.88</v>
@@ -39773,7 +39776,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ187">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR187">
         <v>1.57</v>
@@ -39976,7 +39979,7 @@
         <v>1.25</v>
       </c>
       <c r="AP188">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ188">
         <v>1.23</v>
@@ -40310,7 +40313,7 @@
         <v>116</v>
       </c>
       <c r="P190" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q190">
         <v>3.2</v>
@@ -40516,7 +40519,7 @@
         <v>101</v>
       </c>
       <c r="P191" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q191">
         <v>3.5</v>
@@ -41546,7 +41549,7 @@
         <v>153</v>
       </c>
       <c r="P196" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q196">
         <v>2.75</v>
@@ -41752,7 +41755,7 @@
         <v>215</v>
       </c>
       <c r="P197" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q197">
         <v>1.8</v>
@@ -42164,7 +42167,7 @@
         <v>87</v>
       </c>
       <c r="P199" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q199">
         <v>2.63</v>
@@ -42733,6 +42736,212 @@
       </c>
       <c r="BP201">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="202" spans="1:68">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>7295164</v>
+      </c>
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" t="s">
+        <v>69</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45591.54166666666</v>
+      </c>
+      <c r="F202">
+        <v>26</v>
+      </c>
+      <c r="G202" t="s">
+        <v>82</v>
+      </c>
+      <c r="H202" t="s">
+        <v>71</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>2</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>2</v>
+      </c>
+      <c r="O202" t="s">
+        <v>217</v>
+      </c>
+      <c r="P202" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q202">
+        <v>2.95</v>
+      </c>
+      <c r="R202">
+        <v>2.1</v>
+      </c>
+      <c r="S202">
+        <v>3.3</v>
+      </c>
+      <c r="T202">
+        <v>1.36</v>
+      </c>
+      <c r="U202">
+        <v>2.88</v>
+      </c>
+      <c r="V202">
+        <v>2.62</v>
+      </c>
+      <c r="W202">
+        <v>1.42</v>
+      </c>
+      <c r="X202">
+        <v>6.4</v>
+      </c>
+      <c r="Y202">
+        <v>1.08</v>
+      </c>
+      <c r="Z202">
+        <v>2.3</v>
+      </c>
+      <c r="AA202">
+        <v>3.4</v>
+      </c>
+      <c r="AB202">
+        <v>2.8</v>
+      </c>
+      <c r="AC202">
+        <v>1.05</v>
+      </c>
+      <c r="AD202">
+        <v>9</v>
+      </c>
+      <c r="AE202">
+        <v>1.25</v>
+      </c>
+      <c r="AF202">
+        <v>3.7</v>
+      </c>
+      <c r="AG202">
+        <v>1.73</v>
+      </c>
+      <c r="AH202">
+        <v>1.95</v>
+      </c>
+      <c r="AI202">
+        <v>1.6</v>
+      </c>
+      <c r="AJ202">
+        <v>2.15</v>
+      </c>
+      <c r="AK202">
+        <v>1.4</v>
+      </c>
+      <c r="AL202">
+        <v>1.25</v>
+      </c>
+      <c r="AM202">
+        <v>1.55</v>
+      </c>
+      <c r="AN202">
+        <v>1.33</v>
+      </c>
+      <c r="AO202">
+        <v>1.67</v>
+      </c>
+      <c r="AP202">
+        <v>1.46</v>
+      </c>
+      <c r="AQ202">
+        <v>1.54</v>
+      </c>
+      <c r="AR202">
+        <v>1.6</v>
+      </c>
+      <c r="AS202">
+        <v>1.14</v>
+      </c>
+      <c r="AT202">
+        <v>2.74</v>
+      </c>
+      <c r="AU202">
+        <v>6</v>
+      </c>
+      <c r="AV202">
+        <v>5</v>
+      </c>
+      <c r="AW202">
+        <v>3</v>
+      </c>
+      <c r="AX202">
+        <v>8</v>
+      </c>
+      <c r="AY202">
+        <v>18</v>
+      </c>
+      <c r="AZ202">
+        <v>15</v>
+      </c>
+      <c r="BA202">
+        <v>4</v>
+      </c>
+      <c r="BB202">
+        <v>4</v>
+      </c>
+      <c r="BC202">
+        <v>8</v>
+      </c>
+      <c r="BD202">
+        <v>1.91</v>
+      </c>
+      <c r="BE202">
+        <v>8.5</v>
+      </c>
+      <c r="BF202">
+        <v>2.1</v>
+      </c>
+      <c r="BG202">
+        <v>0</v>
+      </c>
+      <c r="BH202">
+        <v>0</v>
+      </c>
+      <c r="BI202">
+        <v>0</v>
+      </c>
+      <c r="BJ202">
+        <v>0</v>
+      </c>
+      <c r="BK202">
+        <v>0</v>
+      </c>
+      <c r="BL202">
+        <v>0</v>
+      </c>
+      <c r="BM202">
+        <v>1.8</v>
+      </c>
+      <c r="BN202">
+        <v>2</v>
+      </c>
+      <c r="BO202">
+        <v>2.1</v>
+      </c>
+      <c r="BP202">
+        <v>1.71</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="324">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -670,6 +670,21 @@
     <t>['12', '55']</t>
   </si>
   <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['39', '45+2', '73']</t>
+  </si>
+  <si>
+    <t>['75', '89']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['27', '38', '54', '90+5']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -788,9 +803,6 @@
   </si>
   <si>
     <t>['45+1', '64']</t>
-  </si>
-  <si>
-    <t>['90+6']</t>
   </si>
   <si>
     <t>['36', '63', '89']</t>
@@ -965,6 +977,15 @@
   </si>
   <si>
     <t>['6', '39']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['43', '70']</t>
+  </si>
+  <si>
+    <t>['1', '83', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP202"/>
+  <dimension ref="A1:BP208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1585,7 +1606,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1791,7 +1812,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -2203,7 +2224,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2409,7 +2430,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2487,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ6">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3314,7 +3335,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3439,7 +3460,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3520,7 +3541,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ11">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3645,7 +3666,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q12">
         <v>5.5</v>
@@ -3723,10 +3744,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ12">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3929,10 +3950,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ13">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4263,7 +4284,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q15">
         <v>2.95</v>
@@ -4341,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>0.92</v>
@@ -4469,7 +4490,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4547,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>1.54</v>
@@ -4675,7 +4696,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4881,7 +4902,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5374,7 +5395,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ20">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR20">
         <v>2.32</v>
@@ -5499,7 +5520,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5911,7 +5932,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5989,7 +6010,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ23">
         <v>1.85</v>
@@ -6117,7 +6138,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6401,7 +6422,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>1.23</v>
@@ -6529,7 +6550,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6610,7 +6631,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ26">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR26">
         <v>2.06</v>
@@ -6735,7 +6756,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6813,7 +6834,7 @@
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -7022,7 +7043,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ28">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR28">
         <v>1.11</v>
@@ -7147,7 +7168,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q29">
         <v>3.6</v>
@@ -7225,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7353,7 +7374,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7431,10 +7452,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ30">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR30">
         <v>1.39</v>
@@ -7637,10 +7658,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR31">
         <v>2.08</v>
@@ -7971,7 +7992,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -8049,7 +8070,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ33">
         <v>0.92</v>
@@ -8177,7 +8198,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8258,7 +8279,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ34">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR34">
         <v>1.56</v>
@@ -8383,7 +8404,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8873,7 +8894,7 @@
         <v>0.33</v>
       </c>
       <c r="AP37">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ37">
         <v>1.23</v>
@@ -9001,7 +9022,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q38">
         <v>2.54</v>
@@ -9082,7 +9103,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ38">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR38">
         <v>1.19</v>
@@ -9207,7 +9228,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9825,7 +9846,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9906,7 +9927,7 @@
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR42">
         <v>1.44</v>
@@ -10109,7 +10130,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -10315,10 +10336,10 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR44">
         <v>1.38</v>
@@ -10727,7 +10748,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ46">
         <v>0.92</v>
@@ -10855,7 +10876,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -11267,7 +11288,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q49">
         <v>4.5</v>
@@ -11345,10 +11366,10 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ49">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR49">
         <v>1.32</v>
@@ -11554,7 +11575,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ50">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR50">
         <v>1.33</v>
@@ -11679,7 +11700,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11885,7 +11906,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -12172,7 +12193,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ53">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR53">
         <v>1.7</v>
@@ -12297,7 +12318,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12503,7 +12524,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12581,7 +12602,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ55">
         <v>0.85</v>
@@ -12787,7 +12808,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ56">
         <v>1.38</v>
@@ -12996,7 +13017,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ57">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR57">
         <v>1.51</v>
@@ -13121,7 +13142,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13199,7 +13220,7 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ58">
         <v>2</v>
@@ -13327,7 +13348,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13408,7 +13429,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR59">
         <v>1.19</v>
@@ -13533,7 +13554,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13614,7 +13635,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ60">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR60">
         <v>1.09</v>
@@ -14023,7 +14044,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
         <v>0.62</v>
@@ -14151,7 +14172,7 @@
         <v>116</v>
       </c>
       <c r="P63" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14357,7 +14378,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14435,7 +14456,7 @@
         <v>0.6</v>
       </c>
       <c r="AP64">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ64">
         <v>1.23</v>
@@ -14641,10 +14662,10 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -14850,7 +14871,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ66">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR66">
         <v>1.51</v>
@@ -14975,7 +14996,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -15181,7 +15202,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15259,10 +15280,10 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ68">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR68">
         <v>1.55</v>
@@ -15671,7 +15692,7 @@
         <v>3</v>
       </c>
       <c r="AP70">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ70">
         <v>1.85</v>
@@ -15880,7 +15901,7 @@
         <v>1</v>
       </c>
       <c r="AQ71">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR71">
         <v>1.62</v>
@@ -16005,7 +16026,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16083,7 +16104,7 @@
         <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ72">
         <v>1.54</v>
@@ -16211,7 +16232,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16417,7 +16438,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16623,7 +16644,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16704,7 +16725,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ75">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR75">
         <v>1.51</v>
@@ -16910,7 +16931,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ76">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR76">
         <v>1.37</v>
@@ -17035,7 +17056,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -17116,7 +17137,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ77">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR77">
         <v>1.14</v>
@@ -17319,7 +17340,7 @@
         <v>0.25</v>
       </c>
       <c r="AP78">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ78">
         <v>0.62</v>
@@ -17447,7 +17468,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17653,7 +17674,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q80">
         <v>2.62</v>
@@ -17731,7 +17752,7 @@
         <v>1.2</v>
       </c>
       <c r="AP80">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ80">
         <v>1</v>
@@ -18065,7 +18086,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18143,10 +18164,10 @@
         <v>1.75</v>
       </c>
       <c r="AP82">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ82">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR82">
         <v>2.05</v>
@@ -18555,10 +18576,10 @@
         <v>0.8</v>
       </c>
       <c r="AP84">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ84">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR84">
         <v>1.93</v>
@@ -18683,7 +18704,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18889,7 +18910,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -18967,7 +18988,7 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ86">
         <v>2</v>
@@ -19095,7 +19116,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19176,7 +19197,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ87">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR87">
         <v>1.72</v>
@@ -19301,7 +19322,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19588,7 +19609,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ89">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR89">
         <v>1.54</v>
@@ -19791,7 +19812,7 @@
         <v>2.4</v>
       </c>
       <c r="AP90">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
         <v>1.85</v>
@@ -19919,7 +19940,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20125,7 +20146,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20537,7 +20558,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20615,7 +20636,7 @@
         <v>0.86</v>
       </c>
       <c r="AP94">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ94">
         <v>1.23</v>
@@ -20743,7 +20764,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20821,10 +20842,10 @@
         <v>2.2</v>
       </c>
       <c r="AP95">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ95">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR95">
         <v>1.17</v>
@@ -21027,7 +21048,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ96">
         <v>1</v>
@@ -21155,7 +21176,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -21233,7 +21254,7 @@
         <v>2.5</v>
       </c>
       <c r="AP97">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ97">
         <v>1.85</v>
@@ -21361,7 +21382,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21442,7 +21463,7 @@
         <v>1</v>
       </c>
       <c r="AQ98">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR98">
         <v>1.11</v>
@@ -21567,7 +21588,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21648,7 +21669,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ99">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR99">
         <v>1.54</v>
@@ -21773,7 +21794,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21979,7 +22000,7 @@
         <v>117</v>
       </c>
       <c r="P101" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -22057,10 +22078,10 @@
         <v>0.25</v>
       </c>
       <c r="AP101">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ101">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR101">
         <v>1.41</v>
@@ -22675,10 +22696,10 @@
         <v>0.8</v>
       </c>
       <c r="AP104">
+        <v>1.23</v>
+      </c>
+      <c r="AQ104">
         <v>1.08</v>
-      </c>
-      <c r="AQ104">
-        <v>1.17</v>
       </c>
       <c r="AR104">
         <v>1.2</v>
@@ -22803,7 +22824,7 @@
         <v>116</v>
       </c>
       <c r="P105" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q105">
         <v>2.75</v>
@@ -22881,7 +22902,7 @@
         <v>1.17</v>
       </c>
       <c r="AP105">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ105">
         <v>1.38</v>
@@ -23009,7 +23030,7 @@
         <v>98</v>
       </c>
       <c r="P106" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23090,7 +23111,7 @@
         <v>1</v>
       </c>
       <c r="AQ106">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -23215,7 +23236,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23296,7 +23317,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ107">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR107">
         <v>1.41</v>
@@ -23833,7 +23854,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -23911,7 +23932,7 @@
         <v>0.67</v>
       </c>
       <c r="AP110">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ110">
         <v>1</v>
@@ -24120,7 +24141,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ111">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR111">
         <v>1.22</v>
@@ -24245,7 +24266,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q112">
         <v>2.95</v>
@@ -24451,7 +24472,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q113">
         <v>2.63</v>
@@ -24529,7 +24550,7 @@
         <v>1.43</v>
       </c>
       <c r="AP113">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ113">
         <v>1</v>
@@ -24657,7 +24678,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -24735,7 +24756,7 @@
         <v>2.57</v>
       </c>
       <c r="AP114">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ114">
         <v>1.85</v>
@@ -24944,7 +24965,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ115">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR115">
         <v>1.52</v>
@@ -25069,7 +25090,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -25147,7 +25168,7 @@
         <v>1.4</v>
       </c>
       <c r="AP116">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ116">
         <v>0.85</v>
@@ -25275,7 +25296,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25356,7 +25377,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ117">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR117">
         <v>1.45</v>
@@ -25562,7 +25583,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ118">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR118">
         <v>1.59</v>
@@ -25687,7 +25708,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q119">
         <v>4.2</v>
@@ -25765,7 +25786,7 @@
         <v>1.71</v>
       </c>
       <c r="AP119">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ119">
         <v>2</v>
@@ -25893,7 +25914,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q120">
         <v>1.75</v>
@@ -25974,7 +25995,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ120">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR120">
         <v>1.74</v>
@@ -26099,7 +26120,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q121">
         <v>2.63</v>
@@ -26180,7 +26201,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ121">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR121">
         <v>1.59</v>
@@ -26383,10 +26404,10 @@
         <v>1.83</v>
       </c>
       <c r="AP122">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ122">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR122">
         <v>1.3</v>
@@ -26589,7 +26610,7 @@
         <v>1.75</v>
       </c>
       <c r="AP123">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ123">
         <v>1.54</v>
@@ -26717,7 +26738,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26923,7 +26944,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27129,7 +27150,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27207,7 +27228,7 @@
         <v>1.43</v>
       </c>
       <c r="AP126">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ126">
         <v>1.38</v>
@@ -27541,7 +27562,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27619,7 +27640,7 @@
         <v>1.33</v>
       </c>
       <c r="AP128">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ128">
         <v>0.85</v>
@@ -27828,7 +27849,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ129">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR129">
         <v>1.47</v>
@@ -28034,7 +28055,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ130">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR130">
         <v>1.58</v>
@@ -28159,7 +28180,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28446,7 +28467,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ132">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR132">
         <v>1.23</v>
@@ -28571,7 +28592,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28983,7 +29004,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29061,10 +29082,10 @@
         <v>1.57</v>
       </c>
       <c r="AP135">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ135">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR135">
         <v>1.14</v>
@@ -29189,7 +29210,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q136">
         <v>2.38</v>
@@ -29267,7 +29288,7 @@
         <v>0.5</v>
       </c>
       <c r="AP136">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ136">
         <v>0.62</v>
@@ -29476,7 +29497,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ137">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR137">
         <v>1.4</v>
@@ -29601,7 +29622,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q138">
         <v>2.7</v>
@@ -29679,7 +29700,7 @@
         <v>1.11</v>
       </c>
       <c r="AP138">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ138">
         <v>1</v>
@@ -29885,7 +29906,7 @@
         <v>1.33</v>
       </c>
       <c r="AP139">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ139">
         <v>1.23</v>
@@ -30013,7 +30034,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q140">
         <v>3.52</v>
@@ -30631,7 +30652,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q143">
         <v>3.4</v>
@@ -30709,10 +30730,10 @@
         <v>1.75</v>
       </c>
       <c r="AP143">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ143">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR143">
         <v>1.35</v>
@@ -31043,7 +31064,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q145">
         <v>2.65</v>
@@ -31249,7 +31270,7 @@
         <v>87</v>
       </c>
       <c r="P146" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31455,7 +31476,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q147">
         <v>2.2</v>
@@ -31533,7 +31554,7 @@
         <v>0.89</v>
       </c>
       <c r="AP147">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ147">
         <v>0.85</v>
@@ -31739,10 +31760,10 @@
         <v>1</v>
       </c>
       <c r="AP148">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ148">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR148">
         <v>1.15</v>
@@ -31948,7 +31969,7 @@
         <v>1</v>
       </c>
       <c r="AQ149">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR149">
         <v>1.41</v>
@@ -32073,7 +32094,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32154,7 +32175,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ150">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR150">
         <v>1.52</v>
@@ -32769,10 +32790,10 @@
         <v>1.22</v>
       </c>
       <c r="AP153">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ153">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR153">
         <v>1.32</v>
@@ -33181,10 +33202,10 @@
         <v>0.67</v>
       </c>
       <c r="AP155">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ155">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR155">
         <v>1.53</v>
@@ -33309,7 +33330,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q156">
         <v>2.1</v>
@@ -33593,7 +33614,7 @@
         <v>1.89</v>
       </c>
       <c r="AP157">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ157">
         <v>1.54</v>
@@ -33721,7 +33742,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -34214,7 +34235,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ160">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR160">
         <v>1.27</v>
@@ -34417,7 +34438,7 @@
         <v>0.44</v>
       </c>
       <c r="AP161">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ161">
         <v>0.62</v>
@@ -34545,7 +34566,7 @@
         <v>87</v>
       </c>
       <c r="P162" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -34751,7 +34772,7 @@
         <v>197</v>
       </c>
       <c r="P163" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q163">
         <v>2.85</v>
@@ -34957,7 +34978,7 @@
         <v>97</v>
       </c>
       <c r="P164" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q164">
         <v>2.82</v>
@@ -35038,7 +35059,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ164">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR164">
         <v>1.43</v>
@@ -35163,7 +35184,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35244,7 +35265,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ165">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR165">
         <v>1.5</v>
@@ -35369,7 +35390,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q166">
         <v>1.8</v>
@@ -35447,7 +35468,7 @@
         <v>1.2</v>
       </c>
       <c r="AP166">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ166">
         <v>1.38</v>
@@ -35862,7 +35883,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ168">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR168">
         <v>1.59</v>
@@ -35987,7 +36008,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q169">
         <v>2.25</v>
@@ -36274,7 +36295,7 @@
         <v>1</v>
       </c>
       <c r="AQ170">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR170">
         <v>1.14</v>
@@ -36477,7 +36498,7 @@
         <v>1</v>
       </c>
       <c r="AP171">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ171">
         <v>1</v>
@@ -36605,7 +36626,7 @@
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q172">
         <v>3.75</v>
@@ -36683,7 +36704,7 @@
         <v>1.9</v>
       </c>
       <c r="AP172">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ172">
         <v>2</v>
@@ -36811,7 +36832,7 @@
         <v>87</v>
       </c>
       <c r="P173" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q173">
         <v>2.2</v>
@@ -36889,10 +36910,10 @@
         <v>0.6</v>
       </c>
       <c r="AP173">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ173">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR173">
         <v>1.57</v>
@@ -37095,7 +37116,7 @@
         <v>0.8</v>
       </c>
       <c r="AP174">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ174">
         <v>1</v>
@@ -37223,7 +37244,7 @@
         <v>87</v>
       </c>
       <c r="P175" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q175">
         <v>5.05</v>
@@ -37304,7 +37325,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ175">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR175">
         <v>1.42</v>
@@ -37507,10 +37528,10 @@
         <v>1.8</v>
       </c>
       <c r="AP176">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ176">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR176">
         <v>1.89</v>
@@ -37635,7 +37656,7 @@
         <v>205</v>
       </c>
       <c r="P177" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q177">
         <v>2.39</v>
@@ -37919,7 +37940,7 @@
         <v>1.09</v>
       </c>
       <c r="AP178">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ178">
         <v>0.92</v>
@@ -38125,7 +38146,7 @@
         <v>2.09</v>
       </c>
       <c r="AP179">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ179">
         <v>1.85</v>
@@ -38746,7 +38767,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ182">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR182">
         <v>1.39</v>
@@ -38871,7 +38892,7 @@
         <v>210</v>
       </c>
       <c r="P183" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q183">
         <v>2.8</v>
@@ -38952,7 +38973,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ183">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR183">
         <v>1.29</v>
@@ -39077,7 +39098,7 @@
         <v>211</v>
       </c>
       <c r="P184" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39158,7 +39179,7 @@
         <v>1</v>
       </c>
       <c r="AQ184">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR184">
         <v>1.39</v>
@@ -39283,7 +39304,7 @@
         <v>212</v>
       </c>
       <c r="P185" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q185">
         <v>1.91</v>
@@ -39364,7 +39385,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ185">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR185">
         <v>1.79</v>
@@ -39567,7 +39588,7 @@
         <v>1.82</v>
       </c>
       <c r="AP186">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ186">
         <v>2</v>
@@ -39695,7 +39716,7 @@
         <v>87</v>
       </c>
       <c r="P187" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q187">
         <v>2.88</v>
@@ -39773,7 +39794,7 @@
         <v>1.55</v>
       </c>
       <c r="AP187">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ187">
         <v>1.54</v>
@@ -40188,7 +40209,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ189">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR189">
         <v>1.75</v>
@@ -40313,7 +40334,7 @@
         <v>116</v>
       </c>
       <c r="P190" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q190">
         <v>3.2</v>
@@ -40391,10 +40412,10 @@
         <v>1.18</v>
       </c>
       <c r="AP190">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ190">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR190">
         <v>1.31</v>
@@ -40519,7 +40540,7 @@
         <v>101</v>
       </c>
       <c r="P191" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q191">
         <v>3.5</v>
@@ -40600,7 +40621,7 @@
         <v>1</v>
       </c>
       <c r="AQ191">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR191">
         <v>1.14</v>
@@ -40803,7 +40824,7 @@
         <v>0.82</v>
       </c>
       <c r="AP192">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ192">
         <v>1</v>
@@ -41549,7 +41570,7 @@
         <v>153</v>
       </c>
       <c r="P196" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q196">
         <v>2.75</v>
@@ -41755,7 +41776,7 @@
         <v>215</v>
       </c>
       <c r="P197" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q197">
         <v>1.8</v>
@@ -41836,7 +41857,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ197">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR197">
         <v>1.56</v>
@@ -42167,7 +42188,7 @@
         <v>87</v>
       </c>
       <c r="P199" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q199">
         <v>2.63</v>
@@ -42245,7 +42266,7 @@
         <v>1.25</v>
       </c>
       <c r="AP199">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ199">
         <v>1.38</v>
@@ -42752,7 +42773,7 @@
         <v>69</v>
       </c>
       <c r="E202" s="2">
-        <v>45591.54166666666</v>
+        <v>45590.875</v>
       </c>
       <c r="F202">
         <v>26</v>
@@ -42942,6 +42963,1242 @@
       </c>
       <c r="BP202">
         <v>1.71</v>
+      </c>
+    </row>
+    <row r="203" spans="1:68">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>7295162</v>
+      </c>
+      <c r="C203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D203" t="s">
+        <v>69</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45592.54166666666</v>
+      </c>
+      <c r="F203">
+        <v>26</v>
+      </c>
+      <c r="G203" t="s">
+        <v>80</v>
+      </c>
+      <c r="H203" t="s">
+        <v>79</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>1</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <v>1</v>
+      </c>
+      <c r="O203" t="s">
+        <v>218</v>
+      </c>
+      <c r="P203" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q203">
+        <v>2.4</v>
+      </c>
+      <c r="R203">
+        <v>2.38</v>
+      </c>
+      <c r="S203">
+        <v>4</v>
+      </c>
+      <c r="T203">
+        <v>1.3</v>
+      </c>
+      <c r="U203">
+        <v>3.4</v>
+      </c>
+      <c r="V203">
+        <v>2.5</v>
+      </c>
+      <c r="W203">
+        <v>1.5</v>
+      </c>
+      <c r="X203">
+        <v>6</v>
+      </c>
+      <c r="Y203">
+        <v>1.13</v>
+      </c>
+      <c r="Z203">
+        <v>1.88</v>
+      </c>
+      <c r="AA203">
+        <v>3.5</v>
+      </c>
+      <c r="AB203">
+        <v>3.6</v>
+      </c>
+      <c r="AC203">
+        <v>1.02</v>
+      </c>
+      <c r="AD203">
+        <v>11</v>
+      </c>
+      <c r="AE203">
+        <v>1.24</v>
+      </c>
+      <c r="AF203">
+        <v>4.26</v>
+      </c>
+      <c r="AG203">
+        <v>1.63</v>
+      </c>
+      <c r="AH203">
+        <v>2.28</v>
+      </c>
+      <c r="AI203">
+        <v>1.57</v>
+      </c>
+      <c r="AJ203">
+        <v>2.25</v>
+      </c>
+      <c r="AK203">
+        <v>1.22</v>
+      </c>
+      <c r="AL203">
+        <v>1.31</v>
+      </c>
+      <c r="AM203">
+        <v>1.99</v>
+      </c>
+      <c r="AN203">
+        <v>1.08</v>
+      </c>
+      <c r="AO203">
+        <v>0.75</v>
+      </c>
+      <c r="AP203">
+        <v>1.23</v>
+      </c>
+      <c r="AQ203">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR203">
+        <v>1.33</v>
+      </c>
+      <c r="AS203">
+        <v>0.98</v>
+      </c>
+      <c r="AT203">
+        <v>2.31</v>
+      </c>
+      <c r="AU203">
+        <v>2</v>
+      </c>
+      <c r="AV203">
+        <v>5</v>
+      </c>
+      <c r="AW203">
+        <v>6</v>
+      </c>
+      <c r="AX203">
+        <v>6</v>
+      </c>
+      <c r="AY203">
+        <v>10</v>
+      </c>
+      <c r="AZ203">
+        <v>12</v>
+      </c>
+      <c r="BA203">
+        <v>7</v>
+      </c>
+      <c r="BB203">
+        <v>4</v>
+      </c>
+      <c r="BC203">
+        <v>11</v>
+      </c>
+      <c r="BD203">
+        <v>1.26</v>
+      </c>
+      <c r="BE203">
+        <v>8.5</v>
+      </c>
+      <c r="BF203">
+        <v>3.75</v>
+      </c>
+      <c r="BG203">
+        <v>0</v>
+      </c>
+      <c r="BH203">
+        <v>0</v>
+      </c>
+      <c r="BI203">
+        <v>1.15</v>
+      </c>
+      <c r="BJ203">
+        <v>4</v>
+      </c>
+      <c r="BK203">
+        <v>1.36</v>
+      </c>
+      <c r="BL203">
+        <v>2.9</v>
+      </c>
+      <c r="BM203">
+        <v>1.56</v>
+      </c>
+      <c r="BN203">
+        <v>2.31</v>
+      </c>
+      <c r="BO203">
+        <v>1.94</v>
+      </c>
+      <c r="BP203">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="204" spans="1:68">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>7295163</v>
+      </c>
+      <c r="C204" t="s">
+        <v>68</v>
+      </c>
+      <c r="D204" t="s">
+        <v>69</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45592.54166666666</v>
+      </c>
+      <c r="F204">
+        <v>26</v>
+      </c>
+      <c r="G204" t="s">
+        <v>74</v>
+      </c>
+      <c r="H204" t="s">
+        <v>70</v>
+      </c>
+      <c r="I204">
+        <v>2</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>2</v>
+      </c>
+      <c r="L204">
+        <v>3</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>3</v>
+      </c>
+      <c r="O204" t="s">
+        <v>219</v>
+      </c>
+      <c r="P204" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q204">
+        <v>2.2</v>
+      </c>
+      <c r="R204">
+        <v>2.4</v>
+      </c>
+      <c r="S204">
+        <v>4.75</v>
+      </c>
+      <c r="T204">
+        <v>1.3</v>
+      </c>
+      <c r="U204">
+        <v>3.4</v>
+      </c>
+      <c r="V204">
+        <v>2.38</v>
+      </c>
+      <c r="W204">
+        <v>1.53</v>
+      </c>
+      <c r="X204">
+        <v>6</v>
+      </c>
+      <c r="Y204">
+        <v>1.13</v>
+      </c>
+      <c r="Z204">
+        <v>1.61</v>
+      </c>
+      <c r="AA204">
+        <v>3.9</v>
+      </c>
+      <c r="AB204">
+        <v>4.5</v>
+      </c>
+      <c r="AC204">
+        <v>1.02</v>
+      </c>
+      <c r="AD204">
+        <v>11</v>
+      </c>
+      <c r="AE204">
+        <v>1.28</v>
+      </c>
+      <c r="AF204">
+        <v>3.9</v>
+      </c>
+      <c r="AG204">
+        <v>1.61</v>
+      </c>
+      <c r="AH204">
+        <v>2.33</v>
+      </c>
+      <c r="AI204">
+        <v>1.67</v>
+      </c>
+      <c r="AJ204">
+        <v>2.1</v>
+      </c>
+      <c r="AK204">
+        <v>1.2</v>
+      </c>
+      <c r="AL204">
+        <v>1.25</v>
+      </c>
+      <c r="AM204">
+        <v>2.27</v>
+      </c>
+      <c r="AN204">
+        <v>0.75</v>
+      </c>
+      <c r="AO204">
+        <v>0.83</v>
+      </c>
+      <c r="AP204">
+        <v>0.92</v>
+      </c>
+      <c r="AQ204">
+        <v>0.77</v>
+      </c>
+      <c r="AR204">
+        <v>1.3</v>
+      </c>
+      <c r="AS204">
+        <v>0.91</v>
+      </c>
+      <c r="AT204">
+        <v>2.21</v>
+      </c>
+      <c r="AU204">
+        <v>11</v>
+      </c>
+      <c r="AV204">
+        <v>5</v>
+      </c>
+      <c r="AW204">
+        <v>4</v>
+      </c>
+      <c r="AX204">
+        <v>2</v>
+      </c>
+      <c r="AY204">
+        <v>18</v>
+      </c>
+      <c r="AZ204">
+        <v>8</v>
+      </c>
+      <c r="BA204">
+        <v>6</v>
+      </c>
+      <c r="BB204">
+        <v>1</v>
+      </c>
+      <c r="BC204">
+        <v>7</v>
+      </c>
+      <c r="BD204">
+        <v>1.2</v>
+      </c>
+      <c r="BE204">
+        <v>8.5</v>
+      </c>
+      <c r="BF204">
+        <v>4.4</v>
+      </c>
+      <c r="BG204">
+        <v>1.13</v>
+      </c>
+      <c r="BH204">
+        <v>4.3</v>
+      </c>
+      <c r="BI204">
+        <v>1.34</v>
+      </c>
+      <c r="BJ204">
+        <v>3</v>
+      </c>
+      <c r="BK204">
+        <v>1.57</v>
+      </c>
+      <c r="BL204">
+        <v>2.3</v>
+      </c>
+      <c r="BM204">
+        <v>1.92</v>
+      </c>
+      <c r="BN204">
+        <v>1.88</v>
+      </c>
+      <c r="BO204">
+        <v>2.41</v>
+      </c>
+      <c r="BP204">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="205" spans="1:68">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>7295166</v>
+      </c>
+      <c r="C205" t="s">
+        <v>68</v>
+      </c>
+      <c r="D205" t="s">
+        <v>69</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45592.54166666666</v>
+      </c>
+      <c r="F205">
+        <v>26</v>
+      </c>
+      <c r="G205" t="s">
+        <v>85</v>
+      </c>
+      <c r="H205" t="s">
+        <v>77</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>2</v>
+      </c>
+      <c r="M205">
+        <v>1</v>
+      </c>
+      <c r="N205">
+        <v>3</v>
+      </c>
+      <c r="O205" t="s">
+        <v>220</v>
+      </c>
+      <c r="P205" t="s">
+       